--- a/obsidian-notes/spreadsheets/area.xlsx
+++ b/obsidian-notes/spreadsheets/area.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4179229009c49077/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sharm\iCloudDrive\iCloud~md~obsidian\Ishan's notes\Spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="359" documentId="8_{8453F93C-6B6D-4163-BD3D-7151D2DC48D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9772DD56-ABBF-4754-A49B-F016B944A44B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62555520-D87F-4F95-BA69-A9F2EFE49DA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" xr2:uid="{94B94BC7-FBC8-4BAC-A974-CA3E4662C848}"/>
   </bookViews>
@@ -386,10 +386,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -691,8 +687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F489DD57-E97E-46C5-91B6-044FDCA9CA47}">
   <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1088,7 +1084,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="3" t="s">
         <v>22</v>
       </c>
@@ -1101,7 +1097,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A34" s="4" t="s">
         <v>23</v>
       </c>
@@ -1114,8 +1110,8 @@
         <v>627672.63850000012</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:7" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>64</v>
       </c>
@@ -1123,7 +1119,7 @@
         <v>131324241</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>65</v>
       </c>
@@ -1136,7 +1132,7 @@
         <v>209.22409699718011</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>74</v>
       </c>
@@ -1147,44 +1143,44 @@
         <v>64</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>73</v>
       </c>
       <c r="B41" s="14">
         <f>1-SUM(B42:B49)</f>
-        <v>0.42399999999999993</v>
+        <v>0.36399999999999988</v>
       </c>
       <c r="C41" s="15">
         <f>B$36*B41</f>
-        <v>55681478.183999993</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>47802023.723999985</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
+        <v>76</v>
+      </c>
+      <c r="B42" s="13">
+        <v>0.159</v>
+      </c>
+      <c r="C42" s="15">
+        <f>B$36*B42</f>
+        <v>20880554.319000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" t="s">
         <v>72</v>
       </c>
-      <c r="B42" s="13">
+      <c r="B43" s="13">
         <v>0.108</v>
       </c>
-      <c r="C42" s="15">
-        <f t="shared" ref="C42:C50" si="0">B$36*B42</f>
+      <c r="C43" s="15">
+        <f>B$36*B43</f>
         <v>14183018.027999999</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" t="s">
-        <v>76</v>
-      </c>
-      <c r="B43" s="13">
-        <v>9.9000000000000005E-2</v>
-      </c>
-      <c r="C43" s="15">
-        <f t="shared" si="0"/>
-        <v>13001099.859000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>71</v>
       </c>
@@ -1192,11 +1188,11 @@
         <v>7.5999999999999998E-2</v>
       </c>
       <c r="C44" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C44:C50" si="0">B$36*B44</f>
         <v>9980642.3159999996</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>70</v>
       </c>
@@ -1208,7 +1204,7 @@
         <v>6828860.5319999997</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>69</v>
       </c>
@@ -1220,7 +1216,7 @@
         <v>4071051.4709999999</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>68</v>
       </c>
@@ -1231,8 +1227,9 @@
         <f t="shared" si="0"/>
         <v>18516717.980999999</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="G47" s="13"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>67</v>
       </c>
@@ -1264,7 +1261,7 @@
         <v>1</v>
       </c>
       <c r="C50" s="15">
-        <f t="shared" si="0"/>
+        <f>B$36*B50</f>
         <v>131324241</v>
       </c>
     </row>

--- a/obsidian-notes/spreadsheets/area.xlsx
+++ b/obsidian-notes/spreadsheets/area.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sharm\iCloudDrive\iCloud~md~obsidian\Ishan's notes\Spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62555520-D87F-4F95-BA69-A9F2EFE49DA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A22B9C3-F02C-4400-BFB4-95DFCE7BEBF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" xr2:uid="{94B94BC7-FBC8-4BAC-A974-CA3E4662C848}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" activeTab="1" xr2:uid="{94B94BC7-FBC8-4BAC-A974-CA3E4662C848}"/>
   </bookViews>
   <sheets>
     <sheet name="france" sheetId="1" r:id="rId1"/>
     <sheet name="united states" sheetId="2" r:id="rId2"/>
+    <sheet name="buenaventura" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="205">
   <si>
     <t>OTL Metro France</t>
   </si>
@@ -102,9 +104,6 @@
     <t>St. Pierre and Miquelon</t>
   </si>
   <si>
-    <t>Tobago</t>
-  </si>
-  <si>
     <t>Overseas</t>
   </si>
   <si>
@@ -271,6 +270,390 @@
   </si>
   <si>
     <t>Dutch Limburg</t>
+  </si>
+  <si>
+    <t>Macapá Spatiodrome</t>
+  </si>
+  <si>
+    <t>Delaware</t>
+  </si>
+  <si>
+    <t>Pennsylvania</t>
+  </si>
+  <si>
+    <t>New Jersey</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Connecticut</t>
+  </si>
+  <si>
+    <t>Massachusetts</t>
+  </si>
+  <si>
+    <t>Maryland</t>
+  </si>
+  <si>
+    <t>South Carolina</t>
+  </si>
+  <si>
+    <t>New Hampshire</t>
+  </si>
+  <si>
+    <t>Virginia</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>North Carolina</t>
+  </si>
+  <si>
+    <t>Rhode Island</t>
+  </si>
+  <si>
+    <t>Vermont</t>
+  </si>
+  <si>
+    <t>Kentucky</t>
+  </si>
+  <si>
+    <t>Tennessee</t>
+  </si>
+  <si>
+    <t>Ohio</t>
+  </si>
+  <si>
+    <t>Indiana</t>
+  </si>
+  <si>
+    <t>Yazoo</t>
+  </si>
+  <si>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t>Mississippi</t>
+  </si>
+  <si>
+    <t>Orleans</t>
+  </si>
+  <si>
+    <t>Michigan</t>
+  </si>
+  <si>
+    <t>Missouri</t>
+  </si>
+  <si>
+    <t>Wisconsan</t>
+  </si>
+  <si>
+    <t>Arkansaw</t>
+  </si>
+  <si>
+    <t>West Florida</t>
+  </si>
+  <si>
+    <t>Iowa</t>
+  </si>
+  <si>
+    <t>Ontonagon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nebraska </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kansas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maine </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Olympia </t>
+  </si>
+  <si>
+    <t>New Virginia</t>
+  </si>
+  <si>
+    <t>Franklin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pembina </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anacostia </t>
+  </si>
+  <si>
+    <t>Tahosa</t>
+  </si>
+  <si>
+    <t>Washingtonia</t>
+  </si>
+  <si>
+    <t>Minasota</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jefferson </t>
+  </si>
+  <si>
+    <t>Cheyenne</t>
+  </si>
+  <si>
+    <t>Cimarron</t>
+  </si>
+  <si>
+    <t>East Florida</t>
+  </si>
+  <si>
+    <t>Apportionment</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>seats</t>
+  </si>
+  <si>
+    <t>sd</t>
+  </si>
+  <si>
+    <t>quota</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>geometric mean</t>
+  </si>
+  <si>
+    <t>cube root</t>
+  </si>
+  <si>
+    <t>States</t>
+  </si>
+  <si>
+    <t>Rank by admission</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Buenaventura</t>
+  </si>
+  <si>
+    <t>Northern Mexico</t>
+  </si>
+  <si>
+    <t>OTL US</t>
+  </si>
+  <si>
+    <t>(-)TTL US</t>
+  </si>
+  <si>
+    <t>Montana west of Continental divide</t>
+  </si>
+  <si>
+    <t>Oregon</t>
+  </si>
+  <si>
+    <t>Wyoming (oregon part)</t>
+  </si>
+  <si>
+    <t>Washington (less Olympia)</t>
+  </si>
+  <si>
+    <t>(-)Columbia part</t>
+  </si>
+  <si>
+    <t>Western US</t>
+  </si>
+  <si>
+    <t>(-)Extra US</t>
+  </si>
+  <si>
+    <t>Rank</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>City proper</t>
+  </si>
+  <si>
+    <t>Metropolitan</t>
+  </si>
+  <si>
+    <t>New York City</t>
+  </si>
+  <si>
+    <t>St. Louis</t>
+  </si>
+  <si>
+    <t>Cincinnati</t>
+  </si>
+  <si>
+    <t>Philadelphia</t>
+  </si>
+  <si>
+    <t>Boston</t>
+  </si>
+  <si>
+    <t>Richmond</t>
+  </si>
+  <si>
+    <t>Memphis</t>
+  </si>
+  <si>
+    <t>Washington[1]</t>
+  </si>
+  <si>
+    <t>Anacostia</t>
+  </si>
+  <si>
+    <t>New Orleans</t>
+  </si>
+  <si>
+    <t>St. Paul</t>
+  </si>
+  <si>
+    <t>Black Rock</t>
+  </si>
+  <si>
+    <t>Port Townsend</t>
+  </si>
+  <si>
+    <t>Sandusky</t>
+  </si>
+  <si>
+    <t>Louisville</t>
+  </si>
+  <si>
+    <t>East St. Louis</t>
+  </si>
+  <si>
+    <t>Chicago</t>
+  </si>
+  <si>
+    <t>Pittsburgh</t>
+  </si>
+  <si>
+    <t>Persicia[3]</t>
+  </si>
+  <si>
+    <t>Jersey City[4]</t>
+  </si>
+  <si>
+    <t>Charleston</t>
+  </si>
+  <si>
+    <t>Michigan City</t>
+  </si>
+  <si>
+    <t>Concord[5]</t>
+  </si>
+  <si>
+    <t>Toledo</t>
+  </si>
+  <si>
+    <t>St. Augustine</t>
+  </si>
+  <si>
+    <t>Lille[6]</t>
+  </si>
+  <si>
+    <t>Independence</t>
+  </si>
+  <si>
+    <t>Baltimore</t>
+  </si>
+  <si>
+    <t>Milwaukie</t>
+  </si>
+  <si>
+    <t>Columbus</t>
+  </si>
+  <si>
+    <t>Peoria</t>
+  </si>
+  <si>
+    <t>Wilmington</t>
+  </si>
+  <si>
+    <t>Fort Wayne</t>
+  </si>
+  <si>
+    <t>Cities tabulation</t>
+  </si>
+  <si>
+    <t>Province</t>
+  </si>
+  <si>
+    <t>Metropolitan population</t>
+  </si>
+  <si>
+    <t>San Francisco(a)</t>
+  </si>
+  <si>
+    <t>North California</t>
+  </si>
+  <si>
+    <t>Monterrey</t>
+  </si>
+  <si>
+    <t>New Leon</t>
+  </si>
+  <si>
+    <t>Matamoros</t>
+  </si>
+  <si>
+    <t>New Santander</t>
+  </si>
+  <si>
+    <t>El Paso</t>
+  </si>
+  <si>
+    <t>North New Vizcaya</t>
+  </si>
+  <si>
+    <t>San Diego</t>
+  </si>
+  <si>
+    <t>South California</t>
+  </si>
+  <si>
+    <t>San Antonio</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>San Patricio (b)</t>
+  </si>
+  <si>
+    <t>New Darmstadt(c)</t>
+  </si>
+  <si>
+    <t>Tampico</t>
+  </si>
+  <si>
+    <t>Conalia(d)</t>
+  </si>
+  <si>
+    <t>New Mexico</t>
+  </si>
+  <si>
+    <t>Pimeria</t>
+  </si>
+  <si>
+    <t>South New Vizcaya</t>
+  </si>
+  <si>
+    <t>Yuta</t>
+  </si>
+  <si>
+    <t>New Extremadura</t>
   </si>
 </sst>
 </file>
@@ -306,15 +689,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -342,13 +737,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -366,6 +770,17 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -687,24 +1102,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F489DD57-E97E-46C5-91B6-044FDCA9CA47}">
   <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.83984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7890625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="17"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="28"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -716,7 +1131,7 @@
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -728,7 +1143,7 @@
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -740,7 +1155,7 @@
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -751,9 +1166,9 @@
         <v>875.8</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B6" s="1">
         <v>2148</v>
@@ -762,7 +1177,7 @@
         <v>2210</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>5</v>
       </c>
@@ -773,11 +1188,11 @@
         <v>2570</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="I8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J8">
         <v>626.79999999999995</v>
@@ -786,11 +1201,11 @@
         <v>626.79999999999995</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="I9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J9">
         <v>642.37</v>
@@ -799,11 +1214,11 @@
         <v>642.37</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="I10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J10">
         <v>989.05</v>
@@ -812,11 +1227,11 @@
         <v>989.05</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="I11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J11">
         <v>782.18</v>
@@ -825,11 +1240,11 @@
         <v>782.18</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="I12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J12">
         <v>24.12</v>
@@ -838,11 +1253,11 @@
         <v>24.12</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="I13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J13">
         <v>26.34</v>
@@ -851,11 +1266,11 @@
         <v>26.34</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="I14" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J14" s="3">
         <f>(1/4)*105.25</f>
@@ -866,7 +1281,7 @@
         <v>26.3125</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
         <v>6</v>
       </c>
@@ -879,11 +1294,11 @@
         <v>16737.037499999999</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="I16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J16">
         <f>0.5*5289.81</f>
@@ -894,11 +1309,11 @@
         <v>2644.9050000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="I17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J17">
         <f>0.6*7364.71</f>
@@ -909,7 +1324,7 @@
         <v>4418.826</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E18" s="3" t="s">
         <v>8</v>
       </c>
@@ -922,7 +1337,7 @@
         <v>7063.7309999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -935,7 +1350,7 @@
         <v>26370.768499999998</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
         <v>9</v>
       </c>
@@ -946,7 +1361,7 @@
         <v>282.49</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
         <v>10</v>
       </c>
@@ -957,7 +1372,7 @@
         <v>3211.94</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E22" t="s">
         <v>11</v>
       </c>
@@ -968,7 +1383,7 @@
         <v>5224.49</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
         <v>12</v>
       </c>
@@ -979,7 +1394,7 @@
         <v>1671.42</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
         <v>13</v>
       </c>
@@ -990,7 +1405,7 @@
         <v>802.24</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E25" t="s">
         <v>14</v>
       </c>
@@ -1001,7 +1416,7 @@
         <v>838.51</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E26" t="s">
         <v>15</v>
       </c>
@@ -1012,7 +1427,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E27" t="s">
         <v>16</v>
       </c>
@@ -1023,7 +1438,7 @@
         <v>89.55</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E28" s="3" t="s">
         <v>17</v>
       </c>
@@ -1036,7 +1451,7 @@
         <v>42.029999999999994</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>7</v>
       </c>
@@ -1049,7 +1464,7 @@
         <v>12703.67</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>18</v>
       </c>
@@ -1062,7 +1477,7 @@
         <v>627130.63850000012</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="E31" t="s">
         <v>20</v>
       </c>
@@ -1073,79 +1488,79 @@
         <v>242</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E32" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F32" s="3">
+        <v>500</v>
+      </c>
+      <c r="G32" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="F32" s="3">
-        <v>300</v>
-      </c>
-      <c r="G32" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="B33" s="3">
         <f>SUM(F31:F32)</f>
-        <v>542</v>
+        <v>742</v>
       </c>
       <c r="C33" s="3">
         <f>SUM(G31:G32)</f>
-        <v>542</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B34" s="5">
         <f>SUM(B30:B33)</f>
-        <v>625583.83850000007</v>
+        <v>625783.83850000007</v>
       </c>
       <c r="C34" s="5">
         <f>SUM(C30:C33)</f>
-        <v>627672.63850000012</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>627872.63850000012</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B36" s="11">
         <v>131324241</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B38" s="12">
         <f>$B$36/B34</f>
-        <v>209.92268808427661</v>
+        <v>209.85559696585227</v>
       </c>
       <c r="C38" s="12">
         <f>$B$36/C34</f>
-        <v>209.22409699718011</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>209.15745160314066</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>73</v>
+      </c>
+      <c r="B40" t="s">
         <v>74</v>
       </c>
-      <c r="B40" t="s">
-        <v>75</v>
-      </c>
       <c r="C40" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B41" s="14">
         <f>1-SUM(B42:B49)</f>
@@ -1156,9 +1571,9 @@
         <v>47802023.723999985</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B42" s="13">
         <v>0.159</v>
@@ -1168,9 +1583,9 @@
         <v>20880554.319000002</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B43" s="13">
         <v>0.108</v>
@@ -1180,21 +1595,21 @@
         <v>14183018.027999999</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B44" s="13">
         <v>7.5999999999999998E-2</v>
       </c>
       <c r="C44" s="15">
-        <f t="shared" ref="C44:C50" si="0">B$36*B44</f>
+        <f t="shared" ref="C44:C49" si="0">B$36*B44</f>
         <v>9980642.3159999996</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B45" s="13">
         <v>5.1999999999999998E-2</v>
@@ -1204,9 +1619,9 @@
         <v>6828860.5319999997</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B46" s="13">
         <v>3.1E-2</v>
@@ -1216,9 +1631,9 @@
         <v>4071051.4709999999</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B47" s="13">
         <v>0.14099999999999999</v>
@@ -1229,9 +1644,9 @@
       </c>
       <c r="G47" s="13"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B48" s="13">
         <v>4.8000000000000001E-2</v>
@@ -1241,9 +1656,9 @@
         <v>6303563.568</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B49" s="13">
         <v>2.1000000000000001E-2</v>
@@ -1253,9 +1668,9 @@
         <v>2757809.0610000002</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B50" s="16">
         <v>1</v>
@@ -1275,26 +1690,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C745E12-030D-4421-A6DC-982053D4A77E}">
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:K127"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="11.578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.15625" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="4" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="E2" t="s">
-        <v>25</v>
       </c>
       <c r="F2" s="1">
         <v>419350</v>
@@ -1303,9 +1721,9 @@
         <v>469616</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F3" s="1">
         <v>629114</v>
@@ -1314,9 +1732,9 @@
         <v>780541</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F4" s="1">
         <v>686507</v>
@@ -1325,9 +1743,9 @@
         <v>758842</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E5" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F5" s="6">
         <v>461769</v>
@@ -1336,9 +1754,9 @@
         <v>475014</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6">
         <f>SUM(F2:F5)</f>
@@ -1349,9 +1767,9 @@
         <v>2484013</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F7">
         <f>1314730-211754</f>
@@ -1362,9 +1780,9 @@
         <v>1134615</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J8" s="1">
         <v>4750</v>
@@ -1373,9 +1791,9 @@
         <v>4770</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J9" s="1">
         <v>5290</v>
@@ -1384,9 +1802,9 @@
         <v>5310</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I10" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J10" s="6">
         <v>4700</v>
@@ -1395,9 +1813,9 @@
         <v>4710</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F11" s="1">
         <f>177660-SUM(J8:J10)</f>
@@ -1408,9 +1826,9 @@
         <v>166248</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F12" s="9">
         <v>303448.18699999998</v>
@@ -1419,11 +1837,11 @@
         <v>303448.18699999998</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
       <c r="I13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J13" s="1">
         <v>10350</v>
@@ -1432,11 +1850,11 @@
         <v>10920</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
       <c r="I14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J14" s="1">
         <v>12660</v>
@@ -1445,11 +1863,11 @@
         <v>12780</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
       <c r="I15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J15" s="1">
         <v>10560</v>
@@ -1458,11 +1876,11 @@
         <v>10610</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
       <c r="I16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J16" s="1">
         <v>5390</v>
@@ -1471,11 +1889,11 @@
         <v>5410</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
       <c r="I17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J17" s="1">
         <v>27010</v>
@@ -1484,11 +1902,11 @@
         <v>27170</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
       <c r="I18" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J18" s="6">
         <v>19000</v>
@@ -1497,9 +1915,9 @@
         <v>19050</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F19" s="1">
         <f>253600-SUM(J13:J18)</f>
@@ -1510,9 +1928,9 @@
         <v>167660</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F20">
         <f>(1/2)*268875</f>
@@ -1523,9 +1941,9 @@
         <v>134800.5</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E21" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F21" s="10">
         <f>213100-18163.6363636</f>
@@ -1536,9 +1954,9 @@
         <v>193590.3636364</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B22" s="9">
         <f>SUM(F7:F21)</f>
@@ -1549,11 +1967,11 @@
         <v>2100362.0506364</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
       <c r="I23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J23" s="1">
         <v>4500</v>
@@ -1562,11 +1980,11 @@
         <v>6920</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
       <c r="I24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J24" s="1">
         <v>4670</v>
@@ -1575,11 +1993,11 @@
         <v>5650</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
       <c r="I25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J25" s="1">
         <v>4930</v>
@@ -1588,11 +2006,11 @@
         <v>5760</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
       <c r="I26" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J26" s="6">
         <f>0.5*2480</f>
@@ -1603,9 +2021,9 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F27" s="1">
         <f>SUM(J23:J26)</f>
@@ -1616,9 +2034,9 @@
         <v>19690</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E28" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F28" s="3">
         <v>0.41</v>
@@ -1627,9 +2045,9 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B29">
         <f>SUM(F27:F28)</f>
@@ -1640,9 +2058,9 @@
         <v>19690.41</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B30">
         <v>12981.02</v>
@@ -1651,9 +2069,9 @@
         <v>12981.02</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B31">
         <v>148.12100000000001</v>
@@ -1662,9 +2080,9 @@
         <v>148.12100000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B32" s="7">
         <f>SUM(B2:B31)</f>
@@ -1675,30 +2093,2557 @@
         <v>4617194.6016363995</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>129</v>
+      </c>
+      <c r="B34" s="12">
+        <f>C85^(1/3)</f>
+        <v>673.53821083615708</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>124</v>
+      </c>
+      <c r="B35">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>125</v>
+      </c>
+      <c r="B36" s="15">
+        <f>C85/B35</f>
+        <v>454692.13673941803</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>123</v>
+      </c>
+      <c r="B37" s="15">
+        <f>B36+C37</f>
+        <v>454192.13673941803</v>
+      </c>
+      <c r="C37">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>130</v>
+      </c>
+      <c r="E39" t="s">
+        <v>122</v>
+      </c>
+      <c r="K39" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>131</v>
+      </c>
+      <c r="B40" t="s">
+        <v>132</v>
+      </c>
+      <c r="C40" t="s">
+        <v>63</v>
+      </c>
+      <c r="E40" t="s">
+        <v>126</v>
+      </c>
+      <c r="F40" t="s">
+        <v>127</v>
+      </c>
+      <c r="G40" t="s">
+        <v>128</v>
+      </c>
+      <c r="H40" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="22">
+        <v>1</v>
+      </c>
+      <c r="B41" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C41" s="23">
+        <v>1519000</v>
+      </c>
+      <c r="D41" s="23"/>
+      <c r="E41" s="24">
+        <f t="shared" ref="E41:E84" si="0">C41/$B$37</f>
+        <v>3.3443995990434554</v>
+      </c>
+      <c r="F41" s="25">
+        <f t="shared" ref="F41:F84" si="1">FLOOR(E41,1)</f>
+        <v>3</v>
+      </c>
+      <c r="G41" s="22">
+        <f t="shared" ref="G41:G84" si="2">SQRT(F41*(F41+1))</f>
+        <v>3.4641016151377544</v>
+      </c>
+      <c r="H41" s="22">
+        <f t="shared" ref="H41:H84" si="3">IF(E41&gt;G41,CEILING(E41,1),FLOOR(E41,1))</f>
+        <v>3</v>
+      </c>
+      <c r="I41" s="22"/>
+      <c r="J41" s="22"/>
+      <c r="K41" s="23">
+        <f>E99*0.075</f>
+        <v>527850</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>2</v>
+      </c>
+      <c r="B42" t="s">
+        <v>79</v>
+      </c>
+      <c r="C42" s="1">
+        <v>15634000</v>
+      </c>
+      <c r="D42" s="1"/>
+      <c r="E42" s="12">
+        <f t="shared" si="0"/>
+        <v>34.42155584690282</v>
+      </c>
+      <c r="F42" s="15">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="2"/>
+        <v>34.496376621320678</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="K42" s="11">
+        <f>E99*0.75+E112*0.8</f>
+        <v>8036100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="22">
+        <v>3</v>
+      </c>
+      <c r="B43" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C43" s="23">
+        <v>12137000</v>
+      </c>
+      <c r="D43" s="23"/>
+      <c r="E43" s="24">
+        <f t="shared" si="0"/>
+        <v>26.722171121521015</v>
+      </c>
+      <c r="F43" s="25">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="G43" s="22">
+        <f t="shared" si="2"/>
+        <v>26.49528259898354</v>
+      </c>
+      <c r="H43" s="22">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="I43" s="22"/>
+      <c r="J43" s="22"/>
+      <c r="K43" s="26">
+        <f>E96*0.15+E99*0.175</f>
+        <v>4799400</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>4</v>
+      </c>
+      <c r="B44" t="s">
+        <v>81</v>
+      </c>
+      <c r="C44" s="1">
+        <v>10711000</v>
+      </c>
+      <c r="D44" s="1"/>
+      <c r="E44" s="12">
+        <f t="shared" si="0"/>
+        <v>23.58253068160267</v>
+      </c>
+      <c r="F44" s="15">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="2"/>
+        <v>23.49468024894146</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="K44" s="1">
+        <f>E113</f>
+        <v>4940000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="22">
+        <v>5</v>
+      </c>
+      <c r="B45" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C45" s="23">
+        <v>3646000</v>
+      </c>
+      <c r="D45" s="23"/>
+      <c r="E45" s="24">
+        <f t="shared" si="0"/>
+        <v>8.0274397222596701</v>
+      </c>
+      <c r="F45" s="25">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="G45" s="22">
+        <f t="shared" si="2"/>
+        <v>8.4852813742385695</v>
+      </c>
+      <c r="H45" s="22">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="I45" s="22"/>
+      <c r="J45" s="22"/>
+      <c r="K45" s="26">
+        <f>E96*0.1</f>
+        <v>2378500</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>6</v>
+      </c>
+      <c r="B46" t="s">
+        <v>83</v>
+      </c>
+      <c r="C46" s="1">
+        <v>8683000</v>
+      </c>
+      <c r="D46" s="1"/>
+      <c r="E46" s="12">
+        <f t="shared" si="0"/>
+        <v>19.117459985842213</v>
+      </c>
+      <c r="F46" s="15">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="2"/>
+        <v>19.493588689617926</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="K46" s="11">
+        <f>E100*0.8</f>
+        <v>5176800</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="22">
+        <v>7</v>
+      </c>
+      <c r="B47" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C47" s="23">
+        <v>5177000</v>
+      </c>
+      <c r="D47" s="23"/>
+      <c r="E47" s="24">
+        <f t="shared" si="0"/>
+        <v>11.39825985796443</v>
+      </c>
+      <c r="F47" s="25">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="G47" s="22">
+        <f t="shared" si="2"/>
+        <v>11.489125293076057</v>
+      </c>
+      <c r="H47" s="22">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="I47" s="22"/>
+      <c r="J47" s="22"/>
+      <c r="K47" s="26">
+        <f>E103*(2.5/9)+E122</f>
+        <v>3775055.5555555555</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>8</v>
+      </c>
+      <c r="B48" t="s">
+        <v>85</v>
+      </c>
+      <c r="C48" s="1">
+        <v>9118000</v>
+      </c>
+      <c r="D48" s="1"/>
+      <c r="E48" s="12">
+        <f t="shared" si="0"/>
+        <v>20.075204439814502</v>
+      </c>
+      <c r="F48" s="15">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="2"/>
+        <v>20.493901531919196</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="K48" s="1">
+        <f>E115</f>
+        <v>6491000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="22">
+        <v>9</v>
+      </c>
+      <c r="B49" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C49" s="23">
+        <v>1544000</v>
+      </c>
+      <c r="D49" s="23"/>
+      <c r="E49" s="24">
+        <f t="shared" si="0"/>
+        <v>3.3994423837545065</v>
+      </c>
+      <c r="F49" s="25">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G49" s="22">
+        <f t="shared" si="2"/>
+        <v>3.4641016151377544</v>
+      </c>
+      <c r="H49" s="22">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="I49" s="22"/>
+      <c r="J49" s="22"/>
+      <c r="K49" s="26">
+        <f>E100*0.075</f>
+        <v>485325</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>10</v>
+      </c>
+      <c r="B50" t="s">
+        <v>87</v>
+      </c>
+      <c r="C50" s="1">
+        <v>16041000</v>
+      </c>
+      <c r="D50" s="1"/>
+      <c r="E50" s="12">
+        <f t="shared" si="0"/>
+        <v>35.317652381998727</v>
+      </c>
+      <c r="F50" s="15">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="2"/>
+        <v>35.496478698597699</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="K50" s="11">
+        <f>E101+E103*(2.5/9)</f>
+        <v>10099055.555555556</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="22">
+        <v>11</v>
+      </c>
+      <c r="B51" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C51" s="23">
+        <v>40239000</v>
+      </c>
+      <c r="D51" s="23"/>
+      <c r="E51" s="24">
+        <f t="shared" si="0"/>
+        <v>88.59466455951916</v>
+      </c>
+      <c r="F51" s="25">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="G51" s="22">
+        <f t="shared" si="2"/>
+        <v>88.498587559350341</v>
+      </c>
+      <c r="H51" s="22">
+        <f t="shared" si="3"/>
+        <v>89</v>
+      </c>
+      <c r="I51" s="22"/>
+      <c r="J51" s="22"/>
+      <c r="K51" s="26">
+        <f>E96*0.75+E106</f>
+        <v>22651750</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>12</v>
+      </c>
+      <c r="B52" t="s">
+        <v>89</v>
+      </c>
+      <c r="C52" s="1">
+        <v>10511000</v>
+      </c>
+      <c r="D52" s="1"/>
+      <c r="E52" s="12">
+        <f t="shared" si="0"/>
+        <v>23.142188403914261</v>
+      </c>
+      <c r="F52" s="15">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="2"/>
+        <v>23.49468024894146</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="K52" s="1">
+        <f>E126</f>
+        <v>2461000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="22">
+        <v>13</v>
+      </c>
+      <c r="B53" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="C53" s="23">
+        <v>1098163</v>
+      </c>
+      <c r="D53" s="23"/>
+      <c r="E53" s="24">
+        <f t="shared" si="0"/>
+        <v>2.4178379834656738</v>
+      </c>
+      <c r="F53" s="25">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G53" s="22">
+        <f t="shared" si="2"/>
+        <v>2.4494897427831779</v>
+      </c>
+      <c r="H53" s="22">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="I53" s="22"/>
+      <c r="J53" s="22"/>
+      <c r="K53" s="26">
+        <f>E100*0.125</f>
+        <v>808875</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>14</v>
+      </c>
+      <c r="B54" t="s">
+        <v>91</v>
+      </c>
+      <c r="C54" s="1">
+        <v>647064</v>
+      </c>
+      <c r="D54" s="1"/>
+      <c r="E54" s="12">
+        <f t="shared" si="0"/>
+        <v>1.4246481778508588</v>
+      </c>
+      <c r="F54" s="15">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="2"/>
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="22">
+        <v>15</v>
+      </c>
+      <c r="B55" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C55" s="23">
+        <v>8421000</v>
+      </c>
+      <c r="D55" s="23"/>
+      <c r="E55" s="24">
+        <f t="shared" si="0"/>
+        <v>18.540611602070403</v>
+      </c>
+      <c r="F55" s="25">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="G55" s="22">
+        <f t="shared" si="2"/>
+        <v>18.493242008906929</v>
+      </c>
+      <c r="H55" s="22">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="I55" s="22"/>
+      <c r="J55" s="22"/>
+      <c r="K55" s="26">
+        <f>E98*0.1+E109*0.8</f>
+        <v>4234300</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>16</v>
+      </c>
+      <c r="B56" t="s">
+        <v>93</v>
+      </c>
+      <c r="C56" s="1">
+        <f>10480000</f>
+        <v>10480000</v>
+      </c>
+      <c r="D56" s="1"/>
+      <c r="E56" s="12">
+        <f t="shared" si="0"/>
+        <v>23.073935350872556</v>
+      </c>
+      <c r="F56" s="15">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="2"/>
+        <v>23.49468024894146</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="K56" s="11">
+        <f>E102*0.8</f>
+        <v>5558400</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="22">
+        <v>17</v>
+      </c>
+      <c r="B57" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="C57" s="23">
+        <v>23456000</v>
+      </c>
+      <c r="D57" s="23"/>
+      <c r="E57" s="24">
+        <f t="shared" si="0"/>
+        <v>51.643342327296445</v>
+      </c>
+      <c r="F57" s="25">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="G57" s="22">
+        <f t="shared" si="2"/>
+        <v>51.497572758334933</v>
+      </c>
+      <c r="H57" s="22">
+        <f t="shared" si="3"/>
+        <v>52</v>
+      </c>
+      <c r="I57" s="22"/>
+      <c r="J57" s="22"/>
+      <c r="K57" s="26">
+        <f>E98*0.8+E108+E112*0.2+E124+E118*0.3</f>
+        <v>15797500</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>18</v>
+      </c>
+      <c r="B58" t="s">
+        <v>95</v>
+      </c>
+      <c r="C58" s="1">
+        <v>9102000</v>
+      </c>
+      <c r="D58" s="1"/>
+      <c r="E58" s="12">
+        <f t="shared" si="0"/>
+        <v>20.03997705759943</v>
+      </c>
+      <c r="F58" s="15">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="2"/>
+        <v>20.493901531919196</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="K58" s="1">
+        <f>E127+E117+(E98*0.1)+E116*0.6</f>
+        <v>6915700</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="22">
+        <v>19</v>
+      </c>
+      <c r="B59" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="C59" s="23">
+        <v>6302000</v>
+      </c>
+      <c r="D59" s="23"/>
+      <c r="E59" s="24">
+        <f t="shared" si="0"/>
+        <v>13.875185169961723</v>
+      </c>
+      <c r="F59" s="25">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="G59" s="22">
+        <f t="shared" si="2"/>
+        <v>13.490737563232042</v>
+      </c>
+      <c r="H59" s="22">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="I59" s="22"/>
+      <c r="J59" s="22"/>
+      <c r="K59" s="26">
+        <f>E102*0.1+E120*0.9</f>
+        <v>4230900</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>20</v>
+      </c>
+      <c r="B60" t="s">
+        <v>97</v>
+      </c>
+      <c r="C60" s="1">
+        <v>7903000</v>
+      </c>
+      <c r="D60" s="1"/>
+      <c r="E60" s="12">
+        <f t="shared" si="0"/>
+        <v>17.400125102857427</v>
+      </c>
+      <c r="F60" s="15">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="2"/>
+        <v>17.4928556845359</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="K60" s="11">
+        <f>E97*(1/3)+E125+E116*0.1</f>
+        <v>6776366.666666666</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" s="22">
+        <v>21</v>
+      </c>
+      <c r="B61" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="C61" s="23">
+        <v>1801000</v>
+      </c>
+      <c r="D61" s="23"/>
+      <c r="E61" s="24">
+        <f t="shared" si="0"/>
+        <v>3.9652822105841103</v>
+      </c>
+      <c r="F61" s="25">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G61" s="22">
+        <f t="shared" si="2"/>
+        <v>3.4641016151377544</v>
+      </c>
+      <c r="H61" s="22">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="I61" s="22"/>
+      <c r="J61" s="22"/>
+      <c r="K61" s="26">
+        <f>E120*0.1</f>
+        <v>392900</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>22</v>
+      </c>
+      <c r="B62" t="s">
+        <v>99</v>
+      </c>
+      <c r="C62" s="1">
+        <v>7113000</v>
+      </c>
+      <c r="D62" s="1"/>
+      <c r="E62" s="12">
+        <f t="shared" si="0"/>
+        <v>15.660773105988216</v>
+      </c>
+      <c r="F62" s="15">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="2"/>
+        <v>15.491933384829668</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="K62" s="11">
+        <f>E104*0.6</f>
+        <v>4045800</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="22">
+        <v>23</v>
+      </c>
+      <c r="B63" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="C63" s="23">
+        <v>11281000</v>
+      </c>
+      <c r="D63" s="23"/>
+      <c r="E63" s="24">
+        <f t="shared" si="0"/>
+        <v>24.837506173014631</v>
+      </c>
+      <c r="F63" s="25">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="G63" s="22">
+        <f t="shared" si="2"/>
+        <v>24.494897427831781</v>
+      </c>
+      <c r="H63" s="22">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="I63" s="22"/>
+      <c r="J63" s="22"/>
+      <c r="K63" s="26">
+        <f>E118*0.7</f>
+        <v>2972900</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>24</v>
+      </c>
+      <c r="B64" t="s">
+        <v>101</v>
+      </c>
+      <c r="C64" s="1">
+        <v>22203000</v>
+      </c>
+      <c r="D64" s="1"/>
+      <c r="E64" s="12">
+        <f t="shared" si="0"/>
+        <v>48.884597957578571</v>
+      </c>
+      <c r="F64" s="15">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="2"/>
+        <v>48.497422611928563</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="3"/>
+        <v>49</v>
+      </c>
+      <c r="K64" s="27">
+        <f>E97*(2/3)+E121*(2/3)</f>
+        <v>13566666.666666664</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" s="22">
+        <v>25</v>
+      </c>
+      <c r="B65" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="C65" s="23">
+        <v>8294000</v>
+      </c>
+      <c r="D65" s="23"/>
+      <c r="E65" s="24">
+        <f t="shared" si="0"/>
+        <v>18.260994255738261</v>
+      </c>
+      <c r="F65" s="25">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="G65" s="22">
+        <f t="shared" si="2"/>
+        <v>18.493242008906929</v>
+      </c>
+      <c r="H65" s="22">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="I65" s="22"/>
+      <c r="J65" s="22"/>
+      <c r="K65" s="23">
+        <f>E123+E111+E116*0.3</f>
+        <v>4723100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>26</v>
+      </c>
+      <c r="B66" t="s">
+        <v>103</v>
+      </c>
+      <c r="C66" s="1">
+        <v>3526000</v>
+      </c>
+      <c r="D66" s="1"/>
+      <c r="E66" s="12">
+        <f t="shared" si="0"/>
+        <v>7.7632343556466257</v>
+      </c>
+      <c r="F66" s="15">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="2"/>
+        <v>7.4833147735478827</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="K66" s="11">
+        <f>E102*0.1</f>
+        <v>694800</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" s="22">
+        <v>27</v>
+      </c>
+      <c r="B67" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="C67" s="23">
+        <v>6562000</v>
+      </c>
+      <c r="D67" s="23"/>
+      <c r="E67" s="24">
+        <f t="shared" si="0"/>
+        <v>14.447630130956652</v>
+      </c>
+      <c r="F67" s="25">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="G67" s="22">
+        <f t="shared" si="2"/>
+        <v>14.491376746189438</v>
+      </c>
+      <c r="H67" s="22">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="I67" s="22"/>
+      <c r="J67" s="22"/>
+      <c r="K67" s="26">
+        <f>E104*0.4</f>
+        <v>2697200</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>28</v>
+      </c>
+      <c r="B68" t="s">
+        <v>105</v>
+      </c>
+      <c r="C68" s="1">
+        <v>6443000</v>
+      </c>
+      <c r="D68" s="1"/>
+      <c r="E68" s="12">
+        <f t="shared" si="0"/>
+        <v>14.18562647573205</v>
+      </c>
+      <c r="F68" s="15">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="2"/>
+        <v>14.491376746189438</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="K68" s="11">
+        <f>E105*(1/3)</f>
+        <v>1980666.6666666665</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" s="22">
+        <v>29</v>
+      </c>
+      <c r="B69" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="C69" s="23">
+        <v>4837000</v>
+      </c>
+      <c r="D69" s="23"/>
+      <c r="E69" s="24">
+        <f t="shared" si="0"/>
+        <v>10.649677985894137</v>
+      </c>
+      <c r="F69" s="25">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="G69" s="22">
+        <f t="shared" si="2"/>
+        <v>10.488088481701515</v>
+      </c>
+      <c r="H69" s="22">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="I69" s="22"/>
+      <c r="J69" s="22"/>
+      <c r="K69" s="26">
+        <f>E105*(2/3)</f>
+        <v>3961333.333333333</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>30</v>
+      </c>
+      <c r="B70" t="s">
+        <v>107</v>
+      </c>
+      <c r="C70" s="1">
+        <v>1334000</v>
+      </c>
+      <c r="D70" s="1"/>
+      <c r="E70" s="12">
+        <f t="shared" si="0"/>
+        <v>2.9370829921816788</v>
+      </c>
+      <c r="F70" s="15">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="2"/>
+        <v>2.4494897427831779</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" s="22">
+        <v>31</v>
+      </c>
+      <c r="B71" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="C71" s="23">
+        <v>4321000</v>
+      </c>
+      <c r="D71" s="23"/>
+      <c r="E71" s="24">
+        <f t="shared" si="0"/>
+        <v>9.5135949094580461</v>
+      </c>
+      <c r="F71" s="25">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="G71" s="22">
+        <f t="shared" si="2"/>
+        <v>9.4868329805051381</v>
+      </c>
+      <c r="H71" s="22">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="I71" s="22"/>
+      <c r="J71" s="22"/>
+      <c r="K71" s="26">
+        <f>E121*(1/3)</f>
+        <v>1770666.6666666665</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>32</v>
+      </c>
+      <c r="B72" t="s">
+        <v>109</v>
+      </c>
+      <c r="C72" s="1">
+        <v>1072000</v>
+      </c>
+      <c r="D72" s="1"/>
+      <c r="E72" s="12">
+        <f t="shared" si="0"/>
+        <v>2.3602346084098644</v>
+      </c>
+      <c r="F72" s="15">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="2"/>
+        <v>2.4494897427831779</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" s="22">
+        <v>33</v>
+      </c>
+      <c r="B73" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="C73" s="23">
+        <v>5012000</v>
+      </c>
+      <c r="D73" s="23"/>
+      <c r="E73" s="24">
+        <f t="shared" si="0"/>
+        <v>11.034977478871493</v>
+      </c>
+      <c r="F73" s="25">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="G73" s="22">
+        <f t="shared" si="2"/>
+        <v>11.489125293076057</v>
+      </c>
+      <c r="H73" s="22">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="I73" s="22"/>
+      <c r="J73" s="22"/>
+      <c r="K73" s="23">
+        <f>E107</f>
+        <v>4428000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>34</v>
+      </c>
+      <c r="B74" t="s">
+        <v>111</v>
+      </c>
+      <c r="C74" s="1">
+        <v>1183000</v>
+      </c>
+      <c r="D74" s="1"/>
+      <c r="E74" s="12">
+        <f t="shared" si="0"/>
+        <v>2.604624572526931</v>
+      </c>
+      <c r="F74" s="15">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="2"/>
+        <v>2.4494897427831779</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" s="22">
+        <v>35</v>
+      </c>
+      <c r="B75" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="C75" s="23">
+        <v>1426000</v>
+      </c>
+      <c r="D75" s="23"/>
+      <c r="E75" s="24">
+        <f t="shared" si="0"/>
+        <v>3.1396404399183462</v>
+      </c>
+      <c r="F75" s="25">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G75" s="22">
+        <f t="shared" si="2"/>
+        <v>3.4641016151377544</v>
+      </c>
+      <c r="H75" s="22">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="I75" s="22"/>
+      <c r="J75" s="22"/>
+      <c r="K75" s="22"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>36</v>
+      </c>
+      <c r="B76" t="s">
+        <v>120</v>
+      </c>
+      <c r="C76" s="1">
+        <v>1804000</v>
+      </c>
+      <c r="D76" s="1"/>
+      <c r="E76" s="12">
+        <f t="shared" si="0"/>
+        <v>3.9718873447494363</v>
+      </c>
+      <c r="F76" s="15">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="2"/>
+        <v>3.4641016151377544</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" s="22">
+        <v>37</v>
+      </c>
+      <c r="B77" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="C77" s="23">
+        <v>4401000</v>
+      </c>
+      <c r="D77" s="23"/>
+      <c r="E77" s="24">
+        <f t="shared" si="0"/>
+        <v>9.6897318205334084</v>
+      </c>
+      <c r="F77" s="25">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="G77" s="22">
+        <f t="shared" si="2"/>
+        <v>9.4868329805051381</v>
+      </c>
+      <c r="H77" s="22">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="I77" s="22"/>
+      <c r="J77" s="22"/>
+      <c r="K77" s="23">
+        <f>E119</f>
+        <v>3473000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>38</v>
+      </c>
+      <c r="B78" t="s">
+        <v>113</v>
+      </c>
+      <c r="C78" s="1">
+        <v>1068000</v>
+      </c>
+      <c r="D78" s="1"/>
+      <c r="E78" s="12">
+        <f t="shared" si="0"/>
+        <v>2.3514277628560967</v>
+      </c>
+      <c r="F78" s="15">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="2"/>
+        <v>2.4494897427831779</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" s="22">
+        <v>39</v>
+      </c>
+      <c r="B79" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="C79" s="23">
+        <f>K79</f>
+        <v>4036888.8888888885</v>
+      </c>
+      <c r="D79" s="23"/>
+      <c r="E79" s="24">
+        <f t="shared" si="0"/>
+        <v>8.8880642405417909</v>
+      </c>
+      <c r="F79" s="25">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="G79" s="22">
+        <f t="shared" si="2"/>
+        <v>8.4852813742385695</v>
+      </c>
+      <c r="H79" s="22">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="I79" s="22"/>
+      <c r="J79" s="22"/>
+      <c r="K79" s="26">
+        <f>E103*(4/9)</f>
+        <v>4036888.8888888885</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>40</v>
+      </c>
+      <c r="B80" t="s">
+        <v>115</v>
+      </c>
+      <c r="C80" s="1">
+        <v>1331000</v>
+      </c>
+      <c r="D80" s="1"/>
+      <c r="E80" s="12">
+        <f t="shared" si="0"/>
+        <v>2.9304778580163524</v>
+      </c>
+      <c r="F80" s="15">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="2"/>
+        <v>2.4494897427831779</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" s="22">
+        <v>41</v>
+      </c>
+      <c r="B81" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="C81" s="23">
+        <v>435000</v>
+      </c>
+      <c r="D81" s="23"/>
+      <c r="E81" s="24">
+        <f t="shared" si="0"/>
+        <v>0.95774445397228647</v>
+      </c>
+      <c r="F81" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G81" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H81" s="22">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I81" s="22"/>
+      <c r="J81" s="22"/>
+      <c r="K81" s="22"/>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>42</v>
+      </c>
+      <c r="B82" t="s">
+        <v>117</v>
+      </c>
+      <c r="C82" s="1">
+        <v>3121000</v>
+      </c>
+      <c r="D82" s="1"/>
+      <c r="E82" s="12">
+        <f t="shared" si="0"/>
+        <v>6.8715412433276004</v>
+      </c>
+      <c r="F82" s="15">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="2"/>
+        <v>6.4807406984078604</v>
+      </c>
+      <c r="H82">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" s="22">
+        <v>43</v>
+      </c>
+      <c r="B83" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="C83" s="23">
+        <v>412000</v>
+      </c>
+      <c r="D83" s="23"/>
+      <c r="E83" s="24">
+        <f t="shared" si="0"/>
+        <v>0.90710509203811962</v>
+      </c>
+      <c r="F83" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G83" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H83" s="22">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I83" s="22"/>
+      <c r="J83" s="22"/>
+      <c r="K83" s="22"/>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
+        <v>44</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C84" s="6">
+        <v>167000</v>
+      </c>
+      <c r="D84" s="1"/>
+      <c r="E84" s="12">
+        <f t="shared" si="0"/>
+        <v>0.36768580186982031</v>
+      </c>
+      <c r="F84" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="4"/>
+      <c r="B85" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C85" s="7">
+        <f>SUM(C41:C84)</f>
+        <v>305553115.8888889</v>
+      </c>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7">
+        <f>SUM(E41:E84)</f>
+        <v>672.73977502651678</v>
+      </c>
+      <c r="F85" s="7"/>
+      <c r="G85" s="7"/>
+      <c r="H85" s="7">
+        <f>SUM(H41:H84)</f>
+        <v>674</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>64</v>
       </c>
-      <c r="B34" s="1">
-        <v>261745234</v>
-      </c>
-      <c r="C34" s="1"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" t="s">
-        <v>65</v>
-      </c>
-      <c r="B36" s="12">
-        <f>$B$34/B32</f>
-        <v>60.976522225401951</v>
-      </c>
-      <c r="C36" s="12">
-        <f>$B$34/C32</f>
-        <v>56.689235906849966</v>
+      <c r="B87" s="12">
+        <f>$C$85/B32</f>
+        <v>71.182065389735627</v>
+      </c>
+      <c r="C87" s="12">
+        <f>$C$85/C32</f>
+        <v>66.177222805509757</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>144</v>
+      </c>
+      <c r="B95" t="s">
+        <v>145</v>
+      </c>
+      <c r="C95" t="s">
+        <v>132</v>
+      </c>
+      <c r="D95" t="s">
+        <v>146</v>
+      </c>
+      <c r="E95" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96" s="20">
+        <v>1</v>
+      </c>
+      <c r="B96" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="C96" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="D96" s="21">
+        <v>10090000</v>
+      </c>
+      <c r="E96" s="21">
+        <v>23785000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="20">
+        <v>2</v>
+      </c>
+      <c r="B97" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="C97" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="D97" s="21">
+        <v>5221000</v>
+      </c>
+      <c r="E97" s="21">
+        <v>15038000</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="20">
+        <v>3</v>
+      </c>
+      <c r="B98" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C98" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="D98" s="21">
+        <v>4047000</v>
+      </c>
+      <c r="E98" s="21">
+        <v>10415000</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="20">
+        <v>4</v>
+      </c>
+      <c r="B99" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="C99" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="D99" s="21">
+        <v>2513000</v>
+      </c>
+      <c r="E99" s="21">
+        <v>7038000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="20">
+        <v>5</v>
+      </c>
+      <c r="B100" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="C100" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="D100" s="21">
+        <v>2210000</v>
+      </c>
+      <c r="E100" s="21">
+        <v>6471000</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="20">
+        <v>6</v>
+      </c>
+      <c r="B101" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="C101" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="D101" s="21">
+        <v>2031000</v>
+      </c>
+      <c r="E101" s="21">
+        <v>7576000</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="20">
+        <v>7</v>
+      </c>
+      <c r="B102" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="C102" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="D102" s="21">
+        <v>1719000</v>
+      </c>
+      <c r="E102" s="21">
+        <v>6948000</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="20">
+        <v>8</v>
+      </c>
+      <c r="B103" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="C103" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="D103" s="21">
+        <v>1643000</v>
+      </c>
+      <c r="E103" s="21">
+        <v>9083000</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="20">
+        <v>9</v>
+      </c>
+      <c r="B104" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="C104" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="D104" s="21">
+        <v>1480000</v>
+      </c>
+      <c r="E104" s="21">
+        <v>6743000</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="20">
+        <v>10</v>
+      </c>
+      <c r="B105" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="C105" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="D105" s="21">
+        <v>1422000</v>
+      </c>
+      <c r="E105" s="21">
+        <v>5942000</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="20">
+        <v>11</v>
+      </c>
+      <c r="B106" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="C106" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="D106" s="21">
+        <v>1383000</v>
+      </c>
+      <c r="E106" s="21">
+        <v>4813000</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="20">
+        <v>12</v>
+      </c>
+      <c r="B107" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="C107" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D107" s="21">
+        <v>1369000</v>
+      </c>
+      <c r="E107" s="21">
+        <v>4428000</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="20">
+        <v>13</v>
+      </c>
+      <c r="B108" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="C108" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="D108" s="21">
+        <v>1248000</v>
+      </c>
+      <c r="E108" s="21">
+        <v>3327000</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="20">
+        <v>14</v>
+      </c>
+      <c r="B109" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="C109" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="D109" s="21">
+        <v>1222000</v>
+      </c>
+      <c r="E109" s="21">
+        <v>3991000</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="20">
+        <v>15</v>
+      </c>
+      <c r="B110" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="C110" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="D110" s="21">
+        <v>1210000</v>
+      </c>
+      <c r="E110" s="21">
+        <v>15038000</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="20">
+        <v>16</v>
+      </c>
+      <c r="B111" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="C111" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="D111" s="21">
+        <v>1180000</v>
+      </c>
+      <c r="E111" s="21">
+        <v>1782000</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="20">
+        <v>17</v>
+      </c>
+      <c r="B112" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="C112" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="D112" s="21">
+        <v>1159000</v>
+      </c>
+      <c r="E112" s="21">
+        <v>3447000</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="20">
+        <v>18</v>
+      </c>
+      <c r="B113" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="C113" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D113" s="21">
+        <v>1091000</v>
+      </c>
+      <c r="E113" s="21">
+        <v>4940000</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="20">
+        <v>19</v>
+      </c>
+      <c r="B114" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="C114" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="D114" s="21">
+        <v>1001000</v>
+      </c>
+      <c r="E114" s="21">
+        <v>23785000</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="20">
+        <v>20</v>
+      </c>
+      <c r="B115" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="C115" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D115" s="21">
+        <v>1021000</v>
+      </c>
+      <c r="E115" s="21">
+        <v>6491000</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="20">
+        <v>21</v>
+      </c>
+      <c r="B116" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="C116" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="D116" s="21">
+        <v>983000</v>
+      </c>
+      <c r="E116" s="21">
+        <v>2297000</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="20">
+        <v>22</v>
+      </c>
+      <c r="B117" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="C117" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="D117" s="21">
+        <v>951000</v>
+      </c>
+      <c r="E117" s="21">
+        <v>2929000</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="20">
+        <v>23</v>
+      </c>
+      <c r="B118" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="C118" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="D118" s="21">
+        <v>925000</v>
+      </c>
+      <c r="E118" s="21">
+        <v>4247000</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="20">
+        <v>24</v>
+      </c>
+      <c r="B119" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="C119" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="D119" s="21">
+        <v>877000</v>
+      </c>
+      <c r="E119" s="21">
+        <v>3473000</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="20">
+        <v>25</v>
+      </c>
+      <c r="B120" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="C120" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="D120" s="21">
+        <v>851000</v>
+      </c>
+      <c r="E120" s="21">
+        <v>3929000</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="20">
+        <v>26</v>
+      </c>
+      <c r="B121" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="C121" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="D121" s="21">
+        <v>788000</v>
+      </c>
+      <c r="E121" s="21">
+        <v>5312000</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="20">
+        <v>27</v>
+      </c>
+      <c r="B122" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="C122" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="D122" s="21">
+        <v>765000</v>
+      </c>
+      <c r="E122" s="21">
+        <v>1252000</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="20">
+        <v>28</v>
+      </c>
+      <c r="B123" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="C123" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="D123" s="21">
+        <v>741000</v>
+      </c>
+      <c r="E123" s="21">
+        <v>2252000</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="20">
+        <v>29</v>
+      </c>
+      <c r="B124" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="C124" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="D124" s="21">
+        <v>729000</v>
+      </c>
+      <c r="E124" s="21">
+        <v>2175000</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="20">
+        <v>30</v>
+      </c>
+      <c r="B125" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="C125" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="D125" s="21">
+        <v>715000</v>
+      </c>
+      <c r="E125" s="21">
+        <v>1534000</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="20">
+        <v>31</v>
+      </c>
+      <c r="B126" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="C126" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="D126" s="21">
+        <v>701000</v>
+      </c>
+      <c r="E126" s="21">
+        <v>2461000</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="20">
+        <v>32</v>
+      </c>
+      <c r="B127" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="C127" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="D127" s="21">
+        <v>656000</v>
+      </c>
+      <c r="E127" s="21">
+        <v>1567000</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C63D63CD-E558-4E85-B35D-432437BFD9B4}">
+  <dimension ref="A1:K41"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1054549</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E4" s="1">
+        <v>9833520</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E5" s="11">
+        <f>'united states'!C32</f>
+        <v>4617194.6016363995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>137</v>
+      </c>
+      <c r="H6" s="11">
+        <f>380800-'united states'!G12</f>
+        <v>77351.813000000024</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>139</v>
+      </c>
+      <c r="H7">
+        <f>253335-10920-12780-5040</f>
+        <v>224595</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>138</v>
+      </c>
+      <c r="H8" s="1">
+        <v>254806</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>140</v>
+      </c>
+      <c r="H9" s="1">
+        <f>184827-'united states'!G27</f>
+        <v>165137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>141</v>
+      </c>
+      <c r="E10" s="15">
+        <f>SUM(H6:H9)</f>
+        <v>721889.81300000008</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>143</v>
+      </c>
+      <c r="E11" s="15">
+        <f>SUM('united states'!C30:C31)</f>
+        <v>13129.141</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B12" s="19">
+        <f>E4-SUM(E5:E11)</f>
+        <v>4481306.4443636006</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="18">
+        <f>SUM(B2:B12)</f>
+        <v>5535855.4443636006</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>132</v>
+      </c>
+      <c r="C15" t="s">
+        <v>63</v>
+      </c>
+      <c r="K15" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>185</v>
+      </c>
+      <c r="C16" s="1">
+        <f>K16+2000000</f>
+        <v>12046000</v>
+      </c>
+      <c r="K16" s="1">
+        <f>E32</f>
+        <v>10046000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>193</v>
+      </c>
+      <c r="C17" s="1">
+        <f>K17+2000000</f>
+        <v>6602000</v>
+      </c>
+      <c r="K17" s="1">
+        <f>E36</f>
+        <v>4602000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>187</v>
+      </c>
+      <c r="C18" s="11">
+        <f>K18*(1.5)</f>
+        <v>11286000</v>
+      </c>
+      <c r="K18" s="1">
+        <f>E33</f>
+        <v>7524000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>191</v>
+      </c>
+      <c r="C19" s="1">
+        <f>K19+7000000</f>
+        <v>11924000</v>
+      </c>
+      <c r="K19" s="1">
+        <f>E35</f>
+        <v>4924000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>202</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1521000</v>
+      </c>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>195</v>
+      </c>
+      <c r="C21" s="11">
+        <f>K21*1.5</f>
+        <v>14124000</v>
+      </c>
+      <c r="K21" s="1">
+        <f>SUM(E37:E39)+E41</f>
+        <v>9416000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>189</v>
+      </c>
+      <c r="C22" s="11">
+        <f>K22+1500000</f>
+        <v>8893000</v>
+      </c>
+      <c r="K22" s="1">
+        <f>E40+E34</f>
+        <v>7393000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>200</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2341000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>201</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1567000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>203</v>
+      </c>
+      <c r="C25" s="1">
+        <v>234000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>204</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1624000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="5">
+        <f>SUM(C16:C26)</f>
+        <v>72162000</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+    </row>
+    <row r="28" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" s="8">
+        <f>C27/B13</f>
+        <v>13.035383731609652</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>144</v>
+      </c>
+      <c r="B31" t="s">
+        <v>145</v>
+      </c>
+      <c r="C31" t="s">
+        <v>182</v>
+      </c>
+      <c r="D31" t="s">
+        <v>63</v>
+      </c>
+      <c r="E31" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
+        <v>184</v>
+      </c>
+      <c r="C32" t="s">
+        <v>185</v>
+      </c>
+      <c r="D32" s="1">
+        <v>5221000</v>
+      </c>
+      <c r="E32" s="1">
+        <v>10046000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>2</v>
+      </c>
+      <c r="B33" t="s">
+        <v>186</v>
+      </c>
+      <c r="C33" t="s">
+        <v>187</v>
+      </c>
+      <c r="D33" s="1">
+        <v>3270000</v>
+      </c>
+      <c r="E33" s="1">
+        <v>7524000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>3</v>
+      </c>
+      <c r="B34" t="s">
+        <v>188</v>
+      </c>
+      <c r="C34" t="s">
+        <v>189</v>
+      </c>
+      <c r="D34" s="1">
+        <v>2769000</v>
+      </c>
+      <c r="E34" s="1">
+        <v>5435000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>4</v>
+      </c>
+      <c r="B35" t="s">
+        <v>190</v>
+      </c>
+      <c r="C35" t="s">
+        <v>191</v>
+      </c>
+      <c r="D35" s="1">
+        <v>2534000</v>
+      </c>
+      <c r="E35" s="1">
+        <v>4924000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>5</v>
+      </c>
+      <c r="B36" t="s">
+        <v>192</v>
+      </c>
+      <c r="C36" t="s">
+        <v>193</v>
+      </c>
+      <c r="D36" s="1">
+        <v>2150000</v>
+      </c>
+      <c r="E36" s="1">
+        <v>4602000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>6</v>
+      </c>
+      <c r="B37" t="s">
+        <v>194</v>
+      </c>
+      <c r="C37" t="s">
+        <v>195</v>
+      </c>
+      <c r="D37" s="1">
+        <v>1623000</v>
+      </c>
+      <c r="E37" s="1">
+        <v>2912000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>7</v>
+      </c>
+      <c r="B38" t="s">
+        <v>196</v>
+      </c>
+      <c r="C38" t="s">
+        <v>195</v>
+      </c>
+      <c r="D38" s="1">
+        <v>1408000</v>
+      </c>
+      <c r="E38" s="1">
+        <v>2705000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>8</v>
+      </c>
+      <c r="B39" t="s">
+        <v>197</v>
+      </c>
+      <c r="C39" t="s">
+        <v>195</v>
+      </c>
+      <c r="D39" s="1">
+        <v>1251000</v>
+      </c>
+      <c r="E39" s="1">
+        <v>2396000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>9</v>
+      </c>
+      <c r="B40" t="s">
+        <v>198</v>
+      </c>
+      <c r="C40" t="s">
+        <v>189</v>
+      </c>
+      <c r="D40" s="1">
+        <v>1115000</v>
+      </c>
+      <c r="E40" s="1">
+        <v>1958000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>10</v>
+      </c>
+      <c r="B41" t="s">
+        <v>199</v>
+      </c>
+      <c r="C41" t="s">
+        <v>195</v>
+      </c>
+      <c r="D41" s="1">
+        <v>1059000</v>
+      </c>
+      <c r="E41" s="1">
+        <v>1403000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/obsidian-notes/spreadsheets/area.xlsx
+++ b/obsidian-notes/spreadsheets/area.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sharm\iCloudDrive\iCloud~md~obsidian\Ishan's notes\Spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A22B9C3-F02C-4400-BFB4-95DFCE7BEBF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C6718E-35F4-46F7-BAD0-EC891325F105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" activeTab="1" xr2:uid="{94B94BC7-FBC8-4BAC-A974-CA3E4662C848}"/>
+    <workbookView xWindow="-48" yWindow="-48" windowWidth="20832" windowHeight="12336" activeTab="1" xr2:uid="{94B94BC7-FBC8-4BAC-A974-CA3E4662C848}"/>
   </bookViews>
   <sheets>
     <sheet name="france" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="248">
   <si>
     <t>OTL Metro France</t>
   </si>
@@ -365,18 +365,12 @@
     <t xml:space="preserve">Nebraska </t>
   </si>
   <si>
-    <t xml:space="preserve">Kansas </t>
-  </si>
-  <si>
     <t xml:space="preserve">Maine </t>
   </si>
   <si>
     <t xml:space="preserve">Olympia </t>
   </si>
   <si>
-    <t>New Virginia</t>
-  </si>
-  <si>
     <t>Franklin</t>
   </si>
   <si>
@@ -395,9 +389,6 @@
     <t>Minasota</t>
   </si>
   <si>
-    <t xml:space="preserve">Jefferson </t>
-  </si>
-  <si>
     <t>Cheyenne</t>
   </si>
   <si>
@@ -548,30 +539,15 @@
     <t>Charleston</t>
   </si>
   <si>
-    <t>Michigan City</t>
-  </si>
-  <si>
-    <t>Concord[5]</t>
-  </si>
-  <si>
     <t>Toledo</t>
   </si>
   <si>
-    <t>St. Augustine</t>
-  </si>
-  <si>
-    <t>Lille[6]</t>
-  </si>
-  <si>
     <t>Independence</t>
   </si>
   <si>
     <t>Baltimore</t>
   </si>
   <si>
-    <t>Milwaukie</t>
-  </si>
-  <si>
     <t>Columbus</t>
   </si>
   <si>
@@ -654,6 +630,159 @@
   </si>
   <si>
     <t>New Extremadura</t>
+  </si>
+  <si>
+    <t>Fernandina</t>
+  </si>
+  <si>
+    <t>Kances</t>
+  </si>
+  <si>
+    <t>Clinton[5]</t>
+  </si>
+  <si>
+    <t>Concord[6]</t>
+  </si>
+  <si>
+    <t>Lille[7]</t>
+  </si>
+  <si>
+    <t>Millewackie</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>Sioux City</t>
+  </si>
+  <si>
+    <t>Nebraska</t>
+  </si>
+  <si>
+    <t>Pensacola</t>
+  </si>
+  <si>
+    <t>Wichata</t>
+  </si>
+  <si>
+    <t>New York City[1]</t>
+  </si>
+  <si>
+    <t>Washington[2]</t>
+  </si>
+  <si>
+    <t>15,038,000[3]</t>
+  </si>
+  <si>
+    <t>Persitia[4]</t>
+  </si>
+  <si>
+    <t>Clinton[8]</t>
+  </si>
+  <si>
+    <t>Concord[9]</t>
+  </si>
+  <si>
+    <t>Miami[10]</t>
+  </si>
+  <si>
+    <t>Vermillionville[11]</t>
+  </si>
+  <si>
+    <t>Dorrville[12]</t>
+  </si>
+  <si>
+    <t>Lille[13]</t>
+  </si>
+  <si>
+    <t>Chattanooga</t>
+  </si>
+  <si>
+    <t>Coatesbourg[14]</t>
+  </si>
+  <si>
+    <t>Topequa</t>
+  </si>
+  <si>
+    <t>Newark</t>
+  </si>
+  <si>
+    <t>Segovia[15]</t>
+  </si>
+  <si>
+    <t>Savannah</t>
+  </si>
+  <si>
+    <t>Jersey City[5]</t>
+  </si>
+  <si>
+    <t>23,785,000[6]</t>
+  </si>
+  <si>
+    <t>Norfolk[7]</t>
+  </si>
+  <si>
+    <t>Covington</t>
+  </si>
+  <si>
+    <t>10,415,000[16]</t>
+  </si>
+  <si>
+    <t>Alleghania</t>
+  </si>
+  <si>
+    <t>Concord[10]</t>
+  </si>
+  <si>
+    <t>Miami[11]</t>
+  </si>
+  <si>
+    <t>Vermillionville[12]</t>
+  </si>
+  <si>
+    <t>Rochester</t>
+  </si>
+  <si>
+    <t>Dorrville[15]</t>
+  </si>
+  <si>
+    <t>Lexington</t>
+  </si>
+  <si>
+    <t>St. Anthony[17]</t>
+  </si>
+  <si>
+    <t>Juniper</t>
+  </si>
+  <si>
+    <t>5,942,000[18]</t>
+  </si>
+  <si>
+    <t>Raleigh</t>
+  </si>
+  <si>
+    <t>Wheeling</t>
+  </si>
+  <si>
+    <t>Segovia[3]</t>
+  </si>
+  <si>
+    <t>15,038,000[4]</t>
+  </si>
+  <si>
+    <t>Persitia[5]</t>
+  </si>
+  <si>
+    <t>Jersey City[6]</t>
+  </si>
+  <si>
+    <t>23,785,000[7]</t>
+  </si>
+  <si>
+    <t>Norfolk[8]</t>
+  </si>
+  <si>
+    <t>Clinton[9]</t>
   </si>
 </sst>
 </file>
@@ -804,9 +933,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -844,7 +973,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -950,7 +1079,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1092,7 +1221,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1690,10 +1819,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C745E12-030D-4421-A6DC-982053D4A77E}">
-  <dimension ref="A1:K127"/>
+  <dimension ref="A1:L227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1703,6 +1832,7 @@
     <col min="4" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.140625" customWidth="1"/>
     <col min="11" max="11" width="12.140625" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -2093,80 +2223,80 @@
         <v>4617194.6016363995</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B34" s="12">
-        <f>C85^(1/3)</f>
-        <v>673.53821083615708</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+        <f>C84^(1/3)</f>
+        <v>680.86395376748942</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B35">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B36" s="15">
-        <f>C85/B35</f>
-        <v>454692.13673941803</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+        <f>C84/B35</f>
+        <v>467602.96296296298</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B37" s="15">
         <f>B36+C37</f>
-        <v>454192.13673941803</v>
+        <v>469602.96296296298</v>
       </c>
       <c r="C37">
-        <v>-500</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="K39" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B40" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C40" t="s">
         <v>63</v>
       </c>
       <c r="E40" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F40" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G40" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H40" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="22">
         <v>1</v>
       </c>
@@ -2178,29 +2308,33 @@
       </c>
       <c r="D41" s="23"/>
       <c r="E41" s="24">
-        <f t="shared" ref="E41:E84" si="0">C41/$B$37</f>
-        <v>3.3443995990434554</v>
+        <f t="shared" ref="E41:E82" si="0">C41/$B$37</f>
+        <v>3.2346473932273754</v>
       </c>
       <c r="F41" s="25">
-        <f t="shared" ref="F41:F84" si="1">FLOOR(E41,1)</f>
+        <f t="shared" ref="F41:F83" si="1">FLOOR(E41,1)</f>
         <v>3</v>
       </c>
       <c r="G41" s="22">
-        <f t="shared" ref="G41:G84" si="2">SQRT(F41*(F41+1))</f>
+        <f>SQRT(F41*(F41+1))</f>
         <v>3.4641016151377544</v>
       </c>
       <c r="H41" s="22">
-        <f t="shared" ref="H41:H84" si="3">IF(E41&gt;G41,CEILING(E41,1),FLOOR(E41,1))</f>
+        <f t="shared" ref="H41:H83" si="2">IF(E41&gt;G41,CEILING(E41,1),FLOOR(E41,1))</f>
         <v>3</v>
       </c>
       <c r="I41" s="22"/>
       <c r="J41" s="22"/>
       <c r="K41" s="23">
-        <f>E99*0.075</f>
+        <f>K98*0.075</f>
         <v>527850</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L41" s="23">
+        <f>E181*0.075</f>
+        <v>527850</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2</v>
       </c>
@@ -2213,26 +2347,30 @@
       <c r="D42" s="1"/>
       <c r="E42" s="12">
         <f t="shared" si="0"/>
-        <v>34.42155584690282</v>
+        <v>33.291953486317837</v>
       </c>
       <c r="F42" s="15">
         <f t="shared" si="1"/>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G42">
+        <f t="shared" ref="G42:G83" si="3">SQRT(F42*(F42+1))</f>
+        <v>33.496268448888451</v>
+      </c>
+      <c r="H42">
         <f t="shared" si="2"/>
-        <v>34.496376621320678</v>
-      </c>
-      <c r="H42">
-        <f t="shared" si="3"/>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K42" s="11">
-        <f>E99*0.75+E112*0.8</f>
+        <f>K98*0.75+K111*0.8</f>
         <v>8036100</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L42" s="11">
+        <f>E181*0.75+E195*0.8</f>
+        <v>8036100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="22">
         <v>3</v>
       </c>
@@ -2245,28 +2383,32 @@
       <c r="D43" s="23"/>
       <c r="E43" s="24">
         <f t="shared" si="0"/>
-        <v>26.722171121521015</v>
+        <v>25.845237268993191</v>
       </c>
       <c r="F43" s="25">
         <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="G43" s="22">
+        <f t="shared" si="3"/>
+        <v>25.495097567963924</v>
+      </c>
+      <c r="H43" s="22">
+        <f t="shared" si="2"/>
         <v>26</v>
-      </c>
-      <c r="G43" s="22">
-        <f t="shared" si="2"/>
-        <v>26.49528259898354</v>
-      </c>
-      <c r="H43" s="22">
-        <f t="shared" si="3"/>
-        <v>27</v>
       </c>
       <c r="I43" s="22"/>
       <c r="J43" s="22"/>
       <c r="K43" s="26">
-        <f>E96*0.15+E99*0.175</f>
+        <f>K95*0.15+K98*0.175</f>
         <v>4799400</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L43" s="26">
+        <f>E178*0.15+E181*0.175</f>
+        <v>4799400</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>4</v>
       </c>
@@ -2274,31 +2416,35 @@
         <v>81</v>
       </c>
       <c r="C44" s="1">
-        <v>10711000</v>
+        <v>11511000</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="12">
         <f t="shared" si="0"/>
-        <v>23.58253068160267</v>
+        <v>24.512196276129242</v>
       </c>
       <c r="F44" s="15">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G44">
+        <f t="shared" si="3"/>
+        <v>24.494897427831781</v>
+      </c>
+      <c r="H44">
         <f t="shared" si="2"/>
-        <v>23.49468024894146</v>
-      </c>
-      <c r="H44">
-        <f t="shared" si="3"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K44" s="1">
-        <f>E113</f>
-        <v>4940000</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+        <f>K112+K118*(1/3)</f>
+        <v>5764333.333333333</v>
+      </c>
+      <c r="L44" s="1">
+        <f>E197+E205*(1/3)+E222*0.7+E214*0.3</f>
+        <v>6331333.333333333</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="22">
         <v>5</v>
       </c>
@@ -2311,28 +2457,32 @@
       <c r="D45" s="23"/>
       <c r="E45" s="24">
         <f t="shared" si="0"/>
-        <v>8.0274397222596701</v>
+        <v>7.7640055271277228</v>
       </c>
       <c r="F45" s="25">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G45" s="22">
+        <f t="shared" si="3"/>
+        <v>7.4833147735478827</v>
+      </c>
+      <c r="H45" s="22">
         <f t="shared" si="2"/>
-        <v>8.4852813742385695</v>
-      </c>
-      <c r="H45" s="22">
-        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="I45" s="22"/>
       <c r="J45" s="22"/>
       <c r="K45" s="26">
-        <f>E96*0.1</f>
+        <f>K95*0.1</f>
         <v>2378500</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L45" s="26">
+        <f>E178*0.1</f>
+        <v>2378500</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>6</v>
       </c>
@@ -2345,26 +2495,30 @@
       <c r="D46" s="1"/>
       <c r="E46" s="12">
         <f t="shared" si="0"/>
-        <v>19.117459985842213</v>
+        <v>18.490087765235881</v>
       </c>
       <c r="F46" s="15">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G46">
+        <f t="shared" si="3"/>
+        <v>18.493242008906929</v>
+      </c>
+      <c r="H46">
         <f t="shared" si="2"/>
-        <v>19.493588689617926</v>
-      </c>
-      <c r="H46">
-        <f t="shared" si="3"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K46" s="11">
-        <f>E100*0.8</f>
+        <f>K99*0.8</f>
         <v>5176800</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L46" s="11">
+        <f>E182*0.8</f>
+        <v>5176800</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="22">
         <v>7</v>
       </c>
@@ -2372,33 +2526,37 @@
         <v>84</v>
       </c>
       <c r="C47" s="23">
-        <v>5177000</v>
+        <v>4777000</v>
       </c>
       <c r="D47" s="23"/>
       <c r="E47" s="24">
         <f t="shared" si="0"/>
-        <v>11.39825985796443</v>
+        <v>10.172423039794058</v>
       </c>
       <c r="F47" s="25">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G47" s="22">
+        <f t="shared" si="3"/>
+        <v>10.488088481701515</v>
+      </c>
+      <c r="H47" s="22">
         <f t="shared" si="2"/>
-        <v>11.489125293076057</v>
-      </c>
-      <c r="H47" s="22">
-        <f t="shared" si="3"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I47" s="22"/>
       <c r="J47" s="22"/>
       <c r="K47" s="26">
-        <f>E103*(2.5/9)+E122</f>
+        <f>K102*(2.5/9)+K121</f>
         <v>3775055.5555555555</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L47" s="26">
+        <f>E185*(2.5/9)+E210</f>
+        <v>3775055.5555555555</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>8</v>
       </c>
@@ -2411,26 +2569,30 @@
       <c r="D48" s="1"/>
       <c r="E48" s="12">
         <f t="shared" si="0"/>
-        <v>20.075204439814502</v>
+        <v>19.416402193184471</v>
       </c>
       <c r="F48" s="15">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G48">
+        <f t="shared" si="3"/>
+        <v>19.493588689617926</v>
+      </c>
+      <c r="H48">
         <f t="shared" si="2"/>
-        <v>20.493901531919196</v>
-      </c>
-      <c r="H48">
-        <f t="shared" si="3"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K48" s="1">
-        <f>E115</f>
+        <f>K114</f>
         <v>6491000</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L48" s="1">
+        <f>E196+E222*0.3</f>
+        <v>6606300</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="22">
         <v>9</v>
       </c>
@@ -2443,28 +2605,32 @@
       <c r="D49" s="23"/>
       <c r="E49" s="24">
         <f t="shared" si="0"/>
-        <v>3.3994423837545065</v>
+        <v>3.2878838546037312</v>
       </c>
       <c r="F49" s="25">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="G49" s="22">
+        <f t="shared" si="3"/>
+        <v>3.4641016151377544</v>
+      </c>
+      <c r="H49" s="22">
         <f t="shared" si="2"/>
-        <v>3.4641016151377544</v>
-      </c>
-      <c r="H49" s="22">
-        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="I49" s="22"/>
       <c r="J49" s="22"/>
       <c r="K49" s="26">
-        <f>E100*0.075</f>
+        <f>K99*0.075</f>
         <v>485325</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L49" s="26">
+        <f>E182*0.075</f>
+        <v>485325</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>10</v>
       </c>
@@ -2472,31 +2638,35 @@
         <v>87</v>
       </c>
       <c r="C50" s="1">
-        <v>16041000</v>
+        <v>17041000</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="12">
         <f t="shared" si="0"/>
-        <v>35.317652381998727</v>
+        <v>36.288101532579134</v>
       </c>
       <c r="F50" s="15">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G50">
+        <f t="shared" si="3"/>
+        <v>36.496575181789318</v>
+      </c>
+      <c r="H50">
         <f t="shared" si="2"/>
-        <v>35.496478698597699</v>
-      </c>
-      <c r="H50">
-        <f t="shared" si="3"/>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K50" s="11">
-        <f>E101+E103*(2.5/9)</f>
+        <f>K100+K102*(2.5/9)</f>
         <v>10099055.555555556</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L50" s="11">
+        <f>E183+E185*(2.5/9)+E200*0.8</f>
+        <v>14051055.555555556</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="22">
         <v>11</v>
       </c>
@@ -2509,28 +2679,32 @@
       <c r="D51" s="23"/>
       <c r="E51" s="24">
         <f t="shared" si="0"/>
-        <v>88.59466455951916</v>
+        <v>85.687278772927172</v>
       </c>
       <c r="F51" s="25">
         <f t="shared" si="1"/>
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G51" s="22">
+        <f t="shared" si="3"/>
+        <v>85.498537999196216</v>
+      </c>
+      <c r="H51" s="22">
         <f t="shared" si="2"/>
-        <v>88.498587559350341</v>
-      </c>
-      <c r="H51" s="22">
-        <f t="shared" si="3"/>
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I51" s="22"/>
       <c r="J51" s="22"/>
       <c r="K51" s="26">
-        <f>E96*0.75+E106</f>
+        <f>K95*0.75+K105</f>
         <v>22651750</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L51" s="26">
+        <f>E178*0.75+E188+E219</f>
+        <v>24289750</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>12</v>
       </c>
@@ -2538,31 +2712,35 @@
         <v>89</v>
       </c>
       <c r="C52" s="1">
-        <v>10511000</v>
+        <v>11511000</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="12">
         <f t="shared" si="0"/>
-        <v>23.142188403914261</v>
+        <v>24.512196276129242</v>
       </c>
       <c r="F52" s="15">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G52">
+        <f t="shared" si="3"/>
+        <v>24.494897427831781</v>
+      </c>
+      <c r="H52">
         <f t="shared" si="2"/>
-        <v>23.49468024894146</v>
-      </c>
-      <c r="H52">
-        <f t="shared" si="3"/>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K52" s="1">
-        <f>E126</f>
+        <f>K125</f>
         <v>2461000</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L52" s="1">
+        <f>E213+E200*0.2+E226</f>
+        <v>4383000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="22">
         <v>13</v>
       </c>
@@ -2570,33 +2748,37 @@
         <v>90</v>
       </c>
       <c r="C53" s="23">
-        <v>1098163</v>
+        <v>1098000</v>
       </c>
       <c r="D53" s="23"/>
       <c r="E53" s="24">
         <f t="shared" si="0"/>
-        <v>2.4178379834656738</v>
+        <v>2.3381453836495445</v>
       </c>
       <c r="F53" s="25">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G53" s="22">
+        <f t="shared" si="3"/>
+        <v>2.4494897427831779</v>
+      </c>
+      <c r="H53" s="22">
         <f t="shared" si="2"/>
-        <v>2.4494897427831779</v>
-      </c>
-      <c r="H53" s="22">
-        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="I53" s="22"/>
       <c r="J53" s="22"/>
       <c r="K53" s="26">
-        <f>E100*0.125</f>
+        <f>K99*0.125</f>
         <v>808875</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L53" s="26">
+        <f>E182*0.125</f>
+        <v>808875</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>14</v>
       </c>
@@ -2604,27 +2786,27 @@
         <v>91</v>
       </c>
       <c r="C54" s="1">
-        <v>647064</v>
+        <v>647000</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="12">
         <f t="shared" si="0"/>
-        <v>1.4246481778508588</v>
+        <v>1.3777596204200868</v>
       </c>
       <c r="F54" s="15">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G54">
+        <f t="shared" si="3"/>
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="H54">
         <f t="shared" si="2"/>
-        <v>1.4142135623730951</v>
-      </c>
-      <c r="H54">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="22">
         <v>15</v>
       </c>
@@ -2632,33 +2814,37 @@
         <v>92</v>
       </c>
       <c r="C55" s="23">
-        <v>8421000</v>
+        <v>9421000</v>
       </c>
       <c r="D55" s="23"/>
       <c r="E55" s="24">
         <f t="shared" si="0"/>
-        <v>18.540611602070403</v>
+        <v>20.061628105065903</v>
       </c>
       <c r="F55" s="25">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G55" s="22">
+        <f t="shared" si="3"/>
+        <v>20.493901531919196</v>
+      </c>
+      <c r="H55" s="22">
         <f t="shared" si="2"/>
-        <v>18.493242008906929</v>
-      </c>
-      <c r="H55" s="22">
-        <f t="shared" si="3"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I55" s="22"/>
       <c r="J55" s="22"/>
       <c r="K55" s="26">
-        <f>E98*0.1+E109*0.8</f>
+        <f>K97*0.1+K108*0.8</f>
         <v>4234300</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L55" s="26">
+        <f>E180*0.1+E191*0.8+E224</f>
+        <v>5227300</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>16</v>
       </c>
@@ -2672,26 +2858,30 @@
       <c r="D56" s="1"/>
       <c r="E56" s="12">
         <f t="shared" si="0"/>
-        <v>23.073935350872556</v>
+        <v>22.316724608968332</v>
       </c>
       <c r="F56" s="15">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G56">
+        <f t="shared" si="3"/>
+        <v>22.494443758403985</v>
+      </c>
+      <c r="H56">
         <f t="shared" si="2"/>
-        <v>23.49468024894146</v>
-      </c>
-      <c r="H56">
-        <f t="shared" si="3"/>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K56" s="11">
-        <f>E102*0.8</f>
+        <f>K101*0.8</f>
         <v>5558400</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L56" s="11">
+        <f>E184*0.8</f>
+        <v>5558400</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="22">
         <v>17</v>
       </c>
@@ -2704,28 +2894,32 @@
       <c r="D57" s="23"/>
       <c r="E57" s="24">
         <f t="shared" si="0"/>
-        <v>51.643342327296445</v>
+        <v>49.948577521752021</v>
       </c>
       <c r="F57" s="25">
         <f t="shared" si="1"/>
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G57" s="22">
+        <f t="shared" si="3"/>
+        <v>49.497474683058329</v>
+      </c>
+      <c r="H57" s="22">
         <f t="shared" si="2"/>
-        <v>51.497572758334933</v>
-      </c>
-      <c r="H57" s="22">
-        <f t="shared" si="3"/>
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I57" s="22"/>
       <c r="J57" s="22"/>
       <c r="K57" s="26">
-        <f>E98*0.8+E108+E112*0.2+E124+E118*0.3</f>
+        <f>K97*0.8+K107+K111*0.2+K123+K117*0.3</f>
         <v>15797500</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L57" s="26">
+        <f>E180*0.8+E190+E195*0.2+E212+E203*0.3</f>
+        <v>15592000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>18</v>
       </c>
@@ -2738,26 +2932,30 @@
       <c r="D58" s="1"/>
       <c r="E58" s="12">
         <f t="shared" si="0"/>
-        <v>20.03997705759943</v>
+        <v>19.382330857903604</v>
       </c>
       <c r="F58" s="15">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G58">
+        <f t="shared" si="3"/>
+        <v>19.493588689617926</v>
+      </c>
+      <c r="H58">
         <f t="shared" si="2"/>
-        <v>20.493901531919196</v>
-      </c>
-      <c r="H58">
-        <f t="shared" si="3"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K58" s="1">
-        <f>E127+E117+(E98*0.1)+E116*0.6</f>
+        <f>K126+K116+(K97*0.1)+K115*0.6</f>
         <v>6915700</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L58" s="1">
+        <f>E216+E202+(E180*0.1)+E201*0.6</f>
+        <v>6915700</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="22">
         <v>19</v>
       </c>
@@ -2765,33 +2963,37 @@
         <v>96</v>
       </c>
       <c r="C59" s="23">
-        <v>6302000</v>
+        <v>5302000</v>
       </c>
       <c r="D59" s="23"/>
       <c r="E59" s="24">
         <f t="shared" si="0"/>
-        <v>13.875185169961723</v>
+        <v>11.290388728697529</v>
       </c>
       <c r="F59" s="25">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G59" s="22">
+        <f t="shared" si="3"/>
+        <v>11.489125293076057</v>
+      </c>
+      <c r="H59" s="22">
         <f t="shared" si="2"/>
-        <v>13.490737563232042</v>
-      </c>
-      <c r="H59" s="22">
-        <f t="shared" si="3"/>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I59" s="22"/>
       <c r="J59" s="22"/>
       <c r="K59" s="26">
-        <f>E102*0.1+E120*0.9</f>
-        <v>4230900</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+        <f>K101*0.1+K119*0.9</f>
+        <v>2430900</v>
+      </c>
+      <c r="L59" s="26">
+        <f>E184*0.1+E206*0.9</f>
+        <v>2790900</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>20</v>
       </c>
@@ -2799,31 +3001,35 @@
         <v>97</v>
       </c>
       <c r="C60" s="1">
-        <v>7903000</v>
+        <v>6803000</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="12">
         <f t="shared" si="0"/>
-        <v>17.400125102857427</v>
+        <v>14.486705869733928</v>
       </c>
       <c r="F60" s="15">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G60">
+        <f t="shared" si="3"/>
+        <v>14.491376746189438</v>
+      </c>
+      <c r="H60">
         <f t="shared" si="2"/>
-        <v>17.4928556845359</v>
-      </c>
-      <c r="H60">
-        <f t="shared" si="3"/>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K60" s="11">
-        <f>E97*(1/3)+E125+E116*0.1</f>
-        <v>6776366.666666666</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+        <f>K96*(1/3)+K124+K115*0.1+K122*0.7</f>
+        <v>8023766.666666666</v>
+      </c>
+      <c r="L60" s="11">
+        <f>E179*(1/3)+E201*0.1+E211*0.3</f>
+        <v>5776966.666666666</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="22">
         <v>21</v>
       </c>
@@ -2831,33 +3037,37 @@
         <v>98</v>
       </c>
       <c r="C61" s="23">
-        <v>1801000</v>
+        <v>1501000</v>
       </c>
       <c r="D61" s="23"/>
       <c r="E61" s="24">
         <f t="shared" si="0"/>
-        <v>3.9652822105841103</v>
+        <v>3.1963171410363995</v>
       </c>
       <c r="F61" s="25">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="G61" s="22">
+        <f t="shared" si="3"/>
+        <v>3.4641016151377544</v>
+      </c>
+      <c r="H61" s="22">
         <f t="shared" si="2"/>
-        <v>3.4641016151377544</v>
-      </c>
-      <c r="H61" s="22">
-        <f t="shared" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I61" s="22"/>
       <c r="J61" s="22"/>
       <c r="K61" s="26">
-        <f>E120*0.1</f>
-        <v>392900</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+        <f>K119*0.1</f>
+        <v>192900</v>
+      </c>
+      <c r="L61" s="26">
+        <f>E198*0.2+E207*0.1</f>
+        <v>532300</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>22</v>
       </c>
@@ -2865,31 +3075,35 @@
         <v>99</v>
       </c>
       <c r="C62" s="1">
-        <v>7113000</v>
+        <v>11613000</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="12">
         <f t="shared" si="0"/>
-        <v>15.660773105988216</v>
+        <v>24.729401038544776</v>
       </c>
       <c r="F62" s="15">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G62">
+        <f t="shared" si="3"/>
+        <v>24.494897427831781</v>
+      </c>
+      <c r="H62">
         <f t="shared" si="2"/>
-        <v>15.491933384829668</v>
-      </c>
-      <c r="H62">
-        <f t="shared" si="3"/>
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K62" s="11">
-        <f>E104*0.6</f>
+        <f>K103*0.6</f>
         <v>4045800</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L62" s="11">
+        <f>E186*0.6+E204+E215*0.9</f>
+        <v>9099400</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="22">
         <v>23</v>
       </c>
@@ -2897,33 +3111,37 @@
         <v>100</v>
       </c>
       <c r="C63" s="23">
-        <v>11281000</v>
+        <v>8881000</v>
       </c>
       <c r="D63" s="23"/>
       <c r="E63" s="24">
         <f t="shared" si="0"/>
-        <v>24.837506173014631</v>
+        <v>18.911720539336617</v>
       </c>
       <c r="F63" s="25">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G63" s="22">
+        <f t="shared" si="3"/>
+        <v>18.493242008906929</v>
+      </c>
+      <c r="H63" s="22">
         <f t="shared" si="2"/>
-        <v>24.494897427831781</v>
-      </c>
-      <c r="H63" s="22">
-        <f t="shared" si="3"/>
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I63" s="22"/>
       <c r="J63" s="22"/>
       <c r="K63" s="26">
-        <f>E118*0.7</f>
+        <f>K117*0.7</f>
         <v>2972900</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L63" s="26">
+        <f>E203*0.7</f>
+        <v>2493400</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>24</v>
       </c>
@@ -2936,26 +3154,30 @@
       <c r="D64" s="1"/>
       <c r="E64" s="12">
         <f t="shared" si="0"/>
-        <v>48.884597957578571</v>
+        <v>47.28036607756907</v>
       </c>
       <c r="F64" s="15">
         <f t="shared" si="1"/>
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G64">
+        <f t="shared" si="3"/>
+        <v>47.497368348151667</v>
+      </c>
+      <c r="H64">
         <f t="shared" si="2"/>
-        <v>48.497422611928563</v>
-      </c>
-      <c r="H64">
-        <f t="shared" si="3"/>
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K64" s="27">
-        <f>E97*(2/3)+E121*(2/3)</f>
+        <f>K96*(2/3)+K120*(2/3)</f>
         <v>13566666.666666664</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L64" s="27">
+        <f>E179*(2/3)+E209*(2/3)</f>
+        <v>13566666.666666664</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="22">
         <v>25</v>
       </c>
@@ -2963,33 +3185,37 @@
         <v>102</v>
       </c>
       <c r="C65" s="23">
-        <v>8294000</v>
+        <v>7294000</v>
       </c>
       <c r="D65" s="23"/>
       <c r="E65" s="24">
         <f t="shared" si="0"/>
-        <v>18.260994255738261</v>
+        <v>15.532269971165555</v>
       </c>
       <c r="F65" s="25">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G65" s="22">
+        <f t="shared" si="3"/>
+        <v>15.491933384829668</v>
+      </c>
+      <c r="H65" s="22">
         <f t="shared" si="2"/>
-        <v>18.493242008906929</v>
-      </c>
-      <c r="H65" s="22">
-        <f t="shared" si="3"/>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I65" s="22"/>
       <c r="J65" s="22"/>
       <c r="K65" s="23">
-        <f>E123+E111+E116*0.3</f>
-        <v>4723100</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+        <f>K122+K110*0.3+K115</f>
+        <v>4613600</v>
+      </c>
+      <c r="L65" s="23">
+        <f>E194+E211*0.7</f>
+        <v>3499400</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>26</v>
       </c>
@@ -3002,26 +3228,30 @@
       <c r="D66" s="1"/>
       <c r="E66" s="12">
         <f t="shared" si="0"/>
-        <v>7.7632343556466257</v>
+        <v>7.5084705125212157</v>
       </c>
       <c r="F66" s="15">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="G66">
+        <f t="shared" si="3"/>
+        <v>7.4833147735478827</v>
+      </c>
+      <c r="H66">
         <f t="shared" si="2"/>
-        <v>7.4833147735478827</v>
-      </c>
-      <c r="H66">
-        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="K66" s="11">
-        <f>E102*0.1</f>
+        <f>K101*0.1</f>
         <v>694800</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L66" s="11">
+        <f>E184*0.1+E215*0.1</f>
+        <v>876200</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="22">
         <v>27</v>
       </c>
@@ -3029,33 +3259,37 @@
         <v>104</v>
       </c>
       <c r="C67" s="23">
-        <v>6562000</v>
+        <v>8562000</v>
       </c>
       <c r="D67" s="23"/>
       <c r="E67" s="24">
         <f t="shared" si="0"/>
-        <v>14.447630130956652</v>
+        <v>18.232423292174317</v>
       </c>
       <c r="F67" s="25">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G67" s="22">
+        <f t="shared" si="3"/>
+        <v>18.493242008906929</v>
+      </c>
+      <c r="H67" s="22">
         <f t="shared" si="2"/>
-        <v>14.491376746189438</v>
-      </c>
-      <c r="H67" s="22">
-        <f t="shared" si="3"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I67" s="22"/>
       <c r="J67" s="22"/>
       <c r="K67" s="26">
-        <f>E104*0.4</f>
+        <f>K103*0.4</f>
         <v>2697200</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L67" s="26">
+        <f>E186*0.4+E198*0.8+E207*0.9</f>
+        <v>5651900</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>28</v>
       </c>
@@ -3063,31 +3297,35 @@
         <v>105</v>
       </c>
       <c r="C68" s="1">
-        <v>6443000</v>
+        <v>3443000</v>
       </c>
       <c r="D68" s="1"/>
       <c r="E68" s="12">
         <f t="shared" si="0"/>
-        <v>14.18562647573205</v>
+        <v>7.3317254607517146</v>
       </c>
       <c r="F68" s="15">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G68">
+        <f t="shared" si="3"/>
+        <v>7.4833147735478827</v>
+      </c>
+      <c r="H68">
         <f t="shared" si="2"/>
-        <v>14.491376746189438</v>
-      </c>
-      <c r="H68">
-        <f t="shared" si="3"/>
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="K68" s="11">
-        <f>E105*(1/3)</f>
+        <f>K104*(1/3)</f>
         <v>1980666.6666666665</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L68" s="11">
+        <f>E187*(1/3)</f>
+        <v>1980666.6666666665</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="22">
         <v>29</v>
       </c>
@@ -3095,33 +3333,37 @@
         <v>106</v>
       </c>
       <c r="C69" s="23">
-        <v>4837000</v>
+        <v>5337000</v>
       </c>
       <c r="D69" s="23"/>
       <c r="E69" s="24">
         <f t="shared" si="0"/>
-        <v>10.649677985894137</v>
+        <v>11.364919774624425</v>
       </c>
       <c r="F69" s="25">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G69" s="22">
+        <f t="shared" si="3"/>
+        <v>11.489125293076057</v>
+      </c>
+      <c r="H69" s="22">
         <f t="shared" si="2"/>
-        <v>10.488088481701515</v>
-      </c>
-      <c r="H69" s="22">
-        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="I69" s="22"/>
       <c r="J69" s="22"/>
       <c r="K69" s="26">
-        <f>E105*(2/3)</f>
+        <f>K104*(2/3)</f>
         <v>3961333.333333333</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L69" s="26">
+        <f>E187*(2/3)</f>
+        <v>3961333.333333333</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>30</v>
       </c>
@@ -3129,66 +3371,74 @@
         <v>107</v>
       </c>
       <c r="C70" s="1">
-        <v>1334000</v>
+        <v>2534000</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="12">
         <f t="shared" si="0"/>
-        <v>2.9370829921816788</v>
+        <v>5.3960477251074188</v>
       </c>
       <c r="F70" s="15">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G70">
+        <f t="shared" si="3"/>
+        <v>5.4772255750516612</v>
+      </c>
+      <c r="H70">
         <f t="shared" si="2"/>
-        <v>2.4494897427831779</v>
-      </c>
-      <c r="H70">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="L70" s="1">
+        <f>E218</f>
+        <v>1248000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="22">
         <v>31</v>
       </c>
       <c r="B71" s="22" t="s">
-        <v>108</v>
+        <v>198</v>
       </c>
       <c r="C71" s="23">
-        <v>4321000</v>
+        <v>6921000</v>
       </c>
       <c r="D71" s="23"/>
       <c r="E71" s="24">
         <f t="shared" si="0"/>
-        <v>9.5135949094580461</v>
+        <v>14.737981967430327</v>
       </c>
       <c r="F71" s="25">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G71" s="22">
+        <f t="shared" si="3"/>
+        <v>14.491376746189438</v>
+      </c>
+      <c r="H71" s="22">
         <f t="shared" si="2"/>
-        <v>9.4868329805051381</v>
-      </c>
-      <c r="H71" s="22">
-        <f t="shared" si="3"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I71" s="22"/>
       <c r="J71" s="22"/>
       <c r="K71" s="26">
-        <f>E121*(1/3)</f>
+        <f>K120*(1/3)</f>
         <v>1770666.6666666665</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L71" s="26">
+        <f>E209*(1/3)+E208+E217</f>
+        <v>5658666.666666666</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>32</v>
       </c>
       <c r="B72" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C72" s="1">
         <v>1072000</v>
@@ -3196,89 +3446,97 @@
       <c r="D72" s="1"/>
       <c r="E72" s="12">
         <f t="shared" si="0"/>
-        <v>2.3602346084098644</v>
+        <v>2.2827794638181347</v>
       </c>
       <c r="F72" s="15">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G72">
+        <f t="shared" si="3"/>
+        <v>2.4494897427831779</v>
+      </c>
+      <c r="H72">
         <f t="shared" si="2"/>
-        <v>2.4494897427831779</v>
-      </c>
-      <c r="H72">
-        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="22">
         <v>33</v>
       </c>
       <c r="B73" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C73" s="23">
-        <v>5012000</v>
+        <v>4912000</v>
       </c>
       <c r="D73" s="23"/>
       <c r="E73" s="24">
         <f t="shared" si="0"/>
-        <v>11.034977478871493</v>
+        <v>10.459899931226378</v>
       </c>
       <c r="F73" s="25">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G73" s="22">
+        <f t="shared" si="3"/>
+        <v>10.488088481701515</v>
+      </c>
+      <c r="H73" s="22">
         <f t="shared" si="2"/>
-        <v>11.489125293076057</v>
-      </c>
-      <c r="H73" s="22">
-        <f t="shared" si="3"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I73" s="22"/>
       <c r="J73" s="22"/>
       <c r="K73" s="23">
-        <f>E107</f>
+        <f>K106</f>
         <v>4428000</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L73" s="23">
+        <f>E189</f>
+        <v>4428000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>34</v>
       </c>
       <c r="B74" t="s">
-        <v>111</v>
+        <v>229</v>
       </c>
       <c r="C74" s="1">
-        <v>1183000</v>
+        <v>1683000</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="12">
         <f t="shared" si="0"/>
-        <v>2.604624572526931</v>
+        <v>3.5838785798562691</v>
       </c>
       <c r="F74" s="15">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G74">
+        <f t="shared" si="3"/>
+        <v>3.4641016151377544</v>
+      </c>
+      <c r="H74">
         <f t="shared" si="2"/>
-        <v>2.4494897427831779</v>
-      </c>
-      <c r="H74">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="L74" s="1">
+        <f>E227</f>
+        <v>670000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="22">
         <v>35</v>
       </c>
       <c r="B75" s="22" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C75" s="23">
         <v>1426000</v>
@@ -3286,92 +3544,104 @@
       <c r="D75" s="23"/>
       <c r="E75" s="24">
         <f t="shared" si="0"/>
-        <v>3.1396404399183462</v>
+        <v>3.036607756907332</v>
       </c>
       <c r="F75" s="25">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="G75" s="22">
+        <f t="shared" si="3"/>
+        <v>3.4641016151377544</v>
+      </c>
+      <c r="H75" s="22">
         <f t="shared" si="2"/>
-        <v>3.4641016151377544</v>
-      </c>
-      <c r="H75" s="22">
-        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="I75" s="22"/>
       <c r="J75" s="22"/>
       <c r="K75" s="22"/>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L75" s="26">
+        <f>E214*0.6</f>
+        <v>732600</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>36</v>
       </c>
       <c r="B76" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C76" s="1">
-        <v>1804000</v>
+        <v>7304000</v>
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="12">
         <f t="shared" si="0"/>
-        <v>3.9718873447494363</v>
+        <v>15.553564555716097</v>
       </c>
       <c r="F76" s="15">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G76">
+        <f t="shared" si="3"/>
+        <v>15.491933384829668</v>
+      </c>
+      <c r="H76">
         <f t="shared" si="2"/>
-        <v>3.4641016151377544</v>
-      </c>
-      <c r="H76">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="L76" s="1">
+        <f>E192+E221</f>
+        <v>6788000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="22">
         <v>37</v>
       </c>
       <c r="B77" s="22" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C77" s="23">
-        <v>4401000</v>
+        <v>3201000</v>
       </c>
       <c r="D77" s="23"/>
       <c r="E77" s="24">
         <f t="shared" si="0"/>
-        <v>9.6897318205334084</v>
+        <v>6.8163965146285905</v>
       </c>
       <c r="F77" s="25">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G77" s="22">
+        <f t="shared" si="3"/>
+        <v>6.4807406984078604</v>
+      </c>
+      <c r="H77" s="22">
         <f t="shared" si="2"/>
-        <v>9.4868329805051381</v>
-      </c>
-      <c r="H77" s="22">
-        <f t="shared" si="3"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I77" s="22"/>
       <c r="J77" s="22"/>
       <c r="K77" s="23">
-        <f>E119</f>
-        <v>3473000</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+        <f>K118*(2/3)</f>
+        <v>1648666.6666666665</v>
+      </c>
+      <c r="L77" s="23">
+        <f>E205*(2/3)</f>
+        <v>1648666.6666666665</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>38</v>
       </c>
       <c r="B78" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C78" s="1">
         <v>1068000</v>
@@ -3379,62 +3649,66 @@
       <c r="D78" s="1"/>
       <c r="E78" s="12">
         <f t="shared" si="0"/>
-        <v>2.3514277628560967</v>
+        <v>2.2742616299979179</v>
       </c>
       <c r="F78" s="15">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G78">
+        <f t="shared" si="3"/>
+        <v>2.4494897427831779</v>
+      </c>
+      <c r="H78">
         <f t="shared" si="2"/>
-        <v>2.4494897427831779</v>
-      </c>
-      <c r="H78">
-        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="22">
         <v>39</v>
       </c>
       <c r="B79" s="22" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C79" s="23">
-        <f>K79</f>
-        <v>4036888.8888888885</v>
+        <f>4303000</f>
+        <v>4303000</v>
       </c>
       <c r="D79" s="23"/>
       <c r="E79" s="24">
         <f t="shared" si="0"/>
-        <v>8.8880642405417909</v>
+        <v>9.1630597320983522</v>
       </c>
       <c r="F79" s="25">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G79" s="22">
+        <f t="shared" si="3"/>
+        <v>9.4868329805051381</v>
+      </c>
+      <c r="H79" s="22">
         <f t="shared" si="2"/>
-        <v>8.4852813742385695</v>
-      </c>
-      <c r="H79" s="22">
-        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="I79" s="22"/>
       <c r="J79" s="22"/>
       <c r="K79" s="26">
-        <f>E103*(4/9)</f>
+        <f>K102*(4/9)</f>
         <v>4036888.8888888885</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L79" s="26">
+        <f>E185*(4/9)</f>
+        <v>4036888.8888888885</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>40</v>
       </c>
       <c r="B80" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C80" s="1">
         <v>1331000</v>
@@ -3442,18 +3716,18 @@
       <c r="D80" s="1"/>
       <c r="E80" s="12">
         <f t="shared" si="0"/>
-        <v>2.9304778580163524</v>
+        <v>2.8343092036771802</v>
       </c>
       <c r="F80" s="15">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G80">
+        <f t="shared" si="3"/>
+        <v>2.4494897427831779</v>
+      </c>
+      <c r="H80">
         <f t="shared" si="2"/>
-        <v>2.4494897427831779</v>
-      </c>
-      <c r="H80">
-        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
@@ -3462,27 +3736,27 @@
         <v>41</v>
       </c>
       <c r="B81" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C81" s="23">
-        <v>435000</v>
+        <v>3121000</v>
       </c>
       <c r="D81" s="23"/>
       <c r="E81" s="24">
-        <f t="shared" si="0"/>
-        <v>0.95774445397228647</v>
+        <f>C81/$B$37</f>
+        <v>6.6460398382242527</v>
       </c>
       <c r="F81" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>FLOOR(E81,1)</f>
+        <v>6</v>
       </c>
       <c r="G81" s="22">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>SQRT(F81*(F81+1))</f>
+        <v>6.4807406984078604</v>
       </c>
       <c r="H81" s="22">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f>IF(E81&gt;G81,CEILING(E81,1),FLOOR(E81,1))</f>
+        <v>7</v>
       </c>
       <c r="I81" s="22"/>
       <c r="J81" s="22"/>
@@ -3493,27 +3767,27 @@
         <v>42</v>
       </c>
       <c r="B82" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C82" s="1">
-        <v>3121000</v>
+        <v>435000</v>
       </c>
       <c r="D82" s="1"/>
       <c r="E82" s="12">
         <f t="shared" si="0"/>
-        <v>6.8715412433276004</v>
+        <v>0.92631442794859009</v>
       </c>
       <c r="F82" s="15">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G82">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H82">
         <f t="shared" si="2"/>
-        <v>6.4807406984078604</v>
-      </c>
-      <c r="H82">
-        <f t="shared" si="3"/>
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
@@ -3521,654 +3795,2275 @@
         <v>43</v>
       </c>
       <c r="B83" s="22" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C83" s="23">
-        <v>412000</v>
+        <v>292000</v>
       </c>
       <c r="D83" s="23"/>
       <c r="E83" s="24">
-        <f t="shared" si="0"/>
-        <v>0.90710509203811962</v>
+        <f>C83/$B$37</f>
+        <v>0.62180186887583522</v>
       </c>
       <c r="F83" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G83" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H83" s="22">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H83" s="22">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I83" s="22"/>
       <c r="J83" s="22"/>
       <c r="K83" s="22"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="3">
+    <row r="84" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="4"/>
+      <c r="B84" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C84" s="7">
+        <f>SUM(C41:C83)</f>
+        <v>315632000</v>
+      </c>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7">
+        <f>SUM(E41:E83)</f>
+        <v>672.12523108567655</v>
+      </c>
+      <c r="F84" s="7"/>
+      <c r="G84" s="7"/>
+      <c r="H84" s="7">
+        <f>SUM(H41:H83)</f>
+        <v>670</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>64</v>
+      </c>
+      <c r="B86" s="12">
+        <f>$C$84/B32</f>
+        <v>73.530055806280956</v>
+      </c>
+      <c r="C86" s="12">
+        <f>$C$84/C32</f>
+        <v>68.360124974618898</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G94" t="s">
+        <v>141</v>
+      </c>
+      <c r="H94" t="s">
+        <v>142</v>
+      </c>
+      <c r="I94" t="s">
+        <v>129</v>
+      </c>
+      <c r="J94" t="s">
+        <v>143</v>
+      </c>
+      <c r="K94" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G95" s="20">
+        <v>1</v>
+      </c>
+      <c r="H95" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="I95" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="J95" s="21">
+        <v>10090000</v>
+      </c>
+      <c r="K95" s="21">
+        <v>23785000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G96" s="20">
+        <v>2</v>
+      </c>
+      <c r="H96" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="I96" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="J96" s="21">
+        <v>5221000</v>
+      </c>
+      <c r="K96" s="21">
+        <v>15038000</v>
+      </c>
+    </row>
+    <row r="97" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G97" s="20">
+        <v>3</v>
+      </c>
+      <c r="H97" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="I97" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="J97" s="21">
+        <v>4047000</v>
+      </c>
+      <c r="K97" s="21">
+        <v>10415000</v>
+      </c>
+    </row>
+    <row r="98" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G98" s="20">
+        <v>4</v>
+      </c>
+      <c r="H98" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="I98" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="J98" s="21">
+        <v>2513000</v>
+      </c>
+      <c r="K98" s="21">
+        <v>7038000</v>
+      </c>
+    </row>
+    <row r="99" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G99" s="20">
+        <v>5</v>
+      </c>
+      <c r="H99" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="I99" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="J99" s="21">
+        <v>2210000</v>
+      </c>
+      <c r="K99" s="21">
+        <v>6471000</v>
+      </c>
+    </row>
+    <row r="100" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G100" s="20">
+        <v>6</v>
+      </c>
+      <c r="H100" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="I100" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="J100" s="21">
+        <v>2031000</v>
+      </c>
+      <c r="K100" s="21">
+        <v>7576000</v>
+      </c>
+    </row>
+    <row r="101" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G101" s="20">
+        <v>7</v>
+      </c>
+      <c r="H101" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="I101" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="J101" s="21">
+        <v>1719000</v>
+      </c>
+      <c r="K101" s="21">
+        <v>6948000</v>
+      </c>
+    </row>
+    <row r="102" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G102" s="20">
+        <v>8</v>
+      </c>
+      <c r="H102" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="I102" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="J102" s="21">
+        <v>1643000</v>
+      </c>
+      <c r="K102" s="21">
+        <v>9083000</v>
+      </c>
+    </row>
+    <row r="103" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G103" s="20">
+        <v>9</v>
+      </c>
+      <c r="H103" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="I103" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="J103" s="21">
+        <v>1480000</v>
+      </c>
+      <c r="K103" s="21">
+        <v>6743000</v>
+      </c>
+    </row>
+    <row r="104" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G104" s="20">
+        <v>10</v>
+      </c>
+      <c r="H104" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="I104" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="J104" s="21">
+        <v>1422000</v>
+      </c>
+      <c r="K104" s="21">
+        <v>5942000</v>
+      </c>
+    </row>
+    <row r="105" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G105" s="20">
+        <v>11</v>
+      </c>
+      <c r="H105" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="I105" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="J105" s="21">
+        <v>1383000</v>
+      </c>
+      <c r="K105" s="21">
+        <v>4813000</v>
+      </c>
+    </row>
+    <row r="106" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G106" s="20">
+        <v>12</v>
+      </c>
+      <c r="H106" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="I106" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="J106" s="21">
+        <v>1369000</v>
+      </c>
+      <c r="K106" s="21">
+        <v>4428000</v>
+      </c>
+    </row>
+    <row r="107" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G107" s="20">
+        <v>13</v>
+      </c>
+      <c r="H107" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="I107" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="J107" s="21">
+        <v>1248000</v>
+      </c>
+      <c r="K107" s="21">
+        <v>3327000</v>
+      </c>
+    </row>
+    <row r="108" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G108" s="20">
+        <v>14</v>
+      </c>
+      <c r="H108" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="I108" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="J108" s="21">
+        <v>1222000</v>
+      </c>
+      <c r="K108" s="21">
+        <v>3991000</v>
+      </c>
+    </row>
+    <row r="109" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G109" s="20">
+        <v>15</v>
+      </c>
+      <c r="H109" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="I109" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="J109" s="21">
+        <v>1210000</v>
+      </c>
+      <c r="K109" s="21">
+        <v>15038000</v>
+      </c>
+    </row>
+    <row r="110" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G110" s="20">
+        <v>16</v>
+      </c>
+      <c r="H110" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="I110" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="J110" s="21">
+        <v>1180000</v>
+      </c>
+      <c r="K110" s="21">
+        <v>1782000</v>
+      </c>
+    </row>
+    <row r="111" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G111" s="20">
+        <v>17</v>
+      </c>
+      <c r="H111" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="I111" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="J111" s="21">
+        <v>1159000</v>
+      </c>
+      <c r="K111" s="21">
+        <v>3447000</v>
+      </c>
+    </row>
+    <row r="112" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G112" s="20">
+        <v>18</v>
+      </c>
+      <c r="H112" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="I112" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="J112" s="21">
+        <v>1091000</v>
+      </c>
+      <c r="K112" s="21">
+        <v>4940000</v>
+      </c>
+    </row>
+    <row r="113" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G113" s="20">
+        <v>19</v>
+      </c>
+      <c r="H113" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="I113" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="J113" s="21">
+        <v>1001000</v>
+      </c>
+      <c r="K113" s="21">
+        <v>23785000</v>
+      </c>
+    </row>
+    <row r="114" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G114" s="20">
+        <v>20</v>
+      </c>
+      <c r="H114" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="I114" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="J114" s="21">
+        <v>1021000</v>
+      </c>
+      <c r="K114" s="21">
+        <v>6491000</v>
+      </c>
+    </row>
+    <row r="115" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G115" s="20">
+        <v>21</v>
+      </c>
+      <c r="H115" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="I115" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="J115" s="21">
+        <v>983000</v>
+      </c>
+      <c r="K115" s="21">
+        <v>2297000</v>
+      </c>
+    </row>
+    <row r="116" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G116" s="20">
+        <v>22</v>
+      </c>
+      <c r="H116" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="I116" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="J116" s="21">
+        <v>951000</v>
+      </c>
+      <c r="K116" s="21">
+        <v>2929000</v>
+      </c>
+    </row>
+    <row r="117" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G117" s="20">
+        <v>23</v>
+      </c>
+      <c r="H117" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="I117" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="J117" s="21">
+        <v>925000</v>
+      </c>
+      <c r="K117" s="21">
+        <v>4247000</v>
+      </c>
+    </row>
+    <row r="118" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G118" s="20">
+        <v>24</v>
+      </c>
+      <c r="H118" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="I118" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="J118" s="21">
+        <v>877000</v>
+      </c>
+      <c r="K118" s="21">
+        <v>2473000</v>
+      </c>
+    </row>
+    <row r="119" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G119" s="20">
+        <v>25</v>
+      </c>
+      <c r="H119" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="I119" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="J119" s="21">
+        <v>851000</v>
+      </c>
+      <c r="K119" s="21">
+        <v>1929000</v>
+      </c>
+    </row>
+    <row r="120" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G120" s="20">
+        <v>26</v>
+      </c>
+      <c r="H120" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="I120" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="J120" s="21">
+        <v>788000</v>
+      </c>
+      <c r="K120" s="21">
+        <v>5312000</v>
+      </c>
+    </row>
+    <row r="121" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G121" s="20">
+        <v>27</v>
+      </c>
+      <c r="H121" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="I121" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="J121" s="21">
+        <v>765000</v>
+      </c>
+      <c r="K121" s="21">
+        <v>1252000</v>
+      </c>
+    </row>
+    <row r="122" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G122" s="20">
+        <v>28</v>
+      </c>
+      <c r="H122" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="I122" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="J122" s="21">
+        <v>741000</v>
+      </c>
+      <c r="K122" s="21">
+        <v>1782000</v>
+      </c>
+    </row>
+    <row r="123" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G123" s="20">
+        <v>29</v>
+      </c>
+      <c r="H123" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="I123" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="J123" s="21">
+        <v>729000</v>
+      </c>
+      <c r="K123" s="21">
+        <v>2175000</v>
+      </c>
+    </row>
+    <row r="124" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G124" s="20">
+        <v>30</v>
+      </c>
+      <c r="H124" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="I124" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="J124" s="21">
+        <v>715000</v>
+      </c>
+      <c r="K124" s="21">
+        <v>1534000</v>
+      </c>
+    </row>
+    <row r="125" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G125" s="20">
+        <v>31</v>
+      </c>
+      <c r="H125" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="I125" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="J125" s="21">
+        <v>701000</v>
+      </c>
+      <c r="K125" s="21">
+        <v>2461000</v>
+      </c>
+    </row>
+    <row r="126" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G126" s="20">
+        <v>32</v>
+      </c>
+      <c r="H126" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="I126" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="J126" s="21">
+        <v>656000</v>
+      </c>
+      <c r="K126" s="21">
+        <v>1567000</v>
+      </c>
+    </row>
+    <row r="130" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G130" t="s">
+        <v>141</v>
+      </c>
+      <c r="H130" t="s">
+        <v>142</v>
+      </c>
+      <c r="I130" t="s">
+        <v>129</v>
+      </c>
+      <c r="J130" t="s">
+        <v>143</v>
+      </c>
+      <c r="K130" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="131" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G131">
+        <v>1</v>
+      </c>
+      <c r="H131" t="s">
+        <v>208</v>
+      </c>
+      <c r="I131" t="s">
+        <v>88</v>
+      </c>
+      <c r="J131" s="1">
+        <v>10090000</v>
+      </c>
+      <c r="K131" s="1">
+        <v>23785000</v>
+      </c>
+    </row>
+    <row r="132" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G132">
+        <v>2</v>
+      </c>
+      <c r="H132" t="s">
+        <v>146</v>
+      </c>
+      <c r="I132" t="s">
+        <v>101</v>
+      </c>
+      <c r="J132" s="1">
+        <v>5221000</v>
+      </c>
+      <c r="K132" s="1">
+        <v>15038000</v>
+      </c>
+    </row>
+    <row r="133" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G133">
+        <v>3</v>
+      </c>
+      <c r="H133" t="s">
+        <v>147</v>
+      </c>
+      <c r="I133" t="s">
+        <v>94</v>
+      </c>
+      <c r="J133" s="1">
+        <v>4047000</v>
+      </c>
+      <c r="K133" s="1">
+        <v>10415000</v>
+      </c>
+    </row>
+    <row r="134" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G134">
+        <v>4</v>
+      </c>
+      <c r="H134" t="s">
+        <v>148</v>
+      </c>
+      <c r="I134" t="s">
+        <v>79</v>
+      </c>
+      <c r="J134" s="1">
+        <v>2513000</v>
+      </c>
+      <c r="K134" s="1">
+        <v>7038000</v>
+      </c>
+    </row>
+    <row r="135" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G135">
+        <v>5</v>
+      </c>
+      <c r="H135" t="s">
+        <v>149</v>
+      </c>
+      <c r="I135" t="s">
+        <v>83</v>
+      </c>
+      <c r="J135" s="1">
+        <v>2210000</v>
+      </c>
+      <c r="K135" s="1">
+        <v>6471000</v>
+      </c>
+    </row>
+    <row r="136" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G136">
+        <v>6</v>
+      </c>
+      <c r="H136" t="s">
+        <v>150</v>
+      </c>
+      <c r="I136" t="s">
+        <v>87</v>
+      </c>
+      <c r="J136" s="1">
+        <v>2031000</v>
+      </c>
+      <c r="K136" s="1">
+        <v>7576000</v>
+      </c>
+    </row>
+    <row r="137" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G137">
+        <v>7</v>
+      </c>
+      <c r="H137" t="s">
+        <v>151</v>
+      </c>
+      <c r="I137" t="s">
+        <v>93</v>
+      </c>
+      <c r="J137" s="1">
+        <v>1719000</v>
+      </c>
+      <c r="K137" s="1">
+        <v>6948000</v>
+      </c>
+    </row>
+    <row r="138" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G138">
+        <v>8</v>
+      </c>
+      <c r="H138" t="s">
+        <v>209</v>
+      </c>
+      <c r="I138" t="s">
+        <v>153</v>
+      </c>
+      <c r="J138" s="1">
+        <v>1643000</v>
+      </c>
+      <c r="K138" s="1">
+        <v>9083000</v>
+      </c>
+    </row>
+    <row r="139" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G139">
+        <v>9</v>
+      </c>
+      <c r="H139" t="s">
+        <v>154</v>
+      </c>
+      <c r="I139" t="s">
+        <v>99</v>
+      </c>
+      <c r="J139" s="1">
+        <v>1480000</v>
+      </c>
+      <c r="K139" s="1">
+        <v>6743000</v>
+      </c>
+    </row>
+    <row r="140" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G140">
+        <v>10</v>
+      </c>
+      <c r="H140" t="s">
+        <v>155</v>
+      </c>
+      <c r="I140" t="s">
+        <v>106</v>
+      </c>
+      <c r="J140" s="1">
+        <v>1422000</v>
+      </c>
+      <c r="K140" s="1">
+        <v>5942000</v>
+      </c>
+    </row>
+    <row r="141" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G141">
+        <v>11</v>
+      </c>
+      <c r="H141" t="s">
+        <v>156</v>
+      </c>
+      <c r="I141" t="s">
+        <v>88</v>
+      </c>
+      <c r="J141" s="1">
+        <v>1383000</v>
+      </c>
+      <c r="K141" s="1">
+        <v>4813000</v>
+      </c>
+    </row>
+    <row r="142" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G142">
+        <v>12</v>
+      </c>
+      <c r="H142" t="s">
+        <v>157</v>
+      </c>
+      <c r="I142" t="s">
+        <v>38</v>
+      </c>
+      <c r="J142" s="1">
+        <v>1369000</v>
+      </c>
+      <c r="K142" s="1">
+        <v>4428000</v>
+      </c>
+    </row>
+    <row r="143" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G143">
+        <v>13</v>
+      </c>
+      <c r="H143" t="s">
+        <v>158</v>
+      </c>
+      <c r="I143" t="s">
+        <v>94</v>
+      </c>
+      <c r="J143" s="1">
+        <v>1248000</v>
+      </c>
+      <c r="K143" s="1">
+        <v>3327000</v>
+      </c>
+    </row>
+    <row r="144" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G144">
+        <v>14</v>
+      </c>
+      <c r="H144" t="s">
+        <v>159</v>
+      </c>
+      <c r="I144" t="s">
+        <v>92</v>
+      </c>
+      <c r="J144" s="1">
+        <v>1222000</v>
+      </c>
+      <c r="K144" s="1">
+        <v>3991000</v>
+      </c>
+    </row>
+    <row r="145" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G145">
+        <v>15</v>
+      </c>
+      <c r="H145" t="s">
+        <v>160</v>
+      </c>
+      <c r="I145" t="s">
+        <v>97</v>
+      </c>
+      <c r="J145" s="1">
+        <v>1210000</v>
+      </c>
+      <c r="K145" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="146" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G146">
+        <v>16</v>
+      </c>
+      <c r="H146" t="s">
+        <v>202</v>
+      </c>
+      <c r="I146" t="s">
+        <v>102</v>
+      </c>
+      <c r="J146" s="1">
+        <v>1180000</v>
+      </c>
+      <c r="K146" s="1">
+        <v>2252000</v>
+      </c>
+    </row>
+    <row r="147" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G147">
+        <v>17</v>
+      </c>
+      <c r="H147" t="s">
+        <v>162</v>
+      </c>
+      <c r="I147" t="s">
+        <v>79</v>
+      </c>
+      <c r="J147" s="1">
+        <v>1159000</v>
+      </c>
+      <c r="K147" s="1">
+        <v>3447000</v>
+      </c>
+    </row>
+    <row r="148" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G148">
+        <v>18</v>
+      </c>
+      <c r="H148" t="s">
+        <v>165</v>
+      </c>
+      <c r="I148" t="s">
+        <v>85</v>
+      </c>
+      <c r="J148" s="1">
+        <v>1091000</v>
+      </c>
+      <c r="K148" s="1">
+        <v>6491000</v>
+      </c>
+    </row>
+    <row r="149" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G149">
+        <v>19</v>
+      </c>
+      <c r="H149" t="s">
+        <v>211</v>
+      </c>
+      <c r="I149" t="s">
+        <v>81</v>
+      </c>
+      <c r="J149" s="1">
+        <v>1069000</v>
+      </c>
+      <c r="K149" s="1">
+        <v>5105000</v>
+      </c>
+    </row>
+    <row r="150" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G150">
+        <v>20</v>
+      </c>
+      <c r="H150" t="s">
+        <v>203</v>
+      </c>
+      <c r="I150" t="s">
+        <v>104</v>
+      </c>
+      <c r="J150" s="1">
+        <v>1044000</v>
+      </c>
+      <c r="K150" s="1">
+        <v>1836000</v>
+      </c>
+    </row>
+    <row r="151" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G151">
+        <v>21</v>
+      </c>
+      <c r="H151" t="s">
+        <v>224</v>
+      </c>
+      <c r="I151" t="s">
+        <v>80</v>
+      </c>
+      <c r="J151" s="1">
+        <v>1021000</v>
+      </c>
+      <c r="K151" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="152" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G152">
+        <v>22</v>
+      </c>
+      <c r="H152" t="s">
+        <v>226</v>
+      </c>
+      <c r="I152" t="s">
+        <v>87</v>
+      </c>
+      <c r="J152" s="1">
+        <v>1001000</v>
+      </c>
+      <c r="K152" s="1">
+        <v>4940000</v>
+      </c>
+    </row>
+    <row r="153" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G153">
+        <v>23</v>
+      </c>
+      <c r="H153" t="s">
+        <v>212</v>
+      </c>
+      <c r="I153" t="s">
+        <v>95</v>
+      </c>
+      <c r="J153" s="1">
+        <v>983000</v>
+      </c>
+      <c r="K153" s="1">
+        <v>2297000</v>
+      </c>
+    </row>
+    <row r="154" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G154">
+        <v>24</v>
+      </c>
+      <c r="H154" t="s">
+        <v>213</v>
+      </c>
+      <c r="I154" t="s">
+        <v>95</v>
+      </c>
+      <c r="J154" s="1">
+        <v>951000</v>
+      </c>
+      <c r="K154" s="1">
+        <v>2929000</v>
+      </c>
+    </row>
+    <row r="155" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G155">
+        <v>25</v>
+      </c>
+      <c r="H155" t="s">
+        <v>214</v>
+      </c>
+      <c r="I155" t="s">
+        <v>100</v>
+      </c>
+      <c r="J155" s="1">
+        <v>925000</v>
+      </c>
+      <c r="K155" s="1">
+        <v>4247000</v>
+      </c>
+    </row>
+    <row r="156" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G156">
+        <v>26</v>
+      </c>
+      <c r="H156" t="s">
+        <v>215</v>
+      </c>
+      <c r="I156" t="s">
+        <v>99</v>
+      </c>
+      <c r="J156" s="1">
+        <v>903000</v>
+      </c>
+      <c r="K156" s="1">
+        <v>3562000</v>
+      </c>
+    </row>
+    <row r="157" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G157">
+        <v>27</v>
+      </c>
+      <c r="H157" t="s">
+        <v>216</v>
+      </c>
+      <c r="I157" t="s">
+        <v>117</v>
+      </c>
+      <c r="J157" s="1">
+        <v>891000</v>
+      </c>
+      <c r="K157" s="1">
+        <v>3421000</v>
+      </c>
+    </row>
+    <row r="158" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G158">
+        <v>28</v>
+      </c>
+      <c r="H158" t="s">
+        <v>197</v>
+      </c>
+      <c r="I158" t="s">
+        <v>118</v>
+      </c>
+      <c r="J158" s="1">
+        <v>877000</v>
+      </c>
+      <c r="K158" s="1">
+        <v>2473000</v>
+      </c>
+    </row>
+    <row r="159" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G159">
+        <v>29</v>
+      </c>
+      <c r="H159" t="s">
+        <v>217</v>
+      </c>
+      <c r="I159" t="s">
+        <v>96</v>
+      </c>
+      <c r="J159" s="1">
+        <v>851000</v>
+      </c>
+      <c r="K159" s="1">
+        <v>2329000</v>
+      </c>
+    </row>
+    <row r="160" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G160">
+        <v>30</v>
+      </c>
+      <c r="H160" t="s">
+        <v>206</v>
+      </c>
+      <c r="I160" t="s">
+        <v>104</v>
+      </c>
+      <c r="J160" s="1">
+        <v>824000</v>
+      </c>
+      <c r="K160" s="1">
+        <v>1651000</v>
+      </c>
+    </row>
+    <row r="161" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G161">
+        <v>31</v>
+      </c>
+      <c r="H161" t="s">
+        <v>207</v>
+      </c>
+      <c r="I161" t="s">
+        <v>198</v>
+      </c>
+      <c r="J161" s="1">
+        <v>802000</v>
+      </c>
+      <c r="K161" s="1">
+        <v>2547000</v>
+      </c>
+    </row>
+    <row r="162" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G162">
+        <v>32</v>
+      </c>
+      <c r="H162" t="s">
+        <v>167</v>
+      </c>
+      <c r="I162" t="s">
+        <v>101</v>
+      </c>
+      <c r="J162" s="1">
+        <v>788000</v>
+      </c>
+      <c r="K162" s="1">
+        <v>5312000</v>
+      </c>
+    </row>
+    <row r="163" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G163">
+        <v>33</v>
+      </c>
+      <c r="H163" t="s">
+        <v>168</v>
+      </c>
+      <c r="I163" t="s">
+        <v>84</v>
+      </c>
+      <c r="J163" s="1">
+        <v>765000</v>
+      </c>
+      <c r="K163" s="1">
+        <v>1252000</v>
+      </c>
+    </row>
+    <row r="164" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G164">
+        <v>34</v>
+      </c>
+      <c r="H164" t="s">
+        <v>161</v>
+      </c>
+      <c r="I164" t="s">
+        <v>102</v>
+      </c>
+      <c r="J164" s="1">
+        <v>741000</v>
+      </c>
+      <c r="K164" s="1">
+        <v>1782000</v>
+      </c>
+    </row>
+    <row r="165" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G165">
+        <v>35</v>
+      </c>
+      <c r="H165" t="s">
+        <v>169</v>
+      </c>
+      <c r="I165" t="s">
+        <v>94</v>
+      </c>
+      <c r="J165" s="1">
+        <v>729000</v>
+      </c>
+      <c r="K165" s="1">
+        <v>2175000</v>
+      </c>
+    </row>
+    <row r="166" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G166">
+        <v>36</v>
+      </c>
+      <c r="H166" t="s">
+        <v>171</v>
+      </c>
+      <c r="I166" t="s">
+        <v>89</v>
+      </c>
+      <c r="J166" s="1">
+        <v>701000</v>
+      </c>
+      <c r="K166" s="1">
+        <v>2461000</v>
+      </c>
+    </row>
+    <row r="167" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G167">
+        <v>37</v>
+      </c>
+      <c r="H167" t="s">
+        <v>218</v>
+      </c>
+      <c r="I167" t="s">
+        <v>110</v>
+      </c>
+      <c r="J167" s="1">
+        <v>682000</v>
+      </c>
+      <c r="K167" s="1">
+        <v>1221000</v>
+      </c>
+    </row>
+    <row r="168" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G168">
+        <v>38</v>
+      </c>
+      <c r="H168" t="s">
+        <v>219</v>
+      </c>
+      <c r="I168" t="s">
+        <v>99</v>
+      </c>
+      <c r="J168" s="1">
+        <v>668000</v>
+      </c>
+      <c r="K168" s="1">
+        <v>1614000</v>
+      </c>
+    </row>
+    <row r="169" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G169">
+        <v>39</v>
+      </c>
+      <c r="H169" t="s">
+        <v>172</v>
+      </c>
+      <c r="I169" t="s">
+        <v>95</v>
+      </c>
+      <c r="J169" s="1">
+        <v>656000</v>
+      </c>
+      <c r="K169" s="1">
+        <v>1567000</v>
+      </c>
+    </row>
+    <row r="170" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G170">
+        <v>40</v>
+      </c>
+      <c r="H170" t="s">
+        <v>220</v>
+      </c>
+      <c r="I170" t="s">
+        <v>198</v>
+      </c>
+      <c r="J170" s="1">
+        <v>634000</v>
+      </c>
+      <c r="K170" s="1">
+        <v>1341000</v>
+      </c>
+    </row>
+    <row r="171" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G171">
+        <v>41</v>
+      </c>
+      <c r="H171" t="s">
+        <v>204</v>
+      </c>
+      <c r="I171" t="s">
+        <v>205</v>
+      </c>
+      <c r="J171" s="1">
+        <v>613000</v>
+      </c>
+      <c r="K171" s="1">
+        <v>1248000</v>
+      </c>
+    </row>
+    <row r="172" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G172">
+        <v>42</v>
+      </c>
+      <c r="H172" t="s">
+        <v>221</v>
+      </c>
+      <c r="I172" t="s">
+        <v>80</v>
+      </c>
+      <c r="J172" s="1">
+        <v>584000</v>
+      </c>
+      <c r="K172" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="173" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G173">
+        <v>43</v>
+      </c>
+      <c r="H173" t="s">
+        <v>222</v>
+      </c>
+      <c r="I173" t="s">
+        <v>117</v>
+      </c>
+      <c r="J173" s="1">
+        <v>565000</v>
+      </c>
+      <c r="K173" s="1">
+        <v>1641000</v>
+      </c>
+    </row>
+    <row r="174" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G174">
         <v>44</v>
       </c>
-      <c r="B84" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C84" s="6">
-        <v>167000</v>
-      </c>
-      <c r="D84" s="1"/>
-      <c r="E84" s="12">
-        <f t="shared" si="0"/>
-        <v>0.36768580186982031</v>
-      </c>
-      <c r="F84" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G84">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H84">
-        <f t="shared" si="3"/>
+      <c r="H174" t="s">
+        <v>223</v>
+      </c>
+      <c r="I174" t="s">
+        <v>81</v>
+      </c>
+      <c r="J174" s="1">
+        <v>524000</v>
+      </c>
+      <c r="K174" s="1">
+        <v>1051000</v>
+      </c>
+    </row>
+    <row r="175" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G175">
+        <v>45</v>
+      </c>
+      <c r="H175" t="s">
+        <v>227</v>
+      </c>
+      <c r="I175" t="s">
+        <v>92</v>
+      </c>
+      <c r="J175" s="1">
+        <v>501000</v>
+      </c>
+      <c r="K175" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>141</v>
+      </c>
+      <c r="B177" t="s">
+        <v>142</v>
+      </c>
+      <c r="C177" t="s">
+        <v>129</v>
+      </c>
+      <c r="D177" t="s">
+        <v>143</v>
+      </c>
+      <c r="E177" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="4"/>
-      <c r="B85" s="4" t="s">
+      <c r="B178" t="s">
+        <v>208</v>
+      </c>
+      <c r="C178" t="s">
+        <v>88</v>
+      </c>
+      <c r="D178" s="1">
+        <v>10090000</v>
+      </c>
+      <c r="E178" s="1">
+        <v>23785000</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>2</v>
+      </c>
+      <c r="B179" t="s">
+        <v>146</v>
+      </c>
+      <c r="C179" t="s">
+        <v>101</v>
+      </c>
+      <c r="D179" s="1">
+        <v>5221000</v>
+      </c>
+      <c r="E179" s="1">
+        <v>15038000</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>3</v>
+      </c>
+      <c r="B180" t="s">
+        <v>147</v>
+      </c>
+      <c r="C180" t="s">
+        <v>94</v>
+      </c>
+      <c r="D180" s="1">
+        <v>4047000</v>
+      </c>
+      <c r="E180" s="1">
+        <v>10415000</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>4</v>
+      </c>
+      <c r="B181" t="s">
+        <v>148</v>
+      </c>
+      <c r="C181" t="s">
+        <v>79</v>
+      </c>
+      <c r="D181" s="1">
+        <v>2513000</v>
+      </c>
+      <c r="E181" s="1">
+        <v>7038000</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>5</v>
+      </c>
+      <c r="B182" t="s">
+        <v>149</v>
+      </c>
+      <c r="C182" t="s">
+        <v>83</v>
+      </c>
+      <c r="D182" s="1">
+        <v>2210000</v>
+      </c>
+      <c r="E182" s="1">
+        <v>6471000</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>6</v>
+      </c>
+      <c r="B183" t="s">
+        <v>150</v>
+      </c>
+      <c r="C183" t="s">
+        <v>87</v>
+      </c>
+      <c r="D183" s="1">
+        <v>2031000</v>
+      </c>
+      <c r="E183" s="1">
+        <v>7576000</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>7</v>
+      </c>
+      <c r="B184" t="s">
+        <v>151</v>
+      </c>
+      <c r="C184" t="s">
+        <v>93</v>
+      </c>
+      <c r="D184" s="1">
+        <v>1719000</v>
+      </c>
+      <c r="E184" s="1">
+        <v>6948000</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>8</v>
+      </c>
+      <c r="B185" t="s">
+        <v>209</v>
+      </c>
+      <c r="C185" t="s">
+        <v>153</v>
+      </c>
+      <c r="D185" s="1">
+        <v>1643000</v>
+      </c>
+      <c r="E185" s="1">
+        <v>9083000</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>9</v>
+      </c>
+      <c r="B186" t="s">
+        <v>154</v>
+      </c>
+      <c r="C186" t="s">
+        <v>99</v>
+      </c>
+      <c r="D186" s="1">
+        <v>1480000</v>
+      </c>
+      <c r="E186" s="1">
+        <v>6743000</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>10</v>
+      </c>
+      <c r="B187" t="s">
+        <v>155</v>
+      </c>
+      <c r="C187" t="s">
+        <v>106</v>
+      </c>
+      <c r="D187" s="1">
+        <v>1422000</v>
+      </c>
+      <c r="E187" s="1">
+        <v>5942000</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>11</v>
+      </c>
+      <c r="B188" t="s">
+        <v>156</v>
+      </c>
+      <c r="C188" t="s">
+        <v>88</v>
+      </c>
+      <c r="D188" s="1">
+        <v>1383000</v>
+      </c>
+      <c r="E188" s="1">
+        <v>4813000</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>12</v>
+      </c>
+      <c r="B189" t="s">
+        <v>157</v>
+      </c>
+      <c r="C189" t="s">
+        <v>38</v>
+      </c>
+      <c r="D189" s="1">
+        <v>1369000</v>
+      </c>
+      <c r="E189" s="1">
+        <v>4428000</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>13</v>
+      </c>
+      <c r="B190" t="s">
+        <v>158</v>
+      </c>
+      <c r="C190" t="s">
+        <v>94</v>
+      </c>
+      <c r="D190" s="1">
+        <v>1248000</v>
+      </c>
+      <c r="E190" s="1">
+        <v>3327000</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>14</v>
+      </c>
+      <c r="B191" t="s">
+        <v>159</v>
+      </c>
+      <c r="C191" t="s">
+        <v>92</v>
+      </c>
+      <c r="D191" s="1">
+        <v>1222000</v>
+      </c>
+      <c r="E191" s="1">
+        <v>3991000</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>15</v>
+      </c>
+      <c r="B192" t="s">
+        <v>241</v>
+      </c>
+      <c r="C192" t="s">
+        <v>117</v>
+      </c>
+      <c r="D192" s="1">
+        <v>1206000</v>
+      </c>
+      <c r="E192" s="1">
+        <v>5147000</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>16</v>
+      </c>
+      <c r="B193" t="s">
+        <v>160</v>
+      </c>
+      <c r="C193" t="s">
+        <v>97</v>
+      </c>
+      <c r="D193" s="1">
+        <v>1180000</v>
+      </c>
+      <c r="E193" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>17</v>
+      </c>
+      <c r="B194" t="s">
+        <v>202</v>
+      </c>
+      <c r="C194" t="s">
+        <v>102</v>
+      </c>
+      <c r="D194" s="1">
+        <v>1160000</v>
+      </c>
+      <c r="E194" s="1">
+        <v>2252000</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>18</v>
+      </c>
+      <c r="B195" t="s">
+        <v>162</v>
+      </c>
+      <c r="C195" t="s">
+        <v>79</v>
+      </c>
+      <c r="D195" s="1">
+        <v>1129000</v>
+      </c>
+      <c r="E195" s="1">
+        <v>3447000</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>19</v>
+      </c>
+      <c r="B196" t="s">
+        <v>165</v>
+      </c>
+      <c r="C196" t="s">
+        <v>85</v>
+      </c>
+      <c r="D196" s="1">
+        <v>1091000</v>
+      </c>
+      <c r="E196" s="1">
+        <v>6291000</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>20</v>
+      </c>
+      <c r="B197" t="s">
+        <v>243</v>
+      </c>
+      <c r="C197" t="s">
+        <v>81</v>
+      </c>
+      <c r="D197" s="1">
+        <v>1069000</v>
+      </c>
+      <c r="E197" s="1">
+        <v>4405000</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>21</v>
+      </c>
+      <c r="B198" t="s">
+        <v>203</v>
+      </c>
+      <c r="C198" t="s">
+        <v>104</v>
+      </c>
+      <c r="D198" s="1">
+        <v>1044000</v>
+      </c>
+      <c r="E198" s="1">
+        <v>1836000</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199">
         <v>22</v>
       </c>
-      <c r="C85" s="7">
-        <f>SUM(C41:C84)</f>
-        <v>305553115.8888889</v>
-      </c>
-      <c r="D85" s="7"/>
-      <c r="E85" s="7">
-        <f>SUM(E41:E84)</f>
-        <v>672.73977502651678</v>
-      </c>
-      <c r="F85" s="7"/>
-      <c r="G85" s="7"/>
-      <c r="H85" s="7">
-        <f>SUM(H41:H84)</f>
-        <v>674</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>64</v>
-      </c>
-      <c r="B87" s="12">
-        <f>$C$85/B32</f>
-        <v>71.182065389735627</v>
-      </c>
-      <c r="C87" s="12">
-        <f>$C$85/C32</f>
-        <v>66.177222805509757</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>144</v>
-      </c>
-      <c r="B95" t="s">
-        <v>145</v>
-      </c>
-      <c r="C95" t="s">
-        <v>132</v>
-      </c>
-      <c r="D95" t="s">
-        <v>146</v>
-      </c>
-      <c r="E95" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="20">
-        <v>1</v>
-      </c>
-      <c r="B96" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="C96" s="20" t="s">
+      <c r="B199" t="s">
+        <v>244</v>
+      </c>
+      <c r="C199" t="s">
+        <v>80</v>
+      </c>
+      <c r="D199" s="1">
+        <v>1021000</v>
+      </c>
+      <c r="E199" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>23</v>
+      </c>
+      <c r="B200" t="s">
+        <v>246</v>
+      </c>
+      <c r="C200" t="s">
+        <v>87</v>
+      </c>
+      <c r="D200" s="1">
+        <v>1001000</v>
+      </c>
+      <c r="E200" s="1">
+        <v>4940000</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>24</v>
+      </c>
+      <c r="B201" t="s">
+        <v>247</v>
+      </c>
+      <c r="C201" t="s">
+        <v>95</v>
+      </c>
+      <c r="D201" s="1">
+        <v>983000</v>
+      </c>
+      <c r="E201" s="1">
+        <v>2297000</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>25</v>
+      </c>
+      <c r="B202" t="s">
+        <v>230</v>
+      </c>
+      <c r="C202" t="s">
+        <v>95</v>
+      </c>
+      <c r="D202" s="1">
+        <v>925000</v>
+      </c>
+      <c r="E202" s="1">
+        <v>2929000</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>26</v>
+      </c>
+      <c r="B203" t="s">
+        <v>231</v>
+      </c>
+      <c r="C203" t="s">
+        <v>100</v>
+      </c>
+      <c r="D203" s="1">
+        <v>903000</v>
+      </c>
+      <c r="E203" s="1">
+        <v>3562000</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>27</v>
+      </c>
+      <c r="B204" t="s">
+        <v>232</v>
+      </c>
+      <c r="C204" t="s">
+        <v>99</v>
+      </c>
+      <c r="D204" s="1">
+        <v>891000</v>
+      </c>
+      <c r="E204" s="1">
+        <v>3421000</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>28</v>
+      </c>
+      <c r="B205" t="s">
+        <v>197</v>
+      </c>
+      <c r="C205" t="s">
+        <v>118</v>
+      </c>
+      <c r="D205" s="1">
+        <v>877000</v>
+      </c>
+      <c r="E205" s="1">
+        <v>2473000</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>29</v>
+      </c>
+      <c r="B206" t="s">
+        <v>217</v>
+      </c>
+      <c r="C206" t="s">
+        <v>96</v>
+      </c>
+      <c r="D206" s="1">
+        <v>851000</v>
+      </c>
+      <c r="E206" s="1">
+        <v>2329000</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>30</v>
+      </c>
+      <c r="B207" t="s">
+        <v>206</v>
+      </c>
+      <c r="C207" t="s">
+        <v>104</v>
+      </c>
+      <c r="D207" s="1">
+        <v>824000</v>
+      </c>
+      <c r="E207" s="1">
+        <v>1651000</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>31</v>
+      </c>
+      <c r="B208" t="s">
+        <v>207</v>
+      </c>
+      <c r="C208" t="s">
+        <v>198</v>
+      </c>
+      <c r="D208" s="1">
+        <v>802000</v>
+      </c>
+      <c r="E208" s="1">
+        <v>2547000</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>32</v>
+      </c>
+      <c r="B209" t="s">
+        <v>167</v>
+      </c>
+      <c r="C209" t="s">
+        <v>101</v>
+      </c>
+      <c r="D209" s="1">
+        <v>788000</v>
+      </c>
+      <c r="E209" s="1">
+        <v>5312000</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>33</v>
+      </c>
+      <c r="B210" t="s">
+        <v>168</v>
+      </c>
+      <c r="C210" t="s">
+        <v>84</v>
+      </c>
+      <c r="D210" s="1">
+        <v>765000</v>
+      </c>
+      <c r="E210" s="1">
+        <v>1252000</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>34</v>
+      </c>
+      <c r="B211" t="s">
+        <v>161</v>
+      </c>
+      <c r="C211" t="s">
+        <v>102</v>
+      </c>
+      <c r="D211" s="1">
+        <v>741000</v>
+      </c>
+      <c r="E211" s="1">
+        <v>1782000</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>35</v>
+      </c>
+      <c r="B212" t="s">
+        <v>169</v>
+      </c>
+      <c r="C212" t="s">
+        <v>94</v>
+      </c>
+      <c r="D212" s="1">
+        <v>729000</v>
+      </c>
+      <c r="E212" s="1">
+        <v>2175000</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>36</v>
+      </c>
+      <c r="B213" t="s">
+        <v>171</v>
+      </c>
+      <c r="C213" t="s">
+        <v>89</v>
+      </c>
+      <c r="D213" s="1">
+        <v>701000</v>
+      </c>
+      <c r="E213" s="1">
+        <v>2461000</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>37</v>
+      </c>
+      <c r="B214" t="s">
+        <v>218</v>
+      </c>
+      <c r="C214" t="s">
+        <v>110</v>
+      </c>
+      <c r="D214" s="1">
+        <v>682000</v>
+      </c>
+      <c r="E214" s="1">
+        <v>1221000</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>38</v>
+      </c>
+      <c r="B215" t="s">
+        <v>219</v>
+      </c>
+      <c r="C215" t="s">
+        <v>99</v>
+      </c>
+      <c r="D215" s="1">
+        <v>668000</v>
+      </c>
+      <c r="E215" s="1">
+        <v>1814000</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>39</v>
+      </c>
+      <c r="B216" t="s">
+        <v>172</v>
+      </c>
+      <c r="C216" t="s">
+        <v>95</v>
+      </c>
+      <c r="D216" s="1">
+        <v>656000</v>
+      </c>
+      <c r="E216" s="1">
+        <v>1567000</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>40</v>
+      </c>
+      <c r="B217" t="s">
+        <v>220</v>
+      </c>
+      <c r="C217" t="s">
+        <v>198</v>
+      </c>
+      <c r="D217" s="1">
+        <v>634000</v>
+      </c>
+      <c r="E217" s="1">
+        <v>1341000</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>41</v>
+      </c>
+      <c r="B218" t="s">
+        <v>204</v>
+      </c>
+      <c r="C218" t="s">
+        <v>205</v>
+      </c>
+      <c r="D218" s="1">
+        <v>613000</v>
+      </c>
+      <c r="E218" s="1">
+        <v>1248000</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>42</v>
+      </c>
+      <c r="B219" t="s">
+        <v>233</v>
+      </c>
+      <c r="C219" t="s">
         <v>88</v>
       </c>
-      <c r="D96" s="21">
-        <v>10090000</v>
-      </c>
-      <c r="E96" s="21">
-        <v>23785000</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="20">
-        <v>2</v>
-      </c>
-      <c r="B97" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="C97" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="D97" s="21">
-        <v>5221000</v>
-      </c>
-      <c r="E97" s="21">
-        <v>15038000</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="20">
-        <v>3</v>
-      </c>
-      <c r="B98" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="C98" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="D98" s="21">
-        <v>4047000</v>
-      </c>
-      <c r="E98" s="21">
-        <v>10415000</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="20">
-        <v>4</v>
-      </c>
-      <c r="B99" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="C99" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="D99" s="21">
-        <v>2513000</v>
-      </c>
-      <c r="E99" s="21">
-        <v>7038000</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="20">
-        <v>5</v>
-      </c>
-      <c r="B100" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="C100" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="D100" s="21">
-        <v>2210000</v>
-      </c>
-      <c r="E100" s="21">
-        <v>6471000</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="20">
-        <v>6</v>
-      </c>
-      <c r="B101" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="C101" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="D101" s="21">
-        <v>2031000</v>
-      </c>
-      <c r="E101" s="21">
-        <v>7576000</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="20">
-        <v>7</v>
-      </c>
-      <c r="B102" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="C102" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="D102" s="21">
-        <v>1719000</v>
-      </c>
-      <c r="E102" s="21">
-        <v>6948000</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="20">
-        <v>8</v>
-      </c>
-      <c r="B103" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="C103" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="D103" s="21">
-        <v>1643000</v>
-      </c>
-      <c r="E103" s="21">
-        <v>9083000</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="20">
-        <v>9</v>
-      </c>
-      <c r="B104" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="C104" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="D104" s="21">
-        <v>1480000</v>
-      </c>
-      <c r="E104" s="21">
-        <v>6743000</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="20">
-        <v>10</v>
-      </c>
-      <c r="B105" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="C105" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="D105" s="21">
-        <v>1422000</v>
-      </c>
-      <c r="E105" s="21">
-        <v>5942000</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="20">
-        <v>11</v>
-      </c>
-      <c r="B106" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="C106" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="D106" s="21">
-        <v>1383000</v>
-      </c>
-      <c r="E106" s="21">
-        <v>4813000</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="20">
-        <v>12</v>
-      </c>
-      <c r="B107" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="C107" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D107" s="21">
-        <v>1369000</v>
-      </c>
-      <c r="E107" s="21">
-        <v>4428000</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="20">
-        <v>13</v>
-      </c>
-      <c r="B108" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="C108" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="D108" s="21">
-        <v>1248000</v>
-      </c>
-      <c r="E108" s="21">
-        <v>3327000</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="20">
-        <v>14</v>
-      </c>
-      <c r="B109" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="C109" s="20" t="s">
+      <c r="D219" s="1">
+        <v>606000</v>
+      </c>
+      <c r="E219" s="1">
+        <v>1638000</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>43</v>
+      </c>
+      <c r="B220" t="s">
+        <v>221</v>
+      </c>
+      <c r="C220" t="s">
+        <v>80</v>
+      </c>
+      <c r="D220" s="1">
+        <v>584000</v>
+      </c>
+      <c r="E220" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>44</v>
+      </c>
+      <c r="B221" t="s">
+        <v>234</v>
+      </c>
+      <c r="C221" t="s">
+        <v>117</v>
+      </c>
+      <c r="D221" s="1">
+        <v>565000</v>
+      </c>
+      <c r="E221" s="1">
+        <v>1641000</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>45</v>
+      </c>
+      <c r="B222" t="s">
+        <v>223</v>
+      </c>
+      <c r="C222" t="s">
+        <v>81</v>
+      </c>
+      <c r="D222" s="1">
+        <v>524000</v>
+      </c>
+      <c r="E222" s="1">
+        <v>1051000</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>46</v>
+      </c>
+      <c r="B223" t="s">
+        <v>227</v>
+      </c>
+      <c r="C223" t="s">
         <v>92</v>
       </c>
-      <c r="D109" s="21">
-        <v>1222000</v>
-      </c>
-      <c r="E109" s="21">
-        <v>3991000</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="20">
-        <v>15</v>
-      </c>
-      <c r="B110" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="C110" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="D110" s="21">
-        <v>1210000</v>
-      </c>
-      <c r="E110" s="21">
-        <v>15038000</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="20">
-        <v>16</v>
-      </c>
-      <c r="B111" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="C111" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="D111" s="21">
-        <v>1180000</v>
-      </c>
-      <c r="E111" s="21">
-        <v>1782000</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="20">
-        <v>17</v>
-      </c>
-      <c r="B112" s="20" t="s">
-        <v>165</v>
-      </c>
-      <c r="C112" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="D112" s="21">
-        <v>1159000</v>
-      </c>
-      <c r="E112" s="21">
-        <v>3447000</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="20">
-        <v>18</v>
-      </c>
-      <c r="B113" s="20" t="s">
-        <v>166</v>
-      </c>
-      <c r="C113" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="D113" s="21">
-        <v>1091000</v>
-      </c>
-      <c r="E113" s="21">
-        <v>4940000</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="20">
-        <v>19</v>
-      </c>
-      <c r="B114" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="C114" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="D114" s="21">
-        <v>1001000</v>
-      </c>
-      <c r="E114" s="21">
-        <v>23785000</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" s="20">
-        <v>20</v>
-      </c>
-      <c r="B115" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="C115" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="D115" s="21">
-        <v>1021000</v>
-      </c>
-      <c r="E115" s="21">
-        <v>6491000</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" s="20">
-        <v>21</v>
-      </c>
-      <c r="B116" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="C116" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="D116" s="21">
-        <v>983000</v>
-      </c>
-      <c r="E116" s="21">
-        <v>2297000</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" s="20">
-        <v>22</v>
-      </c>
-      <c r="B117" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="C117" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="D117" s="21">
-        <v>951000</v>
-      </c>
-      <c r="E117" s="21">
-        <v>2929000</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" s="20">
-        <v>23</v>
-      </c>
-      <c r="B118" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="C118" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="D118" s="21">
-        <v>925000</v>
-      </c>
-      <c r="E118" s="21">
-        <v>4247000</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" s="20">
-        <v>24</v>
-      </c>
-      <c r="B119" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="C119" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="D119" s="21">
-        <v>877000</v>
-      </c>
-      <c r="E119" s="21">
-        <v>3473000</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" s="20">
-        <v>25</v>
-      </c>
-      <c r="B120" s="20" t="s">
-        <v>173</v>
-      </c>
-      <c r="C120" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="D120" s="21">
-        <v>851000</v>
-      </c>
-      <c r="E120" s="21">
-        <v>3929000</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" s="20">
-        <v>26</v>
-      </c>
-      <c r="B121" s="20" t="s">
-        <v>174</v>
-      </c>
-      <c r="C121" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="D121" s="21">
-        <v>788000</v>
-      </c>
-      <c r="E121" s="21">
-        <v>5312000</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" s="20">
-        <v>27</v>
-      </c>
-      <c r="B122" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="C122" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="D122" s="21">
-        <v>765000</v>
-      </c>
-      <c r="E122" s="21">
-        <v>1252000</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" s="20">
-        <v>28</v>
-      </c>
-      <c r="B123" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="C123" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="D123" s="21">
-        <v>741000</v>
-      </c>
-      <c r="E123" s="21">
-        <v>2252000</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" s="20">
-        <v>29</v>
-      </c>
-      <c r="B124" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="C124" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="D124" s="21">
-        <v>729000</v>
-      </c>
-      <c r="E124" s="21">
-        <v>2175000</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" s="20">
-        <v>30</v>
-      </c>
-      <c r="B125" s="20" t="s">
-        <v>178</v>
-      </c>
-      <c r="C125" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="D125" s="21">
-        <v>715000</v>
-      </c>
-      <c r="E125" s="21">
-        <v>1534000</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" s="20">
-        <v>31</v>
-      </c>
-      <c r="B126" s="20" t="s">
-        <v>179</v>
-      </c>
-      <c r="C126" s="20" t="s">
+      <c r="D223" s="1">
+        <v>501000</v>
+      </c>
+      <c r="E223" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>47</v>
+      </c>
+      <c r="B224" t="s">
+        <v>235</v>
+      </c>
+      <c r="C224" t="s">
+        <v>92</v>
+      </c>
+      <c r="D224" s="1">
+        <v>479000</v>
+      </c>
+      <c r="E224" s="1">
+        <v>993000</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>48</v>
+      </c>
+      <c r="B225" t="s">
+        <v>236</v>
+      </c>
+      <c r="C225" t="s">
+        <v>237</v>
+      </c>
+      <c r="D225" s="1">
+        <v>460000</v>
+      </c>
+      <c r="E225" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>49</v>
+      </c>
+      <c r="B226" t="s">
+        <v>239</v>
+      </c>
+      <c r="C226" t="s">
         <v>89</v>
       </c>
-      <c r="D126" s="21">
-        <v>701000</v>
-      </c>
-      <c r="E126" s="21">
-        <v>2461000</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" s="20">
-        <v>32</v>
-      </c>
-      <c r="B127" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="C127" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="D127" s="21">
-        <v>656000</v>
-      </c>
-      <c r="E127" s="21">
-        <v>1567000</v>
+      <c r="D226" s="1">
+        <v>447000</v>
+      </c>
+      <c r="E226" s="1">
+        <v>934000</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>50</v>
+      </c>
+      <c r="B227" t="s">
+        <v>240</v>
+      </c>
+      <c r="C227" t="s">
+        <v>229</v>
+      </c>
+      <c r="D227" s="1">
+        <v>429000</v>
+      </c>
+      <c r="E227" s="1">
+        <v>670000</v>
       </c>
     </row>
   </sheetData>
@@ -4197,12 +6092,12 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B2" s="1">
         <v>1054549</v>
@@ -4210,7 +6105,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E4" s="1">
         <v>9833520</v>
@@ -4218,7 +6113,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E5" s="11">
         <f>'united states'!C32</f>
@@ -4227,7 +6122,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H6" s="11">
         <f>380800-'united states'!G12</f>
@@ -4236,7 +6131,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H7">
         <f>253335-10920-12780-5040</f>
@@ -4245,7 +6140,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G8" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H8" s="1">
         <v>254806</v>
@@ -4253,7 +6148,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G9" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H9" s="1">
         <f>184827-'united states'!G27</f>
@@ -4262,7 +6157,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E10" s="15">
         <f>SUM(H6:H9)</f>
@@ -4271,7 +6166,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E11" s="15">
         <f>SUM('united states'!C30:C31)</f>
@@ -4280,7 +6175,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B12" s="19">
         <f>E4-SUM(E5:E11)</f>
@@ -4299,18 +6194,18 @@
     <row r="14" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C15" t="s">
         <v>63</v>
       </c>
       <c r="K15" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="C16" s="1">
         <f>K16+2000000</f>
@@ -4323,7 +6218,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C17" s="1">
         <f>K17+2000000</f>
@@ -4336,7 +6231,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C18" s="11">
         <f>K18*(1.5)</f>
@@ -4349,7 +6244,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C19" s="1">
         <f>K19+7000000</f>
@@ -4362,7 +6257,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C20" s="1">
         <v>1521000</v>
@@ -4371,7 +6266,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C21" s="11">
         <f>K21*1.5</f>
@@ -4384,7 +6279,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C22" s="11">
         <f>K22+1500000</f>
@@ -4397,7 +6292,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="C23" s="1">
         <v>2341000</v>
@@ -4405,7 +6300,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="C24" s="1">
         <v>1567000</v>
@@ -4413,7 +6308,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C25" s="1">
         <v>234000</v>
@@ -4421,7 +6316,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C26" s="1">
         <v>1624000</v>
@@ -4457,19 +6352,19 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B31" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C31" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="D31" t="s">
         <v>63</v>
       </c>
       <c r="E31" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -4477,10 +6372,10 @@
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C32" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="D32" s="1">
         <v>5221000</v>
@@ -4494,10 +6389,10 @@
         <v>2</v>
       </c>
       <c r="B33" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C33" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="D33" s="1">
         <v>3270000</v>
@@ -4511,10 +6406,10 @@
         <v>3</v>
       </c>
       <c r="B34" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="C34" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="D34" s="1">
         <v>2769000</v>
@@ -4528,10 +6423,10 @@
         <v>4</v>
       </c>
       <c r="B35" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C35" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="D35" s="1">
         <v>2534000</v>
@@ -4545,10 +6440,10 @@
         <v>5</v>
       </c>
       <c r="B36" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C36" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="D36" s="1">
         <v>2150000</v>
@@ -4562,10 +6457,10 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="C37" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="D37" s="1">
         <v>1623000</v>
@@ -4579,10 +6474,10 @@
         <v>7</v>
       </c>
       <c r="B38" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C38" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="D38" s="1">
         <v>1408000</v>
@@ -4596,10 +6491,10 @@
         <v>8</v>
       </c>
       <c r="B39" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="C39" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="D39" s="1">
         <v>1251000</v>
@@ -4613,10 +6508,10 @@
         <v>9</v>
       </c>
       <c r="B40" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="C40" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="D40" s="1">
         <v>1115000</v>
@@ -4630,10 +6525,10 @@
         <v>10</v>
       </c>
       <c r="B41" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="C41" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="D41" s="1">
         <v>1059000</v>

--- a/obsidian-notes/spreadsheets/area.xlsx
+++ b/obsidian-notes/spreadsheets/area.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sharm\iCloudDrive\iCloud~md~obsidian\Ishan's notes\Spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C6718E-35F4-46F7-BAD0-EC891325F105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF6B907D-3ADF-4D44-9AD0-F65A08D16431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-48" yWindow="-48" windowWidth="20832" windowHeight="12336" activeTab="1" xr2:uid="{94B94BC7-FBC8-4BAC-A974-CA3E4662C848}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" activeTab="3" xr2:uid="{94B94BC7-FBC8-4BAC-A974-CA3E4662C848}"/>
   </bookViews>
   <sheets>
     <sheet name="france" sheetId="1" r:id="rId1"/>
-    <sheet name="united states" sheetId="2" r:id="rId2"/>
-    <sheet name="buenaventura" sheetId="4" r:id="rId3"/>
+    <sheet name="batavian republic" sheetId="18" r:id="rId2"/>
+    <sheet name="united states" sheetId="2" r:id="rId3"/>
+    <sheet name="buenaventura" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="252">
   <si>
     <t>OTL Metro France</t>
   </si>
@@ -783,6 +783,18 @@
   </si>
   <si>
     <t>Clinton[9]</t>
+  </si>
+  <si>
+    <t>Comancheria</t>
+  </si>
+  <si>
+    <t>Northern March</t>
+  </si>
+  <si>
+    <t>OTL Netherlands</t>
+  </si>
+  <si>
+    <t>East Frisia</t>
   </si>
 </sst>
 </file>
@@ -1231,24 +1243,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F489DD57-E97E-46C5-91B6-044FDCA9CA47}">
   <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.83984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.83984375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="28" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="28"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1260,7 +1272,7 @@
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1272,7 +1284,7 @@
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1284,7 +1296,7 @@
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1295,7 +1307,7 @@
         <v>875.8</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>76</v>
       </c>
@@ -1306,7 +1318,7 @@
         <v>2210</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="E7" t="s">
         <v>5</v>
       </c>
@@ -1317,7 +1329,7 @@
         <v>2570</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="I8" t="s">
@@ -1330,7 +1342,7 @@
         <v>626.79999999999995</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="I9" t="s">
@@ -1343,7 +1355,7 @@
         <v>642.37</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="I10" t="s">
@@ -1356,7 +1368,7 @@
         <v>989.05</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="I11" t="s">
@@ -1369,7 +1381,7 @@
         <v>782.18</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="I12" t="s">
@@ -1382,7 +1394,7 @@
         <v>24.12</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="I13" t="s">
@@ -1395,7 +1407,7 @@
         <v>26.34</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="I14" s="3" t="s">
@@ -1410,7 +1422,7 @@
         <v>26.3125</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="E15" t="s">
         <v>6</v>
       </c>
@@ -1423,7 +1435,7 @@
         <v>16737.037499999999</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="I16" t="s">
@@ -1438,7 +1450,7 @@
         <v>2644.9050000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="I17" t="s">
@@ -1453,7 +1465,7 @@
         <v>4418.826</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="E18" s="3" t="s">
         <v>8</v>
       </c>
@@ -1466,7 +1478,7 @@
         <v>7063.7309999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -1479,7 +1491,7 @@
         <v>26370.768499999998</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="E20" t="s">
         <v>9</v>
       </c>
@@ -1490,7 +1502,7 @@
         <v>282.49</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="E21" t="s">
         <v>10</v>
       </c>
@@ -1501,7 +1513,7 @@
         <v>3211.94</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="E22" t="s">
         <v>11</v>
       </c>
@@ -1512,7 +1524,7 @@
         <v>5224.49</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="E23" t="s">
         <v>12</v>
       </c>
@@ -1523,7 +1535,7 @@
         <v>1671.42</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="E24" t="s">
         <v>13</v>
       </c>
@@ -1534,7 +1546,7 @@
         <v>802.24</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="E25" t="s">
         <v>14</v>
       </c>
@@ -1545,7 +1557,7 @@
         <v>838.51</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="E26" t="s">
         <v>15</v>
       </c>
@@ -1556,7 +1568,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="E27" t="s">
         <v>16</v>
       </c>
@@ -1567,7 +1579,7 @@
         <v>89.55</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="E28" s="3" t="s">
         <v>17</v>
       </c>
@@ -1580,7 +1592,7 @@
         <v>42.029999999999994</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="3" t="s">
         <v>7</v>
       </c>
@@ -1593,7 +1605,7 @@
         <v>12703.67</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A30" s="4" t="s">
         <v>18</v>
       </c>
@@ -1606,7 +1618,7 @@
         <v>627130.63850000012</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E31" t="s">
         <v>20</v>
       </c>
@@ -1617,7 +1629,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="E32" s="3" t="s">
         <v>77</v>
       </c>
@@ -1628,7 +1640,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="3" t="s">
         <v>21</v>
       </c>
@@ -1641,7 +1653,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A34" s="4" t="s">
         <v>22</v>
       </c>
@@ -1654,8 +1666,8 @@
         <v>627872.63850000012</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>63</v>
       </c>
@@ -1663,7 +1675,7 @@
         <v>131324241</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>64</v>
       </c>
@@ -1676,7 +1688,7 @@
         <v>209.15745160314066</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>73</v>
       </c>
@@ -1687,7 +1699,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>72</v>
       </c>
@@ -1700,7 +1712,7 @@
         <v>47802023.723999985</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>75</v>
       </c>
@@ -1712,7 +1724,7 @@
         <v>20880554.319000002</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>71</v>
       </c>
@@ -1724,7 +1736,7 @@
         <v>14183018.027999999</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>70</v>
       </c>
@@ -1736,7 +1748,7 @@
         <v>9980642.3159999996</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>69</v>
       </c>
@@ -1748,7 +1760,7 @@
         <v>6828860.5319999997</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>68</v>
       </c>
@@ -1760,7 +1772,7 @@
         <v>4071051.4709999999</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>67</v>
       </c>
@@ -1773,7 +1785,7 @@
       </c>
       <c r="G47" s="13"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>66</v>
       </c>
@@ -1785,7 +1797,7 @@
         <v>6303563.568</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>65</v>
       </c>
@@ -1797,7 +1809,7 @@
         <v>2757809.0610000002</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>22</v>
       </c>
@@ -1818,29 +1830,94 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02846DC9-4F52-48FF-970A-2B60E31B58CA}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B1" s="1">
+        <v>41865</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B2" s="1">
+        <v>3142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <f>france!C5</f>
+        <v>875.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="6">
+        <f>france!C6</f>
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3">
+        <f>-SUM(E3:E4)</f>
+        <v>-3085.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="1">
+        <f>SUM(B1:B5)</f>
+        <v>41921.199999999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C745E12-030D-4421-A6DC-982053D4A77E}">
   <dimension ref="A1:L227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
-    <col min="4" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.26171875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.15625" customWidth="1"/>
+    <col min="4" max="5" width="9.578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.15625" customWidth="1"/>
+    <col min="11" max="11" width="12.15625" customWidth="1"/>
+    <col min="12" max="12" width="10.83984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="E2" t="s">
         <v>24</v>
       </c>
@@ -1851,7 +1928,7 @@
         <v>469616</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="E3" t="s">
         <v>25</v>
       </c>
@@ -1862,7 +1939,7 @@
         <v>780541</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="E4" t="s">
         <v>26</v>
       </c>
@@ -1873,7 +1950,7 @@
         <v>758842</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="E5" s="3" t="s">
         <v>27</v>
       </c>
@@ -1884,7 +1961,7 @@
         <v>475014</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -1897,7 +1974,7 @@
         <v>2484013</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="E7" t="s">
         <v>29</v>
       </c>
@@ -1910,7 +1987,7 @@
         <v>1134615</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I8" t="s">
         <v>48</v>
       </c>
@@ -1921,7 +1998,7 @@
         <v>4770</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I9" t="s">
         <v>49</v>
       </c>
@@ -1932,7 +2009,7 @@
         <v>5310</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I10" s="3" t="s">
         <v>50</v>
       </c>
@@ -1943,7 +2020,7 @@
         <v>4710</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="E11" t="s">
         <v>30</v>
       </c>
@@ -1956,7 +2033,7 @@
         <v>166248</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="E12" t="s">
         <v>31</v>
       </c>
@@ -1967,7 +2044,7 @@
         <v>303448.18699999998</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
       <c r="I13" t="s">
@@ -1980,7 +2057,7 @@
         <v>10920</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
       <c r="I14" t="s">
@@ -1993,7 +2070,7 @@
         <v>12780</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
       <c r="I15" t="s">
@@ -2006,7 +2083,7 @@
         <v>10610</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
       <c r="I16" t="s">
@@ -2019,7 +2096,7 @@
         <v>5410</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
       <c r="I17" t="s">
@@ -2032,7 +2109,7 @@
         <v>27170</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
       <c r="I18" s="3" t="s">
@@ -2045,7 +2122,7 @@
         <v>19050</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="E19" t="s">
         <v>32</v>
       </c>
@@ -2058,7 +2135,7 @@
         <v>167660</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="E20" t="s">
         <v>33</v>
       </c>
@@ -2071,7 +2148,7 @@
         <v>134800.5</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="E21" s="3" t="s">
         <v>34</v>
       </c>
@@ -2084,7 +2161,7 @@
         <v>193590.3636364</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -2097,7 +2174,7 @@
         <v>2100362.0506364</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
       <c r="I23" t="s">
@@ -2110,7 +2187,7 @@
         <v>6920</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
       <c r="I24" t="s">
@@ -2123,7 +2200,7 @@
         <v>5650</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
       <c r="I25" t="s">
@@ -2136,7 +2213,7 @@
         <v>5760</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
       <c r="I26" s="3" t="s">
@@ -2151,7 +2228,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="E27" t="s">
         <v>36</v>
       </c>
@@ -2164,7 +2241,7 @@
         <v>19690</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="E28" s="3" t="s">
         <v>37</v>
       </c>
@@ -2175,7 +2252,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -2188,7 +2265,7 @@
         <v>19690.41</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>61</v>
       </c>
@@ -2199,7 +2276,7 @@
         <v>12981.02</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>62</v>
       </c>
@@ -2210,7 +2287,7 @@
         <v>148.12100000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A32" s="4" t="s">
         <v>22</v>
       </c>
@@ -2223,17 +2300,17 @@
         <v>4617194.6016363995</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>126</v>
       </c>
       <c r="B34" s="12">
         <f>C84^(1/3)</f>
-        <v>680.86395376748942</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+        <v>680.66903588389926</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>121</v>
       </c>
@@ -2241,28 +2318,28 @@
         <v>675</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>122</v>
       </c>
       <c r="B36" s="15">
         <f>C84/B35</f>
-        <v>467602.96296296298</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+        <v>467201.48148148146</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>120</v>
       </c>
       <c r="B37" s="15">
         <f>B36+C37</f>
-        <v>469602.96296296298</v>
+        <v>469201.48148148146</v>
       </c>
       <c r="C37">
         <v>2000</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>127</v>
       </c>
@@ -2273,7 +2350,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>128</v>
       </c>
@@ -2296,7 +2373,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="22">
         <v>1</v>
       </c>
@@ -2309,7 +2386,7 @@
       <c r="D41" s="23"/>
       <c r="E41" s="24">
         <f t="shared" ref="E41:E82" si="0">C41/$B$37</f>
-        <v>3.2346473932273754</v>
+        <v>3.2374151829270219</v>
       </c>
       <c r="F41" s="25">
         <f t="shared" ref="F41:F83" si="1">FLOOR(E41,1)</f>
@@ -2334,7 +2411,7 @@
         <v>527850</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A42">
         <v>2</v>
       </c>
@@ -2347,7 +2424,7 @@
       <c r="D42" s="1"/>
       <c r="E42" s="12">
         <f t="shared" si="0"/>
-        <v>33.291953486317837</v>
+        <v>33.320440401501685</v>
       </c>
       <c r="F42" s="15">
         <f t="shared" si="1"/>
@@ -2370,7 +2447,7 @@
         <v>8036100</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="22">
         <v>3</v>
       </c>
@@ -2383,7 +2460,7 @@
       <c r="D43" s="23"/>
       <c r="E43" s="24">
         <f t="shared" si="0"/>
-        <v>25.845237268993191</v>
+        <v>25.867352254894843</v>
       </c>
       <c r="F43" s="25">
         <f t="shared" si="1"/>
@@ -2408,7 +2485,7 @@
         <v>4799400</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A44">
         <v>4</v>
       </c>
@@ -2421,7 +2498,7 @@
       <c r="D44" s="1"/>
       <c r="E44" s="12">
         <f t="shared" si="0"/>
-        <v>24.512196276129242</v>
+        <v>24.533170619271196</v>
       </c>
       <c r="F44" s="15">
         <f t="shared" si="1"/>
@@ -2444,7 +2521,7 @@
         <v>6331333.333333333</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="22">
         <v>5</v>
       </c>
@@ -2457,7 +2534,7 @@
       <c r="D45" s="23"/>
       <c r="E45" s="24">
         <f t="shared" si="0"/>
-        <v>7.7640055271277228</v>
+        <v>7.7706489512520882</v>
       </c>
       <c r="F45" s="25">
         <f t="shared" si="1"/>
@@ -2482,7 +2559,7 @@
         <v>2378500</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A46">
         <v>6</v>
       </c>
@@ -2495,7 +2572,7 @@
       <c r="D46" s="1"/>
       <c r="E46" s="12">
         <f t="shared" si="0"/>
-        <v>18.490087765235881</v>
+        <v>18.505909172715821</v>
       </c>
       <c r="F46" s="15">
         <f t="shared" si="1"/>
@@ -2507,7 +2584,7 @@
       </c>
       <c r="H46">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K46" s="11">
         <f>K99*0.8</f>
@@ -2518,7 +2595,7 @@
         <v>5176800</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="22">
         <v>7</v>
       </c>
@@ -2531,7 +2608,7 @@
       <c r="D47" s="23"/>
       <c r="E47" s="24">
         <f t="shared" si="0"/>
-        <v>10.172423039794058</v>
+        <v>10.181127273760621</v>
       </c>
       <c r="F47" s="25">
         <f t="shared" si="1"/>
@@ -2556,7 +2633,7 @@
         <v>3775055.5555555555</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A48">
         <v>8</v>
       </c>
@@ -2569,7 +2646,7 @@
       <c r="D48" s="1"/>
       <c r="E48" s="12">
         <f t="shared" si="0"/>
-        <v>19.416402193184471</v>
+        <v>19.433016219834489</v>
       </c>
       <c r="F48" s="15">
         <f t="shared" si="1"/>
@@ -2592,7 +2669,7 @@
         <v>6606300</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="22">
         <v>9</v>
       </c>
@@ -2605,7 +2682,7 @@
       <c r="D49" s="23"/>
       <c r="E49" s="24">
         <f t="shared" si="0"/>
-        <v>3.2878838546037312</v>
+        <v>3.2906971971292442</v>
       </c>
       <c r="F49" s="25">
         <f t="shared" si="1"/>
@@ -2630,7 +2707,7 @@
         <v>485325</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A50">
         <v>10</v>
       </c>
@@ -2638,35 +2715,35 @@
         <v>87</v>
       </c>
       <c r="C50" s="1">
-        <v>17041000</v>
+        <v>17541000</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="12">
         <f t="shared" si="0"/>
-        <v>36.288101532579134</v>
+        <v>37.3847924448472</v>
       </c>
       <c r="F50" s="15">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G50">
         <f t="shared" si="3"/>
-        <v>36.496575181789318</v>
+        <v>37.49666651850535</v>
       </c>
       <c r="H50">
         <f t="shared" si="2"/>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K50" s="11">
         <f>K100+K102*(2.5/9)</f>
         <v>10099055.555555556</v>
       </c>
       <c r="L50" s="11">
-        <f>E183+E185*(2.5/9)+E200*0.8</f>
-        <v>14051055.555555556</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+        <f>E183+E185*(3/9)+E200*0.8</f>
+        <v>14555666.666666666</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="22">
         <v>11</v>
       </c>
@@ -2679,7 +2756,7 @@
       <c r="D51" s="23"/>
       <c r="E51" s="24">
         <f t="shared" si="0"/>
-        <v>85.687278772927172</v>
+        <v>85.760598779328788</v>
       </c>
       <c r="F51" s="25">
         <f t="shared" si="1"/>
@@ -2704,7 +2781,7 @@
         <v>24289750</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A52">
         <v>12</v>
       </c>
@@ -2717,7 +2794,7 @@
       <c r="D52" s="1"/>
       <c r="E52" s="12">
         <f t="shared" si="0"/>
-        <v>24.512196276129242</v>
+        <v>24.533170619271196</v>
       </c>
       <c r="F52" s="15">
         <f t="shared" si="1"/>
@@ -2740,7 +2817,7 @@
         <v>4383000</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="22">
         <v>13</v>
       </c>
@@ -2753,7 +2830,7 @@
       <c r="D53" s="23"/>
       <c r="E53" s="24">
         <f t="shared" si="0"/>
-        <v>2.3381453836495445</v>
+        <v>2.3401460637615998</v>
       </c>
       <c r="F53" s="25">
         <f t="shared" si="1"/>
@@ -2778,7 +2855,7 @@
         <v>808875</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A54">
         <v>14</v>
       </c>
@@ -2791,7 +2868,7 @@
       <c r="D54" s="1"/>
       <c r="E54" s="12">
         <f t="shared" si="0"/>
-        <v>1.3777596204200868</v>
+        <v>1.3789385275535111</v>
       </c>
       <c r="F54" s="15">
         <f t="shared" si="1"/>
@@ -2806,7 +2883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="22">
         <v>15</v>
       </c>
@@ -2819,7 +2896,7 @@
       <c r="D55" s="23"/>
       <c r="E55" s="24">
         <f t="shared" si="0"/>
-        <v>20.061628105065903</v>
+        <v>20.078794231965421</v>
       </c>
       <c r="F55" s="25">
         <f t="shared" si="1"/>
@@ -2844,7 +2921,7 @@
         <v>5227300</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A56">
         <v>16</v>
       </c>
@@ -2858,7 +2935,7 @@
       <c r="D56" s="1"/>
       <c r="E56" s="12">
         <f t="shared" si="0"/>
-        <v>22.316724608968332</v>
+        <v>22.335820353571552</v>
       </c>
       <c r="F56" s="15">
         <f t="shared" si="1"/>
@@ -2881,7 +2958,7 @@
         <v>5558400</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="22">
         <v>17</v>
       </c>
@@ -2894,7 +2971,7 @@
       <c r="D57" s="23"/>
       <c r="E57" s="24">
         <f t="shared" si="0"/>
-        <v>49.948577521752021</v>
+        <v>49.991317005092974</v>
       </c>
       <c r="F57" s="25">
         <f t="shared" si="1"/>
@@ -2919,7 +2996,7 @@
         <v>15592000</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A58">
         <v>18</v>
       </c>
@@ -2932,7 +3009,7 @@
       <c r="D58" s="1"/>
       <c r="E58" s="12">
         <f t="shared" si="0"/>
-        <v>19.382330857903604</v>
+        <v>19.398915730745063</v>
       </c>
       <c r="F58" s="15">
         <f t="shared" si="1"/>
@@ -2955,7 +3032,7 @@
         <v>6915700</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="22">
         <v>19</v>
       </c>
@@ -2968,7 +3045,7 @@
       <c r="D59" s="23"/>
       <c r="E59" s="24">
         <f t="shared" si="0"/>
-        <v>11.290388728697529</v>
+        <v>11.300049572007287</v>
       </c>
       <c r="F59" s="25">
         <f t="shared" si="1"/>
@@ -2993,7 +3070,7 @@
         <v>2790900</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A60">
         <v>20</v>
       </c>
@@ -3006,7 +3083,7 @@
       <c r="D60" s="1"/>
       <c r="E60" s="12">
         <f t="shared" si="0"/>
-        <v>14.486705869733928</v>
+        <v>14.499101704708711</v>
       </c>
       <c r="F60" s="15">
         <f t="shared" si="1"/>
@@ -3018,7 +3095,7 @@
       </c>
       <c r="H60">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K60" s="11">
         <f>K96*(1/3)+K124+K115*0.1+K122*0.7</f>
@@ -3029,7 +3106,7 @@
         <v>5776966.666666666</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="22">
         <v>21</v>
       </c>
@@ -3042,7 +3119,7 @@
       <c r="D61" s="23"/>
       <c r="E61" s="24">
         <f t="shared" si="0"/>
-        <v>3.1963171410363995</v>
+        <v>3.1990521327014219</v>
       </c>
       <c r="F61" s="25">
         <f t="shared" si="1"/>
@@ -3067,7 +3144,7 @@
         <v>532300</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A62">
         <v>22</v>
       </c>
@@ -3080,7 +3157,7 @@
       <c r="D62" s="1"/>
       <c r="E62" s="12">
         <f t="shared" si="0"/>
-        <v>24.729401038544776</v>
+        <v>24.750561237216264</v>
       </c>
       <c r="F62" s="15">
         <f t="shared" si="1"/>
@@ -3103,7 +3180,7 @@
         <v>9099400</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="22">
         <v>23</v>
       </c>
@@ -3116,7 +3193,7 @@
       <c r="D63" s="23"/>
       <c r="E63" s="24">
         <f t="shared" si="0"/>
-        <v>18.911720539336617</v>
+        <v>18.92790272519742</v>
       </c>
       <c r="F63" s="25">
         <f t="shared" si="1"/>
@@ -3141,7 +3218,7 @@
         <v>2493400</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A64">
         <v>24</v>
       </c>
@@ -3154,7 +3231,7 @@
       <c r="D64" s="1"/>
       <c r="E64" s="12">
         <f t="shared" si="0"/>
-        <v>47.28036607756907</v>
+        <v>47.320822453277593</v>
       </c>
       <c r="F64" s="15">
         <f t="shared" si="1"/>
@@ -3177,7 +3254,7 @@
         <v>13566666.666666664</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="22">
         <v>25</v>
       </c>
@@ -3190,7 +3267,7 @@
       <c r="D65" s="23"/>
       <c r="E65" s="24">
         <f t="shared" si="0"/>
-        <v>15.532269971165555</v>
+        <v>15.545560463640355</v>
       </c>
       <c r="F65" s="25">
         <f t="shared" si="1"/>
@@ -3215,7 +3292,7 @@
         <v>3499400</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A66">
         <v>26</v>
       </c>
@@ -3228,7 +3305,7 @@
       <c r="D66" s="1"/>
       <c r="E66" s="12">
         <f t="shared" si="0"/>
-        <v>7.5084705125212157</v>
+        <v>7.5148952830814215</v>
       </c>
       <c r="F66" s="15">
         <f t="shared" si="1"/>
@@ -3251,7 +3328,7 @@
         <v>876200</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="22">
         <v>27</v>
       </c>
@@ -3264,7 +3341,7 @@
       <c r="D67" s="23"/>
       <c r="E67" s="24">
         <f t="shared" si="0"/>
-        <v>18.232423292174317</v>
+        <v>18.248024223977065</v>
       </c>
       <c r="F67" s="25">
         <f t="shared" si="1"/>
@@ -3289,7 +3366,7 @@
         <v>5651900</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A68">
         <v>28</v>
       </c>
@@ -3302,7 +3379,7 @@
       <c r="D68" s="1"/>
       <c r="E68" s="12">
         <f t="shared" si="0"/>
-        <v>7.3317254607517146</v>
+        <v>7.337998995930044</v>
       </c>
       <c r="F68" s="15">
         <f t="shared" si="1"/>
@@ -3325,7 +3402,7 @@
         <v>1980666.6666666665</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="22">
         <v>29</v>
       </c>
@@ -3338,7 +3415,7 @@
       <c r="D69" s="23"/>
       <c r="E69" s="24">
         <f t="shared" si="0"/>
-        <v>11.364919774624425</v>
+        <v>11.374644391890399</v>
       </c>
       <c r="F69" s="25">
         <f t="shared" si="1"/>
@@ -3363,7 +3440,7 @@
         <v>3961333.333333333</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A70">
         <v>30</v>
       </c>
@@ -3376,7 +3453,7 @@
       <c r="D70" s="1"/>
       <c r="E70" s="12">
         <f t="shared" si="0"/>
-        <v>5.3960477251074188</v>
+        <v>5.4006649595372442</v>
       </c>
       <c r="F70" s="15">
         <f t="shared" si="1"/>
@@ -3395,7 +3472,7 @@
         <v>1248000</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="22">
         <v>31</v>
       </c>
@@ -3408,7 +3485,7 @@
       <c r="D71" s="23"/>
       <c r="E71" s="24">
         <f t="shared" si="0"/>
-        <v>14.737981967430327</v>
+        <v>14.750592811743198</v>
       </c>
       <c r="F71" s="25">
         <f t="shared" si="1"/>
@@ -3433,7 +3510,7 @@
         <v>5658666.666666666</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A72">
         <v>32</v>
       </c>
@@ -3446,7 +3523,7 @@
       <c r="D72" s="1"/>
       <c r="E72" s="12">
         <f t="shared" si="0"/>
-        <v>2.2827794638181347</v>
+        <v>2.2847327689912889</v>
       </c>
       <c r="F72" s="15">
         <f t="shared" si="1"/>
@@ -3461,7 +3538,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="22">
         <v>33</v>
       </c>
@@ -3474,7 +3551,7 @@
       <c r="D73" s="23"/>
       <c r="E73" s="24">
         <f t="shared" si="0"/>
-        <v>10.459899931226378</v>
+        <v>10.468850150452621</v>
       </c>
       <c r="F73" s="25">
         <f t="shared" si="1"/>
@@ -3499,7 +3576,7 @@
         <v>4428000</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A74">
         <v>34</v>
       </c>
@@ -3512,7 +3589,7 @@
       <c r="D74" s="1"/>
       <c r="E74" s="12">
         <f t="shared" si="0"/>
-        <v>3.5838785798562691</v>
+        <v>3.5869451960935996</v>
       </c>
       <c r="F74" s="15">
         <f t="shared" si="1"/>
@@ -3531,7 +3608,7 @@
         <v>670000</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="22">
         <v>35</v>
       </c>
@@ -3544,7 +3621,7 @@
       <c r="D75" s="23"/>
       <c r="E75" s="24">
         <f t="shared" si="0"/>
-        <v>3.036607756907332</v>
+        <v>3.0392060900947553</v>
       </c>
       <c r="F75" s="25">
         <f t="shared" si="1"/>
@@ -3566,7 +3643,7 @@
         <v>732600</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A76">
         <v>36</v>
       </c>
@@ -3579,7 +3656,7 @@
       <c r="D76" s="1"/>
       <c r="E76" s="12">
         <f t="shared" si="0"/>
-        <v>15.553564555716097</v>
+        <v>15.566873269321244</v>
       </c>
       <c r="F76" s="15">
         <f t="shared" si="1"/>
@@ -3598,7 +3675,7 @@
         <v>6788000</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="22">
         <v>37</v>
       </c>
@@ -3611,7 +3688,7 @@
       <c r="D77" s="23"/>
       <c r="E77" s="24">
         <f t="shared" si="0"/>
-        <v>6.8163965146285905</v>
+        <v>6.8222290984525324</v>
       </c>
       <c r="F77" s="25">
         <f t="shared" si="1"/>
@@ -3636,7 +3713,7 @@
         <v>1648666.6666666665</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A78">
         <v>38</v>
       </c>
@@ -3649,7 +3726,7 @@
       <c r="D78" s="1"/>
       <c r="E78" s="12">
         <f t="shared" si="0"/>
-        <v>2.2742616299979179</v>
+        <v>2.2762076467189329</v>
       </c>
       <c r="F78" s="15">
         <f t="shared" si="1"/>
@@ -3664,7 +3741,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="22">
         <v>39</v>
       </c>
@@ -3672,25 +3749,25 @@
         <v>112</v>
       </c>
       <c r="C79" s="23">
-        <f>4303000</f>
-        <v>4303000</v>
+        <f>3532000</f>
+        <v>3532000</v>
       </c>
       <c r="D79" s="23"/>
       <c r="E79" s="24">
         <f t="shared" si="0"/>
-        <v>9.1630597320983522</v>
+        <v>7.5276829664899552</v>
       </c>
       <c r="F79" s="25">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G79" s="22">
         <f t="shared" si="3"/>
-        <v>9.4868329805051381</v>
+        <v>7.4833147735478827</v>
       </c>
       <c r="H79" s="22">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I79" s="22"/>
       <c r="J79" s="22"/>
@@ -3699,11 +3776,11 @@
         <v>4036888.8888888885</v>
       </c>
       <c r="L79" s="26">
-        <f>E185*(4/9)</f>
-        <v>4036888.8888888885</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+        <f>E185*(7/18)</f>
+        <v>3532277.777777778</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A80">
         <v>40</v>
       </c>
@@ -3716,7 +3793,7 @@
       <c r="D80" s="1"/>
       <c r="E80" s="12">
         <f t="shared" si="0"/>
-        <v>2.8343092036771802</v>
+        <v>2.8367344361263109</v>
       </c>
       <c r="F80" s="15">
         <f t="shared" si="1"/>
@@ -3731,7 +3808,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="22">
         <v>41</v>
       </c>
@@ -3744,7 +3821,7 @@
       <c r="D81" s="23"/>
       <c r="E81" s="24">
         <f>C81/$B$37</f>
-        <v>6.6460398382242527</v>
+        <v>6.6517266530054213</v>
       </c>
       <c r="F81" s="25">
         <f>FLOOR(E81,1)</f>
@@ -3762,7 +3839,7 @@
       <c r="J81" s="22"/>
       <c r="K81" s="22"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A82">
         <v>42</v>
       </c>
@@ -3775,7 +3852,7 @@
       <c r="D82" s="1"/>
       <c r="E82" s="12">
         <f t="shared" si="0"/>
-        <v>0.92631442794859009</v>
+        <v>0.92710704711866654</v>
       </c>
       <c r="F82" s="15">
         <f t="shared" si="1"/>
@@ -3790,7 +3867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="22">
         <v>43</v>
       </c>
@@ -3803,7 +3880,7 @@
       <c r="D83" s="23"/>
       <c r="E83" s="24">
         <f>C83/$B$37</f>
-        <v>0.62180186887583522</v>
+        <v>0.62233392588195546</v>
       </c>
       <c r="F83" s="25">
         <f t="shared" si="1"/>
@@ -3821,42 +3898,42 @@
       <c r="J83" s="22"/>
       <c r="K83" s="22"/>
     </row>
-    <row r="84" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A84" s="4"/>
       <c r="B84" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C84" s="7">
         <f>SUM(C41:C83)</f>
-        <v>315632000</v>
+        <v>315361000</v>
       </c>
       <c r="D84" s="7"/>
       <c r="E84" s="7">
         <f>SUM(E41:E83)</f>
-        <v>672.12523108567655</v>
+        <v>672.12277123308002</v>
       </c>
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c r="H84" s="7">
         <f>SUM(H41:H83)</f>
-        <v>670</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
         <v>64</v>
       </c>
       <c r="B86" s="12">
         <f>$C$84/B32</f>
-        <v>73.530055806280956</v>
+        <v>73.466923281304076</v>
       </c>
       <c r="C86" s="12">
         <f>$C$84/C32</f>
-        <v>68.360124974618898</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+        <v>68.301431325470134</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G94" t="s">
         <v>141</v>
       </c>
@@ -3873,7 +3950,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G95" s="20">
         <v>1</v>
       </c>
@@ -3890,7 +3967,7 @@
         <v>23785000</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G96" s="20">
         <v>2</v>
       </c>
@@ -3907,7 +3984,7 @@
         <v>15038000</v>
       </c>
     </row>
-    <row r="97" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G97" s="20">
         <v>3</v>
       </c>
@@ -3924,7 +4001,7 @@
         <v>10415000</v>
       </c>
     </row>
-    <row r="98" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G98" s="20">
         <v>4</v>
       </c>
@@ -3941,7 +4018,7 @@
         <v>7038000</v>
       </c>
     </row>
-    <row r="99" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G99" s="20">
         <v>5</v>
       </c>
@@ -3958,7 +4035,7 @@
         <v>6471000</v>
       </c>
     </row>
-    <row r="100" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G100" s="20">
         <v>6</v>
       </c>
@@ -3975,7 +4052,7 @@
         <v>7576000</v>
       </c>
     </row>
-    <row r="101" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G101" s="20">
         <v>7</v>
       </c>
@@ -3992,7 +4069,7 @@
         <v>6948000</v>
       </c>
     </row>
-    <row r="102" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G102" s="20">
         <v>8</v>
       </c>
@@ -4009,7 +4086,7 @@
         <v>9083000</v>
       </c>
     </row>
-    <row r="103" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G103" s="20">
         <v>9</v>
       </c>
@@ -4026,7 +4103,7 @@
         <v>6743000</v>
       </c>
     </row>
-    <row r="104" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G104" s="20">
         <v>10</v>
       </c>
@@ -4043,7 +4120,7 @@
         <v>5942000</v>
       </c>
     </row>
-    <row r="105" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G105" s="20">
         <v>11</v>
       </c>
@@ -4060,7 +4137,7 @@
         <v>4813000</v>
       </c>
     </row>
-    <row r="106" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G106" s="20">
         <v>12</v>
       </c>
@@ -4077,7 +4154,7 @@
         <v>4428000</v>
       </c>
     </row>
-    <row r="107" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G107" s="20">
         <v>13</v>
       </c>
@@ -4094,7 +4171,7 @@
         <v>3327000</v>
       </c>
     </row>
-    <row r="108" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G108" s="20">
         <v>14</v>
       </c>
@@ -4111,7 +4188,7 @@
         <v>3991000</v>
       </c>
     </row>
-    <row r="109" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G109" s="20">
         <v>15</v>
       </c>
@@ -4128,7 +4205,7 @@
         <v>15038000</v>
       </c>
     </row>
-    <row r="110" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G110" s="20">
         <v>16</v>
       </c>
@@ -4145,7 +4222,7 @@
         <v>1782000</v>
       </c>
     </row>
-    <row r="111" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G111" s="20">
         <v>17</v>
       </c>
@@ -4162,7 +4239,7 @@
         <v>3447000</v>
       </c>
     </row>
-    <row r="112" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G112" s="20">
         <v>18</v>
       </c>
@@ -4179,7 +4256,7 @@
         <v>4940000</v>
       </c>
     </row>
-    <row r="113" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G113" s="20">
         <v>19</v>
       </c>
@@ -4196,7 +4273,7 @@
         <v>23785000</v>
       </c>
     </row>
-    <row r="114" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G114" s="20">
         <v>20</v>
       </c>
@@ -4213,7 +4290,7 @@
         <v>6491000</v>
       </c>
     </row>
-    <row r="115" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G115" s="20">
         <v>21</v>
       </c>
@@ -4230,7 +4307,7 @@
         <v>2297000</v>
       </c>
     </row>
-    <row r="116" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G116" s="20">
         <v>22</v>
       </c>
@@ -4247,7 +4324,7 @@
         <v>2929000</v>
       </c>
     </row>
-    <row r="117" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G117" s="20">
         <v>23</v>
       </c>
@@ -4264,7 +4341,7 @@
         <v>4247000</v>
       </c>
     </row>
-    <row r="118" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G118" s="20">
         <v>24</v>
       </c>
@@ -4281,7 +4358,7 @@
         <v>2473000</v>
       </c>
     </row>
-    <row r="119" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G119" s="20">
         <v>25</v>
       </c>
@@ -4298,7 +4375,7 @@
         <v>1929000</v>
       </c>
     </row>
-    <row r="120" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G120" s="20">
         <v>26</v>
       </c>
@@ -4315,7 +4392,7 @@
         <v>5312000</v>
       </c>
     </row>
-    <row r="121" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G121" s="20">
         <v>27</v>
       </c>
@@ -4332,7 +4409,7 @@
         <v>1252000</v>
       </c>
     </row>
-    <row r="122" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G122" s="20">
         <v>28</v>
       </c>
@@ -4349,7 +4426,7 @@
         <v>1782000</v>
       </c>
     </row>
-    <row r="123" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G123" s="20">
         <v>29</v>
       </c>
@@ -4366,7 +4443,7 @@
         <v>2175000</v>
       </c>
     </row>
-    <row r="124" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G124" s="20">
         <v>30</v>
       </c>
@@ -4383,7 +4460,7 @@
         <v>1534000</v>
       </c>
     </row>
-    <row r="125" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G125" s="20">
         <v>31</v>
       </c>
@@ -4400,7 +4477,7 @@
         <v>2461000</v>
       </c>
     </row>
-    <row r="126" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G126" s="20">
         <v>32</v>
       </c>
@@ -4417,7 +4494,7 @@
         <v>1567000</v>
       </c>
     </row>
-    <row r="130" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G130" t="s">
         <v>141</v>
       </c>
@@ -4434,7 +4511,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="131" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G131">
         <v>1</v>
       </c>
@@ -4451,7 +4528,7 @@
         <v>23785000</v>
       </c>
     </row>
-    <row r="132" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G132">
         <v>2</v>
       </c>
@@ -4468,7 +4545,7 @@
         <v>15038000</v>
       </c>
     </row>
-    <row r="133" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G133">
         <v>3</v>
       </c>
@@ -4485,7 +4562,7 @@
         <v>10415000</v>
       </c>
     </row>
-    <row r="134" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G134">
         <v>4</v>
       </c>
@@ -4502,7 +4579,7 @@
         <v>7038000</v>
       </c>
     </row>
-    <row r="135" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G135">
         <v>5</v>
       </c>
@@ -4519,7 +4596,7 @@
         <v>6471000</v>
       </c>
     </row>
-    <row r="136" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G136">
         <v>6</v>
       </c>
@@ -4536,7 +4613,7 @@
         <v>7576000</v>
       </c>
     </row>
-    <row r="137" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G137">
         <v>7</v>
       </c>
@@ -4553,7 +4630,7 @@
         <v>6948000</v>
       </c>
     </row>
-    <row r="138" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G138">
         <v>8</v>
       </c>
@@ -4570,7 +4647,7 @@
         <v>9083000</v>
       </c>
     </row>
-    <row r="139" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G139">
         <v>9</v>
       </c>
@@ -4587,7 +4664,7 @@
         <v>6743000</v>
       </c>
     </row>
-    <row r="140" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G140">
         <v>10</v>
       </c>
@@ -4604,7 +4681,7 @@
         <v>5942000</v>
       </c>
     </row>
-    <row r="141" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G141">
         <v>11</v>
       </c>
@@ -4621,7 +4698,7 @@
         <v>4813000</v>
       </c>
     </row>
-    <row r="142" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G142">
         <v>12</v>
       </c>
@@ -4638,7 +4715,7 @@
         <v>4428000</v>
       </c>
     </row>
-    <row r="143" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G143">
         <v>13</v>
       </c>
@@ -4655,7 +4732,7 @@
         <v>3327000</v>
       </c>
     </row>
-    <row r="144" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G144">
         <v>14</v>
       </c>
@@ -4672,7 +4749,7 @@
         <v>3991000</v>
       </c>
     </row>
-    <row r="145" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G145">
         <v>15</v>
       </c>
@@ -4689,7 +4766,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="146" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G146">
         <v>16</v>
       </c>
@@ -4706,7 +4783,7 @@
         <v>2252000</v>
       </c>
     </row>
-    <row r="147" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G147">
         <v>17</v>
       </c>
@@ -4723,7 +4800,7 @@
         <v>3447000</v>
       </c>
     </row>
-    <row r="148" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G148">
         <v>18</v>
       </c>
@@ -4740,7 +4817,7 @@
         <v>6491000</v>
       </c>
     </row>
-    <row r="149" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G149">
         <v>19</v>
       </c>
@@ -4757,7 +4834,7 @@
         <v>5105000</v>
       </c>
     </row>
-    <row r="150" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G150">
         <v>20</v>
       </c>
@@ -4774,7 +4851,7 @@
         <v>1836000</v>
       </c>
     </row>
-    <row r="151" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G151">
         <v>21</v>
       </c>
@@ -4791,7 +4868,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="152" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G152">
         <v>22</v>
       </c>
@@ -4808,7 +4885,7 @@
         <v>4940000</v>
       </c>
     </row>
-    <row r="153" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G153">
         <v>23</v>
       </c>
@@ -4825,7 +4902,7 @@
         <v>2297000</v>
       </c>
     </row>
-    <row r="154" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G154">
         <v>24</v>
       </c>
@@ -4842,7 +4919,7 @@
         <v>2929000</v>
       </c>
     </row>
-    <row r="155" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G155">
         <v>25</v>
       </c>
@@ -4859,7 +4936,7 @@
         <v>4247000</v>
       </c>
     </row>
-    <row r="156" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G156">
         <v>26</v>
       </c>
@@ -4876,7 +4953,7 @@
         <v>3562000</v>
       </c>
     </row>
-    <row r="157" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G157">
         <v>27</v>
       </c>
@@ -4893,7 +4970,7 @@
         <v>3421000</v>
       </c>
     </row>
-    <row r="158" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G158">
         <v>28</v>
       </c>
@@ -4910,7 +4987,7 @@
         <v>2473000</v>
       </c>
     </row>
-    <row r="159" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G159">
         <v>29</v>
       </c>
@@ -4927,7 +5004,7 @@
         <v>2329000</v>
       </c>
     </row>
-    <row r="160" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G160">
         <v>30</v>
       </c>
@@ -4944,7 +5021,7 @@
         <v>1651000</v>
       </c>
     </row>
-    <row r="161" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G161">
         <v>31</v>
       </c>
@@ -4961,7 +5038,7 @@
         <v>2547000</v>
       </c>
     </row>
-    <row r="162" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G162">
         <v>32</v>
       </c>
@@ -4978,7 +5055,7 @@
         <v>5312000</v>
       </c>
     </row>
-    <row r="163" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G163">
         <v>33</v>
       </c>
@@ -4995,7 +5072,7 @@
         <v>1252000</v>
       </c>
     </row>
-    <row r="164" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G164">
         <v>34</v>
       </c>
@@ -5012,7 +5089,7 @@
         <v>1782000</v>
       </c>
     </row>
-    <row r="165" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G165">
         <v>35</v>
       </c>
@@ -5029,7 +5106,7 @@
         <v>2175000</v>
       </c>
     </row>
-    <row r="166" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G166">
         <v>36</v>
       </c>
@@ -5046,7 +5123,7 @@
         <v>2461000</v>
       </c>
     </row>
-    <row r="167" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G167">
         <v>37</v>
       </c>
@@ -5063,7 +5140,7 @@
         <v>1221000</v>
       </c>
     </row>
-    <row r="168" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G168">
         <v>38</v>
       </c>
@@ -5080,7 +5157,7 @@
         <v>1614000</v>
       </c>
     </row>
-    <row r="169" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G169">
         <v>39</v>
       </c>
@@ -5097,7 +5174,7 @@
         <v>1567000</v>
       </c>
     </row>
-    <row r="170" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G170">
         <v>40</v>
       </c>
@@ -5114,7 +5191,7 @@
         <v>1341000</v>
       </c>
     </row>
-    <row r="171" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G171">
         <v>41</v>
       </c>
@@ -5131,7 +5208,7 @@
         <v>1248000</v>
       </c>
     </row>
-    <row r="172" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G172">
         <v>42</v>
       </c>
@@ -5148,7 +5225,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="173" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G173">
         <v>43</v>
       </c>
@@ -5165,7 +5242,7 @@
         <v>1641000</v>
       </c>
     </row>
-    <row r="174" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G174">
         <v>44</v>
       </c>
@@ -5182,7 +5259,7 @@
         <v>1051000</v>
       </c>
     </row>
-    <row r="175" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G175">
         <v>45</v>
       </c>
@@ -5199,7 +5276,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" t="s">
         <v>141</v>
       </c>
@@ -5216,7 +5293,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A178">
         <v>1</v>
       </c>
@@ -5233,7 +5310,7 @@
         <v>23785000</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A179">
         <v>2</v>
       </c>
@@ -5250,7 +5327,7 @@
         <v>15038000</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A180">
         <v>3</v>
       </c>
@@ -5267,7 +5344,7 @@
         <v>10415000</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A181">
         <v>4</v>
       </c>
@@ -5284,7 +5361,7 @@
         <v>7038000</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A182">
         <v>5</v>
       </c>
@@ -5301,7 +5378,7 @@
         <v>6471000</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A183">
         <v>6</v>
       </c>
@@ -5318,7 +5395,7 @@
         <v>7576000</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A184">
         <v>7</v>
       </c>
@@ -5335,7 +5412,7 @@
         <v>6948000</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A185">
         <v>8</v>
       </c>
@@ -5352,7 +5429,7 @@
         <v>9083000</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A186">
         <v>9</v>
       </c>
@@ -5369,7 +5446,7 @@
         <v>6743000</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A187">
         <v>10</v>
       </c>
@@ -5386,7 +5463,7 @@
         <v>5942000</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A188">
         <v>11</v>
       </c>
@@ -5403,7 +5480,7 @@
         <v>4813000</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A189">
         <v>12</v>
       </c>
@@ -5420,7 +5497,7 @@
         <v>4428000</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A190">
         <v>13</v>
       </c>
@@ -5437,7 +5514,7 @@
         <v>3327000</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A191">
         <v>14</v>
       </c>
@@ -5454,7 +5531,7 @@
         <v>3991000</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A192">
         <v>15</v>
       </c>
@@ -5471,7 +5548,7 @@
         <v>5147000</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A193">
         <v>16</v>
       </c>
@@ -5488,7 +5565,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A194">
         <v>17</v>
       </c>
@@ -5505,7 +5582,7 @@
         <v>2252000</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A195">
         <v>18</v>
       </c>
@@ -5522,7 +5599,7 @@
         <v>3447000</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A196">
         <v>19</v>
       </c>
@@ -5539,7 +5616,7 @@
         <v>6291000</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A197">
         <v>20</v>
       </c>
@@ -5556,7 +5633,7 @@
         <v>4405000</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A198">
         <v>21</v>
       </c>
@@ -5573,7 +5650,7 @@
         <v>1836000</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A199">
         <v>22</v>
       </c>
@@ -5590,7 +5667,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A200">
         <v>23</v>
       </c>
@@ -5607,7 +5684,7 @@
         <v>4940000</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A201">
         <v>24</v>
       </c>
@@ -5624,7 +5701,7 @@
         <v>2297000</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A202">
         <v>25</v>
       </c>
@@ -5641,7 +5718,7 @@
         <v>2929000</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A203">
         <v>26</v>
       </c>
@@ -5658,7 +5735,7 @@
         <v>3562000</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A204">
         <v>27</v>
       </c>
@@ -5675,7 +5752,7 @@
         <v>3421000</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A205">
         <v>28</v>
       </c>
@@ -5692,7 +5769,7 @@
         <v>2473000</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A206">
         <v>29</v>
       </c>
@@ -5709,7 +5786,7 @@
         <v>2329000</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A207">
         <v>30</v>
       </c>
@@ -5726,7 +5803,7 @@
         <v>1651000</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A208">
         <v>31</v>
       </c>
@@ -5743,7 +5820,7 @@
         <v>2547000</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A209">
         <v>32</v>
       </c>
@@ -5760,7 +5837,7 @@
         <v>5312000</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A210">
         <v>33</v>
       </c>
@@ -5777,7 +5854,7 @@
         <v>1252000</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A211">
         <v>34</v>
       </c>
@@ -5794,7 +5871,7 @@
         <v>1782000</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A212">
         <v>35</v>
       </c>
@@ -5811,7 +5888,7 @@
         <v>2175000</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A213">
         <v>36</v>
       </c>
@@ -5828,7 +5905,7 @@
         <v>2461000</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A214">
         <v>37</v>
       </c>
@@ -5845,7 +5922,7 @@
         <v>1221000</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A215">
         <v>38</v>
       </c>
@@ -5862,7 +5939,7 @@
         <v>1814000</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A216">
         <v>39</v>
       </c>
@@ -5879,7 +5956,7 @@
         <v>1567000</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A217">
         <v>40</v>
       </c>
@@ -5896,7 +5973,7 @@
         <v>1341000</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A218">
         <v>41</v>
       </c>
@@ -5913,7 +5990,7 @@
         <v>1248000</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A219">
         <v>42</v>
       </c>
@@ -5930,7 +6007,7 @@
         <v>1638000</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A220">
         <v>43</v>
       </c>
@@ -5947,7 +6024,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A221">
         <v>44</v>
       </c>
@@ -5964,7 +6041,7 @@
         <v>1641000</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A222">
         <v>45</v>
       </c>
@@ -5981,7 +6058,7 @@
         <v>1051000</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A223">
         <v>46</v>
       </c>
@@ -5998,7 +6075,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A224">
         <v>47</v>
       </c>
@@ -6015,7 +6092,7 @@
         <v>993000</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A225">
         <v>48</v>
       </c>
@@ -6032,7 +6109,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A226">
         <v>49</v>
       </c>
@@ -6049,7 +6126,7 @@
         <v>934000</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A227">
         <v>50</v>
       </c>
@@ -6072,30 +6149,30 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C63D63CD-E558-4E85-B35D-432437BFD9B4}">
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.83984375" customWidth="1"/>
+    <col min="4" max="4" width="10.41796875" customWidth="1"/>
+    <col min="5" max="5" width="10.578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.83984375" customWidth="1"/>
+    <col min="11" max="11" width="10.41796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>131</v>
       </c>
@@ -6103,7 +6180,7 @@
         <v>1054549</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="D4" t="s">
         <v>132</v>
       </c>
@@ -6111,7 +6188,7 @@
         <v>9833520</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="D5" t="s">
         <v>133</v>
       </c>
@@ -6120,7 +6197,7 @@
         <v>4617194.6016363995</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G6" t="s">
         <v>134</v>
       </c>
@@ -6129,7 +6206,7 @@
         <v>77351.813000000024</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G7" t="s">
         <v>136</v>
       </c>
@@ -6138,7 +6215,7 @@
         <v>224595</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G8" t="s">
         <v>135</v>
       </c>
@@ -6146,7 +6223,7 @@
         <v>254806</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G9" t="s">
         <v>137</v>
       </c>
@@ -6155,7 +6232,7 @@
         <v>165137</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="D10" t="s">
         <v>138</v>
       </c>
@@ -6164,7 +6241,7 @@
         <v>721889.81300000008</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="D11" t="s">
         <v>140</v>
       </c>
@@ -6173,7 +6250,7 @@
         <v>13129.141</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="3" t="s">
         <v>139</v>
       </c>
@@ -6182,7 +6259,7 @@
         <v>4481306.4443636006</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A13" s="17" t="s">
         <v>22</v>
       </c>
@@ -6191,10 +6268,10 @@
         <v>5535855.4443636006</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" t="s">
-        <v>129</v>
+        <v>174</v>
       </c>
       <c r="C15" t="s">
         <v>63</v>
@@ -6203,20 +6280,26 @@
         <v>173</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16">
+        <v>1</v>
+      </c>
       <c r="B16" t="s">
         <v>177</v>
       </c>
       <c r="C16" s="1">
-        <f>K16+2000000</f>
+        <f>K16+1800000</f>
+        <v>13846000</v>
+      </c>
+      <c r="K16" s="1">
+        <f>E34</f>
         <v>12046000</v>
       </c>
-      <c r="K16" s="1">
-        <f>E32</f>
-        <v>10046000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17">
+        <v>2</v>
+      </c>
       <c r="B17" t="s">
         <v>185</v>
       </c>
@@ -6225,11 +6308,14 @@
         <v>6602000</v>
       </c>
       <c r="K17" s="1">
-        <f>E36</f>
+        <f>E38</f>
         <v>4602000</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18">
+        <v>3</v>
+      </c>
       <c r="B18" t="s">
         <v>179</v>
       </c>
@@ -6238,11 +6324,14 @@
         <v>11286000</v>
       </c>
       <c r="K18" s="1">
-        <f>E33</f>
+        <f>E35</f>
         <v>7524000</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19">
+        <v>4</v>
+      </c>
       <c r="B19" t="s">
         <v>183</v>
       </c>
@@ -6251,11 +6340,14 @@
         <v>11924000</v>
       </c>
       <c r="K19" s="1">
-        <f>E35</f>
+        <f>E37</f>
         <v>4924000</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20">
+        <v>5</v>
+      </c>
       <c r="B20" t="s">
         <v>194</v>
       </c>
@@ -6264,276 +6356,318 @@
       </c>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21">
+        <v>6</v>
+      </c>
       <c r="B21" t="s">
+        <v>248</v>
+      </c>
+      <c r="C21" s="1">
+        <v>221000</v>
+      </c>
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22">
+        <v>7</v>
+      </c>
+      <c r="B22" t="s">
+        <v>249</v>
+      </c>
+      <c r="C22" s="1">
+        <v>628000</v>
+      </c>
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23">
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
         <v>187</v>
       </c>
-      <c r="C21" s="11">
-        <f>K21*1.5</f>
-        <v>14124000</v>
-      </c>
-      <c r="K21" s="1">
-        <f>SUM(E37:E39)+E41</f>
+      <c r="C23" s="11">
+        <f>K23*1.5-SUM(C21:C22)</f>
+        <v>13275000</v>
+      </c>
+      <c r="K23" s="1">
+        <f>SUM(E39:E41)+E43</f>
         <v>9416000</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24">
+        <v>9</v>
+      </c>
+      <c r="B24" t="s">
         <v>181</v>
       </c>
-      <c r="C22" s="11">
-        <f>K22+1500000</f>
+      <c r="C24" s="11">
+        <f>K24+1500000</f>
         <v>8893000</v>
       </c>
-      <c r="K22" s="1">
-        <f>E40+E34</f>
+      <c r="K24" s="1">
+        <f>E42+E36</f>
         <v>7393000</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25">
+        <v>10</v>
+      </c>
+      <c r="B25" t="s">
         <v>192</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C25" s="1">
         <v>2341000</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26">
+        <v>11</v>
+      </c>
+      <c r="B26" t="s">
         <v>193</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C26" s="1">
         <v>1567000</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27">
+        <v>12</v>
+      </c>
+      <c r="B27" t="s">
         <v>195</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C27" s="1">
         <v>234000</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28">
+        <v>13</v>
+      </c>
+      <c r="B28" t="s">
         <v>196</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C28" s="1">
         <v>1624000</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4" t="s">
+    <row r="29" spans="1:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="5">
-        <f>SUM(C16:C26)</f>
-        <v>72162000</v>
-      </c>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-    </row>
-    <row r="28" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="C29" s="5">
+        <f>SUM(C16:C28)</f>
+        <v>73962000</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+    </row>
+    <row r="30" spans="1:11" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" t="s">
         <v>64</v>
       </c>
-      <c r="B29" s="8">
-        <f>C27/B13</f>
-        <v>13.035383731609652</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="B31" s="8">
+        <f>C29/B13</f>
+        <v>13.360536730652047</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" t="s">
         <v>141</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B33" t="s">
         <v>142</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C33" t="s">
         <v>174</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D33" t="s">
         <v>63</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E33" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34">
         <v>1</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B34" t="s">
         <v>176</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C34" t="s">
         <v>177</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D34" s="1">
         <v>5221000</v>
       </c>
-      <c r="E32" s="1">
-        <v>10046000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="E34" s="1">
+        <v>12046000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35">
         <v>2</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B35" t="s">
         <v>178</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C35" t="s">
         <v>179</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D35" s="1">
         <v>3270000</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E35" s="1">
         <v>7524000</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36">
         <v>3</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B36" t="s">
         <v>180</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C36" t="s">
         <v>181</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D36" s="1">
         <v>2769000</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E36" s="1">
         <v>5435000</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37">
         <v>4</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B37" t="s">
         <v>182</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C37" t="s">
         <v>183</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D37" s="1">
         <v>2534000</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E37" s="1">
         <v>4924000</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38">
         <v>5</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B38" t="s">
         <v>184</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C38" t="s">
         <v>185</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D38" s="1">
         <v>2150000</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E38" s="1">
         <v>4602000</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39">
         <v>6</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B39" t="s">
         <v>186</v>
-      </c>
-      <c r="C37" t="s">
-        <v>187</v>
-      </c>
-      <c r="D37" s="1">
-        <v>1623000</v>
-      </c>
-      <c r="E37" s="1">
-        <v>2912000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>7</v>
-      </c>
-      <c r="B38" t="s">
-        <v>188</v>
-      </c>
-      <c r="C38" t="s">
-        <v>187</v>
-      </c>
-      <c r="D38" s="1">
-        <v>1408000</v>
-      </c>
-      <c r="E38" s="1">
-        <v>2705000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>8</v>
-      </c>
-      <c r="B39" t="s">
-        <v>189</v>
       </c>
       <c r="C39" t="s">
         <v>187</v>
       </c>
       <c r="D39" s="1">
-        <v>1251000</v>
+        <v>1623000</v>
       </c>
       <c r="E39" s="1">
-        <v>2396000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2912000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A40">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C40" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="D40" s="1">
-        <v>1115000</v>
+        <v>1408000</v>
       </c>
       <c r="E40" s="1">
-        <v>1958000</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2705000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A41">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B41" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C41" t="s">
         <v>187</v>
       </c>
       <c r="D41" s="1">
+        <v>1251000</v>
+      </c>
+      <c r="E41" s="1">
+        <v>2396000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42">
+        <v>9</v>
+      </c>
+      <c r="B42" t="s">
+        <v>190</v>
+      </c>
+      <c r="C42" t="s">
+        <v>181</v>
+      </c>
+      <c r="D42" s="1">
+        <v>1115000</v>
+      </c>
+      <c r="E42" s="1">
+        <v>1958000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43">
+        <v>10</v>
+      </c>
+      <c r="B43" t="s">
+        <v>191</v>
+      </c>
+      <c r="C43" t="s">
+        <v>187</v>
+      </c>
+      <c r="D43" s="1">
         <v>1059000</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E43" s="1">
         <v>1403000</v>
       </c>
     </row>

--- a/obsidian-notes/spreadsheets/area.xlsx
+++ b/obsidian-notes/spreadsheets/area.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sharm\iCloudDrive\iCloud~md~obsidian\Ishan's notes\Spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF6B907D-3ADF-4D44-9AD0-F65A08D16431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7684F77-C713-4332-8E92-F9393017FA51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" activeTab="3" xr2:uid="{94B94BC7-FBC8-4BAC-A974-CA3E4662C848}"/>
+    <workbookView xWindow="-28898" yWindow="-4875" windowWidth="28996" windowHeight="15675" xr2:uid="{94B94BC7-FBC8-4BAC-A974-CA3E4662C848}"/>
   </bookViews>
   <sheets>
     <sheet name="france" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="256">
   <si>
     <t>OTL Metro France</t>
   </si>
@@ -257,9 +257,6 @@
     <t>Orthodoxy</t>
   </si>
   <si>
-    <t xml:space="preserve">Catholicism - </t>
-  </si>
-  <si>
     <t>Religion</t>
   </si>
   <si>
@@ -795,6 +792,21 @@
   </si>
   <si>
     <t>East Frisia</t>
+  </si>
+  <si>
+    <t>Catholicism</t>
+  </si>
+  <si>
+    <t>Lutheranism</t>
+  </si>
+  <si>
+    <t>Calvinism</t>
+  </si>
+  <si>
+    <t>Methodism</t>
+  </si>
+  <si>
+    <t>Unitarianism</t>
   </si>
 </sst>
 </file>
@@ -1241,26 +1253,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F489DD57-E97E-46C5-91B6-044FDCA9CA47}">
-  <dimension ref="A1:K50"/>
+  <dimension ref="A1:K62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.83984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.83984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="28"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1272,7 +1283,7 @@
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1284,7 +1295,7 @@
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1296,7 +1307,7 @@
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1307,9 +1318,9 @@
         <v>875.8</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B6" s="1">
         <v>2148</v>
@@ -1318,7 +1329,7 @@
         <v>2210</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>5</v>
       </c>
@@ -1329,7 +1340,7 @@
         <v>2570</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="I8" t="s">
@@ -1342,7 +1353,7 @@
         <v>626.79999999999995</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="I9" t="s">
@@ -1355,7 +1366,7 @@
         <v>642.37</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="I10" t="s">
@@ -1368,7 +1379,7 @@
         <v>989.05</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="I11" t="s">
@@ -1381,7 +1392,7 @@
         <v>782.18</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="I12" t="s">
@@ -1394,7 +1405,7 @@
         <v>24.12</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="I13" t="s">
@@ -1407,7 +1418,7 @@
         <v>26.34</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="I14" s="3" t="s">
@@ -1422,7 +1433,7 @@
         <v>26.3125</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
         <v>6</v>
       </c>
@@ -1435,7 +1446,7 @@
         <v>16737.037499999999</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="I16" t="s">
@@ -1450,7 +1461,7 @@
         <v>2644.9050000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="I17" t="s">
@@ -1465,7 +1476,7 @@
         <v>4418.826</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E18" s="3" t="s">
         <v>8</v>
       </c>
@@ -1478,7 +1489,7 @@
         <v>7063.7309999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -1491,7 +1502,7 @@
         <v>26370.768499999998</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
         <v>9</v>
       </c>
@@ -1502,7 +1513,7 @@
         <v>282.49</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
         <v>10</v>
       </c>
@@ -1513,7 +1524,7 @@
         <v>3211.94</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E22" t="s">
         <v>11</v>
       </c>
@@ -1524,7 +1535,7 @@
         <v>5224.49</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
         <v>12</v>
       </c>
@@ -1535,7 +1546,7 @@
         <v>1671.42</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
         <v>13</v>
       </c>
@@ -1546,7 +1557,7 @@
         <v>802.24</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E25" t="s">
         <v>14</v>
       </c>
@@ -1557,7 +1568,7 @@
         <v>838.51</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E26" t="s">
         <v>15</v>
       </c>
@@ -1568,7 +1579,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E27" t="s">
         <v>16</v>
       </c>
@@ -1579,7 +1590,7 @@
         <v>89.55</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E28" s="3" t="s">
         <v>17</v>
       </c>
@@ -1592,7 +1603,7 @@
         <v>42.029999999999994</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>7</v>
       </c>
@@ -1605,7 +1616,7 @@
         <v>12703.67</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>18</v>
       </c>
@@ -1618,7 +1629,7 @@
         <v>627130.63850000012</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="E31" t="s">
         <v>20</v>
       </c>
@@ -1629,9 +1640,9 @@
         <v>242</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E32" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F32" s="3">
         <v>500</v>
@@ -1640,7 +1651,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>21</v>
       </c>
@@ -1653,7 +1664,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>22</v>
       </c>
@@ -1666,8 +1677,8 @@
         <v>627872.63850000012</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>63</v>
       </c>
@@ -1675,7 +1686,7 @@
         <v>131324241</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>64</v>
       </c>
@@ -1688,33 +1699,33 @@
         <v>209.15745160314066</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>72</v>
+      </c>
+      <c r="B40" t="s">
         <v>73</v>
-      </c>
-      <c r="B40" t="s">
-        <v>74</v>
       </c>
       <c r="C40" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>72</v>
+        <v>251</v>
       </c>
       <c r="B41" s="14">
         <f>1-SUM(B42:B49)</f>
-        <v>0.36399999999999988</v>
+        <v>0.36399999999999999</v>
       </c>
       <c r="C41" s="15">
         <f>B$36*B41</f>
-        <v>47802023.723999985</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>47802023.723999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B42" s="13">
         <v>0.159</v>
@@ -1724,31 +1735,31 @@
         <v>20880554.319000002</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B43" s="13">
-        <v>0.108</v>
+        <v>0.106</v>
       </c>
       <c r="C43" s="15">
         <f>B$36*B43</f>
-        <v>14183018.027999999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>13920369.546</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B44" s="13">
-        <v>7.5999999999999998E-2</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="C44" s="15">
-        <f t="shared" ref="C44:C49" si="0">B$36*B44</f>
-        <v>9980642.3159999996</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <f>B$36*B44</f>
+        <v>11556533.207999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>69</v>
       </c>
@@ -1756,11 +1767,11 @@
         <v>5.1999999999999998E-2</v>
       </c>
       <c r="C45" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C45:C49" si="0">B$36*B45</f>
         <v>6828860.5319999997</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>68</v>
       </c>
@@ -1772,20 +1783,20 @@
         <v>4071051.4709999999</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>67</v>
       </c>
       <c r="B47" s="13">
-        <v>0.14099999999999999</v>
+        <v>0.13100000000000001</v>
       </c>
       <c r="C47" s="15">
         <f t="shared" si="0"/>
-        <v>18516717.980999999</v>
+        <v>17203475.571000002</v>
       </c>
       <c r="G47" s="13"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>66</v>
       </c>
@@ -1797,7 +1808,7 @@
         <v>6303563.568</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>65</v>
       </c>
@@ -1809,7 +1820,7 @@
         <v>2757809.0610000002</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>22</v>
       </c>
@@ -1821,9 +1832,101 @@
         <v>131324241</v>
       </c>
     </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="B55" s="28"/>
+      <c r="C55" s="28"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>72</v>
+      </c>
+      <c r="B56" t="s">
+        <v>73</v>
+      </c>
+      <c r="C56" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>252</v>
+      </c>
+      <c r="B57" s="13">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="C57" s="15">
+        <f>B57*$C$62</f>
+        <v>5999679.2743260004</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>253</v>
+      </c>
+      <c r="B58" s="13">
+        <f>1-(B57+SUM(B59:B61))</f>
+        <v>0.373</v>
+      </c>
+      <c r="C58" s="15">
+        <f t="shared" ref="C58:C61" si="1">B58*$C$62</f>
+        <v>5192297.8406579997</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>254</v>
+      </c>
+      <c r="B59" s="13">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="C59" s="15">
+        <f t="shared" si="1"/>
+        <v>1057948.085496</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>255</v>
+      </c>
+      <c r="B60" s="13">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="C60" s="15">
+        <f t="shared" si="1"/>
+        <v>821301.80321399996</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>65</v>
+      </c>
+      <c r="B61" s="13">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="C61" s="15">
+        <f t="shared" si="1"/>
+        <v>849142.54230600002</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>22</v>
+      </c>
+      <c r="B62" s="16">
+        <v>1</v>
+      </c>
+      <c r="C62" s="15">
+        <f>C43</f>
+        <v>13920369.546</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A55:C55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1837,25 +1940,25 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B1" s="1">
         <v>41865</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B2" s="1">
         <v>3142</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>4</v>
       </c>
@@ -1864,23 +1967,23 @@
         <v>875.8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D4" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E4" s="6">
         <f>france!C6</f>
         <v>2210</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3">
         <f>-SUM(E3:E4)</f>
         <v>-3085.8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -1902,22 +2005,22 @@
       <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.26171875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.15625" customWidth="1"/>
-    <col min="4" max="5" width="9.578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.15625" customWidth="1"/>
-    <col min="11" max="11" width="12.15625" customWidth="1"/>
-    <col min="12" max="12" width="10.83984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="4" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E2" t="s">
         <v>24</v>
       </c>
@@ -1928,7 +2031,7 @@
         <v>469616</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
         <v>25</v>
       </c>
@@ -1939,7 +2042,7 @@
         <v>780541</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
         <v>26</v>
       </c>
@@ -1950,7 +2053,7 @@
         <v>758842</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E5" s="3" t="s">
         <v>27</v>
       </c>
@@ -1961,7 +2064,7 @@
         <v>475014</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -1974,7 +2077,7 @@
         <v>2484013</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>29</v>
       </c>
@@ -1987,7 +2090,7 @@
         <v>1134615</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I8" t="s">
         <v>48</v>
       </c>
@@ -1998,7 +2101,7 @@
         <v>4770</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I9" t="s">
         <v>49</v>
       </c>
@@ -2009,7 +2112,7 @@
         <v>5310</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I10" s="3" t="s">
         <v>50</v>
       </c>
@@ -2020,7 +2123,7 @@
         <v>4710</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
         <v>30</v>
       </c>
@@ -2033,7 +2136,7 @@
         <v>166248</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
         <v>31</v>
       </c>
@@ -2044,7 +2147,7 @@
         <v>303448.18699999998</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
       <c r="I13" t="s">
@@ -2057,7 +2160,7 @@
         <v>10920</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
       <c r="I14" t="s">
@@ -2070,7 +2173,7 @@
         <v>12780</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
       <c r="I15" t="s">
@@ -2083,7 +2186,7 @@
         <v>10610</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
       <c r="I16" t="s">
@@ -2096,7 +2199,7 @@
         <v>5410</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
       <c r="I17" t="s">
@@ -2109,7 +2212,7 @@
         <v>27170</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
       <c r="I18" s="3" t="s">
@@ -2122,7 +2225,7 @@
         <v>19050</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
         <v>32</v>
       </c>
@@ -2135,7 +2238,7 @@
         <v>167660</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
         <v>33</v>
       </c>
@@ -2148,7 +2251,7 @@
         <v>134800.5</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E21" s="3" t="s">
         <v>34</v>
       </c>
@@ -2161,7 +2264,7 @@
         <v>193590.3636364</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -2174,7 +2277,7 @@
         <v>2100362.0506364</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
       <c r="I23" t="s">
@@ -2187,7 +2290,7 @@
         <v>6920</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
       <c r="I24" t="s">
@@ -2200,7 +2303,7 @@
         <v>5650</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
       <c r="I25" t="s">
@@ -2213,7 +2316,7 @@
         <v>5760</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
       <c r="I26" s="3" t="s">
@@ -2228,7 +2331,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E27" t="s">
         <v>36</v>
       </c>
@@ -2241,7 +2344,7 @@
         <v>19690</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E28" s="3" t="s">
         <v>37</v>
       </c>
@@ -2252,7 +2355,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -2265,7 +2368,7 @@
         <v>19690.41</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>61</v>
       </c>
@@ -2276,7 +2379,7 @@
         <v>12981.02</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>62</v>
       </c>
@@ -2287,7 +2390,7 @@
         <v>148.12100000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>22</v>
       </c>
@@ -2300,36 +2403,36 @@
         <v>4617194.6016363995</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B34" s="12">
         <f>C84^(1/3)</f>
         <v>680.66903588389926</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B35">
         <v>675</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B36" s="15">
         <f>C84/B35</f>
         <v>467201.48148148146</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B37" s="15">
         <f>B36+C37</f>
@@ -2339,46 +2442,46 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>126</v>
+      </c>
+      <c r="E39" t="s">
+        <v>118</v>
+      </c>
+      <c r="K39" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>127</v>
       </c>
-      <c r="E39" t="s">
-        <v>119</v>
-      </c>
-      <c r="K39" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" t="s">
+      <c r="B40" t="s">
         <v>128</v>
-      </c>
-      <c r="B40" t="s">
-        <v>129</v>
       </c>
       <c r="C40" t="s">
         <v>63</v>
       </c>
       <c r="E40" t="s">
+        <v>122</v>
+      </c>
+      <c r="F40" t="s">
         <v>123</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>124</v>
       </c>
-      <c r="G40" t="s">
-        <v>125</v>
-      </c>
       <c r="H40" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="22">
         <v>1</v>
       </c>
       <c r="B41" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C41" s="23">
         <v>1519000</v>
@@ -2411,12 +2514,12 @@
         <v>527850</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2</v>
       </c>
       <c r="B42" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C42" s="1">
         <v>15634000</v>
@@ -2447,12 +2550,12 @@
         <v>8036100</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="22">
         <v>3</v>
       </c>
       <c r="B43" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C43" s="23">
         <v>12137000</v>
@@ -2485,12 +2588,12 @@
         <v>4799400</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>4</v>
       </c>
       <c r="B44" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C44" s="1">
         <v>11511000</v>
@@ -2521,12 +2624,12 @@
         <v>6331333.333333333</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="22">
         <v>5</v>
       </c>
       <c r="B45" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C45" s="23">
         <v>3646000</v>
@@ -2559,12 +2662,12 @@
         <v>2378500</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>6</v>
       </c>
       <c r="B46" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C46" s="1">
         <v>8683000</v>
@@ -2595,12 +2698,12 @@
         <v>5176800</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="22">
         <v>7</v>
       </c>
       <c r="B47" s="22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C47" s="23">
         <v>4777000</v>
@@ -2633,12 +2736,12 @@
         <v>3775055.5555555555</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>8</v>
       </c>
       <c r="B48" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C48" s="1">
         <v>9118000</v>
@@ -2669,12 +2772,12 @@
         <v>6606300</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="22">
         <v>9</v>
       </c>
       <c r="B49" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C49" s="23">
         <v>1544000</v>
@@ -2707,12 +2810,12 @@
         <v>485325</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>10</v>
       </c>
       <c r="B50" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C50" s="1">
         <v>17541000</v>
@@ -2743,12 +2846,12 @@
         <v>14555666.666666666</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="22">
         <v>11</v>
       </c>
       <c r="B51" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C51" s="23">
         <v>40239000</v>
@@ -2781,12 +2884,12 @@
         <v>24289750</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>12</v>
       </c>
       <c r="B52" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C52" s="1">
         <v>11511000</v>
@@ -2817,12 +2920,12 @@
         <v>4383000</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="22">
         <v>13</v>
       </c>
       <c r="B53" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C53" s="23">
         <v>1098000</v>
@@ -2855,12 +2958,12 @@
         <v>808875</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>14</v>
       </c>
       <c r="B54" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C54" s="1">
         <v>647000</v>
@@ -2883,12 +2986,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="22">
         <v>15</v>
       </c>
       <c r="B55" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C55" s="23">
         <v>9421000</v>
@@ -2921,12 +3024,12 @@
         <v>5227300</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>16</v>
       </c>
       <c r="B56" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C56" s="1">
         <f>10480000</f>
@@ -2958,12 +3061,12 @@
         <v>5558400</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="22">
         <v>17</v>
       </c>
       <c r="B57" s="22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C57" s="23">
         <v>23456000</v>
@@ -2996,12 +3099,12 @@
         <v>15592000</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>18</v>
       </c>
       <c r="B58" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C58" s="1">
         <v>9102000</v>
@@ -3032,12 +3135,12 @@
         <v>6915700</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="22">
         <v>19</v>
       </c>
       <c r="B59" s="22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C59" s="23">
         <v>5302000</v>
@@ -3070,12 +3173,12 @@
         <v>2790900</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>20</v>
       </c>
       <c r="B60" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C60" s="1">
         <v>6803000</v>
@@ -3106,12 +3209,12 @@
         <v>5776966.666666666</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="22">
         <v>21</v>
       </c>
       <c r="B61" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C61" s="23">
         <v>1501000</v>
@@ -3144,12 +3247,12 @@
         <v>532300</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>22</v>
       </c>
       <c r="B62" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C62" s="1">
         <v>11613000</v>
@@ -3180,12 +3283,12 @@
         <v>9099400</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="22">
         <v>23</v>
       </c>
       <c r="B63" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C63" s="23">
         <v>8881000</v>
@@ -3218,12 +3321,12 @@
         <v>2493400</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>24</v>
       </c>
       <c r="B64" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C64" s="1">
         <v>22203000</v>
@@ -3254,12 +3357,12 @@
         <v>13566666.666666664</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="22">
         <v>25</v>
       </c>
       <c r="B65" s="22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C65" s="23">
         <v>7294000</v>
@@ -3292,12 +3395,12 @@
         <v>3499400</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>26</v>
       </c>
       <c r="B66" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C66" s="1">
         <v>3526000</v>
@@ -3328,12 +3431,12 @@
         <v>876200</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="22">
         <v>27</v>
       </c>
       <c r="B67" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C67" s="23">
         <v>8562000</v>
@@ -3366,12 +3469,12 @@
         <v>5651900</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>28</v>
       </c>
       <c r="B68" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C68" s="1">
         <v>3443000</v>
@@ -3402,12 +3505,12 @@
         <v>1980666.6666666665</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="22">
         <v>29</v>
       </c>
       <c r="B69" s="22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C69" s="23">
         <v>5337000</v>
@@ -3440,12 +3543,12 @@
         <v>3961333.333333333</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>30</v>
       </c>
       <c r="B70" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C70" s="1">
         <v>2534000</v>
@@ -3472,12 +3575,12 @@
         <v>1248000</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="22">
         <v>31</v>
       </c>
       <c r="B71" s="22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C71" s="23">
         <v>6921000</v>
@@ -3510,12 +3613,12 @@
         <v>5658666.666666666</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>32</v>
       </c>
       <c r="B72" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C72" s="1">
         <v>1072000</v>
@@ -3538,12 +3641,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="22">
         <v>33</v>
       </c>
       <c r="B73" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C73" s="23">
         <v>4912000</v>
@@ -3576,12 +3679,12 @@
         <v>4428000</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>34</v>
       </c>
       <c r="B74" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C74" s="1">
         <v>1683000</v>
@@ -3608,12 +3711,12 @@
         <v>670000</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="22">
         <v>35</v>
       </c>
       <c r="B75" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C75" s="23">
         <v>1426000</v>
@@ -3643,12 +3746,12 @@
         <v>732600</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>36</v>
       </c>
       <c r="B76" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C76" s="1">
         <v>7304000</v>
@@ -3675,12 +3778,12 @@
         <v>6788000</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="22">
         <v>37</v>
       </c>
       <c r="B77" s="22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C77" s="23">
         <v>3201000</v>
@@ -3713,12 +3816,12 @@
         <v>1648666.6666666665</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>38</v>
       </c>
       <c r="B78" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C78" s="1">
         <v>1068000</v>
@@ -3741,12 +3844,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="22">
         <v>39</v>
       </c>
       <c r="B79" s="22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C79" s="23">
         <f>3532000</f>
@@ -3780,12 +3883,12 @@
         <v>3532277.777777778</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>40</v>
       </c>
       <c r="B80" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C80" s="1">
         <v>1331000</v>
@@ -3808,12 +3911,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="22">
         <v>41</v>
       </c>
       <c r="B81" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C81" s="23">
         <v>3121000</v>
@@ -3839,12 +3942,12 @@
       <c r="J81" s="22"/>
       <c r="K81" s="22"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>42</v>
       </c>
       <c r="B82" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C82" s="1">
         <v>435000</v>
@@ -3867,12 +3970,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="22">
         <v>43</v>
       </c>
       <c r="B83" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C83" s="23">
         <v>292000</v>
@@ -3898,7 +4001,7 @@
       <c r="J83" s="22"/>
       <c r="K83" s="22"/>
     </row>
-    <row r="84" spans="1:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="84" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="4"/>
       <c r="B84" s="4" t="s">
         <v>22</v>
@@ -3919,8 +4022,8 @@
         <v>672</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>64</v>
       </c>
@@ -3933,32 +4036,32 @@
         <v>68.301431325470134</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G94" t="s">
+        <v>140</v>
+      </c>
+      <c r="H94" t="s">
         <v>141</v>
       </c>
-      <c r="H94" t="s">
+      <c r="I94" t="s">
+        <v>128</v>
+      </c>
+      <c r="J94" t="s">
         <v>142</v>
       </c>
-      <c r="I94" t="s">
-        <v>129</v>
-      </c>
-      <c r="J94" t="s">
+      <c r="K94" t="s">
         <v>143</v>
       </c>
-      <c r="K94" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G95" s="20">
         <v>1</v>
       </c>
       <c r="H95" s="20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I95" s="20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J95" s="21">
         <v>10090000</v>
@@ -3967,15 +4070,15 @@
         <v>23785000</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G96" s="20">
         <v>2</v>
       </c>
       <c r="H96" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I96" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J96" s="21">
         <v>5221000</v>
@@ -3984,15 +4087,15 @@
         <v>15038000</v>
       </c>
     </row>
-    <row r="97" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G97" s="20">
         <v>3</v>
       </c>
       <c r="H97" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I97" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J97" s="21">
         <v>4047000</v>
@@ -4001,15 +4104,15 @@
         <v>10415000</v>
       </c>
     </row>
-    <row r="98" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G98" s="20">
         <v>4</v>
       </c>
       <c r="H98" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I98" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J98" s="21">
         <v>2513000</v>
@@ -4018,15 +4121,15 @@
         <v>7038000</v>
       </c>
     </row>
-    <row r="99" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G99" s="20">
         <v>5</v>
       </c>
       <c r="H99" s="20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I99" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J99" s="21">
         <v>2210000</v>
@@ -4035,15 +4138,15 @@
         <v>6471000</v>
       </c>
     </row>
-    <row r="100" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G100" s="20">
         <v>6</v>
       </c>
       <c r="H100" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I100" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J100" s="21">
         <v>2031000</v>
@@ -4052,15 +4155,15 @@
         <v>7576000</v>
       </c>
     </row>
-    <row r="101" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G101" s="20">
         <v>7</v>
       </c>
       <c r="H101" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I101" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J101" s="21">
         <v>1719000</v>
@@ -4069,15 +4172,15 @@
         <v>6948000</v>
       </c>
     </row>
-    <row r="102" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G102" s="20">
         <v>8</v>
       </c>
       <c r="H102" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="I102" s="20" t="s">
         <v>152</v>
-      </c>
-      <c r="I102" s="20" t="s">
-        <v>153</v>
       </c>
       <c r="J102" s="21">
         <v>1643000</v>
@@ -4086,15 +4189,15 @@
         <v>9083000</v>
       </c>
     </row>
-    <row r="103" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G103" s="20">
         <v>9</v>
       </c>
       <c r="H103" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I103" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J103" s="21">
         <v>1480000</v>
@@ -4103,15 +4206,15 @@
         <v>6743000</v>
       </c>
     </row>
-    <row r="104" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G104" s="20">
         <v>10</v>
       </c>
       <c r="H104" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I104" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J104" s="21">
         <v>1422000</v>
@@ -4120,15 +4223,15 @@
         <v>5942000</v>
       </c>
     </row>
-    <row r="105" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G105" s="20">
         <v>11</v>
       </c>
       <c r="H105" s="20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I105" s="20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J105" s="21">
         <v>1383000</v>
@@ -4137,12 +4240,12 @@
         <v>4813000</v>
       </c>
     </row>
-    <row r="106" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G106" s="20">
         <v>12</v>
       </c>
       <c r="H106" s="20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I106" s="20" t="s">
         <v>38</v>
@@ -4154,15 +4257,15 @@
         <v>4428000</v>
       </c>
     </row>
-    <row r="107" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G107" s="20">
         <v>13</v>
       </c>
       <c r="H107" s="20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I107" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J107" s="21">
         <v>1248000</v>
@@ -4171,15 +4274,15 @@
         <v>3327000</v>
       </c>
     </row>
-    <row r="108" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G108" s="20">
         <v>14</v>
       </c>
       <c r="H108" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I108" s="20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J108" s="21">
         <v>1222000</v>
@@ -4188,15 +4291,15 @@
         <v>3991000</v>
       </c>
     </row>
-    <row r="109" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G109" s="20">
         <v>15</v>
       </c>
       <c r="H109" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I109" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J109" s="21">
         <v>1210000</v>
@@ -4205,15 +4308,15 @@
         <v>15038000</v>
       </c>
     </row>
-    <row r="110" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G110" s="20">
         <v>16</v>
       </c>
       <c r="H110" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I110" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J110" s="21">
         <v>1180000</v>
@@ -4222,15 +4325,15 @@
         <v>1782000</v>
       </c>
     </row>
-    <row r="111" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G111" s="20">
         <v>17</v>
       </c>
       <c r="H111" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I111" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J111" s="21">
         <v>1159000</v>
@@ -4239,15 +4342,15 @@
         <v>3447000</v>
       </c>
     </row>
-    <row r="112" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G112" s="20">
         <v>18</v>
       </c>
       <c r="H112" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I112" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J112" s="21">
         <v>1091000</v>
@@ -4256,15 +4359,15 @@
         <v>4940000</v>
       </c>
     </row>
-    <row r="113" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G113" s="20">
         <v>19</v>
       </c>
       <c r="H113" s="20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I113" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J113" s="21">
         <v>1001000</v>
@@ -4273,15 +4376,15 @@
         <v>23785000</v>
       </c>
     </row>
-    <row r="114" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G114" s="20">
         <v>20</v>
       </c>
       <c r="H114" s="20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I114" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J114" s="21">
         <v>1021000</v>
@@ -4290,15 +4393,15 @@
         <v>6491000</v>
       </c>
     </row>
-    <row r="115" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G115" s="20">
         <v>21</v>
       </c>
       <c r="H115" s="20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I115" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J115" s="21">
         <v>983000</v>
@@ -4307,15 +4410,15 @@
         <v>2297000</v>
       </c>
     </row>
-    <row r="116" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G116" s="20">
         <v>22</v>
       </c>
       <c r="H116" s="20" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I116" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J116" s="21">
         <v>951000</v>
@@ -4324,15 +4427,15 @@
         <v>2929000</v>
       </c>
     </row>
-    <row r="117" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G117" s="20">
         <v>23</v>
       </c>
       <c r="H117" s="20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I117" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J117" s="21">
         <v>925000</v>
@@ -4341,15 +4444,15 @@
         <v>4247000</v>
       </c>
     </row>
-    <row r="118" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G118" s="20">
         <v>24</v>
       </c>
       <c r="H118" s="20" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I118" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J118" s="21">
         <v>877000</v>
@@ -4358,15 +4461,15 @@
         <v>2473000</v>
       </c>
     </row>
-    <row r="119" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G119" s="20">
         <v>25</v>
       </c>
       <c r="H119" s="20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I119" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J119" s="21">
         <v>851000</v>
@@ -4375,15 +4478,15 @@
         <v>1929000</v>
       </c>
     </row>
-    <row r="120" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G120" s="20">
         <v>26</v>
       </c>
       <c r="H120" s="20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I120" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J120" s="21">
         <v>788000</v>
@@ -4392,15 +4495,15 @@
         <v>5312000</v>
       </c>
     </row>
-    <row r="121" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G121" s="20">
         <v>27</v>
       </c>
       <c r="H121" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I121" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J121" s="21">
         <v>765000</v>
@@ -4409,15 +4512,15 @@
         <v>1252000</v>
       </c>
     </row>
-    <row r="122" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G122" s="20">
         <v>28</v>
       </c>
       <c r="H122" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I122" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J122" s="21">
         <v>741000</v>
@@ -4426,15 +4529,15 @@
         <v>1782000</v>
       </c>
     </row>
-    <row r="123" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G123" s="20">
         <v>29</v>
       </c>
       <c r="H123" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I123" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J123" s="21">
         <v>729000</v>
@@ -4443,15 +4546,15 @@
         <v>2175000</v>
       </c>
     </row>
-    <row r="124" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G124" s="20">
         <v>30</v>
       </c>
       <c r="H124" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I124" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J124" s="21">
         <v>715000</v>
@@ -4460,15 +4563,15 @@
         <v>1534000</v>
       </c>
     </row>
-    <row r="125" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G125" s="20">
         <v>31</v>
       </c>
       <c r="H125" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I125" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J125" s="21">
         <v>701000</v>
@@ -4477,15 +4580,15 @@
         <v>2461000</v>
       </c>
     </row>
-    <row r="126" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G126" s="20">
         <v>32</v>
       </c>
       <c r="H126" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I126" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J126" s="21">
         <v>656000</v>
@@ -4494,32 +4597,32 @@
         <v>1567000</v>
       </c>
     </row>
-    <row r="130" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G130" t="s">
+        <v>140</v>
+      </c>
+      <c r="H130" t="s">
         <v>141</v>
       </c>
-      <c r="H130" t="s">
+      <c r="I130" t="s">
+        <v>128</v>
+      </c>
+      <c r="J130" t="s">
         <v>142</v>
       </c>
-      <c r="I130" t="s">
-        <v>129</v>
-      </c>
-      <c r="J130" t="s">
+      <c r="K130" t="s">
         <v>143</v>
       </c>
-      <c r="K130" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="131" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="131" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G131">
         <v>1</v>
       </c>
       <c r="H131" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I131" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J131" s="1">
         <v>10090000</v>
@@ -4528,15 +4631,15 @@
         <v>23785000</v>
       </c>
     </row>
-    <row r="132" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G132">
         <v>2</v>
       </c>
       <c r="H132" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I132" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J132" s="1">
         <v>5221000</v>
@@ -4545,15 +4648,15 @@
         <v>15038000</v>
       </c>
     </row>
-    <row r="133" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G133">
         <v>3</v>
       </c>
       <c r="H133" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I133" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J133" s="1">
         <v>4047000</v>
@@ -4562,15 +4665,15 @@
         <v>10415000</v>
       </c>
     </row>
-    <row r="134" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G134">
         <v>4</v>
       </c>
       <c r="H134" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I134" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J134" s="1">
         <v>2513000</v>
@@ -4579,15 +4682,15 @@
         <v>7038000</v>
       </c>
     </row>
-    <row r="135" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G135">
         <v>5</v>
       </c>
       <c r="H135" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I135" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J135" s="1">
         <v>2210000</v>
@@ -4596,15 +4699,15 @@
         <v>6471000</v>
       </c>
     </row>
-    <row r="136" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G136">
         <v>6</v>
       </c>
       <c r="H136" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I136" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J136" s="1">
         <v>2031000</v>
@@ -4613,15 +4716,15 @@
         <v>7576000</v>
       </c>
     </row>
-    <row r="137" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G137">
         <v>7</v>
       </c>
       <c r="H137" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I137" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J137" s="1">
         <v>1719000</v>
@@ -4630,15 +4733,15 @@
         <v>6948000</v>
       </c>
     </row>
-    <row r="138" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G138">
         <v>8</v>
       </c>
       <c r="H138" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I138" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J138" s="1">
         <v>1643000</v>
@@ -4647,15 +4750,15 @@
         <v>9083000</v>
       </c>
     </row>
-    <row r="139" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G139">
         <v>9</v>
       </c>
       <c r="H139" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I139" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J139" s="1">
         <v>1480000</v>
@@ -4664,15 +4767,15 @@
         <v>6743000</v>
       </c>
     </row>
-    <row r="140" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G140">
         <v>10</v>
       </c>
       <c r="H140" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I140" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J140" s="1">
         <v>1422000</v>
@@ -4681,15 +4784,15 @@
         <v>5942000</v>
       </c>
     </row>
-    <row r="141" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G141">
         <v>11</v>
       </c>
       <c r="H141" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I141" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J141" s="1">
         <v>1383000</v>
@@ -4698,12 +4801,12 @@
         <v>4813000</v>
       </c>
     </row>
-    <row r="142" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G142">
         <v>12</v>
       </c>
       <c r="H142" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I142" t="s">
         <v>38</v>
@@ -4715,15 +4818,15 @@
         <v>4428000</v>
       </c>
     </row>
-    <row r="143" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G143">
         <v>13</v>
       </c>
       <c r="H143" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I143" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J143" s="1">
         <v>1248000</v>
@@ -4732,15 +4835,15 @@
         <v>3327000</v>
       </c>
     </row>
-    <row r="144" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G144">
         <v>14</v>
       </c>
       <c r="H144" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I144" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J144" s="1">
         <v>1222000</v>
@@ -4749,32 +4852,32 @@
         <v>3991000</v>
       </c>
     </row>
-    <row r="145" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G145">
         <v>15</v>
       </c>
       <c r="H145" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I145" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J145" s="1">
         <v>1210000</v>
       </c>
       <c r="K145" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="146" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="146" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G146">
         <v>16</v>
       </c>
       <c r="H146" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I146" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J146" s="1">
         <v>1180000</v>
@@ -4783,15 +4886,15 @@
         <v>2252000</v>
       </c>
     </row>
-    <row r="147" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G147">
         <v>17</v>
       </c>
       <c r="H147" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I147" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J147" s="1">
         <v>1159000</v>
@@ -4800,15 +4903,15 @@
         <v>3447000</v>
       </c>
     </row>
-    <row r="148" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G148">
         <v>18</v>
       </c>
       <c r="H148" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I148" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J148" s="1">
         <v>1091000</v>
@@ -4817,15 +4920,15 @@
         <v>6491000</v>
       </c>
     </row>
-    <row r="149" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G149">
         <v>19</v>
       </c>
       <c r="H149" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I149" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J149" s="1">
         <v>1069000</v>
@@ -4834,15 +4937,15 @@
         <v>5105000</v>
       </c>
     </row>
-    <row r="150" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G150">
         <v>20</v>
       </c>
       <c r="H150" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I150" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J150" s="1">
         <v>1044000</v>
@@ -4851,32 +4954,32 @@
         <v>1836000</v>
       </c>
     </row>
-    <row r="151" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G151">
         <v>21</v>
       </c>
       <c r="H151" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I151" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J151" s="1">
         <v>1021000</v>
       </c>
       <c r="K151" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="152" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="152" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G152">
         <v>22</v>
       </c>
       <c r="H152" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I152" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J152" s="1">
         <v>1001000</v>
@@ -4885,15 +4988,15 @@
         <v>4940000</v>
       </c>
     </row>
-    <row r="153" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G153">
         <v>23</v>
       </c>
       <c r="H153" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I153" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J153" s="1">
         <v>983000</v>
@@ -4902,15 +5005,15 @@
         <v>2297000</v>
       </c>
     </row>
-    <row r="154" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G154">
         <v>24</v>
       </c>
       <c r="H154" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I154" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J154" s="1">
         <v>951000</v>
@@ -4919,15 +5022,15 @@
         <v>2929000</v>
       </c>
     </row>
-    <row r="155" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G155">
         <v>25</v>
       </c>
       <c r="H155" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I155" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J155" s="1">
         <v>925000</v>
@@ -4936,15 +5039,15 @@
         <v>4247000</v>
       </c>
     </row>
-    <row r="156" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G156">
         <v>26</v>
       </c>
       <c r="H156" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I156" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J156" s="1">
         <v>903000</v>
@@ -4953,15 +5056,15 @@
         <v>3562000</v>
       </c>
     </row>
-    <row r="157" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G157">
         <v>27</v>
       </c>
       <c r="H157" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I157" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J157" s="1">
         <v>891000</v>
@@ -4970,15 +5073,15 @@
         <v>3421000</v>
       </c>
     </row>
-    <row r="158" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G158">
         <v>28</v>
       </c>
       <c r="H158" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I158" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J158" s="1">
         <v>877000</v>
@@ -4987,15 +5090,15 @@
         <v>2473000</v>
       </c>
     </row>
-    <row r="159" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G159">
         <v>29</v>
       </c>
       <c r="H159" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I159" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J159" s="1">
         <v>851000</v>
@@ -5004,15 +5107,15 @@
         <v>2329000</v>
       </c>
     </row>
-    <row r="160" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G160">
         <v>30</v>
       </c>
       <c r="H160" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I160" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J160" s="1">
         <v>824000</v>
@@ -5021,15 +5124,15 @@
         <v>1651000</v>
       </c>
     </row>
-    <row r="161" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G161">
         <v>31</v>
       </c>
       <c r="H161" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I161" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J161" s="1">
         <v>802000</v>
@@ -5038,15 +5141,15 @@
         <v>2547000</v>
       </c>
     </row>
-    <row r="162" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G162">
         <v>32</v>
       </c>
       <c r="H162" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I162" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J162" s="1">
         <v>788000</v>
@@ -5055,15 +5158,15 @@
         <v>5312000</v>
       </c>
     </row>
-    <row r="163" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G163">
         <v>33</v>
       </c>
       <c r="H163" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I163" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J163" s="1">
         <v>765000</v>
@@ -5072,15 +5175,15 @@
         <v>1252000</v>
       </c>
     </row>
-    <row r="164" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G164">
         <v>34</v>
       </c>
       <c r="H164" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I164" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J164" s="1">
         <v>741000</v>
@@ -5089,15 +5192,15 @@
         <v>1782000</v>
       </c>
     </row>
-    <row r="165" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G165">
         <v>35</v>
       </c>
       <c r="H165" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I165" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J165" s="1">
         <v>729000</v>
@@ -5106,15 +5209,15 @@
         <v>2175000</v>
       </c>
     </row>
-    <row r="166" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G166">
         <v>36</v>
       </c>
       <c r="H166" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I166" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J166" s="1">
         <v>701000</v>
@@ -5123,15 +5226,15 @@
         <v>2461000</v>
       </c>
     </row>
-    <row r="167" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G167">
         <v>37</v>
       </c>
       <c r="H167" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I167" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J167" s="1">
         <v>682000</v>
@@ -5140,15 +5243,15 @@
         <v>1221000</v>
       </c>
     </row>
-    <row r="168" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G168">
         <v>38</v>
       </c>
       <c r="H168" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I168" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J168" s="1">
         <v>668000</v>
@@ -5157,15 +5260,15 @@
         <v>1614000</v>
       </c>
     </row>
-    <row r="169" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G169">
         <v>39</v>
       </c>
       <c r="H169" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I169" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J169" s="1">
         <v>656000</v>
@@ -5174,15 +5277,15 @@
         <v>1567000</v>
       </c>
     </row>
-    <row r="170" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G170">
         <v>40</v>
       </c>
       <c r="H170" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I170" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J170" s="1">
         <v>634000</v>
@@ -5191,15 +5294,15 @@
         <v>1341000</v>
       </c>
     </row>
-    <row r="171" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G171">
         <v>41</v>
       </c>
       <c r="H171" t="s">
+        <v>203</v>
+      </c>
+      <c r="I171" t="s">
         <v>204</v>
-      </c>
-      <c r="I171" t="s">
-        <v>205</v>
       </c>
       <c r="J171" s="1">
         <v>613000</v>
@@ -5208,32 +5311,32 @@
         <v>1248000</v>
       </c>
     </row>
-    <row r="172" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G172">
         <v>42</v>
       </c>
       <c r="H172" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I172" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J172" s="1">
         <v>584000</v>
       </c>
       <c r="K172" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="173" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="173" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G173">
         <v>43</v>
       </c>
       <c r="H173" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I173" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J173" s="1">
         <v>565000</v>
@@ -5242,15 +5345,15 @@
         <v>1641000</v>
       </c>
     </row>
-    <row r="174" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G174">
         <v>44</v>
       </c>
       <c r="H174" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I174" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J174" s="1">
         <v>524000</v>
@@ -5259,49 +5362,49 @@
         <v>1051000</v>
       </c>
     </row>
-    <row r="175" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G175">
         <v>45</v>
       </c>
       <c r="H175" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I175" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J175" s="1">
         <v>501000</v>
       </c>
       <c r="K175" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
+        <v>140</v>
+      </c>
+      <c r="B177" t="s">
         <v>141</v>
       </c>
-      <c r="B177" t="s">
+      <c r="C177" t="s">
+        <v>128</v>
+      </c>
+      <c r="D177" t="s">
         <v>142</v>
       </c>
-      <c r="C177" t="s">
-        <v>129</v>
-      </c>
-      <c r="D177" t="s">
+      <c r="E177" t="s">
         <v>143</v>
       </c>
-      <c r="E177" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>1</v>
       </c>
       <c r="B178" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C178" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D178" s="1">
         <v>10090000</v>
@@ -5310,15 +5413,15 @@
         <v>23785000</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>2</v>
       </c>
       <c r="B179" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C179" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D179" s="1">
         <v>5221000</v>
@@ -5327,15 +5430,15 @@
         <v>15038000</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>3</v>
       </c>
       <c r="B180" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C180" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D180" s="1">
         <v>4047000</v>
@@ -5344,15 +5447,15 @@
         <v>10415000</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>4</v>
       </c>
       <c r="B181" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C181" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D181" s="1">
         <v>2513000</v>
@@ -5361,15 +5464,15 @@
         <v>7038000</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>5</v>
       </c>
       <c r="B182" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C182" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D182" s="1">
         <v>2210000</v>
@@ -5378,15 +5481,15 @@
         <v>6471000</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>6</v>
       </c>
       <c r="B183" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C183" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D183" s="1">
         <v>2031000</v>
@@ -5395,15 +5498,15 @@
         <v>7576000</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>7</v>
       </c>
       <c r="B184" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C184" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D184" s="1">
         <v>1719000</v>
@@ -5412,15 +5515,15 @@
         <v>6948000</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>8</v>
       </c>
       <c r="B185" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C185" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D185" s="1">
         <v>1643000</v>
@@ -5429,15 +5532,15 @@
         <v>9083000</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>9</v>
       </c>
       <c r="B186" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C186" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D186" s="1">
         <v>1480000</v>
@@ -5446,15 +5549,15 @@
         <v>6743000</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>10</v>
       </c>
       <c r="B187" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C187" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D187" s="1">
         <v>1422000</v>
@@ -5463,15 +5566,15 @@
         <v>5942000</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>11</v>
       </c>
       <c r="B188" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C188" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D188" s="1">
         <v>1383000</v>
@@ -5480,12 +5583,12 @@
         <v>4813000</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>12</v>
       </c>
       <c r="B189" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C189" t="s">
         <v>38</v>
@@ -5497,15 +5600,15 @@
         <v>4428000</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>13</v>
       </c>
       <c r="B190" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C190" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D190" s="1">
         <v>1248000</v>
@@ -5514,15 +5617,15 @@
         <v>3327000</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>14</v>
       </c>
       <c r="B191" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C191" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D191" s="1">
         <v>1222000</v>
@@ -5531,15 +5634,15 @@
         <v>3991000</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>15</v>
       </c>
       <c r="B192" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C192" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D192" s="1">
         <v>1206000</v>
@@ -5548,32 +5651,32 @@
         <v>5147000</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>16</v>
       </c>
       <c r="B193" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C193" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D193" s="1">
         <v>1180000</v>
       </c>
       <c r="E193" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>17</v>
       </c>
       <c r="B194" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C194" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D194" s="1">
         <v>1160000</v>
@@ -5582,15 +5685,15 @@
         <v>2252000</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>18</v>
       </c>
       <c r="B195" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C195" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D195" s="1">
         <v>1129000</v>
@@ -5599,15 +5702,15 @@
         <v>3447000</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>19</v>
       </c>
       <c r="B196" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C196" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D196" s="1">
         <v>1091000</v>
@@ -5616,15 +5719,15 @@
         <v>6291000</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>20</v>
       </c>
       <c r="B197" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C197" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D197" s="1">
         <v>1069000</v>
@@ -5633,15 +5736,15 @@
         <v>4405000</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>21</v>
       </c>
       <c r="B198" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C198" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D198" s="1">
         <v>1044000</v>
@@ -5650,32 +5753,32 @@
         <v>1836000</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>22</v>
       </c>
       <c r="B199" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C199" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D199" s="1">
         <v>1021000</v>
       </c>
       <c r="E199" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>23</v>
       </c>
       <c r="B200" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C200" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D200" s="1">
         <v>1001000</v>
@@ -5684,15 +5787,15 @@
         <v>4940000</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>24</v>
       </c>
       <c r="B201" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C201" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D201" s="1">
         <v>983000</v>
@@ -5701,15 +5804,15 @@
         <v>2297000</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>25</v>
       </c>
       <c r="B202" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C202" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D202" s="1">
         <v>925000</v>
@@ -5718,15 +5821,15 @@
         <v>2929000</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>26</v>
       </c>
       <c r="B203" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C203" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D203" s="1">
         <v>903000</v>
@@ -5735,15 +5838,15 @@
         <v>3562000</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>27</v>
       </c>
       <c r="B204" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C204" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D204" s="1">
         <v>891000</v>
@@ -5752,15 +5855,15 @@
         <v>3421000</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>28</v>
       </c>
       <c r="B205" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C205" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D205" s="1">
         <v>877000</v>
@@ -5769,15 +5872,15 @@
         <v>2473000</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>29</v>
       </c>
       <c r="B206" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C206" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D206" s="1">
         <v>851000</v>
@@ -5786,15 +5889,15 @@
         <v>2329000</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>30</v>
       </c>
       <c r="B207" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C207" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D207" s="1">
         <v>824000</v>
@@ -5803,15 +5906,15 @@
         <v>1651000</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>31</v>
       </c>
       <c r="B208" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C208" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D208" s="1">
         <v>802000</v>
@@ -5820,15 +5923,15 @@
         <v>2547000</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>32</v>
       </c>
       <c r="B209" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C209" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D209" s="1">
         <v>788000</v>
@@ -5837,15 +5940,15 @@
         <v>5312000</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>33</v>
       </c>
       <c r="B210" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C210" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D210" s="1">
         <v>765000</v>
@@ -5854,15 +5957,15 @@
         <v>1252000</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>34</v>
       </c>
       <c r="B211" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C211" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D211" s="1">
         <v>741000</v>
@@ -5871,15 +5974,15 @@
         <v>1782000</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>35</v>
       </c>
       <c r="B212" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C212" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D212" s="1">
         <v>729000</v>
@@ -5888,15 +5991,15 @@
         <v>2175000</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>36</v>
       </c>
       <c r="B213" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C213" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D213" s="1">
         <v>701000</v>
@@ -5905,15 +6008,15 @@
         <v>2461000</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>37</v>
       </c>
       <c r="B214" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C214" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D214" s="1">
         <v>682000</v>
@@ -5922,15 +6025,15 @@
         <v>1221000</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>38</v>
       </c>
       <c r="B215" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C215" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D215" s="1">
         <v>668000</v>
@@ -5939,15 +6042,15 @@
         <v>1814000</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>39</v>
       </c>
       <c r="B216" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C216" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D216" s="1">
         <v>656000</v>
@@ -5956,15 +6059,15 @@
         <v>1567000</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>40</v>
       </c>
       <c r="B217" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C217" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D217" s="1">
         <v>634000</v>
@@ -5973,15 +6076,15 @@
         <v>1341000</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>41</v>
       </c>
       <c r="B218" t="s">
+        <v>203</v>
+      </c>
+      <c r="C218" t="s">
         <v>204</v>
-      </c>
-      <c r="C218" t="s">
-        <v>205</v>
       </c>
       <c r="D218" s="1">
         <v>613000</v>
@@ -5990,15 +6093,15 @@
         <v>1248000</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>42</v>
       </c>
       <c r="B219" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C219" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D219" s="1">
         <v>606000</v>
@@ -6007,32 +6110,32 @@
         <v>1638000</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>43</v>
       </c>
       <c r="B220" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C220" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D220" s="1">
         <v>584000</v>
       </c>
       <c r="E220" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>44</v>
       </c>
       <c r="B221" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C221" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D221" s="1">
         <v>565000</v>
@@ -6041,15 +6144,15 @@
         <v>1641000</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>45</v>
       </c>
       <c r="B222" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C222" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D222" s="1">
         <v>524000</v>
@@ -6058,32 +6161,32 @@
         <v>1051000</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>46</v>
       </c>
       <c r="B223" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C223" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D223" s="1">
         <v>501000</v>
       </c>
       <c r="E223" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>47</v>
       </c>
       <c r="B224" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C224" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D224" s="1">
         <v>479000</v>
@@ -6092,32 +6195,32 @@
         <v>993000</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>48</v>
       </c>
       <c r="B225" t="s">
+        <v>235</v>
+      </c>
+      <c r="C225" t="s">
         <v>236</v>
-      </c>
-      <c r="C225" t="s">
-        <v>237</v>
       </c>
       <c r="D225" s="1">
         <v>460000</v>
       </c>
       <c r="E225" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>49</v>
       </c>
       <c r="B226" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C226" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D226" s="1">
         <v>447000</v>
@@ -6126,15 +6229,15 @@
         <v>934000</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>50</v>
       </c>
       <c r="B227" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C227" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D227" s="1">
         <v>429000</v>
@@ -6153,113 +6256,113 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C63D63CD-E558-4E85-B35D-432437BFD9B4}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="11.83984375" customWidth="1"/>
-    <col min="4" max="4" width="10.41796875" customWidth="1"/>
-    <col min="5" max="5" width="10.578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.83984375" customWidth="1"/>
-    <col min="11" max="11" width="10.41796875" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>130</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
-        <v>131</v>
       </c>
       <c r="B2" s="1">
         <v>1054549</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E4" s="1">
         <v>9833520</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E5" s="11">
         <f>'united states'!C32</f>
         <v>4617194.6016363995</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H6" s="11">
         <f>380800-'united states'!G12</f>
         <v>77351.813000000024</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H7">
         <f>253335-10920-12780-5040</f>
         <v>224595</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H8" s="1">
         <v>254806</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H9" s="1">
         <f>184827-'united states'!G27</f>
         <v>165137</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E10" s="15">
         <f>SUM(H6:H9)</f>
         <v>721889.81300000008</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E11" s="15">
         <f>SUM('united states'!C30:C31)</f>
         <v>13129.141</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B12" s="19">
         <f>E4-SUM(E5:E11)</f>
         <v>4481306.4443636006</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
         <v>22</v>
       </c>
@@ -6268,24 +6371,24 @@
         <v>5535855.4443636006</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C15" t="s">
         <v>63</v>
       </c>
       <c r="K15" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C16" s="1">
         <f>K16+1800000</f>
@@ -6296,12 +6399,12 @@
         <v>12046000</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C17" s="1">
         <f>K17+2000000</f>
@@ -6312,12 +6415,12 @@
         <v>4602000</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C18" s="11">
         <f>K18*(1.5)</f>
@@ -6328,12 +6431,12 @@
         <v>7524000</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C19" s="1">
         <f>K19+7000000</f>
@@ -6344,48 +6447,48 @@
         <v>4924000</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C20" s="1">
         <v>1521000</v>
       </c>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C21" s="1">
         <v>221000</v>
       </c>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C22" s="1">
         <v>628000</v>
       </c>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C23" s="11">
         <f>K23*1.5-SUM(C21:C22)</f>
@@ -6396,12 +6499,12 @@
         <v>9416000</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>9</v>
       </c>
       <c r="B24" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C24" s="11">
         <f>K24+1500000</f>
@@ -6412,51 +6515,51 @@
         <v>7393000</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>10</v>
       </c>
       <c r="B25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C25" s="1">
         <v>2341000</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C26" s="1">
         <v>1567000</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>12</v>
       </c>
       <c r="B27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C27" s="1">
         <v>234000</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>13</v>
       </c>
       <c r="B28" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C28" s="1">
         <v>1624000</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="4" t="s">
         <v>22</v>
@@ -6474,8 +6577,8 @@
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
     </row>
-    <row r="30" spans="1:11" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>64</v>
       </c>
@@ -6484,32 +6587,32 @@
         <v>13.360536730652047</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>140</v>
+      </c>
+      <c r="B33" t="s">
         <v>141</v>
       </c>
-      <c r="B33" t="s">
-        <v>142</v>
-      </c>
       <c r="C33" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D33" t="s">
         <v>63</v>
       </c>
       <c r="E33" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1</v>
       </c>
       <c r="B34" t="s">
+        <v>175</v>
+      </c>
+      <c r="C34" t="s">
         <v>176</v>
-      </c>
-      <c r="C34" t="s">
-        <v>177</v>
       </c>
       <c r="D34" s="1">
         <v>5221000</v>
@@ -6518,15 +6621,15 @@
         <v>12046000</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2</v>
       </c>
       <c r="B35" t="s">
+        <v>177</v>
+      </c>
+      <c r="C35" t="s">
         <v>178</v>
-      </c>
-      <c r="C35" t="s">
-        <v>179</v>
       </c>
       <c r="D35" s="1">
         <v>3270000</v>
@@ -6535,15 +6638,15 @@
         <v>7524000</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>3</v>
       </c>
       <c r="B36" t="s">
+        <v>179</v>
+      </c>
+      <c r="C36" t="s">
         <v>180</v>
-      </c>
-      <c r="C36" t="s">
-        <v>181</v>
       </c>
       <c r="D36" s="1">
         <v>2769000</v>
@@ -6552,15 +6655,15 @@
         <v>5435000</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>4</v>
       </c>
       <c r="B37" t="s">
+        <v>181</v>
+      </c>
+      <c r="C37" t="s">
         <v>182</v>
-      </c>
-      <c r="C37" t="s">
-        <v>183</v>
       </c>
       <c r="D37" s="1">
         <v>2534000</v>
@@ -6569,15 +6672,15 @@
         <v>4924000</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>5</v>
       </c>
       <c r="B38" t="s">
+        <v>183</v>
+      </c>
+      <c r="C38" t="s">
         <v>184</v>
-      </c>
-      <c r="C38" t="s">
-        <v>185</v>
       </c>
       <c r="D38" s="1">
         <v>2150000</v>
@@ -6586,15 +6689,15 @@
         <v>4602000</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>6</v>
       </c>
       <c r="B39" t="s">
+        <v>185</v>
+      </c>
+      <c r="C39" t="s">
         <v>186</v>
-      </c>
-      <c r="C39" t="s">
-        <v>187</v>
       </c>
       <c r="D39" s="1">
         <v>1623000</v>
@@ -6603,15 +6706,15 @@
         <v>2912000</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C40" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D40" s="1">
         <v>1408000</v>
@@ -6620,15 +6723,15 @@
         <v>2705000</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>8</v>
       </c>
       <c r="B41" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C41" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D41" s="1">
         <v>1251000</v>
@@ -6637,15 +6740,15 @@
         <v>2396000</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>9</v>
       </c>
       <c r="B42" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D42" s="1">
         <v>1115000</v>
@@ -6654,15 +6757,15 @@
         <v>1958000</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>10</v>
       </c>
       <c r="B43" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C43" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D43" s="1">
         <v>1059000</v>

--- a/obsidian-notes/spreadsheets/area.xlsx
+++ b/obsidian-notes/spreadsheets/area.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sharm\iCloudDrive\iCloud~md~obsidian\Ishan's notes\Spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7684F77-C713-4332-8E92-F9393017FA51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A0B67F0-261E-4EC9-89AB-1CCFD822F51C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28898" yWindow="-4875" windowWidth="28996" windowHeight="15675" xr2:uid="{94B94BC7-FBC8-4BAC-A974-CA3E4662C848}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{94B94BC7-FBC8-4BAC-A974-CA3E4662C848}"/>
   </bookViews>
   <sheets>
     <sheet name="france" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="274">
   <si>
     <t>OTL Metro France</t>
   </si>
@@ -353,9 +353,6 @@
     <t>West Florida</t>
   </si>
   <si>
-    <t>Iowa</t>
-  </si>
-  <si>
     <t>Ontonagon</t>
   </si>
   <si>
@@ -807,6 +804,63 @@
   </si>
   <si>
     <t>Unitarianism</t>
+  </si>
+  <si>
+    <t>Judicial Division</t>
+  </si>
+  <si>
+    <t>First Judicial Division</t>
+  </si>
+  <si>
+    <t>Second Judicial Division</t>
+  </si>
+  <si>
+    <t>Third Judicial Division</t>
+  </si>
+  <si>
+    <t>Ohio, Indiana, Michigan</t>
+  </si>
+  <si>
+    <t>Fourth Judicial Division</t>
+  </si>
+  <si>
+    <t>Illinois, Wisconsan, Ontonagon, Juniper, Missouri</t>
+  </si>
+  <si>
+    <t>Fifth Judicial Division</t>
+  </si>
+  <si>
+    <t>Sixth Judicial Division</t>
+  </si>
+  <si>
+    <t>Seventh Judicial Division</t>
+  </si>
+  <si>
+    <t>New Jersey, Pennsylvania, Delaware, Maryland, Anacostia</t>
+  </si>
+  <si>
+    <t>Eighth Judicial Division</t>
+  </si>
+  <si>
+    <t>Ninth Judicial Division</t>
+  </si>
+  <si>
+    <t>South Carolina, Georgia, East Florida, Yazoo, Mississippi, West Florida</t>
+  </si>
+  <si>
+    <t>Virginia, Alleghania, North Carolina, Franklin</t>
+  </si>
+  <si>
+    <t>Tenth Judicial Division</t>
+  </si>
+  <si>
+    <t>Kentucky, Tennessee, Arkansaw, Orleans</t>
+  </si>
+  <si>
+    <t>Maine, Massachusetts, Rhode Island, Vermont, New Hampshire, Connecticut</t>
+  </si>
+  <si>
+    <t>Pembina, Minasota, Nibrasca, Kances, Cimarron, Cheyenne, Tahosa, Washingtonia</t>
   </si>
 </sst>
 </file>
@@ -1255,7 +1309,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F489DD57-E97E-46C5-91B6-044FDCA9CA47}">
   <dimension ref="A1:K62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
@@ -1712,7 +1766,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B41" s="14">
         <f>1-SUM(B42:B49)</f>
@@ -1852,7 +1906,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B57" s="13">
         <v>0.43099999999999999</v>
@@ -1864,7 +1918,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B58" s="13">
         <f>1-(B57+SUM(B59:B61))</f>
@@ -1877,7 +1931,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B59" s="13">
         <v>7.5999999999999998E-2</v>
@@ -1889,7 +1943,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B60" s="13">
         <v>5.8999999999999997E-2</v>
@@ -1944,7 +1998,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B1" s="1">
         <v>41865</v>
@@ -1952,7 +2006,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B2" s="1">
         <v>3142</v>
@@ -1999,10 +2053,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C745E12-030D-4421-A6DC-982053D4A77E}">
-  <dimension ref="A1:L227"/>
+  <dimension ref="A1:L257"/>
   <sheetViews>
-    <sheetView topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="B100" sqref="B100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2011,6 +2065,7 @@
     <col min="3" max="3" width="13.140625" customWidth="1"/>
     <col min="4" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.140625" customWidth="1"/>
     <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -2406,7 +2461,7 @@
     <row r="33" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B34" s="12">
         <f>C84^(1/3)</f>
@@ -2415,7 +2470,7 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B35">
         <v>675</v>
@@ -2423,7 +2478,7 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B36" s="15">
         <f>C84/B35</f>
@@ -2432,7 +2487,7 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B37" s="15">
         <f>B36+C37</f>
@@ -2444,36 +2499,36 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K39" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>126</v>
+      </c>
+      <c r="B40" t="s">
         <v>127</v>
-      </c>
-      <c r="B40" t="s">
-        <v>128</v>
       </c>
       <c r="C40" t="s">
         <v>63</v>
       </c>
       <c r="E40" t="s">
+        <v>121</v>
+      </c>
+      <c r="F40" t="s">
         <v>122</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>123</v>
       </c>
-      <c r="G40" t="s">
-        <v>124</v>
-      </c>
       <c r="H40" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -2506,11 +2561,11 @@
       <c r="I41" s="22"/>
       <c r="J41" s="22"/>
       <c r="K41" s="23">
-        <f>K98*0.075</f>
+        <f>K128*0.075</f>
         <v>527850</v>
       </c>
       <c r="L41" s="23">
-        <f>E181*0.075</f>
+        <f>E211*0.075</f>
         <v>527850</v>
       </c>
     </row>
@@ -2542,11 +2597,11 @@
         <v>33</v>
       </c>
       <c r="K42" s="11">
-        <f>K98*0.75+K111*0.8</f>
+        <f>K128*0.75+K141*0.8</f>
         <v>8036100</v>
       </c>
       <c r="L42" s="11">
-        <f>E181*0.75+E195*0.8</f>
+        <f>E211*0.75+E225*0.8</f>
         <v>8036100</v>
       </c>
     </row>
@@ -2580,11 +2635,11 @@
       <c r="I43" s="22"/>
       <c r="J43" s="22"/>
       <c r="K43" s="26">
-        <f>K95*0.15+K98*0.175</f>
+        <f>K125*0.15+K128*0.175</f>
         <v>4799400</v>
       </c>
       <c r="L43" s="26">
-        <f>E178*0.15+E181*0.175</f>
+        <f>E208*0.15+E211*0.175</f>
         <v>4799400</v>
       </c>
     </row>
@@ -2616,11 +2671,11 @@
         <v>25</v>
       </c>
       <c r="K44" s="1">
-        <f>K112+K118*(1/3)</f>
+        <f>K142+K148*(1/3)</f>
         <v>5764333.333333333</v>
       </c>
       <c r="L44" s="1">
-        <f>E197+E205*(1/3)+E222*0.7+E214*0.3</f>
+        <f>E227+E235*(1/3)+E252*0.7+E244*0.3</f>
         <v>6331333.333333333</v>
       </c>
     </row>
@@ -2654,11 +2709,11 @@
       <c r="I45" s="22"/>
       <c r="J45" s="22"/>
       <c r="K45" s="26">
-        <f>K95*0.1</f>
+        <f>K125*0.1</f>
         <v>2378500</v>
       </c>
       <c r="L45" s="26">
-        <f>E178*0.1</f>
+        <f>E208*0.1</f>
         <v>2378500</v>
       </c>
     </row>
@@ -2690,11 +2745,11 @@
         <v>19</v>
       </c>
       <c r="K46" s="11">
-        <f>K99*0.8</f>
+        <f>K129*0.8</f>
         <v>5176800</v>
       </c>
       <c r="L46" s="11">
-        <f>E182*0.8</f>
+        <f>E212*0.8</f>
         <v>5176800</v>
       </c>
     </row>
@@ -2728,11 +2783,11 @@
       <c r="I47" s="22"/>
       <c r="J47" s="22"/>
       <c r="K47" s="26">
-        <f>K102*(2.5/9)+K121</f>
+        <f>K132*(2.5/9)+K151</f>
         <v>3775055.5555555555</v>
       </c>
       <c r="L47" s="26">
-        <f>E185*(2.5/9)+E210</f>
+        <f>E215*(2.5/9)+E240</f>
         <v>3775055.5555555555</v>
       </c>
     </row>
@@ -2764,11 +2819,11 @@
         <v>19</v>
       </c>
       <c r="K48" s="1">
-        <f>K114</f>
+        <f>K144</f>
         <v>6491000</v>
       </c>
       <c r="L48" s="1">
-        <f>E196+E222*0.3</f>
+        <f>E226+E252*0.3</f>
         <v>6606300</v>
       </c>
     </row>
@@ -2802,11 +2857,11 @@
       <c r="I49" s="22"/>
       <c r="J49" s="22"/>
       <c r="K49" s="26">
-        <f>K99*0.075</f>
+        <f>K129*0.075</f>
         <v>485325</v>
       </c>
       <c r="L49" s="26">
-        <f>E182*0.075</f>
+        <f>E212*0.075</f>
         <v>485325</v>
       </c>
     </row>
@@ -2838,11 +2893,11 @@
         <v>37</v>
       </c>
       <c r="K50" s="11">
-        <f>K100+K102*(2.5/9)</f>
+        <f>K130+K132*(2.5/9)</f>
         <v>10099055.555555556</v>
       </c>
       <c r="L50" s="11">
-        <f>E183+E185*(3/9)+E200*0.8</f>
+        <f>E213+E215*(3/9)+E230*0.8</f>
         <v>14555666.666666666</v>
       </c>
     </row>
@@ -2876,11 +2931,11 @@
       <c r="I51" s="22"/>
       <c r="J51" s="22"/>
       <c r="K51" s="26">
-        <f>K95*0.75+K105</f>
+        <f>K125*0.75+K135</f>
         <v>22651750</v>
       </c>
       <c r="L51" s="26">
-        <f>E178*0.75+E188+E219</f>
+        <f>E208*0.75+E218+E249</f>
         <v>24289750</v>
       </c>
     </row>
@@ -2912,11 +2967,11 @@
         <v>25</v>
       </c>
       <c r="K52" s="1">
-        <f>K125</f>
+        <f>K155</f>
         <v>2461000</v>
       </c>
       <c r="L52" s="1">
-        <f>E213+E200*0.2+E226</f>
+        <f>E243+E230*0.2+E256</f>
         <v>4383000</v>
       </c>
     </row>
@@ -2950,11 +3005,11 @@
       <c r="I53" s="22"/>
       <c r="J53" s="22"/>
       <c r="K53" s="26">
-        <f>K99*0.125</f>
+        <f>K129*0.125</f>
         <v>808875</v>
       </c>
       <c r="L53" s="26">
-        <f>E182*0.125</f>
+        <f>E212*0.125</f>
         <v>808875</v>
       </c>
     </row>
@@ -3016,11 +3071,11 @@
       <c r="I55" s="22"/>
       <c r="J55" s="22"/>
       <c r="K55" s="26">
-        <f>K97*0.1+K108*0.8</f>
+        <f>K127*0.1+K138*0.8</f>
         <v>4234300</v>
       </c>
       <c r="L55" s="26">
-        <f>E180*0.1+E191*0.8+E224</f>
+        <f>E210*0.1+E221*0.8+E254</f>
         <v>5227300</v>
       </c>
     </row>
@@ -3053,11 +3108,11 @@
         <v>22</v>
       </c>
       <c r="K56" s="11">
-        <f>K101*0.8</f>
+        <f>K131*0.8</f>
         <v>5558400</v>
       </c>
       <c r="L56" s="11">
-        <f>E184*0.8</f>
+        <f>E214*0.8</f>
         <v>5558400</v>
       </c>
     </row>
@@ -3091,11 +3146,11 @@
       <c r="I57" s="22"/>
       <c r="J57" s="22"/>
       <c r="K57" s="26">
-        <f>K97*0.8+K107+K111*0.2+K123+K117*0.3</f>
+        <f>K127*0.8+K137+K141*0.2+K153+K147*0.3</f>
         <v>15797500</v>
       </c>
       <c r="L57" s="26">
-        <f>E180*0.8+E190+E195*0.2+E212+E203*0.3</f>
+        <f>E210*0.8+E220+E225*0.2+E242+E233*0.3</f>
         <v>15592000</v>
       </c>
     </row>
@@ -3127,11 +3182,11 @@
         <v>19</v>
       </c>
       <c r="K58" s="1">
-        <f>K126+K116+(K97*0.1)+K115*0.6</f>
+        <f>K156+K146+(K127*0.1)+K145*0.6</f>
         <v>6915700</v>
       </c>
       <c r="L58" s="1">
-        <f>E216+E202+(E180*0.1)+E201*0.6</f>
+        <f>E246+E232+(E210*0.1)+E231*0.6</f>
         <v>6915700</v>
       </c>
     </row>
@@ -3165,11 +3220,11 @@
       <c r="I59" s="22"/>
       <c r="J59" s="22"/>
       <c r="K59" s="26">
-        <f>K101*0.1+K119*0.9</f>
+        <f>K131*0.1+K149*0.9</f>
         <v>2430900</v>
       </c>
       <c r="L59" s="26">
-        <f>E184*0.1+E206*0.9</f>
+        <f>E214*0.1+E236*0.9</f>
         <v>2790900</v>
       </c>
     </row>
@@ -3201,11 +3256,11 @@
         <v>15</v>
       </c>
       <c r="K60" s="11">
-        <f>K96*(1/3)+K124+K115*0.1+K122*0.7</f>
+        <f>K126*(1/3)+K154+K145*0.1+K152*0.7</f>
         <v>8023766.666666666</v>
       </c>
       <c r="L60" s="11">
-        <f>E179*(1/3)+E201*0.1+E211*0.3</f>
+        <f>E209*(1/3)+E231*0.1+E241*0.3</f>
         <v>5776966.666666666</v>
       </c>
     </row>
@@ -3239,11 +3294,11 @@
       <c r="I61" s="22"/>
       <c r="J61" s="22"/>
       <c r="K61" s="26">
-        <f>K119*0.1</f>
+        <f>K149*0.1</f>
         <v>192900</v>
       </c>
       <c r="L61" s="26">
-        <f>E198*0.2+E207*0.1</f>
+        <f>E228*0.2+E237*0.1</f>
         <v>532300</v>
       </c>
     </row>
@@ -3275,11 +3330,11 @@
         <v>25</v>
       </c>
       <c r="K62" s="11">
-        <f>K103*0.6</f>
+        <f>K133*0.6</f>
         <v>4045800</v>
       </c>
       <c r="L62" s="11">
-        <f>E186*0.6+E204+E215*0.9</f>
+        <f>E216*0.6+E234+E245*0.9</f>
         <v>9099400</v>
       </c>
     </row>
@@ -3313,11 +3368,11 @@
       <c r="I63" s="22"/>
       <c r="J63" s="22"/>
       <c r="K63" s="26">
-        <f>K117*0.7</f>
+        <f>K147*0.7</f>
         <v>2972900</v>
       </c>
       <c r="L63" s="26">
-        <f>E203*0.7</f>
+        <f>E233*0.7</f>
         <v>2493400</v>
       </c>
     </row>
@@ -3349,11 +3404,11 @@
         <v>47</v>
       </c>
       <c r="K64" s="27">
-        <f>K96*(2/3)+K120*(2/3)</f>
+        <f>K126*(2/3)+K150*(2/3)</f>
         <v>13566666.666666664</v>
       </c>
       <c r="L64" s="27">
-        <f>E179*(2/3)+E209*(2/3)</f>
+        <f>E209*(2/3)+E239*(2/3)</f>
         <v>13566666.666666664</v>
       </c>
     </row>
@@ -3387,11 +3442,11 @@
       <c r="I65" s="22"/>
       <c r="J65" s="22"/>
       <c r="K65" s="23">
-        <f>K122+K110*0.3+K115</f>
+        <f>K152+K140*0.3+K145</f>
         <v>4613600</v>
       </c>
       <c r="L65" s="23">
-        <f>E194+E211*0.7</f>
+        <f>E224+E241*0.7</f>
         <v>3499400</v>
       </c>
     </row>
@@ -3423,11 +3478,11 @@
         <v>8</v>
       </c>
       <c r="K66" s="11">
-        <f>K101*0.1</f>
+        <f>K131*0.1</f>
         <v>694800</v>
       </c>
       <c r="L66" s="11">
-        <f>E184*0.1+E215*0.1</f>
+        <f>E214*0.1+E245*0.1</f>
         <v>876200</v>
       </c>
     </row>
@@ -3461,11 +3516,11 @@
       <c r="I67" s="22"/>
       <c r="J67" s="22"/>
       <c r="K67" s="26">
-        <f>K103*0.4</f>
+        <f>K133*0.4</f>
         <v>2697200</v>
       </c>
       <c r="L67" s="26">
-        <f>E186*0.4+E198*0.8+E207*0.9</f>
+        <f>E216*0.4+E228*0.8+E237*0.9</f>
         <v>5651900</v>
       </c>
     </row>
@@ -3474,7 +3529,7 @@
         <v>28</v>
       </c>
       <c r="B68" t="s">
-        <v>104</v>
+        <v>235</v>
       </c>
       <c r="C68" s="1">
         <v>3443000</v>
@@ -3497,11 +3552,11 @@
         <v>7</v>
       </c>
       <c r="K68" s="11">
-        <f>K104*(1/3)</f>
+        <f>K134*(1/3)</f>
         <v>1980666.6666666665</v>
       </c>
       <c r="L68" s="11">
-        <f>E187*(1/3)</f>
+        <f>E217*(1/3)</f>
         <v>1980666.6666666665</v>
       </c>
     </row>
@@ -3510,7 +3565,7 @@
         <v>29</v>
       </c>
       <c r="B69" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C69" s="23">
         <v>5337000</v>
@@ -3535,11 +3590,11 @@
       <c r="I69" s="22"/>
       <c r="J69" s="22"/>
       <c r="K69" s="26">
-        <f>K104*(2/3)</f>
+        <f>K134*(2/3)</f>
         <v>3961333.333333333</v>
       </c>
       <c r="L69" s="26">
-        <f>E187*(2/3)</f>
+        <f>E217*(2/3)</f>
         <v>3961333.333333333</v>
       </c>
     </row>
@@ -3548,7 +3603,7 @@
         <v>30</v>
       </c>
       <c r="B70" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C70" s="1">
         <v>2534000</v>
@@ -3571,7 +3626,7 @@
         <v>5</v>
       </c>
       <c r="L70" s="1">
-        <f>E218</f>
+        <f>E248</f>
         <v>1248000</v>
       </c>
     </row>
@@ -3580,7 +3635,7 @@
         <v>31</v>
       </c>
       <c r="B71" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C71" s="23">
         <v>6921000</v>
@@ -3605,11 +3660,11 @@
       <c r="I71" s="22"/>
       <c r="J71" s="22"/>
       <c r="K71" s="26">
-        <f>K120*(1/3)</f>
+        <f>K150*(1/3)</f>
         <v>1770666.6666666665</v>
       </c>
       <c r="L71" s="26">
-        <f>E209*(1/3)+E208+E217</f>
+        <f>E239*(1/3)+E238+E247</f>
         <v>5658666.666666666</v>
       </c>
     </row>
@@ -3618,7 +3673,7 @@
         <v>32</v>
       </c>
       <c r="B72" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C72" s="1">
         <v>1072000</v>
@@ -3646,7 +3701,7 @@
         <v>33</v>
       </c>
       <c r="B73" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C73" s="23">
         <v>4912000</v>
@@ -3671,11 +3726,11 @@
       <c r="I73" s="22"/>
       <c r="J73" s="22"/>
       <c r="K73" s="23">
-        <f>K106</f>
+        <f>K136</f>
         <v>4428000</v>
       </c>
       <c r="L73" s="23">
-        <f>E189</f>
+        <f>E219</f>
         <v>4428000</v>
       </c>
     </row>
@@ -3684,7 +3739,7 @@
         <v>34</v>
       </c>
       <c r="B74" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C74" s="1">
         <v>1683000</v>
@@ -3707,7 +3762,7 @@
         <v>4</v>
       </c>
       <c r="L74" s="1">
-        <f>E227</f>
+        <f>E257</f>
         <v>670000</v>
       </c>
     </row>
@@ -3716,7 +3771,7 @@
         <v>35</v>
       </c>
       <c r="B75" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C75" s="23">
         <v>1426000</v>
@@ -3742,7 +3797,7 @@
       <c r="J75" s="22"/>
       <c r="K75" s="22"/>
       <c r="L75" s="26">
-        <f>E214*0.6</f>
+        <f>E244*0.6</f>
         <v>732600</v>
       </c>
     </row>
@@ -3751,7 +3806,7 @@
         <v>36</v>
       </c>
       <c r="B76" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C76" s="1">
         <v>7304000</v>
@@ -3774,7 +3829,7 @@
         <v>16</v>
       </c>
       <c r="L76" s="1">
-        <f>E192+E221</f>
+        <f>E222+E251</f>
         <v>6788000</v>
       </c>
     </row>
@@ -3783,7 +3838,7 @@
         <v>37</v>
       </c>
       <c r="B77" s="22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C77" s="23">
         <v>3201000</v>
@@ -3808,11 +3863,11 @@
       <c r="I77" s="22"/>
       <c r="J77" s="22"/>
       <c r="K77" s="23">
-        <f>K118*(2/3)</f>
+        <f>K148*(2/3)</f>
         <v>1648666.6666666665</v>
       </c>
       <c r="L77" s="23">
-        <f>E205*(2/3)</f>
+        <f>E235*(2/3)</f>
         <v>1648666.6666666665</v>
       </c>
     </row>
@@ -3821,7 +3876,7 @@
         <v>38</v>
       </c>
       <c r="B78" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C78" s="1">
         <v>1068000</v>
@@ -3849,7 +3904,7 @@
         <v>39</v>
       </c>
       <c r="B79" s="22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C79" s="23">
         <f>3532000</f>
@@ -3875,11 +3930,11 @@
       <c r="I79" s="22"/>
       <c r="J79" s="22"/>
       <c r="K79" s="26">
-        <f>K102*(4/9)</f>
+        <f>K132*(4/9)</f>
         <v>4036888.8888888885</v>
       </c>
       <c r="L79" s="26">
-        <f>E185*(7/18)</f>
+        <f>E215*(7/18)</f>
         <v>3532277.777777778</v>
       </c>
     </row>
@@ -3888,7 +3943,7 @@
         <v>40</v>
       </c>
       <c r="B80" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C80" s="1">
         <v>1331000</v>
@@ -3916,7 +3971,7 @@
         <v>41</v>
       </c>
       <c r="B81" s="22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C81" s="23">
         <v>3121000</v>
@@ -3947,7 +4002,7 @@
         <v>42</v>
       </c>
       <c r="B82" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C82" s="1">
         <v>435000</v>
@@ -3975,7 +4030,7 @@
         <v>43</v>
       </c>
       <c r="B83" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C83" s="23">
         <v>292000</v>
@@ -4036,2213 +4091,2352 @@
         <v>68.301431325470134</v>
       </c>
     </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>255</v>
+      </c>
+      <c r="B90" t="s">
+        <v>125</v>
+      </c>
+      <c r="C90" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>256</v>
+      </c>
+      <c r="B91" t="s">
+        <v>272</v>
+      </c>
+      <c r="C91" s="1">
+        <f>C46+C49+C53+C54+C72+C45</f>
+        <v>16690000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>257</v>
+      </c>
+      <c r="B92" t="s">
+        <v>87</v>
+      </c>
+      <c r="C92" s="1">
+        <f>C51</f>
+        <v>40239000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>258</v>
+      </c>
+      <c r="B93" t="s">
+        <v>265</v>
+      </c>
+      <c r="C93" s="1">
+        <f>C42+C43+C41+C47+C79</f>
+        <v>37599000</v>
+      </c>
+      <c r="J93" s="1"/>
+    </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G94" t="s">
+      <c r="A94" t="s">
+        <v>260</v>
+      </c>
+      <c r="B94" t="s">
+        <v>269</v>
+      </c>
+      <c r="C94" s="1">
+        <f>C50+C74+C75+C52</f>
+        <v>32161000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>262</v>
+      </c>
+      <c r="B95" t="s">
+        <v>268</v>
+      </c>
+      <c r="C95" s="1">
+        <f>C48+C44+C77+C59+C61+C67</f>
+        <v>39195000</v>
+      </c>
+      <c r="J95" s="15"/>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>263</v>
+      </c>
+      <c r="B96" t="s">
+        <v>259</v>
+      </c>
+      <c r="C96" s="1">
+        <f>C57+C58+C63</f>
+        <v>41439000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>264</v>
+      </c>
+      <c r="B97" t="s">
+        <v>271</v>
+      </c>
+      <c r="C97" s="1">
+        <f>C55+C56+C66+C62</f>
+        <v>35040000</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>266</v>
+      </c>
+      <c r="B98" t="s">
+        <v>261</v>
+      </c>
+      <c r="C98" s="1">
+        <f>C60+C65+C68+C64+C69</f>
+        <v>45080000</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>267</v>
+      </c>
+      <c r="B99" t="s">
+        <v>273</v>
+      </c>
+      <c r="C99" s="1">
+        <f>C78+C81+C70+C83+C80+C82+C71+C76</f>
+        <v>23006000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C100" s="6">
+        <f>C73</f>
+        <v>4912000</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C101" s="1">
+        <f>SUM(C91:C100)</f>
+        <v>315361000</v>
+      </c>
+    </row>
+    <row r="124" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G124" t="s">
+        <v>139</v>
+      </c>
+      <c r="H124" t="s">
         <v>140</v>
       </c>
-      <c r="H94" t="s">
+      <c r="I124" t="s">
+        <v>127</v>
+      </c>
+      <c r="J124" t="s">
         <v>141</v>
       </c>
-      <c r="I94" t="s">
-        <v>128</v>
-      </c>
-      <c r="J94" t="s">
+      <c r="K124" t="s">
         <v>142</v>
-      </c>
-      <c r="K94" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G95" s="20">
-        <v>1</v>
-      </c>
-      <c r="H95" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="I95" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="J95" s="21">
-        <v>10090000</v>
-      </c>
-      <c r="K95" s="21">
-        <v>23785000</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G96" s="20">
-        <v>2</v>
-      </c>
-      <c r="H96" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="I96" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="J96" s="21">
-        <v>5221000</v>
-      </c>
-      <c r="K96" s="21">
-        <v>15038000</v>
-      </c>
-    </row>
-    <row r="97" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G97" s="20">
-        <v>3</v>
-      </c>
-      <c r="H97" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="I97" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="J97" s="21">
-        <v>4047000</v>
-      </c>
-      <c r="K97" s="21">
-        <v>10415000</v>
-      </c>
-    </row>
-    <row r="98" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G98" s="20">
-        <v>4</v>
-      </c>
-      <c r="H98" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="I98" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="J98" s="21">
-        <v>2513000</v>
-      </c>
-      <c r="K98" s="21">
-        <v>7038000</v>
-      </c>
-    </row>
-    <row r="99" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G99" s="20">
-        <v>5</v>
-      </c>
-      <c r="H99" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="I99" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="J99" s="21">
-        <v>2210000</v>
-      </c>
-      <c r="K99" s="21">
-        <v>6471000</v>
-      </c>
-    </row>
-    <row r="100" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G100" s="20">
-        <v>6</v>
-      </c>
-      <c r="H100" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="I100" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="J100" s="21">
-        <v>2031000</v>
-      </c>
-      <c r="K100" s="21">
-        <v>7576000</v>
-      </c>
-    </row>
-    <row r="101" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G101" s="20">
-        <v>7</v>
-      </c>
-      <c r="H101" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="I101" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="J101" s="21">
-        <v>1719000</v>
-      </c>
-      <c r="K101" s="21">
-        <v>6948000</v>
-      </c>
-    </row>
-    <row r="102" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G102" s="20">
-        <v>8</v>
-      </c>
-      <c r="H102" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="I102" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="J102" s="21">
-        <v>1643000</v>
-      </c>
-      <c r="K102" s="21">
-        <v>9083000</v>
-      </c>
-    </row>
-    <row r="103" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G103" s="20">
-        <v>9</v>
-      </c>
-      <c r="H103" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="I103" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="J103" s="21">
-        <v>1480000</v>
-      </c>
-      <c r="K103" s="21">
-        <v>6743000</v>
-      </c>
-    </row>
-    <row r="104" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G104" s="20">
-        <v>10</v>
-      </c>
-      <c r="H104" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="I104" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="J104" s="21">
-        <v>1422000</v>
-      </c>
-      <c r="K104" s="21">
-        <v>5942000</v>
-      </c>
-    </row>
-    <row r="105" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G105" s="20">
-        <v>11</v>
-      </c>
-      <c r="H105" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="I105" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="J105" s="21">
-        <v>1383000</v>
-      </c>
-      <c r="K105" s="21">
-        <v>4813000</v>
-      </c>
-    </row>
-    <row r="106" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G106" s="20">
-        <v>12</v>
-      </c>
-      <c r="H106" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="I106" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="J106" s="21">
-        <v>1369000</v>
-      </c>
-      <c r="K106" s="21">
-        <v>4428000</v>
-      </c>
-    </row>
-    <row r="107" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G107" s="20">
-        <v>13</v>
-      </c>
-      <c r="H107" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="I107" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="J107" s="21">
-        <v>1248000</v>
-      </c>
-      <c r="K107" s="21">
-        <v>3327000</v>
-      </c>
-    </row>
-    <row r="108" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G108" s="20">
-        <v>14</v>
-      </c>
-      <c r="H108" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="I108" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="J108" s="21">
-        <v>1222000</v>
-      </c>
-      <c r="K108" s="21">
-        <v>3991000</v>
-      </c>
-    </row>
-    <row r="109" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G109" s="20">
-        <v>15</v>
-      </c>
-      <c r="H109" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="I109" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="J109" s="21">
-        <v>1210000</v>
-      </c>
-      <c r="K109" s="21">
-        <v>15038000</v>
-      </c>
-    </row>
-    <row r="110" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G110" s="20">
-        <v>16</v>
-      </c>
-      <c r="H110" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="I110" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="J110" s="21">
-        <v>1180000</v>
-      </c>
-      <c r="K110" s="21">
-        <v>1782000</v>
-      </c>
-    </row>
-    <row r="111" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G111" s="20">
-        <v>17</v>
-      </c>
-      <c r="H111" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="I111" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="J111" s="21">
-        <v>1159000</v>
-      </c>
-      <c r="K111" s="21">
-        <v>3447000</v>
-      </c>
-    </row>
-    <row r="112" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G112" s="20">
-        <v>18</v>
-      </c>
-      <c r="H112" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="I112" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="J112" s="21">
-        <v>1091000</v>
-      </c>
-      <c r="K112" s="21">
-        <v>4940000</v>
-      </c>
-    </row>
-    <row r="113" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G113" s="20">
-        <v>19</v>
-      </c>
-      <c r="H113" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="I113" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="J113" s="21">
-        <v>1001000</v>
-      </c>
-      <c r="K113" s="21">
-        <v>23785000</v>
-      </c>
-    </row>
-    <row r="114" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G114" s="20">
-        <v>20</v>
-      </c>
-      <c r="H114" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="I114" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="J114" s="21">
-        <v>1021000</v>
-      </c>
-      <c r="K114" s="21">
-        <v>6491000</v>
-      </c>
-    </row>
-    <row r="115" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G115" s="20">
-        <v>21</v>
-      </c>
-      <c r="H115" s="20" t="s">
-        <v>198</v>
-      </c>
-      <c r="I115" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="J115" s="21">
-        <v>983000</v>
-      </c>
-      <c r="K115" s="21">
-        <v>2297000</v>
-      </c>
-    </row>
-    <row r="116" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G116" s="20">
-        <v>22</v>
-      </c>
-      <c r="H116" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="I116" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="J116" s="21">
-        <v>951000</v>
-      </c>
-      <c r="K116" s="21">
-        <v>2929000</v>
-      </c>
-    </row>
-    <row r="117" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G117" s="20">
-        <v>23</v>
-      </c>
-      <c r="H117" s="20" t="s">
-        <v>165</v>
-      </c>
-      <c r="I117" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="J117" s="21">
-        <v>925000</v>
-      </c>
-      <c r="K117" s="21">
-        <v>4247000</v>
-      </c>
-    </row>
-    <row r="118" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G118" s="20">
-        <v>24</v>
-      </c>
-      <c r="H118" s="20" t="s">
-        <v>196</v>
-      </c>
-      <c r="I118" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="J118" s="21">
-        <v>877000</v>
-      </c>
-      <c r="K118" s="21">
-        <v>2473000</v>
-      </c>
-    </row>
-    <row r="119" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G119" s="20">
-        <v>25</v>
-      </c>
-      <c r="H119" s="20" t="s">
-        <v>200</v>
-      </c>
-      <c r="I119" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="J119" s="21">
-        <v>851000</v>
-      </c>
-      <c r="K119" s="21">
-        <v>1929000</v>
-      </c>
-    </row>
-    <row r="120" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G120" s="20">
-        <v>26</v>
-      </c>
-      <c r="H120" s="20" t="s">
-        <v>166</v>
-      </c>
-      <c r="I120" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="J120" s="21">
-        <v>788000</v>
-      </c>
-      <c r="K120" s="21">
-        <v>5312000</v>
-      </c>
-    </row>
-    <row r="121" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G121" s="20">
-        <v>27</v>
-      </c>
-      <c r="H121" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="I121" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="J121" s="21">
-        <v>765000</v>
-      </c>
-      <c r="K121" s="21">
-        <v>1252000</v>
-      </c>
-    </row>
-    <row r="122" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G122" s="20">
-        <v>28</v>
-      </c>
-      <c r="H122" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="I122" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="J122" s="21">
-        <v>741000</v>
-      </c>
-      <c r="K122" s="21">
-        <v>1782000</v>
-      </c>
-    </row>
-    <row r="123" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G123" s="20">
-        <v>29</v>
-      </c>
-      <c r="H123" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="I123" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="J123" s="21">
-        <v>729000</v>
-      </c>
-      <c r="K123" s="21">
-        <v>2175000</v>
-      </c>
-    </row>
-    <row r="124" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G124" s="20">
-        <v>30</v>
-      </c>
-      <c r="H124" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="I124" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="J124" s="21">
-        <v>715000</v>
-      </c>
-      <c r="K124" s="21">
-        <v>1534000</v>
       </c>
     </row>
     <row r="125" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G125" s="20">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="H125" s="20" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="I125" s="20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J125" s="21">
-        <v>701000</v>
+        <v>10090000</v>
       </c>
       <c r="K125" s="21">
-        <v>2461000</v>
+        <v>23785000</v>
       </c>
     </row>
     <row r="126" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G126" s="20">
+        <v>2</v>
+      </c>
+      <c r="H126" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="I126" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="J126" s="21">
+        <v>5221000</v>
+      </c>
+      <c r="K126" s="21">
+        <v>15038000</v>
+      </c>
+    </row>
+    <row r="127" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G127" s="20">
+        <v>3</v>
+      </c>
+      <c r="H127" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="I127" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="J127" s="21">
+        <v>4047000</v>
+      </c>
+      <c r="K127" s="21">
+        <v>10415000</v>
+      </c>
+    </row>
+    <row r="128" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G128" s="20">
+        <v>4</v>
+      </c>
+      <c r="H128" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="I128" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="J128" s="21">
+        <v>2513000</v>
+      </c>
+      <c r="K128" s="21">
+        <v>7038000</v>
+      </c>
+    </row>
+    <row r="129" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G129" s="20">
+        <v>5</v>
+      </c>
+      <c r="H129" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="I129" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="J129" s="21">
+        <v>2210000</v>
+      </c>
+      <c r="K129" s="21">
+        <v>6471000</v>
+      </c>
+    </row>
+    <row r="130" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G130" s="20">
+        <v>6</v>
+      </c>
+      <c r="H130" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="I130" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="J130" s="21">
+        <v>2031000</v>
+      </c>
+      <c r="K130" s="21">
+        <v>7576000</v>
+      </c>
+    </row>
+    <row r="131" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G131" s="20">
+        <v>7</v>
+      </c>
+      <c r="H131" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="I131" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="J131" s="21">
+        <v>1719000</v>
+      </c>
+      <c r="K131" s="21">
+        <v>6948000</v>
+      </c>
+    </row>
+    <row r="132" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G132" s="20">
+        <v>8</v>
+      </c>
+      <c r="H132" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="I132" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="J132" s="21">
+        <v>1643000</v>
+      </c>
+      <c r="K132" s="21">
+        <v>9083000</v>
+      </c>
+    </row>
+    <row r="133" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G133" s="20">
+        <v>9</v>
+      </c>
+      <c r="H133" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="I133" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="J133" s="21">
+        <v>1480000</v>
+      </c>
+      <c r="K133" s="21">
+        <v>6743000</v>
+      </c>
+    </row>
+    <row r="134" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G134" s="20">
+        <v>10</v>
+      </c>
+      <c r="H134" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="I134" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="J134" s="21">
+        <v>1422000</v>
+      </c>
+      <c r="K134" s="21">
+        <v>5942000</v>
+      </c>
+    </row>
+    <row r="135" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G135" s="20">
+        <v>11</v>
+      </c>
+      <c r="H135" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="I135" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="J135" s="21">
+        <v>1383000</v>
+      </c>
+      <c r="K135" s="21">
+        <v>4813000</v>
+      </c>
+    </row>
+    <row r="136" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G136" s="20">
+        <v>12</v>
+      </c>
+      <c r="H136" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="I136" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="J136" s="21">
+        <v>1369000</v>
+      </c>
+      <c r="K136" s="21">
+        <v>4428000</v>
+      </c>
+    </row>
+    <row r="137" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G137" s="20">
+        <v>13</v>
+      </c>
+      <c r="H137" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="I137" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="J137" s="21">
+        <v>1248000</v>
+      </c>
+      <c r="K137" s="21">
+        <v>3327000</v>
+      </c>
+    </row>
+    <row r="138" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G138" s="20">
+        <v>14</v>
+      </c>
+      <c r="H138" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="I138" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="J138" s="21">
+        <v>1222000</v>
+      </c>
+      <c r="K138" s="21">
+        <v>3991000</v>
+      </c>
+    </row>
+    <row r="139" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G139" s="20">
+        <v>15</v>
+      </c>
+      <c r="H139" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="I139" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="J139" s="21">
+        <v>1210000</v>
+      </c>
+      <c r="K139" s="21">
+        <v>15038000</v>
+      </c>
+    </row>
+    <row r="140" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G140" s="20">
+        <v>16</v>
+      </c>
+      <c r="H140" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="I140" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="J140" s="21">
+        <v>1180000</v>
+      </c>
+      <c r="K140" s="21">
+        <v>1782000</v>
+      </c>
+    </row>
+    <row r="141" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G141" s="20">
+        <v>17</v>
+      </c>
+      <c r="H141" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="I141" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="J141" s="21">
+        <v>1159000</v>
+      </c>
+      <c r="K141" s="21">
+        <v>3447000</v>
+      </c>
+    </row>
+    <row r="142" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G142" s="20">
+        <v>18</v>
+      </c>
+      <c r="H142" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="I142" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="J142" s="21">
+        <v>1091000</v>
+      </c>
+      <c r="K142" s="21">
+        <v>4940000</v>
+      </c>
+    </row>
+    <row r="143" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G143" s="20">
+        <v>19</v>
+      </c>
+      <c r="H143" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="I143" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="J143" s="21">
+        <v>1001000</v>
+      </c>
+      <c r="K143" s="21">
+        <v>23785000</v>
+      </c>
+    </row>
+    <row r="144" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G144" s="20">
+        <v>20</v>
+      </c>
+      <c r="H144" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="I144" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="J144" s="21">
+        <v>1021000</v>
+      </c>
+      <c r="K144" s="21">
+        <v>6491000</v>
+      </c>
+    </row>
+    <row r="145" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G145" s="20">
+        <v>21</v>
+      </c>
+      <c r="H145" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="I145" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="J145" s="21">
+        <v>983000</v>
+      </c>
+      <c r="K145" s="21">
+        <v>2297000</v>
+      </c>
+    </row>
+    <row r="146" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G146" s="20">
+        <v>22</v>
+      </c>
+      <c r="H146" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="I146" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="J146" s="21">
+        <v>951000</v>
+      </c>
+      <c r="K146" s="21">
+        <v>2929000</v>
+      </c>
+    </row>
+    <row r="147" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G147" s="20">
+        <v>23</v>
+      </c>
+      <c r="H147" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="I147" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="J147" s="21">
+        <v>925000</v>
+      </c>
+      <c r="K147" s="21">
+        <v>4247000</v>
+      </c>
+    </row>
+    <row r="148" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G148" s="20">
+        <v>24</v>
+      </c>
+      <c r="H148" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="I148" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="J148" s="21">
+        <v>877000</v>
+      </c>
+      <c r="K148" s="21">
+        <v>2473000</v>
+      </c>
+    </row>
+    <row r="149" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G149" s="20">
+        <v>25</v>
+      </c>
+      <c r="H149" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="I149" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="J149" s="21">
+        <v>851000</v>
+      </c>
+      <c r="K149" s="21">
+        <v>1929000</v>
+      </c>
+    </row>
+    <row r="150" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G150" s="20">
+        <v>26</v>
+      </c>
+      <c r="H150" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="I150" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="J150" s="21">
+        <v>788000</v>
+      </c>
+      <c r="K150" s="21">
+        <v>5312000</v>
+      </c>
+    </row>
+    <row r="151" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G151" s="20">
+        <v>27</v>
+      </c>
+      <c r="H151" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="I151" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="J151" s="21">
+        <v>765000</v>
+      </c>
+      <c r="K151" s="21">
+        <v>1252000</v>
+      </c>
+    </row>
+    <row r="152" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G152" s="20">
+        <v>28</v>
+      </c>
+      <c r="H152" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="I152" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="J152" s="21">
+        <v>741000</v>
+      </c>
+      <c r="K152" s="21">
+        <v>1782000</v>
+      </c>
+    </row>
+    <row r="153" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G153" s="20">
+        <v>29</v>
+      </c>
+      <c r="H153" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="I153" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="J153" s="21">
+        <v>729000</v>
+      </c>
+      <c r="K153" s="21">
+        <v>2175000</v>
+      </c>
+    </row>
+    <row r="154" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G154" s="20">
+        <v>30</v>
+      </c>
+      <c r="H154" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="I154" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="J154" s="21">
+        <v>715000</v>
+      </c>
+      <c r="K154" s="21">
+        <v>1534000</v>
+      </c>
+    </row>
+    <row r="155" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G155" s="20">
+        <v>31</v>
+      </c>
+      <c r="H155" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="I155" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="J155" s="21">
+        <v>701000</v>
+      </c>
+      <c r="K155" s="21">
+        <v>2461000</v>
+      </c>
+    </row>
+    <row r="156" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G156" s="20">
         <v>32</v>
       </c>
-      <c r="H126" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="I126" s="20" t="s">
+      <c r="H156" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="I156" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="J126" s="21">
+      <c r="J156" s="21">
         <v>656000</v>
       </c>
-      <c r="K126" s="21">
+      <c r="K156" s="21">
         <v>1567000</v>
       </c>
     </row>
-    <row r="130" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G130" t="s">
+    <row r="160" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G160" t="s">
+        <v>139</v>
+      </c>
+      <c r="H160" t="s">
         <v>140</v>
       </c>
-      <c r="H130" t="s">
+      <c r="I160" t="s">
+        <v>127</v>
+      </c>
+      <c r="J160" t="s">
         <v>141</v>
       </c>
-      <c r="I130" t="s">
-        <v>128</v>
-      </c>
-      <c r="J130" t="s">
+      <c r="K160" t="s">
         <v>142</v>
-      </c>
-      <c r="K130" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="131" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G131">
-        <v>1</v>
-      </c>
-      <c r="H131" t="s">
-        <v>207</v>
-      </c>
-      <c r="I131" t="s">
-        <v>87</v>
-      </c>
-      <c r="J131" s="1">
-        <v>10090000</v>
-      </c>
-      <c r="K131" s="1">
-        <v>23785000</v>
-      </c>
-    </row>
-    <row r="132" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G132">
-        <v>2</v>
-      </c>
-      <c r="H132" t="s">
-        <v>145</v>
-      </c>
-      <c r="I132" t="s">
-        <v>100</v>
-      </c>
-      <c r="J132" s="1">
-        <v>5221000</v>
-      </c>
-      <c r="K132" s="1">
-        <v>15038000</v>
-      </c>
-    </row>
-    <row r="133" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G133">
-        <v>3</v>
-      </c>
-      <c r="H133" t="s">
-        <v>146</v>
-      </c>
-      <c r="I133" t="s">
-        <v>93</v>
-      </c>
-      <c r="J133" s="1">
-        <v>4047000</v>
-      </c>
-      <c r="K133" s="1">
-        <v>10415000</v>
-      </c>
-    </row>
-    <row r="134" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G134">
-        <v>4</v>
-      </c>
-      <c r="H134" t="s">
-        <v>147</v>
-      </c>
-      <c r="I134" t="s">
-        <v>78</v>
-      </c>
-      <c r="J134" s="1">
-        <v>2513000</v>
-      </c>
-      <c r="K134" s="1">
-        <v>7038000</v>
-      </c>
-    </row>
-    <row r="135" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G135">
-        <v>5</v>
-      </c>
-      <c r="H135" t="s">
-        <v>148</v>
-      </c>
-      <c r="I135" t="s">
-        <v>82</v>
-      </c>
-      <c r="J135" s="1">
-        <v>2210000</v>
-      </c>
-      <c r="K135" s="1">
-        <v>6471000</v>
-      </c>
-    </row>
-    <row r="136" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G136">
-        <v>6</v>
-      </c>
-      <c r="H136" t="s">
-        <v>149</v>
-      </c>
-      <c r="I136" t="s">
-        <v>86</v>
-      </c>
-      <c r="J136" s="1">
-        <v>2031000</v>
-      </c>
-      <c r="K136" s="1">
-        <v>7576000</v>
-      </c>
-    </row>
-    <row r="137" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G137">
-        <v>7</v>
-      </c>
-      <c r="H137" t="s">
-        <v>150</v>
-      </c>
-      <c r="I137" t="s">
-        <v>92</v>
-      </c>
-      <c r="J137" s="1">
-        <v>1719000</v>
-      </c>
-      <c r="K137" s="1">
-        <v>6948000</v>
-      </c>
-    </row>
-    <row r="138" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G138">
-        <v>8</v>
-      </c>
-      <c r="H138" t="s">
-        <v>208</v>
-      </c>
-      <c r="I138" t="s">
-        <v>152</v>
-      </c>
-      <c r="J138" s="1">
-        <v>1643000</v>
-      </c>
-      <c r="K138" s="1">
-        <v>9083000</v>
-      </c>
-    </row>
-    <row r="139" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G139">
-        <v>9</v>
-      </c>
-      <c r="H139" t="s">
-        <v>153</v>
-      </c>
-      <c r="I139" t="s">
-        <v>98</v>
-      </c>
-      <c r="J139" s="1">
-        <v>1480000</v>
-      </c>
-      <c r="K139" s="1">
-        <v>6743000</v>
-      </c>
-    </row>
-    <row r="140" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G140">
-        <v>10</v>
-      </c>
-      <c r="H140" t="s">
-        <v>154</v>
-      </c>
-      <c r="I140" t="s">
-        <v>105</v>
-      </c>
-      <c r="J140" s="1">
-        <v>1422000</v>
-      </c>
-      <c r="K140" s="1">
-        <v>5942000</v>
-      </c>
-    </row>
-    <row r="141" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G141">
-        <v>11</v>
-      </c>
-      <c r="H141" t="s">
-        <v>155</v>
-      </c>
-      <c r="I141" t="s">
-        <v>87</v>
-      </c>
-      <c r="J141" s="1">
-        <v>1383000</v>
-      </c>
-      <c r="K141" s="1">
-        <v>4813000</v>
-      </c>
-    </row>
-    <row r="142" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G142">
-        <v>12</v>
-      </c>
-      <c r="H142" t="s">
-        <v>156</v>
-      </c>
-      <c r="I142" t="s">
-        <v>38</v>
-      </c>
-      <c r="J142" s="1">
-        <v>1369000</v>
-      </c>
-      <c r="K142" s="1">
-        <v>4428000</v>
-      </c>
-    </row>
-    <row r="143" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G143">
-        <v>13</v>
-      </c>
-      <c r="H143" t="s">
-        <v>157</v>
-      </c>
-      <c r="I143" t="s">
-        <v>93</v>
-      </c>
-      <c r="J143" s="1">
-        <v>1248000</v>
-      </c>
-      <c r="K143" s="1">
-        <v>3327000</v>
-      </c>
-    </row>
-    <row r="144" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G144">
-        <v>14</v>
-      </c>
-      <c r="H144" t="s">
-        <v>158</v>
-      </c>
-      <c r="I144" t="s">
-        <v>91</v>
-      </c>
-      <c r="J144" s="1">
-        <v>1222000</v>
-      </c>
-      <c r="K144" s="1">
-        <v>3991000</v>
-      </c>
-    </row>
-    <row r="145" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G145">
-        <v>15</v>
-      </c>
-      <c r="H145" t="s">
-        <v>159</v>
-      </c>
-      <c r="I145" t="s">
-        <v>96</v>
-      </c>
-      <c r="J145" s="1">
-        <v>1210000</v>
-      </c>
-      <c r="K145" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="146" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G146">
-        <v>16</v>
-      </c>
-      <c r="H146" t="s">
-        <v>201</v>
-      </c>
-      <c r="I146" t="s">
-        <v>101</v>
-      </c>
-      <c r="J146" s="1">
-        <v>1180000</v>
-      </c>
-      <c r="K146" s="1">
-        <v>2252000</v>
-      </c>
-    </row>
-    <row r="147" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G147">
-        <v>17</v>
-      </c>
-      <c r="H147" t="s">
-        <v>161</v>
-      </c>
-      <c r="I147" t="s">
-        <v>78</v>
-      </c>
-      <c r="J147" s="1">
-        <v>1159000</v>
-      </c>
-      <c r="K147" s="1">
-        <v>3447000</v>
-      </c>
-    </row>
-    <row r="148" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G148">
-        <v>18</v>
-      </c>
-      <c r="H148" t="s">
-        <v>164</v>
-      </c>
-      <c r="I148" t="s">
-        <v>84</v>
-      </c>
-      <c r="J148" s="1">
-        <v>1091000</v>
-      </c>
-      <c r="K148" s="1">
-        <v>6491000</v>
-      </c>
-    </row>
-    <row r="149" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G149">
-        <v>19</v>
-      </c>
-      <c r="H149" t="s">
-        <v>210</v>
-      </c>
-      <c r="I149" t="s">
-        <v>80</v>
-      </c>
-      <c r="J149" s="1">
-        <v>1069000</v>
-      </c>
-      <c r="K149" s="1">
-        <v>5105000</v>
-      </c>
-    </row>
-    <row r="150" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G150">
-        <v>20</v>
-      </c>
-      <c r="H150" t="s">
-        <v>202</v>
-      </c>
-      <c r="I150" t="s">
-        <v>103</v>
-      </c>
-      <c r="J150" s="1">
-        <v>1044000</v>
-      </c>
-      <c r="K150" s="1">
-        <v>1836000</v>
-      </c>
-    </row>
-    <row r="151" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G151">
-        <v>21</v>
-      </c>
-      <c r="H151" t="s">
-        <v>223</v>
-      </c>
-      <c r="I151" t="s">
-        <v>79</v>
-      </c>
-      <c r="J151" s="1">
-        <v>1021000</v>
-      </c>
-      <c r="K151" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="152" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G152">
-        <v>22</v>
-      </c>
-      <c r="H152" t="s">
-        <v>225</v>
-      </c>
-      <c r="I152" t="s">
-        <v>86</v>
-      </c>
-      <c r="J152" s="1">
-        <v>1001000</v>
-      </c>
-      <c r="K152" s="1">
-        <v>4940000</v>
-      </c>
-    </row>
-    <row r="153" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G153">
-        <v>23</v>
-      </c>
-      <c r="H153" t="s">
-        <v>211</v>
-      </c>
-      <c r="I153" t="s">
-        <v>94</v>
-      </c>
-      <c r="J153" s="1">
-        <v>983000</v>
-      </c>
-      <c r="K153" s="1">
-        <v>2297000</v>
-      </c>
-    </row>
-    <row r="154" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G154">
-        <v>24</v>
-      </c>
-      <c r="H154" t="s">
-        <v>212</v>
-      </c>
-      <c r="I154" t="s">
-        <v>94</v>
-      </c>
-      <c r="J154" s="1">
-        <v>951000</v>
-      </c>
-      <c r="K154" s="1">
-        <v>2929000</v>
-      </c>
-    </row>
-    <row r="155" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G155">
-        <v>25</v>
-      </c>
-      <c r="H155" t="s">
-        <v>213</v>
-      </c>
-      <c r="I155" t="s">
-        <v>99</v>
-      </c>
-      <c r="J155" s="1">
-        <v>925000</v>
-      </c>
-      <c r="K155" s="1">
-        <v>4247000</v>
-      </c>
-    </row>
-    <row r="156" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G156">
-        <v>26</v>
-      </c>
-      <c r="H156" t="s">
-        <v>214</v>
-      </c>
-      <c r="I156" t="s">
-        <v>98</v>
-      </c>
-      <c r="J156" s="1">
-        <v>903000</v>
-      </c>
-      <c r="K156" s="1">
-        <v>3562000</v>
-      </c>
-    </row>
-    <row r="157" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G157">
-        <v>27</v>
-      </c>
-      <c r="H157" t="s">
-        <v>215</v>
-      </c>
-      <c r="I157" t="s">
-        <v>116</v>
-      </c>
-      <c r="J157" s="1">
-        <v>891000</v>
-      </c>
-      <c r="K157" s="1">
-        <v>3421000</v>
-      </c>
-    </row>
-    <row r="158" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G158">
-        <v>28</v>
-      </c>
-      <c r="H158" t="s">
-        <v>196</v>
-      </c>
-      <c r="I158" t="s">
-        <v>117</v>
-      </c>
-      <c r="J158" s="1">
-        <v>877000</v>
-      </c>
-      <c r="K158" s="1">
-        <v>2473000</v>
-      </c>
-    </row>
-    <row r="159" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G159">
-        <v>29</v>
-      </c>
-      <c r="H159" t="s">
-        <v>216</v>
-      </c>
-      <c r="I159" t="s">
-        <v>95</v>
-      </c>
-      <c r="J159" s="1">
-        <v>851000</v>
-      </c>
-      <c r="K159" s="1">
-        <v>2329000</v>
-      </c>
-    </row>
-    <row r="160" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G160">
-        <v>30</v>
-      </c>
-      <c r="H160" t="s">
-        <v>205</v>
-      </c>
-      <c r="I160" t="s">
-        <v>103</v>
-      </c>
-      <c r="J160" s="1">
-        <v>824000</v>
-      </c>
-      <c r="K160" s="1">
-        <v>1651000</v>
       </c>
     </row>
     <row r="161" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G161">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="H161" t="s">
         <v>206</v>
       </c>
       <c r="I161" t="s">
-        <v>197</v>
+        <v>87</v>
       </c>
       <c r="J161" s="1">
-        <v>802000</v>
+        <v>10090000</v>
       </c>
       <c r="K161" s="1">
-        <v>2547000</v>
+        <v>23785000</v>
       </c>
     </row>
     <row r="162" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G162">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="H162" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="I162" t="s">
         <v>100</v>
       </c>
       <c r="J162" s="1">
-        <v>788000</v>
+        <v>5221000</v>
       </c>
       <c r="K162" s="1">
-        <v>5312000</v>
+        <v>15038000</v>
       </c>
     </row>
     <row r="163" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G163">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="H163" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="I163" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="J163" s="1">
-        <v>765000</v>
+        <v>4047000</v>
       </c>
       <c r="K163" s="1">
-        <v>1252000</v>
+        <v>10415000</v>
       </c>
     </row>
     <row r="164" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G164">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="H164" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="I164" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="J164" s="1">
-        <v>741000</v>
+        <v>2513000</v>
       </c>
       <c r="K164" s="1">
-        <v>1782000</v>
+        <v>7038000</v>
       </c>
     </row>
     <row r="165" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G165">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="H165" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="I165" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J165" s="1">
-        <v>729000</v>
+        <v>2210000</v>
       </c>
       <c r="K165" s="1">
-        <v>2175000</v>
+        <v>6471000</v>
       </c>
     </row>
     <row r="166" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G166">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="H166" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="I166" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J166" s="1">
-        <v>701000</v>
+        <v>2031000</v>
       </c>
       <c r="K166" s="1">
-        <v>2461000</v>
+        <v>7576000</v>
       </c>
     </row>
     <row r="167" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G167">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="H167" t="s">
-        <v>217</v>
+        <v>149</v>
       </c>
       <c r="I167" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="J167" s="1">
-        <v>682000</v>
+        <v>1719000</v>
       </c>
       <c r="K167" s="1">
-        <v>1221000</v>
+        <v>6948000</v>
       </c>
     </row>
     <row r="168" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G168">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="H168" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="I168" t="s">
-        <v>98</v>
+        <v>151</v>
       </c>
       <c r="J168" s="1">
-        <v>668000</v>
+        <v>1643000</v>
       </c>
       <c r="K168" s="1">
-        <v>1614000</v>
+        <v>9083000</v>
       </c>
     </row>
     <row r="169" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G169">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="H169" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="I169" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="J169" s="1">
-        <v>656000</v>
+        <v>1480000</v>
       </c>
       <c r="K169" s="1">
-        <v>1567000</v>
+        <v>6743000</v>
       </c>
     </row>
     <row r="170" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G170">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="H170" t="s">
-        <v>219</v>
+        <v>153</v>
       </c>
       <c r="I170" t="s">
-        <v>197</v>
+        <v>104</v>
       </c>
       <c r="J170" s="1">
-        <v>634000</v>
+        <v>1422000</v>
       </c>
       <c r="K170" s="1">
-        <v>1341000</v>
+        <v>5942000</v>
       </c>
     </row>
     <row r="171" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G171">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="H171" t="s">
-        <v>203</v>
+        <v>154</v>
       </c>
       <c r="I171" t="s">
-        <v>204</v>
+        <v>87</v>
       </c>
       <c r="J171" s="1">
-        <v>613000</v>
+        <v>1383000</v>
       </c>
       <c r="K171" s="1">
-        <v>1248000</v>
+        <v>4813000</v>
       </c>
     </row>
     <row r="172" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G172">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="H172" t="s">
-        <v>220</v>
+        <v>155</v>
       </c>
       <c r="I172" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="J172" s="1">
-        <v>584000</v>
-      </c>
-      <c r="K172" t="s">
-        <v>224</v>
+        <v>1369000</v>
+      </c>
+      <c r="K172" s="1">
+        <v>4428000</v>
       </c>
     </row>
     <row r="173" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G173">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="H173" t="s">
-        <v>221</v>
+        <v>156</v>
       </c>
       <c r="I173" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="J173" s="1">
-        <v>565000</v>
+        <v>1248000</v>
       </c>
       <c r="K173" s="1">
-        <v>1641000</v>
+        <v>3327000</v>
       </c>
     </row>
     <row r="174" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G174">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="H174" t="s">
-        <v>222</v>
+        <v>157</v>
       </c>
       <c r="I174" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="J174" s="1">
-        <v>524000</v>
+        <v>1222000</v>
       </c>
       <c r="K174" s="1">
-        <v>1051000</v>
+        <v>3991000</v>
       </c>
     </row>
     <row r="175" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G175">
+        <v>15</v>
+      </c>
+      <c r="H175" t="s">
+        <v>158</v>
+      </c>
+      <c r="I175" t="s">
+        <v>96</v>
+      </c>
+      <c r="J175" s="1">
+        <v>1210000</v>
+      </c>
+      <c r="K175" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="176" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G176">
+        <v>16</v>
+      </c>
+      <c r="H176" t="s">
+        <v>200</v>
+      </c>
+      <c r="I176" t="s">
+        <v>101</v>
+      </c>
+      <c r="J176" s="1">
+        <v>1180000</v>
+      </c>
+      <c r="K176" s="1">
+        <v>2252000</v>
+      </c>
+    </row>
+    <row r="177" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G177">
+        <v>17</v>
+      </c>
+      <c r="H177" t="s">
+        <v>160</v>
+      </c>
+      <c r="I177" t="s">
+        <v>78</v>
+      </c>
+      <c r="J177" s="1">
+        <v>1159000</v>
+      </c>
+      <c r="K177" s="1">
+        <v>3447000</v>
+      </c>
+    </row>
+    <row r="178" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G178">
+        <v>18</v>
+      </c>
+      <c r="H178" t="s">
+        <v>163</v>
+      </c>
+      <c r="I178" t="s">
+        <v>84</v>
+      </c>
+      <c r="J178" s="1">
+        <v>1091000</v>
+      </c>
+      <c r="K178" s="1">
+        <v>6491000</v>
+      </c>
+    </row>
+    <row r="179" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G179">
+        <v>19</v>
+      </c>
+      <c r="H179" t="s">
+        <v>209</v>
+      </c>
+      <c r="I179" t="s">
+        <v>80</v>
+      </c>
+      <c r="J179" s="1">
+        <v>1069000</v>
+      </c>
+      <c r="K179" s="1">
+        <v>5105000</v>
+      </c>
+    </row>
+    <row r="180" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G180">
+        <v>20</v>
+      </c>
+      <c r="H180" t="s">
+        <v>201</v>
+      </c>
+      <c r="I180" t="s">
+        <v>103</v>
+      </c>
+      <c r="J180" s="1">
+        <v>1044000</v>
+      </c>
+      <c r="K180" s="1">
+        <v>1836000</v>
+      </c>
+    </row>
+    <row r="181" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G181">
+        <v>21</v>
+      </c>
+      <c r="H181" t="s">
+        <v>222</v>
+      </c>
+      <c r="I181" t="s">
+        <v>79</v>
+      </c>
+      <c r="J181" s="1">
+        <v>1021000</v>
+      </c>
+      <c r="K181" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="182" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G182">
+        <v>22</v>
+      </c>
+      <c r="H182" t="s">
+        <v>224</v>
+      </c>
+      <c r="I182" t="s">
+        <v>86</v>
+      </c>
+      <c r="J182" s="1">
+        <v>1001000</v>
+      </c>
+      <c r="K182" s="1">
+        <v>4940000</v>
+      </c>
+    </row>
+    <row r="183" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G183">
+        <v>23</v>
+      </c>
+      <c r="H183" t="s">
+        <v>210</v>
+      </c>
+      <c r="I183" t="s">
+        <v>94</v>
+      </c>
+      <c r="J183" s="1">
+        <v>983000</v>
+      </c>
+      <c r="K183" s="1">
+        <v>2297000</v>
+      </c>
+    </row>
+    <row r="184" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G184">
+        <v>24</v>
+      </c>
+      <c r="H184" t="s">
+        <v>211</v>
+      </c>
+      <c r="I184" t="s">
+        <v>94</v>
+      </c>
+      <c r="J184" s="1">
+        <v>951000</v>
+      </c>
+      <c r="K184" s="1">
+        <v>2929000</v>
+      </c>
+    </row>
+    <row r="185" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G185">
+        <v>25</v>
+      </c>
+      <c r="H185" t="s">
+        <v>212</v>
+      </c>
+      <c r="I185" t="s">
+        <v>99</v>
+      </c>
+      <c r="J185" s="1">
+        <v>925000</v>
+      </c>
+      <c r="K185" s="1">
+        <v>4247000</v>
+      </c>
+    </row>
+    <row r="186" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G186">
+        <v>26</v>
+      </c>
+      <c r="H186" t="s">
+        <v>213</v>
+      </c>
+      <c r="I186" t="s">
+        <v>98</v>
+      </c>
+      <c r="J186" s="1">
+        <v>903000</v>
+      </c>
+      <c r="K186" s="1">
+        <v>3562000</v>
+      </c>
+    </row>
+    <row r="187" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G187">
+        <v>27</v>
+      </c>
+      <c r="H187" t="s">
+        <v>214</v>
+      </c>
+      <c r="I187" t="s">
+        <v>115</v>
+      </c>
+      <c r="J187" s="1">
+        <v>891000</v>
+      </c>
+      <c r="K187" s="1">
+        <v>3421000</v>
+      </c>
+    </row>
+    <row r="188" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G188">
+        <v>28</v>
+      </c>
+      <c r="H188" t="s">
+        <v>195</v>
+      </c>
+      <c r="I188" t="s">
+        <v>116</v>
+      </c>
+      <c r="J188" s="1">
+        <v>877000</v>
+      </c>
+      <c r="K188" s="1">
+        <v>2473000</v>
+      </c>
+    </row>
+    <row r="189" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G189">
+        <v>29</v>
+      </c>
+      <c r="H189" t="s">
+        <v>215</v>
+      </c>
+      <c r="I189" t="s">
+        <v>95</v>
+      </c>
+      <c r="J189" s="1">
+        <v>851000</v>
+      </c>
+      <c r="K189" s="1">
+        <v>2329000</v>
+      </c>
+    </row>
+    <row r="190" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G190">
+        <v>30</v>
+      </c>
+      <c r="H190" t="s">
+        <v>204</v>
+      </c>
+      <c r="I190" t="s">
+        <v>103</v>
+      </c>
+      <c r="J190" s="1">
+        <v>824000</v>
+      </c>
+      <c r="K190" s="1">
+        <v>1651000</v>
+      </c>
+    </row>
+    <row r="191" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G191">
+        <v>31</v>
+      </c>
+      <c r="H191" t="s">
+        <v>205</v>
+      </c>
+      <c r="I191" t="s">
+        <v>196</v>
+      </c>
+      <c r="J191" s="1">
+        <v>802000</v>
+      </c>
+      <c r="K191" s="1">
+        <v>2547000</v>
+      </c>
+    </row>
+    <row r="192" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G192">
+        <v>32</v>
+      </c>
+      <c r="H192" t="s">
+        <v>165</v>
+      </c>
+      <c r="I192" t="s">
+        <v>100</v>
+      </c>
+      <c r="J192" s="1">
+        <v>788000</v>
+      </c>
+      <c r="K192" s="1">
+        <v>5312000</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G193">
+        <v>33</v>
+      </c>
+      <c r="H193" t="s">
+        <v>166</v>
+      </c>
+      <c r="I193" t="s">
+        <v>83</v>
+      </c>
+      <c r="J193" s="1">
+        <v>765000</v>
+      </c>
+      <c r="K193" s="1">
+        <v>1252000</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G194">
+        <v>34</v>
+      </c>
+      <c r="H194" t="s">
+        <v>159</v>
+      </c>
+      <c r="I194" t="s">
+        <v>101</v>
+      </c>
+      <c r="J194" s="1">
+        <v>741000</v>
+      </c>
+      <c r="K194" s="1">
+        <v>1782000</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G195">
+        <v>35</v>
+      </c>
+      <c r="H195" t="s">
+        <v>167</v>
+      </c>
+      <c r="I195" t="s">
+        <v>93</v>
+      </c>
+      <c r="J195" s="1">
+        <v>729000</v>
+      </c>
+      <c r="K195" s="1">
+        <v>2175000</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G196">
+        <v>36</v>
+      </c>
+      <c r="H196" t="s">
+        <v>169</v>
+      </c>
+      <c r="I196" t="s">
+        <v>88</v>
+      </c>
+      <c r="J196" s="1">
+        <v>701000</v>
+      </c>
+      <c r="K196" s="1">
+        <v>2461000</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G197">
+        <v>37</v>
+      </c>
+      <c r="H197" t="s">
+        <v>216</v>
+      </c>
+      <c r="I197" t="s">
+        <v>108</v>
+      </c>
+      <c r="J197" s="1">
+        <v>682000</v>
+      </c>
+      <c r="K197" s="1">
+        <v>1221000</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G198">
+        <v>38</v>
+      </c>
+      <c r="H198" t="s">
+        <v>217</v>
+      </c>
+      <c r="I198" t="s">
+        <v>98</v>
+      </c>
+      <c r="J198" s="1">
+        <v>668000</v>
+      </c>
+      <c r="K198" s="1">
+        <v>1614000</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G199">
+        <v>39</v>
+      </c>
+      <c r="H199" t="s">
+        <v>170</v>
+      </c>
+      <c r="I199" t="s">
+        <v>94</v>
+      </c>
+      <c r="J199" s="1">
+        <v>656000</v>
+      </c>
+      <c r="K199" s="1">
+        <v>1567000</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G200">
+        <v>40</v>
+      </c>
+      <c r="H200" t="s">
+        <v>218</v>
+      </c>
+      <c r="I200" t="s">
+        <v>196</v>
+      </c>
+      <c r="J200" s="1">
+        <v>634000</v>
+      </c>
+      <c r="K200" s="1">
+        <v>1341000</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G201">
+        <v>41</v>
+      </c>
+      <c r="H201" t="s">
+        <v>202</v>
+      </c>
+      <c r="I201" t="s">
+        <v>203</v>
+      </c>
+      <c r="J201" s="1">
+        <v>613000</v>
+      </c>
+      <c r="K201" s="1">
+        <v>1248000</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G202">
+        <v>42</v>
+      </c>
+      <c r="H202" t="s">
+        <v>219</v>
+      </c>
+      <c r="I202" t="s">
+        <v>79</v>
+      </c>
+      <c r="J202" s="1">
+        <v>584000</v>
+      </c>
+      <c r="K202" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G203">
+        <v>43</v>
+      </c>
+      <c r="H203" t="s">
+        <v>220</v>
+      </c>
+      <c r="I203" t="s">
+        <v>115</v>
+      </c>
+      <c r="J203" s="1">
+        <v>565000</v>
+      </c>
+      <c r="K203" s="1">
+        <v>1641000</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G204">
+        <v>44</v>
+      </c>
+      <c r="H204" t="s">
+        <v>221</v>
+      </c>
+      <c r="I204" t="s">
+        <v>80</v>
+      </c>
+      <c r="J204" s="1">
+        <v>524000</v>
+      </c>
+      <c r="K204" s="1">
+        <v>1051000</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G205">
         <v>45</v>
       </c>
-      <c r="H175" t="s">
+      <c r="H205" t="s">
+        <v>225</v>
+      </c>
+      <c r="I205" t="s">
+        <v>91</v>
+      </c>
+      <c r="J205" s="1">
+        <v>501000</v>
+      </c>
+      <c r="K205" t="s">
         <v>226</v>
       </c>
-      <c r="I175" t="s">
-        <v>91</v>
-      </c>
-      <c r="J175" s="1">
-        <v>501000</v>
-      </c>
-      <c r="K175" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>139</v>
+      </c>
+      <c r="B207" t="s">
         <v>140</v>
       </c>
-      <c r="B177" t="s">
+      <c r="C207" t="s">
+        <v>127</v>
+      </c>
+      <c r="D207" t="s">
         <v>141</v>
       </c>
-      <c r="C177" t="s">
-        <v>128</v>
-      </c>
-      <c r="D177" t="s">
+      <c r="E207" t="s">
         <v>142</v>
       </c>
-      <c r="E177" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A178">
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A208">
         <v>1</v>
-      </c>
-      <c r="B178" t="s">
-        <v>207</v>
-      </c>
-      <c r="C178" t="s">
-        <v>87</v>
-      </c>
-      <c r="D178" s="1">
-        <v>10090000</v>
-      </c>
-      <c r="E178" s="1">
-        <v>23785000</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A179">
-        <v>2</v>
-      </c>
-      <c r="B179" t="s">
-        <v>145</v>
-      </c>
-      <c r="C179" t="s">
-        <v>100</v>
-      </c>
-      <c r="D179" s="1">
-        <v>5221000</v>
-      </c>
-      <c r="E179" s="1">
-        <v>15038000</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A180">
-        <v>3</v>
-      </c>
-      <c r="B180" t="s">
-        <v>146</v>
-      </c>
-      <c r="C180" t="s">
-        <v>93</v>
-      </c>
-      <c r="D180" s="1">
-        <v>4047000</v>
-      </c>
-      <c r="E180" s="1">
-        <v>10415000</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A181">
-        <v>4</v>
-      </c>
-      <c r="B181" t="s">
-        <v>147</v>
-      </c>
-      <c r="C181" t="s">
-        <v>78</v>
-      </c>
-      <c r="D181" s="1">
-        <v>2513000</v>
-      </c>
-      <c r="E181" s="1">
-        <v>7038000</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A182">
-        <v>5</v>
-      </c>
-      <c r="B182" t="s">
-        <v>148</v>
-      </c>
-      <c r="C182" t="s">
-        <v>82</v>
-      </c>
-      <c r="D182" s="1">
-        <v>2210000</v>
-      </c>
-      <c r="E182" s="1">
-        <v>6471000</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A183">
-        <v>6</v>
-      </c>
-      <c r="B183" t="s">
-        <v>149</v>
-      </c>
-      <c r="C183" t="s">
-        <v>86</v>
-      </c>
-      <c r="D183" s="1">
-        <v>2031000</v>
-      </c>
-      <c r="E183" s="1">
-        <v>7576000</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A184">
-        <v>7</v>
-      </c>
-      <c r="B184" t="s">
-        <v>150</v>
-      </c>
-      <c r="C184" t="s">
-        <v>92</v>
-      </c>
-      <c r="D184" s="1">
-        <v>1719000</v>
-      </c>
-      <c r="E184" s="1">
-        <v>6948000</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A185">
-        <v>8</v>
-      </c>
-      <c r="B185" t="s">
-        <v>208</v>
-      </c>
-      <c r="C185" t="s">
-        <v>152</v>
-      </c>
-      <c r="D185" s="1">
-        <v>1643000</v>
-      </c>
-      <c r="E185" s="1">
-        <v>9083000</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A186">
-        <v>9</v>
-      </c>
-      <c r="B186" t="s">
-        <v>153</v>
-      </c>
-      <c r="C186" t="s">
-        <v>98</v>
-      </c>
-      <c r="D186" s="1">
-        <v>1480000</v>
-      </c>
-      <c r="E186" s="1">
-        <v>6743000</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A187">
-        <v>10</v>
-      </c>
-      <c r="B187" t="s">
-        <v>154</v>
-      </c>
-      <c r="C187" t="s">
-        <v>105</v>
-      </c>
-      <c r="D187" s="1">
-        <v>1422000</v>
-      </c>
-      <c r="E187" s="1">
-        <v>5942000</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A188">
-        <v>11</v>
-      </c>
-      <c r="B188" t="s">
-        <v>155</v>
-      </c>
-      <c r="C188" t="s">
-        <v>87</v>
-      </c>
-      <c r="D188" s="1">
-        <v>1383000</v>
-      </c>
-      <c r="E188" s="1">
-        <v>4813000</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A189">
-        <v>12</v>
-      </c>
-      <c r="B189" t="s">
-        <v>156</v>
-      </c>
-      <c r="C189" t="s">
-        <v>38</v>
-      </c>
-      <c r="D189" s="1">
-        <v>1369000</v>
-      </c>
-      <c r="E189" s="1">
-        <v>4428000</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A190">
-        <v>13</v>
-      </c>
-      <c r="B190" t="s">
-        <v>157</v>
-      </c>
-      <c r="C190" t="s">
-        <v>93</v>
-      </c>
-      <c r="D190" s="1">
-        <v>1248000</v>
-      </c>
-      <c r="E190" s="1">
-        <v>3327000</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A191">
-        <v>14</v>
-      </c>
-      <c r="B191" t="s">
-        <v>158</v>
-      </c>
-      <c r="C191" t="s">
-        <v>91</v>
-      </c>
-      <c r="D191" s="1">
-        <v>1222000</v>
-      </c>
-      <c r="E191" s="1">
-        <v>3991000</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A192">
-        <v>15</v>
-      </c>
-      <c r="B192" t="s">
-        <v>240</v>
-      </c>
-      <c r="C192" t="s">
-        <v>116</v>
-      </c>
-      <c r="D192" s="1">
-        <v>1206000</v>
-      </c>
-      <c r="E192" s="1">
-        <v>5147000</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A193">
-        <v>16</v>
-      </c>
-      <c r="B193" t="s">
-        <v>159</v>
-      </c>
-      <c r="C193" t="s">
-        <v>96</v>
-      </c>
-      <c r="D193" s="1">
-        <v>1180000</v>
-      </c>
-      <c r="E193" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A194">
-        <v>17</v>
-      </c>
-      <c r="B194" t="s">
-        <v>201</v>
-      </c>
-      <c r="C194" t="s">
-        <v>101</v>
-      </c>
-      <c r="D194" s="1">
-        <v>1160000</v>
-      </c>
-      <c r="E194" s="1">
-        <v>2252000</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A195">
-        <v>18</v>
-      </c>
-      <c r="B195" t="s">
-        <v>161</v>
-      </c>
-      <c r="C195" t="s">
-        <v>78</v>
-      </c>
-      <c r="D195" s="1">
-        <v>1129000</v>
-      </c>
-      <c r="E195" s="1">
-        <v>3447000</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A196">
-        <v>19</v>
-      </c>
-      <c r="B196" t="s">
-        <v>164</v>
-      </c>
-      <c r="C196" t="s">
-        <v>84</v>
-      </c>
-      <c r="D196" s="1">
-        <v>1091000</v>
-      </c>
-      <c r="E196" s="1">
-        <v>6291000</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A197">
-        <v>20</v>
-      </c>
-      <c r="B197" t="s">
-        <v>242</v>
-      </c>
-      <c r="C197" t="s">
-        <v>80</v>
-      </c>
-      <c r="D197" s="1">
-        <v>1069000</v>
-      </c>
-      <c r="E197" s="1">
-        <v>4405000</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A198">
-        <v>21</v>
-      </c>
-      <c r="B198" t="s">
-        <v>202</v>
-      </c>
-      <c r="C198" t="s">
-        <v>103</v>
-      </c>
-      <c r="D198" s="1">
-        <v>1044000</v>
-      </c>
-      <c r="E198" s="1">
-        <v>1836000</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A199">
-        <v>22</v>
-      </c>
-      <c r="B199" t="s">
-        <v>243</v>
-      </c>
-      <c r="C199" t="s">
-        <v>79</v>
-      </c>
-      <c r="D199" s="1">
-        <v>1021000</v>
-      </c>
-      <c r="E199" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A200">
-        <v>23</v>
-      </c>
-      <c r="B200" t="s">
-        <v>245</v>
-      </c>
-      <c r="C200" t="s">
-        <v>86</v>
-      </c>
-      <c r="D200" s="1">
-        <v>1001000</v>
-      </c>
-      <c r="E200" s="1">
-        <v>4940000</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A201">
-        <v>24</v>
-      </c>
-      <c r="B201" t="s">
-        <v>246</v>
-      </c>
-      <c r="C201" t="s">
-        <v>94</v>
-      </c>
-      <c r="D201" s="1">
-        <v>983000</v>
-      </c>
-      <c r="E201" s="1">
-        <v>2297000</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A202">
-        <v>25</v>
-      </c>
-      <c r="B202" t="s">
-        <v>229</v>
-      </c>
-      <c r="C202" t="s">
-        <v>94</v>
-      </c>
-      <c r="D202" s="1">
-        <v>925000</v>
-      </c>
-      <c r="E202" s="1">
-        <v>2929000</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A203">
-        <v>26</v>
-      </c>
-      <c r="B203" t="s">
-        <v>230</v>
-      </c>
-      <c r="C203" t="s">
-        <v>99</v>
-      </c>
-      <c r="D203" s="1">
-        <v>903000</v>
-      </c>
-      <c r="E203" s="1">
-        <v>3562000</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A204">
-        <v>27</v>
-      </c>
-      <c r="B204" t="s">
-        <v>231</v>
-      </c>
-      <c r="C204" t="s">
-        <v>98</v>
-      </c>
-      <c r="D204" s="1">
-        <v>891000</v>
-      </c>
-      <c r="E204" s="1">
-        <v>3421000</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A205">
-        <v>28</v>
-      </c>
-      <c r="B205" t="s">
-        <v>196</v>
-      </c>
-      <c r="C205" t="s">
-        <v>117</v>
-      </c>
-      <c r="D205" s="1">
-        <v>877000</v>
-      </c>
-      <c r="E205" s="1">
-        <v>2473000</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A206">
-        <v>29</v>
-      </c>
-      <c r="B206" t="s">
-        <v>216</v>
-      </c>
-      <c r="C206" t="s">
-        <v>95</v>
-      </c>
-      <c r="D206" s="1">
-        <v>851000</v>
-      </c>
-      <c r="E206" s="1">
-        <v>2329000</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A207">
-        <v>30</v>
-      </c>
-      <c r="B207" t="s">
-        <v>205</v>
-      </c>
-      <c r="C207" t="s">
-        <v>103</v>
-      </c>
-      <c r="D207" s="1">
-        <v>824000</v>
-      </c>
-      <c r="E207" s="1">
-        <v>1651000</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A208">
-        <v>31</v>
       </c>
       <c r="B208" t="s">
         <v>206</v>
       </c>
       <c r="C208" t="s">
-        <v>197</v>
+        <v>87</v>
       </c>
       <c r="D208" s="1">
-        <v>802000</v>
+        <v>10090000</v>
       </c>
       <c r="E208" s="1">
-        <v>2547000</v>
+        <v>23785000</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="B209" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="C209" t="s">
         <v>100</v>
       </c>
       <c r="D209" s="1">
-        <v>788000</v>
+        <v>5221000</v>
       </c>
       <c r="E209" s="1">
-        <v>5312000</v>
+        <v>15038000</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="B210" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="C210" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="D210" s="1">
-        <v>765000</v>
+        <v>4047000</v>
       </c>
       <c r="E210" s="1">
-        <v>1252000</v>
+        <v>10415000</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="B211" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="C211" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="D211" s="1">
-        <v>741000</v>
+        <v>2513000</v>
       </c>
       <c r="E211" s="1">
-        <v>1782000</v>
+        <v>7038000</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="B212" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="C212" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="D212" s="1">
-        <v>729000</v>
+        <v>2210000</v>
       </c>
       <c r="E212" s="1">
-        <v>2175000</v>
+        <v>6471000</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="B213" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="C213" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D213" s="1">
-        <v>701000</v>
+        <v>2031000</v>
       </c>
       <c r="E213" s="1">
-        <v>2461000</v>
+        <v>7576000</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="B214" t="s">
-        <v>217</v>
+        <v>149</v>
       </c>
       <c r="C214" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="D214" s="1">
-        <v>682000</v>
+        <v>1719000</v>
       </c>
       <c r="E214" s="1">
-        <v>1221000</v>
+        <v>6948000</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="B215" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="C215" t="s">
-        <v>98</v>
+        <v>151</v>
       </c>
       <c r="D215" s="1">
-        <v>668000</v>
+        <v>1643000</v>
       </c>
       <c r="E215" s="1">
-        <v>1814000</v>
+        <v>9083000</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="B216" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="C216" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D216" s="1">
-        <v>656000</v>
+        <v>1480000</v>
       </c>
       <c r="E216" s="1">
-        <v>1567000</v>
+        <v>6743000</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="B217" t="s">
-        <v>219</v>
+        <v>153</v>
       </c>
       <c r="C217" t="s">
-        <v>197</v>
+        <v>104</v>
       </c>
       <c r="D217" s="1">
-        <v>634000</v>
+        <v>1422000</v>
       </c>
       <c r="E217" s="1">
-        <v>1341000</v>
+        <v>5942000</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="B218" t="s">
-        <v>203</v>
+        <v>154</v>
       </c>
       <c r="C218" t="s">
-        <v>204</v>
+        <v>87</v>
       </c>
       <c r="D218" s="1">
-        <v>613000</v>
+        <v>1383000</v>
       </c>
       <c r="E218" s="1">
-        <v>1248000</v>
+        <v>4813000</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="B219" t="s">
-        <v>232</v>
+        <v>155</v>
       </c>
       <c r="C219" t="s">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="D219" s="1">
-        <v>606000</v>
+        <v>1369000</v>
       </c>
       <c r="E219" s="1">
-        <v>1638000</v>
+        <v>4428000</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="B220" t="s">
-        <v>220</v>
+        <v>156</v>
       </c>
       <c r="C220" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="D220" s="1">
-        <v>584000</v>
-      </c>
-      <c r="E220" t="s">
-        <v>224</v>
+        <v>1248000</v>
+      </c>
+      <c r="E220" s="1">
+        <v>3327000</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="B221" t="s">
-        <v>233</v>
+        <v>157</v>
       </c>
       <c r="C221" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="D221" s="1">
-        <v>565000</v>
+        <v>1222000</v>
       </c>
       <c r="E221" s="1">
-        <v>1641000</v>
+        <v>3991000</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="B222" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="C222" t="s">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="D222" s="1">
-        <v>524000</v>
+        <v>1206000</v>
       </c>
       <c r="E222" s="1">
-        <v>1051000</v>
+        <v>5147000</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="B223" t="s">
-        <v>226</v>
+        <v>158</v>
       </c>
       <c r="C223" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D223" s="1">
-        <v>501000</v>
+        <v>1180000</v>
       </c>
       <c r="E223" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="B224" t="s">
-        <v>234</v>
+        <v>200</v>
       </c>
       <c r="C224" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="D224" s="1">
-        <v>479000</v>
+        <v>1160000</v>
       </c>
       <c r="E224" s="1">
-        <v>993000</v>
+        <v>2252000</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="B225" t="s">
-        <v>235</v>
+        <v>160</v>
       </c>
       <c r="C225" t="s">
-        <v>236</v>
+        <v>78</v>
       </c>
       <c r="D225" s="1">
-        <v>460000</v>
-      </c>
-      <c r="E225" t="s">
-        <v>237</v>
+        <v>1129000</v>
+      </c>
+      <c r="E225" s="1">
+        <v>3447000</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="B226" t="s">
-        <v>238</v>
+        <v>163</v>
       </c>
       <c r="C226" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D226" s="1">
-        <v>447000</v>
+        <v>1091000</v>
       </c>
       <c r="E226" s="1">
-        <v>934000</v>
+        <v>6291000</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227">
+        <v>20</v>
+      </c>
+      <c r="B227" t="s">
+        <v>241</v>
+      </c>
+      <c r="C227" t="s">
+        <v>80</v>
+      </c>
+      <c r="D227" s="1">
+        <v>1069000</v>
+      </c>
+      <c r="E227" s="1">
+        <v>4405000</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>21</v>
+      </c>
+      <c r="B228" t="s">
+        <v>201</v>
+      </c>
+      <c r="C228" t="s">
+        <v>103</v>
+      </c>
+      <c r="D228" s="1">
+        <v>1044000</v>
+      </c>
+      <c r="E228" s="1">
+        <v>1836000</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>22</v>
+      </c>
+      <c r="B229" t="s">
+        <v>242</v>
+      </c>
+      <c r="C229" t="s">
+        <v>79</v>
+      </c>
+      <c r="D229" s="1">
+        <v>1021000</v>
+      </c>
+      <c r="E229" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>23</v>
+      </c>
+      <c r="B230" t="s">
+        <v>244</v>
+      </c>
+      <c r="C230" t="s">
+        <v>86</v>
+      </c>
+      <c r="D230" s="1">
+        <v>1001000</v>
+      </c>
+      <c r="E230" s="1">
+        <v>4940000</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>24</v>
+      </c>
+      <c r="B231" t="s">
+        <v>245</v>
+      </c>
+      <c r="C231" t="s">
+        <v>94</v>
+      </c>
+      <c r="D231" s="1">
+        <v>983000</v>
+      </c>
+      <c r="E231" s="1">
+        <v>2297000</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>25</v>
+      </c>
+      <c r="B232" t="s">
+        <v>228</v>
+      </c>
+      <c r="C232" t="s">
+        <v>94</v>
+      </c>
+      <c r="D232" s="1">
+        <v>925000</v>
+      </c>
+      <c r="E232" s="1">
+        <v>2929000</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>26</v>
+      </c>
+      <c r="B233" t="s">
+        <v>229</v>
+      </c>
+      <c r="C233" t="s">
+        <v>99</v>
+      </c>
+      <c r="D233" s="1">
+        <v>903000</v>
+      </c>
+      <c r="E233" s="1">
+        <v>3562000</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>27</v>
+      </c>
+      <c r="B234" t="s">
+        <v>230</v>
+      </c>
+      <c r="C234" t="s">
+        <v>98</v>
+      </c>
+      <c r="D234" s="1">
+        <v>891000</v>
+      </c>
+      <c r="E234" s="1">
+        <v>3421000</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>28</v>
+      </c>
+      <c r="B235" t="s">
+        <v>195</v>
+      </c>
+      <c r="C235" t="s">
+        <v>116</v>
+      </c>
+      <c r="D235" s="1">
+        <v>877000</v>
+      </c>
+      <c r="E235" s="1">
+        <v>2473000</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>29</v>
+      </c>
+      <c r="B236" t="s">
+        <v>215</v>
+      </c>
+      <c r="C236" t="s">
+        <v>95</v>
+      </c>
+      <c r="D236" s="1">
+        <v>851000</v>
+      </c>
+      <c r="E236" s="1">
+        <v>2329000</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>30</v>
+      </c>
+      <c r="B237" t="s">
+        <v>204</v>
+      </c>
+      <c r="C237" t="s">
+        <v>103</v>
+      </c>
+      <c r="D237" s="1">
+        <v>824000</v>
+      </c>
+      <c r="E237" s="1">
+        <v>1651000</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>31</v>
+      </c>
+      <c r="B238" t="s">
+        <v>205</v>
+      </c>
+      <c r="C238" t="s">
+        <v>196</v>
+      </c>
+      <c r="D238" s="1">
+        <v>802000</v>
+      </c>
+      <c r="E238" s="1">
+        <v>2547000</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>32</v>
+      </c>
+      <c r="B239" t="s">
+        <v>165</v>
+      </c>
+      <c r="C239" t="s">
+        <v>100</v>
+      </c>
+      <c r="D239" s="1">
+        <v>788000</v>
+      </c>
+      <c r="E239" s="1">
+        <v>5312000</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>33</v>
+      </c>
+      <c r="B240" t="s">
+        <v>166</v>
+      </c>
+      <c r="C240" t="s">
+        <v>83</v>
+      </c>
+      <c r="D240" s="1">
+        <v>765000</v>
+      </c>
+      <c r="E240" s="1">
+        <v>1252000</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>34</v>
+      </c>
+      <c r="B241" t="s">
+        <v>159</v>
+      </c>
+      <c r="C241" t="s">
+        <v>101</v>
+      </c>
+      <c r="D241" s="1">
+        <v>741000</v>
+      </c>
+      <c r="E241" s="1">
+        <v>1782000</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>35</v>
+      </c>
+      <c r="B242" t="s">
+        <v>167</v>
+      </c>
+      <c r="C242" t="s">
+        <v>93</v>
+      </c>
+      <c r="D242" s="1">
+        <v>729000</v>
+      </c>
+      <c r="E242" s="1">
+        <v>2175000</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>36</v>
+      </c>
+      <c r="B243" t="s">
+        <v>169</v>
+      </c>
+      <c r="C243" t="s">
+        <v>88</v>
+      </c>
+      <c r="D243" s="1">
+        <v>701000</v>
+      </c>
+      <c r="E243" s="1">
+        <v>2461000</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>37</v>
+      </c>
+      <c r="B244" t="s">
+        <v>216</v>
+      </c>
+      <c r="C244" t="s">
+        <v>108</v>
+      </c>
+      <c r="D244" s="1">
+        <v>682000</v>
+      </c>
+      <c r="E244" s="1">
+        <v>1221000</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>38</v>
+      </c>
+      <c r="B245" t="s">
+        <v>217</v>
+      </c>
+      <c r="C245" t="s">
+        <v>98</v>
+      </c>
+      <c r="D245" s="1">
+        <v>668000</v>
+      </c>
+      <c r="E245" s="1">
+        <v>1814000</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>39</v>
+      </c>
+      <c r="B246" t="s">
+        <v>170</v>
+      </c>
+      <c r="C246" t="s">
+        <v>94</v>
+      </c>
+      <c r="D246" s="1">
+        <v>656000</v>
+      </c>
+      <c r="E246" s="1">
+        <v>1567000</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>40</v>
+      </c>
+      <c r="B247" t="s">
+        <v>218</v>
+      </c>
+      <c r="C247" t="s">
+        <v>196</v>
+      </c>
+      <c r="D247" s="1">
+        <v>634000</v>
+      </c>
+      <c r="E247" s="1">
+        <v>1341000</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>41</v>
+      </c>
+      <c r="B248" t="s">
+        <v>202</v>
+      </c>
+      <c r="C248" t="s">
+        <v>203</v>
+      </c>
+      <c r="D248" s="1">
+        <v>613000</v>
+      </c>
+      <c r="E248" s="1">
+        <v>1248000</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>42</v>
+      </c>
+      <c r="B249" t="s">
+        <v>231</v>
+      </c>
+      <c r="C249" t="s">
+        <v>87</v>
+      </c>
+      <c r="D249" s="1">
+        <v>606000</v>
+      </c>
+      <c r="E249" s="1">
+        <v>1638000</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>43</v>
+      </c>
+      <c r="B250" t="s">
+        <v>219</v>
+      </c>
+      <c r="C250" t="s">
+        <v>79</v>
+      </c>
+      <c r="D250" s="1">
+        <v>584000</v>
+      </c>
+      <c r="E250" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>44</v>
+      </c>
+      <c r="B251" t="s">
+        <v>232</v>
+      </c>
+      <c r="C251" t="s">
+        <v>115</v>
+      </c>
+      <c r="D251" s="1">
+        <v>565000</v>
+      </c>
+      <c r="E251" s="1">
+        <v>1641000</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>45</v>
+      </c>
+      <c r="B252" t="s">
+        <v>221</v>
+      </c>
+      <c r="C252" t="s">
+        <v>80</v>
+      </c>
+      <c r="D252" s="1">
+        <v>524000</v>
+      </c>
+      <c r="E252" s="1">
+        <v>1051000</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>46</v>
+      </c>
+      <c r="B253" t="s">
+        <v>225</v>
+      </c>
+      <c r="C253" t="s">
+        <v>91</v>
+      </c>
+      <c r="D253" s="1">
+        <v>501000</v>
+      </c>
+      <c r="E253" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>47</v>
+      </c>
+      <c r="B254" t="s">
+        <v>233</v>
+      </c>
+      <c r="C254" t="s">
+        <v>91</v>
+      </c>
+      <c r="D254" s="1">
+        <v>479000</v>
+      </c>
+      <c r="E254" s="1">
+        <v>993000</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>48</v>
+      </c>
+      <c r="B255" t="s">
+        <v>234</v>
+      </c>
+      <c r="C255" t="s">
+        <v>235</v>
+      </c>
+      <c r="D255" s="1">
+        <v>460000</v>
+      </c>
+      <c r="E255" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>49</v>
+      </c>
+      <c r="B256" t="s">
+        <v>237</v>
+      </c>
+      <c r="C256" t="s">
+        <v>88</v>
+      </c>
+      <c r="D256" s="1">
+        <v>447000</v>
+      </c>
+      <c r="E256" s="1">
+        <v>934000</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A257">
         <v>50</v>
       </c>
-      <c r="B227" t="s">
-        <v>239</v>
-      </c>
-      <c r="C227" t="s">
-        <v>228</v>
-      </c>
-      <c r="D227" s="1">
+      <c r="B257" t="s">
+        <v>238</v>
+      </c>
+      <c r="C257" t="s">
+        <v>227</v>
+      </c>
+      <c r="D257" s="1">
         <v>429000</v>
       </c>
-      <c r="E227" s="1">
+      <c r="E257" s="1">
         <v>670000</v>
       </c>
     </row>
@@ -6272,12 +6466,12 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B2" s="1">
         <v>1054549</v>
@@ -6285,7 +6479,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E4" s="1">
         <v>9833520</v>
@@ -6293,7 +6487,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E5" s="11">
         <f>'united states'!C32</f>
@@ -6302,7 +6496,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H6" s="11">
         <f>380800-'united states'!G12</f>
@@ -6311,7 +6505,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H7">
         <f>253335-10920-12780-5040</f>
@@ -6320,7 +6514,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H8" s="1">
         <v>254806</v>
@@ -6328,7 +6522,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H9" s="1">
         <f>184827-'united states'!G27</f>
@@ -6337,7 +6531,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E10" s="15">
         <f>SUM(H6:H9)</f>
@@ -6346,7 +6540,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E11" s="15">
         <f>SUM('united states'!C30:C31)</f>
@@ -6355,7 +6549,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B12" s="19">
         <f>E4-SUM(E5:E11)</f>
@@ -6374,13 +6568,13 @@
     <row r="14" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C15" t="s">
         <v>63</v>
       </c>
       <c r="K15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -6388,7 +6582,7 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C16" s="1">
         <f>K16+1800000</f>
@@ -6404,7 +6598,7 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C17" s="1">
         <f>K17+2000000</f>
@@ -6420,7 +6614,7 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C18" s="11">
         <f>K18*(1.5)</f>
@@ -6436,7 +6630,7 @@
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C19" s="1">
         <f>K19+7000000</f>
@@ -6452,7 +6646,7 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C20" s="1">
         <v>1521000</v>
@@ -6464,7 +6658,7 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C21" s="1">
         <v>221000</v>
@@ -6476,7 +6670,7 @@
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C22" s="1">
         <v>628000</v>
@@ -6488,7 +6682,7 @@
         <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C23" s="11">
         <f>K23*1.5-SUM(C21:C22)</f>
@@ -6504,7 +6698,7 @@
         <v>9</v>
       </c>
       <c r="B24" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C24" s="11">
         <f>K24+1500000</f>
@@ -6520,7 +6714,7 @@
         <v>10</v>
       </c>
       <c r="B25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C25" s="1">
         <v>2341000</v>
@@ -6531,7 +6725,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C26" s="1">
         <v>1567000</v>
@@ -6542,7 +6736,7 @@
         <v>12</v>
       </c>
       <c r="B27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C27" s="1">
         <v>234000</v>
@@ -6553,7 +6747,7 @@
         <v>13</v>
       </c>
       <c r="B28" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C28" s="1">
         <v>1624000</v>
@@ -6589,19 +6783,19 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>139</v>
+      </c>
+      <c r="B33" t="s">
         <v>140</v>
       </c>
-      <c r="B33" t="s">
-        <v>141</v>
-      </c>
       <c r="C33" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D33" t="s">
         <v>63</v>
       </c>
       <c r="E33" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -6609,10 +6803,10 @@
         <v>1</v>
       </c>
       <c r="B34" t="s">
+        <v>174</v>
+      </c>
+      <c r="C34" t="s">
         <v>175</v>
-      </c>
-      <c r="C34" t="s">
-        <v>176</v>
       </c>
       <c r="D34" s="1">
         <v>5221000</v>
@@ -6626,10 +6820,10 @@
         <v>2</v>
       </c>
       <c r="B35" t="s">
+        <v>176</v>
+      </c>
+      <c r="C35" t="s">
         <v>177</v>
-      </c>
-      <c r="C35" t="s">
-        <v>178</v>
       </c>
       <c r="D35" s="1">
         <v>3270000</v>
@@ -6643,10 +6837,10 @@
         <v>3</v>
       </c>
       <c r="B36" t="s">
+        <v>178</v>
+      </c>
+      <c r="C36" t="s">
         <v>179</v>
-      </c>
-      <c r="C36" t="s">
-        <v>180</v>
       </c>
       <c r="D36" s="1">
         <v>2769000</v>
@@ -6660,10 +6854,10 @@
         <v>4</v>
       </c>
       <c r="B37" t="s">
+        <v>180</v>
+      </c>
+      <c r="C37" t="s">
         <v>181</v>
-      </c>
-      <c r="C37" t="s">
-        <v>182</v>
       </c>
       <c r="D37" s="1">
         <v>2534000</v>
@@ -6677,10 +6871,10 @@
         <v>5</v>
       </c>
       <c r="B38" t="s">
+        <v>182</v>
+      </c>
+      <c r="C38" t="s">
         <v>183</v>
-      </c>
-      <c r="C38" t="s">
-        <v>184</v>
       </c>
       <c r="D38" s="1">
         <v>2150000</v>
@@ -6694,10 +6888,10 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
+        <v>184</v>
+      </c>
+      <c r="C39" t="s">
         <v>185</v>
-      </c>
-      <c r="C39" t="s">
-        <v>186</v>
       </c>
       <c r="D39" s="1">
         <v>1623000</v>
@@ -6711,10 +6905,10 @@
         <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C40" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D40" s="1">
         <v>1408000</v>
@@ -6728,10 +6922,10 @@
         <v>8</v>
       </c>
       <c r="B41" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C41" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D41" s="1">
         <v>1251000</v>
@@ -6745,10 +6939,10 @@
         <v>9</v>
       </c>
       <c r="B42" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C42" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D42" s="1">
         <v>1115000</v>
@@ -6762,10 +6956,10 @@
         <v>10</v>
       </c>
       <c r="B43" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C43" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D43" s="1">
         <v>1059000</v>

--- a/obsidian-notes/spreadsheets/area.xlsx
+++ b/obsidian-notes/spreadsheets/area.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sharm\iCloudDrive\iCloud~md~obsidian\Ishan's notes\Spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A0B67F0-261E-4EC9-89AB-1CCFD822F51C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF7B4EE2-277E-4582-9EE0-C42425D70F56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{94B94BC7-FBC8-4BAC-A974-CA3E4662C848}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" activeTab="2" xr2:uid="{94B94BC7-FBC8-4BAC-A974-CA3E4662C848}"/>
   </bookViews>
   <sheets>
     <sheet name="france" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="269">
   <si>
     <t>OTL Metro France</t>
   </si>
@@ -356,9 +356,6 @@
     <t>Ontonagon</t>
   </si>
   <si>
-    <t xml:space="preserve">Nebraska </t>
-  </si>
-  <si>
     <t xml:space="preserve">Maine </t>
   </si>
   <si>
@@ -818,15 +815,9 @@
     <t>Third Judicial Division</t>
   </si>
   <si>
-    <t>Ohio, Indiana, Michigan</t>
-  </si>
-  <si>
     <t>Fourth Judicial Division</t>
   </si>
   <si>
-    <t>Illinois, Wisconsan, Ontonagon, Juniper, Missouri</t>
-  </si>
-  <si>
     <t>Fifth Judicial Division</t>
   </si>
   <si>
@@ -836,31 +827,25 @@
     <t>Seventh Judicial Division</t>
   </si>
   <si>
-    <t>New Jersey, Pennsylvania, Delaware, Maryland, Anacostia</t>
-  </si>
-  <si>
-    <t>Eighth Judicial Division</t>
-  </si>
-  <si>
-    <t>Ninth Judicial Division</t>
-  </si>
-  <si>
-    <t>South Carolina, Georgia, East Florida, Yazoo, Mississippi, West Florida</t>
-  </si>
-  <si>
-    <t>Virginia, Alleghania, North Carolina, Franklin</t>
-  </si>
-  <si>
-    <t>Tenth Judicial Division</t>
-  </si>
-  <si>
-    <t>Kentucky, Tennessee, Arkansaw, Orleans</t>
-  </si>
-  <si>
-    <t>Maine, Massachusetts, Rhode Island, Vermont, New Hampshire, Connecticut</t>
-  </si>
-  <si>
-    <t>Pembina, Minasota, Nibrasca, Kances, Cimarron, Cheyenne, Tahosa, Washingtonia</t>
+    <t>Maine, Massachusetts, Rhode Island, Vermont, New Hampshire, Connecticut, New York</t>
+  </si>
+  <si>
+    <t>New Jersey, Pennsylvania, Delaware, Maryland, Anacostia, Virginia</t>
+  </si>
+  <si>
+    <t>North Carolina, South Carolina, Georgia, East Florida, West Florida, Mississippi, Yazoo</t>
+  </si>
+  <si>
+    <t>Ohio, Indiana, Michigan, Alleghania, Wisconsan, Michigan, Ontonagon</t>
+  </si>
+  <si>
+    <t>Kentucky, Tennessee, Illinois, Missouri, Juniper</t>
+  </si>
+  <si>
+    <t>Nibrasca</t>
+  </si>
+  <si>
+    <t>Orleans, Arkansaw, Cimarron, Nibrasca, Kances, Pembina, Tahosa, Minasoa, Washingtonia, Cheyenne</t>
   </si>
 </sst>
 </file>
@@ -1313,19 +1298,19 @@
       <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.83984375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="28" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="28"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1337,7 +1322,7 @@
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1349,7 +1334,7 @@
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1361,7 +1346,7 @@
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1372,7 +1357,7 @@
         <v>875.8</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>75</v>
       </c>
@@ -1383,7 +1368,7 @@
         <v>2210</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="E7" t="s">
         <v>5</v>
       </c>
@@ -1394,7 +1379,7 @@
         <v>2570</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="I8" t="s">
@@ -1407,7 +1392,7 @@
         <v>626.79999999999995</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="I9" t="s">
@@ -1420,7 +1405,7 @@
         <v>642.37</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="I10" t="s">
@@ -1433,7 +1418,7 @@
         <v>989.05</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="I11" t="s">
@@ -1446,7 +1431,7 @@
         <v>782.18</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="I12" t="s">
@@ -1459,7 +1444,7 @@
         <v>24.12</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="I13" t="s">
@@ -1472,7 +1457,7 @@
         <v>26.34</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="I14" s="3" t="s">
@@ -1487,7 +1472,7 @@
         <v>26.3125</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="E15" t="s">
         <v>6</v>
       </c>
@@ -1500,7 +1485,7 @@
         <v>16737.037499999999</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="I16" t="s">
@@ -1515,7 +1500,7 @@
         <v>2644.9050000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="I17" t="s">
@@ -1530,7 +1515,7 @@
         <v>4418.826</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="E18" s="3" t="s">
         <v>8</v>
       </c>
@@ -1543,7 +1528,7 @@
         <v>7063.7309999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -1556,7 +1541,7 @@
         <v>26370.768499999998</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="E20" t="s">
         <v>9</v>
       </c>
@@ -1567,7 +1552,7 @@
         <v>282.49</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="E21" t="s">
         <v>10</v>
       </c>
@@ -1578,7 +1563,7 @@
         <v>3211.94</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="E22" t="s">
         <v>11</v>
       </c>
@@ -1589,7 +1574,7 @@
         <v>5224.49</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="E23" t="s">
         <v>12</v>
       </c>
@@ -1600,7 +1585,7 @@
         <v>1671.42</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="E24" t="s">
         <v>13</v>
       </c>
@@ -1611,7 +1596,7 @@
         <v>802.24</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="E25" t="s">
         <v>14</v>
       </c>
@@ -1622,7 +1607,7 @@
         <v>838.51</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="E26" t="s">
         <v>15</v>
       </c>
@@ -1633,7 +1618,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="E27" t="s">
         <v>16</v>
       </c>
@@ -1644,7 +1629,7 @@
         <v>89.55</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="E28" s="3" t="s">
         <v>17</v>
       </c>
@@ -1657,7 +1642,7 @@
         <v>42.029999999999994</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="3" t="s">
         <v>7</v>
       </c>
@@ -1670,7 +1655,7 @@
         <v>12703.67</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A30" s="4" t="s">
         <v>18</v>
       </c>
@@ -1683,7 +1668,7 @@
         <v>627130.63850000012</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E31" t="s">
         <v>20</v>
       </c>
@@ -1694,7 +1679,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="E32" s="3" t="s">
         <v>76</v>
       </c>
@@ -1705,7 +1690,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="3" t="s">
         <v>21</v>
       </c>
@@ -1718,7 +1703,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A34" s="4" t="s">
         <v>22</v>
       </c>
@@ -1731,8 +1716,8 @@
         <v>627872.63850000012</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>63</v>
       </c>
@@ -1740,7 +1725,7 @@
         <v>131324241</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>64</v>
       </c>
@@ -1753,7 +1738,7 @@
         <v>209.15745160314066</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>72</v>
       </c>
@@ -1764,9 +1749,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B41" s="14">
         <f>1-SUM(B42:B49)</f>
@@ -1777,7 +1762,7 @@
         <v>47802023.723999999</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>74</v>
       </c>
@@ -1789,7 +1774,7 @@
         <v>20880554.319000002</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>70</v>
       </c>
@@ -1801,7 +1786,7 @@
         <v>13920369.546</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>71</v>
       </c>
@@ -1813,7 +1798,7 @@
         <v>11556533.207999999</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>69</v>
       </c>
@@ -1825,7 +1810,7 @@
         <v>6828860.5319999997</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>68</v>
       </c>
@@ -1837,7 +1822,7 @@
         <v>4071051.4709999999</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>67</v>
       </c>
@@ -1850,7 +1835,7 @@
       </c>
       <c r="G47" s="13"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>66</v>
       </c>
@@ -1862,7 +1847,7 @@
         <v>6303563.568</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>65</v>
       </c>
@@ -1874,7 +1859,7 @@
         <v>2757809.0610000002</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>22</v>
       </c>
@@ -1886,14 +1871,14 @@
         <v>131324241</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="28" t="s">
         <v>70</v>
       </c>
       <c r="B55" s="28"/>
       <c r="C55" s="28"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>72</v>
       </c>
@@ -1904,9 +1889,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B57" s="13">
         <v>0.43099999999999999</v>
@@ -1916,9 +1901,9 @@
         <v>5999679.2743260004</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B58" s="13">
         <f>1-(B57+SUM(B59:B61))</f>
@@ -1929,9 +1914,9 @@
         <v>5192297.8406579997</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B59" s="13">
         <v>7.5999999999999998E-2</v>
@@ -1941,9 +1926,9 @@
         <v>1057948.085496</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B60" s="13">
         <v>5.8999999999999997E-2</v>
@@ -1953,7 +1938,7 @@
         <v>821301.80321399996</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
         <v>65</v>
       </c>
@@ -1965,7 +1950,7 @@
         <v>849142.54230600002</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
         <v>22</v>
       </c>
@@ -1994,25 +1979,25 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B1" s="1">
         <v>41865</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B2" s="1">
         <v>3142</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D3" t="s">
         <v>4</v>
       </c>
@@ -2021,7 +2006,7 @@
         <v>875.8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D4" s="6" t="s">
         <v>75</v>
       </c>
@@ -2030,14 +2015,14 @@
         <v>2210</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3"/>
       <c r="B5" s="3">
         <f>-SUM(E3:E4)</f>
         <v>-3085.8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -2053,29 +2038,30 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C745E12-030D-4421-A6DC-982053D4A77E}">
-  <dimension ref="A1:L257"/>
+  <dimension ref="A1:L254"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="B100" sqref="B100"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="D97" sqref="D97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
-    <col min="4" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.26171875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.15625" customWidth="1"/>
+    <col min="4" max="5" width="9.578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.15625" customWidth="1"/>
+    <col min="9" max="9" width="9.62890625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.15625" customWidth="1"/>
+    <col min="12" max="12" width="10.83984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="E2" t="s">
         <v>24</v>
       </c>
@@ -2086,7 +2072,7 @@
         <v>469616</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="E3" t="s">
         <v>25</v>
       </c>
@@ -2097,7 +2083,7 @@
         <v>780541</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="E4" t="s">
         <v>26</v>
       </c>
@@ -2108,7 +2094,7 @@
         <v>758842</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="E5" s="3" t="s">
         <v>27</v>
       </c>
@@ -2119,7 +2105,7 @@
         <v>475014</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -2132,7 +2118,7 @@
         <v>2484013</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="E7" t="s">
         <v>29</v>
       </c>
@@ -2145,7 +2131,7 @@
         <v>1134615</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I8" t="s">
         <v>48</v>
       </c>
@@ -2156,7 +2142,7 @@
         <v>4770</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I9" t="s">
         <v>49</v>
       </c>
@@ -2167,7 +2153,7 @@
         <v>5310</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="I10" s="3" t="s">
         <v>50</v>
       </c>
@@ -2178,7 +2164,7 @@
         <v>4710</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="E11" t="s">
         <v>30</v>
       </c>
@@ -2191,7 +2177,7 @@
         <v>166248</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="E12" t="s">
         <v>31</v>
       </c>
@@ -2202,7 +2188,7 @@
         <v>303448.18699999998</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
       <c r="I13" t="s">
@@ -2215,7 +2201,7 @@
         <v>10920</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
       <c r="I14" t="s">
@@ -2228,7 +2214,7 @@
         <v>12780</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
       <c r="I15" t="s">
@@ -2241,7 +2227,7 @@
         <v>10610</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
       <c r="I16" t="s">
@@ -2254,7 +2240,7 @@
         <v>5410</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
       <c r="I17" t="s">
@@ -2267,7 +2253,7 @@
         <v>27170</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
       <c r="I18" s="3" t="s">
@@ -2280,7 +2266,7 @@
         <v>19050</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="E19" t="s">
         <v>32</v>
       </c>
@@ -2293,7 +2279,7 @@
         <v>167660</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="E20" t="s">
         <v>33</v>
       </c>
@@ -2306,7 +2292,7 @@
         <v>134800.5</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="E21" s="3" t="s">
         <v>34</v>
       </c>
@@ -2319,7 +2305,7 @@
         <v>193590.3636364</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -2332,7 +2318,7 @@
         <v>2100362.0506364</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
       <c r="I23" t="s">
@@ -2345,7 +2331,7 @@
         <v>6920</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
       <c r="I24" t="s">
@@ -2358,7 +2344,7 @@
         <v>5650</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
       <c r="I25" t="s">
@@ -2371,7 +2357,7 @@
         <v>5760</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
       <c r="I26" s="3" t="s">
@@ -2386,7 +2372,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="E27" t="s">
         <v>36</v>
       </c>
@@ -2399,7 +2385,7 @@
         <v>19690</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="E28" s="3" t="s">
         <v>37</v>
       </c>
@@ -2410,7 +2396,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -2423,7 +2409,7 @@
         <v>19690.41</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>61</v>
       </c>
@@ -2434,7 +2420,7 @@
         <v>12981.02</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>62</v>
       </c>
@@ -2445,7 +2431,7 @@
         <v>148.12100000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A32" s="4" t="s">
         <v>22</v>
       </c>
@@ -2458,36 +2444,36 @@
         <v>4617194.6016363995</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B34" s="12">
         <f>C84^(1/3)</f>
         <v>680.66903588389926</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B35">
         <v>675</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B36" s="15">
         <f>C84/B35</f>
         <v>467201.48148148146</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B37" s="15">
         <f>B36+C37</f>
@@ -2497,41 +2483,41 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
+        <v>124</v>
+      </c>
+      <c r="E39" t="s">
+        <v>116</v>
+      </c>
+      <c r="K39" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" t="s">
         <v>125</v>
       </c>
-      <c r="E39" t="s">
-        <v>117</v>
-      </c>
-      <c r="K39" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="B40" t="s">
         <v>126</v>
-      </c>
-      <c r="B40" t="s">
-        <v>127</v>
       </c>
       <c r="C40" t="s">
         <v>63</v>
       </c>
       <c r="E40" t="s">
+        <v>120</v>
+      </c>
+      <c r="F40" t="s">
         <v>121</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>122</v>
       </c>
-      <c r="G40" t="s">
-        <v>123</v>
-      </c>
       <c r="H40" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="22">
         <v>1</v>
       </c>
@@ -2561,15 +2547,15 @@
       <c r="I41" s="22"/>
       <c r="J41" s="22"/>
       <c r="K41" s="23">
-        <f>K128*0.075</f>
+        <f>K125*0.075</f>
         <v>527850</v>
       </c>
       <c r="L41" s="23">
-        <f>E211*0.075</f>
+        <f>E208*0.075</f>
         <v>527850</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A42">
         <v>2</v>
       </c>
@@ -2597,15 +2583,15 @@
         <v>33</v>
       </c>
       <c r="K42" s="11">
-        <f>K128*0.75+K141*0.8</f>
+        <f>K125*0.75+K138*0.8</f>
         <v>8036100</v>
       </c>
       <c r="L42" s="11">
-        <f>E211*0.75+E225*0.8</f>
+        <f>E208*0.75+E222*0.8</f>
         <v>8036100</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="22">
         <v>3</v>
       </c>
@@ -2635,15 +2621,15 @@
       <c r="I43" s="22"/>
       <c r="J43" s="22"/>
       <c r="K43" s="26">
-        <f>K125*0.15+K128*0.175</f>
+        <f>K122*0.15+K125*0.175</f>
         <v>4799400</v>
       </c>
       <c r="L43" s="26">
-        <f>E208*0.15+E211*0.175</f>
+        <f>E205*0.15+E208*0.175</f>
         <v>4799400</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A44">
         <v>4</v>
       </c>
@@ -2671,15 +2657,15 @@
         <v>25</v>
       </c>
       <c r="K44" s="1">
-        <f>K142+K148*(1/3)</f>
+        <f>K139+K145*(1/3)</f>
         <v>5764333.333333333</v>
       </c>
       <c r="L44" s="1">
-        <f>E227+E235*(1/3)+E252*0.7+E244*0.3</f>
+        <f>E224+E232*(1/3)+E249*0.7+E241*0.3</f>
         <v>6331333.333333333</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="22">
         <v>5</v>
       </c>
@@ -2709,15 +2695,15 @@
       <c r="I45" s="22"/>
       <c r="J45" s="22"/>
       <c r="K45" s="26">
-        <f>K125*0.1</f>
+        <f>K122*0.1</f>
         <v>2378500</v>
       </c>
       <c r="L45" s="26">
-        <f>E208*0.1</f>
+        <f>E205*0.1</f>
         <v>2378500</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A46">
         <v>6</v>
       </c>
@@ -2745,15 +2731,15 @@
         <v>19</v>
       </c>
       <c r="K46" s="11">
-        <f>K129*0.8</f>
+        <f>K126*0.8</f>
         <v>5176800</v>
       </c>
       <c r="L46" s="11">
-        <f>E212*0.8</f>
+        <f>E209*0.8</f>
         <v>5176800</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="22">
         <v>7</v>
       </c>
@@ -2783,15 +2769,15 @@
       <c r="I47" s="22"/>
       <c r="J47" s="22"/>
       <c r="K47" s="26">
-        <f>K132*(2.5/9)+K151</f>
+        <f>K129*(2.5/9)+K148</f>
         <v>3775055.5555555555</v>
       </c>
       <c r="L47" s="26">
-        <f>E215*(2.5/9)+E240</f>
+        <f>E212*(2.5/9)+E237</f>
         <v>3775055.5555555555</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A48">
         <v>8</v>
       </c>
@@ -2819,15 +2805,15 @@
         <v>19</v>
       </c>
       <c r="K48" s="1">
-        <f>K144</f>
+        <f>K141</f>
         <v>6491000</v>
       </c>
       <c r="L48" s="1">
-        <f>E226+E252*0.3</f>
+        <f>E223+E249*0.3</f>
         <v>6606300</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="22">
         <v>9</v>
       </c>
@@ -2857,15 +2843,15 @@
       <c r="I49" s="22"/>
       <c r="J49" s="22"/>
       <c r="K49" s="26">
-        <f>K129*0.075</f>
+        <f>K126*0.075</f>
         <v>485325</v>
       </c>
       <c r="L49" s="26">
-        <f>E212*0.075</f>
+        <f>E209*0.075</f>
         <v>485325</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A50">
         <v>10</v>
       </c>
@@ -2893,15 +2879,15 @@
         <v>37</v>
       </c>
       <c r="K50" s="11">
-        <f>K130+K132*(2.5/9)</f>
+        <f>K127+K129*(2.5/9)</f>
         <v>10099055.555555556</v>
       </c>
       <c r="L50" s="11">
-        <f>E213+E215*(3/9)+E230*0.8</f>
+        <f>E210+E212*(3/9)+E227*0.8</f>
         <v>14555666.666666666</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="22">
         <v>11</v>
       </c>
@@ -2931,15 +2917,15 @@
       <c r="I51" s="22"/>
       <c r="J51" s="22"/>
       <c r="K51" s="26">
-        <f>K125*0.75+K135</f>
+        <f>K122*0.75+K132</f>
         <v>22651750</v>
       </c>
       <c r="L51" s="26">
-        <f>E208*0.75+E218+E249</f>
+        <f>E205*0.75+E215+E246</f>
         <v>24289750</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A52">
         <v>12</v>
       </c>
@@ -2967,15 +2953,15 @@
         <v>25</v>
       </c>
       <c r="K52" s="1">
-        <f>K155</f>
+        <f>K152</f>
         <v>2461000</v>
       </c>
       <c r="L52" s="1">
-        <f>E243+E230*0.2+E256</f>
+        <f>E240+E227*0.2+E253</f>
         <v>4383000</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="22">
         <v>13</v>
       </c>
@@ -3005,15 +2991,15 @@
       <c r="I53" s="22"/>
       <c r="J53" s="22"/>
       <c r="K53" s="26">
-        <f>K129*0.125</f>
+        <f>K126*0.125</f>
         <v>808875</v>
       </c>
       <c r="L53" s="26">
-        <f>E212*0.125</f>
+        <f>E209*0.125</f>
         <v>808875</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A54">
         <v>14</v>
       </c>
@@ -3041,7 +3027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="22">
         <v>15</v>
       </c>
@@ -3071,15 +3057,15 @@
       <c r="I55" s="22"/>
       <c r="J55" s="22"/>
       <c r="K55" s="26">
-        <f>K127*0.1+K138*0.8</f>
+        <f>K124*0.1+K135*0.8</f>
         <v>4234300</v>
       </c>
       <c r="L55" s="26">
-        <f>E210*0.1+E221*0.8+E254</f>
+        <f>E207*0.1+E218*0.8+E251</f>
         <v>5227300</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A56">
         <v>16</v>
       </c>
@@ -3108,15 +3094,15 @@
         <v>22</v>
       </c>
       <c r="K56" s="11">
-        <f>K131*0.8</f>
+        <f>K128*0.8</f>
         <v>5558400</v>
       </c>
       <c r="L56" s="11">
-        <f>E214*0.8</f>
+        <f>E211*0.8</f>
         <v>5558400</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="22">
         <v>17</v>
       </c>
@@ -3146,15 +3132,15 @@
       <c r="I57" s="22"/>
       <c r="J57" s="22"/>
       <c r="K57" s="26">
-        <f>K127*0.8+K137+K141*0.2+K153+K147*0.3</f>
+        <f>K124*0.8+K134+K138*0.2+K150+K144*0.3</f>
         <v>15797500</v>
       </c>
       <c r="L57" s="26">
-        <f>E210*0.8+E220+E225*0.2+E242+E233*0.3</f>
+        <f>E207*0.8+E217+E222*0.2+E239+E230*0.3</f>
         <v>15592000</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A58">
         <v>18</v>
       </c>
@@ -3182,15 +3168,15 @@
         <v>19</v>
       </c>
       <c r="K58" s="1">
-        <f>K156+K146+(K127*0.1)+K145*0.6</f>
+        <f>K153+K143+(K124*0.1)+K142*0.6</f>
         <v>6915700</v>
       </c>
       <c r="L58" s="1">
-        <f>E246+E232+(E210*0.1)+E231*0.6</f>
+        <f>E243+E229+(E207*0.1)+E228*0.6</f>
         <v>6915700</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="22">
         <v>19</v>
       </c>
@@ -3220,15 +3206,15 @@
       <c r="I59" s="22"/>
       <c r="J59" s="22"/>
       <c r="K59" s="26">
-        <f>K131*0.1+K149*0.9</f>
+        <f>K128*0.1+K146*0.9</f>
         <v>2430900</v>
       </c>
       <c r="L59" s="26">
-        <f>E214*0.1+E236*0.9</f>
+        <f>E211*0.1+E233*0.9</f>
         <v>2790900</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A60">
         <v>20</v>
       </c>
@@ -3256,15 +3242,15 @@
         <v>15</v>
       </c>
       <c r="K60" s="11">
-        <f>K126*(1/3)+K154+K145*0.1+K152*0.7</f>
+        <f>K123*(1/3)+K151+K142*0.1+K149*0.7</f>
         <v>8023766.666666666</v>
       </c>
       <c r="L60" s="11">
-        <f>E209*(1/3)+E231*0.1+E241*0.3</f>
+        <f>E206*(1/3)+E228*0.1+E238*0.3</f>
         <v>5776966.666666666</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="22">
         <v>21</v>
       </c>
@@ -3294,15 +3280,15 @@
       <c r="I61" s="22"/>
       <c r="J61" s="22"/>
       <c r="K61" s="26">
-        <f>K149*0.1</f>
+        <f>K146*0.1</f>
         <v>192900</v>
       </c>
       <c r="L61" s="26">
-        <f>E228*0.2+E237*0.1</f>
+        <f>E225*0.2+E234*0.1</f>
         <v>532300</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A62">
         <v>22</v>
       </c>
@@ -3330,15 +3316,15 @@
         <v>25</v>
       </c>
       <c r="K62" s="11">
-        <f>K133*0.6</f>
+        <f>K130*0.6</f>
         <v>4045800</v>
       </c>
       <c r="L62" s="11">
-        <f>E216*0.6+E234+E245*0.9</f>
+        <f>E213*0.6+E231+E242*0.9</f>
         <v>9099400</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="22">
         <v>23</v>
       </c>
@@ -3368,15 +3354,15 @@
       <c r="I63" s="22"/>
       <c r="J63" s="22"/>
       <c r="K63" s="26">
-        <f>K147*0.7</f>
+        <f>K144*0.7</f>
         <v>2972900</v>
       </c>
       <c r="L63" s="26">
-        <f>E233*0.7</f>
+        <f>E230*0.7</f>
         <v>2493400</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A64">
         <v>24</v>
       </c>
@@ -3404,15 +3390,15 @@
         <v>47</v>
       </c>
       <c r="K64" s="27">
-        <f>K126*(2/3)+K150*(2/3)</f>
+        <f>K123*(2/3)+K147*(2/3)</f>
         <v>13566666.666666664</v>
       </c>
       <c r="L64" s="27">
-        <f>E209*(2/3)+E239*(2/3)</f>
+        <f>E206*(2/3)+E236*(2/3)</f>
         <v>13566666.666666664</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="22">
         <v>25</v>
       </c>
@@ -3442,15 +3428,15 @@
       <c r="I65" s="22"/>
       <c r="J65" s="22"/>
       <c r="K65" s="23">
-        <f>K152+K140*0.3+K145</f>
+        <f>K149+K137*0.3+K142</f>
         <v>4613600</v>
       </c>
       <c r="L65" s="23">
-        <f>E224+E241*0.7</f>
+        <f>E221+E238*0.7</f>
         <v>3499400</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A66">
         <v>26</v>
       </c>
@@ -3478,15 +3464,15 @@
         <v>8</v>
       </c>
       <c r="K66" s="11">
-        <f>K131*0.1</f>
+        <f>K128*0.1</f>
         <v>694800</v>
       </c>
       <c r="L66" s="11">
-        <f>E214*0.1+E245*0.1</f>
+        <f>E211*0.1+E242*0.1</f>
         <v>876200</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="22">
         <v>27</v>
       </c>
@@ -3516,20 +3502,20 @@
       <c r="I67" s="22"/>
       <c r="J67" s="22"/>
       <c r="K67" s="26">
-        <f>K133*0.4</f>
+        <f>K130*0.4</f>
         <v>2697200</v>
       </c>
       <c r="L67" s="26">
-        <f>E216*0.4+E228*0.8+E237*0.9</f>
+        <f>E213*0.4+E225*0.8+E234*0.9</f>
         <v>5651900</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A68">
         <v>28</v>
       </c>
       <c r="B68" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C68" s="1">
         <v>3443000</v>
@@ -3552,15 +3538,15 @@
         <v>7</v>
       </c>
       <c r="K68" s="11">
-        <f>K134*(1/3)</f>
+        <f>K131*(1/3)</f>
         <v>1980666.6666666665</v>
       </c>
       <c r="L68" s="11">
-        <f>E217*(1/3)</f>
+        <f>E214*(1/3)</f>
         <v>1980666.6666666665</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="22">
         <v>29</v>
       </c>
@@ -3590,20 +3576,20 @@
       <c r="I69" s="22"/>
       <c r="J69" s="22"/>
       <c r="K69" s="26">
-        <f>K134*(2/3)</f>
+        <f>K131*(2/3)</f>
         <v>3961333.333333333</v>
       </c>
       <c r="L69" s="26">
-        <f>E217*(2/3)</f>
+        <f>E214*(2/3)</f>
         <v>3961333.333333333</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A70">
         <v>30</v>
       </c>
       <c r="B70" t="s">
-        <v>105</v>
+        <v>267</v>
       </c>
       <c r="C70" s="1">
         <v>2534000</v>
@@ -3626,16 +3612,16 @@
         <v>5</v>
       </c>
       <c r="L70" s="1">
-        <f>E248</f>
+        <f>E245</f>
         <v>1248000</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="22">
         <v>31</v>
       </c>
       <c r="B71" s="22" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C71" s="23">
         <v>6921000</v>
@@ -3660,20 +3646,20 @@
       <c r="I71" s="22"/>
       <c r="J71" s="22"/>
       <c r="K71" s="26">
-        <f>K150*(1/3)</f>
+        <f>K147*(1/3)</f>
         <v>1770666.6666666665</v>
       </c>
       <c r="L71" s="26">
-        <f>E239*(1/3)+E238+E247</f>
+        <f>E236*(1/3)+E235+E244</f>
         <v>5658666.666666666</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A72">
         <v>32</v>
       </c>
       <c r="B72" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C72" s="1">
         <v>1072000</v>
@@ -3696,12 +3682,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="22">
         <v>33</v>
       </c>
       <c r="B73" s="22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C73" s="23">
         <v>4912000</v>
@@ -3726,20 +3712,20 @@
       <c r="I73" s="22"/>
       <c r="J73" s="22"/>
       <c r="K73" s="23">
-        <f>K136</f>
+        <f>K133</f>
         <v>4428000</v>
       </c>
       <c r="L73" s="23">
-        <f>E219</f>
+        <f>E216</f>
         <v>4428000</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A74">
         <v>34</v>
       </c>
       <c r="B74" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C74" s="1">
         <v>1683000</v>
@@ -3762,16 +3748,16 @@
         <v>4</v>
       </c>
       <c r="L74" s="1">
-        <f>E257</f>
+        <f>E254</f>
         <v>670000</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="22">
         <v>35</v>
       </c>
       <c r="B75" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C75" s="23">
         <v>1426000</v>
@@ -3797,16 +3783,16 @@
       <c r="J75" s="22"/>
       <c r="K75" s="22"/>
       <c r="L75" s="26">
-        <f>E244*0.6</f>
+        <f>E241*0.6</f>
         <v>732600</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A76">
         <v>36</v>
       </c>
       <c r="B76" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C76" s="1">
         <v>7304000</v>
@@ -3829,16 +3815,16 @@
         <v>16</v>
       </c>
       <c r="L76" s="1">
-        <f>E222+E251</f>
+        <f>E219+E248</f>
         <v>6788000</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="22">
         <v>37</v>
       </c>
       <c r="B77" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C77" s="23">
         <v>3201000</v>
@@ -3863,20 +3849,20 @@
       <c r="I77" s="22"/>
       <c r="J77" s="22"/>
       <c r="K77" s="23">
-        <f>K148*(2/3)</f>
+        <f>K145*(2/3)</f>
         <v>1648666.6666666665</v>
       </c>
       <c r="L77" s="23">
-        <f>E235*(2/3)</f>
+        <f>E232*(2/3)</f>
         <v>1648666.6666666665</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A78">
         <v>38</v>
       </c>
       <c r="B78" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C78" s="1">
         <v>1068000</v>
@@ -3899,12 +3885,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="22">
         <v>39</v>
       </c>
       <c r="B79" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C79" s="23">
         <f>3532000</f>
@@ -3930,20 +3916,20 @@
       <c r="I79" s="22"/>
       <c r="J79" s="22"/>
       <c r="K79" s="26">
-        <f>K132*(4/9)</f>
+        <f>K129*(4/9)</f>
         <v>4036888.8888888885</v>
       </c>
       <c r="L79" s="26">
-        <f>E215*(7/18)</f>
+        <f>E212*(7/18)</f>
         <v>3532277.777777778</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A80">
         <v>40</v>
       </c>
       <c r="B80" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C80" s="1">
         <v>1331000</v>
@@ -3966,12 +3952,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="22">
         <v>41</v>
       </c>
       <c r="B81" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C81" s="23">
         <v>3121000</v>
@@ -3997,12 +3983,12 @@
       <c r="J81" s="22"/>
       <c r="K81" s="22"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A82">
         <v>42</v>
       </c>
       <c r="B82" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C82" s="1">
         <v>435000</v>
@@ -4025,12 +4011,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="22">
         <v>43</v>
       </c>
       <c r="B83" s="22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C83" s="23">
         <v>292000</v>
@@ -4056,7 +4042,7 @@
       <c r="J83" s="22"/>
       <c r="K83" s="22"/>
     </row>
-    <row r="84" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A84" s="4"/>
       <c r="B84" s="4" t="s">
         <v>22</v>
@@ -4077,8 +4063,8 @@
         <v>672</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
         <v>64</v>
       </c>
@@ -4091,2352 +4077,2319 @@
         <v>68.301431325470134</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B90" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C90" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
+        <v>255</v>
+      </c>
+      <c r="B91" t="s">
+        <v>262</v>
+      </c>
+      <c r="C91" s="1">
+        <f>C46+C49+C53+C54+C72+C45+C51</f>
+        <v>56929000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A92" t="s">
         <v>256</v>
       </c>
-      <c r="B91" t="s">
-        <v>272</v>
-      </c>
-      <c r="C91" s="1">
-        <f>C46+C49+C53+C54+C72+C45</f>
-        <v>16690000</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+      <c r="B92" t="s">
+        <v>263</v>
+      </c>
+      <c r="C92" s="1">
+        <f>C42+C43+C41+C47+C79+C50</f>
+        <v>55140000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A93" t="s">
         <v>257</v>
-      </c>
-      <c r="B92" t="s">
-        <v>87</v>
-      </c>
-      <c r="C92" s="1">
-        <f>C51</f>
-        <v>40239000</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>258</v>
       </c>
       <c r="B93" t="s">
         <v>265</v>
       </c>
       <c r="C93" s="1">
-        <f>C42+C43+C41+C47+C79</f>
-        <v>37599000</v>
+        <f>C57+C58+C63+C74+C65+C69</f>
+        <v>55753000</v>
       </c>
       <c r="J93" s="1"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
+        <v>258</v>
+      </c>
+      <c r="B94" t="s">
+        <v>264</v>
+      </c>
+      <c r="C94" s="1">
+        <f>C52+C48+C75+C44+C77+C67+C61+C59</f>
+        <v>52132000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A95" t="s">
+        <v>259</v>
+      </c>
+      <c r="B95" t="s">
+        <v>266</v>
+      </c>
+      <c r="C95" s="1">
+        <f>C56+C55+C60+C64+C68</f>
+        <v>52350000</v>
+      </c>
+      <c r="J95" s="15"/>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A96" t="s">
         <v>260</v>
       </c>
-      <c r="B94" t="s">
-        <v>269</v>
-      </c>
-      <c r="C94" s="1">
-        <f>C50+C74+C75+C52</f>
-        <v>32161000</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>262</v>
-      </c>
-      <c r="B95" t="s">
+      <c r="B96" t="s">
         <v>268</v>
       </c>
-      <c r="C95" s="1">
-        <f>C48+C44+C77+C59+C61+C67</f>
-        <v>39195000</v>
-      </c>
-      <c r="J95" s="15"/>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>263</v>
-      </c>
-      <c r="B96" t="s">
-        <v>259</v>
-      </c>
       <c r="C96" s="1">
-        <f>C57+C58+C63</f>
-        <v>41439000</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>264</v>
-      </c>
-      <c r="B97" t="s">
-        <v>271</v>
-      </c>
-      <c r="C97" s="1">
-        <f>C55+C56+C66+C62</f>
-        <v>35040000</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>266</v>
-      </c>
-      <c r="B98" t="s">
+        <f>C66+C62+C76+C71+C70+C81+C78+C83+C82+C80</f>
+        <v>38145000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A97" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="C98" s="1">
-        <f>C60+C65+C68+C64+C69</f>
-        <v>45080000</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>267</v>
-      </c>
-      <c r="B99" t="s">
-        <v>273</v>
-      </c>
-      <c r="C99" s="1">
-        <f>C78+C81+C70+C83+C80+C82+C71+C76</f>
-        <v>23006000</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="B100" s="3" t="s">
+      <c r="B97" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C100" s="6">
+      <c r="C97" s="6">
         <f>C73</f>
         <v>4912000</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C101" s="1">
-        <f>SUM(C91:C100)</f>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C98" s="1">
+        <f>SUM(C91:C97)</f>
         <v>315361000</v>
       </c>
     </row>
-    <row r="124" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G124" t="s">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C101" s="1"/>
+    </row>
+    <row r="121" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G121" t="s">
+        <v>138</v>
+      </c>
+      <c r="H121" t="s">
         <v>139</v>
       </c>
-      <c r="H124" t="s">
+      <c r="I121" t="s">
+        <v>126</v>
+      </c>
+      <c r="J121" t="s">
         <v>140</v>
       </c>
-      <c r="I124" t="s">
-        <v>127</v>
-      </c>
-      <c r="J124" t="s">
+      <c r="K121" t="s">
         <v>141</v>
       </c>
-      <c r="K124" t="s">
+    </row>
+    <row r="122" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G122" s="20">
+        <v>1</v>
+      </c>
+      <c r="H122" s="20" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="125" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="I122" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="J122" s="21">
+        <v>10090000</v>
+      </c>
+      <c r="K122" s="21">
+        <v>23785000</v>
+      </c>
+    </row>
+    <row r="123" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G123" s="20">
+        <v>2</v>
+      </c>
+      <c r="H123" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="I123" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="J123" s="21">
+        <v>5221000</v>
+      </c>
+      <c r="K123" s="21">
+        <v>15038000</v>
+      </c>
+    </row>
+    <row r="124" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G124" s="20">
+        <v>3</v>
+      </c>
+      <c r="H124" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="I124" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="J124" s="21">
+        <v>4047000</v>
+      </c>
+      <c r="K124" s="21">
+        <v>10415000</v>
+      </c>
+    </row>
+    <row r="125" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G125" s="20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H125" s="20" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I125" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="J125" s="21">
+        <v>2513000</v>
+      </c>
+      <c r="K125" s="21">
+        <v>7038000</v>
+      </c>
+    </row>
+    <row r="126" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G126" s="20">
+        <v>5</v>
+      </c>
+      <c r="H126" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="I126" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="J126" s="21">
+        <v>2210000</v>
+      </c>
+      <c r="K126" s="21">
+        <v>6471000</v>
+      </c>
+    </row>
+    <row r="127" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G127" s="20">
+        <v>6</v>
+      </c>
+      <c r="H127" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="I127" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="J127" s="21">
+        <v>2031000</v>
+      </c>
+      <c r="K127" s="21">
+        <v>7576000</v>
+      </c>
+    </row>
+    <row r="128" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G128" s="20">
+        <v>7</v>
+      </c>
+      <c r="H128" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="I128" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="J128" s="21">
+        <v>1719000</v>
+      </c>
+      <c r="K128" s="21">
+        <v>6948000</v>
+      </c>
+    </row>
+    <row r="129" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G129" s="20">
+        <v>8</v>
+      </c>
+      <c r="H129" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="I129" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="J129" s="21">
+        <v>1643000</v>
+      </c>
+      <c r="K129" s="21">
+        <v>9083000</v>
+      </c>
+    </row>
+    <row r="130" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G130" s="20">
+        <v>9</v>
+      </c>
+      <c r="H130" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="I130" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="J130" s="21">
+        <v>1480000</v>
+      </c>
+      <c r="K130" s="21">
+        <v>6743000</v>
+      </c>
+    </row>
+    <row r="131" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G131" s="20">
+        <v>10</v>
+      </c>
+      <c r="H131" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="I131" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="J131" s="21">
+        <v>1422000</v>
+      </c>
+      <c r="K131" s="21">
+        <v>5942000</v>
+      </c>
+    </row>
+    <row r="132" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G132" s="20">
+        <v>11</v>
+      </c>
+      <c r="H132" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="I132" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="J125" s="21">
-        <v>10090000</v>
-      </c>
-      <c r="K125" s="21">
+      <c r="J132" s="21">
+        <v>1383000</v>
+      </c>
+      <c r="K132" s="21">
+        <v>4813000</v>
+      </c>
+    </row>
+    <row r="133" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G133" s="20">
+        <v>12</v>
+      </c>
+      <c r="H133" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="I133" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="J133" s="21">
+        <v>1369000</v>
+      </c>
+      <c r="K133" s="21">
+        <v>4428000</v>
+      </c>
+    </row>
+    <row r="134" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G134" s="20">
+        <v>13</v>
+      </c>
+      <c r="H134" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="I134" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="J134" s="21">
+        <v>1248000</v>
+      </c>
+      <c r="K134" s="21">
+        <v>3327000</v>
+      </c>
+    </row>
+    <row r="135" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G135" s="20">
+        <v>14</v>
+      </c>
+      <c r="H135" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="I135" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="J135" s="21">
+        <v>1222000</v>
+      </c>
+      <c r="K135" s="21">
+        <v>3991000</v>
+      </c>
+    </row>
+    <row r="136" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G136" s="20">
+        <v>15</v>
+      </c>
+      <c r="H136" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="I136" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="J136" s="21">
+        <v>1210000</v>
+      </c>
+      <c r="K136" s="21">
+        <v>15038000</v>
+      </c>
+    </row>
+    <row r="137" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G137" s="20">
+        <v>16</v>
+      </c>
+      <c r="H137" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="I137" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="J137" s="21">
+        <v>1180000</v>
+      </c>
+      <c r="K137" s="21">
+        <v>1782000</v>
+      </c>
+    </row>
+    <row r="138" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G138" s="20">
+        <v>17</v>
+      </c>
+      <c r="H138" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="I138" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="J138" s="21">
+        <v>1159000</v>
+      </c>
+      <c r="K138" s="21">
+        <v>3447000</v>
+      </c>
+    </row>
+    <row r="139" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G139" s="20">
+        <v>18</v>
+      </c>
+      <c r="H139" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="I139" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="J139" s="21">
+        <v>1091000</v>
+      </c>
+      <c r="K139" s="21">
+        <v>4940000</v>
+      </c>
+    </row>
+    <row r="140" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G140" s="20">
+        <v>19</v>
+      </c>
+      <c r="H140" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="I140" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="J140" s="21">
+        <v>1001000</v>
+      </c>
+      <c r="K140" s="21">
         <v>23785000</v>
       </c>
     </row>
-    <row r="126" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G126" s="20">
-        <v>2</v>
-      </c>
-      <c r="H126" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="I126" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="J126" s="21">
-        <v>5221000</v>
-      </c>
-      <c r="K126" s="21">
-        <v>15038000</v>
-      </c>
-    </row>
-    <row r="127" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G127" s="20">
-        <v>3</v>
-      </c>
-      <c r="H127" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="I127" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="J127" s="21">
-        <v>4047000</v>
-      </c>
-      <c r="K127" s="21">
-        <v>10415000</v>
-      </c>
-    </row>
-    <row r="128" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G128" s="20">
-        <v>4</v>
-      </c>
-      <c r="H128" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="I128" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="J128" s="21">
-        <v>2513000</v>
-      </c>
-      <c r="K128" s="21">
-        <v>7038000</v>
-      </c>
-    </row>
-    <row r="129" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G129" s="20">
-        <v>5</v>
-      </c>
-      <c r="H129" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="I129" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="J129" s="21">
-        <v>2210000</v>
-      </c>
-      <c r="K129" s="21">
-        <v>6471000</v>
-      </c>
-    </row>
-    <row r="130" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G130" s="20">
-        <v>6</v>
-      </c>
-      <c r="H130" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="I130" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="J130" s="21">
-        <v>2031000</v>
-      </c>
-      <c r="K130" s="21">
-        <v>7576000</v>
-      </c>
-    </row>
-    <row r="131" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G131" s="20">
-        <v>7</v>
-      </c>
-      <c r="H131" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="I131" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="J131" s="21">
-        <v>1719000</v>
-      </c>
-      <c r="K131" s="21">
-        <v>6948000</v>
-      </c>
-    </row>
-    <row r="132" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G132" s="20">
-        <v>8</v>
-      </c>
-      <c r="H132" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="I132" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="J132" s="21">
-        <v>1643000</v>
-      </c>
-      <c r="K132" s="21">
-        <v>9083000</v>
-      </c>
-    </row>
-    <row r="133" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G133" s="20">
-        <v>9</v>
-      </c>
-      <c r="H133" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="I133" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="J133" s="21">
-        <v>1480000</v>
-      </c>
-      <c r="K133" s="21">
-        <v>6743000</v>
-      </c>
-    </row>
-    <row r="134" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G134" s="20">
-        <v>10</v>
-      </c>
-      <c r="H134" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="I134" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="J134" s="21">
-        <v>1422000</v>
-      </c>
-      <c r="K134" s="21">
-        <v>5942000</v>
-      </c>
-    </row>
-    <row r="135" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G135" s="20">
-        <v>11</v>
-      </c>
-      <c r="H135" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="I135" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="J135" s="21">
-        <v>1383000</v>
-      </c>
-      <c r="K135" s="21">
-        <v>4813000</v>
-      </c>
-    </row>
-    <row r="136" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G136" s="20">
-        <v>12</v>
-      </c>
-      <c r="H136" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="I136" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="J136" s="21">
-        <v>1369000</v>
-      </c>
-      <c r="K136" s="21">
-        <v>4428000</v>
-      </c>
-    </row>
-    <row r="137" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G137" s="20">
-        <v>13</v>
-      </c>
-      <c r="H137" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="I137" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="J137" s="21">
-        <v>1248000</v>
-      </c>
-      <c r="K137" s="21">
-        <v>3327000</v>
-      </c>
-    </row>
-    <row r="138" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G138" s="20">
-        <v>14</v>
-      </c>
-      <c r="H138" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="I138" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="J138" s="21">
-        <v>1222000</v>
-      </c>
-      <c r="K138" s="21">
-        <v>3991000</v>
-      </c>
-    </row>
-    <row r="139" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G139" s="20">
-        <v>15</v>
-      </c>
-      <c r="H139" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="I139" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="J139" s="21">
-        <v>1210000</v>
-      </c>
-      <c r="K139" s="21">
-        <v>15038000</v>
-      </c>
-    </row>
-    <row r="140" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G140" s="20">
-        <v>16</v>
-      </c>
-      <c r="H140" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="I140" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="J140" s="21">
-        <v>1180000</v>
-      </c>
-      <c r="K140" s="21">
-        <v>1782000</v>
-      </c>
-    </row>
-    <row r="141" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G141" s="20">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H141" s="20" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="I141" s="20" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="J141" s="21">
-        <v>1159000</v>
+        <v>1021000</v>
       </c>
       <c r="K141" s="21">
-        <v>3447000</v>
-      </c>
-    </row>
-    <row r="142" spans="7:11" x14ac:dyDescent="0.25">
+        <v>6491000</v>
+      </c>
+    </row>
+    <row r="142" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G142" s="20">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H142" s="20" t="s">
-        <v>161</v>
+        <v>196</v>
       </c>
       <c r="I142" s="20" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="J142" s="21">
-        <v>1091000</v>
+        <v>983000</v>
       </c>
       <c r="K142" s="21">
-        <v>4940000</v>
-      </c>
-    </row>
-    <row r="143" spans="7:11" x14ac:dyDescent="0.25">
+        <v>2297000</v>
+      </c>
+    </row>
+    <row r="143" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G143" s="20">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H143" s="20" t="s">
-        <v>162</v>
+        <v>197</v>
       </c>
       <c r="I143" s="20" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="J143" s="21">
-        <v>1001000</v>
+        <v>951000</v>
       </c>
       <c r="K143" s="21">
-        <v>23785000</v>
-      </c>
-    </row>
-    <row r="144" spans="7:11" x14ac:dyDescent="0.25">
+        <v>2929000</v>
+      </c>
+    </row>
+    <row r="144" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G144" s="20">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H144" s="20" t="s">
         <v>163</v>
       </c>
       <c r="I144" s="20" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="J144" s="21">
-        <v>1021000</v>
+        <v>925000</v>
       </c>
       <c r="K144" s="21">
-        <v>6491000</v>
-      </c>
-    </row>
-    <row r="145" spans="7:11" x14ac:dyDescent="0.25">
+        <v>4247000</v>
+      </c>
+    </row>
+    <row r="145" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G145" s="20">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H145" s="20" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="I145" s="20" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="J145" s="21">
-        <v>983000</v>
+        <v>877000</v>
       </c>
       <c r="K145" s="21">
-        <v>2297000</v>
-      </c>
-    </row>
-    <row r="146" spans="7:11" x14ac:dyDescent="0.25">
+        <v>2473000</v>
+      </c>
+    </row>
+    <row r="146" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G146" s="20">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H146" s="20" t="s">
         <v>198</v>
       </c>
       <c r="I146" s="20" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J146" s="21">
-        <v>951000</v>
+        <v>851000</v>
       </c>
       <c r="K146" s="21">
-        <v>2929000</v>
-      </c>
-    </row>
-    <row r="147" spans="7:11" x14ac:dyDescent="0.25">
+        <v>1929000</v>
+      </c>
+    </row>
+    <row r="147" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G147" s="20">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H147" s="20" t="s">
         <v>164</v>
       </c>
       <c r="I147" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="J147" s="21">
+        <v>788000</v>
+      </c>
+      <c r="K147" s="21">
+        <v>5312000</v>
+      </c>
+    </row>
+    <row r="148" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G148" s="20">
+        <v>27</v>
+      </c>
+      <c r="H148" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="I148" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="J148" s="21">
+        <v>765000</v>
+      </c>
+      <c r="K148" s="21">
+        <v>1252000</v>
+      </c>
+    </row>
+    <row r="149" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G149" s="20">
+        <v>28</v>
+      </c>
+      <c r="H149" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="I149" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="J149" s="21">
+        <v>741000</v>
+      </c>
+      <c r="K149" s="21">
+        <v>1782000</v>
+      </c>
+    </row>
+    <row r="150" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G150" s="20">
+        <v>29</v>
+      </c>
+      <c r="H150" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="I150" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="J150" s="21">
+        <v>729000</v>
+      </c>
+      <c r="K150" s="21">
+        <v>2175000</v>
+      </c>
+    </row>
+    <row r="151" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G151" s="20">
+        <v>30</v>
+      </c>
+      <c r="H151" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="I151" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="J151" s="21">
+        <v>715000</v>
+      </c>
+      <c r="K151" s="21">
+        <v>1534000</v>
+      </c>
+    </row>
+    <row r="152" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G152" s="20">
+        <v>31</v>
+      </c>
+      <c r="H152" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="I152" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="J152" s="21">
+        <v>701000</v>
+      </c>
+      <c r="K152" s="21">
+        <v>2461000</v>
+      </c>
+    </row>
+    <row r="153" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G153" s="20">
+        <v>32</v>
+      </c>
+      <c r="H153" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="I153" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="J153" s="21">
+        <v>656000</v>
+      </c>
+      <c r="K153" s="21">
+        <v>1567000</v>
+      </c>
+    </row>
+    <row r="157" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G157" t="s">
+        <v>138</v>
+      </c>
+      <c r="H157" t="s">
+        <v>139</v>
+      </c>
+      <c r="I157" t="s">
+        <v>126</v>
+      </c>
+      <c r="J157" t="s">
+        <v>140</v>
+      </c>
+      <c r="K157" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="158" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G158">
+        <v>1</v>
+      </c>
+      <c r="H158" t="s">
+        <v>205</v>
+      </c>
+      <c r="I158" t="s">
+        <v>87</v>
+      </c>
+      <c r="J158" s="1">
+        <v>10090000</v>
+      </c>
+      <c r="K158" s="1">
+        <v>23785000</v>
+      </c>
+    </row>
+    <row r="159" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G159">
+        <v>2</v>
+      </c>
+      <c r="H159" t="s">
+        <v>143</v>
+      </c>
+      <c r="I159" t="s">
+        <v>100</v>
+      </c>
+      <c r="J159" s="1">
+        <v>5221000</v>
+      </c>
+      <c r="K159" s="1">
+        <v>15038000</v>
+      </c>
+    </row>
+    <row r="160" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G160">
+        <v>3</v>
+      </c>
+      <c r="H160" t="s">
+        <v>144</v>
+      </c>
+      <c r="I160" t="s">
+        <v>93</v>
+      </c>
+      <c r="J160" s="1">
+        <v>4047000</v>
+      </c>
+      <c r="K160" s="1">
+        <v>10415000</v>
+      </c>
+    </row>
+    <row r="161" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G161">
+        <v>4</v>
+      </c>
+      <c r="H161" t="s">
+        <v>145</v>
+      </c>
+      <c r="I161" t="s">
+        <v>78</v>
+      </c>
+      <c r="J161" s="1">
+        <v>2513000</v>
+      </c>
+      <c r="K161" s="1">
+        <v>7038000</v>
+      </c>
+    </row>
+    <row r="162" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G162">
+        <v>5</v>
+      </c>
+      <c r="H162" t="s">
+        <v>146</v>
+      </c>
+      <c r="I162" t="s">
+        <v>82</v>
+      </c>
+      <c r="J162" s="1">
+        <v>2210000</v>
+      </c>
+      <c r="K162" s="1">
+        <v>6471000</v>
+      </c>
+    </row>
+    <row r="163" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G163">
+        <v>6</v>
+      </c>
+      <c r="H163" t="s">
+        <v>147</v>
+      </c>
+      <c r="I163" t="s">
+        <v>86</v>
+      </c>
+      <c r="J163" s="1">
+        <v>2031000</v>
+      </c>
+      <c r="K163" s="1">
+        <v>7576000</v>
+      </c>
+    </row>
+    <row r="164" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G164">
+        <v>7</v>
+      </c>
+      <c r="H164" t="s">
+        <v>148</v>
+      </c>
+      <c r="I164" t="s">
+        <v>92</v>
+      </c>
+      <c r="J164" s="1">
+        <v>1719000</v>
+      </c>
+      <c r="K164" s="1">
+        <v>6948000</v>
+      </c>
+    </row>
+    <row r="165" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G165">
+        <v>8</v>
+      </c>
+      <c r="H165" t="s">
+        <v>206</v>
+      </c>
+      <c r="I165" t="s">
+        <v>150</v>
+      </c>
+      <c r="J165" s="1">
+        <v>1643000</v>
+      </c>
+      <c r="K165" s="1">
+        <v>9083000</v>
+      </c>
+    </row>
+    <row r="166" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G166">
+        <v>9</v>
+      </c>
+      <c r="H166" t="s">
+        <v>151</v>
+      </c>
+      <c r="I166" t="s">
+        <v>98</v>
+      </c>
+      <c r="J166" s="1">
+        <v>1480000</v>
+      </c>
+      <c r="K166" s="1">
+        <v>6743000</v>
+      </c>
+    </row>
+    <row r="167" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G167">
+        <v>10</v>
+      </c>
+      <c r="H167" t="s">
+        <v>152</v>
+      </c>
+      <c r="I167" t="s">
+        <v>104</v>
+      </c>
+      <c r="J167" s="1">
+        <v>1422000</v>
+      </c>
+      <c r="K167" s="1">
+        <v>5942000</v>
+      </c>
+    </row>
+    <row r="168" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G168">
+        <v>11</v>
+      </c>
+      <c r="H168" t="s">
+        <v>153</v>
+      </c>
+      <c r="I168" t="s">
+        <v>87</v>
+      </c>
+      <c r="J168" s="1">
+        <v>1383000</v>
+      </c>
+      <c r="K168" s="1">
+        <v>4813000</v>
+      </c>
+    </row>
+    <row r="169" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G169">
+        <v>12</v>
+      </c>
+      <c r="H169" t="s">
+        <v>154</v>
+      </c>
+      <c r="I169" t="s">
+        <v>38</v>
+      </c>
+      <c r="J169" s="1">
+        <v>1369000</v>
+      </c>
+      <c r="K169" s="1">
+        <v>4428000</v>
+      </c>
+    </row>
+    <row r="170" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G170">
+        <v>13</v>
+      </c>
+      <c r="H170" t="s">
+        <v>155</v>
+      </c>
+      <c r="I170" t="s">
+        <v>93</v>
+      </c>
+      <c r="J170" s="1">
+        <v>1248000</v>
+      </c>
+      <c r="K170" s="1">
+        <v>3327000</v>
+      </c>
+    </row>
+    <row r="171" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G171">
+        <v>14</v>
+      </c>
+      <c r="H171" t="s">
+        <v>156</v>
+      </c>
+      <c r="I171" t="s">
+        <v>91</v>
+      </c>
+      <c r="J171" s="1">
+        <v>1222000</v>
+      </c>
+      <c r="K171" s="1">
+        <v>3991000</v>
+      </c>
+    </row>
+    <row r="172" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G172">
+        <v>15</v>
+      </c>
+      <c r="H172" t="s">
+        <v>157</v>
+      </c>
+      <c r="I172" t="s">
+        <v>96</v>
+      </c>
+      <c r="J172" s="1">
+        <v>1210000</v>
+      </c>
+      <c r="K172" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="173" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G173">
+        <v>16</v>
+      </c>
+      <c r="H173" t="s">
+        <v>199</v>
+      </c>
+      <c r="I173" t="s">
+        <v>101</v>
+      </c>
+      <c r="J173" s="1">
+        <v>1180000</v>
+      </c>
+      <c r="K173" s="1">
+        <v>2252000</v>
+      </c>
+    </row>
+    <row r="174" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G174">
+        <v>17</v>
+      </c>
+      <c r="H174" t="s">
+        <v>159</v>
+      </c>
+      <c r="I174" t="s">
+        <v>78</v>
+      </c>
+      <c r="J174" s="1">
+        <v>1159000</v>
+      </c>
+      <c r="K174" s="1">
+        <v>3447000</v>
+      </c>
+    </row>
+    <row r="175" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G175">
+        <v>18</v>
+      </c>
+      <c r="H175" t="s">
+        <v>162</v>
+      </c>
+      <c r="I175" t="s">
+        <v>84</v>
+      </c>
+      <c r="J175" s="1">
+        <v>1091000</v>
+      </c>
+      <c r="K175" s="1">
+        <v>6491000</v>
+      </c>
+    </row>
+    <row r="176" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G176">
+        <v>19</v>
+      </c>
+      <c r="H176" t="s">
+        <v>208</v>
+      </c>
+      <c r="I176" t="s">
+        <v>80</v>
+      </c>
+      <c r="J176" s="1">
+        <v>1069000</v>
+      </c>
+      <c r="K176" s="1">
+        <v>5105000</v>
+      </c>
+    </row>
+    <row r="177" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G177">
+        <v>20</v>
+      </c>
+      <c r="H177" t="s">
+        <v>200</v>
+      </c>
+      <c r="I177" t="s">
+        <v>103</v>
+      </c>
+      <c r="J177" s="1">
+        <v>1044000</v>
+      </c>
+      <c r="K177" s="1">
+        <v>1836000</v>
+      </c>
+    </row>
+    <row r="178" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G178">
+        <v>21</v>
+      </c>
+      <c r="H178" t="s">
+        <v>221</v>
+      </c>
+      <c r="I178" t="s">
+        <v>79</v>
+      </c>
+      <c r="J178" s="1">
+        <v>1021000</v>
+      </c>
+      <c r="K178" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="179" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G179">
+        <v>22</v>
+      </c>
+      <c r="H179" t="s">
+        <v>223</v>
+      </c>
+      <c r="I179" t="s">
+        <v>86</v>
+      </c>
+      <c r="J179" s="1">
+        <v>1001000</v>
+      </c>
+      <c r="K179" s="1">
+        <v>4940000</v>
+      </c>
+    </row>
+    <row r="180" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G180">
+        <v>23</v>
+      </c>
+      <c r="H180" t="s">
+        <v>209</v>
+      </c>
+      <c r="I180" t="s">
+        <v>94</v>
+      </c>
+      <c r="J180" s="1">
+        <v>983000</v>
+      </c>
+      <c r="K180" s="1">
+        <v>2297000</v>
+      </c>
+    </row>
+    <row r="181" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G181">
+        <v>24</v>
+      </c>
+      <c r="H181" t="s">
+        <v>210</v>
+      </c>
+      <c r="I181" t="s">
+        <v>94</v>
+      </c>
+      <c r="J181" s="1">
+        <v>951000</v>
+      </c>
+      <c r="K181" s="1">
+        <v>2929000</v>
+      </c>
+    </row>
+    <row r="182" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G182">
+        <v>25</v>
+      </c>
+      <c r="H182" t="s">
+        <v>211</v>
+      </c>
+      <c r="I182" t="s">
         <v>99</v>
       </c>
-      <c r="J147" s="21">
+      <c r="J182" s="1">
         <v>925000</v>
       </c>
-      <c r="K147" s="21">
+      <c r="K182" s="1">
         <v>4247000</v>
       </c>
     </row>
-    <row r="148" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G148" s="20">
-        <v>24</v>
-      </c>
-      <c r="H148" s="20" t="s">
+    <row r="183" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G183">
+        <v>26</v>
+      </c>
+      <c r="H183" t="s">
+        <v>212</v>
+      </c>
+      <c r="I183" t="s">
+        <v>98</v>
+      </c>
+      <c r="J183" s="1">
+        <v>903000</v>
+      </c>
+      <c r="K183" s="1">
+        <v>3562000</v>
+      </c>
+    </row>
+    <row r="184" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G184">
+        <v>27</v>
+      </c>
+      <c r="H184" t="s">
+        <v>213</v>
+      </c>
+      <c r="I184" t="s">
+        <v>114</v>
+      </c>
+      <c r="J184" s="1">
+        <v>891000</v>
+      </c>
+      <c r="K184" s="1">
+        <v>3421000</v>
+      </c>
+    </row>
+    <row r="185" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G185">
+        <v>28</v>
+      </c>
+      <c r="H185" t="s">
+        <v>194</v>
+      </c>
+      <c r="I185" t="s">
+        <v>115</v>
+      </c>
+      <c r="J185" s="1">
+        <v>877000</v>
+      </c>
+      <c r="K185" s="1">
+        <v>2473000</v>
+      </c>
+    </row>
+    <row r="186" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G186">
+        <v>29</v>
+      </c>
+      <c r="H186" t="s">
+        <v>214</v>
+      </c>
+      <c r="I186" t="s">
+        <v>95</v>
+      </c>
+      <c r="J186" s="1">
+        <v>851000</v>
+      </c>
+      <c r="K186" s="1">
+        <v>2329000</v>
+      </c>
+    </row>
+    <row r="187" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G187">
+        <v>30</v>
+      </c>
+      <c r="H187" t="s">
+        <v>203</v>
+      </c>
+      <c r="I187" t="s">
+        <v>103</v>
+      </c>
+      <c r="J187" s="1">
+        <v>824000</v>
+      </c>
+      <c r="K187" s="1">
+        <v>1651000</v>
+      </c>
+    </row>
+    <row r="188" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G188">
+        <v>31</v>
+      </c>
+      <c r="H188" t="s">
+        <v>204</v>
+      </c>
+      <c r="I188" t="s">
         <v>195</v>
       </c>
-      <c r="I148" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="J148" s="21">
-        <v>877000</v>
-      </c>
-      <c r="K148" s="21">
-        <v>2473000</v>
-      </c>
-    </row>
-    <row r="149" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G149" s="20">
-        <v>25</v>
-      </c>
-      <c r="H149" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="I149" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="J149" s="21">
-        <v>851000</v>
-      </c>
-      <c r="K149" s="21">
-        <v>1929000</v>
-      </c>
-    </row>
-    <row r="150" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G150" s="20">
-        <v>26</v>
-      </c>
-      <c r="H150" s="20" t="s">
+      <c r="J188" s="1">
+        <v>802000</v>
+      </c>
+      <c r="K188" s="1">
+        <v>2547000</v>
+      </c>
+    </row>
+    <row r="189" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G189">
+        <v>32</v>
+      </c>
+      <c r="H189" t="s">
+        <v>164</v>
+      </c>
+      <c r="I189" t="s">
+        <v>100</v>
+      </c>
+      <c r="J189" s="1">
+        <v>788000</v>
+      </c>
+      <c r="K189" s="1">
+        <v>5312000</v>
+      </c>
+    </row>
+    <row r="190" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G190">
+        <v>33</v>
+      </c>
+      <c r="H190" t="s">
         <v>165</v>
       </c>
-      <c r="I150" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="J150" s="21">
-        <v>788000</v>
-      </c>
-      <c r="K150" s="21">
-        <v>5312000</v>
-      </c>
-    </row>
-    <row r="151" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G151" s="20">
-        <v>27</v>
-      </c>
-      <c r="H151" s="20" t="s">
+      <c r="I190" t="s">
+        <v>83</v>
+      </c>
+      <c r="J190" s="1">
+        <v>765000</v>
+      </c>
+      <c r="K190" s="1">
+        <v>1252000</v>
+      </c>
+    </row>
+    <row r="191" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G191">
+        <v>34</v>
+      </c>
+      <c r="H191" t="s">
+        <v>158</v>
+      </c>
+      <c r="I191" t="s">
+        <v>101</v>
+      </c>
+      <c r="J191" s="1">
+        <v>741000</v>
+      </c>
+      <c r="K191" s="1">
+        <v>1782000</v>
+      </c>
+    </row>
+    <row r="192" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G192">
+        <v>35</v>
+      </c>
+      <c r="H192" t="s">
         <v>166</v>
       </c>
-      <c r="I151" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="J151" s="21">
-        <v>765000</v>
-      </c>
-      <c r="K151" s="21">
-        <v>1252000</v>
-      </c>
-    </row>
-    <row r="152" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G152" s="20">
-        <v>28</v>
-      </c>
-      <c r="H152" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="I152" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="J152" s="21">
-        <v>741000</v>
-      </c>
-      <c r="K152" s="21">
-        <v>1782000</v>
-      </c>
-    </row>
-    <row r="153" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G153" s="20">
-        <v>29</v>
-      </c>
-      <c r="H153" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="I153" s="20" t="s">
+      <c r="I192" t="s">
         <v>93</v>
       </c>
-      <c r="J153" s="21">
+      <c r="J192" s="1">
         <v>729000</v>
       </c>
-      <c r="K153" s="21">
+      <c r="K192" s="1">
         <v>2175000</v>
       </c>
     </row>
-    <row r="154" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G154" s="20">
-        <v>30</v>
-      </c>
-      <c r="H154" s="20" t="s">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G193">
+        <v>36</v>
+      </c>
+      <c r="H193" t="s">
         <v>168</v>
       </c>
-      <c r="I154" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="J154" s="21">
-        <v>715000</v>
-      </c>
-      <c r="K154" s="21">
-        <v>1534000</v>
-      </c>
-    </row>
-    <row r="155" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G155" s="20">
-        <v>31</v>
-      </c>
-      <c r="H155" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="I155" s="20" t="s">
+      <c r="I193" t="s">
         <v>88</v>
       </c>
-      <c r="J155" s="21">
+      <c r="J193" s="1">
         <v>701000</v>
       </c>
-      <c r="K155" s="21">
+      <c r="K193" s="1">
         <v>2461000</v>
       </c>
     </row>
-    <row r="156" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G156" s="20">
-        <v>32</v>
-      </c>
-      <c r="H156" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="I156" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="J156" s="21">
-        <v>656000</v>
-      </c>
-      <c r="K156" s="21">
-        <v>1567000</v>
-      </c>
-    </row>
-    <row r="160" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G160" t="s">
-        <v>139</v>
-      </c>
-      <c r="H160" t="s">
-        <v>140</v>
-      </c>
-      <c r="I160" t="s">
-        <v>127</v>
-      </c>
-      <c r="J160" t="s">
-        <v>141</v>
-      </c>
-      <c r="K160" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="161" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G161">
-        <v>1</v>
-      </c>
-      <c r="H161" t="s">
-        <v>206</v>
-      </c>
-      <c r="I161" t="s">
-        <v>87</v>
-      </c>
-      <c r="J161" s="1">
-        <v>10090000</v>
-      </c>
-      <c r="K161" s="1">
-        <v>23785000</v>
-      </c>
-    </row>
-    <row r="162" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G162">
-        <v>2</v>
-      </c>
-      <c r="H162" t="s">
-        <v>144</v>
-      </c>
-      <c r="I162" t="s">
-        <v>100</v>
-      </c>
-      <c r="J162" s="1">
-        <v>5221000</v>
-      </c>
-      <c r="K162" s="1">
-        <v>15038000</v>
-      </c>
-    </row>
-    <row r="163" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G163">
-        <v>3</v>
-      </c>
-      <c r="H163" t="s">
-        <v>145</v>
-      </c>
-      <c r="I163" t="s">
-        <v>93</v>
-      </c>
-      <c r="J163" s="1">
-        <v>4047000</v>
-      </c>
-      <c r="K163" s="1">
-        <v>10415000</v>
-      </c>
-    </row>
-    <row r="164" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G164">
-        <v>4</v>
-      </c>
-      <c r="H164" t="s">
-        <v>146</v>
-      </c>
-      <c r="I164" t="s">
-        <v>78</v>
-      </c>
-      <c r="J164" s="1">
-        <v>2513000</v>
-      </c>
-      <c r="K164" s="1">
-        <v>7038000</v>
-      </c>
-    </row>
-    <row r="165" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G165">
-        <v>5</v>
-      </c>
-      <c r="H165" t="s">
-        <v>147</v>
-      </c>
-      <c r="I165" t="s">
-        <v>82</v>
-      </c>
-      <c r="J165" s="1">
-        <v>2210000</v>
-      </c>
-      <c r="K165" s="1">
-        <v>6471000</v>
-      </c>
-    </row>
-    <row r="166" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G166">
-        <v>6</v>
-      </c>
-      <c r="H166" t="s">
-        <v>148</v>
-      </c>
-      <c r="I166" t="s">
-        <v>86</v>
-      </c>
-      <c r="J166" s="1">
-        <v>2031000</v>
-      </c>
-      <c r="K166" s="1">
-        <v>7576000</v>
-      </c>
-    </row>
-    <row r="167" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G167">
-        <v>7</v>
-      </c>
-      <c r="H167" t="s">
-        <v>149</v>
-      </c>
-      <c r="I167" t="s">
-        <v>92</v>
-      </c>
-      <c r="J167" s="1">
-        <v>1719000</v>
-      </c>
-      <c r="K167" s="1">
-        <v>6948000</v>
-      </c>
-    </row>
-    <row r="168" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G168">
-        <v>8</v>
-      </c>
-      <c r="H168" t="s">
-        <v>207</v>
-      </c>
-      <c r="I168" t="s">
-        <v>151</v>
-      </c>
-      <c r="J168" s="1">
-        <v>1643000</v>
-      </c>
-      <c r="K168" s="1">
-        <v>9083000</v>
-      </c>
-    </row>
-    <row r="169" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G169">
-        <v>9</v>
-      </c>
-      <c r="H169" t="s">
-        <v>152</v>
-      </c>
-      <c r="I169" t="s">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G194">
+        <v>37</v>
+      </c>
+      <c r="H194" t="s">
+        <v>215</v>
+      </c>
+      <c r="I194" t="s">
+        <v>107</v>
+      </c>
+      <c r="J194" s="1">
+        <v>682000</v>
+      </c>
+      <c r="K194" s="1">
+        <v>1221000</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G195">
+        <v>38</v>
+      </c>
+      <c r="H195" t="s">
+        <v>216</v>
+      </c>
+      <c r="I195" t="s">
         <v>98</v>
       </c>
-      <c r="J169" s="1">
-        <v>1480000</v>
-      </c>
-      <c r="K169" s="1">
-        <v>6743000</v>
-      </c>
-    </row>
-    <row r="170" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G170">
-        <v>10</v>
-      </c>
-      <c r="H170" t="s">
-        <v>153</v>
-      </c>
-      <c r="I170" t="s">
-        <v>104</v>
-      </c>
-      <c r="J170" s="1">
-        <v>1422000</v>
-      </c>
-      <c r="K170" s="1">
-        <v>5942000</v>
-      </c>
-    </row>
-    <row r="171" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G171">
-        <v>11</v>
-      </c>
-      <c r="H171" t="s">
-        <v>154</v>
-      </c>
-      <c r="I171" t="s">
-        <v>87</v>
-      </c>
-      <c r="J171" s="1">
-        <v>1383000</v>
-      </c>
-      <c r="K171" s="1">
-        <v>4813000</v>
-      </c>
-    </row>
-    <row r="172" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G172">
-        <v>12</v>
-      </c>
-      <c r="H172" t="s">
-        <v>155</v>
-      </c>
-      <c r="I172" t="s">
-        <v>38</v>
-      </c>
-      <c r="J172" s="1">
-        <v>1369000</v>
-      </c>
-      <c r="K172" s="1">
-        <v>4428000</v>
-      </c>
-    </row>
-    <row r="173" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G173">
-        <v>13</v>
-      </c>
-      <c r="H173" t="s">
-        <v>156</v>
-      </c>
-      <c r="I173" t="s">
-        <v>93</v>
-      </c>
-      <c r="J173" s="1">
-        <v>1248000</v>
-      </c>
-      <c r="K173" s="1">
-        <v>3327000</v>
-      </c>
-    </row>
-    <row r="174" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G174">
-        <v>14</v>
-      </c>
-      <c r="H174" t="s">
-        <v>157</v>
-      </c>
-      <c r="I174" t="s">
-        <v>91</v>
-      </c>
-      <c r="J174" s="1">
-        <v>1222000</v>
-      </c>
-      <c r="K174" s="1">
-        <v>3991000</v>
-      </c>
-    </row>
-    <row r="175" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G175">
-        <v>15</v>
-      </c>
-      <c r="H175" t="s">
-        <v>158</v>
-      </c>
-      <c r="I175" t="s">
-        <v>96</v>
-      </c>
-      <c r="J175" s="1">
-        <v>1210000</v>
-      </c>
-      <c r="K175" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="176" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G176">
-        <v>16</v>
-      </c>
-      <c r="H176" t="s">
-        <v>200</v>
-      </c>
-      <c r="I176" t="s">
-        <v>101</v>
-      </c>
-      <c r="J176" s="1">
-        <v>1180000</v>
-      </c>
-      <c r="K176" s="1">
-        <v>2252000</v>
-      </c>
-    </row>
-    <row r="177" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G177">
-        <v>17</v>
-      </c>
-      <c r="H177" t="s">
-        <v>160</v>
-      </c>
-      <c r="I177" t="s">
-        <v>78</v>
-      </c>
-      <c r="J177" s="1">
-        <v>1159000</v>
-      </c>
-      <c r="K177" s="1">
-        <v>3447000</v>
-      </c>
-    </row>
-    <row r="178" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G178">
-        <v>18</v>
-      </c>
-      <c r="H178" t="s">
-        <v>163</v>
-      </c>
-      <c r="I178" t="s">
-        <v>84</v>
-      </c>
-      <c r="J178" s="1">
-        <v>1091000</v>
-      </c>
-      <c r="K178" s="1">
-        <v>6491000</v>
-      </c>
-    </row>
-    <row r="179" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G179">
-        <v>19</v>
-      </c>
-      <c r="H179" t="s">
-        <v>209</v>
-      </c>
-      <c r="I179" t="s">
-        <v>80</v>
-      </c>
-      <c r="J179" s="1">
-        <v>1069000</v>
-      </c>
-      <c r="K179" s="1">
-        <v>5105000</v>
-      </c>
-    </row>
-    <row r="180" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G180">
-        <v>20</v>
-      </c>
-      <c r="H180" t="s">
-        <v>201</v>
-      </c>
-      <c r="I180" t="s">
-        <v>103</v>
-      </c>
-      <c r="J180" s="1">
-        <v>1044000</v>
-      </c>
-      <c r="K180" s="1">
-        <v>1836000</v>
-      </c>
-    </row>
-    <row r="181" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G181">
-        <v>21</v>
-      </c>
-      <c r="H181" t="s">
-        <v>222</v>
-      </c>
-      <c r="I181" t="s">
-        <v>79</v>
-      </c>
-      <c r="J181" s="1">
-        <v>1021000</v>
-      </c>
-      <c r="K181" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="182" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G182">
-        <v>22</v>
-      </c>
-      <c r="H182" t="s">
-        <v>224</v>
-      </c>
-      <c r="I182" t="s">
-        <v>86</v>
-      </c>
-      <c r="J182" s="1">
-        <v>1001000</v>
-      </c>
-      <c r="K182" s="1">
-        <v>4940000</v>
-      </c>
-    </row>
-    <row r="183" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G183">
-        <v>23</v>
-      </c>
-      <c r="H183" t="s">
-        <v>210</v>
-      </c>
-      <c r="I183" t="s">
-        <v>94</v>
-      </c>
-      <c r="J183" s="1">
-        <v>983000</v>
-      </c>
-      <c r="K183" s="1">
-        <v>2297000</v>
-      </c>
-    </row>
-    <row r="184" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G184">
-        <v>24</v>
-      </c>
-      <c r="H184" t="s">
-        <v>211</v>
-      </c>
-      <c r="I184" t="s">
-        <v>94</v>
-      </c>
-      <c r="J184" s="1">
-        <v>951000</v>
-      </c>
-      <c r="K184" s="1">
-        <v>2929000</v>
-      </c>
-    </row>
-    <row r="185" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G185">
-        <v>25</v>
-      </c>
-      <c r="H185" t="s">
-        <v>212</v>
-      </c>
-      <c r="I185" t="s">
-        <v>99</v>
-      </c>
-      <c r="J185" s="1">
-        <v>925000</v>
-      </c>
-      <c r="K185" s="1">
-        <v>4247000</v>
-      </c>
-    </row>
-    <row r="186" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G186">
-        <v>26</v>
-      </c>
-      <c r="H186" t="s">
-        <v>213</v>
-      </c>
-      <c r="I186" t="s">
-        <v>98</v>
-      </c>
-      <c r="J186" s="1">
-        <v>903000</v>
-      </c>
-      <c r="K186" s="1">
-        <v>3562000</v>
-      </c>
-    </row>
-    <row r="187" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G187">
-        <v>27</v>
-      </c>
-      <c r="H187" t="s">
-        <v>214</v>
-      </c>
-      <c r="I187" t="s">
-        <v>115</v>
-      </c>
-      <c r="J187" s="1">
-        <v>891000</v>
-      </c>
-      <c r="K187" s="1">
-        <v>3421000</v>
-      </c>
-    </row>
-    <row r="188" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G188">
-        <v>28</v>
-      </c>
-      <c r="H188" t="s">
-        <v>195</v>
-      </c>
-      <c r="I188" t="s">
-        <v>116</v>
-      </c>
-      <c r="J188" s="1">
-        <v>877000</v>
-      </c>
-      <c r="K188" s="1">
-        <v>2473000</v>
-      </c>
-    </row>
-    <row r="189" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G189">
-        <v>29</v>
-      </c>
-      <c r="H189" t="s">
-        <v>215</v>
-      </c>
-      <c r="I189" t="s">
-        <v>95</v>
-      </c>
-      <c r="J189" s="1">
-        <v>851000</v>
-      </c>
-      <c r="K189" s="1">
-        <v>2329000</v>
-      </c>
-    </row>
-    <row r="190" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G190">
-        <v>30</v>
-      </c>
-      <c r="H190" t="s">
-        <v>204</v>
-      </c>
-      <c r="I190" t="s">
-        <v>103</v>
-      </c>
-      <c r="J190" s="1">
-        <v>824000</v>
-      </c>
-      <c r="K190" s="1">
-        <v>1651000</v>
-      </c>
-    </row>
-    <row r="191" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G191">
-        <v>31</v>
-      </c>
-      <c r="H191" t="s">
-        <v>205</v>
-      </c>
-      <c r="I191" t="s">
-        <v>196</v>
-      </c>
-      <c r="J191" s="1">
-        <v>802000</v>
-      </c>
-      <c r="K191" s="1">
-        <v>2547000</v>
-      </c>
-    </row>
-    <row r="192" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G192">
-        <v>32</v>
-      </c>
-      <c r="H192" t="s">
-        <v>165</v>
-      </c>
-      <c r="I192" t="s">
-        <v>100</v>
-      </c>
-      <c r="J192" s="1">
-        <v>788000</v>
-      </c>
-      <c r="K192" s="1">
-        <v>5312000</v>
-      </c>
-    </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G193">
-        <v>33</v>
-      </c>
-      <c r="H193" t="s">
-        <v>166</v>
-      </c>
-      <c r="I193" t="s">
-        <v>83</v>
-      </c>
-      <c r="J193" s="1">
-        <v>765000</v>
-      </c>
-      <c r="K193" s="1">
-        <v>1252000</v>
-      </c>
-    </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G194">
-        <v>34</v>
-      </c>
-      <c r="H194" t="s">
-        <v>159</v>
-      </c>
-      <c r="I194" t="s">
-        <v>101</v>
-      </c>
-      <c r="J194" s="1">
-        <v>741000</v>
-      </c>
-      <c r="K194" s="1">
-        <v>1782000</v>
-      </c>
-    </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G195">
-        <v>35</v>
-      </c>
-      <c r="H195" t="s">
-        <v>167</v>
-      </c>
-      <c r="I195" t="s">
-        <v>93</v>
-      </c>
       <c r="J195" s="1">
-        <v>729000</v>
+        <v>668000</v>
       </c>
       <c r="K195" s="1">
-        <v>2175000</v>
-      </c>
-    </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1614000</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G196">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H196" t="s">
         <v>169</v>
       </c>
       <c r="I196" t="s">
+        <v>94</v>
+      </c>
+      <c r="J196" s="1">
+        <v>656000</v>
+      </c>
+      <c r="K196" s="1">
+        <v>1567000</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G197">
+        <v>40</v>
+      </c>
+      <c r="H197" t="s">
+        <v>217</v>
+      </c>
+      <c r="I197" t="s">
+        <v>195</v>
+      </c>
+      <c r="J197" s="1">
+        <v>634000</v>
+      </c>
+      <c r="K197" s="1">
+        <v>1341000</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G198">
+        <v>41</v>
+      </c>
+      <c r="H198" t="s">
+        <v>201</v>
+      </c>
+      <c r="I198" t="s">
+        <v>202</v>
+      </c>
+      <c r="J198" s="1">
+        <v>613000</v>
+      </c>
+      <c r="K198" s="1">
+        <v>1248000</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G199">
+        <v>42</v>
+      </c>
+      <c r="H199" t="s">
+        <v>218</v>
+      </c>
+      <c r="I199" t="s">
+        <v>79</v>
+      </c>
+      <c r="J199" s="1">
+        <v>584000</v>
+      </c>
+      <c r="K199" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G200">
+        <v>43</v>
+      </c>
+      <c r="H200" t="s">
+        <v>219</v>
+      </c>
+      <c r="I200" t="s">
+        <v>114</v>
+      </c>
+      <c r="J200" s="1">
+        <v>565000</v>
+      </c>
+      <c r="K200" s="1">
+        <v>1641000</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G201">
+        <v>44</v>
+      </c>
+      <c r="H201" t="s">
+        <v>220</v>
+      </c>
+      <c r="I201" t="s">
+        <v>80</v>
+      </c>
+      <c r="J201" s="1">
+        <v>524000</v>
+      </c>
+      <c r="K201" s="1">
+        <v>1051000</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G202">
+        <v>45</v>
+      </c>
+      <c r="H202" t="s">
+        <v>224</v>
+      </c>
+      <c r="I202" t="s">
+        <v>91</v>
+      </c>
+      <c r="J202" s="1">
+        <v>501000</v>
+      </c>
+      <c r="K202" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A204" t="s">
+        <v>138</v>
+      </c>
+      <c r="B204" t="s">
+        <v>139</v>
+      </c>
+      <c r="C204" t="s">
+        <v>126</v>
+      </c>
+      <c r="D204" t="s">
+        <v>140</v>
+      </c>
+      <c r="E204" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A205">
+        <v>1</v>
+      </c>
+      <c r="B205" t="s">
+        <v>205</v>
+      </c>
+      <c r="C205" t="s">
+        <v>87</v>
+      </c>
+      <c r="D205" s="1">
+        <v>10090000</v>
+      </c>
+      <c r="E205" s="1">
+        <v>23785000</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A206">
+        <v>2</v>
+      </c>
+      <c r="B206" t="s">
+        <v>143</v>
+      </c>
+      <c r="C206" t="s">
+        <v>100</v>
+      </c>
+      <c r="D206" s="1">
+        <v>5221000</v>
+      </c>
+      <c r="E206" s="1">
+        <v>15038000</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A207">
+        <v>3</v>
+      </c>
+      <c r="B207" t="s">
+        <v>144</v>
+      </c>
+      <c r="C207" t="s">
+        <v>93</v>
+      </c>
+      <c r="D207" s="1">
+        <v>4047000</v>
+      </c>
+      <c r="E207" s="1">
+        <v>10415000</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A208">
+        <v>4</v>
+      </c>
+      <c r="B208" t="s">
+        <v>145</v>
+      </c>
+      <c r="C208" t="s">
+        <v>78</v>
+      </c>
+      <c r="D208" s="1">
+        <v>2513000</v>
+      </c>
+      <c r="E208" s="1">
+        <v>7038000</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A209">
+        <v>5</v>
+      </c>
+      <c r="B209" t="s">
+        <v>146</v>
+      </c>
+      <c r="C209" t="s">
+        <v>82</v>
+      </c>
+      <c r="D209" s="1">
+        <v>2210000</v>
+      </c>
+      <c r="E209" s="1">
+        <v>6471000</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A210">
+        <v>6</v>
+      </c>
+      <c r="B210" t="s">
+        <v>147</v>
+      </c>
+      <c r="C210" t="s">
+        <v>86</v>
+      </c>
+      <c r="D210" s="1">
+        <v>2031000</v>
+      </c>
+      <c r="E210" s="1">
+        <v>7576000</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A211">
+        <v>7</v>
+      </c>
+      <c r="B211" t="s">
+        <v>148</v>
+      </c>
+      <c r="C211" t="s">
+        <v>92</v>
+      </c>
+      <c r="D211" s="1">
+        <v>1719000</v>
+      </c>
+      <c r="E211" s="1">
+        <v>6948000</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A212">
+        <v>8</v>
+      </c>
+      <c r="B212" t="s">
+        <v>206</v>
+      </c>
+      <c r="C212" t="s">
+        <v>150</v>
+      </c>
+      <c r="D212" s="1">
+        <v>1643000</v>
+      </c>
+      <c r="E212" s="1">
+        <v>9083000</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A213">
+        <v>9</v>
+      </c>
+      <c r="B213" t="s">
+        <v>151</v>
+      </c>
+      <c r="C213" t="s">
+        <v>98</v>
+      </c>
+      <c r="D213" s="1">
+        <v>1480000</v>
+      </c>
+      <c r="E213" s="1">
+        <v>6743000</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A214">
+        <v>10</v>
+      </c>
+      <c r="B214" t="s">
+        <v>152</v>
+      </c>
+      <c r="C214" t="s">
+        <v>104</v>
+      </c>
+      <c r="D214" s="1">
+        <v>1422000</v>
+      </c>
+      <c r="E214" s="1">
+        <v>5942000</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A215">
+        <v>11</v>
+      </c>
+      <c r="B215" t="s">
+        <v>153</v>
+      </c>
+      <c r="C215" t="s">
+        <v>87</v>
+      </c>
+      <c r="D215" s="1">
+        <v>1383000</v>
+      </c>
+      <c r="E215" s="1">
+        <v>4813000</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A216">
+        <v>12</v>
+      </c>
+      <c r="B216" t="s">
+        <v>154</v>
+      </c>
+      <c r="C216" t="s">
+        <v>38</v>
+      </c>
+      <c r="D216" s="1">
+        <v>1369000</v>
+      </c>
+      <c r="E216" s="1">
+        <v>4428000</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A217">
+        <v>13</v>
+      </c>
+      <c r="B217" t="s">
+        <v>155</v>
+      </c>
+      <c r="C217" t="s">
+        <v>93</v>
+      </c>
+      <c r="D217" s="1">
+        <v>1248000</v>
+      </c>
+      <c r="E217" s="1">
+        <v>3327000</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A218">
+        <v>14</v>
+      </c>
+      <c r="B218" t="s">
+        <v>156</v>
+      </c>
+      <c r="C218" t="s">
+        <v>91</v>
+      </c>
+      <c r="D218" s="1">
+        <v>1222000</v>
+      </c>
+      <c r="E218" s="1">
+        <v>3991000</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A219">
+        <v>15</v>
+      </c>
+      <c r="B219" t="s">
+        <v>238</v>
+      </c>
+      <c r="C219" t="s">
+        <v>114</v>
+      </c>
+      <c r="D219" s="1">
+        <v>1206000</v>
+      </c>
+      <c r="E219" s="1">
+        <v>5147000</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A220">
+        <v>16</v>
+      </c>
+      <c r="B220" t="s">
+        <v>157</v>
+      </c>
+      <c r="C220" t="s">
+        <v>96</v>
+      </c>
+      <c r="D220" s="1">
+        <v>1180000</v>
+      </c>
+      <c r="E220" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A221">
+        <v>17</v>
+      </c>
+      <c r="B221" t="s">
+        <v>199</v>
+      </c>
+      <c r="C221" t="s">
+        <v>101</v>
+      </c>
+      <c r="D221" s="1">
+        <v>1160000</v>
+      </c>
+      <c r="E221" s="1">
+        <v>2252000</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A222">
+        <v>18</v>
+      </c>
+      <c r="B222" t="s">
+        <v>159</v>
+      </c>
+      <c r="C222" t="s">
+        <v>78</v>
+      </c>
+      <c r="D222" s="1">
+        <v>1129000</v>
+      </c>
+      <c r="E222" s="1">
+        <v>3447000</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A223">
+        <v>19</v>
+      </c>
+      <c r="B223" t="s">
+        <v>162</v>
+      </c>
+      <c r="C223" t="s">
+        <v>84</v>
+      </c>
+      <c r="D223" s="1">
+        <v>1091000</v>
+      </c>
+      <c r="E223" s="1">
+        <v>6291000</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A224">
+        <v>20</v>
+      </c>
+      <c r="B224" t="s">
+        <v>240</v>
+      </c>
+      <c r="C224" t="s">
+        <v>80</v>
+      </c>
+      <c r="D224" s="1">
+        <v>1069000</v>
+      </c>
+      <c r="E224" s="1">
+        <v>4405000</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A225">
+        <v>21</v>
+      </c>
+      <c r="B225" t="s">
+        <v>200</v>
+      </c>
+      <c r="C225" t="s">
+        <v>103</v>
+      </c>
+      <c r="D225" s="1">
+        <v>1044000</v>
+      </c>
+      <c r="E225" s="1">
+        <v>1836000</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A226">
+        <v>22</v>
+      </c>
+      <c r="B226" t="s">
+        <v>241</v>
+      </c>
+      <c r="C226" t="s">
+        <v>79</v>
+      </c>
+      <c r="D226" s="1">
+        <v>1021000</v>
+      </c>
+      <c r="E226" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A227">
+        <v>23</v>
+      </c>
+      <c r="B227" t="s">
+        <v>243</v>
+      </c>
+      <c r="C227" t="s">
+        <v>86</v>
+      </c>
+      <c r="D227" s="1">
+        <v>1001000</v>
+      </c>
+      <c r="E227" s="1">
+        <v>4940000</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A228">
+        <v>24</v>
+      </c>
+      <c r="B228" t="s">
+        <v>244</v>
+      </c>
+      <c r="C228" t="s">
+        <v>94</v>
+      </c>
+      <c r="D228" s="1">
+        <v>983000</v>
+      </c>
+      <c r="E228" s="1">
+        <v>2297000</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A229">
+        <v>25</v>
+      </c>
+      <c r="B229" t="s">
+        <v>227</v>
+      </c>
+      <c r="C229" t="s">
+        <v>94</v>
+      </c>
+      <c r="D229" s="1">
+        <v>925000</v>
+      </c>
+      <c r="E229" s="1">
+        <v>2929000</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A230">
+        <v>26</v>
+      </c>
+      <c r="B230" t="s">
+        <v>228</v>
+      </c>
+      <c r="C230" t="s">
+        <v>99</v>
+      </c>
+      <c r="D230" s="1">
+        <v>903000</v>
+      </c>
+      <c r="E230" s="1">
+        <v>3562000</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A231">
+        <v>27</v>
+      </c>
+      <c r="B231" t="s">
+        <v>229</v>
+      </c>
+      <c r="C231" t="s">
+        <v>98</v>
+      </c>
+      <c r="D231" s="1">
+        <v>891000</v>
+      </c>
+      <c r="E231" s="1">
+        <v>3421000</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A232">
+        <v>28</v>
+      </c>
+      <c r="B232" t="s">
+        <v>194</v>
+      </c>
+      <c r="C232" t="s">
+        <v>115</v>
+      </c>
+      <c r="D232" s="1">
+        <v>877000</v>
+      </c>
+      <c r="E232" s="1">
+        <v>2473000</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A233">
+        <v>29</v>
+      </c>
+      <c r="B233" t="s">
+        <v>214</v>
+      </c>
+      <c r="C233" t="s">
+        <v>95</v>
+      </c>
+      <c r="D233" s="1">
+        <v>851000</v>
+      </c>
+      <c r="E233" s="1">
+        <v>2329000</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A234">
+        <v>30</v>
+      </c>
+      <c r="B234" t="s">
+        <v>203</v>
+      </c>
+      <c r="C234" t="s">
+        <v>103</v>
+      </c>
+      <c r="D234" s="1">
+        <v>824000</v>
+      </c>
+      <c r="E234" s="1">
+        <v>1651000</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A235">
+        <v>31</v>
+      </c>
+      <c r="B235" t="s">
+        <v>204</v>
+      </c>
+      <c r="C235" t="s">
+        <v>195</v>
+      </c>
+      <c r="D235" s="1">
+        <v>802000</v>
+      </c>
+      <c r="E235" s="1">
+        <v>2547000</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A236">
+        <v>32</v>
+      </c>
+      <c r="B236" t="s">
+        <v>164</v>
+      </c>
+      <c r="C236" t="s">
+        <v>100</v>
+      </c>
+      <c r="D236" s="1">
+        <v>788000</v>
+      </c>
+      <c r="E236" s="1">
+        <v>5312000</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A237">
+        <v>33</v>
+      </c>
+      <c r="B237" t="s">
+        <v>165</v>
+      </c>
+      <c r="C237" t="s">
+        <v>83</v>
+      </c>
+      <c r="D237" s="1">
+        <v>765000</v>
+      </c>
+      <c r="E237" s="1">
+        <v>1252000</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A238">
+        <v>34</v>
+      </c>
+      <c r="B238" t="s">
+        <v>158</v>
+      </c>
+      <c r="C238" t="s">
+        <v>101</v>
+      </c>
+      <c r="D238" s="1">
+        <v>741000</v>
+      </c>
+      <c r="E238" s="1">
+        <v>1782000</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A239">
+        <v>35</v>
+      </c>
+      <c r="B239" t="s">
+        <v>166</v>
+      </c>
+      <c r="C239" t="s">
+        <v>93</v>
+      </c>
+      <c r="D239" s="1">
+        <v>729000</v>
+      </c>
+      <c r="E239" s="1">
+        <v>2175000</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A240">
+        <v>36</v>
+      </c>
+      <c r="B240" t="s">
+        <v>168</v>
+      </c>
+      <c r="C240" t="s">
         <v>88</v>
       </c>
-      <c r="J196" s="1">
+      <c r="D240" s="1">
         <v>701000</v>
       </c>
-      <c r="K196" s="1">
+      <c r="E240" s="1">
         <v>2461000</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G197">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A241">
         <v>37</v>
       </c>
-      <c r="H197" t="s">
+      <c r="B241" t="s">
+        <v>215</v>
+      </c>
+      <c r="C241" t="s">
+        <v>107</v>
+      </c>
+      <c r="D241" s="1">
+        <v>682000</v>
+      </c>
+      <c r="E241" s="1">
+        <v>1221000</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A242">
+        <v>38</v>
+      </c>
+      <c r="B242" t="s">
         <v>216</v>
       </c>
-      <c r="I197" t="s">
-        <v>108</v>
-      </c>
-      <c r="J197" s="1">
-        <v>682000</v>
-      </c>
-      <c r="K197" s="1">
-        <v>1221000</v>
-      </c>
-    </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G198">
-        <v>38</v>
-      </c>
-      <c r="H198" t="s">
-        <v>217</v>
-      </c>
-      <c r="I198" t="s">
+      <c r="C242" t="s">
         <v>98</v>
       </c>
-      <c r="J198" s="1">
+      <c r="D242" s="1">
         <v>668000</v>
       </c>
-      <c r="K198" s="1">
-        <v>1614000</v>
-      </c>
-    </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G199">
+      <c r="E242" s="1">
+        <v>1814000</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A243">
         <v>39</v>
-      </c>
-      <c r="H199" t="s">
-        <v>170</v>
-      </c>
-      <c r="I199" t="s">
-        <v>94</v>
-      </c>
-      <c r="J199" s="1">
-        <v>656000</v>
-      </c>
-      <c r="K199" s="1">
-        <v>1567000</v>
-      </c>
-    </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G200">
-        <v>40</v>
-      </c>
-      <c r="H200" t="s">
-        <v>218</v>
-      </c>
-      <c r="I200" t="s">
-        <v>196</v>
-      </c>
-      <c r="J200" s="1">
-        <v>634000</v>
-      </c>
-      <c r="K200" s="1">
-        <v>1341000</v>
-      </c>
-    </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G201">
-        <v>41</v>
-      </c>
-      <c r="H201" t="s">
-        <v>202</v>
-      </c>
-      <c r="I201" t="s">
-        <v>203</v>
-      </c>
-      <c r="J201" s="1">
-        <v>613000</v>
-      </c>
-      <c r="K201" s="1">
-        <v>1248000</v>
-      </c>
-    </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G202">
-        <v>42</v>
-      </c>
-      <c r="H202" t="s">
-        <v>219</v>
-      </c>
-      <c r="I202" t="s">
-        <v>79</v>
-      </c>
-      <c r="J202" s="1">
-        <v>584000</v>
-      </c>
-      <c r="K202" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G203">
-        <v>43</v>
-      </c>
-      <c r="H203" t="s">
-        <v>220</v>
-      </c>
-      <c r="I203" t="s">
-        <v>115</v>
-      </c>
-      <c r="J203" s="1">
-        <v>565000</v>
-      </c>
-      <c r="K203" s="1">
-        <v>1641000</v>
-      </c>
-    </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G204">
-        <v>44</v>
-      </c>
-      <c r="H204" t="s">
-        <v>221</v>
-      </c>
-      <c r="I204" t="s">
-        <v>80</v>
-      </c>
-      <c r="J204" s="1">
-        <v>524000</v>
-      </c>
-      <c r="K204" s="1">
-        <v>1051000</v>
-      </c>
-    </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G205">
-        <v>45</v>
-      </c>
-      <c r="H205" t="s">
-        <v>225</v>
-      </c>
-      <c r="I205" t="s">
-        <v>91</v>
-      </c>
-      <c r="J205" s="1">
-        <v>501000</v>
-      </c>
-      <c r="K205" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
-        <v>139</v>
-      </c>
-      <c r="B207" t="s">
-        <v>140</v>
-      </c>
-      <c r="C207" t="s">
-        <v>127</v>
-      </c>
-      <c r="D207" t="s">
-        <v>141</v>
-      </c>
-      <c r="E207" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A208">
-        <v>1</v>
-      </c>
-      <c r="B208" t="s">
-        <v>206</v>
-      </c>
-      <c r="C208" t="s">
-        <v>87</v>
-      </c>
-      <c r="D208" s="1">
-        <v>10090000</v>
-      </c>
-      <c r="E208" s="1">
-        <v>23785000</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A209">
-        <v>2</v>
-      </c>
-      <c r="B209" t="s">
-        <v>144</v>
-      </c>
-      <c r="C209" t="s">
-        <v>100</v>
-      </c>
-      <c r="D209" s="1">
-        <v>5221000</v>
-      </c>
-      <c r="E209" s="1">
-        <v>15038000</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A210">
-        <v>3</v>
-      </c>
-      <c r="B210" t="s">
-        <v>145</v>
-      </c>
-      <c r="C210" t="s">
-        <v>93</v>
-      </c>
-      <c r="D210" s="1">
-        <v>4047000</v>
-      </c>
-      <c r="E210" s="1">
-        <v>10415000</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A211">
-        <v>4</v>
-      </c>
-      <c r="B211" t="s">
-        <v>146</v>
-      </c>
-      <c r="C211" t="s">
-        <v>78</v>
-      </c>
-      <c r="D211" s="1">
-        <v>2513000</v>
-      </c>
-      <c r="E211" s="1">
-        <v>7038000</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A212">
-        <v>5</v>
-      </c>
-      <c r="B212" t="s">
-        <v>147</v>
-      </c>
-      <c r="C212" t="s">
-        <v>82</v>
-      </c>
-      <c r="D212" s="1">
-        <v>2210000</v>
-      </c>
-      <c r="E212" s="1">
-        <v>6471000</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A213">
-        <v>6</v>
-      </c>
-      <c r="B213" t="s">
-        <v>148</v>
-      </c>
-      <c r="C213" t="s">
-        <v>86</v>
-      </c>
-      <c r="D213" s="1">
-        <v>2031000</v>
-      </c>
-      <c r="E213" s="1">
-        <v>7576000</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A214">
-        <v>7</v>
-      </c>
-      <c r="B214" t="s">
-        <v>149</v>
-      </c>
-      <c r="C214" t="s">
-        <v>92</v>
-      </c>
-      <c r="D214" s="1">
-        <v>1719000</v>
-      </c>
-      <c r="E214" s="1">
-        <v>6948000</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A215">
-        <v>8</v>
-      </c>
-      <c r="B215" t="s">
-        <v>207</v>
-      </c>
-      <c r="C215" t="s">
-        <v>151</v>
-      </c>
-      <c r="D215" s="1">
-        <v>1643000</v>
-      </c>
-      <c r="E215" s="1">
-        <v>9083000</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A216">
-        <v>9</v>
-      </c>
-      <c r="B216" t="s">
-        <v>152</v>
-      </c>
-      <c r="C216" t="s">
-        <v>98</v>
-      </c>
-      <c r="D216" s="1">
-        <v>1480000</v>
-      </c>
-      <c r="E216" s="1">
-        <v>6743000</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A217">
-        <v>10</v>
-      </c>
-      <c r="B217" t="s">
-        <v>153</v>
-      </c>
-      <c r="C217" t="s">
-        <v>104</v>
-      </c>
-      <c r="D217" s="1">
-        <v>1422000</v>
-      </c>
-      <c r="E217" s="1">
-        <v>5942000</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A218">
-        <v>11</v>
-      </c>
-      <c r="B218" t="s">
-        <v>154</v>
-      </c>
-      <c r="C218" t="s">
-        <v>87</v>
-      </c>
-      <c r="D218" s="1">
-        <v>1383000</v>
-      </c>
-      <c r="E218" s="1">
-        <v>4813000</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A219">
-        <v>12</v>
-      </c>
-      <c r="B219" t="s">
-        <v>155</v>
-      </c>
-      <c r="C219" t="s">
-        <v>38</v>
-      </c>
-      <c r="D219" s="1">
-        <v>1369000</v>
-      </c>
-      <c r="E219" s="1">
-        <v>4428000</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A220">
-        <v>13</v>
-      </c>
-      <c r="B220" t="s">
-        <v>156</v>
-      </c>
-      <c r="C220" t="s">
-        <v>93</v>
-      </c>
-      <c r="D220" s="1">
-        <v>1248000</v>
-      </c>
-      <c r="E220" s="1">
-        <v>3327000</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A221">
-        <v>14</v>
-      </c>
-      <c r="B221" t="s">
-        <v>157</v>
-      </c>
-      <c r="C221" t="s">
-        <v>91</v>
-      </c>
-      <c r="D221" s="1">
-        <v>1222000</v>
-      </c>
-      <c r="E221" s="1">
-        <v>3991000</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A222">
-        <v>15</v>
-      </c>
-      <c r="B222" t="s">
-        <v>239</v>
-      </c>
-      <c r="C222" t="s">
-        <v>115</v>
-      </c>
-      <c r="D222" s="1">
-        <v>1206000</v>
-      </c>
-      <c r="E222" s="1">
-        <v>5147000</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A223">
-        <v>16</v>
-      </c>
-      <c r="B223" t="s">
-        <v>158</v>
-      </c>
-      <c r="C223" t="s">
-        <v>96</v>
-      </c>
-      <c r="D223" s="1">
-        <v>1180000</v>
-      </c>
-      <c r="E223" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A224">
-        <v>17</v>
-      </c>
-      <c r="B224" t="s">
-        <v>200</v>
-      </c>
-      <c r="C224" t="s">
-        <v>101</v>
-      </c>
-      <c r="D224" s="1">
-        <v>1160000</v>
-      </c>
-      <c r="E224" s="1">
-        <v>2252000</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A225">
-        <v>18</v>
-      </c>
-      <c r="B225" t="s">
-        <v>160</v>
-      </c>
-      <c r="C225" t="s">
-        <v>78</v>
-      </c>
-      <c r="D225" s="1">
-        <v>1129000</v>
-      </c>
-      <c r="E225" s="1">
-        <v>3447000</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A226">
-        <v>19</v>
-      </c>
-      <c r="B226" t="s">
-        <v>163</v>
-      </c>
-      <c r="C226" t="s">
-        <v>84</v>
-      </c>
-      <c r="D226" s="1">
-        <v>1091000</v>
-      </c>
-      <c r="E226" s="1">
-        <v>6291000</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A227">
-        <v>20</v>
-      </c>
-      <c r="B227" t="s">
-        <v>241</v>
-      </c>
-      <c r="C227" t="s">
-        <v>80</v>
-      </c>
-      <c r="D227" s="1">
-        <v>1069000</v>
-      </c>
-      <c r="E227" s="1">
-        <v>4405000</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A228">
-        <v>21</v>
-      </c>
-      <c r="B228" t="s">
-        <v>201</v>
-      </c>
-      <c r="C228" t="s">
-        <v>103</v>
-      </c>
-      <c r="D228" s="1">
-        <v>1044000</v>
-      </c>
-      <c r="E228" s="1">
-        <v>1836000</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A229">
-        <v>22</v>
-      </c>
-      <c r="B229" t="s">
-        <v>242</v>
-      </c>
-      <c r="C229" t="s">
-        <v>79</v>
-      </c>
-      <c r="D229" s="1">
-        <v>1021000</v>
-      </c>
-      <c r="E229" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A230">
-        <v>23</v>
-      </c>
-      <c r="B230" t="s">
-        <v>244</v>
-      </c>
-      <c r="C230" t="s">
-        <v>86</v>
-      </c>
-      <c r="D230" s="1">
-        <v>1001000</v>
-      </c>
-      <c r="E230" s="1">
-        <v>4940000</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A231">
-        <v>24</v>
-      </c>
-      <c r="B231" t="s">
-        <v>245</v>
-      </c>
-      <c r="C231" t="s">
-        <v>94</v>
-      </c>
-      <c r="D231" s="1">
-        <v>983000</v>
-      </c>
-      <c r="E231" s="1">
-        <v>2297000</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A232">
-        <v>25</v>
-      </c>
-      <c r="B232" t="s">
-        <v>228</v>
-      </c>
-      <c r="C232" t="s">
-        <v>94</v>
-      </c>
-      <c r="D232" s="1">
-        <v>925000</v>
-      </c>
-      <c r="E232" s="1">
-        <v>2929000</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A233">
-        <v>26</v>
-      </c>
-      <c r="B233" t="s">
-        <v>229</v>
-      </c>
-      <c r="C233" t="s">
-        <v>99</v>
-      </c>
-      <c r="D233" s="1">
-        <v>903000</v>
-      </c>
-      <c r="E233" s="1">
-        <v>3562000</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A234">
-        <v>27</v>
-      </c>
-      <c r="B234" t="s">
-        <v>230</v>
-      </c>
-      <c r="C234" t="s">
-        <v>98</v>
-      </c>
-      <c r="D234" s="1">
-        <v>891000</v>
-      </c>
-      <c r="E234" s="1">
-        <v>3421000</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A235">
-        <v>28</v>
-      </c>
-      <c r="B235" t="s">
-        <v>195</v>
-      </c>
-      <c r="C235" t="s">
-        <v>116</v>
-      </c>
-      <c r="D235" s="1">
-        <v>877000</v>
-      </c>
-      <c r="E235" s="1">
-        <v>2473000</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A236">
-        <v>29</v>
-      </c>
-      <c r="B236" t="s">
-        <v>215</v>
-      </c>
-      <c r="C236" t="s">
-        <v>95</v>
-      </c>
-      <c r="D236" s="1">
-        <v>851000</v>
-      </c>
-      <c r="E236" s="1">
-        <v>2329000</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A237">
-        <v>30</v>
-      </c>
-      <c r="B237" t="s">
-        <v>204</v>
-      </c>
-      <c r="C237" t="s">
-        <v>103</v>
-      </c>
-      <c r="D237" s="1">
-        <v>824000</v>
-      </c>
-      <c r="E237" s="1">
-        <v>1651000</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A238">
-        <v>31</v>
-      </c>
-      <c r="B238" t="s">
-        <v>205</v>
-      </c>
-      <c r="C238" t="s">
-        <v>196</v>
-      </c>
-      <c r="D238" s="1">
-        <v>802000</v>
-      </c>
-      <c r="E238" s="1">
-        <v>2547000</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A239">
-        <v>32</v>
-      </c>
-      <c r="B239" t="s">
-        <v>165</v>
-      </c>
-      <c r="C239" t="s">
-        <v>100</v>
-      </c>
-      <c r="D239" s="1">
-        <v>788000</v>
-      </c>
-      <c r="E239" s="1">
-        <v>5312000</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A240">
-        <v>33</v>
-      </c>
-      <c r="B240" t="s">
-        <v>166</v>
-      </c>
-      <c r="C240" t="s">
-        <v>83</v>
-      </c>
-      <c r="D240" s="1">
-        <v>765000</v>
-      </c>
-      <c r="E240" s="1">
-        <v>1252000</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A241">
-        <v>34</v>
-      </c>
-      <c r="B241" t="s">
-        <v>159</v>
-      </c>
-      <c r="C241" t="s">
-        <v>101</v>
-      </c>
-      <c r="D241" s="1">
-        <v>741000</v>
-      </c>
-      <c r="E241" s="1">
-        <v>1782000</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A242">
-        <v>35</v>
-      </c>
-      <c r="B242" t="s">
-        <v>167</v>
-      </c>
-      <c r="C242" t="s">
-        <v>93</v>
-      </c>
-      <c r="D242" s="1">
-        <v>729000</v>
-      </c>
-      <c r="E242" s="1">
-        <v>2175000</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A243">
-        <v>36</v>
       </c>
       <c r="B243" t="s">
         <v>169</v>
       </c>
       <c r="C243" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="D243" s="1">
-        <v>701000</v>
+        <v>656000</v>
       </c>
       <c r="E243" s="1">
-        <v>2461000</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1567000</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A244">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B244" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C244" t="s">
-        <v>108</v>
+        <v>195</v>
       </c>
       <c r="D244" s="1">
-        <v>682000</v>
+        <v>634000</v>
       </c>
       <c r="E244" s="1">
-        <v>1221000</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1341000</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A245">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B245" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="C245" t="s">
-        <v>98</v>
+        <v>202</v>
       </c>
       <c r="D245" s="1">
-        <v>668000</v>
+        <v>613000</v>
       </c>
       <c r="E245" s="1">
-        <v>1814000</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1248000</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A246">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B246" t="s">
-        <v>170</v>
+        <v>230</v>
       </c>
       <c r="C246" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D246" s="1">
-        <v>656000</v>
+        <v>606000</v>
       </c>
       <c r="E246" s="1">
-        <v>1567000</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1638000</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A247">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B247" t="s">
         <v>218</v>
       </c>
       <c r="C247" t="s">
-        <v>196</v>
+        <v>79</v>
       </c>
       <c r="D247" s="1">
-        <v>634000</v>
-      </c>
-      <c r="E247" s="1">
-        <v>1341000</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+        <v>584000</v>
+      </c>
+      <c r="E247" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A248">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B248" t="s">
-        <v>202</v>
+        <v>231</v>
       </c>
       <c r="C248" t="s">
-        <v>203</v>
+        <v>114</v>
       </c>
       <c r="D248" s="1">
-        <v>613000</v>
+        <v>565000</v>
       </c>
       <c r="E248" s="1">
-        <v>1248000</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1641000</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A249">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B249" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="C249" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D249" s="1">
-        <v>606000</v>
+        <v>524000</v>
       </c>
       <c r="E249" s="1">
-        <v>1638000</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1051000</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A250">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B250" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C250" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="D250" s="1">
-        <v>584000</v>
+        <v>501000</v>
       </c>
       <c r="E250" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A251">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B251" t="s">
         <v>232</v>
       </c>
       <c r="C251" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="D251" s="1">
-        <v>565000</v>
+        <v>479000</v>
       </c>
       <c r="E251" s="1">
-        <v>1641000</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+        <v>993000</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A252">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B252" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="C252" t="s">
-        <v>80</v>
+        <v>234</v>
       </c>
       <c r="D252" s="1">
-        <v>524000</v>
-      </c>
-      <c r="E252" s="1">
-        <v>1051000</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+        <v>460000</v>
+      </c>
+      <c r="E252" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A253">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B253" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="C253" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D253" s="1">
-        <v>501000</v>
-      </c>
-      <c r="E253" t="s">
+        <v>447000</v>
+      </c>
+      <c r="E253" s="1">
+        <v>934000</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A254">
+        <v>50</v>
+      </c>
+      <c r="B254" t="s">
+        <v>237</v>
+      </c>
+      <c r="C254" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A254">
-        <v>47</v>
-      </c>
-      <c r="B254" t="s">
-        <v>233</v>
-      </c>
-      <c r="C254" t="s">
-        <v>91</v>
-      </c>
       <c r="D254" s="1">
-        <v>479000</v>
+        <v>429000</v>
       </c>
       <c r="E254" s="1">
-        <v>993000</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A255">
-        <v>48</v>
-      </c>
-      <c r="B255" t="s">
-        <v>234</v>
-      </c>
-      <c r="C255" t="s">
-        <v>235</v>
-      </c>
-      <c r="D255" s="1">
-        <v>460000</v>
-      </c>
-      <c r="E255" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A256">
-        <v>49</v>
-      </c>
-      <c r="B256" t="s">
-        <v>237</v>
-      </c>
-      <c r="C256" t="s">
-        <v>88</v>
-      </c>
-      <c r="D256" s="1">
-        <v>447000</v>
-      </c>
-      <c r="E256" s="1">
-        <v>934000</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A257">
-        <v>50</v>
-      </c>
-      <c r="B257" t="s">
-        <v>238</v>
-      </c>
-      <c r="C257" t="s">
-        <v>227</v>
-      </c>
-      <c r="D257" s="1">
-        <v>429000</v>
-      </c>
-      <c r="E257" s="1">
         <v>670000</v>
       </c>
     </row>
@@ -6454,109 +6407,109 @@
       <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.83984375" customWidth="1"/>
+    <col min="4" max="4" width="10.41796875" customWidth="1"/>
+    <col min="5" max="5" width="10.578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.83984375" customWidth="1"/>
+    <col min="11" max="11" width="10.41796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
         <v>128</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>129</v>
       </c>
       <c r="B2" s="1">
         <v>1054549</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="D4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E4" s="1">
         <v>9833520</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="D5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E5" s="11">
         <f>'united states'!C32</f>
         <v>4617194.6016363995</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H6" s="11">
         <f>380800-'united states'!G12</f>
         <v>77351.813000000024</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H7">
         <f>253335-10920-12780-5040</f>
         <v>224595</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H8" s="1">
         <v>254806</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H9" s="1">
         <f>184827-'united states'!G27</f>
         <v>165137</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="D10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E10" s="15">
         <f>SUM(H6:H9)</f>
         <v>721889.81300000008</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="D11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E11" s="15">
         <f>SUM('united states'!C30:C31)</f>
         <v>13129.141</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B12" s="19">
         <f>E4-SUM(E5:E11)</f>
         <v>4481306.4443636006</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A13" s="17" t="s">
         <v>22</v>
       </c>
@@ -6565,24 +6518,24 @@
         <v>5535855.4443636006</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C15" t="s">
         <v>63</v>
       </c>
       <c r="K15" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C16" s="1">
         <f>K16+1800000</f>
@@ -6593,12 +6546,12 @@
         <v>12046000</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C17" s="1">
         <f>K17+2000000</f>
@@ -6609,12 +6562,12 @@
         <v>4602000</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C18" s="11">
         <f>K18*(1.5)</f>
@@ -6625,12 +6578,12 @@
         <v>7524000</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C19" s="1">
         <f>K19+7000000</f>
@@ -6641,48 +6594,48 @@
         <v>4924000</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C20" s="1">
         <v>1521000</v>
       </c>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C21" s="1">
         <v>221000</v>
       </c>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C22" s="1">
         <v>628000</v>
       </c>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
         <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C23" s="11">
         <f>K23*1.5-SUM(C21:C22)</f>
@@ -6693,12 +6646,12 @@
         <v>9416000</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
         <v>9</v>
       </c>
       <c r="B24" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C24" s="11">
         <f>K24+1500000</f>
@@ -6709,51 +6662,51 @@
         <v>7393000</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
         <v>10</v>
       </c>
       <c r="B25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C25" s="1">
         <v>2341000</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C26" s="1">
         <v>1567000</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
         <v>12</v>
       </c>
       <c r="B27" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C27" s="1">
         <v>234000</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
         <v>13</v>
       </c>
       <c r="B28" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C28" s="1">
         <v>1624000</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A29" s="4"/>
       <c r="B29" s="4" t="s">
         <v>22</v>
@@ -6771,8 +6724,8 @@
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
     </row>
-    <row r="30" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>64</v>
       </c>
@@ -6781,32 +6734,32 @@
         <v>13.360536730652047</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
+        <v>138</v>
+      </c>
+      <c r="B33" t="s">
         <v>139</v>
       </c>
-      <c r="B33" t="s">
-        <v>140</v>
-      </c>
       <c r="C33" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D33" t="s">
         <v>63</v>
       </c>
       <c r="E33" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
         <v>1</v>
       </c>
       <c r="B34" t="s">
+        <v>173</v>
+      </c>
+      <c r="C34" t="s">
         <v>174</v>
-      </c>
-      <c r="C34" t="s">
-        <v>175</v>
       </c>
       <c r="D34" s="1">
         <v>5221000</v>
@@ -6815,15 +6768,15 @@
         <v>12046000</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
         <v>2</v>
       </c>
       <c r="B35" t="s">
+        <v>175</v>
+      </c>
+      <c r="C35" t="s">
         <v>176</v>
-      </c>
-      <c r="C35" t="s">
-        <v>177</v>
       </c>
       <c r="D35" s="1">
         <v>3270000</v>
@@ -6832,15 +6785,15 @@
         <v>7524000</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
         <v>3</v>
       </c>
       <c r="B36" t="s">
+        <v>177</v>
+      </c>
+      <c r="C36" t="s">
         <v>178</v>
-      </c>
-      <c r="C36" t="s">
-        <v>179</v>
       </c>
       <c r="D36" s="1">
         <v>2769000</v>
@@ -6849,15 +6802,15 @@
         <v>5435000</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A37">
         <v>4</v>
       </c>
       <c r="B37" t="s">
+        <v>179</v>
+      </c>
+      <c r="C37" t="s">
         <v>180</v>
-      </c>
-      <c r="C37" t="s">
-        <v>181</v>
       </c>
       <c r="D37" s="1">
         <v>2534000</v>
@@ -6866,15 +6819,15 @@
         <v>4924000</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
         <v>5</v>
       </c>
       <c r="B38" t="s">
+        <v>181</v>
+      </c>
+      <c r="C38" t="s">
         <v>182</v>
-      </c>
-      <c r="C38" t="s">
-        <v>183</v>
       </c>
       <c r="D38" s="1">
         <v>2150000</v>
@@ -6883,15 +6836,15 @@
         <v>4602000</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
         <v>6</v>
       </c>
       <c r="B39" t="s">
+        <v>183</v>
+      </c>
+      <c r="C39" t="s">
         <v>184</v>
-      </c>
-      <c r="C39" t="s">
-        <v>185</v>
       </c>
       <c r="D39" s="1">
         <v>1623000</v>
@@ -6900,15 +6853,15 @@
         <v>2912000</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A40">
         <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C40" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D40" s="1">
         <v>1408000</v>
@@ -6917,15 +6870,15 @@
         <v>2705000</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A41">
         <v>8</v>
       </c>
       <c r="B41" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C41" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D41" s="1">
         <v>1251000</v>
@@ -6934,15 +6887,15 @@
         <v>2396000</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A42">
         <v>9</v>
       </c>
       <c r="B42" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C42" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D42" s="1">
         <v>1115000</v>
@@ -6951,15 +6904,15 @@
         <v>1958000</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A43">
         <v>10</v>
       </c>
       <c r="B43" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C43" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D43" s="1">
         <v>1059000</v>

--- a/obsidian-notes/spreadsheets/area.xlsx
+++ b/obsidian-notes/spreadsheets/area.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sharm\iCloudDrive\iCloud~md~obsidian\Ishan's notes\Spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF7B4EE2-277E-4582-9EE0-C42425D70F56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABA73963-1DB8-41F6-AEC1-E7FA1AAF36DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" activeTab="2" xr2:uid="{94B94BC7-FBC8-4BAC-A974-CA3E4662C848}"/>
   </bookViews>
@@ -2040,8 +2040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C745E12-030D-4421-A6DC-982053D4A77E}">
   <dimension ref="A1:L254"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="D97" sqref="D97"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="J87" sqref="J87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -4075,6 +4075,12 @@
       <c r="C86" s="12">
         <f>$C$84/C32</f>
         <v>68.301431325470134</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="J87" s="1">
+        <f>C80+C82+C83</f>
+        <v>2058000</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.55000000000000004">

--- a/obsidian-notes/spreadsheets/area.xlsx
+++ b/obsidian-notes/spreadsheets/area.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sharm\iCloudDrive\iCloud~md~obsidian\Ishan's notes\Spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABA73963-1DB8-41F6-AEC1-E7FA1AAF36DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8DD8193F-54BE-4729-B249-060788566C09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" activeTab="2" xr2:uid="{94B94BC7-FBC8-4BAC-A974-CA3E4662C848}"/>
   </bookViews>
@@ -2040,8 +2040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C745E12-030D-4421-A6DC-982053D4A77E}">
   <dimension ref="A1:L254"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="J87" sqref="J87"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="H87" sqref="H87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2451,7 +2451,7 @@
       </c>
       <c r="B34" s="12">
         <f>C84^(1/3)</f>
-        <v>680.66903588389926</v>
+        <v>680.3451246917125</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -2468,7 +2468,7 @@
       </c>
       <c r="B36" s="15">
         <f>C84/B35</f>
-        <v>467201.48148148146</v>
+        <v>466534.81481481483</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -2477,7 +2477,7 @@
       </c>
       <c r="B37" s="15">
         <f>B36+C37</f>
-        <v>469201.48148148146</v>
+        <v>468534.81481481483</v>
       </c>
       <c r="C37">
         <v>2000</v>
@@ -2530,7 +2530,7 @@
       <c r="D41" s="23"/>
       <c r="E41" s="24">
         <f t="shared" ref="E41:E82" si="0">C41/$B$37</f>
-        <v>3.2374151829270219</v>
+        <v>3.2420216213823392</v>
       </c>
       <c r="F41" s="25">
         <f t="shared" ref="F41:F83" si="1">FLOOR(E41,1)</f>
@@ -2568,7 +2568,7 @@
       <c r="D42" s="1"/>
       <c r="E42" s="12">
         <f t="shared" si="0"/>
-        <v>33.320440401501685</v>
+        <v>33.367851236794927</v>
       </c>
       <c r="F42" s="15">
         <f t="shared" si="1"/>
@@ -2604,7 +2604,7 @@
       <c r="D43" s="23"/>
       <c r="E43" s="24">
         <f t="shared" si="0"/>
-        <v>25.867352254894843</v>
+        <v>25.904158274336702</v>
       </c>
       <c r="F43" s="25">
         <f t="shared" si="1"/>
@@ -2642,7 +2642,7 @@
       <c r="D44" s="1"/>
       <c r="E44" s="12">
         <f t="shared" si="0"/>
-        <v>24.533170619271196</v>
+        <v>24.568078264471431</v>
       </c>
       <c r="F44" s="15">
         <f t="shared" si="1"/>
@@ -2678,7 +2678,7 @@
       <c r="D45" s="23"/>
       <c r="E45" s="24">
         <f t="shared" si="0"/>
-        <v>7.7706489512520882</v>
+        <v>7.7817056165635341</v>
       </c>
       <c r="F45" s="25">
         <f t="shared" si="1"/>
@@ -2716,7 +2716,7 @@
       <c r="D46" s="1"/>
       <c r="E46" s="12">
         <f t="shared" si="0"/>
-        <v>18.505909172715821</v>
+        <v>18.532240775814913</v>
       </c>
       <c r="F46" s="15">
         <f t="shared" si="1"/>
@@ -2752,7 +2752,7 @@
       <c r="D47" s="23"/>
       <c r="E47" s="24">
         <f t="shared" si="0"/>
-        <v>10.181127273760621</v>
+        <v>10.195613749403183</v>
       </c>
       <c r="F47" s="25">
         <f t="shared" si="1"/>
@@ -2790,7 +2790,7 @@
       <c r="D48" s="1"/>
       <c r="E48" s="12">
         <f t="shared" si="0"/>
-        <v>19.433016219834489</v>
+        <v>19.460666980753238</v>
       </c>
       <c r="F48" s="15">
         <f t="shared" si="1"/>
@@ -2826,7 +2826,7 @@
       <c r="D49" s="23"/>
       <c r="E49" s="24">
         <f t="shared" si="0"/>
-        <v>3.2906971971292442</v>
+        <v>3.295379449252358</v>
       </c>
       <c r="F49" s="25">
         <f t="shared" si="1"/>
@@ -2864,7 +2864,7 @@
       <c r="D50" s="1"/>
       <c r="E50" s="12">
         <f t="shared" si="0"/>
-        <v>37.3847924448472</v>
+        <v>37.437986346719953</v>
       </c>
       <c r="F50" s="15">
         <f t="shared" si="1"/>
@@ -2900,7 +2900,7 @@
       <c r="D51" s="23"/>
       <c r="E51" s="24">
         <f t="shared" si="0"/>
-        <v>85.760598779328788</v>
+        <v>85.882625426467371</v>
       </c>
       <c r="F51" s="25">
         <f t="shared" si="1"/>
@@ -2938,7 +2938,7 @@
       <c r="D52" s="1"/>
       <c r="E52" s="12">
         <f t="shared" si="0"/>
-        <v>24.533170619271196</v>
+        <v>24.568078264471431</v>
       </c>
       <c r="F52" s="15">
         <f t="shared" si="1"/>
@@ -2974,7 +2974,7 @@
       <c r="D53" s="23"/>
       <c r="E53" s="24">
         <f t="shared" si="0"/>
-        <v>2.3401460637615998</v>
+        <v>2.3434758000512232</v>
       </c>
       <c r="F53" s="25">
         <f t="shared" si="1"/>
@@ -3012,7 +3012,7 @@
       <c r="D54" s="1"/>
       <c r="E54" s="12">
         <f t="shared" si="0"/>
-        <v>1.3789385275535111</v>
+        <v>1.3809005852760852</v>
       </c>
       <c r="F54" s="15">
         <f t="shared" si="1"/>
@@ -3040,7 +3040,7 @@
       <c r="D55" s="23"/>
       <c r="E55" s="24">
         <f t="shared" si="0"/>
-        <v>20.078794231965421</v>
+        <v>20.107363854537866</v>
       </c>
       <c r="F55" s="25">
         <f t="shared" si="1"/>
@@ -3079,7 +3079,7 @@
       <c r="D56" s="1"/>
       <c r="E56" s="12">
         <f t="shared" si="0"/>
-        <v>22.335820353571552</v>
+        <v>22.367601443111859</v>
       </c>
       <c r="F56" s="15">
         <f t="shared" si="1"/>
@@ -3115,15 +3115,15 @@
       <c r="D57" s="23"/>
       <c r="E57" s="24">
         <f t="shared" si="0"/>
-        <v>49.991317005092974</v>
+        <v>50.062448420766394</v>
       </c>
       <c r="F57" s="25">
         <f t="shared" si="1"/>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G57" s="22">
         <f t="shared" si="3"/>
-        <v>49.497474683058329</v>
+        <v>50.497524691810391</v>
       </c>
       <c r="H57" s="22">
         <f t="shared" si="2"/>
@@ -3153,7 +3153,7 @@
       <c r="D58" s="1"/>
       <c r="E58" s="12">
         <f t="shared" si="0"/>
-        <v>19.398915730745063</v>
+        <v>19.426517970916425</v>
       </c>
       <c r="F58" s="15">
         <f t="shared" si="1"/>
@@ -3189,7 +3189,7 @@
       <c r="D59" s="23"/>
       <c r="E59" s="24">
         <f t="shared" si="0"/>
-        <v>11.300049572007287</v>
+        <v>11.316128134673576</v>
       </c>
       <c r="F59" s="25">
         <f t="shared" si="1"/>
@@ -3227,7 +3227,7 @@
       <c r="D60" s="1"/>
       <c r="E60" s="12">
         <f t="shared" si="0"/>
-        <v>14.499101704708711</v>
+        <v>14.519732119989502</v>
       </c>
       <c r="F60" s="15">
         <f t="shared" si="1"/>
@@ -3263,7 +3263,7 @@
       <c r="D61" s="23"/>
       <c r="E61" s="24">
         <f t="shared" si="0"/>
-        <v>3.1990521327014219</v>
+        <v>3.2036039853159255</v>
       </c>
       <c r="F61" s="25">
         <f t="shared" si="1"/>
@@ -3301,7 +3301,7 @@
       <c r="D62" s="1"/>
       <c r="E62" s="12">
         <f t="shared" si="0"/>
-        <v>24.750561237216264</v>
+        <v>24.78577820218111</v>
       </c>
       <c r="F62" s="15">
         <f t="shared" si="1"/>
@@ -3337,7 +3337,7 @@
       <c r="D63" s="23"/>
       <c r="E63" s="24">
         <f t="shared" si="0"/>
-        <v>18.92790272519742</v>
+        <v>18.95483477254546</v>
       </c>
       <c r="F63" s="25">
         <f t="shared" si="1"/>
@@ -3375,7 +3375,7 @@
       <c r="D64" s="1"/>
       <c r="E64" s="12">
         <f t="shared" si="0"/>
-        <v>47.320822453277593</v>
+        <v>47.388154087921052</v>
       </c>
       <c r="F64" s="15">
         <f t="shared" si="1"/>
@@ -3411,7 +3411,7 @@
       <c r="D65" s="23"/>
       <c r="E65" s="24">
         <f t="shared" si="0"/>
-        <v>15.545560463640355</v>
+        <v>15.567679859356669</v>
       </c>
       <c r="F65" s="25">
         <f t="shared" si="1"/>
@@ -3449,7 +3449,7 @@
       <c r="D66" s="1"/>
       <c r="E66" s="12">
         <f t="shared" si="0"/>
-        <v>7.5148952830814215</v>
+        <v>7.5255880427874446</v>
       </c>
       <c r="F66" s="15">
         <f t="shared" si="1"/>
@@ -3485,7 +3485,7 @@
       <c r="D67" s="23"/>
       <c r="E67" s="24">
         <f t="shared" si="0"/>
-        <v>18.248024223977065</v>
+        <v>18.27398888892402</v>
       </c>
       <c r="F67" s="25">
         <f t="shared" si="1"/>
@@ -3523,7 +3523,7 @@
       <c r="D68" s="1"/>
       <c r="E68" s="12">
         <f t="shared" si="0"/>
-        <v>7.337998995930044</v>
+        <v>7.3484400542589823</v>
       </c>
       <c r="F68" s="15">
         <f t="shared" si="1"/>
@@ -3559,7 +3559,7 @@
       <c r="D69" s="23"/>
       <c r="E69" s="24">
         <f t="shared" si="0"/>
-        <v>11.374644391890399</v>
+        <v>11.390829093691602</v>
       </c>
       <c r="F69" s="25">
         <f t="shared" si="1"/>
@@ -3597,7 +3597,7 @@
       <c r="D70" s="1"/>
       <c r="E70" s="12">
         <f t="shared" si="0"/>
-        <v>5.4006649595372442</v>
+        <v>5.4083494329051005</v>
       </c>
       <c r="F70" s="15">
         <f t="shared" si="1"/>
@@ -3629,7 +3629,7 @@
       <c r="D71" s="23"/>
       <c r="E71" s="24">
         <f t="shared" si="0"/>
-        <v>14.750592811743198</v>
+        <v>14.77158106753599</v>
       </c>
       <c r="F71" s="25">
         <f t="shared" si="1"/>
@@ -3667,7 +3667,7 @@
       <c r="D72" s="1"/>
       <c r="E72" s="12">
         <f t="shared" si="0"/>
-        <v>2.2847327689912889</v>
+        <v>2.2879836590664038</v>
       </c>
       <c r="F72" s="15">
         <f t="shared" si="1"/>
@@ -3695,7 +3695,7 @@
       <c r="D73" s="23"/>
       <c r="E73" s="24">
         <f t="shared" si="0"/>
-        <v>10.468850150452621</v>
+        <v>10.483746019901284</v>
       </c>
       <c r="F73" s="25">
         <f t="shared" si="1"/>
@@ -3733,7 +3733,7 @@
       <c r="D74" s="1"/>
       <c r="E74" s="12">
         <f t="shared" si="0"/>
-        <v>3.5869451960935996</v>
+        <v>3.5920489722096622</v>
       </c>
       <c r="F74" s="15">
         <f t="shared" si="1"/>
@@ -3765,7 +3765,7 @@
       <c r="D75" s="23"/>
       <c r="E75" s="24">
         <f t="shared" si="0"/>
-        <v>3.0392060900947553</v>
+        <v>3.0435305017058694</v>
       </c>
       <c r="F75" s="25">
         <f t="shared" si="1"/>
@@ -3800,7 +3800,7 @@
       <c r="D76" s="1"/>
       <c r="E76" s="12">
         <f t="shared" si="0"/>
-        <v>15.566873269321244</v>
+        <v>15.589022990504677</v>
       </c>
       <c r="F76" s="15">
         <f t="shared" si="1"/>
@@ -3832,7 +3832,7 @@
       <c r="D77" s="23"/>
       <c r="E77" s="24">
         <f t="shared" si="0"/>
-        <v>6.8222290984525324</v>
+        <v>6.8319362804772004</v>
       </c>
       <c r="F77" s="25">
         <f t="shared" si="1"/>
@@ -3870,7 +3870,7 @@
       <c r="D78" s="1"/>
       <c r="E78" s="12">
         <f t="shared" si="0"/>
-        <v>2.2762076467189329</v>
+        <v>2.2794464066072009</v>
       </c>
       <c r="F78" s="15">
         <f t="shared" si="1"/>
@@ -3899,7 +3899,7 @@
       <c r="D79" s="23"/>
       <c r="E79" s="24">
         <f t="shared" si="0"/>
-        <v>7.5276829664899552</v>
+        <v>7.5383939214762492</v>
       </c>
       <c r="F79" s="25">
         <f t="shared" si="1"/>
@@ -3932,12 +3932,12 @@
         <v>110</v>
       </c>
       <c r="C80" s="1">
-        <v>1331000</v>
+        <v>1031000</v>
       </c>
       <c r="D80" s="1"/>
       <c r="E80" s="12">
         <f t="shared" si="0"/>
-        <v>2.8367344361263109</v>
+        <v>2.2004768213595733</v>
       </c>
       <c r="F80" s="15">
         <f t="shared" si="1"/>
@@ -3949,7 +3949,7 @@
       </c>
       <c r="H80">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -3965,7 +3965,7 @@
       <c r="D81" s="23"/>
       <c r="E81" s="24">
         <f>C81/$B$37</f>
-        <v>6.6517266530054213</v>
+        <v>6.6611912312931407</v>
       </c>
       <c r="F81" s="25">
         <f>FLOOR(E81,1)</f>
@@ -3991,12 +3991,12 @@
         <v>111</v>
       </c>
       <c r="C82" s="1">
-        <v>435000</v>
+        <v>385000</v>
       </c>
       <c r="D82" s="1"/>
       <c r="E82" s="12">
         <f t="shared" si="0"/>
-        <v>0.92710704711866654</v>
+        <v>0.82171054919828868</v>
       </c>
       <c r="F82" s="15">
         <f t="shared" si="1"/>
@@ -4019,12 +4019,12 @@
         <v>113</v>
       </c>
       <c r="C83" s="23">
-        <v>292000</v>
+        <v>192000</v>
       </c>
       <c r="D83" s="23"/>
       <c r="E83" s="24">
         <f>C83/$B$37</f>
-        <v>0.62233392588195546</v>
+        <v>0.40978811804174398</v>
       </c>
       <c r="F83" s="25">
         <f t="shared" si="1"/>
@@ -4049,18 +4049,18 @@
       </c>
       <c r="C84" s="7">
         <f>SUM(C41:C83)</f>
-        <v>315361000</v>
+        <v>314911000</v>
       </c>
       <c r="D84" s="7"/>
       <c r="E84" s="7">
         <f>SUM(E41:E83)</f>
-        <v>672.12277123308002</v>
+        <v>672.11867729501898</v>
       </c>
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c r="H84" s="7">
         <f>SUM(H41:H83)</f>
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="85" spans="1:11" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -4070,17 +4070,17 @@
       </c>
       <c r="B86" s="12">
         <f>$C$84/B32</f>
-        <v>73.466923281304076</v>
+        <v>73.36209067525391</v>
       </c>
       <c r="C86" s="12">
         <f>$C$84/C32</f>
-        <v>68.301431325470134</v>
+        <v>68.203969546440831</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="J87" s="1">
         <f>C80+C82+C83</f>
-        <v>2058000</v>
+        <v>1608000</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -4165,7 +4165,7 @@
       </c>
       <c r="C96" s="1">
         <f>C66+C62+C76+C71+C70+C81+C78+C83+C82+C80</f>
-        <v>38145000</v>
+        <v>37695000</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -4183,7 +4183,7 @@
     <row r="98" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C98" s="1">
         <f>SUM(C91:C97)</f>
-        <v>315361000</v>
+        <v>314911000</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.55000000000000004">

--- a/obsidian-notes/spreadsheets/area.xlsx
+++ b/obsidian-notes/spreadsheets/area.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sharm\iCloudDrive\iCloud~md~obsidian\Ishan's notes\Spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8DD8193F-54BE-4729-B249-060788566C09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E13487EE-2BCF-484D-B375-DF01795E7810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" activeTab="2" xr2:uid="{94B94BC7-FBC8-4BAC-A974-CA3E4662C848}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="270">
   <si>
     <t>OTL Metro France</t>
   </si>
@@ -846,6 +846,9 @@
   </si>
   <si>
     <t>Orleans, Arkansaw, Cimarron, Nibrasca, Kances, Pembina, Tahosa, Minasoa, Washingtonia, Cheyenne</t>
+  </si>
+  <si>
+    <t>Lynchburg</t>
   </si>
 </sst>
 </file>
@@ -2038,10 +2041,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C745E12-030D-4421-A6DC-982053D4A77E}">
-  <dimension ref="A1:L254"/>
+  <dimension ref="A1:L255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="H87" sqref="H87"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2451,7 +2454,7 @@
       </c>
       <c r="B34" s="12">
         <f>C84^(1/3)</f>
-        <v>680.3451246917125</v>
+        <v>682.14074488218751</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -2459,7 +2462,7 @@
         <v>118</v>
       </c>
       <c r="B35">
-        <v>675</v>
+        <v>691</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -2468,7 +2471,7 @@
       </c>
       <c r="B36" s="15">
         <f>C84/B35</f>
-        <v>466534.81481481483</v>
+        <v>459350.21707670041</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -2477,7 +2480,7 @@
       </c>
       <c r="B37" s="15">
         <f>B36+C37</f>
-        <v>468534.81481481483</v>
+        <v>461350.21707670041</v>
       </c>
       <c r="C37">
         <v>2000</v>
@@ -2530,7 +2533,7 @@
       <c r="D41" s="23"/>
       <c r="E41" s="24">
         <f t="shared" ref="E41:E82" si="0">C41/$B$37</f>
-        <v>3.2420216213823392</v>
+        <v>3.2925095594947194</v>
       </c>
       <c r="F41" s="25">
         <f t="shared" ref="F41:F83" si="1">FLOOR(E41,1)</f>
@@ -2568,7 +2571,7 @@
       <c r="D42" s="1"/>
       <c r="E42" s="12">
         <f t="shared" si="0"/>
-        <v>33.367851236794927</v>
+        <v>33.887488119249795</v>
       </c>
       <c r="F42" s="15">
         <f t="shared" si="1"/>
@@ -2580,7 +2583,7 @@
       </c>
       <c r="H42">
         <f t="shared" si="2"/>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K42" s="11">
         <f>K125*0.75+K138*0.8</f>
@@ -2599,24 +2602,24 @@
         <v>79</v>
       </c>
       <c r="C43" s="23">
-        <v>12137000</v>
+        <v>10637000</v>
       </c>
       <c r="D43" s="23"/>
       <c r="E43" s="24">
         <f t="shared" si="0"/>
-        <v>25.904158274336702</v>
+        <v>23.056237119384679</v>
       </c>
       <c r="F43" s="25">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G43" s="22">
         <f t="shared" si="3"/>
-        <v>25.495097567963924</v>
+        <v>23.49468024894146</v>
       </c>
       <c r="H43" s="22">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I43" s="22"/>
       <c r="J43" s="22"/>
@@ -2642,7 +2645,7 @@
       <c r="D44" s="1"/>
       <c r="E44" s="12">
         <f t="shared" si="0"/>
-        <v>24.568078264471431</v>
+        <v>24.950676457764128</v>
       </c>
       <c r="F44" s="15">
         <f t="shared" si="1"/>
@@ -2661,7 +2664,7 @@
         <v>5764333.333333333</v>
       </c>
       <c r="L44" s="1">
-        <f>E224+E232*(1/3)+E249*0.7+E241*0.3</f>
+        <f>E224+E233*(1/3)+E250*0.7+E242*0.3</f>
         <v>6331333.333333333</v>
       </c>
     </row>
@@ -2678,7 +2681,7 @@
       <c r="D45" s="23"/>
       <c r="E45" s="24">
         <f t="shared" si="0"/>
-        <v>7.7817056165635341</v>
+        <v>7.9028899630794909</v>
       </c>
       <c r="F45" s="25">
         <f t="shared" si="1"/>
@@ -2716,7 +2719,7 @@
       <c r="D46" s="1"/>
       <c r="E46" s="12">
         <f t="shared" si="0"/>
-        <v>18.532240775814913</v>
+        <v>18.820842992161058</v>
       </c>
       <c r="F46" s="15">
         <f t="shared" si="1"/>
@@ -2752,7 +2755,7 @@
       <c r="D47" s="23"/>
       <c r="E47" s="24">
         <f t="shared" si="0"/>
-        <v>10.195613749403183</v>
+        <v>10.354389839174637</v>
       </c>
       <c r="F47" s="25">
         <f t="shared" si="1"/>
@@ -2773,7 +2776,7 @@
         <v>3775055.5555555555</v>
       </c>
       <c r="L47" s="26">
-        <f>E212*(2.5/9)+E237</f>
+        <f>E212*(2.5/9)+E238</f>
         <v>3775055.5555555555</v>
       </c>
     </row>
@@ -2790,7 +2793,7 @@
       <c r="D48" s="1"/>
       <c r="E48" s="12">
         <f t="shared" si="0"/>
-        <v>19.460666980753238</v>
+        <v>19.763727559889961</v>
       </c>
       <c r="F48" s="15">
         <f t="shared" si="1"/>
@@ -2802,14 +2805,14 @@
       </c>
       <c r="H48">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K48" s="1">
         <f>K141</f>
         <v>6491000</v>
       </c>
       <c r="L48" s="1">
-        <f>E223+E249*0.3</f>
+        <f>E223+E250*0.3</f>
         <v>6606300</v>
       </c>
     </row>
@@ -2821,12 +2824,12 @@
         <v>85</v>
       </c>
       <c r="C49" s="23">
-        <v>1544000</v>
+        <v>1744000</v>
       </c>
       <c r="D49" s="23"/>
       <c r="E49" s="24">
         <f t="shared" si="0"/>
-        <v>3.295379449252358</v>
+        <v>3.7802084738372552</v>
       </c>
       <c r="F49" s="25">
         <f t="shared" si="1"/>
@@ -2838,7 +2841,7 @@
       </c>
       <c r="H49" s="22">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I49" s="22"/>
       <c r="J49" s="22"/>
@@ -2859,32 +2862,32 @@
         <v>86</v>
       </c>
       <c r="C50" s="1">
-        <v>17541000</v>
+        <v>19141000</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="12">
         <f t="shared" si="0"/>
-        <v>37.437986346719953</v>
+        <v>41.489088530802121</v>
       </c>
       <c r="F50" s="15">
         <f t="shared" si="1"/>
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G50">
         <f t="shared" si="3"/>
-        <v>37.49666651850535</v>
+        <v>41.496987842492857</v>
       </c>
       <c r="H50">
         <f t="shared" si="2"/>
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K50" s="11">
         <f>K127+K129*(2.5/9)</f>
         <v>10099055.555555556</v>
       </c>
       <c r="L50" s="11">
-        <f>E210+E212*(3/9)+E227*0.8</f>
-        <v>14555666.666666666</v>
+        <f>E210+E212*(3/9)+E227*0.8+E229</f>
+        <v>16876666.666666664</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -2895,12 +2898,12 @@
         <v>87</v>
       </c>
       <c r="C51" s="23">
-        <v>40239000</v>
+        <v>39239000</v>
       </c>
       <c r="D51" s="23"/>
       <c r="E51" s="24">
         <f t="shared" si="0"/>
-        <v>85.882625426467371</v>
+        <v>85.052523110607822</v>
       </c>
       <c r="F51" s="25">
         <f t="shared" si="1"/>
@@ -2912,7 +2915,7 @@
       </c>
       <c r="H51" s="22">
         <f t="shared" si="2"/>
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I51" s="22"/>
       <c r="J51" s="22"/>
@@ -2921,7 +2924,7 @@
         <v>22651750</v>
       </c>
       <c r="L51" s="26">
-        <f>E205*0.75+E215+E246</f>
+        <f>E205*0.75+E215+E247</f>
         <v>24289750</v>
       </c>
     </row>
@@ -2938,7 +2941,7 @@
       <c r="D52" s="1"/>
       <c r="E52" s="12">
         <f t="shared" si="0"/>
-        <v>24.568078264471431</v>
+        <v>24.950676457764128</v>
       </c>
       <c r="F52" s="15">
         <f t="shared" si="1"/>
@@ -2957,7 +2960,7 @@
         <v>2461000</v>
       </c>
       <c r="L52" s="1">
-        <f>E240+E227*0.2+E253</f>
+        <f>E241+E227*0.2+E254</f>
         <v>4383000</v>
       </c>
     </row>
@@ -2974,7 +2977,7 @@
       <c r="D53" s="23"/>
       <c r="E53" s="24">
         <f t="shared" si="0"/>
-        <v>2.3434758000512232</v>
+        <v>2.3799707019915748</v>
       </c>
       <c r="F53" s="25">
         <f t="shared" si="1"/>
@@ -3007,12 +3010,12 @@
         <v>90</v>
       </c>
       <c r="C54" s="1">
-        <v>647000</v>
+        <v>847000</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="12">
         <f t="shared" si="0"/>
-        <v>1.3809005852760852</v>
+        <v>1.8359154686583459</v>
       </c>
       <c r="F54" s="15">
         <f t="shared" si="1"/>
@@ -3024,7 +3027,7 @@
       </c>
       <c r="H54">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -3040,7 +3043,7 @@
       <c r="D55" s="23"/>
       <c r="E55" s="24">
         <f t="shared" si="0"/>
-        <v>20.107363854537866</v>
+        <v>20.420495431204575</v>
       </c>
       <c r="F55" s="25">
         <f t="shared" si="1"/>
@@ -3061,7 +3064,7 @@
         <v>4234300</v>
       </c>
       <c r="L55" s="26">
-        <f>E207*0.1+E218*0.8+E251</f>
+        <f>E207*0.1+E218*0.8+E252</f>
         <v>5227300</v>
       </c>
     </row>
@@ -3079,7 +3082,7 @@
       <c r="D56" s="1"/>
       <c r="E56" s="12">
         <f t="shared" si="0"/>
-        <v>22.367601443111859</v>
+        <v>22.715931654710111</v>
       </c>
       <c r="F56" s="15">
         <f t="shared" si="1"/>
@@ -3091,7 +3094,7 @@
       </c>
       <c r="H56">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K56" s="11">
         <f>K128*0.8</f>
@@ -3115,7 +3118,7 @@
       <c r="D57" s="23"/>
       <c r="E57" s="24">
         <f t="shared" si="0"/>
-        <v>50.062448420766394</v>
+        <v>50.842069932526755</v>
       </c>
       <c r="F57" s="25">
         <f t="shared" si="1"/>
@@ -3127,7 +3130,7 @@
       </c>
       <c r="H57" s="22">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I57" s="22"/>
       <c r="J57" s="22"/>
@@ -3136,7 +3139,7 @@
         <v>15797500</v>
       </c>
       <c r="L57" s="26">
-        <f>E207*0.8+E217+E222*0.2+E239+E230*0.3</f>
+        <f>E207*0.8+E217+E222*0.2+E240+E231*0.3</f>
         <v>15592000</v>
       </c>
     </row>
@@ -3153,7 +3156,7 @@
       <c r="D58" s="1"/>
       <c r="E58" s="12">
         <f t="shared" si="0"/>
-        <v>19.426517970916425</v>
+        <v>19.72904674820338</v>
       </c>
       <c r="F58" s="15">
         <f t="shared" si="1"/>
@@ -3165,14 +3168,14 @@
       </c>
       <c r="H58">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K58" s="1">
         <f>K153+K143+(K124*0.1)+K142*0.6</f>
         <v>6915700</v>
       </c>
       <c r="L58" s="1">
-        <f>E243+E229+(E207*0.1)+E228*0.6</f>
+        <f>E244+E230+(E207*0.1)+E228*0.6</f>
         <v>6915700</v>
       </c>
     </row>
@@ -3189,7 +3192,7 @@
       <c r="D59" s="23"/>
       <c r="E59" s="24">
         <f t="shared" si="0"/>
-        <v>11.316128134673576</v>
+        <v>11.492353972640554</v>
       </c>
       <c r="F59" s="25">
         <f t="shared" si="1"/>
@@ -3201,7 +3204,7 @@
       </c>
       <c r="H59" s="22">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I59" s="22"/>
       <c r="J59" s="22"/>
@@ -3210,7 +3213,7 @@
         <v>2430900</v>
       </c>
       <c r="L59" s="26">
-        <f>E211*0.1+E233*0.9</f>
+        <f>E211*0.1+E234*0.9</f>
         <v>2790900</v>
       </c>
     </row>
@@ -3222,12 +3225,12 @@
         <v>96</v>
       </c>
       <c r="C60" s="1">
-        <v>6803000</v>
+        <v>6903000</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="12">
         <f t="shared" si="0"/>
-        <v>14.519732119989502</v>
+        <v>14.962602692028998</v>
       </c>
       <c r="F60" s="15">
         <f t="shared" si="1"/>
@@ -3246,7 +3249,7 @@
         <v>8023766.666666666</v>
       </c>
       <c r="L60" s="11">
-        <f>E206*(1/3)+E228*0.1+E238*0.3</f>
+        <f>E206*(1/3)+E228*0.1+E239*0.3</f>
         <v>5776966.666666666</v>
       </c>
     </row>
@@ -3263,7 +3266,7 @@
       <c r="D61" s="23"/>
       <c r="E61" s="24">
         <f t="shared" si="0"/>
-        <v>3.2036039853159255</v>
+        <v>3.2534936463473163</v>
       </c>
       <c r="F61" s="25">
         <f t="shared" si="1"/>
@@ -3284,7 +3287,7 @@
         <v>192900</v>
       </c>
       <c r="L61" s="26">
-        <f>E225*0.2+E234*0.1</f>
+        <f>E225*0.2+E235*0.1</f>
         <v>532300</v>
       </c>
     </row>
@@ -3301,15 +3304,15 @@
       <c r="D62" s="1"/>
       <c r="E62" s="12">
         <f t="shared" si="0"/>
-        <v>24.78577820218111</v>
+        <v>25.171766632266081</v>
       </c>
       <c r="F62" s="15">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G62">
         <f t="shared" si="3"/>
-        <v>24.494897427831781</v>
+        <v>25.495097567963924</v>
       </c>
       <c r="H62">
         <f t="shared" si="2"/>
@@ -3320,7 +3323,7 @@
         <v>4045800</v>
       </c>
       <c r="L62" s="11">
-        <f>E213*0.6+E231+E242*0.9</f>
+        <f>E213*0.6+E232+E243*0.9</f>
         <v>9099400</v>
       </c>
     </row>
@@ -3337,15 +3340,15 @@
       <c r="D63" s="23"/>
       <c r="E63" s="24">
         <f t="shared" si="0"/>
-        <v>18.95483477254546</v>
+        <v>19.250018036782489</v>
       </c>
       <c r="F63" s="25">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G63" s="22">
         <f t="shared" si="3"/>
-        <v>18.493242008906929</v>
+        <v>19.493588689617926</v>
       </c>
       <c r="H63" s="22">
         <f t="shared" si="2"/>
@@ -3358,7 +3361,7 @@
         <v>2972900</v>
       </c>
       <c r="L63" s="26">
-        <f>E230*0.7</f>
+        <f>E231*0.7</f>
         <v>2493400</v>
       </c>
     </row>
@@ -3375,26 +3378,26 @@
       <c r="D64" s="1"/>
       <c r="E64" s="12">
         <f t="shared" si="0"/>
-        <v>47.388154087921052</v>
+        <v>48.126128867321427</v>
       </c>
       <c r="F64" s="15">
         <f t="shared" si="1"/>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G64">
         <f t="shared" si="3"/>
-        <v>47.497368348151667</v>
+        <v>48.497422611928563</v>
       </c>
       <c r="H64">
         <f t="shared" si="2"/>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K64" s="27">
         <f>K123*(2/3)+K147*(2/3)</f>
         <v>13566666.666666664</v>
       </c>
       <c r="L64" s="27">
-        <f>E206*(2/3)+E236*(2/3)</f>
+        <f>E206*(2/3)+E237*(2/3)</f>
         <v>13566666.666666664</v>
       </c>
     </row>
@@ -3411,7 +3414,7 @@
       <c r="D65" s="23"/>
       <c r="E65" s="24">
         <f t="shared" si="0"/>
-        <v>15.567679859356669</v>
+        <v>15.810115027619805</v>
       </c>
       <c r="F65" s="25">
         <f t="shared" si="1"/>
@@ -3432,7 +3435,7 @@
         <v>4613600</v>
       </c>
       <c r="L65" s="23">
-        <f>E221+E238*0.7</f>
+        <f>E221+E239*0.7</f>
         <v>3499400</v>
       </c>
     </row>
@@ -3449,7 +3452,7 @@
       <c r="D66" s="1"/>
       <c r="E66" s="12">
         <f t="shared" si="0"/>
-        <v>7.5255880427874446</v>
+        <v>7.6427838754301387</v>
       </c>
       <c r="F66" s="15">
         <f t="shared" si="1"/>
@@ -3468,7 +3471,7 @@
         <v>694800</v>
       </c>
       <c r="L66" s="11">
-        <f>E211*0.1+E242*0.1</f>
+        <f>E211*0.1+E243*0.1</f>
         <v>876200</v>
       </c>
     </row>
@@ -3485,7 +3488,7 @@
       <c r="D67" s="23"/>
       <c r="E67" s="24">
         <f t="shared" si="0"/>
-        <v>18.27398888892402</v>
+        <v>18.558569353781294</v>
       </c>
       <c r="F67" s="25">
         <f t="shared" si="1"/>
@@ -3497,7 +3500,7 @@
       </c>
       <c r="H67" s="22">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I67" s="22"/>
       <c r="J67" s="22"/>
@@ -3506,7 +3509,7 @@
         <v>2697200</v>
       </c>
       <c r="L67" s="26">
-        <f>E213*0.4+E225*0.8+E234*0.9</f>
+        <f>E213*0.4+E225*0.8+E235*0.9</f>
         <v>5651900</v>
       </c>
     </row>
@@ -3523,7 +3526,7 @@
       <c r="D68" s="1"/>
       <c r="E68" s="12">
         <f t="shared" si="0"/>
-        <v>7.3484400542589823</v>
+        <v>7.4628771648060033</v>
       </c>
       <c r="F68" s="15">
         <f t="shared" si="1"/>
@@ -3559,7 +3562,7 @@
       <c r="D69" s="23"/>
       <c r="E69" s="24">
         <f t="shared" si="0"/>
-        <v>11.390829093691602</v>
+        <v>11.568218248204948</v>
       </c>
       <c r="F69" s="25">
         <f t="shared" si="1"/>
@@ -3571,7 +3574,7 @@
       </c>
       <c r="H69" s="22">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I69" s="22"/>
       <c r="J69" s="22"/>
@@ -3592,27 +3595,27 @@
         <v>267</v>
       </c>
       <c r="C70" s="1">
-        <v>2534000</v>
+        <v>2234000</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="12">
         <f t="shared" si="0"/>
-        <v>5.4083494329051005</v>
+        <v>4.8423083317387778</v>
       </c>
       <c r="F70" s="15">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G70">
         <f t="shared" si="3"/>
-        <v>5.4772255750516612</v>
+        <v>4.4721359549995796</v>
       </c>
       <c r="H70">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="L70" s="1">
-        <f>E245</f>
+        <f>E246</f>
         <v>1248000</v>
       </c>
     </row>
@@ -3624,24 +3627,24 @@
         <v>195</v>
       </c>
       <c r="C71" s="23">
-        <v>6921000</v>
+        <v>8321000</v>
       </c>
       <c r="D71" s="23"/>
       <c r="E71" s="24">
         <f t="shared" si="0"/>
-        <v>14.77158106753599</v>
+        <v>18.036189627752179</v>
       </c>
       <c r="F71" s="25">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G71" s="22">
         <f t="shared" si="3"/>
-        <v>14.491376746189438</v>
+        <v>18.493242008906929</v>
       </c>
       <c r="H71" s="22">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I71" s="22"/>
       <c r="J71" s="22"/>
@@ -3650,7 +3653,7 @@
         <v>1770666.6666666665</v>
       </c>
       <c r="L71" s="26">
-        <f>E236*(1/3)+E235+E244</f>
+        <f>E237*(1/3)+E236+E245</f>
         <v>5658666.666666666</v>
       </c>
     </row>
@@ -3662,20 +3665,20 @@
         <v>105</v>
       </c>
       <c r="C72" s="1">
-        <v>1072000</v>
+        <v>872000</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="12">
         <f t="shared" si="0"/>
-        <v>2.2879836590664038</v>
+        <v>1.8901042369186276</v>
       </c>
       <c r="F72" s="15">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G72">
         <f t="shared" si="3"/>
-        <v>2.4494897427831779</v>
+        <v>1.4142135623730951</v>
       </c>
       <c r="H72">
         <f t="shared" si="2"/>
@@ -3695,7 +3698,7 @@
       <c r="D73" s="23"/>
       <c r="E73" s="24">
         <f t="shared" si="0"/>
-        <v>10.483746019901284</v>
+        <v>10.647009187780158</v>
       </c>
       <c r="F73" s="25">
         <f t="shared" si="1"/>
@@ -3707,7 +3710,7 @@
       </c>
       <c r="H73" s="22">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I73" s="22"/>
       <c r="J73" s="22"/>
@@ -3733,7 +3736,7 @@
       <c r="D74" s="1"/>
       <c r="E74" s="12">
         <f t="shared" si="0"/>
-        <v>3.5920489722096622</v>
+        <v>3.6479878792821676</v>
       </c>
       <c r="F74" s="15">
         <f t="shared" si="1"/>
@@ -3748,7 +3751,7 @@
         <v>4</v>
       </c>
       <c r="L74" s="1">
-        <f>E254</f>
+        <f>E255</f>
         <v>670000</v>
       </c>
     </row>
@@ -3760,30 +3763,30 @@
         <v>107</v>
       </c>
       <c r="C75" s="23">
-        <v>1426000</v>
+        <v>3426000</v>
       </c>
       <c r="D75" s="23"/>
       <c r="E75" s="24">
         <f t="shared" si="0"/>
-        <v>3.0435305017058694</v>
+        <v>7.4260288023890118</v>
       </c>
       <c r="F75" s="25">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G75" s="22">
         <f t="shared" si="3"/>
-        <v>3.4641016151377544</v>
+        <v>7.4833147735478827</v>
       </c>
       <c r="H75" s="22">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I75" s="22"/>
       <c r="J75" s="22"/>
       <c r="K75" s="22"/>
       <c r="L75" s="26">
-        <f>E241*0.6</f>
+        <f>E242*0.6</f>
         <v>732600</v>
       </c>
     </row>
@@ -3795,27 +3798,27 @@
         <v>114</v>
       </c>
       <c r="C76" s="1">
-        <v>7304000</v>
+        <v>7804000</v>
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="12">
         <f t="shared" si="0"/>
-        <v>15.589022990504677</v>
+        <v>16.91556590012955</v>
       </c>
       <c r="F76" s="15">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G76">
         <f t="shared" si="3"/>
-        <v>15.491933384829668</v>
+        <v>16.492422502470642</v>
       </c>
       <c r="H76">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L76" s="1">
-        <f>E219+E248</f>
+        <f>E219+E249</f>
         <v>6788000</v>
       </c>
     </row>
@@ -3827,24 +3830,24 @@
         <v>115</v>
       </c>
       <c r="C77" s="23">
-        <v>3201000</v>
+        <v>2701000</v>
       </c>
       <c r="D77" s="23"/>
       <c r="E77" s="24">
         <f t="shared" si="0"/>
-        <v>6.8319362804772004</v>
+        <v>5.8545545228408402</v>
       </c>
       <c r="F77" s="25">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G77" s="22">
         <f t="shared" si="3"/>
-        <v>6.4807406984078604</v>
+        <v>5.4772255750516612</v>
       </c>
       <c r="H77" s="22">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I77" s="22"/>
       <c r="J77" s="22"/>
@@ -3853,7 +3856,7 @@
         <v>1648666.6666666665</v>
       </c>
       <c r="L77" s="23">
-        <f>E232*(2/3)</f>
+        <f>E233*(2/3)</f>
         <v>1648666.6666666665</v>
       </c>
     </row>
@@ -3870,7 +3873,7 @@
       <c r="D78" s="1"/>
       <c r="E78" s="12">
         <f t="shared" si="0"/>
-        <v>2.2794464066072009</v>
+        <v>2.3149441800792365</v>
       </c>
       <c r="F78" s="15">
         <f t="shared" si="1"/>
@@ -3899,7 +3902,7 @@
       <c r="D79" s="23"/>
       <c r="E79" s="24">
         <f t="shared" si="0"/>
-        <v>7.5383939214762492</v>
+        <v>7.6557891798126061</v>
       </c>
       <c r="F79" s="25">
         <f t="shared" si="1"/>
@@ -3937,7 +3940,7 @@
       <c r="D80" s="1"/>
       <c r="E80" s="12">
         <f t="shared" si="0"/>
-        <v>2.2004768213595733</v>
+        <v>2.2347448030540193</v>
       </c>
       <c r="F80" s="15">
         <f t="shared" si="1"/>
@@ -3965,7 +3968,7 @@
       <c r="D81" s="23"/>
       <c r="E81" s="24">
         <f>C81/$B$37</f>
-        <v>6.6611912312931407</v>
+        <v>6.7649258296135741</v>
       </c>
       <c r="F81" s="25">
         <f>FLOOR(E81,1)</f>
@@ -3996,7 +3999,7 @@
       <c r="D82" s="1"/>
       <c r="E82" s="12">
         <f t="shared" si="0"/>
-        <v>0.82171054919828868</v>
+        <v>0.83450703120833902</v>
       </c>
       <c r="F82" s="15">
         <f t="shared" si="1"/>
@@ -4024,7 +4027,7 @@
       <c r="D83" s="23"/>
       <c r="E83" s="24">
         <f>C83/$B$37</f>
-        <v>0.40978811804174398</v>
+        <v>0.41616974023896386</v>
       </c>
       <c r="F83" s="25">
         <f t="shared" si="1"/>
@@ -4049,18 +4052,18 @@
       </c>
       <c r="C84" s="7">
         <f>SUM(C41:C83)</f>
-        <v>314911000</v>
+        <v>317411000</v>
       </c>
       <c r="D84" s="7"/>
       <c r="E84" s="7">
         <f>SUM(E41:E83)</f>
-        <v>672.11867729501898</v>
+        <v>688.00444489057179</v>
       </c>
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c r="H84" s="7">
         <f>SUM(H41:H83)</f>
-        <v>671</v>
+        <v>690</v>
       </c>
     </row>
     <row r="85" spans="1:11" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -4070,12 +4073,13 @@
       </c>
       <c r="B86" s="12">
         <f>$C$84/B32</f>
-        <v>73.36209067525391</v>
+        <v>73.944494042199281</v>
       </c>
       <c r="C86" s="12">
         <f>$C$84/C32</f>
-        <v>68.203969546440831</v>
-      </c>
+        <v>68.74542387438143</v>
+      </c>
+      <c r="I86" s="1"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="J87" s="1">
@@ -4103,7 +4107,7 @@
       </c>
       <c r="C91" s="1">
         <f>C46+C49+C53+C54+C72+C45+C51</f>
-        <v>56929000</v>
+        <v>56129000</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -4115,7 +4119,7 @@
       </c>
       <c r="C92" s="1">
         <f>C42+C43+C41+C47+C79+C50</f>
-        <v>55140000</v>
+        <v>55240000</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -4140,7 +4144,7 @@
       </c>
       <c r="C94" s="1">
         <f>C52+C48+C75+C44+C77+C67+C61+C59</f>
-        <v>52132000</v>
+        <v>53632000</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -4152,7 +4156,7 @@
       </c>
       <c r="C95" s="1">
         <f>C56+C55+C60+C64+C68</f>
-        <v>52350000</v>
+        <v>52450000</v>
       </c>
       <c r="J95" s="15"/>
     </row>
@@ -4165,7 +4169,7 @@
       </c>
       <c r="C96" s="1">
         <f>C66+C62+C76+C71+C70+C81+C78+C83+C82+C80</f>
-        <v>37695000</v>
+        <v>39295000</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -4183,7 +4187,7 @@
     <row r="98" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C98" s="1">
         <f>SUM(C91:C97)</f>
-        <v>314911000</v>
+        <v>317411000</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -5962,16 +5966,16 @@
         <v>25</v>
       </c>
       <c r="B229" t="s">
-        <v>227</v>
+        <v>269</v>
       </c>
       <c r="C229" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D229" s="1">
-        <v>925000</v>
+        <v>969000</v>
       </c>
       <c r="E229" s="1">
-        <v>2929000</v>
+        <v>2321000</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -5979,16 +5983,16 @@
         <v>26</v>
       </c>
       <c r="B230" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C230" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D230" s="1">
-        <v>903000</v>
+        <v>925000</v>
       </c>
       <c r="E230" s="1">
-        <v>3562000</v>
+        <v>2929000</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -5996,16 +6000,16 @@
         <v>27</v>
       </c>
       <c r="B231" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C231" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D231" s="1">
-        <v>891000</v>
+        <v>903000</v>
       </c>
       <c r="E231" s="1">
-        <v>3421000</v>
+        <v>3562000</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -6013,16 +6017,16 @@
         <v>28</v>
       </c>
       <c r="B232" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="C232" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="D232" s="1">
-        <v>877000</v>
+        <v>891000</v>
       </c>
       <c r="E232" s="1">
-        <v>2473000</v>
+        <v>3421000</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -6030,16 +6034,16 @@
         <v>29</v>
       </c>
       <c r="B233" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="C233" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="D233" s="1">
-        <v>851000</v>
+        <v>877000</v>
       </c>
       <c r="E233" s="1">
-        <v>2329000</v>
+        <v>2473000</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -6047,16 +6051,16 @@
         <v>30</v>
       </c>
       <c r="B234" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="C234" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D234" s="1">
-        <v>824000</v>
+        <v>851000</v>
       </c>
       <c r="E234" s="1">
-        <v>1651000</v>
+        <v>2329000</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -6064,16 +6068,16 @@
         <v>31</v>
       </c>
       <c r="B235" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C235" t="s">
-        <v>195</v>
+        <v>103</v>
       </c>
       <c r="D235" s="1">
-        <v>802000</v>
+        <v>824000</v>
       </c>
       <c r="E235" s="1">
-        <v>2547000</v>
+        <v>1651000</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -6081,16 +6085,16 @@
         <v>32</v>
       </c>
       <c r="B236" t="s">
-        <v>164</v>
+        <v>204</v>
       </c>
       <c r="C236" t="s">
-        <v>100</v>
+        <v>195</v>
       </c>
       <c r="D236" s="1">
-        <v>788000</v>
+        <v>802000</v>
       </c>
       <c r="E236" s="1">
-        <v>5312000</v>
+        <v>2547000</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -6098,16 +6102,16 @@
         <v>33</v>
       </c>
       <c r="B237" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C237" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="D237" s="1">
-        <v>765000</v>
+        <v>788000</v>
       </c>
       <c r="E237" s="1">
-        <v>1252000</v>
+        <v>5312000</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -6115,16 +6119,16 @@
         <v>34</v>
       </c>
       <c r="B238" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="C238" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="D238" s="1">
-        <v>741000</v>
+        <v>765000</v>
       </c>
       <c r="E238" s="1">
-        <v>1782000</v>
+        <v>1252000</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -6132,16 +6136,16 @@
         <v>35</v>
       </c>
       <c r="B239" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C239" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="D239" s="1">
-        <v>729000</v>
+        <v>741000</v>
       </c>
       <c r="E239" s="1">
-        <v>2175000</v>
+        <v>1782000</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -6149,16 +6153,16 @@
         <v>36</v>
       </c>
       <c r="B240" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C240" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D240" s="1">
-        <v>701000</v>
+        <v>729000</v>
       </c>
       <c r="E240" s="1">
-        <v>2461000</v>
+        <v>2175000</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -6166,16 +6170,16 @@
         <v>37</v>
       </c>
       <c r="B241" t="s">
-        <v>215</v>
+        <v>168</v>
       </c>
       <c r="C241" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="D241" s="1">
-        <v>682000</v>
+        <v>701000</v>
       </c>
       <c r="E241" s="1">
-        <v>1221000</v>
+        <v>2461000</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -6183,16 +6187,16 @@
         <v>38</v>
       </c>
       <c r="B242" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C242" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="D242" s="1">
-        <v>668000</v>
+        <v>682000</v>
       </c>
       <c r="E242" s="1">
-        <v>1814000</v>
+        <v>1221000</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -6200,16 +6204,16 @@
         <v>39</v>
       </c>
       <c r="B243" t="s">
-        <v>169</v>
+        <v>216</v>
       </c>
       <c r="C243" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D243" s="1">
-        <v>656000</v>
+        <v>668000</v>
       </c>
       <c r="E243" s="1">
-        <v>1567000</v>
+        <v>1814000</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -6217,16 +6221,16 @@
         <v>40</v>
       </c>
       <c r="B244" t="s">
-        <v>217</v>
+        <v>169</v>
       </c>
       <c r="C244" t="s">
-        <v>195</v>
+        <v>94</v>
       </c>
       <c r="D244" s="1">
-        <v>634000</v>
+        <v>656000</v>
       </c>
       <c r="E244" s="1">
-        <v>1341000</v>
+        <v>1567000</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -6234,16 +6238,16 @@
         <v>41</v>
       </c>
       <c r="B245" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="C245" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D245" s="1">
-        <v>613000</v>
+        <v>634000</v>
       </c>
       <c r="E245" s="1">
-        <v>1248000</v>
+        <v>1341000</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -6251,16 +6255,16 @@
         <v>42</v>
       </c>
       <c r="B246" t="s">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="C246" t="s">
-        <v>87</v>
+        <v>202</v>
       </c>
       <c r="D246" s="1">
-        <v>606000</v>
+        <v>613000</v>
       </c>
       <c r="E246" s="1">
-        <v>1638000</v>
+        <v>1248000</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -6268,16 +6272,16 @@
         <v>43</v>
       </c>
       <c r="B247" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="C247" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="D247" s="1">
-        <v>584000</v>
-      </c>
-      <c r="E247" t="s">
-        <v>222</v>
+        <v>606000</v>
+      </c>
+      <c r="E247" s="1">
+        <v>1638000</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -6285,16 +6289,16 @@
         <v>44</v>
       </c>
       <c r="B248" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="C248" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="D248" s="1">
-        <v>565000</v>
-      </c>
-      <c r="E248" s="1">
-        <v>1641000</v>
+        <v>584000</v>
+      </c>
+      <c r="E248" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -6302,16 +6306,16 @@
         <v>45</v>
       </c>
       <c r="B249" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="C249" t="s">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="D249" s="1">
-        <v>524000</v>
+        <v>565000</v>
       </c>
       <c r="E249" s="1">
-        <v>1051000</v>
+        <v>1641000</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -6319,16 +6323,16 @@
         <v>46</v>
       </c>
       <c r="B250" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C250" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="D250" s="1">
-        <v>501000</v>
-      </c>
-      <c r="E250" t="s">
-        <v>225</v>
+        <v>524000</v>
+      </c>
+      <c r="E250" s="1">
+        <v>1051000</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -6336,16 +6340,16 @@
         <v>47</v>
       </c>
       <c r="B251" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="C251" t="s">
         <v>91</v>
       </c>
       <c r="D251" s="1">
-        <v>479000</v>
-      </c>
-      <c r="E251" s="1">
-        <v>993000</v>
+        <v>501000</v>
+      </c>
+      <c r="E251" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -6353,16 +6357,16 @@
         <v>48</v>
       </c>
       <c r="B252" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C252" t="s">
-        <v>234</v>
+        <v>91</v>
       </c>
       <c r="D252" s="1">
-        <v>460000</v>
-      </c>
-      <c r="E252" t="s">
-        <v>235</v>
+        <v>479000</v>
+      </c>
+      <c r="E252" s="1">
+        <v>993000</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -6370,16 +6374,16 @@
         <v>49</v>
       </c>
       <c r="B253" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C253" t="s">
-        <v>88</v>
+        <v>234</v>
       </c>
       <c r="D253" s="1">
-        <v>447000</v>
-      </c>
-      <c r="E253" s="1">
-        <v>934000</v>
+        <v>460000</v>
+      </c>
+      <c r="E253" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -6387,15 +6391,32 @@
         <v>50</v>
       </c>
       <c r="B254" t="s">
+        <v>236</v>
+      </c>
+      <c r="C254" t="s">
+        <v>88</v>
+      </c>
+      <c r="D254" s="1">
+        <v>447000</v>
+      </c>
+      <c r="E254" s="1">
+        <v>934000</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A255">
+        <v>51</v>
+      </c>
+      <c r="B255" t="s">
         <v>237</v>
       </c>
-      <c r="C254" t="s">
+      <c r="C255" t="s">
         <v>226</v>
       </c>
-      <c r="D254" s="1">
+      <c r="D255" s="1">
         <v>429000</v>
       </c>
-      <c r="E254" s="1">
+      <c r="E255" s="1">
         <v>670000</v>
       </c>
     </row>

--- a/obsidian-notes/spreadsheets/area.xlsx
+++ b/obsidian-notes/spreadsheets/area.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sharm\iCloudDrive\iCloud~md~obsidian\Ishan's notes\Spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E13487EE-2BCF-484D-B375-DF01795E7810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A9FF66-4C8F-4203-A3C1-4E76E1E50210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" activeTab="2" xr2:uid="{94B94BC7-FBC8-4BAC-A974-CA3E4662C848}"/>
   </bookViews>
@@ -749,9 +749,6 @@
     <t>5,942,000[18]</t>
   </si>
   <si>
-    <t>Raleigh</t>
-  </si>
-  <si>
     <t>Wheeling</t>
   </si>
   <si>
@@ -849,6 +846,9 @@
   </si>
   <si>
     <t>Lynchburg</t>
+  </si>
+  <si>
+    <t>Fayetteville</t>
   </si>
 </sst>
 </file>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B41" s="14">
         <f>1-SUM(B42:B49)</f>
@@ -1894,7 +1894,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B57" s="13">
         <v>0.43099999999999999</v>
@@ -1906,7 +1906,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B58" s="13">
         <f>1-(B57+SUM(B59:B61))</f>
@@ -1919,7 +1919,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B59" s="13">
         <v>7.5999999999999998E-2</v>
@@ -1931,7 +1931,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B60" s="13">
         <v>5.8999999999999997E-2</v>
@@ -1986,7 +1986,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B1" s="1">
         <v>41865</v>
@@ -1994,7 +1994,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B2" s="1">
         <v>3142</v>
@@ -2043,8 +2043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C745E12-030D-4421-A6DC-982053D4A77E}">
   <dimension ref="A1:L255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="L67" sqref="L67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2454,7 +2454,7 @@
       </c>
       <c r="B34" s="12">
         <f>C84^(1/3)</f>
-        <v>682.14074488218751</v>
+        <v>682.85635297076431</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -2471,7 +2471,7 @@
       </c>
       <c r="B36" s="15">
         <f>C84/B35</f>
-        <v>459350.21707670041</v>
+        <v>460797.3950795948</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -2480,7 +2480,7 @@
       </c>
       <c r="B37" s="15">
         <f>B36+C37</f>
-        <v>461350.21707670041</v>
+        <v>462797.3950795948</v>
       </c>
       <c r="C37">
         <v>2000</v>
@@ -2533,7 +2533,7 @@
       <c r="D41" s="23"/>
       <c r="E41" s="24">
         <f t="shared" ref="E41:E82" si="0">C41/$B$37</f>
-        <v>3.2925095594947194</v>
+        <v>3.2822138070564395</v>
       </c>
       <c r="F41" s="25">
         <f t="shared" ref="F41:F83" si="1">FLOOR(E41,1)</f>
@@ -2571,7 +2571,7 @@
       <c r="D42" s="1"/>
       <c r="E42" s="12">
         <f t="shared" si="0"/>
-        <v>33.887488119249795</v>
+        <v>33.781521171507819</v>
       </c>
       <c r="F42" s="15">
         <f t="shared" si="1"/>
@@ -2607,15 +2607,15 @@
       <c r="D43" s="23"/>
       <c r="E43" s="24">
         <f t="shared" si="0"/>
-        <v>23.056237119384679</v>
+        <v>22.984139740394568</v>
       </c>
       <c r="F43" s="25">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G43" s="22">
         <f t="shared" si="3"/>
-        <v>23.49468024894146</v>
+        <v>22.494443758403985</v>
       </c>
       <c r="H43" s="22">
         <f t="shared" si="2"/>
@@ -2645,7 +2645,7 @@
       <c r="D44" s="1"/>
       <c r="E44" s="12">
         <f t="shared" si="0"/>
-        <v>24.950676457764128</v>
+        <v>24.872655123783197</v>
       </c>
       <c r="F44" s="15">
         <f t="shared" si="1"/>
@@ -2664,7 +2664,7 @@
         <v>5764333.333333333</v>
       </c>
       <c r="L44" s="1">
-        <f>E224+E233*(1/3)+E250*0.7+E242*0.3</f>
+        <f>E224+E234*(1/3)+E251*0.7+E243*0.3</f>
         <v>6331333.333333333</v>
       </c>
     </row>
@@ -2681,7 +2681,7 @@
       <c r="D45" s="23"/>
       <c r="E45" s="24">
         <f t="shared" si="0"/>
-        <v>7.9028899630794909</v>
+        <v>7.8781774460354042</v>
       </c>
       <c r="F45" s="25">
         <f t="shared" si="1"/>
@@ -2719,7 +2719,7 @@
       <c r="D46" s="1"/>
       <c r="E46" s="12">
         <f t="shared" si="0"/>
-        <v>18.820842992161058</v>
+        <v>18.761989787143559</v>
       </c>
       <c r="F46" s="15">
         <f t="shared" si="1"/>
@@ -2755,7 +2755,7 @@
       <c r="D47" s="23"/>
       <c r="E47" s="24">
         <f t="shared" si="0"/>
-        <v>10.354389839174637</v>
+        <v>10.322011426141286</v>
       </c>
       <c r="F47" s="25">
         <f t="shared" si="1"/>
@@ -2776,7 +2776,7 @@
         <v>3775055.5555555555</v>
       </c>
       <c r="L47" s="26">
-        <f>E212*(2.5/9)+E238</f>
+        <f>E212*(2.5/9)+E239</f>
         <v>3775055.5555555555</v>
       </c>
     </row>
@@ -2793,7 +2793,7 @@
       <c r="D48" s="1"/>
       <c r="E48" s="12">
         <f t="shared" si="0"/>
-        <v>19.763727559889961</v>
+        <v>19.701925933338128</v>
       </c>
       <c r="F48" s="15">
         <f t="shared" si="1"/>
@@ -2812,7 +2812,7 @@
         <v>6491000</v>
       </c>
       <c r="L48" s="1">
-        <f>E223+E250*0.3</f>
+        <f>E223+E251*0.3</f>
         <v>6606300</v>
       </c>
     </row>
@@ -2829,7 +2829,7 @@
       <c r="D49" s="23"/>
       <c r="E49" s="24">
         <f t="shared" si="0"/>
-        <v>3.7802084738372552</v>
+        <v>3.7683876757777686</v>
       </c>
       <c r="F49" s="25">
         <f t="shared" si="1"/>
@@ -2867,7 +2867,7 @@
       <c r="D50" s="1"/>
       <c r="E50" s="12">
         <f t="shared" si="0"/>
-        <v>41.489088530802121</v>
+        <v>41.359351205310936</v>
       </c>
       <c r="F50" s="15">
         <f t="shared" si="1"/>
@@ -2903,15 +2903,15 @@
       <c r="D51" s="23"/>
       <c r="E51" s="24">
         <f t="shared" si="0"/>
-        <v>85.052523110607822</v>
+        <v>84.786561932249924</v>
       </c>
       <c r="F51" s="25">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G51" s="22">
         <f t="shared" si="3"/>
-        <v>85.498537999196216</v>
+        <v>84.498520697110436</v>
       </c>
       <c r="H51" s="22">
         <f t="shared" si="2"/>
@@ -2924,7 +2924,7 @@
         <v>22651750</v>
       </c>
       <c r="L51" s="26">
-        <f>E205*0.75+E215+E247</f>
+        <f>E205*0.75+E215+E248</f>
         <v>24289750</v>
       </c>
     </row>
@@ -2936,32 +2936,32 @@
         <v>88</v>
       </c>
       <c r="C52" s="1">
-        <v>11511000</v>
+        <v>12511000</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="12">
         <f t="shared" si="0"/>
-        <v>24.950676457764128</v>
+        <v>27.033427873655771</v>
       </c>
       <c r="F52" s="15">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G52">
         <f t="shared" si="3"/>
-        <v>24.494897427831781</v>
+        <v>27.495454169735041</v>
       </c>
       <c r="H52">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K52" s="1">
         <f>K152</f>
         <v>2461000</v>
       </c>
       <c r="L52" s="1">
-        <f>E241+E227*0.2+E254</f>
-        <v>4383000</v>
+        <f>E233+E227*0.2+E242</f>
+        <v>6583000</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -2977,7 +2977,7 @@
       <c r="D53" s="23"/>
       <c r="E53" s="24">
         <f t="shared" si="0"/>
-        <v>2.3799707019915748</v>
+        <v>2.3725284793600858</v>
       </c>
       <c r="F53" s="25">
         <f t="shared" si="1"/>
@@ -3015,7 +3015,7 @@
       <c r="D54" s="1"/>
       <c r="E54" s="12">
         <f t="shared" si="0"/>
-        <v>1.8359154686583459</v>
+        <v>1.83017451914207</v>
       </c>
       <c r="F54" s="15">
         <f t="shared" si="1"/>
@@ -3043,7 +3043,7 @@
       <c r="D55" s="23"/>
       <c r="E55" s="24">
         <f t="shared" si="0"/>
-        <v>20.420495431204575</v>
+        <v>20.356640076549517</v>
       </c>
       <c r="F55" s="25">
         <f t="shared" si="1"/>
@@ -3064,7 +3064,7 @@
         <v>4234300</v>
       </c>
       <c r="L55" s="26">
-        <f>E207*0.1+E218*0.8+E252</f>
+        <f>E207*0.1+E218*0.8+E253</f>
         <v>5227300</v>
       </c>
     </row>
@@ -3082,7 +3082,7 @@
       <c r="D56" s="1"/>
       <c r="E56" s="12">
         <f t="shared" si="0"/>
-        <v>22.715931654710111</v>
+        <v>22.644898418664575</v>
       </c>
       <c r="F56" s="15">
         <f t="shared" si="1"/>
@@ -3118,7 +3118,7 @@
       <c r="D57" s="23"/>
       <c r="E57" s="24">
         <f t="shared" si="0"/>
-        <v>50.842069932526755</v>
+        <v>50.683085621011088</v>
       </c>
       <c r="F57" s="25">
         <f t="shared" si="1"/>
@@ -3139,7 +3139,7 @@
         <v>15797500</v>
       </c>
       <c r="L57" s="26">
-        <f>E207*0.8+E217+E222*0.2+E240+E231*0.3</f>
+        <f>E207*0.8+E217+E222*0.2+E241+E231*0.3</f>
         <v>15592000</v>
       </c>
     </row>
@@ -3156,7 +3156,7 @@
       <c r="D58" s="1"/>
       <c r="E58" s="12">
         <f t="shared" si="0"/>
-        <v>19.72904674820338</v>
+        <v>19.667353569340165</v>
       </c>
       <c r="F58" s="15">
         <f t="shared" si="1"/>
@@ -3175,7 +3175,7 @@
         <v>6915700</v>
       </c>
       <c r="L58" s="1">
-        <f>E244+E230+(E207*0.1)+E228*0.6</f>
+        <f>E245+E230+(E207*0.1)+E228*0.6</f>
         <v>6915700</v>
       </c>
     </row>
@@ -3192,7 +3192,7 @@
       <c r="D59" s="23"/>
       <c r="E59" s="24">
         <f t="shared" si="0"/>
-        <v>11.492353972640554</v>
+        <v>11.456417119824387</v>
       </c>
       <c r="F59" s="25">
         <f t="shared" si="1"/>
@@ -3204,7 +3204,7 @@
       </c>
       <c r="H59" s="22">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I59" s="22"/>
       <c r="J59" s="22"/>
@@ -3213,7 +3213,7 @@
         <v>2430900</v>
       </c>
       <c r="L59" s="26">
-        <f>E211*0.1+E234*0.9</f>
+        <f>E211*0.1+E235*0.9</f>
         <v>2790900</v>
       </c>
     </row>
@@ -3230,7 +3230,7 @@
       <c r="D60" s="1"/>
       <c r="E60" s="12">
         <f t="shared" si="0"/>
-        <v>14.962602692028998</v>
+        <v>14.915814292370376</v>
       </c>
       <c r="F60" s="15">
         <f t="shared" si="1"/>
@@ -3249,7 +3249,7 @@
         <v>8023766.666666666</v>
       </c>
       <c r="L60" s="11">
-        <f>E206*(1/3)+E228*0.1+E239*0.3</f>
+        <f>E206*(1/3)+E228*0.1+E240*0.3</f>
         <v>5776966.666666666</v>
       </c>
     </row>
@@ -3266,7 +3266,7 @@
       <c r="D61" s="23"/>
       <c r="E61" s="24">
         <f t="shared" si="0"/>
-        <v>3.2534936463473163</v>
+        <v>3.2433198975587332</v>
       </c>
       <c r="F61" s="25">
         <f t="shared" si="1"/>
@@ -3287,7 +3287,7 @@
         <v>192900</v>
       </c>
       <c r="L61" s="26">
-        <f>E225*0.2+E235*0.1</f>
+        <f>E225*0.2+E236*0.1</f>
         <v>532300</v>
       </c>
     </row>
@@ -3304,7 +3304,7 @@
       <c r="D62" s="1"/>
       <c r="E62" s="12">
         <f t="shared" si="0"/>
-        <v>25.171766632266081</v>
+        <v>25.093053944270199</v>
       </c>
       <c r="F62" s="15">
         <f t="shared" si="1"/>
@@ -3323,7 +3323,7 @@
         <v>4045800</v>
       </c>
       <c r="L62" s="11">
-        <f>E213*0.6+E232+E243*0.9</f>
+        <f>E213*0.6+E232+E244*0.9</f>
         <v>9099400</v>
       </c>
     </row>
@@ -3340,7 +3340,7 @@
       <c r="D63" s="23"/>
       <c r="E63" s="24">
         <f t="shared" si="0"/>
-        <v>19.250018036782489</v>
+        <v>19.189822791618326</v>
       </c>
       <c r="F63" s="25">
         <f t="shared" si="1"/>
@@ -3378,15 +3378,15 @@
       <c r="D64" s="1"/>
       <c r="E64" s="12">
         <f t="shared" si="0"/>
-        <v>48.126128867321427</v>
+        <v>47.975637365420752</v>
       </c>
       <c r="F64" s="15">
         <f t="shared" si="1"/>
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G64">
         <f t="shared" si="3"/>
-        <v>48.497422611928563</v>
+        <v>47.497368348151667</v>
       </c>
       <c r="H64">
         <f t="shared" si="2"/>
@@ -3397,7 +3397,7 @@
         <v>13566666.666666664</v>
       </c>
       <c r="L64" s="27">
-        <f>E206*(2/3)+E237*(2/3)</f>
+        <f>E206*(2/3)+E238*(2/3)</f>
         <v>13566666.666666664</v>
       </c>
     </row>
@@ -3414,7 +3414,7 @@
       <c r="D65" s="23"/>
       <c r="E65" s="24">
         <f t="shared" si="0"/>
-        <v>15.810115027619805</v>
+        <v>15.760676437570552</v>
       </c>
       <c r="F65" s="25">
         <f t="shared" si="1"/>
@@ -3435,7 +3435,7 @@
         <v>4613600</v>
       </c>
       <c r="L65" s="23">
-        <f>E221+E239*0.7</f>
+        <f>E221+E240*0.7</f>
         <v>3499400</v>
       </c>
     </row>
@@ -3452,7 +3452,7 @@
       <c r="D66" s="1"/>
       <c r="E66" s="12">
         <f t="shared" si="0"/>
-        <v>7.6427838754301387</v>
+        <v>7.6188847160506947</v>
       </c>
       <c r="F66" s="15">
         <f t="shared" si="1"/>
@@ -3471,7 +3471,7 @@
         <v>694800</v>
       </c>
       <c r="L66" s="11">
-        <f>E211*0.1+E243*0.1</f>
+        <f>E211*0.1+E244*0.1</f>
         <v>876200</v>
       </c>
     </row>
@@ -3488,7 +3488,7 @@
       <c r="D67" s="23"/>
       <c r="E67" s="24">
         <f t="shared" si="0"/>
-        <v>18.558569353781294</v>
+        <v>18.500536284408977</v>
       </c>
       <c r="F67" s="25">
         <f t="shared" si="1"/>
@@ -3509,7 +3509,7 @@
         <v>2697200</v>
       </c>
       <c r="L67" s="26">
-        <f>E213*0.4+E225*0.8+E235*0.9</f>
+        <f>E213*0.4+E225*0.8+E236*0.9</f>
         <v>5651900</v>
       </c>
     </row>
@@ -3526,7 +3526,7 @@
       <c r="D68" s="1"/>
       <c r="E68" s="12">
         <f t="shared" si="0"/>
-        <v>7.4628771648060033</v>
+        <v>7.4395405778112718</v>
       </c>
       <c r="F68" s="15">
         <f t="shared" si="1"/>
@@ -3562,7 +3562,7 @@
       <c r="D69" s="23"/>
       <c r="E69" s="24">
         <f t="shared" si="0"/>
-        <v>11.568218248204948</v>
+        <v>11.532044166069927</v>
       </c>
       <c r="F69" s="25">
         <f t="shared" si="1"/>
@@ -3592,7 +3592,7 @@
         <v>30</v>
       </c>
       <c r="B70" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C70" s="1">
         <v>2234000</v>
@@ -3600,7 +3600,7 @@
       <c r="D70" s="1"/>
       <c r="E70" s="12">
         <f t="shared" si="0"/>
-        <v>4.8423083317387778</v>
+        <v>4.8271663232153301</v>
       </c>
       <c r="F70" s="15">
         <f t="shared" si="1"/>
@@ -3615,7 +3615,7 @@
         <v>5</v>
       </c>
       <c r="L70" s="1">
-        <f>E246</f>
+        <f>E247</f>
         <v>1248000</v>
       </c>
     </row>
@@ -3632,15 +3632,15 @@
       <c r="D71" s="23"/>
       <c r="E71" s="24">
         <f t="shared" si="0"/>
-        <v>18.036189627752179</v>
+        <v>17.979790051689687</v>
       </c>
       <c r="F71" s="25">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G71" s="22">
         <f t="shared" si="3"/>
-        <v>18.493242008906929</v>
+        <v>17.4928556845359</v>
       </c>
       <c r="H71" s="22">
         <f t="shared" si="2"/>
@@ -3653,7 +3653,7 @@
         <v>1770666.6666666665</v>
       </c>
       <c r="L71" s="26">
-        <f>E237*(1/3)+E236+E245</f>
+        <f>E238*(1/3)+E237+E246</f>
         <v>5658666.666666666</v>
       </c>
     </row>
@@ -3670,7 +3670,7 @@
       <c r="D72" s="1"/>
       <c r="E72" s="12">
         <f t="shared" si="0"/>
-        <v>1.8901042369186276</v>
+        <v>1.8841938378888843</v>
       </c>
       <c r="F72" s="15">
         <f t="shared" si="1"/>
@@ -3698,7 +3698,7 @@
       <c r="D73" s="23"/>
       <c r="E73" s="24">
         <f t="shared" si="0"/>
-        <v>10.647009187780158</v>
+        <v>10.613715747374082</v>
       </c>
       <c r="F73" s="25">
         <f t="shared" si="1"/>
@@ -3736,7 +3736,7 @@
       <c r="D74" s="1"/>
       <c r="E74" s="12">
         <f t="shared" si="0"/>
-        <v>3.6479878792821676</v>
+        <v>3.6365805380355418</v>
       </c>
       <c r="F74" s="15">
         <f t="shared" si="1"/>
@@ -3768,7 +3768,7 @@
       <c r="D75" s="23"/>
       <c r="E75" s="24">
         <f t="shared" si="0"/>
-        <v>7.4260288023890118</v>
+        <v>7.4028074410634375</v>
       </c>
       <c r="F75" s="25">
         <f t="shared" si="1"/>
@@ -3786,7 +3786,7 @@
       <c r="J75" s="22"/>
       <c r="K75" s="22"/>
       <c r="L75" s="26">
-        <f>E242*0.6</f>
+        <f>E243*0.6</f>
         <v>732600</v>
       </c>
     </row>
@@ -3803,7 +3803,7 @@
       <c r="D76" s="1"/>
       <c r="E76" s="12">
         <f t="shared" si="0"/>
-        <v>16.91556590012955</v>
+        <v>16.862670540005567</v>
       </c>
       <c r="F76" s="15">
         <f t="shared" si="1"/>
@@ -3818,7 +3818,7 @@
         <v>17</v>
       </c>
       <c r="L76" s="1">
-        <f>E219+E249</f>
+        <f>E219+E250</f>
         <v>6788000</v>
       </c>
     </row>
@@ -3835,7 +3835,7 @@
       <c r="D77" s="23"/>
       <c r="E77" s="24">
         <f t="shared" si="0"/>
-        <v>5.8545545228408402</v>
+        <v>5.8362471974058217</v>
       </c>
       <c r="F77" s="25">
         <f t="shared" si="1"/>
@@ -3856,7 +3856,7 @@
         <v>1648666.6666666665</v>
       </c>
       <c r="L77" s="23">
-        <f>E233*(2/3)</f>
+        <f>E234*(2/3)</f>
         <v>1648666.6666666665</v>
       </c>
     </row>
@@ -3873,7 +3873,7 @@
       <c r="D78" s="1"/>
       <c r="E78" s="12">
         <f t="shared" si="0"/>
-        <v>2.3149441800792365</v>
+        <v>2.3077052968639089</v>
       </c>
       <c r="F78" s="15">
         <f t="shared" si="1"/>
@@ -3902,7 +3902,7 @@
       <c r="D79" s="23"/>
       <c r="E79" s="24">
         <f t="shared" si="0"/>
-        <v>7.6557891798126061</v>
+        <v>7.6318493525499305</v>
       </c>
       <c r="F79" s="25">
         <f t="shared" si="1"/>
@@ -3940,7 +3940,7 @@
       <c r="D80" s="1"/>
       <c r="E80" s="12">
         <f t="shared" si="0"/>
-        <v>2.2347448030540193</v>
+        <v>2.2277567051186233</v>
       </c>
       <c r="F80" s="15">
         <f t="shared" si="1"/>
@@ -3968,7 +3968,7 @@
       <c r="D81" s="23"/>
       <c r="E81" s="24">
         <f>C81/$B$37</f>
-        <v>6.7649258296135741</v>
+        <v>6.7437717523523029</v>
       </c>
       <c r="F81" s="25">
         <f>FLOOR(E81,1)</f>
@@ -3999,7 +3999,7 @@
       <c r="D82" s="1"/>
       <c r="E82" s="12">
         <f t="shared" si="0"/>
-        <v>0.83450703120833902</v>
+        <v>0.83189750870094092</v>
       </c>
       <c r="F82" s="15">
         <f t="shared" si="1"/>
@@ -4027,7 +4027,7 @@
       <c r="D83" s="23"/>
       <c r="E83" s="24">
         <f>C83/$B$37</f>
-        <v>0.41616974023896386</v>
+        <v>0.41486836797553417</v>
       </c>
       <c r="F83" s="25">
         <f t="shared" si="1"/>
@@ -4052,18 +4052,18 @@
       </c>
       <c r="C84" s="7">
         <f>SUM(C41:C83)</f>
-        <v>317411000</v>
+        <v>318411000</v>
       </c>
       <c r="D84" s="7"/>
       <c r="E84" s="7">
         <f>SUM(E41:E83)</f>
-        <v>688.00444489057179</v>
+        <v>688.01381205967607</v>
       </c>
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c r="H84" s="7">
         <f>SUM(H41:H83)</f>
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="85" spans="1:11" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -4073,11 +4073,11 @@
       </c>
       <c r="B86" s="12">
         <f>$C$84/B32</f>
-        <v>73.944494042199281</v>
+        <v>74.177455388977435</v>
       </c>
       <c r="C86" s="12">
         <f>$C$84/C32</f>
-        <v>68.74542387438143</v>
+        <v>68.962005605557664</v>
       </c>
       <c r="I86" s="1"/>
     </row>
@@ -4089,7 +4089,7 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B90" t="s">
         <v>124</v>
@@ -4100,10 +4100,10 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B91" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C91" s="1">
         <f>C46+C49+C53+C54+C72+C45+C51</f>
@@ -4112,10 +4112,10 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B92" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C92" s="1">
         <f>C42+C43+C41+C47+C79+C50</f>
@@ -4124,10 +4124,10 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B93" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C93" s="1">
         <f>C57+C58+C63+C74+C65+C69</f>
@@ -4137,22 +4137,22 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B94" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C94" s="1">
         <f>C52+C48+C75+C44+C77+C67+C61+C59</f>
-        <v>53632000</v>
+        <v>54632000</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B95" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C95" s="1">
         <f>C56+C55+C60+C64+C68</f>
@@ -4162,10 +4162,10 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B96" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C96" s="1">
         <f>C66+C62+C76+C71+C70+C81+C78+C83+C82+C80</f>
@@ -4174,7 +4174,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>38</v>
@@ -4187,7 +4187,7 @@
     <row r="98" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C98" s="1">
         <f>SUM(C91:C97)</f>
-        <v>317411000</v>
+        <v>318411000</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -5796,7 +5796,7 @@
         <v>15</v>
       </c>
       <c r="B219" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C219" t="s">
         <v>114</v>
@@ -5822,7 +5822,7 @@
         <v>1180000</v>
       </c>
       <c r="E220" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -5881,7 +5881,7 @@
         <v>20</v>
       </c>
       <c r="B224" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C224" t="s">
         <v>80</v>
@@ -5915,7 +5915,7 @@
         <v>22</v>
       </c>
       <c r="B226" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C226" t="s">
         <v>79</v>
@@ -5924,7 +5924,7 @@
         <v>1021000</v>
       </c>
       <c r="E226" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -5932,7 +5932,7 @@
         <v>23</v>
       </c>
       <c r="B227" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C227" t="s">
         <v>86</v>
@@ -5949,7 +5949,7 @@
         <v>24</v>
       </c>
       <c r="B228" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C228" t="s">
         <v>94</v>
@@ -5966,7 +5966,7 @@
         <v>25</v>
       </c>
       <c r="B229" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C229" t="s">
         <v>86</v>
@@ -6034,16 +6034,16 @@
         <v>29</v>
       </c>
       <c r="B233" t="s">
-        <v>194</v>
+        <v>168</v>
       </c>
       <c r="C233" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="D233" s="1">
-        <v>877000</v>
+        <v>883000</v>
       </c>
       <c r="E233" s="1">
-        <v>2473000</v>
+        <v>3161000</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -6051,16 +6051,16 @@
         <v>30</v>
       </c>
       <c r="B234" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="C234" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="D234" s="1">
-        <v>851000</v>
+        <v>877000</v>
       </c>
       <c r="E234" s="1">
-        <v>2329000</v>
+        <v>2473000</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -6068,16 +6068,16 @@
         <v>31</v>
       </c>
       <c r="B235" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="C235" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D235" s="1">
-        <v>824000</v>
+        <v>851000</v>
       </c>
       <c r="E235" s="1">
-        <v>1651000</v>
+        <v>2329000</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -6085,16 +6085,16 @@
         <v>32</v>
       </c>
       <c r="B236" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C236" t="s">
-        <v>195</v>
+        <v>103</v>
       </c>
       <c r="D236" s="1">
-        <v>802000</v>
+        <v>824000</v>
       </c>
       <c r="E236" s="1">
-        <v>2547000</v>
+        <v>1651000</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -6102,16 +6102,16 @@
         <v>33</v>
       </c>
       <c r="B237" t="s">
-        <v>164</v>
+        <v>204</v>
       </c>
       <c r="C237" t="s">
-        <v>100</v>
+        <v>195</v>
       </c>
       <c r="D237" s="1">
-        <v>788000</v>
+        <v>802000</v>
       </c>
       <c r="E237" s="1">
-        <v>5312000</v>
+        <v>2547000</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -6119,16 +6119,16 @@
         <v>34</v>
       </c>
       <c r="B238" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C238" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="D238" s="1">
-        <v>765000</v>
+        <v>788000</v>
       </c>
       <c r="E238" s="1">
-        <v>1252000</v>
+        <v>5312000</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -6136,16 +6136,16 @@
         <v>35</v>
       </c>
       <c r="B239" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="C239" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="D239" s="1">
-        <v>741000</v>
+        <v>765000</v>
       </c>
       <c r="E239" s="1">
-        <v>1782000</v>
+        <v>1252000</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -6153,16 +6153,16 @@
         <v>36</v>
       </c>
       <c r="B240" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C240" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="D240" s="1">
-        <v>729000</v>
+        <v>741000</v>
       </c>
       <c r="E240" s="1">
-        <v>2175000</v>
+        <v>1782000</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -6170,16 +6170,16 @@
         <v>37</v>
       </c>
       <c r="B241" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C241" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D241" s="1">
-        <v>701000</v>
+        <v>729000</v>
       </c>
       <c r="E241" s="1">
-        <v>2461000</v>
+        <v>2175000</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -6187,16 +6187,16 @@
         <v>38</v>
       </c>
       <c r="B242" t="s">
-        <v>215</v>
+        <v>269</v>
       </c>
       <c r="C242" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="D242" s="1">
-        <v>682000</v>
+        <v>707000</v>
       </c>
       <c r="E242" s="1">
-        <v>1221000</v>
+        <v>2434000</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -6204,16 +6204,16 @@
         <v>39</v>
       </c>
       <c r="B243" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C243" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="D243" s="1">
-        <v>668000</v>
+        <v>682000</v>
       </c>
       <c r="E243" s="1">
-        <v>1814000</v>
+        <v>1221000</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -6221,16 +6221,16 @@
         <v>40</v>
       </c>
       <c r="B244" t="s">
-        <v>169</v>
+        <v>216</v>
       </c>
       <c r="C244" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D244" s="1">
-        <v>656000</v>
+        <v>668000</v>
       </c>
       <c r="E244" s="1">
-        <v>1567000</v>
+        <v>1814000</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -6238,16 +6238,16 @@
         <v>41</v>
       </c>
       <c r="B245" t="s">
-        <v>217</v>
+        <v>169</v>
       </c>
       <c r="C245" t="s">
-        <v>195</v>
+        <v>94</v>
       </c>
       <c r="D245" s="1">
-        <v>634000</v>
+        <v>656000</v>
       </c>
       <c r="E245" s="1">
-        <v>1341000</v>
+        <v>1567000</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -6255,16 +6255,16 @@
         <v>42</v>
       </c>
       <c r="B246" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="C246" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D246" s="1">
-        <v>613000</v>
+        <v>634000</v>
       </c>
       <c r="E246" s="1">
-        <v>1248000</v>
+        <v>1341000</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -6272,16 +6272,16 @@
         <v>43</v>
       </c>
       <c r="B247" t="s">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="C247" t="s">
-        <v>87</v>
+        <v>202</v>
       </c>
       <c r="D247" s="1">
-        <v>606000</v>
+        <v>613000</v>
       </c>
       <c r="E247" s="1">
-        <v>1638000</v>
+        <v>1248000</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -6289,16 +6289,16 @@
         <v>44</v>
       </c>
       <c r="B248" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="C248" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="D248" s="1">
-        <v>584000</v>
-      </c>
-      <c r="E248" t="s">
-        <v>222</v>
+        <v>606000</v>
+      </c>
+      <c r="E248" s="1">
+        <v>1638000</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -6306,16 +6306,16 @@
         <v>45</v>
       </c>
       <c r="B249" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="C249" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="D249" s="1">
-        <v>565000</v>
-      </c>
-      <c r="E249" s="1">
-        <v>1641000</v>
+        <v>584000</v>
+      </c>
+      <c r="E249" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -6323,16 +6323,16 @@
         <v>46</v>
       </c>
       <c r="B250" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="C250" t="s">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="D250" s="1">
-        <v>524000</v>
+        <v>565000</v>
       </c>
       <c r="E250" s="1">
-        <v>1051000</v>
+        <v>1641000</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -6340,16 +6340,16 @@
         <v>47</v>
       </c>
       <c r="B251" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C251" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="D251" s="1">
-        <v>501000</v>
-      </c>
-      <c r="E251" t="s">
-        <v>225</v>
+        <v>524000</v>
+      </c>
+      <c r="E251" s="1">
+        <v>1051000</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -6357,16 +6357,16 @@
         <v>48</v>
       </c>
       <c r="B252" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="C252" t="s">
         <v>91</v>
       </c>
       <c r="D252" s="1">
-        <v>479000</v>
-      </c>
-      <c r="E252" s="1">
-        <v>993000</v>
+        <v>501000</v>
+      </c>
+      <c r="E252" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -6374,16 +6374,16 @@
         <v>49</v>
       </c>
       <c r="B253" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C253" t="s">
-        <v>234</v>
+        <v>91</v>
       </c>
       <c r="D253" s="1">
-        <v>460000</v>
-      </c>
-      <c r="E253" t="s">
-        <v>235</v>
+        <v>479000</v>
+      </c>
+      <c r="E253" s="1">
+        <v>993000</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -6391,16 +6391,16 @@
         <v>50</v>
       </c>
       <c r="B254" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C254" t="s">
-        <v>88</v>
+        <v>234</v>
       </c>
       <c r="D254" s="1">
-        <v>447000</v>
-      </c>
-      <c r="E254" s="1">
-        <v>934000</v>
+        <v>460000</v>
+      </c>
+      <c r="E254" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -6408,7 +6408,7 @@
         <v>51</v>
       </c>
       <c r="B255" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C255" t="s">
         <v>226</v>
@@ -6638,7 +6638,7 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C21" s="1">
         <v>221000</v>
@@ -6650,7 +6650,7 @@
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C22" s="1">
         <v>628000</v>

--- a/obsidian-notes/spreadsheets/area.xlsx
+++ b/obsidian-notes/spreadsheets/area.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sharm\iCloudDrive\iCloud~md~obsidian\Ishan's notes\Spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A9FF66-4C8F-4203-A3C1-4E76E1E50210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A0B0CA0-5B5B-4BCE-8D3D-9C47C09A2FD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" activeTab="2" xr2:uid="{94B94BC7-FBC8-4BAC-A974-CA3E4662C848}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="275">
   <si>
     <t>OTL Metro France</t>
   </si>
@@ -734,21 +734,12 @@
     <t>Rochester</t>
   </si>
   <si>
-    <t>Dorrville[15]</t>
-  </si>
-  <si>
     <t>Lexington</t>
   </si>
   <si>
-    <t>St. Anthony[17]</t>
-  </si>
-  <si>
     <t>Juniper</t>
   </si>
   <si>
-    <t>5,942,000[18]</t>
-  </si>
-  <si>
     <t>Wheeling</t>
   </si>
   <si>
@@ -849,6 +840,30 @@
   </si>
   <si>
     <t>Fayetteville</t>
+  </si>
+  <si>
+    <t>Monticello[15]</t>
+  </si>
+  <si>
+    <t>Twickenham[16]</t>
+  </si>
+  <si>
+    <t>10,415,000[17]</t>
+  </si>
+  <si>
+    <t>St. Anthony[18]</t>
+  </si>
+  <si>
+    <t>5,942,000[19]</t>
+  </si>
+  <si>
+    <t>Appalachicola</t>
+  </si>
+  <si>
+    <t>Augusta</t>
+  </si>
+  <si>
+    <t>Espirito Santo[20]</t>
   </si>
 </sst>
 </file>
@@ -1754,7 +1769,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B41" s="14">
         <f>1-SUM(B42:B49)</f>
@@ -1894,7 +1909,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B57" s="13">
         <v>0.43099999999999999</v>
@@ -1906,7 +1921,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B58" s="13">
         <f>1-(B57+SUM(B59:B61))</f>
@@ -1919,7 +1934,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B59" s="13">
         <v>7.5999999999999998E-2</v>
@@ -1931,7 +1946,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B60" s="13">
         <v>5.8999999999999997E-2</v>
@@ -1986,7 +2001,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B1" s="1">
         <v>41865</v>
@@ -1994,7 +2009,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B2" s="1">
         <v>3142</v>
@@ -2041,10 +2056,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C745E12-030D-4421-A6DC-982053D4A77E}">
-  <dimension ref="A1:L255"/>
+  <dimension ref="A1:L259"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="L67" sqref="L67"/>
+    <sheetView tabSelected="1" topLeftCell="A238" workbookViewId="0">
+      <selection activeCell="I247" sqref="I247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2454,7 +2469,7 @@
       </c>
       <c r="B34" s="12">
         <f>C84^(1/3)</f>
-        <v>682.85635297076431</v>
+        <v>683.35638761533869</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -2462,7 +2477,7 @@
         <v>118</v>
       </c>
       <c r="B35">
-        <v>691</v>
+        <v>693</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -2471,7 +2486,7 @@
       </c>
       <c r="B36" s="15">
         <f>C84/B35</f>
-        <v>460797.3950795948</v>
+        <v>460477.63347763347</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -2480,7 +2495,7 @@
       </c>
       <c r="B37" s="15">
         <f>B36+C37</f>
-        <v>462797.3950795948</v>
+        <v>462477.63347763347</v>
       </c>
       <c r="C37">
         <v>2000</v>
@@ -2533,7 +2548,7 @@
       <c r="D41" s="23"/>
       <c r="E41" s="24">
         <f t="shared" ref="E41:E82" si="0">C41/$B$37</f>
-        <v>3.2822138070564395</v>
+        <v>3.2844831620888808</v>
       </c>
       <c r="F41" s="25">
         <f t="shared" ref="F41:F83" si="1">FLOOR(E41,1)</f>
@@ -2571,7 +2586,7 @@
       <c r="D42" s="1"/>
       <c r="E42" s="12">
         <f t="shared" si="0"/>
-        <v>33.781521171507819</v>
+        <v>33.804878048780488</v>
       </c>
       <c r="F42" s="15">
         <f t="shared" si="1"/>
@@ -2607,15 +2622,15 @@
       <c r="D43" s="23"/>
       <c r="E43" s="24">
         <f t="shared" si="0"/>
-        <v>22.984139740394568</v>
+        <v>23.000031201540107</v>
       </c>
       <c r="F43" s="25">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G43" s="22">
         <f t="shared" si="3"/>
-        <v>22.494443758403985</v>
+        <v>23.49468024894146</v>
       </c>
       <c r="H43" s="22">
         <f t="shared" si="2"/>
@@ -2640,32 +2655,32 @@
         <v>80</v>
       </c>
       <c r="C44" s="1">
-        <v>11511000</v>
+        <v>12011000</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="12">
         <f t="shared" si="0"/>
-        <v>24.872655123783197</v>
+        <v>25.970985687853553</v>
       </c>
       <c r="F44" s="15">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G44">
         <f t="shared" si="3"/>
-        <v>24.494897427831781</v>
+        <v>25.495097567963924</v>
       </c>
       <c r="H44">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K44" s="1">
         <f>K139+K145*(1/3)</f>
         <v>5764333.333333333</v>
       </c>
       <c r="L44" s="1">
-        <f>E224+E234*(1/3)+E251*0.7+E243*0.3</f>
-        <v>6331333.333333333</v>
+        <f>E224+E234*(1/3)+E251*0.7+E243*0.3+E255*0.6</f>
+        <v>6931933.333333333</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -2681,7 +2696,7 @@
       <c r="D45" s="23"/>
       <c r="E45" s="24">
         <f t="shared" si="0"/>
-        <v>7.8781774460354042</v>
+        <v>7.8836244957051083</v>
       </c>
       <c r="F45" s="25">
         <f t="shared" si="1"/>
@@ -2719,7 +2734,7 @@
       <c r="D46" s="1"/>
       <c r="E46" s="12">
         <f t="shared" si="0"/>
-        <v>18.761989787143559</v>
+        <v>18.77496201212492</v>
       </c>
       <c r="F46" s="15">
         <f t="shared" si="1"/>
@@ -2755,7 +2770,7 @@
       <c r="D47" s="23"/>
       <c r="E47" s="24">
         <f t="shared" si="0"/>
-        <v>10.322011426141286</v>
+        <v>10.329148166753511</v>
       </c>
       <c r="F47" s="25">
         <f t="shared" si="1"/>
@@ -2788,12 +2803,12 @@
         <v>84</v>
       </c>
       <c r="C48" s="1">
-        <v>9118000</v>
+        <v>9018000</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="12">
         <f t="shared" si="0"/>
-        <v>19.701925933338128</v>
+        <v>19.499321366502652</v>
       </c>
       <c r="F48" s="15">
         <f t="shared" si="1"/>
@@ -2812,8 +2827,8 @@
         <v>6491000</v>
       </c>
       <c r="L48" s="1">
-        <f>E223+E251*0.3</f>
-        <v>6606300</v>
+        <f>E223+E251*0.3+E255*0.4</f>
+        <v>7006700</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -2829,7 +2844,7 @@
       <c r="D49" s="23"/>
       <c r="E49" s="24">
         <f t="shared" si="0"/>
-        <v>3.7683876757777686</v>
+        <v>3.7709931762231785</v>
       </c>
       <c r="F49" s="25">
         <f t="shared" si="1"/>
@@ -2867,7 +2882,7 @@
       <c r="D50" s="1"/>
       <c r="E50" s="12">
         <f t="shared" si="0"/>
-        <v>41.359351205310936</v>
+        <v>41.387947469087074</v>
       </c>
       <c r="F50" s="15">
         <f t="shared" si="1"/>
@@ -2903,7 +2918,7 @@
       <c r="D51" s="23"/>
       <c r="E51" s="24">
         <f t="shared" si="0"/>
-        <v>84.786561932249924</v>
+        <v>84.845184198292031</v>
       </c>
       <c r="F51" s="25">
         <f t="shared" si="1"/>
@@ -2941,7 +2956,7 @@
       <c r="D52" s="1"/>
       <c r="E52" s="12">
         <f t="shared" si="0"/>
-        <v>27.033427873655771</v>
+        <v>27.052119052596435</v>
       </c>
       <c r="F52" s="15">
         <f t="shared" si="1"/>
@@ -2977,7 +2992,7 @@
       <c r="D53" s="23"/>
       <c r="E53" s="24">
         <f t="shared" si="0"/>
-        <v>2.3725284793600858</v>
+        <v>2.3741688689753726</v>
       </c>
       <c r="F53" s="25">
         <f t="shared" si="1"/>
@@ -3015,7 +3030,7 @@
       <c r="D54" s="1"/>
       <c r="E54" s="12">
         <f t="shared" si="0"/>
-        <v>1.83017451914207</v>
+        <v>1.8314399198744451</v>
       </c>
       <c r="F54" s="15">
         <f t="shared" si="1"/>
@@ -3043,7 +3058,7 @@
       <c r="D55" s="23"/>
       <c r="E55" s="24">
         <f t="shared" si="0"/>
-        <v>20.356640076549517</v>
+        <v>20.370714858485414</v>
       </c>
       <c r="F55" s="25">
         <f t="shared" si="1"/>
@@ -3064,7 +3079,7 @@
         <v>4234300</v>
       </c>
       <c r="L55" s="26">
-        <f>E207*0.1+E218*0.8+E253</f>
+        <f>E207*0.1+E218*0.8+E254</f>
         <v>5227300</v>
       </c>
     </row>
@@ -3082,7 +3097,7 @@
       <c r="D56" s="1"/>
       <c r="E56" s="12">
         <f t="shared" si="0"/>
-        <v>22.644898418664575</v>
+        <v>22.660555325010844</v>
       </c>
       <c r="F56" s="15">
         <f t="shared" si="1"/>
@@ -3118,7 +3133,7 @@
       <c r="D57" s="23"/>
       <c r="E57" s="24">
         <f t="shared" si="0"/>
-        <v>50.683085621011088</v>
+        <v>50.71812840681816</v>
       </c>
       <c r="F57" s="25">
         <f t="shared" si="1"/>
@@ -3156,7 +3171,7 @@
       <c r="D58" s="1"/>
       <c r="E58" s="12">
         <f t="shared" si="0"/>
-        <v>19.667353569340165</v>
+        <v>19.680951771779455</v>
       </c>
       <c r="F58" s="15">
         <f t="shared" si="1"/>
@@ -3187,12 +3202,12 @@
         <v>95</v>
       </c>
       <c r="C59" s="23">
-        <v>5302000</v>
+        <v>5402000</v>
       </c>
       <c r="D59" s="23"/>
       <c r="E59" s="24">
         <f t="shared" si="0"/>
-        <v>11.456417119824387</v>
+        <v>11.680564872682115</v>
       </c>
       <c r="F59" s="25">
         <f t="shared" si="1"/>
@@ -3204,7 +3219,7 @@
       </c>
       <c r="H59" s="22">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I59" s="22"/>
       <c r="J59" s="22"/>
@@ -3213,8 +3228,8 @@
         <v>2430900</v>
       </c>
       <c r="L59" s="26">
-        <f>E211*0.1+E235*0.9</f>
-        <v>2790900</v>
+        <f>E211*0.1+E235*0.9+E252</f>
+        <v>4021900</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -3230,7 +3245,7 @@
       <c r="D60" s="1"/>
       <c r="E60" s="12">
         <f t="shared" si="0"/>
-        <v>14.915814292370376</v>
+        <v>14.926127233640253</v>
       </c>
       <c r="F60" s="15">
         <f t="shared" si="1"/>
@@ -3266,7 +3281,7 @@
       <c r="D61" s="23"/>
       <c r="E61" s="24">
         <f t="shared" si="0"/>
-        <v>3.2433198975587332</v>
+        <v>3.2455623609581368</v>
       </c>
       <c r="F61" s="25">
         <f t="shared" si="1"/>
@@ -3304,7 +3319,7 @@
       <c r="D62" s="1"/>
       <c r="E62" s="12">
         <f t="shared" si="0"/>
-        <v>25.093053944270199</v>
+        <v>25.110403529518216</v>
       </c>
       <c r="F62" s="15">
         <f t="shared" si="1"/>
@@ -3340,7 +3355,7 @@
       <c r="D63" s="23"/>
       <c r="E63" s="24">
         <f t="shared" si="0"/>
-        <v>19.189822791618326</v>
+        <v>19.203090824563102</v>
       </c>
       <c r="F63" s="25">
         <f t="shared" si="1"/>
@@ -3378,15 +3393,15 @@
       <c r="D64" s="1"/>
       <c r="E64" s="12">
         <f t="shared" si="0"/>
-        <v>47.975637365420752</v>
+        <v>48.008808194772492</v>
       </c>
       <c r="F64" s="15">
         <f t="shared" si="1"/>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G64">
         <f t="shared" si="3"/>
-        <v>47.497368348151667</v>
+        <v>48.497422611928563</v>
       </c>
       <c r="H64">
         <f t="shared" si="2"/>
@@ -3414,7 +3429,7 @@
       <c r="D65" s="23"/>
       <c r="E65" s="24">
         <f t="shared" si="0"/>
-        <v>15.760676437570552</v>
+        <v>15.771573524869188</v>
       </c>
       <c r="F65" s="25">
         <f t="shared" si="1"/>
@@ -3452,7 +3467,7 @@
       <c r="D66" s="1"/>
       <c r="E66" s="12">
         <f t="shared" si="0"/>
-        <v>7.6188847160506947</v>
+        <v>7.6241524881668159</v>
       </c>
       <c r="F66" s="15">
         <f t="shared" si="1"/>
@@ -3483,24 +3498,24 @@
         <v>103</v>
       </c>
       <c r="C67" s="23">
-        <v>8562000</v>
+        <v>9062000</v>
       </c>
       <c r="D67" s="23"/>
       <c r="E67" s="24">
         <f t="shared" si="0"/>
-        <v>18.500536284408977</v>
+        <v>19.594461102600025</v>
       </c>
       <c r="F67" s="25">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G67" s="22">
         <f t="shared" si="3"/>
-        <v>18.493242008906929</v>
+        <v>19.493588689617926</v>
       </c>
       <c r="H67" s="22">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I67" s="22"/>
       <c r="J67" s="22"/>
@@ -3509,8 +3524,8 @@
         <v>2697200</v>
       </c>
       <c r="L67" s="26">
-        <f>E213*0.4+E225*0.8+E236*0.9</f>
-        <v>5651900</v>
+        <f>E213*0.4+E225*0.8+E236*0.9+E257</f>
+        <v>6555900</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -3518,7 +3533,7 @@
         <v>28</v>
       </c>
       <c r="B68" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C68" s="1">
         <v>3443000</v>
@@ -3526,7 +3541,7 @@
       <c r="D68" s="1"/>
       <c r="E68" s="12">
         <f t="shared" si="0"/>
-        <v>7.4395405778112718</v>
+        <v>7.4446843496194974</v>
       </c>
       <c r="F68" s="15">
         <f t="shared" si="1"/>
@@ -3562,7 +3577,7 @@
       <c r="D69" s="23"/>
       <c r="E69" s="24">
         <f t="shared" si="0"/>
-        <v>11.532044166069927</v>
+        <v>11.540017535265541</v>
       </c>
       <c r="F69" s="25">
         <f t="shared" si="1"/>
@@ -3592,15 +3607,15 @@
         <v>30</v>
       </c>
       <c r="B70" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C70" s="1">
-        <v>2234000</v>
+        <v>1934000</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="12">
         <f t="shared" si="0"/>
-        <v>4.8271663232153301</v>
+        <v>4.181823854825474</v>
       </c>
       <c r="F70" s="15">
         <f t="shared" si="1"/>
@@ -3612,11 +3627,11 @@
       </c>
       <c r="H70">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L70" s="1">
         <f>E247</f>
-        <v>1248000</v>
+        <v>1048000</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -3632,7 +3647,7 @@
       <c r="D71" s="23"/>
       <c r="E71" s="24">
         <f t="shared" si="0"/>
-        <v>17.979790051689687</v>
+        <v>17.99222145605107</v>
       </c>
       <c r="F71" s="25">
         <f t="shared" si="1"/>
@@ -3670,7 +3685,7 @@
       <c r="D72" s="1"/>
       <c r="E72" s="12">
         <f t="shared" si="0"/>
-        <v>1.8841938378888843</v>
+        <v>1.8854965881115893</v>
       </c>
       <c r="F72" s="15">
         <f t="shared" si="1"/>
@@ -3698,7 +3713,7 @@
       <c r="D73" s="23"/>
       <c r="E73" s="24">
         <f t="shared" si="0"/>
-        <v>10.613715747374082</v>
+        <v>10.621054175234089</v>
       </c>
       <c r="F73" s="25">
         <f t="shared" si="1"/>
@@ -3736,7 +3751,7 @@
       <c r="D74" s="1"/>
       <c r="E74" s="12">
         <f t="shared" si="0"/>
-        <v>3.6365805380355418</v>
+        <v>3.6390949057245465</v>
       </c>
       <c r="F74" s="15">
         <f t="shared" si="1"/>
@@ -3751,8 +3766,8 @@
         <v>4</v>
       </c>
       <c r="L74" s="1">
-        <f>E255</f>
-        <v>670000</v>
+        <f>E258</f>
+        <v>770000</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -3768,7 +3783,7 @@
       <c r="D75" s="23"/>
       <c r="E75" s="24">
         <f t="shared" si="0"/>
-        <v>7.4028074410634375</v>
+        <v>7.4079258152182392</v>
       </c>
       <c r="F75" s="25">
         <f t="shared" si="1"/>
@@ -3803,7 +3818,7 @@
       <c r="D76" s="1"/>
       <c r="E76" s="12">
         <f t="shared" si="0"/>
-        <v>16.862670540005567</v>
+        <v>16.874329556906929</v>
       </c>
       <c r="F76" s="15">
         <f t="shared" si="1"/>
@@ -3835,7 +3850,7 @@
       <c r="D77" s="23"/>
       <c r="E77" s="24">
         <f t="shared" si="0"/>
-        <v>5.8362471974058217</v>
+        <v>5.8402824363410577</v>
       </c>
       <c r="F77" s="25">
         <f t="shared" si="1"/>
@@ -3873,7 +3888,7 @@
       <c r="D78" s="1"/>
       <c r="E78" s="12">
         <f t="shared" si="0"/>
-        <v>2.3077052968639089</v>
+        <v>2.3093008670907995</v>
       </c>
       <c r="F78" s="15">
         <f t="shared" si="1"/>
@@ -3902,7 +3917,7 @@
       <c r="D79" s="23"/>
       <c r="E79" s="24">
         <f t="shared" si="0"/>
-        <v>7.6318493525499305</v>
+        <v>7.6371260885437309</v>
       </c>
       <c r="F79" s="25">
         <f t="shared" si="1"/>
@@ -3940,7 +3955,7 @@
       <c r="D80" s="1"/>
       <c r="E80" s="12">
         <f t="shared" si="0"/>
-        <v>2.2277567051186233</v>
+        <v>2.2292969980998261</v>
       </c>
       <c r="F80" s="15">
         <f t="shared" si="1"/>
@@ -3968,7 +3983,7 @@
       <c r="D81" s="23"/>
       <c r="E81" s="24">
         <f>C81/$B$37</f>
-        <v>6.7437717523523029</v>
+        <v>6.7484344627250801</v>
       </c>
       <c r="F81" s="25">
         <f>FLOOR(E81,1)</f>
@@ -3999,7 +4014,7 @@
       <c r="D82" s="1"/>
       <c r="E82" s="12">
         <f t="shared" si="0"/>
-        <v>0.83189750870094092</v>
+        <v>0.83247269085202047</v>
       </c>
       <c r="F82" s="15">
         <f t="shared" si="1"/>
@@ -4027,7 +4042,7 @@
       <c r="D83" s="23"/>
       <c r="E83" s="24">
         <f>C83/$B$37</f>
-        <v>0.41486836797553417</v>
+        <v>0.41515521206126738</v>
       </c>
       <c r="F83" s="25">
         <f t="shared" si="1"/>
@@ -4052,18 +4067,18 @@
       </c>
       <c r="C84" s="7">
         <f>SUM(C41:C83)</f>
-        <v>318411000</v>
+        <v>319111000</v>
       </c>
       <c r="D84" s="7"/>
       <c r="E84" s="7">
         <f>SUM(E41:E83)</f>
-        <v>688.01381205967607</v>
+        <v>690.00309831293259</v>
       </c>
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c r="H84" s="7">
         <f>SUM(H41:H83)</f>
-        <v>691</v>
+        <v>693</v>
       </c>
     </row>
     <row r="85" spans="1:11" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -4073,11 +4088,11 @@
       </c>
       <c r="B86" s="12">
         <f>$C$84/B32</f>
-        <v>74.177455388977435</v>
+        <v>74.34052833172214</v>
       </c>
       <c r="C86" s="12">
         <f>$C$84/C32</f>
-        <v>68.962005605557664</v>
+        <v>69.113612817381039</v>
       </c>
       <c r="I86" s="1"/>
     </row>
@@ -4089,7 +4104,7 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B90" t="s">
         <v>124</v>
@@ -4100,10 +4115,10 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B91" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C91" s="1">
         <f>C46+C49+C53+C54+C72+C45+C51</f>
@@ -4112,10 +4127,10 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B92" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C92" s="1">
         <f>C42+C43+C41+C47+C79+C50</f>
@@ -4124,10 +4139,10 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B93" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C93" s="1">
         <f>C57+C58+C63+C74+C65+C69</f>
@@ -4137,22 +4152,22 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B94" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C94" s="1">
         <f>C52+C48+C75+C44+C77+C67+C61+C59</f>
-        <v>54632000</v>
+        <v>55632000</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B95" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C95" s="1">
         <f>C56+C55+C60+C64+C68</f>
@@ -4162,19 +4177,19 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B96" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C96" s="1">
         <f>C66+C62+C76+C71+C70+C81+C78+C83+C82+C80</f>
-        <v>39295000</v>
+        <v>38995000</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>38</v>
@@ -4187,7 +4202,7 @@
     <row r="98" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C98" s="1">
         <f>SUM(C91:C97)</f>
-        <v>318411000</v>
+        <v>319111000</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -5796,7 +5811,7 @@
         <v>15</v>
       </c>
       <c r="B219" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C219" t="s">
         <v>114</v>
@@ -5822,7 +5837,7 @@
         <v>1180000</v>
       </c>
       <c r="E220" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -5881,7 +5896,7 @@
         <v>20</v>
       </c>
       <c r="B224" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C224" t="s">
         <v>80</v>
@@ -5915,7 +5930,7 @@
         <v>22</v>
       </c>
       <c r="B226" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C226" t="s">
         <v>79</v>
@@ -5924,7 +5939,7 @@
         <v>1021000</v>
       </c>
       <c r="E226" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -5932,7 +5947,7 @@
         <v>23</v>
       </c>
       <c r="B227" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C227" t="s">
         <v>86</v>
@@ -5949,7 +5964,7 @@
         <v>24</v>
       </c>
       <c r="B228" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C228" t="s">
         <v>94</v>
@@ -5966,7 +5981,7 @@
         <v>25</v>
       </c>
       <c r="B229" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C229" t="s">
         <v>86</v>
@@ -6187,7 +6202,7 @@
         <v>38</v>
       </c>
       <c r="B242" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C242" t="s">
         <v>88</v>
@@ -6281,7 +6296,7 @@
         <v>613000</v>
       </c>
       <c r="E247" s="1">
-        <v>1248000</v>
+        <v>1048000</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -6315,7 +6330,7 @@
         <v>584000</v>
       </c>
       <c r="E249" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -6323,7 +6338,7 @@
         <v>46</v>
       </c>
       <c r="B250" t="s">
-        <v>231</v>
+        <v>267</v>
       </c>
       <c r="C250" t="s">
         <v>114</v>
@@ -6357,16 +6372,16 @@
         <v>48</v>
       </c>
       <c r="B252" t="s">
-        <v>224</v>
+        <v>268</v>
       </c>
       <c r="C252" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D252" s="1">
-        <v>501000</v>
-      </c>
-      <c r="E252" t="s">
-        <v>225</v>
+        <v>517000</v>
+      </c>
+      <c r="E252" s="1">
+        <v>1231000</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -6374,16 +6389,16 @@
         <v>49</v>
       </c>
       <c r="B253" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="C253" t="s">
         <v>91</v>
       </c>
       <c r="D253" s="1">
-        <v>479000</v>
-      </c>
-      <c r="E253" s="1">
-        <v>993000</v>
+        <v>501000</v>
+      </c>
+      <c r="E253" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -6391,16 +6406,16 @@
         <v>50</v>
       </c>
       <c r="B254" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C254" t="s">
-        <v>234</v>
+        <v>91</v>
       </c>
       <c r="D254" s="1">
-        <v>460000</v>
-      </c>
-      <c r="E254" t="s">
-        <v>235</v>
+        <v>479000</v>
+      </c>
+      <c r="E254" s="1">
+        <v>993000</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -6408,16 +6423,84 @@
         <v>51</v>
       </c>
       <c r="B255" t="s">
-        <v>236</v>
+        <v>273</v>
       </c>
       <c r="C255" t="s">
+        <v>80</v>
+      </c>
+      <c r="D255" s="1">
+        <v>462000</v>
+      </c>
+      <c r="E255" s="1">
+        <v>1001000</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A256">
+        <v>52</v>
+      </c>
+      <c r="B256" t="s">
+        <v>270</v>
+      </c>
+      <c r="C256" t="s">
+        <v>232</v>
+      </c>
+      <c r="D256" s="1">
+        <v>460000</v>
+      </c>
+      <c r="E256" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A257">
+        <v>53</v>
+      </c>
+      <c r="B257" t="s">
+        <v>272</v>
+      </c>
+      <c r="C257" t="s">
+        <v>103</v>
+      </c>
+      <c r="D257" s="1">
+        <v>439000</v>
+      </c>
+      <c r="E257" s="1">
+        <v>904000</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A258">
+        <v>54</v>
+      </c>
+      <c r="B258" t="s">
+        <v>233</v>
+      </c>
+      <c r="C258" t="s">
         <v>226</v>
       </c>
-      <c r="D255" s="1">
+      <c r="D258" s="1">
         <v>429000</v>
       </c>
-      <c r="E255" s="1">
-        <v>670000</v>
+      <c r="E258" s="1">
+        <v>770000</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A259">
+        <v>55</v>
+      </c>
+      <c r="B259" t="s">
+        <v>274</v>
+      </c>
+      <c r="C259" t="s">
+        <v>103</v>
+      </c>
+      <c r="D259" s="1">
+        <v>403000</v>
+      </c>
+      <c r="E259" s="1">
+        <v>739000</v>
       </c>
     </row>
   </sheetData>
@@ -6638,7 +6721,7 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C21" s="1">
         <v>221000</v>
@@ -6650,7 +6733,7 @@
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C22" s="1">
         <v>628000</v>

--- a/obsidian-notes/spreadsheets/area.xlsx
+++ b/obsidian-notes/spreadsheets/area.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sharm\iCloudDrive\iCloud~md~obsidian\Ishan's notes\Spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A0B0CA0-5B5B-4BCE-8D3D-9C47C09A2FD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70BB9342-8D54-4DBA-9217-A961931070A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" activeTab="2" xr2:uid="{94B94BC7-FBC8-4BAC-A974-CA3E4662C848}"/>
   </bookViews>
@@ -19,6 +19,7 @@
     <sheet name="buenaventura" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2056,10 +2057,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C745E12-030D-4421-A6DC-982053D4A77E}">
-  <dimension ref="A1:L259"/>
+  <dimension ref="A1:M259"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A238" workbookViewId="0">
-      <selection activeCell="I247" sqref="I247"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2469,7 +2470,7 @@
       </c>
       <c r="B34" s="12">
         <f>C84^(1/3)</f>
-        <v>683.35638761533869</v>
+        <v>681.49541140077338</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -2486,7 +2487,7 @@
       </c>
       <c r="B36" s="15">
         <f>C84/B35</f>
-        <v>460477.63347763347</v>
+        <v>456725.82972582971</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -2495,7 +2496,7 @@
       </c>
       <c r="B37" s="15">
         <f>B36+C37</f>
-        <v>462477.63347763347</v>
+        <v>458725.82972582971</v>
       </c>
       <c r="C37">
         <v>2000</v>
@@ -2548,7 +2549,7 @@
       <c r="D41" s="23"/>
       <c r="E41" s="24">
         <f t="shared" ref="E41:E82" si="0">C41/$B$37</f>
-        <v>3.2844831620888808</v>
+        <v>3.3113461278338581</v>
       </c>
       <c r="F41" s="25">
         <f t="shared" ref="F41:F83" si="1">FLOOR(E41,1)</f>
@@ -2586,15 +2587,15 @@
       <c r="D42" s="1"/>
       <c r="E42" s="12">
         <f t="shared" si="0"/>
-        <v>33.804878048780488</v>
+        <v>34.081359685684355</v>
       </c>
       <c r="F42" s="15">
         <f t="shared" si="1"/>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G42">
         <f t="shared" ref="G42:G83" si="3">SQRT(F42*(F42+1))</f>
-        <v>33.496268448888451</v>
+        <v>34.496376621320678</v>
       </c>
       <c r="H42">
         <f t="shared" si="2"/>
@@ -2622,7 +2623,7 @@
       <c r="D43" s="23"/>
       <c r="E43" s="24">
         <f t="shared" si="0"/>
-        <v>23.000031201540107</v>
+        <v>23.188142700308592</v>
       </c>
       <c r="F43" s="25">
         <f t="shared" si="1"/>
@@ -2660,15 +2661,15 @@
       <c r="D44" s="1"/>
       <c r="E44" s="12">
         <f t="shared" si="0"/>
-        <v>25.970985687853553</v>
+        <v>26.183395879797544</v>
       </c>
       <c r="F44" s="15">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G44">
         <f t="shared" si="3"/>
-        <v>25.495097567963924</v>
+        <v>26.49528259898354</v>
       </c>
       <c r="H44">
         <f t="shared" si="2"/>
@@ -2696,7 +2697,7 @@
       <c r="D45" s="23"/>
       <c r="E45" s="24">
         <f t="shared" si="0"/>
-        <v>7.8836244957051083</v>
+        <v>7.9481026873484177</v>
       </c>
       <c r="F45" s="25">
         <f t="shared" si="1"/>
@@ -2734,7 +2735,7 @@
       <c r="D46" s="1"/>
       <c r="E46" s="12">
         <f t="shared" si="0"/>
-        <v>18.77496201212492</v>
+        <v>18.92851772744002</v>
       </c>
       <c r="F46" s="15">
         <f t="shared" si="1"/>
@@ -2770,7 +2771,7 @@
       <c r="D47" s="23"/>
       <c r="E47" s="24">
         <f t="shared" si="0"/>
-        <v>10.329148166753511</v>
+        <v>10.413627684438671</v>
       </c>
       <c r="F47" s="25">
         <f t="shared" si="1"/>
@@ -2808,7 +2809,7 @@
       <c r="D48" s="1"/>
       <c r="E48" s="12">
         <f t="shared" si="0"/>
-        <v>19.499321366502652</v>
+        <v>19.658801435685145</v>
       </c>
       <c r="F48" s="15">
         <f t="shared" si="1"/>
@@ -2844,7 +2845,7 @@
       <c r="D49" s="23"/>
       <c r="E49" s="24">
         <f t="shared" si="0"/>
-        <v>3.7709931762231785</v>
+        <v>3.8018351856104338</v>
       </c>
       <c r="F49" s="25">
         <f t="shared" si="1"/>
@@ -2882,7 +2883,7 @@
       <c r="D50" s="1"/>
       <c r="E50" s="12">
         <f t="shared" si="0"/>
-        <v>41.387947469087074</v>
+        <v>41.726449132895247</v>
       </c>
       <c r="F50" s="15">
         <f t="shared" si="1"/>
@@ -2894,7 +2895,7 @@
       </c>
       <c r="H50">
         <f t="shared" si="2"/>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K50" s="11">
         <f>K127+K129*(2.5/9)</f>
@@ -2913,24 +2914,24 @@
         <v>87</v>
       </c>
       <c r="C51" s="23">
-        <v>39239000</v>
+        <v>36239000</v>
       </c>
       <c r="D51" s="23"/>
       <c r="E51" s="24">
         <f t="shared" si="0"/>
-        <v>84.845184198292031</v>
+        <v>78.999257621179183</v>
       </c>
       <c r="F51" s="25">
         <f t="shared" si="1"/>
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G51" s="22">
         <f t="shared" si="3"/>
-        <v>84.498520697110436</v>
+        <v>78.498407627161455</v>
       </c>
       <c r="H51" s="22">
         <f t="shared" si="2"/>
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="I51" s="22"/>
       <c r="J51" s="22"/>
@@ -2956,7 +2957,7 @@
       <c r="D52" s="1"/>
       <c r="E52" s="12">
         <f t="shared" si="0"/>
-        <v>27.052119052596435</v>
+        <v>27.273371563745492</v>
       </c>
       <c r="F52" s="15">
         <f t="shared" si="1"/>
@@ -2992,7 +2993,7 @@
       <c r="D53" s="23"/>
       <c r="E53" s="24">
         <f t="shared" si="0"/>
-        <v>2.3741688689753726</v>
+        <v>2.3935866019496883</v>
       </c>
       <c r="F53" s="25">
         <f t="shared" si="1"/>
@@ -3030,7 +3031,7 @@
       <c r="D54" s="1"/>
       <c r="E54" s="12">
         <f t="shared" si="0"/>
-        <v>1.8314399198744451</v>
+        <v>1.8464188086078195</v>
       </c>
       <c r="F54" s="15">
         <f t="shared" si="1"/>
@@ -3058,7 +3059,7 @@
       <c r="D55" s="23"/>
       <c r="E55" s="24">
         <f t="shared" si="0"/>
-        <v>20.370714858485414</v>
+        <v>20.537321836947189</v>
       </c>
       <c r="F55" s="25">
         <f t="shared" si="1"/>
@@ -3070,7 +3071,7 @@
       </c>
       <c r="H55" s="22">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I55" s="22"/>
       <c r="J55" s="22"/>
@@ -3097,7 +3098,7 @@
       <c r="D56" s="1"/>
       <c r="E56" s="12">
         <f t="shared" si="0"/>
-        <v>22.660555325010844</v>
+        <v>22.845890335548937</v>
       </c>
       <c r="F56" s="15">
         <f t="shared" si="1"/>
@@ -3133,15 +3134,15 @@
       <c r="D57" s="23"/>
       <c r="E57" s="24">
         <f t="shared" si="0"/>
-        <v>50.71812840681816</v>
+        <v>51.132939285366014</v>
       </c>
       <c r="F57" s="25">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G57" s="22">
         <f t="shared" si="3"/>
-        <v>50.497524691810391</v>
+        <v>51.497572758334933</v>
       </c>
       <c r="H57" s="22">
         <f t="shared" si="2"/>
@@ -3171,7 +3172,7 @@
       <c r="D58" s="1"/>
       <c r="E58" s="12">
         <f t="shared" si="0"/>
-        <v>19.680951771779455</v>
+        <v>19.8419173505884</v>
       </c>
       <c r="F58" s="15">
         <f t="shared" si="1"/>
@@ -3207,7 +3208,7 @@
       <c r="D59" s="23"/>
       <c r="E59" s="24">
         <f t="shared" si="0"/>
-        <v>11.680564872682115</v>
+        <v>11.776097289373602</v>
       </c>
       <c r="F59" s="25">
         <f t="shared" si="1"/>
@@ -3245,15 +3246,15 @@
       <c r="D60" s="1"/>
       <c r="E60" s="12">
         <f t="shared" si="0"/>
-        <v>14.926127233640253</v>
+        <v>15.048204292585336</v>
       </c>
       <c r="F60" s="15">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G60">
         <f t="shared" si="3"/>
-        <v>14.491376746189438</v>
+        <v>15.491933384829668</v>
       </c>
       <c r="H60">
         <f t="shared" si="2"/>
@@ -3281,7 +3282,7 @@
       <c r="D61" s="23"/>
       <c r="E61" s="24">
         <f t="shared" si="0"/>
-        <v>3.2455623609581368</v>
+        <v>3.2721070032117323</v>
       </c>
       <c r="F61" s="25">
         <f t="shared" si="1"/>
@@ -3319,7 +3320,7 @@
       <c r="D62" s="1"/>
       <c r="E62" s="12">
         <f t="shared" si="0"/>
-        <v>25.110403529518216</v>
+        <v>25.315775235374982</v>
       </c>
       <c r="F62" s="15">
         <f t="shared" si="1"/>
@@ -3355,7 +3356,7 @@
       <c r="D63" s="23"/>
       <c r="E63" s="24">
         <f t="shared" si="0"/>
-        <v>19.203090824563102</v>
+        <v>19.360148098283407</v>
       </c>
       <c r="F63" s="25">
         <f t="shared" si="1"/>
@@ -3393,7 +3394,7 @@
       <c r="D64" s="1"/>
       <c r="E64" s="12">
         <f t="shared" si="0"/>
-        <v>48.008808194772492</v>
+        <v>48.401460221392462</v>
       </c>
       <c r="F64" s="15">
         <f t="shared" si="1"/>
@@ -3429,7 +3430,7 @@
       <c r="D65" s="23"/>
       <c r="E65" s="24">
         <f t="shared" si="0"/>
-        <v>15.771573524869188</v>
+        <v>15.900565277432628</v>
       </c>
       <c r="F65" s="25">
         <f t="shared" si="1"/>
@@ -3467,7 +3468,7 @@
       <c r="D66" s="1"/>
       <c r="E66" s="12">
         <f t="shared" si="0"/>
-        <v>7.6241524881668159</v>
+        <v>7.6865085232009109</v>
       </c>
       <c r="F66" s="15">
         <f t="shared" si="1"/>
@@ -3503,7 +3504,7 @@
       <c r="D67" s="23"/>
       <c r="E67" s="24">
         <f t="shared" si="0"/>
-        <v>19.594461102600025</v>
+        <v>19.754719295872562</v>
       </c>
       <c r="F67" s="25">
         <f t="shared" si="1"/>
@@ -3536,24 +3537,24 @@
         <v>232</v>
       </c>
       <c r="C68" s="1">
-        <v>3443000</v>
+        <v>3943000</v>
       </c>
       <c r="D68" s="1"/>
       <c r="E68" s="12">
         <f t="shared" si="0"/>
-        <v>7.4446843496194974</v>
+        <v>8.5955482436134982</v>
       </c>
       <c r="F68" s="15">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G68">
         <f t="shared" si="3"/>
-        <v>7.4833147735478827</v>
+        <v>8.4852813742385695</v>
       </c>
       <c r="H68">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K68" s="11">
         <f>K131*(1/3)</f>
@@ -3572,12 +3573,12 @@
         <v>104</v>
       </c>
       <c r="C69" s="23">
-        <v>5337000</v>
+        <v>5137000</v>
       </c>
       <c r="D69" s="23"/>
       <c r="E69" s="24">
         <f t="shared" si="0"/>
-        <v>11.540017535265541</v>
+        <v>11.198410176881191</v>
       </c>
       <c r="F69" s="25">
         <f t="shared" si="1"/>
@@ -3589,7 +3590,7 @@
       </c>
       <c r="H69" s="22">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I69" s="22"/>
       <c r="J69" s="22"/>
@@ -3615,7 +3616,7 @@
       <c r="D70" s="1"/>
       <c r="E70" s="12">
         <f t="shared" si="0"/>
-        <v>4.181823854825474</v>
+        <v>4.216025945510653</v>
       </c>
       <c r="F70" s="15">
         <f t="shared" si="1"/>
@@ -3642,12 +3643,12 @@
         <v>195</v>
       </c>
       <c r="C71" s="23">
-        <v>8321000</v>
+        <v>7821000</v>
       </c>
       <c r="D71" s="23"/>
       <c r="E71" s="24">
         <f t="shared" si="0"/>
-        <v>17.99222145605107</v>
+        <v>17.049399648313763</v>
       </c>
       <c r="F71" s="25">
         <f t="shared" si="1"/>
@@ -3659,7 +3660,7 @@
       </c>
       <c r="H71" s="22">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I71" s="22"/>
       <c r="J71" s="22"/>
@@ -3685,7 +3686,7 @@
       <c r="D72" s="1"/>
       <c r="E72" s="12">
         <f t="shared" si="0"/>
-        <v>1.8854965881115893</v>
+        <v>1.9009175928052169</v>
       </c>
       <c r="F72" s="15">
         <f t="shared" si="1"/>
@@ -3713,7 +3714,7 @@
       <c r="D73" s="23"/>
       <c r="E73" s="24">
         <f t="shared" si="0"/>
-        <v>10.621054175234089</v>
+        <v>10.707921119104617</v>
       </c>
       <c r="F73" s="25">
         <f t="shared" si="1"/>
@@ -3746,20 +3747,20 @@
         <v>226</v>
       </c>
       <c r="C74" s="1">
-        <v>1683000</v>
+        <v>1883000</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="12">
         <f t="shared" si="0"/>
-        <v>3.6390949057245465</v>
+        <v>4.1048484257479627</v>
       </c>
       <c r="F74" s="15">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G74">
         <f t="shared" si="3"/>
-        <v>3.4641016151377544</v>
+        <v>4.4721359549995796</v>
       </c>
       <c r="H74">
         <f t="shared" si="2"/>
@@ -3783,7 +3784,7 @@
       <c r="D75" s="23"/>
       <c r="E75" s="24">
         <f t="shared" si="0"/>
-        <v>7.4079258152182392</v>
+        <v>7.4685133864113222</v>
       </c>
       <c r="F75" s="25">
         <f t="shared" si="1"/>
@@ -3813,24 +3814,24 @@
         <v>114</v>
       </c>
       <c r="C76" s="1">
-        <v>7804000</v>
+        <v>8304000</v>
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="12">
         <f t="shared" si="0"/>
-        <v>16.874329556906929</v>
+        <v>18.102316159007479</v>
       </c>
       <c r="F76" s="15">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G76">
         <f t="shared" si="3"/>
-        <v>16.492422502470642</v>
+        <v>18.493242008906929</v>
       </c>
       <c r="H76">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L76" s="1">
         <f>E219+E250</f>
@@ -3845,24 +3846,24 @@
         <v>115</v>
       </c>
       <c r="C77" s="23">
-        <v>2701000</v>
+        <v>3101000</v>
       </c>
       <c r="D77" s="23"/>
       <c r="E77" s="24">
         <f t="shared" si="0"/>
-        <v>5.8402824363410577</v>
+        <v>6.7600291918451578</v>
       </c>
       <c r="F77" s="25">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G77" s="22">
         <f t="shared" si="3"/>
-        <v>5.4772255750516612</v>
+        <v>6.4807406984078604</v>
       </c>
       <c r="H77" s="22">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I77" s="22"/>
       <c r="J77" s="22"/>
@@ -3871,8 +3872,8 @@
         <v>1648666.6666666665</v>
       </c>
       <c r="L77" s="23">
-        <f>E234*(2/3)</f>
-        <v>1648666.6666666665</v>
+        <f>E234*(2/3)+E259</f>
+        <v>2387666.6666666665</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -3888,7 +3889,7 @@
       <c r="D78" s="1"/>
       <c r="E78" s="12">
         <f t="shared" si="0"/>
-        <v>2.3093008670907995</v>
+        <v>2.3281880609128116</v>
       </c>
       <c r="F78" s="15">
         <f t="shared" si="1"/>
@@ -3917,7 +3918,7 @@
       <c r="D79" s="23"/>
       <c r="E79" s="24">
         <f t="shared" si="0"/>
-        <v>7.6371260885437309</v>
+        <v>7.6995882314082866</v>
       </c>
       <c r="F79" s="25">
         <f t="shared" si="1"/>
@@ -3955,7 +3956,7 @@
       <c r="D80" s="1"/>
       <c r="E80" s="12">
         <f t="shared" si="0"/>
-        <v>2.2292969980998261</v>
+        <v>2.2475298603006637</v>
       </c>
       <c r="F80" s="15">
         <f t="shared" si="1"/>
@@ -3970,7 +3971,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="22">
         <v>41</v>
       </c>
@@ -3978,30 +3979,30 @@
         <v>112</v>
       </c>
       <c r="C81" s="23">
-        <v>3121000</v>
+        <v>2621000</v>
       </c>
       <c r="D81" s="23"/>
       <c r="E81" s="24">
         <f>C81/$B$37</f>
-        <v>6.7484344627250801</v>
+        <v>5.7136525352551297</v>
       </c>
       <c r="F81" s="25">
         <f>FLOOR(E81,1)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G81" s="22">
         <f>SQRT(F81*(F81+1))</f>
-        <v>6.4807406984078604</v>
+        <v>5.4772255750516612</v>
       </c>
       <c r="H81" s="22">
         <f>IF(E81&gt;G81,CEILING(E81,1),FLOOR(E81,1))</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I81" s="22"/>
       <c r="J81" s="22"/>
       <c r="K81" s="22"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A82">
         <v>42</v>
       </c>
@@ -4014,7 +4015,7 @@
       <c r="D82" s="1"/>
       <c r="E82" s="12">
         <f t="shared" si="0"/>
-        <v>0.83247269085202047</v>
+        <v>0.83928127663991803</v>
       </c>
       <c r="F82" s="15">
         <f t="shared" si="1"/>
@@ -4029,7 +4030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="22">
         <v>43</v>
       </c>
@@ -4042,7 +4043,7 @@
       <c r="D83" s="23"/>
       <c r="E83" s="24">
         <f>C83/$B$37</f>
-        <v>0.41515521206126738</v>
+        <v>0.41855066263601104</v>
       </c>
       <c r="F83" s="25">
         <f t="shared" si="1"/>
@@ -4060,49 +4061,52 @@
       <c r="J83" s="22"/>
       <c r="K83" s="22"/>
     </row>
-    <row r="84" spans="1:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="84" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A84" s="4"/>
       <c r="B84" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C84" s="7">
         <f>SUM(C41:C83)</f>
-        <v>319111000</v>
+        <v>316511000</v>
       </c>
       <c r="D84" s="7"/>
       <c r="E84" s="7">
         <f>SUM(E41:E83)</f>
-        <v>690.00309831293259</v>
+        <v>689.97858740409629</v>
       </c>
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c r="H84" s="7">
         <f>SUM(H41:H83)</f>
-        <v>693</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
         <v>64</v>
       </c>
       <c r="B86" s="12">
         <f>$C$84/B32</f>
-        <v>74.34052833172214</v>
+        <v>73.734828830098948</v>
       </c>
       <c r="C86" s="12">
         <f>$C$84/C32</f>
-        <v>69.113612817381039</v>
+        <v>68.550500316322811</v>
       </c>
       <c r="I86" s="1"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="J87" s="1">
         <f>C80+C82+C83</f>
         <v>1608000</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M88" s="15"/>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
         <v>250</v>
       </c>
@@ -4113,7 +4117,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
         <v>251</v>
       </c>
@@ -4122,10 +4126,10 @@
       </c>
       <c r="C91" s="1">
         <f>C46+C49+C53+C54+C72+C45+C51</f>
-        <v>56129000</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>53129000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
         <v>252</v>
       </c>
@@ -4137,7 +4141,7 @@
         <v>55240000</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
         <v>253</v>
       </c>
@@ -4150,7 +4154,7 @@
       </c>
       <c r="J93" s="1"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
         <v>254</v>
       </c>
@@ -4159,10 +4163,10 @@
       </c>
       <c r="C94" s="1">
         <f>C52+C48+C75+C44+C77+C67+C61+C59</f>
-        <v>55632000</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>56032000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="s">
         <v>255</v>
       </c>
@@ -4171,11 +4175,11 @@
       </c>
       <c r="C95" s="1">
         <f>C56+C55+C60+C64+C68</f>
-        <v>52450000</v>
+        <v>52950000</v>
       </c>
       <c r="J95" s="15"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="s">
         <v>256</v>
       </c>
@@ -4184,7 +4188,7 @@
       </c>
       <c r="C96" s="1">
         <f>C66+C62+C76+C71+C70+C81+C78+C83+C82+C80</f>
-        <v>38995000</v>
+        <v>38495000</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -4202,7 +4206,7 @@
     <row r="98" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C98" s="1">
         <f>SUM(C91:C97)</f>
-        <v>319111000</v>
+        <v>316511000</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.55000000000000004">

--- a/obsidian-notes/spreadsheets/area.xlsx
+++ b/obsidian-notes/spreadsheets/area.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sharm\iCloudDrive\iCloud~md~obsidian\Ishan's notes\Spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70BB9342-8D54-4DBA-9217-A961931070A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66207B5C-3B37-4E8D-8807-772CA3E37E63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" activeTab="2" xr2:uid="{94B94BC7-FBC8-4BAC-A974-CA3E4662C848}"/>
   </bookViews>
@@ -19,7 +19,6 @@
     <sheet name="buenaventura" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2059,8 +2058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C745E12-030D-4421-A6DC-982053D4A77E}">
   <dimension ref="A1:M259"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2470,7 +2469,7 @@
       </c>
       <c r="B34" s="12">
         <f>C84^(1/3)</f>
-        <v>681.49541140077338</v>
+        <v>680.99263908874377</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -2478,7 +2477,7 @@
         <v>118</v>
       </c>
       <c r="B35">
-        <v>693</v>
+        <v>697</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -2487,7 +2486,7 @@
       </c>
       <c r="B36" s="15">
         <f>C84/B35</f>
-        <v>456725.82972582971</v>
+        <v>453100.43041606888</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -2496,7 +2495,7 @@
       </c>
       <c r="B37" s="15">
         <f>B36+C37</f>
-        <v>458725.82972582971</v>
+        <v>455100.43041606888</v>
       </c>
       <c r="C37">
         <v>2000</v>
@@ -2549,7 +2548,7 @@
       <c r="D41" s="23"/>
       <c r="E41" s="24">
         <f t="shared" ref="E41:E82" si="0">C41/$B$37</f>
-        <v>3.3113461278338581</v>
+        <v>3.3377248151826104</v>
       </c>
       <c r="F41" s="25">
         <f t="shared" ref="F41:F83" si="1">FLOOR(E41,1)</f>
@@ -2587,7 +2586,7 @@
       <c r="D42" s="1"/>
       <c r="E42" s="12">
         <f t="shared" si="0"/>
-        <v>34.081359685684355</v>
+        <v>34.352856985230368</v>
       </c>
       <c r="F42" s="15">
         <f t="shared" si="1"/>
@@ -2623,7 +2622,7 @@
       <c r="D43" s="23"/>
       <c r="E43" s="24">
         <f t="shared" si="0"/>
-        <v>23.188142700308592</v>
+        <v>23.372862975047681</v>
       </c>
       <c r="F43" s="25">
         <f t="shared" si="1"/>
@@ -2661,7 +2660,7 @@
       <c r="D44" s="1"/>
       <c r="E44" s="12">
         <f t="shared" si="0"/>
-        <v>26.183395879797544</v>
+        <v>26.391976797339261</v>
       </c>
       <c r="F44" s="15">
         <f t="shared" si="1"/>
@@ -2697,15 +2696,15 @@
       <c r="D45" s="23"/>
       <c r="E45" s="24">
         <f t="shared" si="0"/>
-        <v>7.9481026873484177</v>
+        <v>8.0114184833152056</v>
       </c>
       <c r="F45" s="25">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G45" s="22">
         <f t="shared" si="3"/>
-        <v>7.4833147735478827</v>
+        <v>8.4852813742385695</v>
       </c>
       <c r="H45" s="22">
         <f t="shared" si="2"/>
@@ -2735,15 +2734,15 @@
       <c r="D46" s="1"/>
       <c r="E46" s="12">
         <f t="shared" si="0"/>
-        <v>18.92851772744002</v>
+        <v>19.079305181191973</v>
       </c>
       <c r="F46" s="15">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G46">
         <f t="shared" si="3"/>
-        <v>18.493242008906929</v>
+        <v>19.493588689617926</v>
       </c>
       <c r="H46">
         <f t="shared" si="2"/>
@@ -2771,7 +2770,7 @@
       <c r="D47" s="23"/>
       <c r="E47" s="24">
         <f t="shared" si="0"/>
-        <v>10.413627684438671</v>
+        <v>10.496584227865261</v>
       </c>
       <c r="F47" s="25">
         <f t="shared" si="1"/>
@@ -2783,7 +2782,7 @@
       </c>
       <c r="H47" s="22">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I47" s="22"/>
       <c r="J47" s="22"/>
@@ -2809,7 +2808,7 @@
       <c r="D48" s="1"/>
       <c r="E48" s="12">
         <f t="shared" si="0"/>
-        <v>19.658801435685145</v>
+        <v>19.815406440629875</v>
       </c>
       <c r="F48" s="15">
         <f t="shared" si="1"/>
@@ -2845,7 +2844,7 @@
       <c r="D49" s="23"/>
       <c r="E49" s="24">
         <f t="shared" si="0"/>
-        <v>3.8018351856104338</v>
+        <v>3.832121183461799</v>
       </c>
       <c r="F49" s="25">
         <f t="shared" si="1"/>
@@ -2883,15 +2882,15 @@
       <c r="D50" s="1"/>
       <c r="E50" s="12">
         <f t="shared" si="0"/>
-        <v>41.726449132895247</v>
+        <v>42.058848378808655</v>
       </c>
       <c r="F50" s="15">
         <f t="shared" si="1"/>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G50">
         <f t="shared" si="3"/>
-        <v>41.496987842492857</v>
+        <v>42.497058721751557</v>
       </c>
       <c r="H50">
         <f t="shared" si="2"/>
@@ -2919,19 +2918,19 @@
       <c r="D51" s="23"/>
       <c r="E51" s="24">
         <f t="shared" si="0"/>
-        <v>78.999257621179183</v>
+        <v>79.628577733642274</v>
       </c>
       <c r="F51" s="25">
         <f t="shared" si="1"/>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G51" s="22">
         <f t="shared" si="3"/>
-        <v>78.498407627161455</v>
+        <v>79.498427657407163</v>
       </c>
       <c r="H51" s="22">
         <f t="shared" si="2"/>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I51" s="22"/>
       <c r="J51" s="22"/>
@@ -2957,7 +2956,7 @@
       <c r="D52" s="1"/>
       <c r="E52" s="12">
         <f t="shared" si="0"/>
-        <v>27.273371563745492</v>
+        <v>27.490635393515234</v>
       </c>
       <c r="F52" s="15">
         <f t="shared" si="1"/>
@@ -2993,7 +2992,7 @@
       <c r="D53" s="23"/>
       <c r="E53" s="24">
         <f t="shared" si="0"/>
-        <v>2.3935866019496883</v>
+        <v>2.41265427720244</v>
       </c>
       <c r="F53" s="25">
         <f t="shared" si="1"/>
@@ -3031,7 +3030,7 @@
       <c r="D54" s="1"/>
       <c r="E54" s="12">
         <f t="shared" si="0"/>
-        <v>1.8464188086078195</v>
+        <v>1.8611276619221009</v>
       </c>
       <c r="F54" s="15">
         <f t="shared" si="1"/>
@@ -3059,7 +3058,7 @@
       <c r="D55" s="23"/>
       <c r="E55" s="24">
         <f t="shared" si="0"/>
-        <v>20.537321836947189</v>
+        <v>20.70092526914771</v>
       </c>
       <c r="F55" s="25">
         <f t="shared" si="1"/>
@@ -3098,15 +3097,15 @@
       <c r="D56" s="1"/>
       <c r="E56" s="12">
         <f t="shared" si="0"/>
-        <v>22.845890335548937</v>
+        <v>23.027884175848424</v>
       </c>
       <c r="F56" s="15">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G56">
         <f t="shared" si="3"/>
-        <v>22.494443758403985</v>
+        <v>23.49468024894146</v>
       </c>
       <c r="H56">
         <f t="shared" si="2"/>
@@ -3134,7 +3133,7 @@
       <c r="D57" s="23"/>
       <c r="E57" s="24">
         <f t="shared" si="0"/>
-        <v>51.132939285366014</v>
+        <v>51.540272063807315</v>
       </c>
       <c r="F57" s="25">
         <f t="shared" si="1"/>
@@ -3146,7 +3145,7 @@
       </c>
       <c r="H57" s="22">
         <f t="shared" si="2"/>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I57" s="22"/>
       <c r="J57" s="22"/>
@@ -3167,24 +3166,24 @@
         <v>94</v>
       </c>
       <c r="C58" s="1">
-        <v>9102000</v>
+        <v>10102000</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="12">
         <f t="shared" si="0"/>
-        <v>19.8419173505884</v>
+        <v>22.197298277139389</v>
       </c>
       <c r="F58" s="15">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G58">
         <f t="shared" si="3"/>
-        <v>19.493588689617926</v>
+        <v>22.494443758403985</v>
       </c>
       <c r="H58">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K58" s="1">
         <f>K153+K143+(K124*0.1)+K142*0.6</f>
@@ -3208,7 +3207,7 @@
       <c r="D59" s="23"/>
       <c r="E59" s="24">
         <f t="shared" si="0"/>
-        <v>11.776097289373602</v>
+        <v>11.869907473085229</v>
       </c>
       <c r="F59" s="25">
         <f t="shared" si="1"/>
@@ -3241,24 +3240,24 @@
         <v>96</v>
       </c>
       <c r="C60" s="1">
-        <v>6903000</v>
+        <v>8203000</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="12">
         <f t="shared" si="0"/>
-        <v>15.048204292585336</v>
+        <v>18.024592928863036</v>
       </c>
       <c r="F60" s="15">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G60">
         <f t="shared" si="3"/>
-        <v>15.491933384829668</v>
+        <v>18.493242008906929</v>
       </c>
       <c r="H60">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K60" s="11">
         <f>K123*(1/3)+K151+K142*0.1+K149*0.7</f>
@@ -3282,7 +3281,7 @@
       <c r="D61" s="23"/>
       <c r="E61" s="24">
         <f t="shared" si="0"/>
-        <v>3.2721070032117323</v>
+        <v>3.2981731057202754</v>
       </c>
       <c r="F61" s="25">
         <f t="shared" si="1"/>
@@ -3320,7 +3319,7 @@
       <c r="D62" s="1"/>
       <c r="E62" s="12">
         <f t="shared" si="0"/>
-        <v>25.315775235374982</v>
+        <v>25.517444554783182</v>
       </c>
       <c r="F62" s="15">
         <f t="shared" si="1"/>
@@ -3332,7 +3331,7 @@
       </c>
       <c r="H62">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K62" s="11">
         <f>K130*0.6</f>
@@ -3356,7 +3355,7 @@
       <c r="D63" s="23"/>
       <c r="E63" s="24">
         <f t="shared" si="0"/>
-        <v>19.360148098283407</v>
+        <v>19.514373985277658</v>
       </c>
       <c r="F63" s="25">
         <f t="shared" si="1"/>
@@ -3368,7 +3367,7 @@
       </c>
       <c r="H63" s="22">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I63" s="22"/>
       <c r="J63" s="22"/>
@@ -3389,24 +3388,24 @@
         <v>100</v>
       </c>
       <c r="C64" s="1">
-        <v>22203000</v>
+        <v>19203000</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="12">
         <f t="shared" si="0"/>
-        <v>48.401460221392462</v>
+        <v>42.195082044734477</v>
       </c>
       <c r="F64" s="15">
         <f t="shared" si="1"/>
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G64">
         <f t="shared" si="3"/>
-        <v>48.497422611928563</v>
+        <v>42.497058721751557</v>
       </c>
       <c r="H64">
         <f t="shared" si="2"/>
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="K64" s="27">
         <f>K123*(2/3)+K147*(2/3)</f>
@@ -3430,15 +3429,15 @@
       <c r="D65" s="23"/>
       <c r="E65" s="24">
         <f t="shared" si="0"/>
-        <v>15.900565277432628</v>
+        <v>16.027231601015117</v>
       </c>
       <c r="F65" s="25">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G65" s="22">
         <f t="shared" si="3"/>
-        <v>15.491933384829668</v>
+        <v>16.492422502470642</v>
       </c>
       <c r="H65" s="22">
         <f t="shared" si="2"/>
@@ -3468,7 +3467,7 @@
       <c r="D66" s="1"/>
       <c r="E66" s="12">
         <f t="shared" si="0"/>
-        <v>7.6865085232009109</v>
+        <v>7.7477404202329723</v>
       </c>
       <c r="F66" s="15">
         <f t="shared" si="1"/>
@@ -3504,7 +3503,7 @@
       <c r="D67" s="23"/>
       <c r="E67" s="24">
         <f t="shared" si="0"/>
-        <v>19.754719295872562</v>
+        <v>19.912088397093363</v>
       </c>
       <c r="F67" s="25">
         <f t="shared" si="1"/>
@@ -3542,7 +3541,7 @@
       <c r="D68" s="1"/>
       <c r="E68" s="12">
         <f t="shared" si="0"/>
-        <v>8.5955482436134982</v>
+        <v>8.6640216894437341</v>
       </c>
       <c r="F68" s="15">
         <f t="shared" si="1"/>
@@ -3578,7 +3577,7 @@
       <c r="D69" s="23"/>
       <c r="E69" s="24">
         <f t="shared" si="0"/>
-        <v>11.198410176881191</v>
+        <v>11.287618417111963</v>
       </c>
       <c r="F69" s="25">
         <f t="shared" si="1"/>
@@ -3616,7 +3615,7 @@
       <c r="D70" s="1"/>
       <c r="E70" s="12">
         <f t="shared" si="0"/>
-        <v>4.216025945510653</v>
+        <v>4.2496114500086692</v>
       </c>
       <c r="F70" s="15">
         <f t="shared" si="1"/>
@@ -3648,7 +3647,7 @@
       <c r="D71" s="23"/>
       <c r="E71" s="24">
         <f t="shared" si="0"/>
-        <v>17.049399648313763</v>
+        <v>17.185217761384592</v>
       </c>
       <c r="F71" s="25">
         <f t="shared" si="1"/>
@@ -3686,7 +3685,7 @@
       <c r="D72" s="1"/>
       <c r="E72" s="12">
         <f t="shared" si="0"/>
-        <v>1.9009175928052169</v>
+        <v>1.9160605917308995</v>
       </c>
       <c r="F72" s="15">
         <f t="shared" si="1"/>
@@ -3714,7 +3713,7 @@
       <c r="D73" s="23"/>
       <c r="E73" s="24">
         <f t="shared" si="0"/>
-        <v>10.707921119104617</v>
+        <v>10.793222048832774</v>
       </c>
       <c r="F73" s="25">
         <f t="shared" si="1"/>
@@ -3752,7 +3751,7 @@
       <c r="D74" s="1"/>
       <c r="E74" s="12">
         <f t="shared" si="0"/>
-        <v>4.1048484257479627</v>
+        <v>4.1375482731987203</v>
       </c>
       <c r="F74" s="15">
         <f t="shared" si="1"/>
@@ -3784,7 +3783,7 @@
       <c r="D75" s="23"/>
       <c r="E75" s="24">
         <f t="shared" si="0"/>
-        <v>7.4685133864113222</v>
+        <v>7.528008700997777</v>
       </c>
       <c r="F75" s="25">
         <f t="shared" si="1"/>
@@ -3796,7 +3795,7 @@
       </c>
       <c r="H75" s="22">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I75" s="22"/>
       <c r="J75" s="22"/>
@@ -3819,7 +3818,7 @@
       <c r="D76" s="1"/>
       <c r="E76" s="12">
         <f t="shared" si="0"/>
-        <v>18.102316159007479</v>
+        <v>18.246521965290583</v>
       </c>
       <c r="F76" s="15">
         <f t="shared" si="1"/>
@@ -3851,7 +3850,7 @@
       <c r="D77" s="23"/>
       <c r="E77" s="24">
         <f t="shared" si="0"/>
-        <v>6.7600291918451578</v>
+        <v>6.813880613483394</v>
       </c>
       <c r="F77" s="25">
         <f t="shared" si="1"/>
@@ -3889,7 +3888,7 @@
       <c r="D78" s="1"/>
       <c r="E78" s="12">
         <f t="shared" si="0"/>
-        <v>2.3281880609128116</v>
+        <v>2.3467347614318816</v>
       </c>
       <c r="F78" s="15">
         <f t="shared" si="1"/>
@@ -3918,7 +3917,7 @@
       <c r="D79" s="23"/>
       <c r="E79" s="24">
         <f t="shared" si="0"/>
-        <v>7.6995882314082866</v>
+        <v>7.7609243233870835</v>
       </c>
       <c r="F79" s="25">
         <f t="shared" si="1"/>
@@ -3956,7 +3955,7 @@
       <c r="D80" s="1"/>
       <c r="E80" s="12">
         <f t="shared" si="0"/>
-        <v>2.2475298603006637</v>
+        <v>2.2654340253148595</v>
       </c>
       <c r="F80" s="15">
         <f t="shared" si="1"/>
@@ -3984,7 +3983,7 @@
       <c r="D81" s="23"/>
       <c r="E81" s="24">
         <f>C81/$B$37</f>
-        <v>5.7136525352551297</v>
+        <v>5.7591683611544582</v>
       </c>
       <c r="F81" s="25">
         <f>FLOOR(E81,1)</f>
@@ -4015,7 +4014,7 @@
       <c r="D82" s="1"/>
       <c r="E82" s="12">
         <f t="shared" si="0"/>
-        <v>0.83928127663991803</v>
+        <v>0.84596711905550037</v>
       </c>
       <c r="F82" s="15">
         <f t="shared" si="1"/>
@@ -4043,7 +4042,7 @@
       <c r="D83" s="23"/>
       <c r="E83" s="24">
         <f>C83/$B$37</f>
-        <v>0.41855066263601104</v>
+        <v>0.42188490093157421</v>
       </c>
       <c r="F83" s="25">
         <f t="shared" si="1"/>
@@ -4068,18 +4067,18 @@
       </c>
       <c r="C84" s="7">
         <f>SUM(C41:C83)</f>
-        <v>316511000</v>
+        <v>315811000</v>
       </c>
       <c r="D84" s="7"/>
       <c r="E84" s="7">
         <f>SUM(E41:E83)</f>
-        <v>689.97858740409629</v>
+        <v>693.93693983386152</v>
       </c>
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c r="H84" s="7">
         <f>SUM(H41:H83)</f>
-        <v>690</v>
+        <v>695</v>
       </c>
     </row>
     <row r="85" spans="1:13" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -4089,11 +4088,11 @@
       </c>
       <c r="B86" s="12">
         <f>$C$84/B32</f>
-        <v>73.734828830098948</v>
+        <v>73.571755887354243</v>
       </c>
       <c r="C86" s="12">
         <f>$C$84/C32</f>
-        <v>68.550500316322811</v>
+        <v>68.39889310449945</v>
       </c>
       <c r="I86" s="1"/>
     </row>
@@ -4150,7 +4149,7 @@
       </c>
       <c r="C93" s="1">
         <f>C57+C58+C63+C74+C65+C69</f>
-        <v>55753000</v>
+        <v>56753000</v>
       </c>
       <c r="J93" s="1"/>
     </row>
@@ -4175,7 +4174,7 @@
       </c>
       <c r="C95" s="1">
         <f>C56+C55+C60+C64+C68</f>
-        <v>52950000</v>
+        <v>51250000</v>
       </c>
       <c r="J95" s="15"/>
     </row>
@@ -4206,7 +4205,7 @@
     <row r="98" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C98" s="1">
         <f>SUM(C91:C97)</f>
-        <v>316511000</v>
+        <v>315811000</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.55000000000000004">

--- a/obsidian-notes/spreadsheets/area.xlsx
+++ b/obsidian-notes/spreadsheets/area.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sharm\iCloudDrive\iCloud~md~obsidian\Ishan's notes\Spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66207B5C-3B37-4E8D-8807-772CA3E37E63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E8AD355-B2FA-4BBB-84AA-6134609B5447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" activeTab="2" xr2:uid="{94B94BC7-FBC8-4BAC-A974-CA3E4662C848}"/>
   </bookViews>
@@ -2058,8 +2058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C745E12-030D-4421-A6DC-982053D4A77E}">
   <dimension ref="A1:M259"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="J87" sqref="J87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2469,7 +2469,7 @@
       </c>
       <c r="B34" s="12">
         <f>C84^(1/3)</f>
-        <v>680.99263908874377</v>
+        <v>680.63306097408361</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -2477,7 +2477,7 @@
         <v>118</v>
       </c>
       <c r="B35">
-        <v>697</v>
+        <v>706</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -2486,7 +2486,7 @@
       </c>
       <c r="B36" s="15">
         <f>C84/B35</f>
-        <v>453100.43041606888</v>
+        <v>446616.14730878186</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -2495,7 +2495,7 @@
       </c>
       <c r="B37" s="15">
         <f>B36+C37</f>
-        <v>455100.43041606888</v>
+        <v>448616.14730878186</v>
       </c>
       <c r="C37">
         <v>2000</v>
@@ -2548,7 +2548,7 @@
       <c r="D41" s="23"/>
       <c r="E41" s="24">
         <f t="shared" ref="E41:E82" si="0">C41/$B$37</f>
-        <v>3.3377248151826104</v>
+        <v>3.385968180397382</v>
       </c>
       <c r="F41" s="25">
         <f t="shared" ref="F41:F83" si="1">FLOOR(E41,1)</f>
@@ -2586,7 +2586,7 @@
       <c r="D42" s="1"/>
       <c r="E42" s="12">
         <f t="shared" si="0"/>
-        <v>34.352856985230368</v>
+        <v>34.849392055518543</v>
       </c>
       <c r="F42" s="15">
         <f t="shared" si="1"/>
@@ -2598,7 +2598,7 @@
       </c>
       <c r="H42">
         <f t="shared" si="2"/>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K42" s="11">
         <f>K125*0.75+K138*0.8</f>
@@ -2622,7 +2622,7 @@
       <c r="D43" s="23"/>
       <c r="E43" s="24">
         <f t="shared" si="0"/>
-        <v>23.372862975047681</v>
+        <v>23.710693571354149</v>
       </c>
       <c r="F43" s="25">
         <f t="shared" si="1"/>
@@ -2634,7 +2634,7 @@
       </c>
       <c r="H43" s="22">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I43" s="22"/>
       <c r="J43" s="22"/>
@@ -2660,7 +2660,7 @@
       <c r="D44" s="1"/>
       <c r="E44" s="12">
         <f t="shared" si="0"/>
-        <v>26.391976797339261</v>
+        <v>26.773445565999314</v>
       </c>
       <c r="F44" s="15">
         <f t="shared" si="1"/>
@@ -2672,7 +2672,7 @@
       </c>
       <c r="H44">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K44" s="1">
         <f>K139+K145*(1/3)</f>
@@ -2696,7 +2696,7 @@
       <c r="D45" s="23"/>
       <c r="E45" s="24">
         <f t="shared" si="0"/>
-        <v>8.0114184833152056</v>
+        <v>8.1272152638109638</v>
       </c>
       <c r="F45" s="25">
         <f t="shared" si="1"/>
@@ -2734,7 +2734,7 @@
       <c r="D46" s="1"/>
       <c r="E46" s="12">
         <f t="shared" si="0"/>
-        <v>19.079305181191973</v>
+        <v>19.35507683370011</v>
       </c>
       <c r="F46" s="15">
         <f t="shared" si="1"/>
@@ -2770,7 +2770,7 @@
       <c r="D47" s="23"/>
       <c r="E47" s="24">
         <f t="shared" si="0"/>
-        <v>10.496584227865261</v>
+        <v>10.648301512678271</v>
       </c>
       <c r="F47" s="25">
         <f t="shared" si="1"/>
@@ -2808,15 +2808,15 @@
       <c r="D48" s="1"/>
       <c r="E48" s="12">
         <f t="shared" si="0"/>
-        <v>19.815406440629875</v>
+        <v>20.101817676644892</v>
       </c>
       <c r="F48" s="15">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G48">
         <f t="shared" si="3"/>
-        <v>19.493588689617926</v>
+        <v>20.493901531919196</v>
       </c>
       <c r="H48">
         <f t="shared" si="2"/>
@@ -2844,7 +2844,7 @@
       <c r="D49" s="23"/>
       <c r="E49" s="24">
         <f t="shared" si="0"/>
-        <v>3.832121183461799</v>
+        <v>3.887510537599101</v>
       </c>
       <c r="F49" s="25">
         <f t="shared" si="1"/>
@@ -2882,7 +2882,7 @@
       <c r="D50" s="1"/>
       <c r="E50" s="12">
         <f t="shared" si="0"/>
-        <v>42.058848378808655</v>
+        <v>42.666765596436001</v>
       </c>
       <c r="F50" s="15">
         <f t="shared" si="1"/>
@@ -2894,7 +2894,7 @@
       </c>
       <c r="H50">
         <f t="shared" si="2"/>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K50" s="11">
         <f>K127+K129*(2.5/9)</f>
@@ -2918,19 +2918,19 @@
       <c r="D51" s="23"/>
       <c r="E51" s="24">
         <f t="shared" si="0"/>
-        <v>79.628577733642274</v>
+        <v>80.779526589480398</v>
       </c>
       <c r="F51" s="25">
         <f t="shared" si="1"/>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G51" s="22">
         <f t="shared" si="3"/>
-        <v>79.498427657407163</v>
+        <v>80.498447189992433</v>
       </c>
       <c r="H51" s="22">
         <f t="shared" si="2"/>
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I51" s="22"/>
       <c r="J51" s="22"/>
@@ -2956,7 +2956,7 @@
       <c r="D52" s="1"/>
       <c r="E52" s="12">
         <f t="shared" si="0"/>
-        <v>27.490635393515234</v>
+        <v>27.887984137558689</v>
       </c>
       <c r="F52" s="15">
         <f t="shared" si="1"/>
@@ -2968,7 +2968,7 @@
       </c>
       <c r="H52">
         <f t="shared" si="2"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K52" s="1">
         <f>K152</f>
@@ -2992,7 +2992,7 @@
       <c r="D53" s="23"/>
       <c r="E53" s="24">
         <f t="shared" si="0"/>
-        <v>2.41265427720244</v>
+        <v>2.4475267031443879</v>
       </c>
       <c r="F53" s="25">
         <f t="shared" si="1"/>
@@ -3030,7 +3030,7 @@
       <c r="D54" s="1"/>
       <c r="E54" s="12">
         <f t="shared" si="0"/>
-        <v>1.8611276619221009</v>
+        <v>1.8880283402215816</v>
       </c>
       <c r="F54" s="15">
         <f t="shared" si="1"/>
@@ -3058,15 +3058,15 @@
       <c r="D55" s="23"/>
       <c r="E55" s="24">
         <f t="shared" si="0"/>
-        <v>20.70092526914771</v>
+        <v>21.000135765321748</v>
       </c>
       <c r="F55" s="25">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G55" s="22">
         <f t="shared" si="3"/>
-        <v>20.493901531919196</v>
+        <v>21.494185260204677</v>
       </c>
       <c r="H55" s="22">
         <f t="shared" si="2"/>
@@ -3097,7 +3097,7 @@
       <c r="D56" s="1"/>
       <c r="E56" s="12">
         <f t="shared" si="0"/>
-        <v>23.027884175848424</v>
+        <v>23.360728459884506</v>
       </c>
       <c r="F56" s="15">
         <f t="shared" si="1"/>
@@ -3133,15 +3133,15 @@
       <c r="D57" s="23"/>
       <c r="E57" s="24">
         <f t="shared" si="0"/>
-        <v>51.540272063807315</v>
+        <v>52.285233468993411</v>
       </c>
       <c r="F57" s="25">
         <f t="shared" si="1"/>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G57" s="22">
         <f t="shared" si="3"/>
-        <v>51.497572758334933</v>
+        <v>52.497618993626752</v>
       </c>
       <c r="H57" s="22">
         <f t="shared" si="2"/>
@@ -3171,7 +3171,7 @@
       <c r="D58" s="1"/>
       <c r="E58" s="12">
         <f t="shared" si="0"/>
-        <v>22.197298277139389</v>
+        <v>22.518137299785618</v>
       </c>
       <c r="F58" s="15">
         <f t="shared" si="1"/>
@@ -3183,7 +3183,7 @@
       </c>
       <c r="H58">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K58" s="1">
         <f>K153+K143+(K124*0.1)+K142*0.6</f>
@@ -3207,15 +3207,15 @@
       <c r="D59" s="23"/>
       <c r="E59" s="24">
         <f t="shared" si="0"/>
-        <v>11.869907473085229</v>
+        <v>12.04147472712749</v>
       </c>
       <c r="F59" s="25">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G59" s="22">
         <f t="shared" si="3"/>
-        <v>11.489125293076057</v>
+        <v>12.489995996796797</v>
       </c>
       <c r="H59" s="22">
         <f t="shared" si="2"/>
@@ -3245,7 +3245,7 @@
       <c r="D60" s="1"/>
       <c r="E60" s="12">
         <f t="shared" si="0"/>
-        <v>18.024592928863036</v>
+        <v>18.285119805003109</v>
       </c>
       <c r="F60" s="15">
         <f t="shared" si="1"/>
@@ -3281,7 +3281,7 @@
       <c r="D61" s="23"/>
       <c r="E61" s="24">
         <f t="shared" si="0"/>
-        <v>3.2981731057202754</v>
+        <v>3.3458447918212446</v>
       </c>
       <c r="F61" s="25">
         <f t="shared" si="1"/>
@@ -3319,7 +3319,7 @@
       <c r="D62" s="1"/>
       <c r="E62" s="12">
         <f t="shared" si="0"/>
-        <v>25.517444554783182</v>
+        <v>25.886272863038048</v>
       </c>
       <c r="F62" s="15">
         <f t="shared" si="1"/>
@@ -3355,7 +3355,7 @@
       <c r="D63" s="23"/>
       <c r="E63" s="24">
         <f t="shared" si="0"/>
-        <v>19.514373985277658</v>
+        <v>19.796434108037623</v>
       </c>
       <c r="F63" s="25">
         <f t="shared" si="1"/>
@@ -3393,7 +3393,7 @@
       <c r="D64" s="1"/>
       <c r="E64" s="12">
         <f t="shared" si="0"/>
-        <v>42.195082044734477</v>
+        <v>42.804968379309365</v>
       </c>
       <c r="F64" s="15">
         <f t="shared" si="1"/>
@@ -3405,7 +3405,7 @@
       </c>
       <c r="H64">
         <f t="shared" si="2"/>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K64" s="27">
         <f>K123*(2/3)+K147*(2/3)</f>
@@ -3429,7 +3429,7 @@
       <c r="D65" s="23"/>
       <c r="E65" s="24">
         <f t="shared" si="0"/>
-        <v>16.027231601015117</v>
+        <v>16.258888681908168</v>
       </c>
       <c r="F65" s="25">
         <f t="shared" si="1"/>
@@ -3467,7 +3467,7 @@
       <c r="D66" s="1"/>
       <c r="E66" s="12">
         <f t="shared" si="0"/>
-        <v>7.7477404202329723</v>
+        <v>7.8597260066367145</v>
       </c>
       <c r="F66" s="15">
         <f t="shared" si="1"/>
@@ -3503,15 +3503,15 @@
       <c r="D67" s="23"/>
       <c r="E67" s="24">
         <f t="shared" si="0"/>
-        <v>19.912088397093363</v>
+        <v>20.199897070942118</v>
       </c>
       <c r="F67" s="25">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G67" s="22">
         <f t="shared" si="3"/>
-        <v>19.493588689617926</v>
+        <v>20.493901531919196</v>
       </c>
       <c r="H67" s="22">
         <f t="shared" si="2"/>
@@ -3541,7 +3541,7 @@
       <c r="D68" s="1"/>
       <c r="E68" s="12">
         <f t="shared" si="0"/>
-        <v>8.6640216894437341</v>
+        <v>8.7892511753172329</v>
       </c>
       <c r="F68" s="15">
         <f t="shared" si="1"/>
@@ -3577,7 +3577,7 @@
       <c r="D69" s="23"/>
       <c r="E69" s="24">
         <f t="shared" si="0"/>
-        <v>11.287618417111963</v>
+        <v>11.450769284201021</v>
       </c>
       <c r="F69" s="25">
         <f t="shared" si="1"/>
@@ -3615,7 +3615,7 @@
       <c r="D70" s="1"/>
       <c r="E70" s="12">
         <f t="shared" si="0"/>
-        <v>4.2496114500086692</v>
+        <v>4.3110351947916632</v>
       </c>
       <c r="F70" s="15">
         <f t="shared" si="1"/>
@@ -3647,7 +3647,7 @@
       <c r="D71" s="23"/>
       <c r="E71" s="24">
         <f t="shared" si="0"/>
-        <v>17.185217761384592</v>
+        <v>17.433612336331748</v>
       </c>
       <c r="F71" s="25">
         <f t="shared" si="1"/>
@@ -3685,7 +3685,7 @@
       <c r="D72" s="1"/>
       <c r="E72" s="12">
         <f t="shared" si="0"/>
-        <v>1.9160605917308995</v>
+        <v>1.9437552687995505</v>
       </c>
       <c r="F72" s="15">
         <f t="shared" si="1"/>
@@ -3713,7 +3713,7 @@
       <c r="D73" s="23"/>
       <c r="E73" s="24">
         <f t="shared" si="0"/>
-        <v>10.793222048832774</v>
+        <v>10.949226926999302</v>
       </c>
       <c r="F73" s="25">
         <f t="shared" si="1"/>
@@ -3751,7 +3751,7 @@
       <c r="D74" s="1"/>
       <c r="E74" s="12">
         <f t="shared" si="0"/>
-        <v>4.1375482731987203</v>
+        <v>4.1973522604926075</v>
       </c>
       <c r="F74" s="15">
         <f t="shared" si="1"/>
@@ -3783,7 +3783,7 @@
       <c r="D75" s="23"/>
       <c r="E75" s="24">
         <f t="shared" si="0"/>
-        <v>7.528008700997777</v>
+        <v>7.6368182923248389</v>
       </c>
       <c r="F75" s="25">
         <f t="shared" si="1"/>
@@ -3818,7 +3818,7 @@
       <c r="D76" s="1"/>
       <c r="E76" s="12">
         <f t="shared" si="0"/>
-        <v>18.246521965290583</v>
+        <v>18.510256596458103</v>
       </c>
       <c r="F76" s="15">
         <f t="shared" si="1"/>
@@ -3830,7 +3830,7 @@
       </c>
       <c r="H76">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L76" s="1">
         <f>E219+E250</f>
@@ -3850,7 +3850,7 @@
       <c r="D77" s="23"/>
       <c r="E77" s="24">
         <f t="shared" si="0"/>
-        <v>6.813880613483394</v>
+        <v>6.9123682208112456</v>
       </c>
       <c r="F77" s="25">
         <f t="shared" si="1"/>
@@ -3888,7 +3888,7 @@
       <c r="D78" s="1"/>
       <c r="E78" s="12">
         <f t="shared" si="0"/>
-        <v>2.3467347614318816</v>
+        <v>2.3806543888508256</v>
       </c>
       <c r="F78" s="15">
         <f t="shared" si="1"/>
@@ -3917,7 +3917,7 @@
       <c r="D79" s="23"/>
       <c r="E79" s="24">
         <f t="shared" si="0"/>
-        <v>7.7609243233870835</v>
+        <v>7.8731004694954265</v>
       </c>
       <c r="F79" s="25">
         <f t="shared" si="1"/>
@@ -3955,7 +3955,7 @@
       <c r="D80" s="1"/>
       <c r="E80" s="12">
         <f t="shared" si="0"/>
-        <v>2.2654340253148595</v>
+        <v>2.298178534555432</v>
       </c>
       <c r="F80" s="15">
         <f t="shared" si="1"/>
@@ -3978,24 +3978,24 @@
         <v>112</v>
       </c>
       <c r="C81" s="23">
-        <v>2621000</v>
+        <v>2121000</v>
       </c>
       <c r="D81" s="23"/>
       <c r="E81" s="24">
         <f>C81/$B$37</f>
-        <v>5.7591683611544582</v>
+        <v>4.7278726205548702</v>
       </c>
       <c r="F81" s="25">
         <f>FLOOR(E81,1)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G81" s="22">
         <f>SQRT(F81*(F81+1))</f>
-        <v>5.4772255750516612</v>
+        <v>4.4721359549995796</v>
       </c>
       <c r="H81" s="22">
         <f>IF(E81&gt;G81,CEILING(E81,1),FLOOR(E81,1))</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I81" s="22"/>
       <c r="J81" s="22"/>
@@ -4014,7 +4014,7 @@
       <c r="D82" s="1"/>
       <c r="E82" s="12">
         <f t="shared" si="0"/>
-        <v>0.84596711905550037</v>
+        <v>0.85819470010071897</v>
       </c>
       <c r="F82" s="15">
         <f t="shared" si="1"/>
@@ -4042,7 +4042,7 @@
       <c r="D83" s="23"/>
       <c r="E83" s="24">
         <f>C83/$B$37</f>
-        <v>0.42188490093157421</v>
+        <v>0.42798281147880007</v>
       </c>
       <c r="F83" s="25">
         <f t="shared" si="1"/>
@@ -4067,18 +4067,18 @@
       </c>
       <c r="C84" s="7">
         <f>SUM(C41:C83)</f>
-        <v>315811000</v>
+        <v>315311000</v>
       </c>
       <c r="D84" s="7"/>
       <c r="E84" s="7">
         <f>SUM(E41:E83)</f>
-        <v>693.93693983386152</v>
+        <v>702.85254307391631</v>
       </c>
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c r="H84" s="7">
         <f>SUM(H41:H83)</f>
-        <v>695</v>
+        <v>703</v>
       </c>
     </row>
     <row r="85" spans="1:13" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -4088,19 +4088,16 @@
       </c>
       <c r="B86" s="12">
         <f>$C$84/B32</f>
-        <v>73.571755887354243</v>
+        <v>73.455275213965166</v>
       </c>
       <c r="C86" s="12">
         <f>$C$84/C32</f>
-        <v>68.39889310449945</v>
+        <v>68.290602238911333</v>
       </c>
       <c r="I86" s="1"/>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="J87" s="1">
-        <f>C80+C82+C83</f>
-        <v>1608000</v>
-      </c>
+      <c r="J87" s="1"/>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="M88" s="15"/>
@@ -4187,7 +4184,7 @@
       </c>
       <c r="C96" s="1">
         <f>C66+C62+C76+C71+C70+C81+C78+C83+C82+C80</f>
-        <v>38495000</v>
+        <v>37995000</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -4205,7 +4202,7 @@
     <row r="98" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C98" s="1">
         <f>SUM(C91:C97)</f>
-        <v>315811000</v>
+        <v>315311000</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.55000000000000004">

--- a/obsidian-notes/spreadsheets/area.xlsx
+++ b/obsidian-notes/spreadsheets/area.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sharm\iCloudDrive\iCloud~md~obsidian\Ishan's notes\Spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E8AD355-B2FA-4BBB-84AA-6134609B5447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13380F3E-B1D2-4343-8BBB-EF4934766D12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" activeTab="2" xr2:uid="{94B94BC7-FBC8-4BAC-A974-CA3E4662C848}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="274">
   <si>
     <t>OTL Metro France</t>
   </si>
@@ -812,9 +812,6 @@
     <t>Sixth Judicial Division</t>
   </si>
   <si>
-    <t>Seventh Judicial Division</t>
-  </si>
-  <si>
     <t>Maine, Massachusetts, Rhode Island, Vermont, New Hampshire, Connecticut, New York</t>
   </si>
   <si>
@@ -833,9 +830,6 @@
     <t>Nibrasca</t>
   </si>
   <si>
-    <t>Orleans, Arkansaw, Cimarron, Nibrasca, Kances, Pembina, Tahosa, Minasoa, Washingtonia, Cheyenne</t>
-  </si>
-  <si>
     <t>Lynchburg</t>
   </si>
   <si>
@@ -864,6 +858,9 @@
   </si>
   <si>
     <t>Espirito Santo[20]</t>
+  </si>
+  <si>
+    <t>Orleans, Arkansaw, Cimarron, Nibrasca, Kances, Pembina, Tahosa, Minasoa, Washingtonia, Cheyenne, Olympia</t>
   </si>
 </sst>
 </file>
@@ -2056,10 +2053,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C745E12-030D-4421-A6DC-982053D4A77E}">
-  <dimension ref="A1:M259"/>
+  <dimension ref="A1:M258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="J87" sqref="J87"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="C97" sqref="C97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2565,11 +2562,11 @@
       <c r="I41" s="22"/>
       <c r="J41" s="22"/>
       <c r="K41" s="23">
-        <f>K125*0.075</f>
+        <f>K124*0.075</f>
         <v>527850</v>
       </c>
       <c r="L41" s="23">
-        <f>E208*0.075</f>
+        <f>E207*0.075</f>
         <v>527850</v>
       </c>
     </row>
@@ -2601,11 +2598,11 @@
         <v>35</v>
       </c>
       <c r="K42" s="11">
-        <f>K125*0.75+K138*0.8</f>
+        <f>K124*0.75+K137*0.8</f>
         <v>8036100</v>
       </c>
       <c r="L42" s="11">
-        <f>E208*0.75+E222*0.8</f>
+        <f>E207*0.75+E221*0.8</f>
         <v>8036100</v>
       </c>
     </row>
@@ -2639,11 +2636,11 @@
       <c r="I43" s="22"/>
       <c r="J43" s="22"/>
       <c r="K43" s="26">
-        <f>K122*0.15+K125*0.175</f>
+        <f>K121*0.15+K124*0.175</f>
         <v>4799400</v>
       </c>
       <c r="L43" s="26">
-        <f>E205*0.15+E208*0.175</f>
+        <f>E204*0.15+E207*0.175</f>
         <v>4799400</v>
       </c>
     </row>
@@ -2675,11 +2672,11 @@
         <v>27</v>
       </c>
       <c r="K44" s="1">
-        <f>K139+K145*(1/3)</f>
+        <f>K138+K144*(1/3)</f>
         <v>5764333.333333333</v>
       </c>
       <c r="L44" s="1">
-        <f>E224+E234*(1/3)+E251*0.7+E243*0.3+E255*0.6</f>
+        <f>E223+E233*(1/3)+E250*0.7+E242*0.3+E254*0.6</f>
         <v>6931933.333333333</v>
       </c>
     </row>
@@ -2713,11 +2710,11 @@
       <c r="I45" s="22"/>
       <c r="J45" s="22"/>
       <c r="K45" s="26">
-        <f>K122*0.1</f>
+        <f>K121*0.1</f>
         <v>2378500</v>
       </c>
       <c r="L45" s="26">
-        <f>E205*0.1</f>
+        <f>E204*0.1</f>
         <v>2378500</v>
       </c>
     </row>
@@ -2749,11 +2746,11 @@
         <v>19</v>
       </c>
       <c r="K46" s="11">
-        <f>K126*0.8</f>
+        <f>K125*0.8</f>
         <v>5176800</v>
       </c>
       <c r="L46" s="11">
-        <f>E209*0.8</f>
+        <f>E208*0.8</f>
         <v>5176800</v>
       </c>
     </row>
@@ -2787,11 +2784,11 @@
       <c r="I47" s="22"/>
       <c r="J47" s="22"/>
       <c r="K47" s="26">
-        <f>K129*(2.5/9)+K148</f>
+        <f>K128*(2.5/9)+K147</f>
         <v>3775055.5555555555</v>
       </c>
       <c r="L47" s="26">
-        <f>E212*(2.5/9)+E239</f>
+        <f>E211*(2.5/9)+E238</f>
         <v>3775055.5555555555</v>
       </c>
     </row>
@@ -2823,11 +2820,11 @@
         <v>20</v>
       </c>
       <c r="K48" s="1">
-        <f>K141</f>
+        <f>K140</f>
         <v>6491000</v>
       </c>
       <c r="L48" s="1">
-        <f>E223+E251*0.3+E255*0.4</f>
+        <f>E222+E250*0.3+E254*0.4</f>
         <v>7006700</v>
       </c>
     </row>
@@ -2861,11 +2858,11 @@
       <c r="I49" s="22"/>
       <c r="J49" s="22"/>
       <c r="K49" s="26">
-        <f>K126*0.075</f>
+        <f>K125*0.075</f>
         <v>485325</v>
       </c>
       <c r="L49" s="26">
-        <f>E209*0.075</f>
+        <f>E208*0.075</f>
         <v>485325</v>
       </c>
     </row>
@@ -2897,11 +2894,11 @@
         <v>43</v>
       </c>
       <c r="K50" s="11">
-        <f>K127+K129*(2.5/9)</f>
+        <f>K126+K128*(2.5/9)</f>
         <v>10099055.555555556</v>
       </c>
       <c r="L50" s="11">
-        <f>E210+E212*(3/9)+E227*0.8+E229</f>
+        <f>E209+E211*(3/9)+E226*0.8+E228</f>
         <v>16876666.666666664</v>
       </c>
     </row>
@@ -2935,11 +2932,11 @@
       <c r="I51" s="22"/>
       <c r="J51" s="22"/>
       <c r="K51" s="26">
-        <f>K122*0.75+K132</f>
+        <f>K121*0.75+K131</f>
         <v>22651750</v>
       </c>
       <c r="L51" s="26">
-        <f>E205*0.75+E215+E248</f>
+        <f>E204*0.75+E214+E247</f>
         <v>24289750</v>
       </c>
     </row>
@@ -2971,11 +2968,11 @@
         <v>28</v>
       </c>
       <c r="K52" s="1">
-        <f>K152</f>
+        <f>K151</f>
         <v>2461000</v>
       </c>
       <c r="L52" s="1">
-        <f>E233+E227*0.2+E242</f>
+        <f>E232+E226*0.2+E241</f>
         <v>6583000</v>
       </c>
     </row>
@@ -3009,11 +3006,11 @@
       <c r="I53" s="22"/>
       <c r="J53" s="22"/>
       <c r="K53" s="26">
-        <f>K126*0.125</f>
+        <f>K125*0.125</f>
         <v>808875</v>
       </c>
       <c r="L53" s="26">
-        <f>E209*0.125</f>
+        <f>E208*0.125</f>
         <v>808875</v>
       </c>
     </row>
@@ -3075,11 +3072,11 @@
       <c r="I55" s="22"/>
       <c r="J55" s="22"/>
       <c r="K55" s="26">
-        <f>K124*0.1+K135*0.8</f>
+        <f>K123*0.1+K134*0.8</f>
         <v>4234300</v>
       </c>
       <c r="L55" s="26">
-        <f>E207*0.1+E218*0.8+E254</f>
+        <f>E206*0.1+E217*0.8+E253</f>
         <v>5227300</v>
       </c>
     </row>
@@ -3112,11 +3109,11 @@
         <v>23</v>
       </c>
       <c r="K56" s="11">
-        <f>K128*0.8</f>
+        <f>K127*0.8</f>
         <v>5558400</v>
       </c>
       <c r="L56" s="11">
-        <f>E211*0.8</f>
+        <f>E210*0.8</f>
         <v>5558400</v>
       </c>
     </row>
@@ -3150,11 +3147,11 @@
       <c r="I57" s="22"/>
       <c r="J57" s="22"/>
       <c r="K57" s="26">
-        <f>K124*0.8+K134+K138*0.2+K150+K144*0.3</f>
+        <f>K123*0.8+K133+K137*0.2+K149+K143*0.3</f>
         <v>15797500</v>
       </c>
       <c r="L57" s="26">
-        <f>E207*0.8+E217+E222*0.2+E241+E231*0.3</f>
+        <f>E206*0.8+E216+E221*0.2+E240+E230*0.3</f>
         <v>15592000</v>
       </c>
     </row>
@@ -3186,11 +3183,11 @@
         <v>23</v>
       </c>
       <c r="K58" s="1">
-        <f>K153+K143+(K124*0.1)+K142*0.6</f>
+        <f>K152+K142+(K123*0.1)+K141*0.6</f>
         <v>6915700</v>
       </c>
       <c r="L58" s="1">
-        <f>E245+E230+(E207*0.1)+E228*0.6</f>
+        <f>E244+E229+(E206*0.1)+E227*0.6</f>
         <v>6915700</v>
       </c>
     </row>
@@ -3224,11 +3221,11 @@
       <c r="I59" s="22"/>
       <c r="J59" s="22"/>
       <c r="K59" s="26">
-        <f>K128*0.1+K146*0.9</f>
+        <f>K127*0.1+K145*0.9</f>
         <v>2430900</v>
       </c>
       <c r="L59" s="26">
-        <f>E211*0.1+E235*0.9+E252</f>
+        <f>E210*0.1+E234*0.9+E251</f>
         <v>4021900</v>
       </c>
     </row>
@@ -3260,11 +3257,11 @@
         <v>18</v>
       </c>
       <c r="K60" s="11">
-        <f>K123*(1/3)+K151+K142*0.1+K149*0.7</f>
+        <f>K122*(1/3)+K150+K141*0.1+K148*0.7</f>
         <v>8023766.666666666</v>
       </c>
       <c r="L60" s="11">
-        <f>E206*(1/3)+E228*0.1+E240*0.3</f>
+        <f>E205*(1/3)+E227*0.1+E239*0.3</f>
         <v>5776966.666666666</v>
       </c>
     </row>
@@ -3298,11 +3295,11 @@
       <c r="I61" s="22"/>
       <c r="J61" s="22"/>
       <c r="K61" s="26">
-        <f>K146*0.1</f>
+        <f>K145*0.1</f>
         <v>192900</v>
       </c>
       <c r="L61" s="26">
-        <f>E225*0.2+E236*0.1</f>
+        <f>E224*0.2+E235*0.1</f>
         <v>532300</v>
       </c>
     </row>
@@ -3334,11 +3331,11 @@
         <v>26</v>
       </c>
       <c r="K62" s="11">
-        <f>K130*0.6</f>
+        <f>K129*0.6</f>
         <v>4045800</v>
       </c>
       <c r="L62" s="11">
-        <f>E213*0.6+E232+E244*0.9</f>
+        <f>E212*0.6+E231+E243*0.9</f>
         <v>9099400</v>
       </c>
     </row>
@@ -3372,11 +3369,11 @@
       <c r="I63" s="22"/>
       <c r="J63" s="22"/>
       <c r="K63" s="26">
-        <f>K144*0.7</f>
+        <f>K143*0.7</f>
         <v>2972900</v>
       </c>
       <c r="L63" s="26">
-        <f>E231*0.7</f>
+        <f>E230*0.7</f>
         <v>2493400</v>
       </c>
     </row>
@@ -3408,11 +3405,11 @@
         <v>43</v>
       </c>
       <c r="K64" s="27">
-        <f>K123*(2/3)+K147*(2/3)</f>
+        <f>K122*(2/3)+K146*(2/3)</f>
         <v>13566666.666666664</v>
       </c>
       <c r="L64" s="27">
-        <f>E206*(2/3)+E238*(2/3)</f>
+        <f>E205*(2/3)+E237*(2/3)</f>
         <v>13566666.666666664</v>
       </c>
     </row>
@@ -3446,11 +3443,11 @@
       <c r="I65" s="22"/>
       <c r="J65" s="22"/>
       <c r="K65" s="23">
-        <f>K149+K137*0.3+K142</f>
+        <f>K148+K136*0.3+K141</f>
         <v>4613600</v>
       </c>
       <c r="L65" s="23">
-        <f>E221+E240*0.7</f>
+        <f>E220+E239*0.7</f>
         <v>3499400</v>
       </c>
     </row>
@@ -3482,11 +3479,11 @@
         <v>8</v>
       </c>
       <c r="K66" s="11">
-        <f>K128*0.1</f>
+        <f>K127*0.1</f>
         <v>694800</v>
       </c>
       <c r="L66" s="11">
-        <f>E211*0.1+E244*0.1</f>
+        <f>E210*0.1+E243*0.1</f>
         <v>876200</v>
       </c>
     </row>
@@ -3520,11 +3517,11 @@
       <c r="I67" s="22"/>
       <c r="J67" s="22"/>
       <c r="K67" s="26">
-        <f>K130*0.4</f>
+        <f>K129*0.4</f>
         <v>2697200</v>
       </c>
       <c r="L67" s="26">
-        <f>E213*0.4+E225*0.8+E236*0.9+E257</f>
+        <f>E212*0.4+E224*0.8+E235*0.9+E256</f>
         <v>6555900</v>
       </c>
     </row>
@@ -3556,11 +3553,11 @@
         <v>9</v>
       </c>
       <c r="K68" s="11">
-        <f>K131*(1/3)</f>
+        <f>K130*(1/3)</f>
         <v>1980666.6666666665</v>
       </c>
       <c r="L68" s="11">
-        <f>E214*(1/3)</f>
+        <f>E213*(1/3)</f>
         <v>1980666.6666666665</v>
       </c>
     </row>
@@ -3594,11 +3591,11 @@
       <c r="I69" s="22"/>
       <c r="J69" s="22"/>
       <c r="K69" s="26">
-        <f>K131*(2/3)</f>
+        <f>K130*(2/3)</f>
         <v>3961333.333333333</v>
       </c>
       <c r="L69" s="26">
-        <f>E214*(2/3)</f>
+        <f>E213*(2/3)</f>
         <v>3961333.333333333</v>
       </c>
     </row>
@@ -3607,7 +3604,7 @@
         <v>30</v>
       </c>
       <c r="B70" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C70" s="1">
         <v>1934000</v>
@@ -3630,7 +3627,7 @@
         <v>4</v>
       </c>
       <c r="L70" s="1">
-        <f>E247</f>
+        <f>E246</f>
         <v>1048000</v>
       </c>
     </row>
@@ -3664,11 +3661,11 @@
       <c r="I71" s="22"/>
       <c r="J71" s="22"/>
       <c r="K71" s="26">
-        <f>K147*(1/3)</f>
+        <f>K146*(1/3)</f>
         <v>1770666.6666666665</v>
       </c>
       <c r="L71" s="26">
-        <f>E238*(1/3)+E237+E246</f>
+        <f>E237*(1/3)+E236+E245</f>
         <v>5658666.666666666</v>
       </c>
     </row>
@@ -3730,11 +3727,11 @@
       <c r="I73" s="22"/>
       <c r="J73" s="22"/>
       <c r="K73" s="23">
-        <f>K133</f>
+        <f>K132</f>
         <v>4428000</v>
       </c>
       <c r="L73" s="23">
-        <f>E216</f>
+        <f>E215</f>
         <v>4428000</v>
       </c>
     </row>
@@ -3766,7 +3763,7 @@
         <v>4</v>
       </c>
       <c r="L74" s="1">
-        <f>E258</f>
+        <f>E257</f>
         <v>770000</v>
       </c>
     </row>
@@ -3801,7 +3798,7 @@
       <c r="J75" s="22"/>
       <c r="K75" s="22"/>
       <c r="L75" s="26">
-        <f>E243*0.6</f>
+        <f>E242*0.6</f>
         <v>732600</v>
       </c>
     </row>
@@ -3833,7 +3830,7 @@
         <v>19</v>
       </c>
       <c r="L76" s="1">
-        <f>E219+E250</f>
+        <f>E218+E249</f>
         <v>6788000</v>
       </c>
     </row>
@@ -3867,11 +3864,11 @@
       <c r="I77" s="22"/>
       <c r="J77" s="22"/>
       <c r="K77" s="23">
-        <f>K145*(2/3)</f>
+        <f>K144*(2/3)</f>
         <v>1648666.6666666665</v>
       </c>
       <c r="L77" s="23">
-        <f>E234*(2/3)+E259</f>
+        <f>E233*(2/3)+E258</f>
         <v>2387666.6666666665</v>
       </c>
     </row>
@@ -3934,11 +3931,11 @@
       <c r="I79" s="22"/>
       <c r="J79" s="22"/>
       <c r="K79" s="26">
-        <f>K129*(4/9)</f>
+        <f>K128*(4/9)</f>
         <v>4036888.8888888885</v>
       </c>
       <c r="L79" s="26">
-        <f>E212*(7/18)</f>
+        <f>E211*(7/18)</f>
         <v>3532277.777777778</v>
       </c>
     </row>
@@ -4118,7 +4115,7 @@
         <v>251</v>
       </c>
       <c r="B91" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C91" s="1">
         <f>C46+C49+C53+C54+C72+C45+C51</f>
@@ -4130,7 +4127,7 @@
         <v>252</v>
       </c>
       <c r="B92" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C92" s="1">
         <f>C42+C43+C41+C47+C79+C50</f>
@@ -4142,7 +4139,7 @@
         <v>253</v>
       </c>
       <c r="B93" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C93" s="1">
         <f>C57+C58+C63+C74+C65+C69</f>
@@ -4155,7 +4152,7 @@
         <v>254</v>
       </c>
       <c r="B94" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C94" s="1">
         <f>C52+C48+C75+C44+C77+C67+C61+C59</f>
@@ -4167,7 +4164,7 @@
         <v>255</v>
       </c>
       <c r="B95" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C95" s="1">
         <f>C56+C55+C60+C64+C68</f>
@@ -4176,2330 +4173,2318 @@
       <c r="J95" s="15"/>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A96" t="s">
+      <c r="A96" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="B96" t="s">
-        <v>264</v>
-      </c>
-      <c r="C96" s="1">
-        <f>C66+C62+C76+C71+C70+C81+C78+C83+C82+C80</f>
-        <v>37995000</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A97" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C97" s="6">
-        <f>C73</f>
-        <v>4912000</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C98" s="1">
-        <f>SUM(C91:C97)</f>
+      <c r="B96" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C96" s="6">
+        <f>C66+C62+C76+C71+C70+C81+C78+C83+C82+C80+C73</f>
+        <v>42907000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C97" s="1">
+        <f>SUM(C91:C96)</f>
         <v>315311000</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C101" s="1"/>
+    <row r="100" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C100" s="1"/>
+    </row>
+    <row r="120" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G120" t="s">
+        <v>138</v>
+      </c>
+      <c r="H120" t="s">
+        <v>139</v>
+      </c>
+      <c r="I120" t="s">
+        <v>126</v>
+      </c>
+      <c r="J120" t="s">
+        <v>140</v>
+      </c>
+      <c r="K120" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="121" spans="7:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="G121" t="s">
-        <v>138</v>
-      </c>
-      <c r="H121" t="s">
-        <v>139</v>
-      </c>
-      <c r="I121" t="s">
-        <v>126</v>
-      </c>
-      <c r="J121" t="s">
-        <v>140</v>
-      </c>
-      <c r="K121" t="s">
-        <v>141</v>
+      <c r="G121" s="20">
+        <v>1</v>
+      </c>
+      <c r="H121" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="I121" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="J121" s="21">
+        <v>10090000</v>
+      </c>
+      <c r="K121" s="21">
+        <v>23785000</v>
       </c>
     </row>
     <row r="122" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G122" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H122" s="20" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I122" s="20" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="J122" s="21">
-        <v>10090000</v>
+        <v>5221000</v>
       </c>
       <c r="K122" s="21">
-        <v>23785000</v>
+        <v>15038000</v>
       </c>
     </row>
     <row r="123" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G123" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H123" s="20" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I123" s="20" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="J123" s="21">
-        <v>5221000</v>
+        <v>4047000</v>
       </c>
       <c r="K123" s="21">
-        <v>15038000</v>
+        <v>10415000</v>
       </c>
     </row>
     <row r="124" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G124" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H124" s="20" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I124" s="20" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="J124" s="21">
-        <v>4047000</v>
+        <v>2513000</v>
       </c>
       <c r="K124" s="21">
-        <v>10415000</v>
+        <v>7038000</v>
       </c>
     </row>
     <row r="125" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G125" s="20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H125" s="20" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I125" s="20" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="J125" s="21">
-        <v>2513000</v>
+        <v>2210000</v>
       </c>
       <c r="K125" s="21">
-        <v>7038000</v>
+        <v>6471000</v>
       </c>
     </row>
     <row r="126" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G126" s="20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H126" s="20" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I126" s="20" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="J126" s="21">
-        <v>2210000</v>
+        <v>2031000</v>
       </c>
       <c r="K126" s="21">
-        <v>6471000</v>
+        <v>7576000</v>
       </c>
     </row>
     <row r="127" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G127" s="20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H127" s="20" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I127" s="20" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="J127" s="21">
-        <v>2031000</v>
+        <v>1719000</v>
       </c>
       <c r="K127" s="21">
-        <v>7576000</v>
+        <v>6948000</v>
       </c>
     </row>
     <row r="128" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G128" s="20">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H128" s="20" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I128" s="20" t="s">
-        <v>92</v>
+        <v>150</v>
       </c>
       <c r="J128" s="21">
-        <v>1719000</v>
+        <v>1643000</v>
       </c>
       <c r="K128" s="21">
-        <v>6948000</v>
+        <v>9083000</v>
       </c>
     </row>
     <row r="129" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G129" s="20">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H129" s="20" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I129" s="20" t="s">
-        <v>150</v>
+        <v>98</v>
       </c>
       <c r="J129" s="21">
-        <v>1643000</v>
+        <v>1480000</v>
       </c>
       <c r="K129" s="21">
-        <v>9083000</v>
+        <v>6743000</v>
       </c>
     </row>
     <row r="130" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G130" s="20">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H130" s="20" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I130" s="20" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="J130" s="21">
-        <v>1480000</v>
+        <v>1422000</v>
       </c>
       <c r="K130" s="21">
-        <v>6743000</v>
+        <v>5942000</v>
       </c>
     </row>
     <row r="131" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G131" s="20">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H131" s="20" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I131" s="20" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="J131" s="21">
-        <v>1422000</v>
+        <v>1383000</v>
       </c>
       <c r="K131" s="21">
-        <v>5942000</v>
+        <v>4813000</v>
       </c>
     </row>
     <row r="132" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G132" s="20">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H132" s="20" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I132" s="20" t="s">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="J132" s="21">
-        <v>1383000</v>
+        <v>1369000</v>
       </c>
       <c r="K132" s="21">
-        <v>4813000</v>
+        <v>4428000</v>
       </c>
     </row>
     <row r="133" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G133" s="20">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H133" s="20" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I133" s="20" t="s">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="J133" s="21">
-        <v>1369000</v>
+        <v>1248000</v>
       </c>
       <c r="K133" s="21">
-        <v>4428000</v>
+        <v>3327000</v>
       </c>
     </row>
     <row r="134" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G134" s="20">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H134" s="20" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I134" s="20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J134" s="21">
-        <v>1248000</v>
+        <v>1222000</v>
       </c>
       <c r="K134" s="21">
-        <v>3327000</v>
+        <v>3991000</v>
       </c>
     </row>
     <row r="135" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G135" s="20">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H135" s="20" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I135" s="20" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="J135" s="21">
-        <v>1222000</v>
+        <v>1210000</v>
       </c>
       <c r="K135" s="21">
-        <v>3991000</v>
+        <v>15038000</v>
       </c>
     </row>
     <row r="136" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G136" s="20">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H136" s="20" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I136" s="20" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="J136" s="21">
-        <v>1210000</v>
+        <v>1180000</v>
       </c>
       <c r="K136" s="21">
-        <v>15038000</v>
+        <v>1782000</v>
       </c>
     </row>
     <row r="137" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G137" s="20">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H137" s="20" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I137" s="20" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="J137" s="21">
-        <v>1180000</v>
+        <v>1159000</v>
       </c>
       <c r="K137" s="21">
-        <v>1782000</v>
+        <v>3447000</v>
       </c>
     </row>
     <row r="138" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G138" s="20">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H138" s="20" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I138" s="20" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J138" s="21">
-        <v>1159000</v>
+        <v>1091000</v>
       </c>
       <c r="K138" s="21">
-        <v>3447000</v>
+        <v>4940000</v>
       </c>
     </row>
     <row r="139" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G139" s="20">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H139" s="20" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I139" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J139" s="21">
-        <v>1091000</v>
+        <v>1001000</v>
       </c>
       <c r="K139" s="21">
-        <v>4940000</v>
+        <v>23785000</v>
       </c>
     </row>
     <row r="140" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G140" s="20">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H140" s="20" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I140" s="20" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="J140" s="21">
-        <v>1001000</v>
+        <v>1021000</v>
       </c>
       <c r="K140" s="21">
-        <v>23785000</v>
+        <v>6491000</v>
       </c>
     </row>
     <row r="141" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G141" s="20">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H141" s="20" t="s">
-        <v>162</v>
+        <v>196</v>
       </c>
       <c r="I141" s="20" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="J141" s="21">
-        <v>1021000</v>
+        <v>983000</v>
       </c>
       <c r="K141" s="21">
-        <v>6491000</v>
+        <v>2297000</v>
       </c>
     </row>
     <row r="142" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G142" s="20">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H142" s="20" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="I142" s="20" t="s">
         <v>94</v>
       </c>
       <c r="J142" s="21">
-        <v>983000</v>
+        <v>951000</v>
       </c>
       <c r="K142" s="21">
-        <v>2297000</v>
+        <v>2929000</v>
       </c>
     </row>
     <row r="143" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G143" s="20">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H143" s="20" t="s">
-        <v>197</v>
+        <v>163</v>
       </c>
       <c r="I143" s="20" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="J143" s="21">
-        <v>951000</v>
+        <v>925000</v>
       </c>
       <c r="K143" s="21">
-        <v>2929000</v>
+        <v>4247000</v>
       </c>
     </row>
     <row r="144" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G144" s="20">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H144" s="20" t="s">
-        <v>163</v>
+        <v>194</v>
       </c>
       <c r="I144" s="20" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="J144" s="21">
-        <v>925000</v>
+        <v>877000</v>
       </c>
       <c r="K144" s="21">
-        <v>4247000</v>
+        <v>2473000</v>
       </c>
     </row>
     <row r="145" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G145" s="20">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H145" s="20" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="I145" s="20" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="J145" s="21">
-        <v>877000</v>
+        <v>851000</v>
       </c>
       <c r="K145" s="21">
-        <v>2473000</v>
+        <v>1929000</v>
       </c>
     </row>
     <row r="146" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G146" s="20">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H146" s="20" t="s">
-        <v>198</v>
+        <v>164</v>
       </c>
       <c r="I146" s="20" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="J146" s="21">
-        <v>851000</v>
+        <v>788000</v>
       </c>
       <c r="K146" s="21">
-        <v>1929000</v>
+        <v>5312000</v>
       </c>
     </row>
     <row r="147" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G147" s="20">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H147" s="20" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I147" s="20" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="J147" s="21">
-        <v>788000</v>
+        <v>765000</v>
       </c>
       <c r="K147" s="21">
-        <v>5312000</v>
+        <v>1252000</v>
       </c>
     </row>
     <row r="148" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G148" s="20">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H148" s="20" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="I148" s="20" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="J148" s="21">
-        <v>765000</v>
+        <v>741000</v>
       </c>
       <c r="K148" s="21">
-        <v>1252000</v>
+        <v>1782000</v>
       </c>
     </row>
     <row r="149" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G149" s="20">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H149" s="20" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="I149" s="20" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="J149" s="21">
-        <v>741000</v>
+        <v>729000</v>
       </c>
       <c r="K149" s="21">
-        <v>1782000</v>
+        <v>2175000</v>
       </c>
     </row>
     <row r="150" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G150" s="20">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H150" s="20" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I150" s="20" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="J150" s="21">
-        <v>729000</v>
+        <v>715000</v>
       </c>
       <c r="K150" s="21">
-        <v>2175000</v>
+        <v>1534000</v>
       </c>
     </row>
     <row r="151" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G151" s="20">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H151" s="20" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I151" s="20" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="J151" s="21">
-        <v>715000</v>
+        <v>701000</v>
       </c>
       <c r="K151" s="21">
-        <v>1534000</v>
+        <v>2461000</v>
       </c>
     </row>
     <row r="152" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G152" s="20">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H152" s="20" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I152" s="20" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="J152" s="21">
-        <v>701000</v>
+        <v>656000</v>
       </c>
       <c r="K152" s="21">
-        <v>2461000</v>
-      </c>
-    </row>
-    <row r="153" spans="7:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="G153" s="20">
-        <v>32</v>
-      </c>
-      <c r="H153" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="I153" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="J153" s="21">
-        <v>656000</v>
-      </c>
-      <c r="K153" s="21">
         <v>1567000</v>
       </c>
     </row>
+    <row r="156" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G156" t="s">
+        <v>138</v>
+      </c>
+      <c r="H156" t="s">
+        <v>139</v>
+      </c>
+      <c r="I156" t="s">
+        <v>126</v>
+      </c>
+      <c r="J156" t="s">
+        <v>140</v>
+      </c>
+      <c r="K156" t="s">
+        <v>141</v>
+      </c>
+    </row>
     <row r="157" spans="7:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="G157" t="s">
-        <v>138</v>
+      <c r="G157">
+        <v>1</v>
       </c>
       <c r="H157" t="s">
-        <v>139</v>
+        <v>205</v>
       </c>
       <c r="I157" t="s">
-        <v>126</v>
-      </c>
-      <c r="J157" t="s">
-        <v>140</v>
-      </c>
-      <c r="K157" t="s">
-        <v>141</v>
+        <v>87</v>
+      </c>
+      <c r="J157" s="1">
+        <v>10090000</v>
+      </c>
+      <c r="K157" s="1">
+        <v>23785000</v>
       </c>
     </row>
     <row r="158" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G158">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H158" t="s">
-        <v>205</v>
+        <v>143</v>
       </c>
       <c r="I158" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="J158" s="1">
-        <v>10090000</v>
+        <v>5221000</v>
       </c>
       <c r="K158" s="1">
-        <v>23785000</v>
+        <v>15038000</v>
       </c>
     </row>
     <row r="159" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G159">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H159" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I159" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="J159" s="1">
-        <v>5221000</v>
+        <v>4047000</v>
       </c>
       <c r="K159" s="1">
-        <v>15038000</v>
+        <v>10415000</v>
       </c>
     </row>
     <row r="160" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G160">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H160" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I160" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="J160" s="1">
-        <v>4047000</v>
+        <v>2513000</v>
       </c>
       <c r="K160" s="1">
-        <v>10415000</v>
+        <v>7038000</v>
       </c>
     </row>
     <row r="161" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G161">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H161" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I161" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="J161" s="1">
-        <v>2513000</v>
+        <v>2210000</v>
       </c>
       <c r="K161" s="1">
-        <v>7038000</v>
+        <v>6471000</v>
       </c>
     </row>
     <row r="162" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G162">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H162" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I162" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="J162" s="1">
-        <v>2210000</v>
+        <v>2031000</v>
       </c>
       <c r="K162" s="1">
-        <v>6471000</v>
+        <v>7576000</v>
       </c>
     </row>
     <row r="163" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G163">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H163" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I163" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="J163" s="1">
-        <v>2031000</v>
+        <v>1719000</v>
       </c>
       <c r="K163" s="1">
-        <v>7576000</v>
+        <v>6948000</v>
       </c>
     </row>
     <row r="164" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G164">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H164" t="s">
-        <v>148</v>
+        <v>206</v>
       </c>
       <c r="I164" t="s">
-        <v>92</v>
+        <v>150</v>
       </c>
       <c r="J164" s="1">
-        <v>1719000</v>
+        <v>1643000</v>
       </c>
       <c r="K164" s="1">
-        <v>6948000</v>
+        <v>9083000</v>
       </c>
     </row>
     <row r="165" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G165">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H165" t="s">
-        <v>206</v>
+        <v>151</v>
       </c>
       <c r="I165" t="s">
-        <v>150</v>
+        <v>98</v>
       </c>
       <c r="J165" s="1">
-        <v>1643000</v>
+        <v>1480000</v>
       </c>
       <c r="K165" s="1">
-        <v>9083000</v>
+        <v>6743000</v>
       </c>
     </row>
     <row r="166" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G166">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H166" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I166" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="J166" s="1">
-        <v>1480000</v>
+        <v>1422000</v>
       </c>
       <c r="K166" s="1">
-        <v>6743000</v>
+        <v>5942000</v>
       </c>
     </row>
     <row r="167" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G167">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H167" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I167" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="J167" s="1">
-        <v>1422000</v>
+        <v>1383000</v>
       </c>
       <c r="K167" s="1">
-        <v>5942000</v>
+        <v>4813000</v>
       </c>
     </row>
     <row r="168" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G168">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H168" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I168" t="s">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="J168" s="1">
-        <v>1383000</v>
+        <v>1369000</v>
       </c>
       <c r="K168" s="1">
-        <v>4813000</v>
+        <v>4428000</v>
       </c>
     </row>
     <row r="169" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G169">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H169" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I169" t="s">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="J169" s="1">
-        <v>1369000</v>
+        <v>1248000</v>
       </c>
       <c r="K169" s="1">
-        <v>4428000</v>
+        <v>3327000</v>
       </c>
     </row>
     <row r="170" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G170">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H170" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I170" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J170" s="1">
-        <v>1248000</v>
+        <v>1222000</v>
       </c>
       <c r="K170" s="1">
-        <v>3327000</v>
+        <v>3991000</v>
       </c>
     </row>
     <row r="171" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G171">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H171" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I171" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="J171" s="1">
-        <v>1222000</v>
-      </c>
-      <c r="K171" s="1">
-        <v>3991000</v>
+        <v>1210000</v>
+      </c>
+      <c r="K171" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="172" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G172">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H172" t="s">
-        <v>157</v>
+        <v>199</v>
       </c>
       <c r="I172" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="J172" s="1">
-        <v>1210000</v>
-      </c>
-      <c r="K172" t="s">
-        <v>207</v>
+        <v>1180000</v>
+      </c>
+      <c r="K172" s="1">
+        <v>2252000</v>
       </c>
     </row>
     <row r="173" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G173">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H173" t="s">
-        <v>199</v>
+        <v>159</v>
       </c>
       <c r="I173" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="J173" s="1">
-        <v>1180000</v>
+        <v>1159000</v>
       </c>
       <c r="K173" s="1">
-        <v>2252000</v>
+        <v>3447000</v>
       </c>
     </row>
     <row r="174" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G174">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H174" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="I174" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="J174" s="1">
-        <v>1159000</v>
+        <v>1091000</v>
       </c>
       <c r="K174" s="1">
-        <v>3447000</v>
+        <v>6491000</v>
       </c>
     </row>
     <row r="175" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G175">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H175" t="s">
-        <v>162</v>
+        <v>208</v>
       </c>
       <c r="I175" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="J175" s="1">
-        <v>1091000</v>
+        <v>1069000</v>
       </c>
       <c r="K175" s="1">
-        <v>6491000</v>
+        <v>5105000</v>
       </c>
     </row>
     <row r="176" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G176">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H176" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="I176" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="J176" s="1">
-        <v>1069000</v>
+        <v>1044000</v>
       </c>
       <c r="K176" s="1">
-        <v>5105000</v>
+        <v>1836000</v>
       </c>
     </row>
     <row r="177" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G177">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H177" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="I177" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="J177" s="1">
-        <v>1044000</v>
-      </c>
-      <c r="K177" s="1">
-        <v>1836000</v>
+        <v>1021000</v>
+      </c>
+      <c r="K177" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="178" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G178">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H178" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I178" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="J178" s="1">
-        <v>1021000</v>
-      </c>
-      <c r="K178" t="s">
-        <v>222</v>
+        <v>1001000</v>
+      </c>
+      <c r="K178" s="1">
+        <v>4940000</v>
       </c>
     </row>
     <row r="179" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G179">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H179" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="I179" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="J179" s="1">
-        <v>1001000</v>
+        <v>983000</v>
       </c>
       <c r="K179" s="1">
-        <v>4940000</v>
+        <v>2297000</v>
       </c>
     </row>
     <row r="180" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G180">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H180" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="I180" t="s">
         <v>94</v>
       </c>
       <c r="J180" s="1">
-        <v>983000</v>
+        <v>951000</v>
       </c>
       <c r="K180" s="1">
-        <v>2297000</v>
+        <v>2929000</v>
       </c>
     </row>
     <row r="181" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G181">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H181" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I181" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="J181" s="1">
-        <v>951000</v>
+        <v>925000</v>
       </c>
       <c r="K181" s="1">
-        <v>2929000</v>
+        <v>4247000</v>
       </c>
     </row>
     <row r="182" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G182">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H182" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="I182" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J182" s="1">
-        <v>925000</v>
+        <v>903000</v>
       </c>
       <c r="K182" s="1">
-        <v>4247000</v>
+        <v>3562000</v>
       </c>
     </row>
     <row r="183" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G183">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H183" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I183" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="J183" s="1">
-        <v>903000</v>
+        <v>891000</v>
       </c>
       <c r="K183" s="1">
-        <v>3562000</v>
+        <v>3421000</v>
       </c>
     </row>
     <row r="184" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G184">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H184" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
       <c r="I184" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J184" s="1">
-        <v>891000</v>
+        <v>877000</v>
       </c>
       <c r="K184" s="1">
-        <v>3421000</v>
+        <v>2473000</v>
       </c>
     </row>
     <row r="185" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G185">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H185" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="I185" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="J185" s="1">
-        <v>877000</v>
+        <v>851000</v>
       </c>
       <c r="K185" s="1">
-        <v>2473000</v>
+        <v>2329000</v>
       </c>
     </row>
     <row r="186" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G186">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H186" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="I186" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="J186" s="1">
-        <v>851000</v>
+        <v>824000</v>
       </c>
       <c r="K186" s="1">
-        <v>2329000</v>
+        <v>1651000</v>
       </c>
     </row>
     <row r="187" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G187">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H187" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I187" t="s">
-        <v>103</v>
+        <v>195</v>
       </c>
       <c r="J187" s="1">
-        <v>824000</v>
+        <v>802000</v>
       </c>
       <c r="K187" s="1">
-        <v>1651000</v>
+        <v>2547000</v>
       </c>
     </row>
     <row r="188" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G188">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H188" t="s">
-        <v>204</v>
+        <v>164</v>
       </c>
       <c r="I188" t="s">
-        <v>195</v>
+        <v>100</v>
       </c>
       <c r="J188" s="1">
-        <v>802000</v>
+        <v>788000</v>
       </c>
       <c r="K188" s="1">
-        <v>2547000</v>
+        <v>5312000</v>
       </c>
     </row>
     <row r="189" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G189">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H189" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I189" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="J189" s="1">
-        <v>788000</v>
+        <v>765000</v>
       </c>
       <c r="K189" s="1">
-        <v>5312000</v>
+        <v>1252000</v>
       </c>
     </row>
     <row r="190" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G190">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H190" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="I190" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="J190" s="1">
-        <v>765000</v>
+        <v>741000</v>
       </c>
       <c r="K190" s="1">
-        <v>1252000</v>
+        <v>1782000</v>
       </c>
     </row>
     <row r="191" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G191">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H191" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="I191" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="J191" s="1">
-        <v>741000</v>
+        <v>729000</v>
       </c>
       <c r="K191" s="1">
-        <v>1782000</v>
+        <v>2175000</v>
       </c>
     </row>
     <row r="192" spans="7:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G192">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H192" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="I192" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="J192" s="1">
-        <v>729000</v>
+        <v>701000</v>
       </c>
       <c r="K192" s="1">
-        <v>2175000</v>
+        <v>2461000</v>
       </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G193">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H193" t="s">
-        <v>168</v>
+        <v>215</v>
       </c>
       <c r="I193" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="J193" s="1">
-        <v>701000</v>
+        <v>682000</v>
       </c>
       <c r="K193" s="1">
-        <v>2461000</v>
+        <v>1221000</v>
       </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G194">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H194" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I194" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="J194" s="1">
-        <v>682000</v>
+        <v>668000</v>
       </c>
       <c r="K194" s="1">
-        <v>1221000</v>
+        <v>1614000</v>
       </c>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G195">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H195" t="s">
-        <v>216</v>
+        <v>169</v>
       </c>
       <c r="I195" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="J195" s="1">
-        <v>668000</v>
+        <v>656000</v>
       </c>
       <c r="K195" s="1">
-        <v>1614000</v>
+        <v>1567000</v>
       </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G196">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H196" t="s">
-        <v>169</v>
+        <v>217</v>
       </c>
       <c r="I196" t="s">
-        <v>94</v>
+        <v>195</v>
       </c>
       <c r="J196" s="1">
-        <v>656000</v>
+        <v>634000</v>
       </c>
       <c r="K196" s="1">
-        <v>1567000</v>
+        <v>1341000</v>
       </c>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G197">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H197" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="I197" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="J197" s="1">
-        <v>634000</v>
+        <v>613000</v>
       </c>
       <c r="K197" s="1">
-        <v>1341000</v>
+        <v>1248000</v>
       </c>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G198">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H198" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="I198" t="s">
-        <v>202</v>
+        <v>79</v>
       </c>
       <c r="J198" s="1">
-        <v>613000</v>
-      </c>
-      <c r="K198" s="1">
-        <v>1248000</v>
+        <v>584000</v>
+      </c>
+      <c r="K198" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G199">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H199" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I199" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="J199" s="1">
-        <v>584000</v>
-      </c>
-      <c r="K199" t="s">
-        <v>222</v>
+        <v>565000</v>
+      </c>
+      <c r="K199" s="1">
+        <v>1641000</v>
       </c>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G200">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H200" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I200" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="J200" s="1">
-        <v>565000</v>
+        <v>524000</v>
       </c>
       <c r="K200" s="1">
-        <v>1641000</v>
+        <v>1051000</v>
       </c>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="G201">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H201" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="I201" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="J201" s="1">
-        <v>524000</v>
-      </c>
-      <c r="K201" s="1">
-        <v>1051000</v>
-      </c>
-    </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="G202">
-        <v>45</v>
-      </c>
-      <c r="H202" t="s">
-        <v>224</v>
-      </c>
-      <c r="I202" t="s">
-        <v>91</v>
-      </c>
-      <c r="J202" s="1">
         <v>501000</v>
       </c>
-      <c r="K202" t="s">
+      <c r="K201" t="s">
         <v>225</v>
       </c>
     </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A203" t="s">
+        <v>138</v>
+      </c>
+      <c r="B203" t="s">
+        <v>139</v>
+      </c>
+      <c r="C203" t="s">
+        <v>126</v>
+      </c>
+      <c r="D203" t="s">
+        <v>140</v>
+      </c>
+      <c r="E203" t="s">
+        <v>141</v>
+      </c>
+    </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A204" t="s">
-        <v>138</v>
+      <c r="A204">
+        <v>1</v>
       </c>
       <c r="B204" t="s">
-        <v>139</v>
+        <v>205</v>
       </c>
       <c r="C204" t="s">
-        <v>126</v>
-      </c>
-      <c r="D204" t="s">
-        <v>140</v>
-      </c>
-      <c r="E204" t="s">
-        <v>141</v>
+        <v>87</v>
+      </c>
+      <c r="D204" s="1">
+        <v>10090000</v>
+      </c>
+      <c r="E204" s="1">
+        <v>23785000</v>
       </c>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A205">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B205" t="s">
-        <v>205</v>
+        <v>143</v>
       </c>
       <c r="C205" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="D205" s="1">
-        <v>10090000</v>
+        <v>5221000</v>
       </c>
       <c r="E205" s="1">
-        <v>23785000</v>
+        <v>15038000</v>
       </c>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A206">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B206" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C206" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D206" s="1">
-        <v>5221000</v>
+        <v>4047000</v>
       </c>
       <c r="E206" s="1">
-        <v>15038000</v>
+        <v>10415000</v>
       </c>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A207">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B207" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C207" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="D207" s="1">
-        <v>4047000</v>
+        <v>2513000</v>
       </c>
       <c r="E207" s="1">
-        <v>10415000</v>
+        <v>7038000</v>
       </c>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A208">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B208" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C208" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D208" s="1">
-        <v>2513000</v>
+        <v>2210000</v>
       </c>
       <c r="E208" s="1">
-        <v>7038000</v>
+        <v>6471000</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A209">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B209" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C209" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D209" s="1">
-        <v>2210000</v>
+        <v>2031000</v>
       </c>
       <c r="E209" s="1">
-        <v>6471000</v>
+        <v>7576000</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A210">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B210" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C210" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D210" s="1">
-        <v>2031000</v>
+        <v>1719000</v>
       </c>
       <c r="E210" s="1">
-        <v>7576000</v>
+        <v>6948000</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A211">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B211" t="s">
-        <v>148</v>
+        <v>206</v>
       </c>
       <c r="C211" t="s">
-        <v>92</v>
+        <v>150</v>
       </c>
       <c r="D211" s="1">
-        <v>1719000</v>
+        <v>1643000</v>
       </c>
       <c r="E211" s="1">
-        <v>6948000</v>
+        <v>9083000</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A212">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B212" t="s">
-        <v>206</v>
+        <v>151</v>
       </c>
       <c r="C212" t="s">
-        <v>150</v>
+        <v>98</v>
       </c>
       <c r="D212" s="1">
-        <v>1643000</v>
+        <v>1480000</v>
       </c>
       <c r="E212" s="1">
-        <v>9083000</v>
+        <v>6743000</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A213">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B213" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C213" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D213" s="1">
-        <v>1480000</v>
+        <v>1422000</v>
       </c>
       <c r="E213" s="1">
-        <v>6743000</v>
+        <v>5942000</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A214">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B214" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C214" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="D214" s="1">
-        <v>1422000</v>
+        <v>1383000</v>
       </c>
       <c r="E214" s="1">
-        <v>5942000</v>
+        <v>4813000</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A215">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B215" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C215" t="s">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="D215" s="1">
-        <v>1383000</v>
+        <v>1369000</v>
       </c>
       <c r="E215" s="1">
-        <v>4813000</v>
+        <v>4428000</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A216">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B216" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C216" t="s">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="D216" s="1">
-        <v>1369000</v>
+        <v>1248000</v>
       </c>
       <c r="E216" s="1">
-        <v>4428000</v>
+        <v>3327000</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A217">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B217" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C217" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D217" s="1">
-        <v>1248000</v>
+        <v>1222000</v>
       </c>
       <c r="E217" s="1">
-        <v>3327000</v>
+        <v>3991000</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A218">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B218" t="s">
-        <v>156</v>
+        <v>234</v>
       </c>
       <c r="C218" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="D218" s="1">
-        <v>1222000</v>
+        <v>1206000</v>
       </c>
       <c r="E218" s="1">
-        <v>3991000</v>
+        <v>5147000</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A219">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B219" t="s">
-        <v>234</v>
+        <v>157</v>
       </c>
       <c r="C219" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="D219" s="1">
-        <v>1206000</v>
-      </c>
-      <c r="E219" s="1">
-        <v>5147000</v>
+        <v>1180000</v>
+      </c>
+      <c r="E219" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A220">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B220" t="s">
-        <v>157</v>
+        <v>199</v>
       </c>
       <c r="C220" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D220" s="1">
-        <v>1180000</v>
-      </c>
-      <c r="E220" t="s">
-        <v>235</v>
+        <v>1160000</v>
+      </c>
+      <c r="E220" s="1">
+        <v>2252000</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A221">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B221" t="s">
-        <v>199</v>
+        <v>159</v>
       </c>
       <c r="C221" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="D221" s="1">
-        <v>1160000</v>
+        <v>1129000</v>
       </c>
       <c r="E221" s="1">
-        <v>2252000</v>
+        <v>3447000</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A222">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B222" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C222" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D222" s="1">
-        <v>1129000</v>
+        <v>1091000</v>
       </c>
       <c r="E222" s="1">
-        <v>3447000</v>
+        <v>6291000</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A223">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B223" t="s">
-        <v>162</v>
+        <v>236</v>
       </c>
       <c r="C223" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D223" s="1">
-        <v>1091000</v>
+        <v>1069000</v>
       </c>
       <c r="E223" s="1">
-        <v>6291000</v>
+        <v>4405000</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A224">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B224" t="s">
-        <v>236</v>
+        <v>200</v>
       </c>
       <c r="C224" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="D224" s="1">
-        <v>1069000</v>
+        <v>1044000</v>
       </c>
       <c r="E224" s="1">
-        <v>4405000</v>
+        <v>1836000</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A225">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B225" t="s">
-        <v>200</v>
+        <v>237</v>
       </c>
       <c r="C225" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="D225" s="1">
-        <v>1044000</v>
-      </c>
-      <c r="E225" s="1">
-        <v>1836000</v>
+        <v>1021000</v>
+      </c>
+      <c r="E225" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A226">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B226" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C226" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="D226" s="1">
-        <v>1021000</v>
-      </c>
-      <c r="E226" t="s">
-        <v>238</v>
+        <v>1001000</v>
+      </c>
+      <c r="E226" s="1">
+        <v>4940000</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A227">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B227" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C227" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="D227" s="1">
-        <v>1001000</v>
+        <v>983000</v>
       </c>
       <c r="E227" s="1">
-        <v>4940000</v>
+        <v>2297000</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A228">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B228" t="s">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c r="C228" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D228" s="1">
-        <v>983000</v>
+        <v>969000</v>
       </c>
       <c r="E228" s="1">
-        <v>2297000</v>
+        <v>2321000</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A229">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B229" t="s">
-        <v>265</v>
+        <v>227</v>
       </c>
       <c r="C229" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="D229" s="1">
-        <v>969000</v>
+        <v>925000</v>
       </c>
       <c r="E229" s="1">
-        <v>2321000</v>
+        <v>2929000</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A230">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B230" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C230" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D230" s="1">
-        <v>925000</v>
+        <v>903000</v>
       </c>
       <c r="E230" s="1">
-        <v>2929000</v>
+        <v>3562000</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A231">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B231" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C231" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D231" s="1">
-        <v>903000</v>
+        <v>891000</v>
       </c>
       <c r="E231" s="1">
-        <v>3562000</v>
+        <v>3421000</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A232">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B232" t="s">
-        <v>229</v>
+        <v>168</v>
       </c>
       <c r="C232" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="D232" s="1">
-        <v>891000</v>
+        <v>883000</v>
       </c>
       <c r="E232" s="1">
-        <v>3421000</v>
+        <v>3161000</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A233">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B233" t="s">
-        <v>168</v>
+        <v>194</v>
       </c>
       <c r="C233" t="s">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="D233" s="1">
-        <v>883000</v>
+        <v>877000</v>
       </c>
       <c r="E233" s="1">
-        <v>3161000</v>
+        <v>2473000</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A234">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B234" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="C234" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="D234" s="1">
-        <v>877000</v>
+        <v>851000</v>
       </c>
       <c r="E234" s="1">
-        <v>2473000</v>
+        <v>2329000</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A235">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B235" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="C235" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="D235" s="1">
-        <v>851000</v>
+        <v>824000</v>
       </c>
       <c r="E235" s="1">
-        <v>2329000</v>
+        <v>1651000</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A236">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B236" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C236" t="s">
-        <v>103</v>
+        <v>195</v>
       </c>
       <c r="D236" s="1">
-        <v>824000</v>
+        <v>802000</v>
       </c>
       <c r="E236" s="1">
-        <v>1651000</v>
+        <v>2547000</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A237">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B237" t="s">
-        <v>204</v>
+        <v>164</v>
       </c>
       <c r="C237" t="s">
-        <v>195</v>
+        <v>100</v>
       </c>
       <c r="D237" s="1">
-        <v>802000</v>
+        <v>788000</v>
       </c>
       <c r="E237" s="1">
-        <v>2547000</v>
+        <v>5312000</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A238">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B238" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C238" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="D238" s="1">
-        <v>788000</v>
+        <v>765000</v>
       </c>
       <c r="E238" s="1">
-        <v>5312000</v>
+        <v>1252000</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A239">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B239" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C239" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="D239" s="1">
-        <v>765000</v>
+        <v>741000</v>
       </c>
       <c r="E239" s="1">
-        <v>1252000</v>
+        <v>1782000</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A240">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B240" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="C240" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D240" s="1">
-        <v>741000</v>
+        <v>729000</v>
       </c>
       <c r="E240" s="1">
-        <v>1782000</v>
+        <v>2175000</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A241">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B241" t="s">
-        <v>166</v>
+        <v>264</v>
       </c>
       <c r="C241" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D241" s="1">
-        <v>729000</v>
+        <v>707000</v>
       </c>
       <c r="E241" s="1">
-        <v>2175000</v>
+        <v>2434000</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A242">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B242" t="s">
-        <v>266</v>
+        <v>215</v>
       </c>
       <c r="C242" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="D242" s="1">
-        <v>707000</v>
+        <v>682000</v>
       </c>
       <c r="E242" s="1">
-        <v>2434000</v>
+        <v>1221000</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A243">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B243" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C243" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="D243" s="1">
-        <v>682000</v>
+        <v>668000</v>
       </c>
       <c r="E243" s="1">
-        <v>1221000</v>
+        <v>1814000</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A244">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B244" t="s">
-        <v>216</v>
+        <v>169</v>
       </c>
       <c r="C244" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D244" s="1">
-        <v>668000</v>
+        <v>656000</v>
       </c>
       <c r="E244" s="1">
-        <v>1814000</v>
+        <v>1567000</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A245">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B245" t="s">
-        <v>169</v>
+        <v>217</v>
       </c>
       <c r="C245" t="s">
-        <v>94</v>
+        <v>195</v>
       </c>
       <c r="D245" s="1">
-        <v>656000</v>
+        <v>634000</v>
       </c>
       <c r="E245" s="1">
-        <v>1567000</v>
+        <v>1341000</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A246">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B246" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="C246" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="D246" s="1">
-        <v>634000</v>
+        <v>613000</v>
       </c>
       <c r="E246" s="1">
-        <v>1341000</v>
+        <v>1048000</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A247">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B247" t="s">
-        <v>201</v>
+        <v>230</v>
       </c>
       <c r="C247" t="s">
-        <v>202</v>
+        <v>87</v>
       </c>
       <c r="D247" s="1">
-        <v>613000</v>
+        <v>606000</v>
       </c>
       <c r="E247" s="1">
-        <v>1048000</v>
+        <v>1638000</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A248">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B248" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="C248" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D248" s="1">
-        <v>606000</v>
-      </c>
-      <c r="E248" s="1">
-        <v>1638000</v>
+        <v>584000</v>
+      </c>
+      <c r="E248" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A249">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B249" t="s">
-        <v>218</v>
+        <v>265</v>
       </c>
       <c r="C249" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="D249" s="1">
-        <v>584000</v>
-      </c>
-      <c r="E249" t="s">
-        <v>238</v>
+        <v>565000</v>
+      </c>
+      <c r="E249" s="1">
+        <v>1641000</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A250">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B250" t="s">
-        <v>267</v>
+        <v>220</v>
       </c>
       <c r="C250" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="D250" s="1">
-        <v>565000</v>
+        <v>524000</v>
       </c>
       <c r="E250" s="1">
-        <v>1641000</v>
+        <v>1051000</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A251">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B251" t="s">
-        <v>220</v>
+        <v>266</v>
       </c>
       <c r="C251" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="D251" s="1">
-        <v>524000</v>
+        <v>517000</v>
       </c>
       <c r="E251" s="1">
-        <v>1051000</v>
+        <v>1231000</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A252">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B252" t="s">
-        <v>268</v>
+        <v>224</v>
       </c>
       <c r="C252" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D252" s="1">
-        <v>517000</v>
-      </c>
-      <c r="E252" s="1">
-        <v>1231000</v>
+        <v>501000</v>
+      </c>
+      <c r="E252" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A253">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B253" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="C253" t="s">
         <v>91</v>
       </c>
       <c r="D253" s="1">
-        <v>501000</v>
-      </c>
-      <c r="E253" t="s">
-        <v>269</v>
+        <v>479000</v>
+      </c>
+      <c r="E253" s="1">
+        <v>993000</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A254">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B254" t="s">
-        <v>231</v>
+        <v>271</v>
       </c>
       <c r="C254" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="D254" s="1">
-        <v>479000</v>
+        <v>462000</v>
       </c>
       <c r="E254" s="1">
-        <v>993000</v>
+        <v>1001000</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A255">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B255" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C255" t="s">
-        <v>80</v>
+        <v>232</v>
       </c>
       <c r="D255" s="1">
-        <v>462000</v>
-      </c>
-      <c r="E255" s="1">
-        <v>1001000</v>
+        <v>460000</v>
+      </c>
+      <c r="E255" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A256">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B256" t="s">
         <v>270</v>
       </c>
       <c r="C256" t="s">
-        <v>232</v>
+        <v>103</v>
       </c>
       <c r="D256" s="1">
-        <v>460000</v>
-      </c>
-      <c r="E256" t="s">
-        <v>271</v>
+        <v>439000</v>
+      </c>
+      <c r="E256" s="1">
+        <v>904000</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A257">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B257" t="s">
-        <v>272</v>
+        <v>233</v>
       </c>
       <c r="C257" t="s">
-        <v>103</v>
+        <v>226</v>
       </c>
       <c r="D257" s="1">
-        <v>439000</v>
+        <v>429000</v>
       </c>
       <c r="E257" s="1">
-        <v>904000</v>
+        <v>770000</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A258">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B258" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="C258" t="s">
-        <v>226</v>
+        <v>103</v>
       </c>
       <c r="D258" s="1">
-        <v>429000</v>
+        <v>403000</v>
       </c>
       <c r="E258" s="1">
-        <v>770000</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A259">
-        <v>55</v>
-      </c>
-      <c r="B259" t="s">
-        <v>274</v>
-      </c>
-      <c r="C259" t="s">
-        <v>103</v>
-      </c>
-      <c r="D259" s="1">
-        <v>403000</v>
-      </c>
-      <c r="E259" s="1">
         <v>739000</v>
       </c>
     </row>
@@ -6513,8 +6498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C63D63CD-E558-4E85-B35D-432437BFD9B4}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>

--- a/obsidian-notes/spreadsheets/area.xlsx
+++ b/obsidian-notes/spreadsheets/area.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sharm\iCloudDrive\iCloud~md~obsidian\Ishan's notes\Spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13380F3E-B1D2-4343-8BBB-EF4934766D12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{752668CA-D832-4C95-A0D6-DC0F01FB53BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" activeTab="2" xr2:uid="{94B94BC7-FBC8-4BAC-A974-CA3E4662C848}"/>
   </bookViews>
@@ -2055,8 +2055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C745E12-030D-4421-A6DC-982053D4A77E}">
   <dimension ref="A1:M258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="C97" sqref="C97"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>

--- a/obsidian-notes/spreadsheets/area.xlsx
+++ b/obsidian-notes/spreadsheets/area.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sharm\iCloudDrive\iCloud~md~obsidian\Ishan's notes\Spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{752668CA-D832-4C95-A0D6-DC0F01FB53BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9413AAA-36BF-4988-8FC4-8547DA0B1739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" activeTab="2" xr2:uid="{94B94BC7-FBC8-4BAC-A974-CA3E4662C848}"/>
   </bookViews>
@@ -2055,8 +2055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C745E12-030D-4421-A6DC-982053D4A77E}">
   <dimension ref="A1:M258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="C81" sqref="C81"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="I74" sqref="I74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2466,7 +2466,7 @@
       </c>
       <c r="B34" s="12">
         <f>C84^(1/3)</f>
-        <v>680.63306097408361</v>
+        <v>680.3451246917125</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="B36" s="15">
         <f>C84/B35</f>
-        <v>446616.14730878186</v>
+        <v>446049.57507082151</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -2492,7 +2492,7 @@
       </c>
       <c r="B37" s="15">
         <f>B36+C37</f>
-        <v>448616.14730878186</v>
+        <v>448049.57507082151</v>
       </c>
       <c r="C37">
         <v>2000</v>
@@ -2545,7 +2545,7 @@
       <c r="D41" s="23"/>
       <c r="E41" s="24">
         <f t="shared" ref="E41:E82" si="0">C41/$B$37</f>
-        <v>3.385968180397382</v>
+        <v>3.3902498395627254</v>
       </c>
       <c r="F41" s="25">
         <f t="shared" ref="F41:F83" si="1">FLOOR(E41,1)</f>
@@ -2583,7 +2583,7 @@
       <c r="D42" s="1"/>
       <c r="E42" s="12">
         <f t="shared" si="0"/>
-        <v>34.849392055518543</v>
+        <v>34.893460165716689</v>
       </c>
       <c r="F42" s="15">
         <f t="shared" si="1"/>
@@ -2619,7 +2619,7 @@
       <c r="D43" s="23"/>
       <c r="E43" s="24">
         <f t="shared" si="0"/>
-        <v>23.710693571354149</v>
+        <v>23.740676460453397</v>
       </c>
       <c r="F43" s="25">
         <f t="shared" si="1"/>
@@ -2657,7 +2657,7 @@
       <c r="D44" s="1"/>
       <c r="E44" s="12">
         <f t="shared" si="0"/>
-        <v>26.773445565999314</v>
+        <v>26.807301397622052</v>
       </c>
       <c r="F44" s="15">
         <f t="shared" si="1"/>
@@ -2693,7 +2693,7 @@
       <c r="D45" s="23"/>
       <c r="E45" s="24">
         <f t="shared" si="0"/>
-        <v>8.1272152638109638</v>
+        <v>8.1374923733019742</v>
       </c>
       <c r="F45" s="25">
         <f t="shared" si="1"/>
@@ -2731,7 +2731,7 @@
       <c r="D46" s="1"/>
       <c r="E46" s="12">
         <f t="shared" si="0"/>
-        <v>19.35507683370011</v>
+        <v>19.379551913708458</v>
       </c>
       <c r="F46" s="15">
         <f t="shared" si="1"/>
@@ -2767,7 +2767,7 @@
       <c r="D47" s="23"/>
       <c r="E47" s="24">
         <f t="shared" si="0"/>
-        <v>10.648301512678271</v>
+        <v>10.661766611975734</v>
       </c>
       <c r="F47" s="25">
         <f t="shared" si="1"/>
@@ -2805,7 +2805,7 @@
       <c r="D48" s="1"/>
       <c r="E48" s="12">
         <f t="shared" si="0"/>
-        <v>20.101817676644892</v>
+        <v>20.127237033032692</v>
       </c>
       <c r="F48" s="15">
         <f t="shared" si="1"/>
@@ -2841,7 +2841,7 @@
       <c r="D49" s="23"/>
       <c r="E49" s="24">
         <f t="shared" si="0"/>
-        <v>3.887510537599101</v>
+        <v>3.8924264122431822</v>
       </c>
       <c r="F49" s="25">
         <f t="shared" si="1"/>
@@ -2879,7 +2879,7 @@
       <c r="D50" s="1"/>
       <c r="E50" s="12">
         <f t="shared" si="0"/>
-        <v>42.666765596436001</v>
+        <v>42.720719011896072</v>
       </c>
       <c r="F50" s="15">
         <f t="shared" si="1"/>
@@ -2915,7 +2915,7 @@
       <c r="D51" s="23"/>
       <c r="E51" s="24">
         <f t="shared" si="0"/>
-        <v>80.779526589480398</v>
+        <v>80.881674743853594</v>
       </c>
       <c r="F51" s="25">
         <f t="shared" si="1"/>
@@ -2953,7 +2953,7 @@
       <c r="D52" s="1"/>
       <c r="E52" s="12">
         <f t="shared" si="0"/>
-        <v>27.887984137558689</v>
+        <v>27.923249336911955</v>
       </c>
       <c r="F52" s="15">
         <f t="shared" si="1"/>
@@ -2989,7 +2989,7 @@
       <c r="D53" s="23"/>
       <c r="E53" s="24">
         <f t="shared" si="0"/>
-        <v>2.4475267031443879</v>
+        <v>2.4506216746806273</v>
       </c>
       <c r="F53" s="25">
         <f t="shared" si="1"/>
@@ -3001,7 +3001,7 @@
       </c>
       <c r="H53" s="22">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I53" s="22"/>
       <c r="J53" s="22"/>
@@ -3027,7 +3027,7 @@
       <c r="D54" s="1"/>
       <c r="E54" s="12">
         <f t="shared" si="0"/>
-        <v>1.8880283402215816</v>
+        <v>1.8904158091570959</v>
       </c>
       <c r="F54" s="15">
         <f t="shared" si="1"/>
@@ -3055,7 +3055,7 @@
       <c r="D55" s="23"/>
       <c r="E55" s="24">
         <f t="shared" si="0"/>
-        <v>21.000135765321748</v>
+        <v>21.026691072100355</v>
       </c>
       <c r="F55" s="25">
         <f t="shared" si="1"/>
@@ -3094,7 +3094,7 @@
       <c r="D56" s="1"/>
       <c r="E56" s="12">
         <f t="shared" si="0"/>
-        <v>23.360728459884506</v>
+        <v>23.390268807516367</v>
       </c>
       <c r="F56" s="15">
         <f t="shared" si="1"/>
@@ -3130,7 +3130,7 @@
       <c r="D57" s="23"/>
       <c r="E57" s="24">
         <f t="shared" si="0"/>
-        <v>52.285233468993411</v>
+        <v>52.351349727967936</v>
       </c>
       <c r="F57" s="25">
         <f t="shared" si="1"/>
@@ -3168,7 +3168,7 @@
       <c r="D58" s="1"/>
       <c r="E58" s="12">
         <f t="shared" si="0"/>
-        <v>22.518137299785618</v>
+        <v>22.546612165413201</v>
       </c>
       <c r="F58" s="15">
         <f t="shared" si="1"/>
@@ -3204,7 +3204,7 @@
       <c r="D59" s="23"/>
       <c r="E59" s="24">
         <f t="shared" si="0"/>
-        <v>12.04147472712749</v>
+        <v>12.056701536088113</v>
       </c>
       <c r="F59" s="25">
         <f t="shared" si="1"/>
@@ -3242,7 +3242,7 @@
       <c r="D60" s="1"/>
       <c r="E60" s="12">
         <f t="shared" si="0"/>
-        <v>18.285119805003109</v>
+        <v>18.30824189199015</v>
       </c>
       <c r="F60" s="15">
         <f t="shared" si="1"/>
@@ -3278,7 +3278,7 @@
       <c r="D61" s="23"/>
       <c r="E61" s="24">
         <f t="shared" si="0"/>
-        <v>3.3458447918212446</v>
+        <v>3.3500757137482893</v>
       </c>
       <c r="F61" s="25">
         <f t="shared" si="1"/>
@@ -3316,7 +3316,7 @@
       <c r="D62" s="1"/>
       <c r="E62" s="12">
         <f t="shared" si="0"/>
-        <v>25.886272863038048</v>
+        <v>25.91900683794729</v>
       </c>
       <c r="F62" s="15">
         <f t="shared" si="1"/>
@@ -3352,7 +3352,7 @@
       <c r="D63" s="23"/>
       <c r="E63" s="24">
         <f t="shared" si="0"/>
-        <v>19.796434108037623</v>
+        <v>19.821467297667258</v>
       </c>
       <c r="F63" s="25">
         <f t="shared" si="1"/>
@@ -3390,7 +3390,7 @@
       <c r="D64" s="1"/>
       <c r="E64" s="12">
         <f t="shared" si="0"/>
-        <v>42.804968379309365</v>
+        <v>42.859096556368016</v>
       </c>
       <c r="F64" s="15">
         <f t="shared" si="1"/>
@@ -3426,7 +3426,7 @@
       <c r="D65" s="23"/>
       <c r="E65" s="24">
         <f t="shared" si="0"/>
-        <v>16.258888681908168</v>
+        <v>16.279448538361105</v>
       </c>
       <c r="F65" s="25">
         <f t="shared" si="1"/>
@@ -3464,7 +3464,7 @@
       <c r="D66" s="1"/>
       <c r="E66" s="12">
         <f t="shared" si="0"/>
-        <v>7.8597260066367145</v>
+        <v>7.8696648678723964</v>
       </c>
       <c r="F66" s="15">
         <f t="shared" si="1"/>
@@ -3500,7 +3500,7 @@
       <c r="D67" s="23"/>
       <c r="E67" s="24">
         <f t="shared" si="0"/>
-        <v>20.199897070942118</v>
+        <v>20.225440451690204</v>
       </c>
       <c r="F67" s="25">
         <f t="shared" si="1"/>
@@ -3538,7 +3538,7 @@
       <c r="D68" s="1"/>
       <c r="E68" s="12">
         <f t="shared" si="0"/>
-        <v>8.7892511753172329</v>
+        <v>8.8003654492401751</v>
       </c>
       <c r="F68" s="15">
         <f t="shared" si="1"/>
@@ -3574,7 +3574,7 @@
       <c r="D69" s="23"/>
       <c r="E69" s="24">
         <f t="shared" si="0"/>
-        <v>11.450769284201021</v>
+        <v>11.465249128264464</v>
       </c>
       <c r="F69" s="25">
         <f t="shared" si="1"/>
@@ -3612,7 +3612,7 @@
       <c r="D70" s="1"/>
       <c r="E70" s="12">
         <f t="shared" si="0"/>
-        <v>4.3110351947916632</v>
+        <v>4.3164866291733448</v>
       </c>
       <c r="F70" s="15">
         <f t="shared" si="1"/>
@@ -3644,7 +3644,7 @@
       <c r="D71" s="23"/>
       <c r="E71" s="24">
         <f t="shared" si="0"/>
-        <v>17.433612336331748</v>
+        <v>17.455657666372666</v>
       </c>
       <c r="F71" s="25">
         <f t="shared" si="1"/>
@@ -3682,7 +3682,7 @@
       <c r="D72" s="1"/>
       <c r="E72" s="12">
         <f t="shared" si="0"/>
-        <v>1.9437552687995505</v>
+        <v>1.9462132061215911</v>
       </c>
       <c r="F72" s="15">
         <f t="shared" si="1"/>
@@ -3710,7 +3710,7 @@
       <c r="D73" s="23"/>
       <c r="E73" s="24">
         <f t="shared" si="0"/>
-        <v>10.949226926999302</v>
+        <v>10.963072555584008</v>
       </c>
       <c r="F73" s="25">
         <f t="shared" si="1"/>
@@ -3748,7 +3748,7 @@
       <c r="D74" s="1"/>
       <c r="E74" s="12">
         <f t="shared" si="0"/>
-        <v>4.1973522604926075</v>
+        <v>4.2026599393657751</v>
       </c>
       <c r="F74" s="15">
         <f t="shared" si="1"/>
@@ -3780,7 +3780,7 @@
       <c r="D75" s="23"/>
       <c r="E75" s="24">
         <f t="shared" si="0"/>
-        <v>7.6368182923248389</v>
+        <v>7.6464752800144158</v>
       </c>
       <c r="F75" s="25">
         <f t="shared" si="1"/>
@@ -3815,7 +3815,7 @@
       <c r="D76" s="1"/>
       <c r="E76" s="12">
         <f t="shared" si="0"/>
-        <v>18.510256596458103</v>
+        <v>18.533663375726711</v>
       </c>
       <c r="F76" s="15">
         <f t="shared" si="1"/>
@@ -3847,7 +3847,7 @@
       <c r="D77" s="23"/>
       <c r="E77" s="24">
         <f t="shared" si="0"/>
-        <v>6.9123682208112456</v>
+        <v>6.9211091194759788</v>
       </c>
       <c r="F77" s="25">
         <f t="shared" si="1"/>
@@ -3885,7 +3885,7 @@
       <c r="D78" s="1"/>
       <c r="E78" s="12">
         <f t="shared" si="0"/>
-        <v>2.3806543888508256</v>
+        <v>2.3836647983232329</v>
       </c>
       <c r="F78" s="15">
         <f t="shared" si="1"/>
@@ -3914,7 +3914,7 @@
       <c r="D79" s="23"/>
       <c r="E79" s="24">
         <f t="shared" si="0"/>
-        <v>7.8731004694954265</v>
+        <v>7.8830562431438755</v>
       </c>
       <c r="F79" s="25">
         <f t="shared" si="1"/>
@@ -3952,7 +3952,7 @@
       <c r="D80" s="1"/>
       <c r="E80" s="12">
         <f t="shared" si="0"/>
-        <v>2.298178534555432</v>
+        <v>2.3010846508157803</v>
       </c>
       <c r="F80" s="15">
         <f t="shared" si="1"/>
@@ -3975,24 +3975,24 @@
         <v>112</v>
       </c>
       <c r="C81" s="23">
-        <v>2121000</v>
+        <v>1721000</v>
       </c>
       <c r="D81" s="23"/>
       <c r="E81" s="24">
         <f>C81/$B$37</f>
-        <v>4.7278726205548702</v>
+        <v>3.8410928070358463</v>
       </c>
       <c r="F81" s="25">
         <f>FLOOR(E81,1)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G81" s="22">
         <f>SQRT(F81*(F81+1))</f>
-        <v>4.4721359549995796</v>
+        <v>3.4641016151377544</v>
       </c>
       <c r="H81" s="22">
         <f>IF(E81&gt;G81,CEILING(E81,1),FLOOR(E81,1))</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I81" s="22"/>
       <c r="J81" s="22"/>
@@ -4011,7 +4011,7 @@
       <c r="D82" s="1"/>
       <c r="E82" s="12">
         <f t="shared" si="0"/>
-        <v>0.85819470010071897</v>
+        <v>0.85927991325322539</v>
       </c>
       <c r="F82" s="15">
         <f t="shared" si="1"/>
@@ -4039,7 +4039,7 @@
       <c r="D83" s="23"/>
       <c r="E83" s="24">
         <f>C83/$B$37</f>
-        <v>0.42798281147880007</v>
+        <v>0.42852400868732277</v>
       </c>
       <c r="F83" s="25">
         <f t="shared" si="1"/>
@@ -4064,12 +4064,12 @@
       </c>
       <c r="C84" s="7">
         <f>SUM(C41:C83)</f>
-        <v>315311000</v>
+        <v>314911000</v>
       </c>
       <c r="D84" s="7"/>
       <c r="E84" s="7">
         <f>SUM(E41:E83)</f>
-        <v>702.85254307391631</v>
+        <v>702.84856301944535</v>
       </c>
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
@@ -4085,11 +4085,11 @@
       </c>
       <c r="B86" s="12">
         <f>$C$84/B32</f>
-        <v>73.455275213965166</v>
+        <v>73.36209067525391</v>
       </c>
       <c r="C86" s="12">
         <f>$C$84/C32</f>
-        <v>68.290602238911333</v>
+        <v>68.203969546440831</v>
       </c>
       <c r="I86" s="1"/>
     </row>
@@ -4181,13 +4181,13 @@
       </c>
       <c r="C96" s="6">
         <f>C66+C62+C76+C71+C70+C81+C78+C83+C82+C80+C73</f>
-        <v>42907000</v>
+        <v>42507000</v>
       </c>
     </row>
     <row r="97" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C97" s="1">
         <f>SUM(C91:C96)</f>
-        <v>315311000</v>
+        <v>314911000</v>
       </c>
     </row>
     <row r="100" spans="3:3" x14ac:dyDescent="0.55000000000000004">

--- a/obsidian-notes/spreadsheets/area.xlsx
+++ b/obsidian-notes/spreadsheets/area.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sharm\iCloudDrive\iCloud~md~obsidian\Ishan's notes\Spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9413AAA-36BF-4988-8FC4-8547DA0B1739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE4C4B88-963E-4CF3-8896-91AE6D4BA30B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" activeTab="2" xr2:uid="{94B94BC7-FBC8-4BAC-A974-CA3E4662C848}"/>
   </bookViews>
@@ -2055,8 +2055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C745E12-030D-4421-A6DC-982053D4A77E}">
   <dimension ref="A1:M258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="I74" sqref="I74"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2466,7 +2466,7 @@
       </c>
       <c r="B34" s="12">
         <f>C84^(1/3)</f>
-        <v>680.3451246917125</v>
+        <v>680.1290124305574</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="B36" s="15">
         <f>C84/B35</f>
-        <v>446049.57507082151</v>
+        <v>445624.64589235128</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -2492,7 +2492,7 @@
       </c>
       <c r="B37" s="15">
         <f>B36+C37</f>
-        <v>448049.57507082151</v>
+        <v>447624.64589235128</v>
       </c>
       <c r="C37">
         <v>2000</v>
@@ -2545,7 +2545,7 @@
       <c r="D41" s="23"/>
       <c r="E41" s="24">
         <f t="shared" ref="E41:E82" si="0">C41/$B$37</f>
-        <v>3.3902498395627254</v>
+        <v>3.3934681969350331</v>
       </c>
       <c r="F41" s="25">
         <f t="shared" ref="F41:F83" si="1">FLOOR(E41,1)</f>
@@ -2583,7 +2583,7 @@
       <c r="D42" s="1"/>
       <c r="E42" s="12">
         <f t="shared" si="0"/>
-        <v>34.893460165716689</v>
+        <v>34.926584457460372</v>
       </c>
       <c r="F42" s="15">
         <f t="shared" si="1"/>
@@ -2619,7 +2619,7 @@
       <c r="D43" s="23"/>
       <c r="E43" s="24">
         <f t="shared" si="0"/>
-        <v>23.740676460453397</v>
+        <v>23.763213436996672</v>
       </c>
       <c r="F43" s="25">
         <f t="shared" si="1"/>
@@ -2657,7 +2657,7 @@
       <c r="D44" s="1"/>
       <c r="E44" s="12">
         <f t="shared" si="0"/>
-        <v>26.807301397622052</v>
+        <v>26.83274951506694</v>
       </c>
       <c r="F44" s="15">
         <f t="shared" si="1"/>
@@ -2693,7 +2693,7 @@
       <c r="D45" s="23"/>
       <c r="E45" s="24">
         <f t="shared" si="0"/>
-        <v>8.1374923733019742</v>
+        <v>8.1452172784892234</v>
       </c>
       <c r="F45" s="25">
         <f t="shared" si="1"/>
@@ -2731,7 +2731,7 @@
       <c r="D46" s="1"/>
       <c r="E46" s="12">
         <f t="shared" si="0"/>
-        <v>19.379551913708458</v>
+        <v>19.397948883467343</v>
       </c>
       <c r="F46" s="15">
         <f t="shared" si="1"/>
@@ -2767,7 +2767,7 @@
       <c r="D47" s="23"/>
       <c r="E47" s="24">
         <f t="shared" si="0"/>
-        <v>10.661766611975734</v>
+        <v>10.6718878056344</v>
       </c>
       <c r="F47" s="25">
         <f t="shared" si="1"/>
@@ -2805,7 +2805,7 @@
       <c r="D48" s="1"/>
       <c r="E48" s="12">
         <f t="shared" si="0"/>
-        <v>20.127237033032692</v>
+        <v>20.146343778775595</v>
       </c>
       <c r="F48" s="15">
         <f t="shared" si="1"/>
@@ -2841,7 +2841,7 @@
       <c r="D49" s="23"/>
       <c r="E49" s="24">
         <f t="shared" si="0"/>
-        <v>3.8924264122431822</v>
+        <v>3.8961214848286359</v>
       </c>
       <c r="F49" s="25">
         <f t="shared" si="1"/>
@@ -2879,7 +2879,7 @@
       <c r="D50" s="1"/>
       <c r="E50" s="12">
         <f t="shared" si="0"/>
-        <v>42.720719011896072</v>
+        <v>42.761273704761997</v>
       </c>
       <c r="F50" s="15">
         <f t="shared" si="1"/>
@@ -2915,7 +2915,7 @@
       <c r="D51" s="23"/>
       <c r="E51" s="24">
         <f t="shared" si="0"/>
-        <v>80.881674743853594</v>
+        <v>80.958455555450072</v>
       </c>
       <c r="F51" s="25">
         <f t="shared" si="1"/>
@@ -2953,7 +2953,7 @@
       <c r="D52" s="1"/>
       <c r="E52" s="12">
         <f t="shared" si="0"/>
-        <v>27.923249336911955</v>
+        <v>27.949756821497168</v>
       </c>
       <c r="F52" s="15">
         <f t="shared" si="1"/>
@@ -2989,7 +2989,7 @@
       <c r="D53" s="23"/>
       <c r="E53" s="24">
         <f t="shared" si="0"/>
-        <v>2.4506216746806273</v>
+        <v>2.452948044920781</v>
       </c>
       <c r="F53" s="25">
         <f t="shared" si="1"/>
@@ -3027,7 +3027,7 @@
       <c r="D54" s="1"/>
       <c r="E54" s="12">
         <f t="shared" si="0"/>
-        <v>1.8904158091570959</v>
+        <v>1.8922103770928065</v>
       </c>
       <c r="F54" s="15">
         <f t="shared" si="1"/>
@@ -3055,7 +3055,7 @@
       <c r="D55" s="23"/>
       <c r="E55" s="24">
         <f t="shared" si="0"/>
-        <v>21.026691072100355</v>
+        <v>21.046651667758358</v>
       </c>
       <c r="F55" s="25">
         <f t="shared" si="1"/>
@@ -3094,7 +3094,7 @@
       <c r="D56" s="1"/>
       <c r="E56" s="12">
         <f t="shared" si="0"/>
-        <v>23.390268807516367</v>
+        <v>23.412473142777582</v>
       </c>
       <c r="F56" s="15">
         <f t="shared" si="1"/>
@@ -3130,7 +3130,7 @@
       <c r="D57" s="23"/>
       <c r="E57" s="24">
         <f t="shared" si="0"/>
-        <v>52.351349727967936</v>
+        <v>52.401046759254861</v>
       </c>
       <c r="F57" s="25">
         <f t="shared" si="1"/>
@@ -3168,7 +3168,7 @@
       <c r="D58" s="1"/>
       <c r="E58" s="12">
         <f t="shared" si="0"/>
-        <v>22.546612165413201</v>
+        <v>22.568015619116331</v>
       </c>
       <c r="F58" s="15">
         <f t="shared" si="1"/>
@@ -3204,7 +3204,7 @@
       <c r="D59" s="23"/>
       <c r="E59" s="24">
         <f t="shared" si="0"/>
-        <v>12.056701536088113</v>
+        <v>12.068146938672186</v>
       </c>
       <c r="F59" s="25">
         <f t="shared" si="1"/>
@@ -3242,7 +3242,7 @@
       <c r="D60" s="1"/>
       <c r="E60" s="12">
         <f t="shared" si="0"/>
-        <v>18.30824189199015</v>
+        <v>18.325621869294324</v>
       </c>
       <c r="F60" s="15">
         <f t="shared" si="1"/>
@@ -3278,7 +3278,7 @@
       <c r="D61" s="23"/>
       <c r="E61" s="24">
         <f t="shared" si="0"/>
-        <v>3.3500757137482893</v>
+        <v>3.353255933903545</v>
       </c>
       <c r="F61" s="25">
         <f t="shared" si="1"/>
@@ -3316,7 +3316,7 @@
       <c r="D62" s="1"/>
       <c r="E62" s="12">
         <f t="shared" si="0"/>
-        <v>25.91900683794729</v>
+        <v>25.94361169914848</v>
       </c>
       <c r="F62" s="15">
         <f t="shared" si="1"/>
@@ -3352,7 +3352,7 @@
       <c r="D63" s="23"/>
       <c r="E63" s="24">
         <f t="shared" si="0"/>
-        <v>19.821467297667258</v>
+        <v>19.840283776813713</v>
       </c>
       <c r="F63" s="25">
         <f t="shared" si="1"/>
@@ -3390,7 +3390,7 @@
       <c r="D64" s="1"/>
       <c r="E64" s="12">
         <f t="shared" si="0"/>
-        <v>42.859096556368016</v>
+        <v>42.899782610759345</v>
       </c>
       <c r="F64" s="15">
         <f t="shared" si="1"/>
@@ -3426,7 +3426,7 @@
       <c r="D65" s="23"/>
       <c r="E65" s="24">
         <f t="shared" si="0"/>
-        <v>16.279448538361105</v>
+        <v>16.29490258620417</v>
       </c>
       <c r="F65" s="25">
         <f t="shared" si="1"/>
@@ -3464,7 +3464,7 @@
       <c r="D66" s="1"/>
       <c r="E66" s="12">
         <f t="shared" si="0"/>
-        <v>7.8696648678723964</v>
+        <v>7.8771355249459694</v>
       </c>
       <c r="F66" s="15">
         <f t="shared" si="1"/>
@@ -3500,7 +3500,7 @@
       <c r="D67" s="23"/>
       <c r="E67" s="24">
         <f t="shared" si="0"/>
-        <v>20.225440451690204</v>
+        <v>20.244640421741455</v>
       </c>
       <c r="F67" s="25">
         <f t="shared" si="1"/>
@@ -3538,7 +3538,7 @@
       <c r="D68" s="1"/>
       <c r="E68" s="12">
         <f t="shared" si="0"/>
-        <v>8.8003654492401751</v>
+        <v>8.8087196185087784</v>
       </c>
       <c r="F68" s="15">
         <f t="shared" si="1"/>
@@ -3574,7 +3574,7 @@
       <c r="D69" s="23"/>
       <c r="E69" s="24">
         <f t="shared" si="0"/>
-        <v>11.465249128264464</v>
+        <v>11.476133066264165</v>
       </c>
       <c r="F69" s="25">
         <f t="shared" si="1"/>
@@ -3612,7 +3612,7 @@
       <c r="D70" s="1"/>
       <c r="E70" s="12">
         <f t="shared" si="0"/>
-        <v>4.3164866291733448</v>
+        <v>4.3205842612721224</v>
       </c>
       <c r="F70" s="15">
         <f t="shared" si="1"/>
@@ -3644,7 +3644,7 @@
       <c r="D71" s="23"/>
       <c r="E71" s="24">
         <f t="shared" si="0"/>
-        <v>17.455657666372666</v>
+        <v>17.472228287181629</v>
       </c>
       <c r="F71" s="25">
         <f t="shared" si="1"/>
@@ -3682,7 +3682,7 @@
       <c r="D72" s="1"/>
       <c r="E72" s="12">
         <f t="shared" si="0"/>
-        <v>1.9462132061215911</v>
+        <v>1.9480607424143179</v>
       </c>
       <c r="F72" s="15">
         <f t="shared" si="1"/>
@@ -3710,7 +3710,7 @@
       <c r="D73" s="23"/>
       <c r="E73" s="24">
         <f t="shared" si="0"/>
-        <v>10.963072555584008</v>
+        <v>10.973479778370562</v>
       </c>
       <c r="F73" s="25">
         <f t="shared" si="1"/>
@@ -3748,7 +3748,7 @@
       <c r="D74" s="1"/>
       <c r="E74" s="12">
         <f t="shared" si="0"/>
-        <v>4.2026599393657751</v>
+        <v>4.2066495160162392</v>
       </c>
       <c r="F74" s="15">
         <f t="shared" si="1"/>
@@ -3780,7 +3780,7 @@
       <c r="D75" s="23"/>
       <c r="E75" s="24">
         <f t="shared" si="0"/>
-        <v>7.6464752800144158</v>
+        <v>7.6537340636599236</v>
       </c>
       <c r="F75" s="25">
         <f t="shared" si="1"/>
@@ -3815,7 +3815,7 @@
       <c r="D76" s="1"/>
       <c r="E76" s="12">
         <f t="shared" si="0"/>
-        <v>18.533663375726711</v>
+        <v>18.551257345193228</v>
       </c>
       <c r="F76" s="15">
         <f t="shared" si="1"/>
@@ -3847,7 +3847,7 @@
       <c r="D77" s="23"/>
       <c r="E77" s="24">
         <f t="shared" si="0"/>
-        <v>6.9211091194759788</v>
+        <v>6.9276793144802751</v>
       </c>
       <c r="F77" s="25">
         <f t="shared" si="1"/>
@@ -3885,7 +3885,7 @@
       <c r="D78" s="1"/>
       <c r="E78" s="12">
         <f t="shared" si="0"/>
-        <v>2.3836647983232329</v>
+        <v>2.3859276065349673</v>
       </c>
       <c r="F78" s="15">
         <f t="shared" si="1"/>
@@ -3914,7 +3914,7 @@
       <c r="D79" s="23"/>
       <c r="E79" s="24">
         <f t="shared" si="0"/>
-        <v>7.8830562431438755</v>
+        <v>7.8905396126231313</v>
       </c>
       <c r="F79" s="25">
         <f t="shared" si="1"/>
@@ -3952,7 +3952,7 @@
       <c r="D80" s="1"/>
       <c r="E80" s="12">
         <f t="shared" si="0"/>
-        <v>2.3010846508157803</v>
+        <v>2.3032690658591304</v>
       </c>
       <c r="F80" s="15">
         <f t="shared" si="1"/>
@@ -3975,12 +3975,12 @@
         <v>112</v>
       </c>
       <c r="C81" s="23">
-        <v>1721000</v>
+        <v>1421000</v>
       </c>
       <c r="D81" s="23"/>
       <c r="E81" s="24">
         <f>C81/$B$37</f>
-        <v>3.8410928070358463</v>
+        <v>3.1745347648747084</v>
       </c>
       <c r="F81" s="25">
         <f>FLOOR(E81,1)</f>
@@ -3992,7 +3992,7 @@
       </c>
       <c r="H81" s="22">
         <f>IF(E81&gt;G81,CEILING(E81,1),FLOOR(E81,1))</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I81" s="22"/>
       <c r="J81" s="22"/>
@@ -4011,7 +4011,7 @@
       <c r="D82" s="1"/>
       <c r="E82" s="12">
         <f t="shared" si="0"/>
-        <v>0.85927991325322539</v>
+        <v>0.86009562595127564</v>
       </c>
       <c r="F82" s="15">
         <f t="shared" si="1"/>
@@ -4039,7 +4039,7 @@
       <c r="D83" s="23"/>
       <c r="E83" s="24">
         <f>C83/$B$37</f>
-        <v>0.42852400868732277</v>
+        <v>0.4289308056692076</v>
       </c>
       <c r="F83" s="25">
         <f t="shared" si="1"/>
@@ -4064,18 +4064,18 @@
       </c>
       <c r="C84" s="7">
         <f>SUM(C41:C83)</f>
-        <v>314911000</v>
+        <v>314611000</v>
       </c>
       <c r="D84" s="7"/>
       <c r="E84" s="7">
         <f>SUM(E41:E83)</f>
-        <v>702.84856301944535</v>
+        <v>702.84557136664114</v>
       </c>
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c r="H84" s="7">
         <f>SUM(H41:H83)</f>
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="85" spans="1:13" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -4085,11 +4085,11 @@
       </c>
       <c r="B86" s="12">
         <f>$C$84/B32</f>
-        <v>73.36209067525391</v>
+        <v>73.292202271220461</v>
       </c>
       <c r="C86" s="12">
         <f>$C$84/C32</f>
-        <v>68.203969546440831</v>
+        <v>68.138995027087958</v>
       </c>
       <c r="I86" s="1"/>
     </row>
@@ -4181,13 +4181,13 @@
       </c>
       <c r="C96" s="6">
         <f>C66+C62+C76+C71+C70+C81+C78+C83+C82+C80+C73</f>
-        <v>42507000</v>
+        <v>42207000</v>
       </c>
     </row>
     <row r="97" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C97" s="1">
         <f>SUM(C91:C96)</f>
-        <v>314911000</v>
+        <v>314611000</v>
       </c>
     </row>
     <row r="100" spans="3:3" x14ac:dyDescent="0.55000000000000004">

--- a/obsidian-notes/spreadsheets/area.xlsx
+++ b/obsidian-notes/spreadsheets/area.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sharm\iCloudDrive\iCloud~md~obsidian\Ishan's notes\Spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE4C4B88-963E-4CF3-8896-91AE6D4BA30B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E2C2C4-CB10-46E3-90B4-745B64ACA90A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" activeTab="2" xr2:uid="{94B94BC7-FBC8-4BAC-A974-CA3E4662C848}"/>
+    <workbookView xWindow="-48" yWindow="-48" windowWidth="20832" windowHeight="12336" activeTab="2" xr2:uid="{94B94BC7-FBC8-4BAC-A974-CA3E4662C848}"/>
   </bookViews>
   <sheets>
     <sheet name="france" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="275">
   <si>
     <t>OTL Metro France</t>
   </si>
@@ -839,28 +839,31 @@
     <t>Monticello[15]</t>
   </si>
   <si>
-    <t>Twickenham[16]</t>
-  </si>
-  <si>
-    <t>10,415,000[17]</t>
-  </si>
-  <si>
-    <t>St. Anthony[18]</t>
-  </si>
-  <si>
-    <t>5,942,000[19]</t>
-  </si>
-  <si>
     <t>Appalachicola</t>
   </si>
   <si>
     <t>Augusta</t>
   </si>
   <si>
-    <t>Espirito Santo[20]</t>
-  </si>
-  <si>
     <t>Orleans, Arkansaw, Cimarron, Nibrasca, Kances, Pembina, Tahosa, Minasoa, Washingtonia, Cheyenne, Olympia</t>
+  </si>
+  <si>
+    <t>Twickenham[17]</t>
+  </si>
+  <si>
+    <t>10,415,000[18]</t>
+  </si>
+  <si>
+    <t>St. Anthony[19]</t>
+  </si>
+  <si>
+    <t>5,942,000[20]</t>
+  </si>
+  <si>
+    <t>Espirito Santo[21]</t>
+  </si>
+  <si>
+    <t>Dorr[16]</t>
   </si>
 </sst>
 </file>
@@ -2055,8 +2058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C745E12-030D-4421-A6DC-982053D4A77E}">
   <dimension ref="A1:M258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView tabSelected="1" topLeftCell="A240" zoomScale="93" workbookViewId="0">
+      <selection activeCell="B250" sqref="B250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2936,7 +2939,7 @@
         <v>22651750</v>
       </c>
       <c r="L51" s="26">
-        <f>E204*0.75+E214+E247</f>
+        <f>E204*0.75+E214+E246</f>
         <v>24289750</v>
       </c>
     </row>
@@ -3627,8 +3630,8 @@
         <v>4</v>
       </c>
       <c r="L70" s="1">
-        <f>E246</f>
-        <v>1048000</v>
+        <f>E249</f>
+        <v>848000</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -3830,7 +3833,7 @@
         <v>19</v>
       </c>
       <c r="L76" s="1">
-        <f>E218+E249</f>
+        <f>E218+E248</f>
         <v>6788000</v>
       </c>
     </row>
@@ -4177,7 +4180,7 @@
         <v>256</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C96" s="6">
         <f>C66+C62+C76+C71+C70+C81+C78+C83+C82+C80+C73</f>
@@ -6272,16 +6275,16 @@
         <v>43</v>
       </c>
       <c r="B246" t="s">
-        <v>201</v>
+        <v>230</v>
       </c>
       <c r="C246" t="s">
-        <v>202</v>
+        <v>87</v>
       </c>
       <c r="D246" s="1">
-        <v>613000</v>
+        <v>606000</v>
       </c>
       <c r="E246" s="1">
-        <v>1048000</v>
+        <v>1638000</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -6289,16 +6292,16 @@
         <v>44</v>
       </c>
       <c r="B247" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="C247" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D247" s="1">
-        <v>606000</v>
-      </c>
-      <c r="E247" s="1">
-        <v>1638000</v>
+        <v>584000</v>
+      </c>
+      <c r="E247" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -6306,16 +6309,16 @@
         <v>45</v>
       </c>
       <c r="B248" t="s">
-        <v>218</v>
+        <v>265</v>
       </c>
       <c r="C248" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="D248" s="1">
-        <v>584000</v>
-      </c>
-      <c r="E248" t="s">
-        <v>238</v>
+        <v>565000</v>
+      </c>
+      <c r="E248" s="1">
+        <v>1641000</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -6323,16 +6326,16 @@
         <v>46</v>
       </c>
       <c r="B249" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="C249" t="s">
-        <v>114</v>
+        <v>262</v>
       </c>
       <c r="D249" s="1">
-        <v>565000</v>
+        <v>543000</v>
       </c>
       <c r="E249" s="1">
-        <v>1641000</v>
+        <v>848000</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -6357,7 +6360,7 @@
         <v>48</v>
       </c>
       <c r="B251" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C251" t="s">
         <v>95</v>
@@ -6383,7 +6386,7 @@
         <v>501000</v>
       </c>
       <c r="E252" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -6408,7 +6411,7 @@
         <v>51</v>
       </c>
       <c r="B254" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C254" t="s">
         <v>80</v>
@@ -6425,7 +6428,7 @@
         <v>52</v>
       </c>
       <c r="B255" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C255" t="s">
         <v>232</v>
@@ -6434,7 +6437,7 @@
         <v>460000</v>
       </c>
       <c r="E255" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -6442,7 +6445,7 @@
         <v>53</v>
       </c>
       <c r="B256" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C256" t="s">
         <v>103</v>
@@ -6476,7 +6479,7 @@
         <v>55</v>
       </c>
       <c r="B258" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C258" t="s">
         <v>103</v>

--- a/obsidian-notes/spreadsheets/area.xlsx
+++ b/obsidian-notes/spreadsheets/area.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sharm\iCloudDrive\iCloud~md~obsidian\Ishan's notes\Spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E2C2C4-CB10-46E3-90B4-745B64ACA90A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07636864-044E-49E7-8844-60E6F7F5C5CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-48" yWindow="-48" windowWidth="20832" windowHeight="12336" activeTab="2" xr2:uid="{94B94BC7-FBC8-4BAC-A974-CA3E4662C848}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" activeTab="2" xr2:uid="{94B94BC7-FBC8-4BAC-A974-CA3E4662C848}"/>
   </bookViews>
   <sheets>
     <sheet name="france" sheetId="1" r:id="rId1"/>
@@ -2058,8 +2058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C745E12-030D-4421-A6DC-982053D4A77E}">
   <dimension ref="A1:M258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A240" zoomScale="93" workbookViewId="0">
-      <selection activeCell="B250" sqref="B250"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="93" workbookViewId="0">
+      <selection activeCell="F78" sqref="F78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -3240,24 +3240,24 @@
         <v>96</v>
       </c>
       <c r="C60" s="1">
-        <v>8203000</v>
+        <v>8703000</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="12">
         <f t="shared" si="0"/>
-        <v>18.325621869294324</v>
+        <v>19.442629175724552</v>
       </c>
       <c r="F60" s="15">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G60">
         <f t="shared" si="3"/>
-        <v>18.493242008906929</v>
+        <v>19.493588689617926</v>
       </c>
       <c r="H60">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K60" s="11">
         <f>K122*(1/3)+K150+K141*0.1+K148*0.7</f>
@@ -3388,24 +3388,24 @@
         <v>100</v>
       </c>
       <c r="C64" s="1">
-        <v>19203000</v>
+        <v>18703000</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="12">
         <f t="shared" si="0"/>
-        <v>42.899782610759345</v>
+        <v>41.782775304329114</v>
       </c>
       <c r="F64" s="15">
         <f t="shared" si="1"/>
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G64">
         <f t="shared" si="3"/>
-        <v>42.497058721751557</v>
+        <v>41.496987842492857</v>
       </c>
       <c r="H64">
         <f t="shared" si="2"/>
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K64" s="27">
         <f>K122*(2/3)+K146*(2/3)</f>
@@ -4072,7 +4072,7 @@
       <c r="D84" s="7"/>
       <c r="E84" s="7">
         <f>SUM(E41:E83)</f>
-        <v>702.84557136664114</v>
+        <v>702.84557136664125</v>
       </c>
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>

--- a/obsidian-notes/spreadsheets/area.xlsx
+++ b/obsidian-notes/spreadsheets/area.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sharm\iCloudDrive\iCloud~md~obsidian\Ishan's notes\Spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07636864-044E-49E7-8844-60E6F7F5C5CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CEE01C2-8E18-48C2-B748-247D7AA60219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" activeTab="2" xr2:uid="{94B94BC7-FBC8-4BAC-A974-CA3E4662C848}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="281">
   <si>
     <t>OTL Metro France</t>
   </si>
@@ -864,6 +864,24 @@
   </si>
   <si>
     <t>Dorr[16]</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>Colored</t>
+  </si>
+  <si>
+    <t>Asian</t>
+  </si>
+  <si>
+    <t>Indigenous</t>
+  </si>
+  <si>
+    <t>Maine</t>
+  </si>
+  <si>
+    <t>Pembina</t>
   </si>
 </sst>
 </file>
@@ -962,7 +980,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -994,6 +1012,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2056,10 +2080,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C745E12-030D-4421-A6DC-982053D4A77E}">
-  <dimension ref="A1:M258"/>
+  <dimension ref="A1:N319"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="93" workbookViewId="0">
-      <selection activeCell="F78" sqref="F78"/>
+    <sheetView tabSelected="1" topLeftCell="A131" zoomScale="93" workbookViewId="0">
+      <selection activeCell="I147" sqref="I147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2068,10 +2092,11 @@
     <col min="3" max="3" width="13.15625" customWidth="1"/>
     <col min="4" max="5" width="9.578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.15625" customWidth="1"/>
-    <col min="9" max="9" width="9.62890625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.578125" customWidth="1"/>
     <col min="10" max="10" width="10.578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.15625" customWidth="1"/>
     <col min="12" max="12" width="10.83984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -2565,11 +2590,11 @@
       <c r="I41" s="22"/>
       <c r="J41" s="22"/>
       <c r="K41" s="23">
-        <f>K124*0.075</f>
+        <f>K185*0.075</f>
         <v>527850</v>
       </c>
       <c r="L41" s="23">
-        <f>E207*0.075</f>
+        <f>E268*0.075</f>
         <v>527850</v>
       </c>
     </row>
@@ -2601,11 +2626,11 @@
         <v>35</v>
       </c>
       <c r="K42" s="11">
-        <f>K124*0.75+K137*0.8</f>
+        <f>K185*0.75+K198*0.8</f>
         <v>8036100</v>
       </c>
       <c r="L42" s="11">
-        <f>E207*0.75+E221*0.8</f>
+        <f>E268*0.75+E282*0.8</f>
         <v>8036100</v>
       </c>
     </row>
@@ -2639,11 +2664,11 @@
       <c r="I43" s="22"/>
       <c r="J43" s="22"/>
       <c r="K43" s="26">
-        <f>K121*0.15+K124*0.175</f>
+        <f>K182*0.15+K185*0.175</f>
         <v>4799400</v>
       </c>
       <c r="L43" s="26">
-        <f>E204*0.15+E207*0.175</f>
+        <f>E265*0.15+E268*0.175</f>
         <v>4799400</v>
       </c>
     </row>
@@ -2675,11 +2700,11 @@
         <v>27</v>
       </c>
       <c r="K44" s="1">
-        <f>K138+K144*(1/3)</f>
+        <f>K199+K205*(1/3)</f>
         <v>5764333.333333333</v>
       </c>
       <c r="L44" s="1">
-        <f>E223+E233*(1/3)+E250*0.7+E242*0.3+E254*0.6</f>
+        <f>E284+E294*(1/3)+E311*0.7+E303*0.3+E315*0.6</f>
         <v>6931933.333333333</v>
       </c>
     </row>
@@ -2713,11 +2738,11 @@
       <c r="I45" s="22"/>
       <c r="J45" s="22"/>
       <c r="K45" s="26">
-        <f>K121*0.1</f>
+        <f>K182*0.1</f>
         <v>2378500</v>
       </c>
       <c r="L45" s="26">
-        <f>E204*0.1</f>
+        <f>E265*0.1</f>
         <v>2378500</v>
       </c>
     </row>
@@ -2749,11 +2774,11 @@
         <v>19</v>
       </c>
       <c r="K46" s="11">
-        <f>K125*0.8</f>
+        <f>K186*0.8</f>
         <v>5176800</v>
       </c>
       <c r="L46" s="11">
-        <f>E208*0.8</f>
+        <f>E269*0.8</f>
         <v>5176800</v>
       </c>
     </row>
@@ -2787,11 +2812,11 @@
       <c r="I47" s="22"/>
       <c r="J47" s="22"/>
       <c r="K47" s="26">
-        <f>K128*(2.5/9)+K147</f>
+        <f>K189*(2.5/9)+K208</f>
         <v>3775055.5555555555</v>
       </c>
       <c r="L47" s="26">
-        <f>E211*(2.5/9)+E238</f>
+        <f>E272*(2.5/9)+E299</f>
         <v>3775055.5555555555</v>
       </c>
     </row>
@@ -2823,11 +2848,11 @@
         <v>20</v>
       </c>
       <c r="K48" s="1">
-        <f>K140</f>
+        <f>K201</f>
         <v>6491000</v>
       </c>
       <c r="L48" s="1">
-        <f>E222+E250*0.3+E254*0.4</f>
+        <f>E283+E311*0.3+E315*0.4</f>
         <v>7006700</v>
       </c>
     </row>
@@ -2861,11 +2886,11 @@
       <c r="I49" s="22"/>
       <c r="J49" s="22"/>
       <c r="K49" s="26">
-        <f>K125*0.075</f>
+        <f>K186*0.075</f>
         <v>485325</v>
       </c>
       <c r="L49" s="26">
-        <f>E208*0.075</f>
+        <f>E269*0.075</f>
         <v>485325</v>
       </c>
     </row>
@@ -2897,11 +2922,11 @@
         <v>43</v>
       </c>
       <c r="K50" s="11">
-        <f>K126+K128*(2.5/9)</f>
+        <f>K187+K189*(2.5/9)</f>
         <v>10099055.555555556</v>
       </c>
       <c r="L50" s="11">
-        <f>E209+E211*(3/9)+E226*0.8+E228</f>
+        <f>E270+E272*(3/9)+E287*0.8+E289</f>
         <v>16876666.666666664</v>
       </c>
     </row>
@@ -2935,11 +2960,11 @@
       <c r="I51" s="22"/>
       <c r="J51" s="22"/>
       <c r="K51" s="26">
-        <f>K121*0.75+K131</f>
+        <f>K182*0.75+K192</f>
         <v>22651750</v>
       </c>
       <c r="L51" s="26">
-        <f>E204*0.75+E214+E246</f>
+        <f>E265*0.75+E275+E307</f>
         <v>24289750</v>
       </c>
     </row>
@@ -2971,11 +2996,11 @@
         <v>28</v>
       </c>
       <c r="K52" s="1">
-        <f>K151</f>
+        <f>K212</f>
         <v>2461000</v>
       </c>
       <c r="L52" s="1">
-        <f>E232+E226*0.2+E241</f>
+        <f>E293+E287*0.2+E302</f>
         <v>6583000</v>
       </c>
     </row>
@@ -3009,11 +3034,11 @@
       <c r="I53" s="22"/>
       <c r="J53" s="22"/>
       <c r="K53" s="26">
-        <f>K125*0.125</f>
+        <f>K186*0.125</f>
         <v>808875</v>
       </c>
       <c r="L53" s="26">
-        <f>E208*0.125</f>
+        <f>E269*0.125</f>
         <v>808875</v>
       </c>
     </row>
@@ -3075,11 +3100,11 @@
       <c r="I55" s="22"/>
       <c r="J55" s="22"/>
       <c r="K55" s="26">
-        <f>K123*0.1+K134*0.8</f>
+        <f>K184*0.1+K195*0.8</f>
         <v>4234300</v>
       </c>
       <c r="L55" s="26">
-        <f>E206*0.1+E217*0.8+E253</f>
+        <f>E267*0.1+E278*0.8+E314</f>
         <v>5227300</v>
       </c>
     </row>
@@ -3112,11 +3137,11 @@
         <v>23</v>
       </c>
       <c r="K56" s="11">
-        <f>K127*0.8</f>
+        <f>K188*0.8</f>
         <v>5558400</v>
       </c>
       <c r="L56" s="11">
-        <f>E210*0.8</f>
+        <f>E271*0.8</f>
         <v>5558400</v>
       </c>
     </row>
@@ -3150,11 +3175,11 @@
       <c r="I57" s="22"/>
       <c r="J57" s="22"/>
       <c r="K57" s="26">
-        <f>K123*0.8+K133+K137*0.2+K149+K143*0.3</f>
+        <f>K184*0.8+K194+K198*0.2+K210+K204*0.3</f>
         <v>15797500</v>
       </c>
       <c r="L57" s="26">
-        <f>E206*0.8+E216+E221*0.2+E240+E230*0.3</f>
+        <f>E267*0.8+E277+E282*0.2+E301+E291*0.3</f>
         <v>15592000</v>
       </c>
     </row>
@@ -3186,11 +3211,11 @@
         <v>23</v>
       </c>
       <c r="K58" s="1">
-        <f>K152+K142+(K123*0.1)+K141*0.6</f>
+        <f>K213+K203+(K184*0.1)+K202*0.6</f>
         <v>6915700</v>
       </c>
       <c r="L58" s="1">
-        <f>E244+E229+(E206*0.1)+E227*0.6</f>
+        <f>E305+E290+(E267*0.1)+E288*0.6</f>
         <v>6915700</v>
       </c>
     </row>
@@ -3224,11 +3249,11 @@
       <c r="I59" s="22"/>
       <c r="J59" s="22"/>
       <c r="K59" s="26">
-        <f>K127*0.1+K145*0.9</f>
+        <f>K188*0.1+K206*0.9</f>
         <v>2430900</v>
       </c>
       <c r="L59" s="26">
-        <f>E210*0.1+E234*0.9+E251</f>
+        <f>E271*0.1+E295*0.9+E312</f>
         <v>4021900</v>
       </c>
     </row>
@@ -3260,11 +3285,11 @@
         <v>19</v>
       </c>
       <c r="K60" s="11">
-        <f>K122*(1/3)+K150+K141*0.1+K148*0.7</f>
+        <f>K183*(1/3)+K211+K202*0.1+K209*0.7</f>
         <v>8023766.666666666</v>
       </c>
       <c r="L60" s="11">
-        <f>E205*(1/3)+E227*0.1+E239*0.3</f>
+        <f>E266*(1/3)+E288*0.1+E300*0.3</f>
         <v>5776966.666666666</v>
       </c>
     </row>
@@ -3298,11 +3323,11 @@
       <c r="I61" s="22"/>
       <c r="J61" s="22"/>
       <c r="K61" s="26">
-        <f>K145*0.1</f>
+        <f>K206*0.1</f>
         <v>192900</v>
       </c>
       <c r="L61" s="26">
-        <f>E224*0.2+E235*0.1</f>
+        <f>E285*0.2+E296*0.1</f>
         <v>532300</v>
       </c>
     </row>
@@ -3334,11 +3359,11 @@
         <v>26</v>
       </c>
       <c r="K62" s="11">
-        <f>K129*0.6</f>
+        <f>K190*0.6</f>
         <v>4045800</v>
       </c>
       <c r="L62" s="11">
-        <f>E212*0.6+E231+E243*0.9</f>
+        <f>E273*0.6+E292+E304*0.9</f>
         <v>9099400</v>
       </c>
     </row>
@@ -3372,11 +3397,11 @@
       <c r="I63" s="22"/>
       <c r="J63" s="22"/>
       <c r="K63" s="26">
-        <f>K143*0.7</f>
+        <f>K204*0.7</f>
         <v>2972900</v>
       </c>
       <c r="L63" s="26">
-        <f>E230*0.7</f>
+        <f>E291*0.7</f>
         <v>2493400</v>
       </c>
     </row>
@@ -3408,11 +3433,11 @@
         <v>42</v>
       </c>
       <c r="K64" s="27">
-        <f>K122*(2/3)+K146*(2/3)</f>
+        <f>K183*(2/3)+K207*(2/3)</f>
         <v>13566666.666666664</v>
       </c>
       <c r="L64" s="27">
-        <f>E205*(2/3)+E237*(2/3)</f>
+        <f>E266*(2/3)+E298*(2/3)</f>
         <v>13566666.666666664</v>
       </c>
     </row>
@@ -3446,11 +3471,11 @@
       <c r="I65" s="22"/>
       <c r="J65" s="22"/>
       <c r="K65" s="23">
-        <f>K148+K136*0.3+K141</f>
+        <f>K209+K197*0.3+K202</f>
         <v>4613600</v>
       </c>
       <c r="L65" s="23">
-        <f>E220+E239*0.7</f>
+        <f>E281+E300*0.7</f>
         <v>3499400</v>
       </c>
     </row>
@@ -3482,11 +3507,11 @@
         <v>8</v>
       </c>
       <c r="K66" s="11">
-        <f>K127*0.1</f>
+        <f>K188*0.1</f>
         <v>694800</v>
       </c>
       <c r="L66" s="11">
-        <f>E210*0.1+E243*0.1</f>
+        <f>E271*0.1+E304*0.1</f>
         <v>876200</v>
       </c>
     </row>
@@ -3520,11 +3545,11 @@
       <c r="I67" s="22"/>
       <c r="J67" s="22"/>
       <c r="K67" s="26">
-        <f>K129*0.4</f>
+        <f>K190*0.4</f>
         <v>2697200</v>
       </c>
       <c r="L67" s="26">
-        <f>E212*0.4+E224*0.8+E235*0.9+E256</f>
+        <f>E273*0.4+E285*0.8+E296*0.9+E317</f>
         <v>6555900</v>
       </c>
     </row>
@@ -3556,11 +3581,11 @@
         <v>9</v>
       </c>
       <c r="K68" s="11">
-        <f>K130*(1/3)</f>
+        <f>K191*(1/3)</f>
         <v>1980666.6666666665</v>
       </c>
       <c r="L68" s="11">
-        <f>E213*(1/3)</f>
+        <f>E274*(1/3)</f>
         <v>1980666.6666666665</v>
       </c>
     </row>
@@ -3594,11 +3619,11 @@
       <c r="I69" s="22"/>
       <c r="J69" s="22"/>
       <c r="K69" s="26">
-        <f>K130*(2/3)</f>
+        <f>K191*(2/3)</f>
         <v>3961333.333333333</v>
       </c>
       <c r="L69" s="26">
-        <f>E213*(2/3)</f>
+        <f>E274*(2/3)</f>
         <v>3961333.333333333</v>
       </c>
     </row>
@@ -3630,7 +3655,7 @@
         <v>4</v>
       </c>
       <c r="L70" s="1">
-        <f>E249</f>
+        <f>E310</f>
         <v>848000</v>
       </c>
     </row>
@@ -3664,11 +3689,11 @@
       <c r="I71" s="22"/>
       <c r="J71" s="22"/>
       <c r="K71" s="26">
-        <f>K146*(1/3)</f>
+        <f>K207*(1/3)</f>
         <v>1770666.6666666665</v>
       </c>
       <c r="L71" s="26">
-        <f>E237*(1/3)+E236+E245</f>
+        <f>E298*(1/3)+E297+E306</f>
         <v>5658666.666666666</v>
       </c>
     </row>
@@ -3730,11 +3755,11 @@
       <c r="I73" s="22"/>
       <c r="J73" s="22"/>
       <c r="K73" s="23">
-        <f>K132</f>
+        <f>K193</f>
         <v>4428000</v>
       </c>
       <c r="L73" s="23">
-        <f>E215</f>
+        <f>E276</f>
         <v>4428000</v>
       </c>
     </row>
@@ -3766,7 +3791,7 @@
         <v>4</v>
       </c>
       <c r="L74" s="1">
-        <f>E257</f>
+        <f>E318</f>
         <v>770000</v>
       </c>
     </row>
@@ -3801,7 +3826,7 @@
       <c r="J75" s="22"/>
       <c r="K75" s="22"/>
       <c r="L75" s="26">
-        <f>E242*0.6</f>
+        <f>E303*0.6</f>
         <v>732600</v>
       </c>
     </row>
@@ -3833,7 +3858,7 @@
         <v>19</v>
       </c>
       <c r="L76" s="1">
-        <f>E218+E248</f>
+        <f>E279+E309</f>
         <v>6788000</v>
       </c>
     </row>
@@ -3867,11 +3892,11 @@
       <c r="I77" s="22"/>
       <c r="J77" s="22"/>
       <c r="K77" s="23">
-        <f>K144*(2/3)</f>
+        <f>K205*(2/3)</f>
         <v>1648666.6666666665</v>
       </c>
       <c r="L77" s="23">
-        <f>E233*(2/3)+E258</f>
+        <f>E294*(2/3)+E319</f>
         <v>2387666.6666666665</v>
       </c>
     </row>
@@ -3934,11 +3959,11 @@
       <c r="I79" s="22"/>
       <c r="J79" s="22"/>
       <c r="K79" s="26">
-        <f>K128*(4/9)</f>
+        <f>K189*(4/9)</f>
         <v>4036888.8888888885</v>
       </c>
       <c r="L79" s="26">
-        <f>E211*(7/18)</f>
+        <f>E272*(7/18)</f>
         <v>3532277.777777778</v>
       </c>
     </row>
@@ -4187,2307 +4212,4273 @@
         <v>42207000</v>
       </c>
     </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C97" s="1">
         <f>SUM(C91:C96)</f>
         <v>314611000</v>
       </c>
     </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C100" s="1"/>
-    </row>
-    <row r="120" spans="7:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="G120" t="s">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A100" t="s">
+        <v>126</v>
+      </c>
+      <c r="B100" t="s">
+        <v>275</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D100" t="s">
+        <v>277</v>
+      </c>
+      <c r="E100" t="s">
+        <v>278</v>
+      </c>
+      <c r="F100" t="s">
+        <v>65</v>
+      </c>
+      <c r="G100" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A101" t="s">
+        <v>77</v>
+      </c>
+      <c r="B101" s="29">
+        <v>0.82099999999999995</v>
+      </c>
+      <c r="C101" s="29">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="D101" s="29">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="E101" s="29">
+        <v>1E-3</v>
+      </c>
+      <c r="F101" s="29">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G101" s="16">
+        <f>SUM(B101:F101)</f>
+        <v>1</v>
+      </c>
+      <c r="I101" s="11">
+        <f>B101*$C41</f>
+        <v>1247099</v>
+      </c>
+      <c r="J101" s="11">
+        <f t="shared" ref="J101:M116" si="4">C101*$C41</f>
+        <v>226331</v>
+      </c>
+      <c r="K101" s="11">
+        <f t="shared" si="4"/>
+        <v>39494</v>
+      </c>
+      <c r="L101" s="11">
+        <f t="shared" si="4"/>
+        <v>1519</v>
+      </c>
+      <c r="M101" s="11">
+        <f t="shared" si="4"/>
+        <v>4557</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A102" t="s">
+        <v>78</v>
+      </c>
+      <c r="B102" s="29">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="C102" s="29">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="D102" s="29">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="E102" s="29">
+        <v>1E-3</v>
+      </c>
+      <c r="F102" s="29">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G102" s="16">
+        <f t="shared" ref="G102:G143" si="5">SUM(B102:F102)</f>
+        <v>1</v>
+      </c>
+      <c r="I102" s="11">
+        <f t="shared" ref="I102:I143" si="6">B102*$C42</f>
+        <v>14133136</v>
+      </c>
+      <c r="J102" s="11">
+        <f t="shared" si="4"/>
+        <v>844236</v>
+      </c>
+      <c r="K102" s="11">
+        <f t="shared" si="4"/>
+        <v>562824</v>
+      </c>
+      <c r="L102" s="11">
+        <f t="shared" si="4"/>
+        <v>15634</v>
+      </c>
+      <c r="M102" s="11">
+        <f t="shared" si="4"/>
+        <v>78170</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A103" t="s">
+        <v>79</v>
+      </c>
+      <c r="B103" s="29">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="C103" s="29">
+        <v>6.3E-2</v>
+      </c>
+      <c r="D103" s="29">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="E103" s="29">
+        <v>1E-3</v>
+      </c>
+      <c r="F103" s="29">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G103" s="16">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I103" s="11">
+        <f t="shared" si="6"/>
+        <v>9445656</v>
+      </c>
+      <c r="J103" s="11">
+        <f t="shared" si="4"/>
+        <v>670131</v>
+      </c>
+      <c r="K103" s="11">
+        <f t="shared" si="4"/>
+        <v>478665</v>
+      </c>
+      <c r="L103" s="11">
+        <f t="shared" si="4"/>
+        <v>10637</v>
+      </c>
+      <c r="M103" s="11">
+        <f t="shared" si="4"/>
+        <v>31911</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A104" t="s">
+        <v>80</v>
+      </c>
+      <c r="B104" s="29">
+        <v>0.441</v>
+      </c>
+      <c r="C104" s="29">
+        <v>0.51400000000000001</v>
+      </c>
+      <c r="D104" s="29">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="E104" s="29">
+        <v>2E-3</v>
+      </c>
+      <c r="F104" s="29">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="G104" s="16">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I104" s="11">
+        <f t="shared" si="6"/>
+        <v>5296851</v>
+      </c>
+      <c r="J104" s="11">
+        <f t="shared" si="4"/>
+        <v>6173654</v>
+      </c>
+      <c r="K104" s="11">
+        <f t="shared" si="4"/>
+        <v>432395.99999999994</v>
+      </c>
+      <c r="L104" s="11">
+        <f t="shared" si="4"/>
+        <v>24022</v>
+      </c>
+      <c r="M104" s="11">
+        <f t="shared" si="4"/>
+        <v>84077</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A105" t="s">
+        <v>81</v>
+      </c>
+      <c r="B105" s="29">
+        <v>0.873</v>
+      </c>
+      <c r="C105" s="29">
+        <v>3.9E-2</v>
+      </c>
+      <c r="D105" s="29">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="E105" s="29">
+        <v>1E-3</v>
+      </c>
+      <c r="F105" s="29">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G105" s="16">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I105" s="11">
+        <f t="shared" si="6"/>
+        <v>3182958</v>
+      </c>
+      <c r="J105" s="11">
+        <f t="shared" si="4"/>
+        <v>142194</v>
+      </c>
+      <c r="K105" s="11">
+        <f t="shared" si="4"/>
+        <v>302618</v>
+      </c>
+      <c r="L105" s="11">
+        <f t="shared" si="4"/>
+        <v>3646</v>
+      </c>
+      <c r="M105" s="11">
+        <f t="shared" si="4"/>
+        <v>14584</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A106" t="s">
+        <v>82</v>
+      </c>
+      <c r="B106" s="29">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="C106" s="29">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="D106" s="29">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="E106" s="29">
+        <v>2E-3</v>
+      </c>
+      <c r="F106" s="29">
+        <v>1.4E-2</v>
+      </c>
+      <c r="G106" s="16">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I106" s="11">
+        <f t="shared" si="6"/>
+        <v>7180841</v>
+      </c>
+      <c r="J106" s="11">
+        <f t="shared" si="4"/>
+        <v>573078</v>
+      </c>
+      <c r="K106" s="11">
+        <f t="shared" si="4"/>
+        <v>790153</v>
+      </c>
+      <c r="L106" s="11">
+        <f t="shared" si="4"/>
+        <v>17366</v>
+      </c>
+      <c r="M106" s="11">
+        <f t="shared" si="4"/>
+        <v>121562</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A107" t="s">
+        <v>83</v>
+      </c>
+      <c r="B107" s="29">
+        <v>0.68700000000000006</v>
+      </c>
+      <c r="C107" s="29">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="D107" s="29">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="E107" s="29">
+        <v>1E-3</v>
+      </c>
+      <c r="F107" s="29">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G107" s="16">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I107" s="11">
+        <f t="shared" si="6"/>
+        <v>3281799.0000000005</v>
+      </c>
+      <c r="J107" s="11">
+        <f t="shared" si="4"/>
+        <v>1323229</v>
+      </c>
+      <c r="K107" s="11">
+        <f t="shared" si="4"/>
+        <v>152864</v>
+      </c>
+      <c r="L107" s="11">
+        <f t="shared" si="4"/>
+        <v>4777</v>
+      </c>
+      <c r="M107" s="11">
+        <f t="shared" si="4"/>
+        <v>14331</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A108" t="s">
+        <v>84</v>
+      </c>
+      <c r="B108" s="29">
+        <v>0.31</v>
+      </c>
+      <c r="C108" s="29">
+        <v>0.63300000000000001</v>
+      </c>
+      <c r="D108" s="29">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="E108" s="29">
+        <v>1E-3</v>
+      </c>
+      <c r="F108" s="29">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G108" s="16">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I108" s="11">
+        <f t="shared" si="6"/>
+        <v>2795580</v>
+      </c>
+      <c r="J108" s="11">
+        <f t="shared" si="4"/>
+        <v>5708394</v>
+      </c>
+      <c r="K108" s="11">
+        <f t="shared" si="4"/>
+        <v>405810</v>
+      </c>
+      <c r="L108" s="11">
+        <f t="shared" si="4"/>
+        <v>9018</v>
+      </c>
+      <c r="M108" s="11">
+        <f t="shared" si="4"/>
+        <v>99198</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A109" t="s">
+        <v>85</v>
+      </c>
+      <c r="B109" s="29">
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="C109" s="29">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="D109" s="29">
+        <v>6.3E-2</v>
+      </c>
+      <c r="E109" s="29">
+        <v>1E-3</v>
+      </c>
+      <c r="F109" s="29">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G109" s="16">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I109" s="11">
+        <f t="shared" si="6"/>
+        <v>1559136</v>
+      </c>
+      <c r="J109" s="11">
+        <f t="shared" si="4"/>
+        <v>66272</v>
+      </c>
+      <c r="K109" s="11">
+        <f t="shared" si="4"/>
+        <v>109872</v>
+      </c>
+      <c r="L109" s="11">
+        <f t="shared" si="4"/>
+        <v>1744</v>
+      </c>
+      <c r="M109" s="11">
+        <f t="shared" si="4"/>
+        <v>6976</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A110" t="s">
+        <v>86</v>
+      </c>
+      <c r="B110" s="29">
+        <v>0.504</v>
+      </c>
+      <c r="C110" s="29">
+        <v>0.436</v>
+      </c>
+      <c r="D110" s="29">
+        <v>4.7E-2</v>
+      </c>
+      <c r="E110" s="29">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F110" s="29">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="G110" s="16">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I110" s="11">
+        <f t="shared" si="6"/>
+        <v>9647064</v>
+      </c>
+      <c r="J110" s="11">
+        <f t="shared" si="4"/>
+        <v>8345476</v>
+      </c>
+      <c r="K110" s="11">
+        <f t="shared" si="4"/>
+        <v>899627</v>
+      </c>
+      <c r="L110" s="11">
+        <f t="shared" si="4"/>
+        <v>76564</v>
+      </c>
+      <c r="M110" s="11">
+        <f t="shared" si="4"/>
+        <v>172269</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A111" t="s">
+        <v>87</v>
+      </c>
+      <c r="B111" s="29">
+        <v>0.78700000000000003</v>
+      </c>
+      <c r="C111" s="29">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="D111" s="29">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="E111" s="29">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="F111" s="29">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="G111" s="16">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I111" s="11">
+        <f t="shared" si="6"/>
+        <v>28520093</v>
+      </c>
+      <c r="J111" s="11">
+        <f t="shared" si="4"/>
+        <v>4312441</v>
+      </c>
+      <c r="K111" s="11">
+        <f t="shared" si="4"/>
+        <v>2391774</v>
+      </c>
+      <c r="L111" s="11">
+        <f t="shared" si="4"/>
+        <v>217434</v>
+      </c>
+      <c r="M111" s="11">
+        <f t="shared" si="4"/>
+        <v>797258</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A112" t="s">
+        <v>88</v>
+      </c>
+      <c r="B112" s="29">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="C112" s="29">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="D112" s="29">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E112" s="29">
+        <v>1.4E-2</v>
+      </c>
+      <c r="F112" s="29">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="G112" s="16">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I112" s="11">
+        <f t="shared" si="6"/>
+        <v>6605808</v>
+      </c>
+      <c r="J112" s="11">
+        <f t="shared" si="4"/>
+        <v>5304664</v>
+      </c>
+      <c r="K112" s="11">
+        <f t="shared" si="4"/>
+        <v>312775</v>
+      </c>
+      <c r="L112" s="11">
+        <f t="shared" si="4"/>
+        <v>175154</v>
+      </c>
+      <c r="M112" s="11">
+        <f t="shared" si="4"/>
+        <v>112598.99999999999</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A113" t="s">
+        <v>89</v>
+      </c>
+      <c r="B113" s="29">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="C113" s="29">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="D113" s="29">
+        <v>0.112</v>
+      </c>
+      <c r="E113" s="29">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F113" s="29">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="G113" s="16">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I113" s="11">
+        <f t="shared" si="6"/>
+        <v>920124</v>
+      </c>
+      <c r="J113" s="11">
+        <f t="shared" si="4"/>
+        <v>40626</v>
+      </c>
+      <c r="K113" s="11">
+        <f t="shared" si="4"/>
+        <v>122976</v>
+      </c>
+      <c r="L113" s="11">
+        <f t="shared" si="4"/>
+        <v>4392</v>
+      </c>
+      <c r="M113" s="11">
+        <f t="shared" si="4"/>
+        <v>9882</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A114" t="s">
+        <v>90</v>
+      </c>
+      <c r="B114" s="29">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="C114" s="29">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D114" s="29">
+        <v>2.4E-2</v>
+      </c>
+      <c r="E114" s="29">
+        <v>2E-3</v>
+      </c>
+      <c r="F114" s="29">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G114" s="16">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I114" s="11">
+        <f t="shared" si="6"/>
+        <v>815661</v>
+      </c>
+      <c r="J114" s="11">
+        <f t="shared" si="4"/>
+        <v>5929</v>
+      </c>
+      <c r="K114" s="11">
+        <f t="shared" si="4"/>
+        <v>20328</v>
+      </c>
+      <c r="L114" s="11">
+        <f t="shared" si="4"/>
+        <v>1694</v>
+      </c>
+      <c r="M114" s="11">
+        <f t="shared" si="4"/>
+        <v>3388</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A115" t="s">
+        <v>91</v>
+      </c>
+      <c r="B115" s="29">
+        <v>0.71</v>
+      </c>
+      <c r="C115" s="29">
+        <v>0.223</v>
+      </c>
+      <c r="D115" s="29">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="E115" s="29">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F115" s="29">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="G115" s="16">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I115" s="11">
+        <f t="shared" si="6"/>
+        <v>6688910</v>
+      </c>
+      <c r="J115" s="11">
+        <f t="shared" si="4"/>
+        <v>2100883</v>
+      </c>
+      <c r="K115" s="11">
+        <f t="shared" si="4"/>
+        <v>536997</v>
+      </c>
+      <c r="L115" s="11">
+        <f t="shared" si="4"/>
+        <v>37684</v>
+      </c>
+      <c r="M115" s="11">
+        <f t="shared" si="4"/>
+        <v>56526</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A116" t="s">
+        <v>92</v>
+      </c>
+      <c r="B116" s="29">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="C116" s="29">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="D116" s="29">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="E116" s="29">
+        <v>2E-3</v>
+      </c>
+      <c r="F116" s="29">
+        <v>1.6E-2</v>
+      </c>
+      <c r="G116" s="16">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I116" s="11">
+        <f t="shared" si="6"/>
+        <v>6246080</v>
+      </c>
+      <c r="J116" s="11">
+        <f t="shared" si="4"/>
+        <v>3175440</v>
+      </c>
+      <c r="K116" s="11">
+        <f t="shared" si="4"/>
+        <v>869840</v>
+      </c>
+      <c r="L116" s="11">
+        <f t="shared" si="4"/>
+        <v>20960</v>
+      </c>
+      <c r="M116" s="11">
+        <f t="shared" si="4"/>
+        <v>167680</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A117" t="s">
+        <v>93</v>
+      </c>
+      <c r="B117" s="29">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="C117" s="29">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="D117" s="29">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="E117" s="29">
+        <v>2E-3</v>
+      </c>
+      <c r="F117" s="29">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="G117" s="16">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I117" s="11">
+        <f t="shared" si="6"/>
+        <v>19022816</v>
+      </c>
+      <c r="J117" s="11">
+        <f t="shared" ref="J117:J143" si="7">C117*$C57</f>
+        <v>1618464.0000000002</v>
+      </c>
+      <c r="K117" s="11">
+        <f t="shared" ref="K117:K143" si="8">D117*$C57</f>
+        <v>2275232</v>
+      </c>
+      <c r="L117" s="11">
+        <f t="shared" ref="L117:L143" si="9">E117*$C57</f>
+        <v>46912</v>
+      </c>
+      <c r="M117" s="11">
+        <f t="shared" ref="M117:M143" si="10">F117*$C57</f>
+        <v>492576.00000000006</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A118" t="s">
+        <v>94</v>
+      </c>
+      <c r="B118" s="29">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="C118" s="29">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="D118" s="29">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="E118" s="29">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F118" s="29">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="G118" s="16">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I118" s="11">
+        <f t="shared" si="6"/>
+        <v>8778638</v>
+      </c>
+      <c r="J118" s="11">
+        <f t="shared" si="7"/>
+        <v>616222</v>
+      </c>
+      <c r="K118" s="11">
+        <f t="shared" si="8"/>
+        <v>545508</v>
+      </c>
+      <c r="L118" s="11">
+        <f t="shared" si="9"/>
+        <v>30306</v>
+      </c>
+      <c r="M118" s="11">
+        <f t="shared" si="10"/>
+        <v>131326</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A119" t="s">
+        <v>95</v>
+      </c>
+      <c r="B119" s="29">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="C119" s="29">
+        <v>0.443</v>
+      </c>
+      <c r="D119" s="29">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="E119" s="29">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F119" s="29">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="G119" s="16">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I119" s="11">
+        <f t="shared" si="6"/>
+        <v>2625372</v>
+      </c>
+      <c r="J119" s="11">
+        <f t="shared" si="7"/>
+        <v>2393086</v>
+      </c>
+      <c r="K119" s="11">
+        <f t="shared" si="8"/>
+        <v>221482</v>
+      </c>
+      <c r="L119" s="11">
+        <f t="shared" si="9"/>
+        <v>21608</v>
+      </c>
+      <c r="M119" s="11">
+        <f t="shared" si="10"/>
+        <v>140452</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A120" t="s">
+        <v>96</v>
+      </c>
+      <c r="B120" s="29">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="C120" s="29">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="D120" s="29">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="E120" s="29">
+        <v>1E-3</v>
+      </c>
+      <c r="F120" s="29">
+        <v>1.4E-2</v>
+      </c>
+      <c r="G120" s="16">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I120" s="11">
+        <f t="shared" si="6"/>
+        <v>7519392</v>
+      </c>
+      <c r="J120" s="11">
+        <f t="shared" si="7"/>
+        <v>748457.99999999988</v>
+      </c>
+      <c r="K120" s="11">
+        <f t="shared" si="8"/>
+        <v>304605</v>
+      </c>
+      <c r="L120" s="11">
+        <f t="shared" si="9"/>
+        <v>8703</v>
+      </c>
+      <c r="M120" s="11">
+        <f t="shared" si="10"/>
+        <v>121842</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A121" t="s">
+        <v>97</v>
+      </c>
+      <c r="B121" s="29">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="C121" s="29">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="D121" s="29">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E121" s="29">
+        <v>2E-3</v>
+      </c>
+      <c r="F121" s="29">
+        <v>1.2E-2</v>
+      </c>
+      <c r="G121" s="16">
+        <f t="shared" si="5"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="I121" s="11">
+        <f t="shared" si="6"/>
+        <v>618412</v>
+      </c>
+      <c r="J121" s="11">
+        <f t="shared" si="7"/>
+        <v>857070.99999999988</v>
+      </c>
+      <c r="K121" s="11">
+        <f t="shared" si="8"/>
+        <v>4503</v>
+      </c>
+      <c r="L121" s="11">
+        <f t="shared" si="9"/>
+        <v>3002</v>
+      </c>
+      <c r="M121" s="11">
+        <f t="shared" si="10"/>
+        <v>18012</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A122" t="s">
+        <v>98</v>
+      </c>
+      <c r="B122" s="29">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="C122" s="29">
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="D122" s="29">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="E122" s="29">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="F122" s="29">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="G122" s="16">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I122" s="11">
+        <f t="shared" si="6"/>
+        <v>3495513</v>
+      </c>
+      <c r="J122" s="11">
+        <f t="shared" si="7"/>
+        <v>6468441.0000000009</v>
+      </c>
+      <c r="K122" s="11">
+        <f t="shared" si="8"/>
+        <v>1056783</v>
+      </c>
+      <c r="L122" s="11">
+        <f t="shared" si="9"/>
+        <v>104516.99999999999</v>
+      </c>
+      <c r="M122" s="11">
+        <f t="shared" si="10"/>
+        <v>487746.00000000006</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A123" t="s">
+        <v>99</v>
+      </c>
+      <c r="B123" s="29">
+        <v>0.84899999999999998</v>
+      </c>
+      <c r="C123" s="29">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="D123" s="29">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="E123" s="29">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="F123" s="29">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="G123" s="16">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I123" s="11">
+        <f t="shared" si="6"/>
+        <v>7539969</v>
+      </c>
+      <c r="J123" s="11">
+        <f t="shared" si="7"/>
+        <v>373002</v>
+      </c>
+      <c r="K123" s="11">
+        <f t="shared" si="8"/>
+        <v>701599</v>
+      </c>
+      <c r="L123" s="11">
+        <f t="shared" si="9"/>
+        <v>79929</v>
+      </c>
+      <c r="M123" s="11">
+        <f t="shared" si="10"/>
+        <v>186501</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A124" t="s">
+        <v>100</v>
+      </c>
+      <c r="B124" s="29">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="C124" s="29">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="D124" s="29">
+        <v>6.3E-2</v>
+      </c>
+      <c r="E124" s="29">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F124" s="29">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="G124" s="16">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I124" s="11">
+        <f t="shared" si="6"/>
+        <v>12026029</v>
+      </c>
+      <c r="J124" s="11">
+        <f t="shared" si="7"/>
+        <v>4937592</v>
+      </c>
+      <c r="K124" s="11">
+        <f t="shared" si="8"/>
+        <v>1178289</v>
+      </c>
+      <c r="L124" s="11">
+        <f t="shared" si="9"/>
+        <v>74812</v>
+      </c>
+      <c r="M124" s="11">
+        <f t="shared" si="10"/>
+        <v>486278</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A125" t="s">
+        <v>101</v>
+      </c>
+      <c r="B125" s="29">
+        <v>0.89300000000000002</v>
+      </c>
+      <c r="C125" s="29">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="D125" s="29">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E125" s="29">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="F125" s="29">
+        <v>1.4E-2</v>
+      </c>
+      <c r="G125" s="16">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I125" s="11">
+        <f t="shared" si="6"/>
+        <v>6513542</v>
+      </c>
+      <c r="J125" s="11">
+        <f t="shared" si="7"/>
+        <v>357406</v>
+      </c>
+      <c r="K125" s="11">
+        <f t="shared" si="8"/>
+        <v>269878</v>
+      </c>
+      <c r="L125" s="11">
+        <f t="shared" si="9"/>
+        <v>51058</v>
+      </c>
+      <c r="M125" s="11">
+        <f t="shared" si="10"/>
+        <v>102116</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A126" t="s">
+        <v>102</v>
+      </c>
+      <c r="B126" s="29">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="C126" s="29">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="D126" s="29">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="E126" s="29">
+        <v>1E-3</v>
+      </c>
+      <c r="F126" s="29">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="G126" s="16">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I126" s="11">
+        <f t="shared" si="6"/>
+        <v>2101496</v>
+      </c>
+      <c r="J126" s="11">
+        <f t="shared" si="7"/>
+        <v>1209418</v>
+      </c>
+      <c r="K126" s="11">
+        <f t="shared" si="8"/>
+        <v>190404</v>
+      </c>
+      <c r="L126" s="11">
+        <f t="shared" si="9"/>
+        <v>3526</v>
+      </c>
+      <c r="M126" s="11">
+        <f t="shared" si="10"/>
+        <v>21156</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A127" t="s">
+        <v>103</v>
+      </c>
+      <c r="B127" s="29">
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="C127" s="29">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="D127" s="29">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="E127" s="29">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F127" s="29">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="G127" s="16">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I127" s="11">
+        <f t="shared" si="6"/>
+        <v>5763432</v>
+      </c>
+      <c r="J127" s="11">
+        <f t="shared" si="7"/>
+        <v>2193004</v>
+      </c>
+      <c r="K127" s="11">
+        <f t="shared" si="8"/>
+        <v>788394</v>
+      </c>
+      <c r="L127" s="11">
+        <f t="shared" si="9"/>
+        <v>27186</v>
+      </c>
+      <c r="M127" s="11">
+        <f t="shared" si="10"/>
+        <v>289984</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A128" t="s">
+        <v>232</v>
+      </c>
+      <c r="B128" s="29">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="C128" s="29">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="D128" s="29">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="E128" s="29">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F128" s="29">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G128" s="16">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I128" s="11">
+        <f t="shared" si="6"/>
+        <v>3379151</v>
+      </c>
+      <c r="J128" s="11">
+        <f t="shared" si="7"/>
+        <v>283896</v>
+      </c>
+      <c r="K128" s="11">
+        <f t="shared" si="8"/>
+        <v>224751</v>
+      </c>
+      <c r="L128" s="11">
+        <f t="shared" si="9"/>
+        <v>11829</v>
+      </c>
+      <c r="M128" s="11">
+        <f t="shared" si="10"/>
+        <v>43373</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A129" t="s">
+        <v>104</v>
+      </c>
+      <c r="B129" s="29">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="C129" s="29">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="D129" s="29">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="E129" s="29">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F129" s="29">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="G129" s="16">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I129" s="11">
+        <f t="shared" si="6"/>
+        <v>4289395</v>
+      </c>
+      <c r="J129" s="11">
+        <f t="shared" si="7"/>
+        <v>328768</v>
+      </c>
+      <c r="K129" s="11">
+        <f t="shared" si="8"/>
+        <v>452056</v>
+      </c>
+      <c r="L129" s="11">
+        <f t="shared" si="9"/>
+        <v>20548</v>
+      </c>
+      <c r="M129" s="11">
+        <f t="shared" si="10"/>
+        <v>46233</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A130" t="s">
+        <v>262</v>
+      </c>
+      <c r="B130" s="29">
+        <v>0.873</v>
+      </c>
+      <c r="C130" s="29">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="D130" s="29">
+        <v>0.02</v>
+      </c>
+      <c r="E130" s="29">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="F130" s="29">
+        <v>1.9E-2</v>
+      </c>
+      <c r="G130" s="16">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I130" s="11">
+        <f t="shared" si="6"/>
+        <v>1688382</v>
+      </c>
+      <c r="J130" s="11">
+        <f t="shared" si="7"/>
+        <v>145050</v>
+      </c>
+      <c r="K130" s="11">
+        <f t="shared" si="8"/>
+        <v>38680</v>
+      </c>
+      <c r="L130" s="11">
+        <f t="shared" si="9"/>
+        <v>25142</v>
+      </c>
+      <c r="M130" s="11">
+        <f t="shared" si="10"/>
+        <v>36746</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A131" t="s">
+        <v>195</v>
+      </c>
+      <c r="B131" s="29">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="C131" s="29">
+        <v>0.124</v>
+      </c>
+      <c r="D131" s="29">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="E131" s="29">
+        <v>2E-3</v>
+      </c>
+      <c r="F131" s="29">
+        <v>1.6E-2</v>
+      </c>
+      <c r="G131" s="16">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I131" s="11">
+        <f t="shared" si="6"/>
+        <v>6264621</v>
+      </c>
+      <c r="J131" s="11">
+        <f t="shared" si="7"/>
+        <v>969804</v>
+      </c>
+      <c r="K131" s="11">
+        <f t="shared" si="8"/>
+        <v>445797</v>
+      </c>
+      <c r="L131" s="11">
+        <f t="shared" si="9"/>
+        <v>15642</v>
+      </c>
+      <c r="M131" s="11">
+        <f t="shared" si="10"/>
+        <v>125136</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A132" t="s">
+        <v>279</v>
+      </c>
+      <c r="B132" s="29">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="C132" s="29">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D132" s="29">
+        <v>0.01</v>
+      </c>
+      <c r="E132" s="29">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="F132" s="29">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="G132" s="16">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I132" s="11">
+        <f t="shared" si="6"/>
+        <v>822296</v>
+      </c>
+      <c r="J132" s="11">
+        <f t="shared" si="7"/>
+        <v>3488</v>
+      </c>
+      <c r="K132" s="11">
+        <f t="shared" si="8"/>
+        <v>8720</v>
+      </c>
+      <c r="L132" s="11">
+        <f t="shared" si="9"/>
+        <v>29648.000000000004</v>
+      </c>
+      <c r="M132" s="11">
+        <f t="shared" si="10"/>
+        <v>7847.9999999999991</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A133" t="s">
+        <v>38</v>
+      </c>
+      <c r="B133" s="29">
+        <v>0.55900000000000005</v>
+      </c>
+      <c r="C133" s="29">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="D133" s="29">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="E133" s="29">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F133" s="29">
+        <v>6.2E-2</v>
+      </c>
+      <c r="G133" s="16">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I133" s="11">
+        <f t="shared" si="6"/>
+        <v>2745808.0000000005</v>
+      </c>
+      <c r="J133" s="11">
+        <f t="shared" si="7"/>
+        <v>103152</v>
+      </c>
+      <c r="K133" s="11">
+        <f t="shared" si="8"/>
+        <v>1738848</v>
+      </c>
+      <c r="L133" s="11">
+        <f t="shared" si="9"/>
+        <v>19648</v>
+      </c>
+      <c r="M133" s="11">
+        <f>F133*$C73</f>
+        <v>304544</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A134" t="s">
+        <v>226</v>
+      </c>
+      <c r="B134" s="29">
+        <v>0.93</v>
+      </c>
+      <c r="C134" s="29">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="D134" s="29">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="E134" s="29">
+        <v>1E-3</v>
+      </c>
+      <c r="F134" s="29">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="G134" s="16">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I134" s="11">
+        <f t="shared" si="6"/>
+        <v>1751190</v>
+      </c>
+      <c r="J134" s="11">
+        <f t="shared" si="7"/>
+        <v>84735</v>
+      </c>
+      <c r="K134" s="11">
+        <f t="shared" si="8"/>
+        <v>33894</v>
+      </c>
+      <c r="L134" s="11">
+        <f t="shared" si="9"/>
+        <v>1883</v>
+      </c>
+      <c r="M134" s="11">
+        <f t="shared" si="10"/>
+        <v>11298</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A135" t="s">
+        <v>107</v>
+      </c>
+      <c r="B135" s="29">
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="C135" s="29">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="D135" s="29">
+        <v>3.9E-2</v>
+      </c>
+      <c r="E135" s="29">
+        <v>2E-3</v>
+      </c>
+      <c r="F135" s="29">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="G135" s="16">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I135" s="11">
+        <f t="shared" si="6"/>
+        <v>3066270</v>
+      </c>
+      <c r="J135" s="11">
+        <f t="shared" si="7"/>
+        <v>198708</v>
+      </c>
+      <c r="K135" s="11">
+        <f t="shared" si="8"/>
+        <v>133614</v>
+      </c>
+      <c r="L135" s="11">
+        <f t="shared" si="9"/>
+        <v>6852</v>
+      </c>
+      <c r="M135" s="11">
+        <f t="shared" si="10"/>
+        <v>20556</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A136" t="s">
+        <v>114</v>
+      </c>
+      <c r="B136" s="29">
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="C136" s="29">
+        <v>0.157</v>
+      </c>
+      <c r="D136" s="29">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="E136" s="29">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="F136" s="29">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="G136" s="16">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I136" s="11">
+        <f t="shared" si="6"/>
+        <v>5754672</v>
+      </c>
+      <c r="J136" s="11">
+        <f t="shared" si="7"/>
+        <v>1303728</v>
+      </c>
+      <c r="K136" s="11">
+        <f t="shared" si="8"/>
+        <v>763968</v>
+      </c>
+      <c r="L136" s="11">
+        <f t="shared" si="9"/>
+        <v>74736</v>
+      </c>
+      <c r="M136" s="11">
+        <f t="shared" si="10"/>
+        <v>406896</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A137" t="s">
+        <v>280</v>
+      </c>
+      <c r="B137" s="29">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="C137" s="29">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="D137" s="29">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="E137" s="29">
+        <v>1E-3</v>
+      </c>
+      <c r="F137" s="29">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="G137" s="16">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I137" s="11">
+        <f t="shared" si="6"/>
+        <v>2893233</v>
+      </c>
+      <c r="J137" s="11">
+        <f t="shared" si="7"/>
+        <v>27908.999999999996</v>
+      </c>
+      <c r="K137" s="11">
+        <f t="shared" si="8"/>
+        <v>158151</v>
+      </c>
+      <c r="L137" s="11">
+        <f t="shared" si="9"/>
+        <v>3101</v>
+      </c>
+      <c r="M137" s="11">
+        <f t="shared" si="10"/>
+        <v>18606</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A138" t="s">
+        <v>115</v>
+      </c>
+      <c r="B138" s="29">
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="C138" s="29">
+        <v>0.434</v>
+      </c>
+      <c r="D138" s="29">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="E138" s="29">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="F138" s="29">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="G138" s="16">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I138" s="11">
+        <f t="shared" si="6"/>
+        <v>525456</v>
+      </c>
+      <c r="J138" s="11">
+        <f t="shared" si="7"/>
+        <v>463512</v>
+      </c>
+      <c r="K138" s="11">
+        <f t="shared" si="8"/>
+        <v>34176</v>
+      </c>
+      <c r="L138" s="11">
+        <f t="shared" si="9"/>
+        <v>8544</v>
+      </c>
+      <c r="M138" s="11">
+        <f t="shared" si="10"/>
+        <v>36312</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A139" t="s">
+        <v>150</v>
+      </c>
+      <c r="B139" s="29">
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="C139" s="29">
+        <v>0.374</v>
+      </c>
+      <c r="D139" s="29">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="E139" s="29">
+        <v>2E-3</v>
+      </c>
+      <c r="F139" s="29">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G139" s="16">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I139" s="11">
+        <f t="shared" si="6"/>
+        <v>1847236</v>
+      </c>
+      <c r="J139" s="11">
+        <f t="shared" si="7"/>
+        <v>1320968</v>
+      </c>
+      <c r="K139" s="11">
+        <f t="shared" si="8"/>
+        <v>293156</v>
+      </c>
+      <c r="L139" s="11">
+        <f t="shared" si="9"/>
+        <v>7064</v>
+      </c>
+      <c r="M139" s="11">
+        <f t="shared" si="10"/>
+        <v>63575.999999999993</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A140" t="s">
+        <v>110</v>
+      </c>
+      <c r="B140" s="29">
+        <v>0.70899999999999996</v>
+      </c>
+      <c r="C140" s="29">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="D140" s="29">
+        <v>0.224</v>
+      </c>
+      <c r="E140" s="29">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="F140" s="29">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="G140" s="16">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I140" s="11">
+        <f t="shared" si="6"/>
+        <v>730979</v>
+      </c>
+      <c r="J140" s="11">
+        <f t="shared" si="7"/>
+        <v>32992</v>
+      </c>
+      <c r="K140" s="11">
+        <f t="shared" si="8"/>
+        <v>230944</v>
+      </c>
+      <c r="L140" s="11">
+        <f t="shared" si="9"/>
+        <v>22682</v>
+      </c>
+      <c r="M140" s="11">
+        <f t="shared" si="10"/>
+        <v>13403</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A141" t="s">
+        <v>112</v>
+      </c>
+      <c r="B141" s="29">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="C141" s="29">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="D141" s="29">
+        <v>1.4E-2</v>
+      </c>
+      <c r="E141" s="29">
+        <v>0.68899999999999995</v>
+      </c>
+      <c r="F141" s="29">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G141" s="16">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I141" s="11">
+        <f t="shared" si="6"/>
+        <v>368039</v>
+      </c>
+      <c r="J141" s="11">
+        <f t="shared" si="7"/>
+        <v>48314</v>
+      </c>
+      <c r="K141" s="11">
+        <f t="shared" si="8"/>
+        <v>19894</v>
+      </c>
+      <c r="L141" s="11">
+        <f t="shared" si="9"/>
+        <v>979068.99999999988</v>
+      </c>
+      <c r="M141" s="11">
+        <f t="shared" si="10"/>
+        <v>5684</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A142" t="s">
+        <v>111</v>
+      </c>
+      <c r="B142" s="29">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="C142" s="29">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="D142" s="29">
+        <v>0.153</v>
+      </c>
+      <c r="E142" s="29">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="F142" s="29">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G142" s="16">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I142" s="11">
+        <f t="shared" si="6"/>
+        <v>261415.00000000003</v>
+      </c>
+      <c r="J142" s="11">
+        <f t="shared" si="7"/>
+        <v>8085.0000000000009</v>
+      </c>
+      <c r="K142" s="11">
+        <f t="shared" si="8"/>
+        <v>58905</v>
+      </c>
+      <c r="L142" s="11">
+        <f t="shared" si="9"/>
+        <v>52360.000000000007</v>
+      </c>
+      <c r="M142" s="11">
+        <f t="shared" si="10"/>
+        <v>4235</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A143" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B143" s="30">
+        <v>0.61799999999999999</v>
+      </c>
+      <c r="C143" s="30">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="D143" s="30">
+        <v>0.114</v>
+      </c>
+      <c r="E143" s="30">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="F143" s="30">
+        <v>1.4E-2</v>
+      </c>
+      <c r="G143" s="31">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I143" s="10">
+        <f t="shared" si="6"/>
+        <v>118656</v>
+      </c>
+      <c r="J143" s="10">
+        <f t="shared" si="7"/>
+        <v>3455.9999999999995</v>
+      </c>
+      <c r="K143" s="10">
+        <f t="shared" si="8"/>
+        <v>21888</v>
+      </c>
+      <c r="L143" s="10">
+        <f t="shared" si="9"/>
+        <v>45312</v>
+      </c>
+      <c r="M143" s="10">
+        <f t="shared" si="10"/>
+        <v>2688</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A144" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="B144" s="34">
+        <f>I144/$N144</f>
+        <v>0.69952482907463498</v>
+      </c>
+      <c r="C144" s="34">
+        <f t="shared" ref="C144:G144" si="11">J144/$N144</f>
+        <v>0.21013793859718827</v>
+      </c>
+      <c r="D144" s="34">
+        <f t="shared" si="11"/>
+        <v>6.555121086039585E-2</v>
+      </c>
+      <c r="E144" s="34">
+        <f t="shared" si="11"/>
+        <v>7.6216788351329105E-3</v>
+      </c>
+      <c r="F144" s="34">
+        <f t="shared" si="11"/>
+        <v>1.7164342632647937E-2</v>
+      </c>
+      <c r="G144" s="34">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="I144" s="32">
+        <f>SUM(I101:I143)</f>
+        <v>220078206</v>
+      </c>
+      <c r="J144" s="32">
+        <f t="shared" ref="J144:M144" si="12">SUM(J101:J143)</f>
+        <v>66111707</v>
+      </c>
+      <c r="K144" s="32">
+        <f t="shared" si="12"/>
+        <v>20623132</v>
+      </c>
+      <c r="L144" s="32">
+        <f t="shared" si="12"/>
+        <v>2397864</v>
+      </c>
+      <c r="M144" s="32">
+        <f t="shared" si="12"/>
+        <v>5400091</v>
+      </c>
+      <c r="N144" s="32">
+        <f>SUM(I144:M144)</f>
+        <v>314611000</v>
+      </c>
+    </row>
+    <row r="145" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="181" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G181" t="s">
         <v>138</v>
       </c>
-      <c r="H120" t="s">
+      <c r="H181" t="s">
         <v>139</v>
       </c>
-      <c r="I120" t="s">
+      <c r="I181" t="s">
         <v>126</v>
       </c>
-      <c r="J120" t="s">
+      <c r="J181" t="s">
         <v>140</v>
       </c>
-      <c r="K120" t="s">
+      <c r="K181" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="121" spans="7:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="G121" s="20">
+    <row r="182" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G182" s="20">
         <v>1</v>
       </c>
-      <c r="H121" s="20" t="s">
+      <c r="H182" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="I121" s="20" t="s">
+      <c r="I182" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="J121" s="21">
+      <c r="J182" s="21">
         <v>10090000</v>
       </c>
-      <c r="K121" s="21">
+      <c r="K182" s="21">
         <v>23785000</v>
       </c>
     </row>
-    <row r="122" spans="7:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="G122" s="20">
+    <row r="183" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G183" s="20">
         <v>2</v>
       </c>
-      <c r="H122" s="20" t="s">
+      <c r="H183" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="I122" s="20" t="s">
+      <c r="I183" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="J122" s="21">
+      <c r="J183" s="21">
         <v>5221000</v>
       </c>
-      <c r="K122" s="21">
+      <c r="K183" s="21">
         <v>15038000</v>
       </c>
     </row>
-    <row r="123" spans="7:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="G123" s="20">
+    <row r="184" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G184" s="20">
         <v>3</v>
       </c>
-      <c r="H123" s="20" t="s">
+      <c r="H184" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="I123" s="20" t="s">
+      <c r="I184" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="J123" s="21">
+      <c r="J184" s="21">
         <v>4047000</v>
       </c>
-      <c r="K123" s="21">
+      <c r="K184" s="21">
         <v>10415000</v>
       </c>
     </row>
-    <row r="124" spans="7:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="G124" s="20">
+    <row r="185" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G185" s="20">
         <v>4</v>
       </c>
-      <c r="H124" s="20" t="s">
+      <c r="H185" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="I124" s="20" t="s">
+      <c r="I185" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="J124" s="21">
+      <c r="J185" s="21">
         <v>2513000</v>
       </c>
-      <c r="K124" s="21">
+      <c r="K185" s="21">
         <v>7038000</v>
       </c>
     </row>
-    <row r="125" spans="7:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="G125" s="20">
+    <row r="186" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G186" s="20">
         <v>5</v>
       </c>
-      <c r="H125" s="20" t="s">
+      <c r="H186" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="I125" s="20" t="s">
+      <c r="I186" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="J125" s="21">
+      <c r="J186" s="21">
         <v>2210000</v>
       </c>
-      <c r="K125" s="21">
+      <c r="K186" s="21">
         <v>6471000</v>
       </c>
     </row>
-    <row r="126" spans="7:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="G126" s="20">
+    <row r="187" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G187" s="20">
         <v>6</v>
       </c>
-      <c r="H126" s="20" t="s">
+      <c r="H187" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="I126" s="20" t="s">
+      <c r="I187" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="J126" s="21">
+      <c r="J187" s="21">
         <v>2031000</v>
       </c>
-      <c r="K126" s="21">
+      <c r="K187" s="21">
         <v>7576000</v>
       </c>
     </row>
-    <row r="127" spans="7:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="G127" s="20">
+    <row r="188" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G188" s="20">
         <v>7</v>
       </c>
-      <c r="H127" s="20" t="s">
+      <c r="H188" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="I127" s="20" t="s">
+      <c r="I188" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="J127" s="21">
+      <c r="J188" s="21">
         <v>1719000</v>
       </c>
-      <c r="K127" s="21">
+      <c r="K188" s="21">
         <v>6948000</v>
       </c>
     </row>
-    <row r="128" spans="7:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="G128" s="20">
+    <row r="189" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G189" s="20">
         <v>8</v>
       </c>
-      <c r="H128" s="20" t="s">
+      <c r="H189" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="I128" s="20" t="s">
+      <c r="I189" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="J128" s="21">
+      <c r="J189" s="21">
         <v>1643000</v>
       </c>
-      <c r="K128" s="21">
+      <c r="K189" s="21">
         <v>9083000</v>
       </c>
     </row>
-    <row r="129" spans="7:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="G129" s="20">
+    <row r="190" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G190" s="20">
         <v>9</v>
       </c>
-      <c r="H129" s="20" t="s">
+      <c r="H190" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="I129" s="20" t="s">
+      <c r="I190" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="J129" s="21">
+      <c r="J190" s="21">
         <v>1480000</v>
       </c>
-      <c r="K129" s="21">
+      <c r="K190" s="21">
         <v>6743000</v>
       </c>
     </row>
-    <row r="130" spans="7:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="G130" s="20">
+    <row r="191" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G191" s="20">
         <v>10</v>
       </c>
-      <c r="H130" s="20" t="s">
+      <c r="H191" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="I130" s="20" t="s">
+      <c r="I191" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="J130" s="21">
+      <c r="J191" s="21">
         <v>1422000</v>
       </c>
-      <c r="K130" s="21">
+      <c r="K191" s="21">
         <v>5942000</v>
       </c>
     </row>
-    <row r="131" spans="7:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="G131" s="20">
+    <row r="192" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G192" s="20">
         <v>11</v>
       </c>
-      <c r="H131" s="20" t="s">
+      <c r="H192" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="I131" s="20" t="s">
+      <c r="I192" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="J131" s="21">
+      <c r="J192" s="21">
         <v>1383000</v>
       </c>
-      <c r="K131" s="21">
+      <c r="K192" s="21">
         <v>4813000</v>
       </c>
     </row>
-    <row r="132" spans="7:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="G132" s="20">
+    <row r="193" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G193" s="20">
         <v>12</v>
       </c>
-      <c r="H132" s="20" t="s">
+      <c r="H193" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="I132" s="20" t="s">
+      <c r="I193" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="J132" s="21">
+      <c r="J193" s="21">
         <v>1369000</v>
       </c>
-      <c r="K132" s="21">
+      <c r="K193" s="21">
         <v>4428000</v>
       </c>
     </row>
-    <row r="133" spans="7:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="G133" s="20">
+    <row r="194" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G194" s="20">
         <v>13</v>
       </c>
-      <c r="H133" s="20" t="s">
+      <c r="H194" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="I133" s="20" t="s">
+      <c r="I194" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="J133" s="21">
+      <c r="J194" s="21">
         <v>1248000</v>
       </c>
-      <c r="K133" s="21">
+      <c r="K194" s="21">
         <v>3327000</v>
       </c>
     </row>
-    <row r="134" spans="7:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="G134" s="20">
+    <row r="195" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G195" s="20">
         <v>14</v>
       </c>
-      <c r="H134" s="20" t="s">
+      <c r="H195" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="I134" s="20" t="s">
+      <c r="I195" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="J134" s="21">
+      <c r="J195" s="21">
         <v>1222000</v>
       </c>
-      <c r="K134" s="21">
+      <c r="K195" s="21">
         <v>3991000</v>
       </c>
     </row>
-    <row r="135" spans="7:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="G135" s="20">
+    <row r="196" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G196" s="20">
         <v>15</v>
       </c>
-      <c r="H135" s="20" t="s">
+      <c r="H196" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="I135" s="20" t="s">
+      <c r="I196" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="J135" s="21">
+      <c r="J196" s="21">
         <v>1210000</v>
       </c>
-      <c r="K135" s="21">
+      <c r="K196" s="21">
         <v>15038000</v>
       </c>
     </row>
-    <row r="136" spans="7:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="G136" s="20">
+    <row r="197" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G197" s="20">
         <v>16</v>
       </c>
-      <c r="H136" s="20" t="s">
+      <c r="H197" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="I136" s="20" t="s">
+      <c r="I197" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="J136" s="21">
+      <c r="J197" s="21">
         <v>1180000</v>
       </c>
-      <c r="K136" s="21">
+      <c r="K197" s="21">
         <v>1782000</v>
       </c>
     </row>
-    <row r="137" spans="7:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="G137" s="20">
+    <row r="198" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G198" s="20">
         <v>17</v>
       </c>
-      <c r="H137" s="20" t="s">
+      <c r="H198" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="I137" s="20" t="s">
+      <c r="I198" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="J137" s="21">
+      <c r="J198" s="21">
         <v>1159000</v>
       </c>
-      <c r="K137" s="21">
+      <c r="K198" s="21">
         <v>3447000</v>
       </c>
     </row>
-    <row r="138" spans="7:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="G138" s="20">
+    <row r="199" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G199" s="20">
         <v>18</v>
       </c>
-      <c r="H138" s="20" t="s">
+      <c r="H199" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="I138" s="20" t="s">
+      <c r="I199" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="J138" s="21">
+      <c r="J199" s="21">
         <v>1091000</v>
       </c>
-      <c r="K138" s="21">
+      <c r="K199" s="21">
         <v>4940000</v>
       </c>
     </row>
-    <row r="139" spans="7:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="G139" s="20">
+    <row r="200" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G200" s="20">
         <v>19</v>
       </c>
-      <c r="H139" s="20" t="s">
+      <c r="H200" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="I139" s="20" t="s">
+      <c r="I200" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="J139" s="21">
+      <c r="J200" s="21">
         <v>1001000</v>
       </c>
-      <c r="K139" s="21">
+      <c r="K200" s="21">
         <v>23785000</v>
       </c>
     </row>
-    <row r="140" spans="7:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="G140" s="20">
+    <row r="201" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G201" s="20">
         <v>20</v>
       </c>
-      <c r="H140" s="20" t="s">
+      <c r="H201" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="I140" s="20" t="s">
+      <c r="I201" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="J140" s="21">
+      <c r="J201" s="21">
         <v>1021000</v>
       </c>
-      <c r="K140" s="21">
+      <c r="K201" s="21">
         <v>6491000</v>
       </c>
     </row>
-    <row r="141" spans="7:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="G141" s="20">
+    <row r="202" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G202" s="20">
         <v>21</v>
       </c>
-      <c r="H141" s="20" t="s">
+      <c r="H202" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="I141" s="20" t="s">
+      <c r="I202" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="J141" s="21">
+      <c r="J202" s="21">
         <v>983000</v>
       </c>
-      <c r="K141" s="21">
+      <c r="K202" s="21">
         <v>2297000</v>
       </c>
     </row>
-    <row r="142" spans="7:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="G142" s="20">
+    <row r="203" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G203" s="20">
         <v>22</v>
       </c>
-      <c r="H142" s="20" t="s">
+      <c r="H203" s="20" t="s">
         <v>197</v>
       </c>
-      <c r="I142" s="20" t="s">
+      <c r="I203" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="J142" s="21">
+      <c r="J203" s="21">
         <v>951000</v>
       </c>
-      <c r="K142" s="21">
+      <c r="K203" s="21">
         <v>2929000</v>
       </c>
     </row>
-    <row r="143" spans="7:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="G143" s="20">
+    <row r="204" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G204" s="20">
         <v>23</v>
       </c>
-      <c r="H143" s="20" t="s">
+      <c r="H204" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="I143" s="20" t="s">
+      <c r="I204" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="J143" s="21">
+      <c r="J204" s="21">
         <v>925000</v>
       </c>
-      <c r="K143" s="21">
+      <c r="K204" s="21">
         <v>4247000</v>
       </c>
     </row>
-    <row r="144" spans="7:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="G144" s="20">
+    <row r="205" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G205" s="20">
         <v>24</v>
       </c>
-      <c r="H144" s="20" t="s">
+      <c r="H205" s="20" t="s">
         <v>194</v>
       </c>
-      <c r="I144" s="20" t="s">
+      <c r="I205" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="J144" s="21">
+      <c r="J205" s="21">
         <v>877000</v>
       </c>
-      <c r="K144" s="21">
+      <c r="K205" s="21">
         <v>2473000</v>
       </c>
     </row>
-    <row r="145" spans="7:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="G145" s="20">
+    <row r="206" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G206" s="20">
         <v>25</v>
       </c>
-      <c r="H145" s="20" t="s">
+      <c r="H206" s="20" t="s">
         <v>198</v>
       </c>
-      <c r="I145" s="20" t="s">
+      <c r="I206" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="J145" s="21">
+      <c r="J206" s="21">
         <v>851000</v>
       </c>
-      <c r="K145" s="21">
+      <c r="K206" s="21">
         <v>1929000</v>
       </c>
     </row>
-    <row r="146" spans="7:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="G146" s="20">
+    <row r="207" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G207" s="20">
         <v>26</v>
       </c>
-      <c r="H146" s="20" t="s">
+      <c r="H207" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="I146" s="20" t="s">
+      <c r="I207" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="J146" s="21">
+      <c r="J207" s="21">
         <v>788000</v>
       </c>
-      <c r="K146" s="21">
+      <c r="K207" s="21">
         <v>5312000</v>
       </c>
     </row>
-    <row r="147" spans="7:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="G147" s="20">
+    <row r="208" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G208" s="20">
         <v>27</v>
       </c>
-      <c r="H147" s="20" t="s">
+      <c r="H208" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="I147" s="20" t="s">
+      <c r="I208" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="J147" s="21">
+      <c r="J208" s="21">
         <v>765000</v>
       </c>
-      <c r="K147" s="21">
+      <c r="K208" s="21">
         <v>1252000</v>
       </c>
     </row>
-    <row r="148" spans="7:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="G148" s="20">
+    <row r="209" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G209" s="20">
         <v>28</v>
       </c>
-      <c r="H148" s="20" t="s">
+      <c r="H209" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="I148" s="20" t="s">
+      <c r="I209" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="J148" s="21">
+      <c r="J209" s="21">
         <v>741000</v>
       </c>
-      <c r="K148" s="21">
+      <c r="K209" s="21">
         <v>1782000</v>
       </c>
     </row>
-    <row r="149" spans="7:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="G149" s="20">
+    <row r="210" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G210" s="20">
         <v>29</v>
       </c>
-      <c r="H149" s="20" t="s">
+      <c r="H210" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="I149" s="20" t="s">
+      <c r="I210" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="J149" s="21">
+      <c r="J210" s="21">
         <v>729000</v>
       </c>
-      <c r="K149" s="21">
+      <c r="K210" s="21">
         <v>2175000</v>
       </c>
     </row>
-    <row r="150" spans="7:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="G150" s="20">
+    <row r="211" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G211" s="20">
         <v>30</v>
       </c>
-      <c r="H150" s="20" t="s">
+      <c r="H211" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="I150" s="20" t="s">
+      <c r="I211" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="J150" s="21">
+      <c r="J211" s="21">
         <v>715000</v>
       </c>
-      <c r="K150" s="21">
+      <c r="K211" s="21">
         <v>1534000</v>
       </c>
     </row>
-    <row r="151" spans="7:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="G151" s="20">
+    <row r="212" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G212" s="20">
         <v>31</v>
       </c>
-      <c r="H151" s="20" t="s">
+      <c r="H212" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="I151" s="20" t="s">
+      <c r="I212" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="J151" s="21">
+      <c r="J212" s="21">
         <v>701000</v>
       </c>
-      <c r="K151" s="21">
+      <c r="K212" s="21">
         <v>2461000</v>
       </c>
     </row>
-    <row r="152" spans="7:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="G152" s="20">
+    <row r="213" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G213" s="20">
         <v>32</v>
       </c>
-      <c r="H152" s="20" t="s">
+      <c r="H213" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="I152" s="20" t="s">
+      <c r="I213" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="J152" s="21">
+      <c r="J213" s="21">
         <v>656000</v>
       </c>
-      <c r="K152" s="21">
+      <c r="K213" s="21">
         <v>1567000</v>
       </c>
     </row>
-    <row r="156" spans="7:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="G156" t="s">
+    <row r="217" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G217" t="s">
         <v>138</v>
       </c>
-      <c r="H156" t="s">
+      <c r="H217" t="s">
         <v>139</v>
       </c>
-      <c r="I156" t="s">
+      <c r="I217" t="s">
         <v>126</v>
       </c>
-      <c r="J156" t="s">
+      <c r="J217" t="s">
         <v>140</v>
       </c>
-      <c r="K156" t="s">
+      <c r="K217" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="157" spans="7:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="G157">
+    <row r="218" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G218">
         <v>1</v>
       </c>
-      <c r="H157" t="s">
+      <c r="H218" t="s">
         <v>205</v>
       </c>
-      <c r="I157" t="s">
+      <c r="I218" t="s">
         <v>87</v>
       </c>
-      <c r="J157" s="1">
+      <c r="J218" s="1">
         <v>10090000</v>
       </c>
-      <c r="K157" s="1">
+      <c r="K218" s="1">
         <v>23785000</v>
       </c>
     </row>
-    <row r="158" spans="7:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="G158">
+    <row r="219" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G219">
         <v>2</v>
       </c>
-      <c r="H158" t="s">
+      <c r="H219" t="s">
         <v>143</v>
       </c>
-      <c r="I158" t="s">
+      <c r="I219" t="s">
         <v>100</v>
       </c>
-      <c r="J158" s="1">
+      <c r="J219" s="1">
         <v>5221000</v>
       </c>
-      <c r="K158" s="1">
+      <c r="K219" s="1">
         <v>15038000</v>
       </c>
     </row>
-    <row r="159" spans="7:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="G159">
+    <row r="220" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G220">
         <v>3</v>
       </c>
-      <c r="H159" t="s">
+      <c r="H220" t="s">
         <v>144</v>
       </c>
-      <c r="I159" t="s">
+      <c r="I220" t="s">
         <v>93</v>
       </c>
-      <c r="J159" s="1">
+      <c r="J220" s="1">
         <v>4047000</v>
       </c>
-      <c r="K159" s="1">
+      <c r="K220" s="1">
         <v>10415000</v>
       </c>
     </row>
-    <row r="160" spans="7:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="G160">
+    <row r="221" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G221">
         <v>4</v>
       </c>
-      <c r="H160" t="s">
+      <c r="H221" t="s">
         <v>145</v>
       </c>
-      <c r="I160" t="s">
+      <c r="I221" t="s">
         <v>78</v>
       </c>
-      <c r="J160" s="1">
+      <c r="J221" s="1">
         <v>2513000</v>
       </c>
-      <c r="K160" s="1">
+      <c r="K221" s="1">
         <v>7038000</v>
       </c>
     </row>
-    <row r="161" spans="7:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="G161">
+    <row r="222" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G222">
         <v>5</v>
       </c>
-      <c r="H161" t="s">
+      <c r="H222" t="s">
         <v>146</v>
       </c>
-      <c r="I161" t="s">
+      <c r="I222" t="s">
         <v>82</v>
       </c>
-      <c r="J161" s="1">
+      <c r="J222" s="1">
         <v>2210000</v>
       </c>
-      <c r="K161" s="1">
+      <c r="K222" s="1">
         <v>6471000</v>
       </c>
     </row>
-    <row r="162" spans="7:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="G162">
+    <row r="223" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G223">
         <v>6</v>
       </c>
-      <c r="H162" t="s">
+      <c r="H223" t="s">
         <v>147</v>
       </c>
-      <c r="I162" t="s">
+      <c r="I223" t="s">
         <v>86</v>
       </c>
-      <c r="J162" s="1">
+      <c r="J223" s="1">
         <v>2031000</v>
       </c>
-      <c r="K162" s="1">
+      <c r="K223" s="1">
         <v>7576000</v>
       </c>
     </row>
-    <row r="163" spans="7:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="G163">
+    <row r="224" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G224">
         <v>7</v>
       </c>
-      <c r="H163" t="s">
+      <c r="H224" t="s">
         <v>148</v>
       </c>
-      <c r="I163" t="s">
+      <c r="I224" t="s">
         <v>92</v>
       </c>
-      <c r="J163" s="1">
+      <c r="J224" s="1">
         <v>1719000</v>
       </c>
-      <c r="K163" s="1">
+      <c r="K224" s="1">
         <v>6948000</v>
       </c>
     </row>
-    <row r="164" spans="7:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="G164">
+    <row r="225" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G225">
         <v>8</v>
       </c>
-      <c r="H164" t="s">
+      <c r="H225" t="s">
         <v>206</v>
       </c>
-      <c r="I164" t="s">
+      <c r="I225" t="s">
         <v>150</v>
       </c>
-      <c r="J164" s="1">
+      <c r="J225" s="1">
         <v>1643000</v>
       </c>
-      <c r="K164" s="1">
+      <c r="K225" s="1">
         <v>9083000</v>
       </c>
     </row>
-    <row r="165" spans="7:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="G165">
+    <row r="226" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G226">
         <v>9</v>
       </c>
-      <c r="H165" t="s">
+      <c r="H226" t="s">
         <v>151</v>
       </c>
-      <c r="I165" t="s">
+      <c r="I226" t="s">
         <v>98</v>
       </c>
-      <c r="J165" s="1">
+      <c r="J226" s="1">
         <v>1480000</v>
       </c>
-      <c r="K165" s="1">
+      <c r="K226" s="1">
         <v>6743000</v>
       </c>
     </row>
-    <row r="166" spans="7:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="G166">
+    <row r="227" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G227">
         <v>10</v>
       </c>
-      <c r="H166" t="s">
+      <c r="H227" t="s">
         <v>152</v>
       </c>
-      <c r="I166" t="s">
+      <c r="I227" t="s">
         <v>104</v>
       </c>
-      <c r="J166" s="1">
+      <c r="J227" s="1">
         <v>1422000</v>
       </c>
-      <c r="K166" s="1">
+      <c r="K227" s="1">
         <v>5942000</v>
       </c>
     </row>
-    <row r="167" spans="7:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="G167">
+    <row r="228" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G228">
         <v>11</v>
       </c>
-      <c r="H167" t="s">
+      <c r="H228" t="s">
         <v>153</v>
       </c>
-      <c r="I167" t="s">
+      <c r="I228" t="s">
         <v>87</v>
       </c>
-      <c r="J167" s="1">
+      <c r="J228" s="1">
         <v>1383000</v>
       </c>
-      <c r="K167" s="1">
+      <c r="K228" s="1">
         <v>4813000</v>
       </c>
     </row>
-    <row r="168" spans="7:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="G168">
+    <row r="229" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G229">
         <v>12</v>
       </c>
-      <c r="H168" t="s">
+      <c r="H229" t="s">
         <v>154</v>
       </c>
-      <c r="I168" t="s">
+      <c r="I229" t="s">
         <v>38</v>
       </c>
-      <c r="J168" s="1">
+      <c r="J229" s="1">
         <v>1369000</v>
       </c>
-      <c r="K168" s="1">
+      <c r="K229" s="1">
         <v>4428000</v>
       </c>
     </row>
-    <row r="169" spans="7:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="G169">
+    <row r="230" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G230">
         <v>13</v>
       </c>
-      <c r="H169" t="s">
+      <c r="H230" t="s">
         <v>155</v>
       </c>
-      <c r="I169" t="s">
+      <c r="I230" t="s">
         <v>93</v>
       </c>
-      <c r="J169" s="1">
+      <c r="J230" s="1">
         <v>1248000</v>
       </c>
-      <c r="K169" s="1">
+      <c r="K230" s="1">
         <v>3327000</v>
       </c>
     </row>
-    <row r="170" spans="7:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="G170">
+    <row r="231" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G231">
         <v>14</v>
       </c>
-      <c r="H170" t="s">
+      <c r="H231" t="s">
         <v>156</v>
       </c>
-      <c r="I170" t="s">
+      <c r="I231" t="s">
         <v>91</v>
       </c>
-      <c r="J170" s="1">
+      <c r="J231" s="1">
         <v>1222000</v>
       </c>
-      <c r="K170" s="1">
+      <c r="K231" s="1">
         <v>3991000</v>
       </c>
     </row>
-    <row r="171" spans="7:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="G171">
+    <row r="232" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G232">
         <v>15</v>
       </c>
-      <c r="H171" t="s">
+      <c r="H232" t="s">
         <v>157</v>
       </c>
-      <c r="I171" t="s">
+      <c r="I232" t="s">
         <v>96</v>
       </c>
-      <c r="J171" s="1">
+      <c r="J232" s="1">
         <v>1210000</v>
       </c>
-      <c r="K171" t="s">
+      <c r="K232" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="172" spans="7:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="G172">
+    <row r="233" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G233">
         <v>16</v>
       </c>
-      <c r="H172" t="s">
+      <c r="H233" t="s">
         <v>199</v>
       </c>
-      <c r="I172" t="s">
+      <c r="I233" t="s">
         <v>101</v>
       </c>
-      <c r="J172" s="1">
+      <c r="J233" s="1">
         <v>1180000</v>
       </c>
-      <c r="K172" s="1">
+      <c r="K233" s="1">
         <v>2252000</v>
       </c>
     </row>
-    <row r="173" spans="7:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="G173">
+    <row r="234" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G234">
         <v>17</v>
       </c>
-      <c r="H173" t="s">
+      <c r="H234" t="s">
         <v>159</v>
       </c>
-      <c r="I173" t="s">
+      <c r="I234" t="s">
         <v>78</v>
       </c>
-      <c r="J173" s="1">
+      <c r="J234" s="1">
         <v>1159000</v>
       </c>
-      <c r="K173" s="1">
+      <c r="K234" s="1">
         <v>3447000</v>
       </c>
     </row>
-    <row r="174" spans="7:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="G174">
+    <row r="235" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G235">
         <v>18</v>
       </c>
-      <c r="H174" t="s">
+      <c r="H235" t="s">
         <v>162</v>
       </c>
-      <c r="I174" t="s">
+      <c r="I235" t="s">
         <v>84</v>
       </c>
-      <c r="J174" s="1">
+      <c r="J235" s="1">
         <v>1091000</v>
       </c>
-      <c r="K174" s="1">
+      <c r="K235" s="1">
         <v>6491000</v>
       </c>
     </row>
-    <row r="175" spans="7:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="G175">
+    <row r="236" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G236">
         <v>19</v>
       </c>
-      <c r="H175" t="s">
+      <c r="H236" t="s">
         <v>208</v>
       </c>
-      <c r="I175" t="s">
+      <c r="I236" t="s">
         <v>80</v>
       </c>
-      <c r="J175" s="1">
+      <c r="J236" s="1">
         <v>1069000</v>
       </c>
-      <c r="K175" s="1">
+      <c r="K236" s="1">
         <v>5105000</v>
       </c>
     </row>
-    <row r="176" spans="7:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="G176">
+    <row r="237" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G237">
         <v>20</v>
       </c>
-      <c r="H176" t="s">
+      <c r="H237" t="s">
         <v>200</v>
       </c>
-      <c r="I176" t="s">
+      <c r="I237" t="s">
         <v>103</v>
       </c>
-      <c r="J176" s="1">
+      <c r="J237" s="1">
         <v>1044000</v>
       </c>
-      <c r="K176" s="1">
+      <c r="K237" s="1">
         <v>1836000</v>
       </c>
     </row>
-    <row r="177" spans="7:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="G177">
+    <row r="238" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G238">
         <v>21</v>
       </c>
-      <c r="H177" t="s">
+      <c r="H238" t="s">
         <v>221</v>
       </c>
-      <c r="I177" t="s">
+      <c r="I238" t="s">
         <v>79</v>
       </c>
-      <c r="J177" s="1">
+      <c r="J238" s="1">
         <v>1021000</v>
       </c>
-      <c r="K177" t="s">
+      <c r="K238" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="178" spans="7:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="G178">
+    <row r="239" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G239">
         <v>22</v>
       </c>
-      <c r="H178" t="s">
+      <c r="H239" t="s">
         <v>223</v>
       </c>
-      <c r="I178" t="s">
+      <c r="I239" t="s">
         <v>86</v>
       </c>
-      <c r="J178" s="1">
+      <c r="J239" s="1">
         <v>1001000</v>
       </c>
-      <c r="K178" s="1">
+      <c r="K239" s="1">
         <v>4940000</v>
       </c>
     </row>
-    <row r="179" spans="7:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="G179">
+    <row r="240" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G240">
         <v>23</v>
       </c>
-      <c r="H179" t="s">
+      <c r="H240" t="s">
         <v>209</v>
       </c>
-      <c r="I179" t="s">
+      <c r="I240" t="s">
         <v>94</v>
       </c>
-      <c r="J179" s="1">
+      <c r="J240" s="1">
         <v>983000</v>
       </c>
-      <c r="K179" s="1">
+      <c r="K240" s="1">
         <v>2297000</v>
       </c>
     </row>
-    <row r="180" spans="7:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="G180">
+    <row r="241" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G241">
         <v>24</v>
       </c>
-      <c r="H180" t="s">
+      <c r="H241" t="s">
         <v>210</v>
       </c>
-      <c r="I180" t="s">
+      <c r="I241" t="s">
         <v>94</v>
       </c>
-      <c r="J180" s="1">
+      <c r="J241" s="1">
         <v>951000</v>
       </c>
-      <c r="K180" s="1">
+      <c r="K241" s="1">
         <v>2929000</v>
       </c>
     </row>
-    <row r="181" spans="7:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="G181">
+    <row r="242" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G242">
         <v>25</v>
       </c>
-      <c r="H181" t="s">
+      <c r="H242" t="s">
         <v>211</v>
       </c>
-      <c r="I181" t="s">
+      <c r="I242" t="s">
         <v>99</v>
       </c>
-      <c r="J181" s="1">
+      <c r="J242" s="1">
         <v>925000</v>
       </c>
-      <c r="K181" s="1">
+      <c r="K242" s="1">
         <v>4247000</v>
       </c>
     </row>
-    <row r="182" spans="7:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="G182">
+    <row r="243" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G243">
         <v>26</v>
       </c>
-      <c r="H182" t="s">
+      <c r="H243" t="s">
         <v>212</v>
       </c>
-      <c r="I182" t="s">
+      <c r="I243" t="s">
         <v>98</v>
       </c>
-      <c r="J182" s="1">
+      <c r="J243" s="1">
         <v>903000</v>
       </c>
-      <c r="K182" s="1">
+      <c r="K243" s="1">
         <v>3562000</v>
       </c>
     </row>
-    <row r="183" spans="7:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="G183">
+    <row r="244" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G244">
         <v>27</v>
       </c>
-      <c r="H183" t="s">
+      <c r="H244" t="s">
         <v>213</v>
       </c>
-      <c r="I183" t="s">
+      <c r="I244" t="s">
         <v>114</v>
       </c>
-      <c r="J183" s="1">
+      <c r="J244" s="1">
         <v>891000</v>
       </c>
-      <c r="K183" s="1">
+      <c r="K244" s="1">
         <v>3421000</v>
       </c>
     </row>
-    <row r="184" spans="7:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="G184">
+    <row r="245" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G245">
         <v>28</v>
       </c>
-      <c r="H184" t="s">
+      <c r="H245" t="s">
         <v>194</v>
       </c>
-      <c r="I184" t="s">
+      <c r="I245" t="s">
         <v>115</v>
       </c>
-      <c r="J184" s="1">
+      <c r="J245" s="1">
         <v>877000</v>
       </c>
-      <c r="K184" s="1">
+      <c r="K245" s="1">
         <v>2473000</v>
       </c>
     </row>
-    <row r="185" spans="7:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="G185">
+    <row r="246" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G246">
         <v>29</v>
       </c>
-      <c r="H185" t="s">
+      <c r="H246" t="s">
         <v>214</v>
       </c>
-      <c r="I185" t="s">
+      <c r="I246" t="s">
         <v>95</v>
       </c>
-      <c r="J185" s="1">
+      <c r="J246" s="1">
         <v>851000</v>
       </c>
-      <c r="K185" s="1">
+      <c r="K246" s="1">
         <v>2329000</v>
       </c>
     </row>
-    <row r="186" spans="7:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="G186">
+    <row r="247" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G247">
         <v>30</v>
       </c>
-      <c r="H186" t="s">
+      <c r="H247" t="s">
         <v>203</v>
       </c>
-      <c r="I186" t="s">
+      <c r="I247" t="s">
         <v>103</v>
       </c>
-      <c r="J186" s="1">
+      <c r="J247" s="1">
         <v>824000</v>
       </c>
-      <c r="K186" s="1">
+      <c r="K247" s="1">
         <v>1651000</v>
       </c>
     </row>
-    <row r="187" spans="7:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="G187">
+    <row r="248" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G248">
         <v>31</v>
       </c>
-      <c r="H187" t="s">
+      <c r="H248" t="s">
         <v>204</v>
       </c>
-      <c r="I187" t="s">
+      <c r="I248" t="s">
         <v>195</v>
       </c>
-      <c r="J187" s="1">
+      <c r="J248" s="1">
         <v>802000</v>
       </c>
-      <c r="K187" s="1">
+      <c r="K248" s="1">
         <v>2547000</v>
       </c>
     </row>
-    <row r="188" spans="7:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="G188">
+    <row r="249" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G249">
         <v>32</v>
       </c>
-      <c r="H188" t="s">
+      <c r="H249" t="s">
         <v>164</v>
       </c>
-      <c r="I188" t="s">
+      <c r="I249" t="s">
         <v>100</v>
       </c>
-      <c r="J188" s="1">
+      <c r="J249" s="1">
         <v>788000</v>
       </c>
-      <c r="K188" s="1">
+      <c r="K249" s="1">
         <v>5312000</v>
       </c>
     </row>
-    <row r="189" spans="7:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="G189">
+    <row r="250" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G250">
         <v>33</v>
       </c>
-      <c r="H189" t="s">
+      <c r="H250" t="s">
         <v>165</v>
       </c>
-      <c r="I189" t="s">
+      <c r="I250" t="s">
         <v>83</v>
       </c>
-      <c r="J189" s="1">
+      <c r="J250" s="1">
         <v>765000</v>
       </c>
-      <c r="K189" s="1">
+      <c r="K250" s="1">
         <v>1252000</v>
       </c>
     </row>
-    <row r="190" spans="7:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="G190">
+    <row r="251" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G251">
         <v>34</v>
       </c>
-      <c r="H190" t="s">
+      <c r="H251" t="s">
         <v>158</v>
       </c>
-      <c r="I190" t="s">
+      <c r="I251" t="s">
         <v>101</v>
       </c>
-      <c r="J190" s="1">
+      <c r="J251" s="1">
         <v>741000</v>
       </c>
-      <c r="K190" s="1">
+      <c r="K251" s="1">
         <v>1782000</v>
       </c>
     </row>
-    <row r="191" spans="7:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="G191">
+    <row r="252" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G252">
         <v>35</v>
       </c>
-      <c r="H191" t="s">
+      <c r="H252" t="s">
         <v>166</v>
       </c>
-      <c r="I191" t="s">
+      <c r="I252" t="s">
         <v>93</v>
       </c>
-      <c r="J191" s="1">
+      <c r="J252" s="1">
         <v>729000</v>
       </c>
-      <c r="K191" s="1">
+      <c r="K252" s="1">
         <v>2175000</v>
       </c>
     </row>
-    <row r="192" spans="7:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="G192">
+    <row r="253" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G253">
         <v>36</v>
       </c>
-      <c r="H192" t="s">
+      <c r="H253" t="s">
         <v>168</v>
       </c>
-      <c r="I192" t="s">
+      <c r="I253" t="s">
         <v>88</v>
       </c>
-      <c r="J192" s="1">
+      <c r="J253" s="1">
         <v>701000</v>
       </c>
-      <c r="K192" s="1">
+      <c r="K253" s="1">
         <v>2461000</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="G193">
+    <row r="254" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G254">
         <v>37</v>
       </c>
-      <c r="H193" t="s">
+      <c r="H254" t="s">
         <v>215</v>
       </c>
-      <c r="I193" t="s">
+      <c r="I254" t="s">
         <v>107</v>
       </c>
-      <c r="J193" s="1">
+      <c r="J254" s="1">
         <v>682000</v>
       </c>
-      <c r="K193" s="1">
+      <c r="K254" s="1">
         <v>1221000</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="G194">
+    <row r="255" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G255">
         <v>38</v>
       </c>
-      <c r="H194" t="s">
+      <c r="H255" t="s">
         <v>216</v>
       </c>
-      <c r="I194" t="s">
+      <c r="I255" t="s">
         <v>98</v>
       </c>
-      <c r="J194" s="1">
+      <c r="J255" s="1">
         <v>668000</v>
       </c>
-      <c r="K194" s="1">
+      <c r="K255" s="1">
         <v>1614000</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="G195">
+    <row r="256" spans="7:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G256">
         <v>39</v>
       </c>
-      <c r="H195" t="s">
+      <c r="H256" t="s">
         <v>169</v>
       </c>
-      <c r="I195" t="s">
+      <c r="I256" t="s">
         <v>94</v>
       </c>
-      <c r="J195" s="1">
+      <c r="J256" s="1">
         <v>656000</v>
       </c>
-      <c r="K195" s="1">
+      <c r="K256" s="1">
         <v>1567000</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="G196">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G257">
         <v>40</v>
       </c>
-      <c r="H196" t="s">
+      <c r="H257" t="s">
         <v>217</v>
       </c>
-      <c r="I196" t="s">
+      <c r="I257" t="s">
         <v>195</v>
       </c>
-      <c r="J196" s="1">
+      <c r="J257" s="1">
         <v>634000</v>
       </c>
-      <c r="K196" s="1">
+      <c r="K257" s="1">
         <v>1341000</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="G197">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G258">
         <v>41</v>
       </c>
-      <c r="H197" t="s">
+      <c r="H258" t="s">
         <v>201</v>
       </c>
-      <c r="I197" t="s">
+      <c r="I258" t="s">
         <v>202</v>
       </c>
-      <c r="J197" s="1">
+      <c r="J258" s="1">
         <v>613000</v>
       </c>
-      <c r="K197" s="1">
+      <c r="K258" s="1">
         <v>1248000</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="G198">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G259">
         <v>42</v>
       </c>
-      <c r="H198" t="s">
+      <c r="H259" t="s">
         <v>218</v>
       </c>
-      <c r="I198" t="s">
+      <c r="I259" t="s">
         <v>79</v>
       </c>
-      <c r="J198" s="1">
+      <c r="J259" s="1">
         <v>584000</v>
       </c>
-      <c r="K198" t="s">
+      <c r="K259" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="G199">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G260">
         <v>43</v>
       </c>
-      <c r="H199" t="s">
+      <c r="H260" t="s">
         <v>219</v>
       </c>
-      <c r="I199" t="s">
+      <c r="I260" t="s">
         <v>114</v>
       </c>
-      <c r="J199" s="1">
+      <c r="J260" s="1">
         <v>565000</v>
       </c>
-      <c r="K199" s="1">
+      <c r="K260" s="1">
         <v>1641000</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="G200">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G261">
         <v>44</v>
       </c>
-      <c r="H200" t="s">
+      <c r="H261" t="s">
         <v>220</v>
       </c>
-      <c r="I200" t="s">
+      <c r="I261" t="s">
         <v>80</v>
       </c>
-      <c r="J200" s="1">
+      <c r="J261" s="1">
         <v>524000</v>
       </c>
-      <c r="K200" s="1">
+      <c r="K261" s="1">
         <v>1051000</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="G201">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="G262">
         <v>45</v>
       </c>
-      <c r="H201" t="s">
+      <c r="H262" t="s">
         <v>224</v>
       </c>
-      <c r="I201" t="s">
+      <c r="I262" t="s">
         <v>91</v>
       </c>
-      <c r="J201" s="1">
+      <c r="J262" s="1">
         <v>501000</v>
       </c>
-      <c r="K201" t="s">
+      <c r="K262" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A203" t="s">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A264" t="s">
         <v>138</v>
       </c>
-      <c r="B203" t="s">
+      <c r="B264" t="s">
         <v>139</v>
       </c>
-      <c r="C203" t="s">
+      <c r="C264" t="s">
         <v>126</v>
       </c>
-      <c r="D203" t="s">
+      <c r="D264" t="s">
         <v>140</v>
       </c>
-      <c r="E203" t="s">
+      <c r="E264" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A204">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A265">
         <v>1</v>
       </c>
-      <c r="B204" t="s">
+      <c r="B265" t="s">
         <v>205</v>
       </c>
-      <c r="C204" t="s">
+      <c r="C265" t="s">
         <v>87</v>
       </c>
-      <c r="D204" s="1">
+      <c r="D265" s="1">
         <v>10090000</v>
       </c>
-      <c r="E204" s="1">
+      <c r="E265" s="1">
         <v>23785000</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A205">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A266">
         <v>2</v>
       </c>
-      <c r="B205" t="s">
+      <c r="B266" t="s">
         <v>143</v>
       </c>
-      <c r="C205" t="s">
+      <c r="C266" t="s">
         <v>100</v>
       </c>
-      <c r="D205" s="1">
+      <c r="D266" s="1">
         <v>5221000</v>
       </c>
-      <c r="E205" s="1">
+      <c r="E266" s="1">
         <v>15038000</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A206">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A267">
         <v>3</v>
       </c>
-      <c r="B206" t="s">
+      <c r="B267" t="s">
         <v>144</v>
       </c>
-      <c r="C206" t="s">
+      <c r="C267" t="s">
         <v>93</v>
       </c>
-      <c r="D206" s="1">
+      <c r="D267" s="1">
         <v>4047000</v>
       </c>
-      <c r="E206" s="1">
+      <c r="E267" s="1">
         <v>10415000</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A207">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A268">
         <v>4</v>
       </c>
-      <c r="B207" t="s">
+      <c r="B268" t="s">
         <v>145</v>
       </c>
-      <c r="C207" t="s">
+      <c r="C268" t="s">
         <v>78</v>
       </c>
-      <c r="D207" s="1">
+      <c r="D268" s="1">
         <v>2513000</v>
       </c>
-      <c r="E207" s="1">
+      <c r="E268" s="1">
         <v>7038000</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A208">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A269">
         <v>5</v>
       </c>
-      <c r="B208" t="s">
+      <c r="B269" t="s">
         <v>146</v>
       </c>
-      <c r="C208" t="s">
+      <c r="C269" t="s">
         <v>82</v>
       </c>
-      <c r="D208" s="1">
+      <c r="D269" s="1">
         <v>2210000</v>
       </c>
-      <c r="E208" s="1">
+      <c r="E269" s="1">
         <v>6471000</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A209">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A270">
         <v>6</v>
       </c>
-      <c r="B209" t="s">
+      <c r="B270" t="s">
         <v>147</v>
       </c>
-      <c r="C209" t="s">
+      <c r="C270" t="s">
         <v>86</v>
       </c>
-      <c r="D209" s="1">
+      <c r="D270" s="1">
         <v>2031000</v>
       </c>
-      <c r="E209" s="1">
+      <c r="E270" s="1">
         <v>7576000</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A210">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A271">
         <v>7</v>
       </c>
-      <c r="B210" t="s">
+      <c r="B271" t="s">
         <v>148</v>
       </c>
-      <c r="C210" t="s">
+      <c r="C271" t="s">
         <v>92</v>
       </c>
-      <c r="D210" s="1">
+      <c r="D271" s="1">
         <v>1719000</v>
       </c>
-      <c r="E210" s="1">
+      <c r="E271" s="1">
         <v>6948000</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A211">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A272">
         <v>8</v>
       </c>
-      <c r="B211" t="s">
+      <c r="B272" t="s">
         <v>206</v>
       </c>
-      <c r="C211" t="s">
+      <c r="C272" t="s">
         <v>150</v>
       </c>
-      <c r="D211" s="1">
+      <c r="D272" s="1">
         <v>1643000</v>
       </c>
-      <c r="E211" s="1">
+      <c r="E272" s="1">
         <v>9083000</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A212">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A273">
         <v>9</v>
       </c>
-      <c r="B212" t="s">
+      <c r="B273" t="s">
         <v>151</v>
       </c>
-      <c r="C212" t="s">
+      <c r="C273" t="s">
         <v>98</v>
       </c>
-      <c r="D212" s="1">
+      <c r="D273" s="1">
         <v>1480000</v>
       </c>
-      <c r="E212" s="1">
+      <c r="E273" s="1">
         <v>6743000</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A213">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A274">
         <v>10</v>
       </c>
-      <c r="B213" t="s">
+      <c r="B274" t="s">
         <v>152</v>
       </c>
-      <c r="C213" t="s">
+      <c r="C274" t="s">
         <v>104</v>
       </c>
-      <c r="D213" s="1">
+      <c r="D274" s="1">
         <v>1422000</v>
       </c>
-      <c r="E213" s="1">
+      <c r="E274" s="1">
         <v>5942000</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A214">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A275">
         <v>11</v>
       </c>
-      <c r="B214" t="s">
+      <c r="B275" t="s">
         <v>153</v>
       </c>
-      <c r="C214" t="s">
+      <c r="C275" t="s">
         <v>87</v>
       </c>
-      <c r="D214" s="1">
+      <c r="D275" s="1">
         <v>1383000</v>
       </c>
-      <c r="E214" s="1">
+      <c r="E275" s="1">
         <v>4813000</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A215">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A276">
         <v>12</v>
       </c>
-      <c r="B215" t="s">
+      <c r="B276" t="s">
         <v>154</v>
       </c>
-      <c r="C215" t="s">
+      <c r="C276" t="s">
         <v>38</v>
       </c>
-      <c r="D215" s="1">
+      <c r="D276" s="1">
         <v>1369000</v>
       </c>
-      <c r="E215" s="1">
+      <c r="E276" s="1">
         <v>4428000</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A216">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A277">
         <v>13</v>
       </c>
-      <c r="B216" t="s">
+      <c r="B277" t="s">
         <v>155</v>
       </c>
-      <c r="C216" t="s">
+      <c r="C277" t="s">
         <v>93</v>
       </c>
-      <c r="D216" s="1">
+      <c r="D277" s="1">
         <v>1248000</v>
       </c>
-      <c r="E216" s="1">
+      <c r="E277" s="1">
         <v>3327000</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A217">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A278">
         <v>14</v>
       </c>
-      <c r="B217" t="s">
+      <c r="B278" t="s">
         <v>156</v>
       </c>
-      <c r="C217" t="s">
+      <c r="C278" t="s">
         <v>91</v>
       </c>
-      <c r="D217" s="1">
+      <c r="D278" s="1">
         <v>1222000</v>
       </c>
-      <c r="E217" s="1">
+      <c r="E278" s="1">
         <v>3991000</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A218">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A279">
         <v>15</v>
       </c>
-      <c r="B218" t="s">
+      <c r="B279" t="s">
         <v>234</v>
       </c>
-      <c r="C218" t="s">
+      <c r="C279" t="s">
         <v>114</v>
       </c>
-      <c r="D218" s="1">
+      <c r="D279" s="1">
         <v>1206000</v>
       </c>
-      <c r="E218" s="1">
+      <c r="E279" s="1">
         <v>5147000</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A219">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A280">
         <v>16</v>
       </c>
-      <c r="B219" t="s">
+      <c r="B280" t="s">
         <v>157</v>
       </c>
-      <c r="C219" t="s">
+      <c r="C280" t="s">
         <v>96</v>
       </c>
-      <c r="D219" s="1">
+      <c r="D280" s="1">
         <v>1180000</v>
       </c>
-      <c r="E219" t="s">
+      <c r="E280" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A220">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A281">
         <v>17</v>
       </c>
-      <c r="B220" t="s">
+      <c r="B281" t="s">
         <v>199</v>
       </c>
-      <c r="C220" t="s">
+      <c r="C281" t="s">
         <v>101</v>
       </c>
-      <c r="D220" s="1">
+      <c r="D281" s="1">
         <v>1160000</v>
       </c>
-      <c r="E220" s="1">
+      <c r="E281" s="1">
         <v>2252000</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A221">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A282">
         <v>18</v>
       </c>
-      <c r="B221" t="s">
+      <c r="B282" t="s">
         <v>159</v>
       </c>
-      <c r="C221" t="s">
+      <c r="C282" t="s">
         <v>78</v>
       </c>
-      <c r="D221" s="1">
+      <c r="D282" s="1">
         <v>1129000</v>
       </c>
-      <c r="E221" s="1">
+      <c r="E282" s="1">
         <v>3447000</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A222">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A283">
         <v>19</v>
       </c>
-      <c r="B222" t="s">
+      <c r="B283" t="s">
         <v>162</v>
       </c>
-      <c r="C222" t="s">
+      <c r="C283" t="s">
         <v>84</v>
       </c>
-      <c r="D222" s="1">
+      <c r="D283" s="1">
         <v>1091000</v>
       </c>
-      <c r="E222" s="1">
+      <c r="E283" s="1">
         <v>6291000</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A223">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A284">
         <v>20</v>
       </c>
-      <c r="B223" t="s">
+      <c r="B284" t="s">
         <v>236</v>
       </c>
-      <c r="C223" t="s">
+      <c r="C284" t="s">
         <v>80</v>
       </c>
-      <c r="D223" s="1">
+      <c r="D284" s="1">
         <v>1069000</v>
       </c>
-      <c r="E223" s="1">
+      <c r="E284" s="1">
         <v>4405000</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A224">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A285">
         <v>21</v>
       </c>
-      <c r="B224" t="s">
+      <c r="B285" t="s">
         <v>200</v>
       </c>
-      <c r="C224" t="s">
+      <c r="C285" t="s">
         <v>103</v>
       </c>
-      <c r="D224" s="1">
+      <c r="D285" s="1">
         <v>1044000</v>
       </c>
-      <c r="E224" s="1">
+      <c r="E285" s="1">
         <v>1836000</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A225">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A286">
         <v>22</v>
       </c>
-      <c r="B225" t="s">
+      <c r="B286" t="s">
         <v>237</v>
       </c>
-      <c r="C225" t="s">
+      <c r="C286" t="s">
         <v>79</v>
       </c>
-      <c r="D225" s="1">
+      <c r="D286" s="1">
         <v>1021000</v>
       </c>
-      <c r="E225" t="s">
+      <c r="E286" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A226">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A287">
         <v>23</v>
       </c>
-      <c r="B226" t="s">
+      <c r="B287" t="s">
         <v>239</v>
       </c>
-      <c r="C226" t="s">
+      <c r="C287" t="s">
         <v>86</v>
       </c>
-      <c r="D226" s="1">
+      <c r="D287" s="1">
         <v>1001000</v>
       </c>
-      <c r="E226" s="1">
+      <c r="E287" s="1">
         <v>4940000</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A227">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A288">
         <v>24</v>
       </c>
-      <c r="B227" t="s">
+      <c r="B288" t="s">
         <v>240</v>
       </c>
-      <c r="C227" t="s">
+      <c r="C288" t="s">
         <v>94</v>
       </c>
-      <c r="D227" s="1">
+      <c r="D288" s="1">
         <v>983000</v>
       </c>
-      <c r="E227" s="1">
+      <c r="E288" s="1">
         <v>2297000</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A228">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A289">
         <v>25</v>
       </c>
-      <c r="B228" t="s">
+      <c r="B289" t="s">
         <v>263</v>
       </c>
-      <c r="C228" t="s">
+      <c r="C289" t="s">
         <v>86</v>
       </c>
-      <c r="D228" s="1">
+      <c r="D289" s="1">
         <v>969000</v>
       </c>
-      <c r="E228" s="1">
+      <c r="E289" s="1">
         <v>2321000</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A229">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A290">
         <v>26</v>
       </c>
-      <c r="B229" t="s">
+      <c r="B290" t="s">
         <v>227</v>
       </c>
-      <c r="C229" t="s">
+      <c r="C290" t="s">
         <v>94</v>
       </c>
-      <c r="D229" s="1">
+      <c r="D290" s="1">
         <v>925000</v>
       </c>
-      <c r="E229" s="1">
+      <c r="E290" s="1">
         <v>2929000</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A230">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A291">
         <v>27</v>
       </c>
-      <c r="B230" t="s">
+      <c r="B291" t="s">
         <v>228</v>
       </c>
-      <c r="C230" t="s">
+      <c r="C291" t="s">
         <v>99</v>
       </c>
-      <c r="D230" s="1">
+      <c r="D291" s="1">
         <v>903000</v>
       </c>
-      <c r="E230" s="1">
+      <c r="E291" s="1">
         <v>3562000</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A231">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A292">
         <v>28</v>
       </c>
-      <c r="B231" t="s">
+      <c r="B292" t="s">
         <v>229</v>
       </c>
-      <c r="C231" t="s">
+      <c r="C292" t="s">
         <v>98</v>
       </c>
-      <c r="D231" s="1">
+      <c r="D292" s="1">
         <v>891000</v>
       </c>
-      <c r="E231" s="1">
+      <c r="E292" s="1">
         <v>3421000</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A232">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A293">
         <v>29</v>
       </c>
-      <c r="B232" t="s">
+      <c r="B293" t="s">
         <v>168</v>
       </c>
-      <c r="C232" t="s">
+      <c r="C293" t="s">
         <v>88</v>
       </c>
-      <c r="D232" s="1">
+      <c r="D293" s="1">
         <v>883000</v>
       </c>
-      <c r="E232" s="1">
+      <c r="E293" s="1">
         <v>3161000</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A233">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A294">
         <v>30</v>
       </c>
-      <c r="B233" t="s">
+      <c r="B294" t="s">
         <v>194</v>
       </c>
-      <c r="C233" t="s">
+      <c r="C294" t="s">
         <v>115</v>
       </c>
-      <c r="D233" s="1">
+      <c r="D294" s="1">
         <v>877000</v>
       </c>
-      <c r="E233" s="1">
+      <c r="E294" s="1">
         <v>2473000</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A234">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A295">
         <v>31</v>
       </c>
-      <c r="B234" t="s">
+      <c r="B295" t="s">
         <v>214</v>
       </c>
-      <c r="C234" t="s">
+      <c r="C295" t="s">
         <v>95</v>
       </c>
-      <c r="D234" s="1">
+      <c r="D295" s="1">
         <v>851000</v>
       </c>
-      <c r="E234" s="1">
+      <c r="E295" s="1">
         <v>2329000</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A235">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A296">
         <v>32</v>
       </c>
-      <c r="B235" t="s">
+      <c r="B296" t="s">
         <v>203</v>
       </c>
-      <c r="C235" t="s">
+      <c r="C296" t="s">
         <v>103</v>
       </c>
-      <c r="D235" s="1">
+      <c r="D296" s="1">
         <v>824000</v>
       </c>
-      <c r="E235" s="1">
+      <c r="E296" s="1">
         <v>1651000</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A236">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A297">
         <v>33</v>
       </c>
-      <c r="B236" t="s">
+      <c r="B297" t="s">
         <v>204</v>
       </c>
-      <c r="C236" t="s">
+      <c r="C297" t="s">
         <v>195</v>
       </c>
-      <c r="D236" s="1">
+      <c r="D297" s="1">
         <v>802000</v>
       </c>
-      <c r="E236" s="1">
+      <c r="E297" s="1">
         <v>2547000</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A237">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A298">
         <v>34</v>
       </c>
-      <c r="B237" t="s">
+      <c r="B298" t="s">
         <v>164</v>
       </c>
-      <c r="C237" t="s">
+      <c r="C298" t="s">
         <v>100</v>
       </c>
-      <c r="D237" s="1">
+      <c r="D298" s="1">
         <v>788000</v>
       </c>
-      <c r="E237" s="1">
+      <c r="E298" s="1">
         <v>5312000</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A238">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A299">
         <v>35</v>
       </c>
-      <c r="B238" t="s">
+      <c r="B299" t="s">
         <v>165</v>
       </c>
-      <c r="C238" t="s">
+      <c r="C299" t="s">
         <v>83</v>
       </c>
-      <c r="D238" s="1">
+      <c r="D299" s="1">
         <v>765000</v>
       </c>
-      <c r="E238" s="1">
+      <c r="E299" s="1">
         <v>1252000</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A239">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A300">
         <v>36</v>
       </c>
-      <c r="B239" t="s">
+      <c r="B300" t="s">
         <v>158</v>
       </c>
-      <c r="C239" t="s">
+      <c r="C300" t="s">
         <v>101</v>
       </c>
-      <c r="D239" s="1">
+      <c r="D300" s="1">
         <v>741000</v>
       </c>
-      <c r="E239" s="1">
+      <c r="E300" s="1">
         <v>1782000</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A240">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A301">
         <v>37</v>
       </c>
-      <c r="B240" t="s">
+      <c r="B301" t="s">
         <v>166</v>
       </c>
-      <c r="C240" t="s">
+      <c r="C301" t="s">
         <v>93</v>
       </c>
-      <c r="D240" s="1">
+      <c r="D301" s="1">
         <v>729000</v>
       </c>
-      <c r="E240" s="1">
+      <c r="E301" s="1">
         <v>2175000</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A241">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A302">
         <v>38</v>
       </c>
-      <c r="B241" t="s">
+      <c r="B302" t="s">
         <v>264</v>
       </c>
-      <c r="C241" t="s">
+      <c r="C302" t="s">
         <v>88</v>
       </c>
-      <c r="D241" s="1">
+      <c r="D302" s="1">
         <v>707000</v>
       </c>
-      <c r="E241" s="1">
+      <c r="E302" s="1">
         <v>2434000</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A242">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A303">
         <v>39</v>
       </c>
-      <c r="B242" t="s">
+      <c r="B303" t="s">
         <v>215</v>
       </c>
-      <c r="C242" t="s">
+      <c r="C303" t="s">
         <v>107</v>
       </c>
-      <c r="D242" s="1">
+      <c r="D303" s="1">
         <v>682000</v>
       </c>
-      <c r="E242" s="1">
+      <c r="E303" s="1">
         <v>1221000</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A243">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A304">
         <v>40</v>
       </c>
-      <c r="B243" t="s">
+      <c r="B304" t="s">
         <v>216</v>
       </c>
-      <c r="C243" t="s">
+      <c r="C304" t="s">
         <v>98</v>
       </c>
-      <c r="D243" s="1">
+      <c r="D304" s="1">
         <v>668000</v>
       </c>
-      <c r="E243" s="1">
+      <c r="E304" s="1">
         <v>1814000</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A244">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A305">
         <v>41</v>
       </c>
-      <c r="B244" t="s">
+      <c r="B305" t="s">
         <v>169</v>
       </c>
-      <c r="C244" t="s">
+      <c r="C305" t="s">
         <v>94</v>
       </c>
-      <c r="D244" s="1">
+      <c r="D305" s="1">
         <v>656000</v>
       </c>
-      <c r="E244" s="1">
+      <c r="E305" s="1">
         <v>1567000</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A245">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A306">
         <v>42</v>
       </c>
-      <c r="B245" t="s">
+      <c r="B306" t="s">
         <v>217</v>
       </c>
-      <c r="C245" t="s">
+      <c r="C306" t="s">
         <v>195</v>
       </c>
-      <c r="D245" s="1">
+      <c r="D306" s="1">
         <v>634000</v>
       </c>
-      <c r="E245" s="1">
+      <c r="E306" s="1">
         <v>1341000</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A246">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A307">
         <v>43</v>
       </c>
-      <c r="B246" t="s">
+      <c r="B307" t="s">
         <v>230</v>
       </c>
-      <c r="C246" t="s">
+      <c r="C307" t="s">
         <v>87</v>
       </c>
-      <c r="D246" s="1">
+      <c r="D307" s="1">
         <v>606000</v>
       </c>
-      <c r="E246" s="1">
+      <c r="E307" s="1">
         <v>1638000</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A247">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A308">
         <v>44</v>
       </c>
-      <c r="B247" t="s">
+      <c r="B308" t="s">
         <v>218</v>
       </c>
-      <c r="C247" t="s">
+      <c r="C308" t="s">
         <v>79</v>
       </c>
-      <c r="D247" s="1">
+      <c r="D308" s="1">
         <v>584000</v>
       </c>
-      <c r="E247" t="s">
+      <c r="E308" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A248">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A309">
         <v>45</v>
       </c>
-      <c r="B248" t="s">
+      <c r="B309" t="s">
         <v>265</v>
       </c>
-      <c r="C248" t="s">
+      <c r="C309" t="s">
         <v>114</v>
       </c>
-      <c r="D248" s="1">
+      <c r="D309" s="1">
         <v>565000</v>
       </c>
-      <c r="E248" s="1">
+      <c r="E309" s="1">
         <v>1641000</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A249">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A310">
         <v>46</v>
       </c>
-      <c r="B249" t="s">
+      <c r="B310" t="s">
         <v>274</v>
       </c>
-      <c r="C249" t="s">
+      <c r="C310" t="s">
         <v>262</v>
       </c>
-      <c r="D249" s="1">
+      <c r="D310" s="1">
         <v>543000</v>
       </c>
-      <c r="E249" s="1">
+      <c r="E310" s="1">
         <v>848000</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A250">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A311">
         <v>47</v>
       </c>
-      <c r="B250" t="s">
+      <c r="B311" t="s">
         <v>220</v>
       </c>
-      <c r="C250" t="s">
+      <c r="C311" t="s">
         <v>80</v>
       </c>
-      <c r="D250" s="1">
+      <c r="D311" s="1">
         <v>524000</v>
       </c>
-      <c r="E250" s="1">
+      <c r="E311" s="1">
         <v>1051000</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A251">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A312">
         <v>48</v>
       </c>
-      <c r="B251" t="s">
+      <c r="B312" t="s">
         <v>269</v>
       </c>
-      <c r="C251" t="s">
+      <c r="C312" t="s">
         <v>95</v>
       </c>
-      <c r="D251" s="1">
+      <c r="D312" s="1">
         <v>517000</v>
       </c>
-      <c r="E251" s="1">
+      <c r="E312" s="1">
         <v>1231000</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A252">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A313">
         <v>49</v>
       </c>
-      <c r="B252" t="s">
+      <c r="B313" t="s">
         <v>224</v>
       </c>
-      <c r="C252" t="s">
+      <c r="C313" t="s">
         <v>91</v>
       </c>
-      <c r="D252" s="1">
+      <c r="D313" s="1">
         <v>501000</v>
       </c>
-      <c r="E252" t="s">
+      <c r="E313" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A253">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A314">
         <v>50</v>
       </c>
-      <c r="B253" t="s">
+      <c r="B314" t="s">
         <v>231</v>
       </c>
-      <c r="C253" t="s">
+      <c r="C314" t="s">
         <v>91</v>
       </c>
-      <c r="D253" s="1">
+      <c r="D314" s="1">
         <v>479000</v>
       </c>
-      <c r="E253" s="1">
+      <c r="E314" s="1">
         <v>993000</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A254">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A315">
         <v>51</v>
       </c>
-      <c r="B254" t="s">
+      <c r="B315" t="s">
         <v>267</v>
       </c>
-      <c r="C254" t="s">
+      <c r="C315" t="s">
         <v>80</v>
       </c>
-      <c r="D254" s="1">
+      <c r="D315" s="1">
         <v>462000</v>
       </c>
-      <c r="E254" s="1">
+      <c r="E315" s="1">
         <v>1001000</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A255">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A316">
         <v>52</v>
       </c>
-      <c r="B255" t="s">
+      <c r="B316" t="s">
         <v>271</v>
       </c>
-      <c r="C255" t="s">
+      <c r="C316" t="s">
         <v>232</v>
       </c>
-      <c r="D255" s="1">
+      <c r="D316" s="1">
         <v>460000</v>
       </c>
-      <c r="E255" t="s">
+      <c r="E316" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A256">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A317">
         <v>53</v>
       </c>
-      <c r="B256" t="s">
+      <c r="B317" t="s">
         <v>266</v>
       </c>
-      <c r="C256" t="s">
+      <c r="C317" t="s">
         <v>103</v>
       </c>
-      <c r="D256" s="1">
+      <c r="D317" s="1">
         <v>439000</v>
       </c>
-      <c r="E256" s="1">
+      <c r="E317" s="1">
         <v>904000</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A257">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A318">
         <v>54</v>
       </c>
-      <c r="B257" t="s">
+      <c r="B318" t="s">
         <v>233</v>
       </c>
-      <c r="C257" t="s">
+      <c r="C318" t="s">
         <v>226</v>
       </c>
-      <c r="D257" s="1">
+      <c r="D318" s="1">
         <v>429000</v>
       </c>
-      <c r="E257" s="1">
+      <c r="E318" s="1">
         <v>770000</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A258">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A319">
         <v>55</v>
       </c>
-      <c r="B258" t="s">
+      <c r="B319" t="s">
         <v>273</v>
       </c>
-      <c r="C258" t="s">
+      <c r="C319" t="s">
         <v>103</v>
       </c>
-      <c r="D258" s="1">
+      <c r="D319" s="1">
         <v>403000</v>
       </c>
-      <c r="E258" s="1">
+      <c r="E319" s="1">
         <v>739000</v>
       </c>
     </row>

--- a/obsidian-notes/spreadsheets/area.xlsx
+++ b/obsidian-notes/spreadsheets/area.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sharm\iCloudDrive\iCloud~md~obsidian\Ishan's notes\Spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CEE01C2-8E18-48C2-B748-247D7AA60219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D1CA619-8B95-4E17-8449-2A093B69DA72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" activeTab="2" xr2:uid="{94B94BC7-FBC8-4BAC-A974-CA3E4662C848}"/>
   </bookViews>
@@ -1009,15 +1009,15 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1347,10 +1347,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="28"/>
+      <c r="B1" s="34"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
@@ -1914,11 +1914,11 @@
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="28" t="s">
+      <c r="A55" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="B55" s="28"/>
-      <c r="C55" s="28"/>
+      <c r="B55" s="34"/>
+      <c r="C55" s="34"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
@@ -2082,8 +2082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C745E12-030D-4421-A6DC-982053D4A77E}">
   <dimension ref="A1:N319"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A131" zoomScale="93" workbookViewId="0">
-      <selection activeCell="I147" sqref="I147"/>
+    <sheetView tabSelected="1" topLeftCell="A122" zoomScale="93" workbookViewId="0">
+      <selection activeCell="K132" sqref="K132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -4245,19 +4245,19 @@
       <c r="A101" t="s">
         <v>77</v>
       </c>
-      <c r="B101" s="29">
+      <c r="B101" s="28">
         <v>0.82099999999999995</v>
       </c>
-      <c r="C101" s="29">
+      <c r="C101" s="28">
         <v>0.14899999999999999</v>
       </c>
-      <c r="D101" s="29">
+      <c r="D101" s="28">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="E101" s="29">
+      <c r="E101" s="28">
         <v>1E-3</v>
       </c>
-      <c r="F101" s="29">
+      <c r="F101" s="28">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="G101" s="16">
@@ -4289,19 +4289,19 @@
       <c r="A102" t="s">
         <v>78</v>
       </c>
-      <c r="B102" s="29">
+      <c r="B102" s="28">
         <v>0.90400000000000003</v>
       </c>
-      <c r="C102" s="29">
+      <c r="C102" s="28">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="D102" s="29">
+      <c r="D102" s="28">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="E102" s="29">
+      <c r="E102" s="28">
         <v>1E-3</v>
       </c>
-      <c r="F102" s="29">
+      <c r="F102" s="28">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="G102" s="16">
@@ -4333,19 +4333,19 @@
       <c r="A103" t="s">
         <v>79</v>
       </c>
-      <c r="B103" s="29">
+      <c r="B103" s="28">
         <v>0.88800000000000001</v>
       </c>
-      <c r="C103" s="29">
+      <c r="C103" s="28">
         <v>6.3E-2</v>
       </c>
-      <c r="D103" s="29">
+      <c r="D103" s="28">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="E103" s="29">
+      <c r="E103" s="28">
         <v>1E-3</v>
       </c>
-      <c r="F103" s="29">
+      <c r="F103" s="28">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="G103" s="16">
@@ -4377,19 +4377,19 @@
       <c r="A104" t="s">
         <v>80</v>
       </c>
-      <c r="B104" s="29">
+      <c r="B104" s="28">
         <v>0.441</v>
       </c>
-      <c r="C104" s="29">
+      <c r="C104" s="28">
         <v>0.51400000000000001</v>
       </c>
-      <c r="D104" s="29">
+      <c r="D104" s="28">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="E104" s="29">
+      <c r="E104" s="28">
         <v>2E-3</v>
       </c>
-      <c r="F104" s="29">
+      <c r="F104" s="28">
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="G104" s="16">
@@ -4421,19 +4421,19 @@
       <c r="A105" t="s">
         <v>81</v>
       </c>
-      <c r="B105" s="29">
+      <c r="B105" s="28">
         <v>0.873</v>
       </c>
-      <c r="C105" s="29">
+      <c r="C105" s="28">
         <v>3.9E-2</v>
       </c>
-      <c r="D105" s="29">
+      <c r="D105" s="28">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="E105" s="29">
+      <c r="E105" s="28">
         <v>1E-3</v>
       </c>
-      <c r="F105" s="29">
+      <c r="F105" s="28">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="G105" s="16">
@@ -4465,19 +4465,19 @@
       <c r="A106" t="s">
         <v>82</v>
       </c>
-      <c r="B106" s="29">
+      <c r="B106" s="28">
         <v>0.82699999999999996</v>
       </c>
-      <c r="C106" s="29">
+      <c r="C106" s="28">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="D106" s="29">
+      <c r="D106" s="28">
         <v>9.0999999999999998E-2</v>
       </c>
-      <c r="E106" s="29">
+      <c r="E106" s="28">
         <v>2E-3</v>
       </c>
-      <c r="F106" s="29">
+      <c r="F106" s="28">
         <v>1.4E-2</v>
       </c>
       <c r="G106" s="16">
@@ -4509,19 +4509,19 @@
       <c r="A107" t="s">
         <v>83</v>
       </c>
-      <c r="B107" s="29">
+      <c r="B107" s="28">
         <v>0.68700000000000006</v>
       </c>
-      <c r="C107" s="29">
+      <c r="C107" s="28">
         <v>0.27700000000000002</v>
       </c>
-      <c r="D107" s="29">
+      <c r="D107" s="28">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="E107" s="29">
+      <c r="E107" s="28">
         <v>1E-3</v>
       </c>
-      <c r="F107" s="29">
+      <c r="F107" s="28">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="G107" s="16">
@@ -4553,19 +4553,19 @@
       <c r="A108" t="s">
         <v>84</v>
       </c>
-      <c r="B108" s="29">
+      <c r="B108" s="28">
         <v>0.31</v>
       </c>
-      <c r="C108" s="29">
+      <c r="C108" s="28">
         <v>0.63300000000000001</v>
       </c>
-      <c r="D108" s="29">
+      <c r="D108" s="28">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="E108" s="29">
+      <c r="E108" s="28">
         <v>1E-3</v>
       </c>
-      <c r="F108" s="29">
+      <c r="F108" s="28">
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="G108" s="16">
@@ -4597,19 +4597,19 @@
       <c r="A109" t="s">
         <v>85</v>
       </c>
-      <c r="B109" s="29">
+      <c r="B109" s="28">
         <v>0.89400000000000002</v>
       </c>
-      <c r="C109" s="29">
+      <c r="C109" s="28">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="D109" s="29">
+      <c r="D109" s="28">
         <v>6.3E-2</v>
       </c>
-      <c r="E109" s="29">
+      <c r="E109" s="28">
         <v>1E-3</v>
       </c>
-      <c r="F109" s="29">
+      <c r="F109" s="28">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="G109" s="16">
@@ -4641,19 +4641,19 @@
       <c r="A110" t="s">
         <v>86</v>
       </c>
-      <c r="B110" s="29">
+      <c r="B110" s="28">
         <v>0.504</v>
       </c>
-      <c r="C110" s="29">
+      <c r="C110" s="28">
         <v>0.436</v>
       </c>
-      <c r="D110" s="29">
+      <c r="D110" s="28">
         <v>4.7E-2</v>
       </c>
-      <c r="E110" s="29">
+      <c r="E110" s="28">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F110" s="29">
+      <c r="F110" s="28">
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="G110" s="16">
@@ -4685,19 +4685,19 @@
       <c r="A111" t="s">
         <v>87</v>
       </c>
-      <c r="B111" s="29">
+      <c r="B111" s="28">
         <v>0.78700000000000003</v>
       </c>
-      <c r="C111" s="29">
+      <c r="C111" s="28">
         <v>0.11899999999999999</v>
       </c>
-      <c r="D111" s="29">
+      <c r="D111" s="28">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="E111" s="29">
+      <c r="E111" s="28">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="F111" s="29">
+      <c r="F111" s="28">
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="G111" s="16">
@@ -4729,19 +4729,19 @@
       <c r="A112" t="s">
         <v>88</v>
       </c>
-      <c r="B112" s="29">
+      <c r="B112" s="28">
         <v>0.52800000000000002</v>
       </c>
-      <c r="C112" s="29">
+      <c r="C112" s="28">
         <v>0.42399999999999999</v>
       </c>
-      <c r="D112" s="29">
+      <c r="D112" s="28">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="E112" s="29">
+      <c r="E112" s="28">
         <v>1.4E-2</v>
       </c>
-      <c r="F112" s="29">
+      <c r="F112" s="28">
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="G112" s="16">
@@ -4773,19 +4773,19 @@
       <c r="A113" t="s">
         <v>89</v>
       </c>
-      <c r="B113" s="29">
+      <c r="B113" s="28">
         <v>0.83799999999999997</v>
       </c>
-      <c r="C113" s="29">
+      <c r="C113" s="28">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="D113" s="29">
+      <c r="D113" s="28">
         <v>0.112</v>
       </c>
-      <c r="E113" s="29">
+      <c r="E113" s="28">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F113" s="29">
+      <c r="F113" s="28">
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="G113" s="16">
@@ -4817,19 +4817,19 @@
       <c r="A114" t="s">
         <v>90</v>
       </c>
-      <c r="B114" s="29">
+      <c r="B114" s="28">
         <v>0.96299999999999997</v>
       </c>
-      <c r="C114" s="29">
+      <c r="C114" s="28">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="D114" s="29">
+      <c r="D114" s="28">
         <v>2.4E-2</v>
       </c>
-      <c r="E114" s="29">
+      <c r="E114" s="28">
         <v>2E-3</v>
       </c>
-      <c r="F114" s="29">
+      <c r="F114" s="28">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="G114" s="16">
@@ -4861,19 +4861,19 @@
       <c r="A115" t="s">
         <v>91</v>
       </c>
-      <c r="B115" s="29">
+      <c r="B115" s="28">
         <v>0.71</v>
       </c>
-      <c r="C115" s="29">
+      <c r="C115" s="28">
         <v>0.223</v>
       </c>
-      <c r="D115" s="29">
+      <c r="D115" s="28">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="E115" s="29">
+      <c r="E115" s="28">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F115" s="29">
+      <c r="F115" s="28">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="G115" s="16">
@@ -4905,19 +4905,19 @@
       <c r="A116" t="s">
         <v>92</v>
       </c>
-      <c r="B116" s="29">
+      <c r="B116" s="28">
         <v>0.59599999999999997</v>
       </c>
-      <c r="C116" s="29">
+      <c r="C116" s="28">
         <v>0.30299999999999999</v>
       </c>
-      <c r="D116" s="29">
+      <c r="D116" s="28">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="E116" s="29">
+      <c r="E116" s="28">
         <v>2E-3</v>
       </c>
-      <c r="F116" s="29">
+      <c r="F116" s="28">
         <v>1.6E-2</v>
       </c>
       <c r="G116" s="16">
@@ -4949,19 +4949,19 @@
       <c r="A117" t="s">
         <v>93</v>
       </c>
-      <c r="B117" s="29">
+      <c r="B117" s="28">
         <v>0.81100000000000005</v>
       </c>
-      <c r="C117" s="29">
+      <c r="C117" s="28">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="D117" s="29">
+      <c r="D117" s="28">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="E117" s="29">
+      <c r="E117" s="28">
         <v>2E-3</v>
       </c>
-      <c r="F117" s="29">
+      <c r="F117" s="28">
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="G117" s="16">
@@ -4993,19 +4993,19 @@
       <c r="A118" t="s">
         <v>94</v>
       </c>
-      <c r="B118" s="29">
+      <c r="B118" s="28">
         <v>0.86899999999999999</v>
       </c>
-      <c r="C118" s="29">
+      <c r="C118" s="28">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="D118" s="29">
+      <c r="D118" s="28">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="E118" s="29">
+      <c r="E118" s="28">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="F118" s="29">
+      <c r="F118" s="28">
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="G118" s="16">
@@ -5037,19 +5037,19 @@
       <c r="A119" t="s">
         <v>95</v>
       </c>
-      <c r="B119" s="29">
+      <c r="B119" s="28">
         <v>0.48599999999999999</v>
       </c>
-      <c r="C119" s="29">
+      <c r="C119" s="28">
         <v>0.443</v>
       </c>
-      <c r="D119" s="29">
+      <c r="D119" s="28">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="E119" s="29">
+      <c r="E119" s="28">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F119" s="29">
+      <c r="F119" s="28">
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="G119" s="16">
@@ -5081,19 +5081,19 @@
       <c r="A120" t="s">
         <v>96</v>
       </c>
-      <c r="B120" s="29">
+      <c r="B120" s="28">
         <v>0.86399999999999999</v>
       </c>
-      <c r="C120" s="29">
+      <c r="C120" s="28">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="D120" s="29">
+      <c r="D120" s="28">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="E120" s="29">
+      <c r="E120" s="28">
         <v>1E-3</v>
       </c>
-      <c r="F120" s="29">
+      <c r="F120" s="28">
         <v>1.4E-2</v>
       </c>
       <c r="G120" s="16">
@@ -5125,19 +5125,19 @@
       <c r="A121" t="s">
         <v>97</v>
       </c>
-      <c r="B121" s="29">
+      <c r="B121" s="28">
         <v>0.41199999999999998</v>
       </c>
-      <c r="C121" s="29">
+      <c r="C121" s="28">
         <v>0.57099999999999995</v>
       </c>
-      <c r="D121" s="29">
+      <c r="D121" s="28">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="E121" s="29">
+      <c r="E121" s="28">
         <v>2E-3</v>
       </c>
-      <c r="F121" s="29">
+      <c r="F121" s="28">
         <v>1.2E-2</v>
       </c>
       <c r="G121" s="16">
@@ -5169,19 +5169,19 @@
       <c r="A122" t="s">
         <v>98</v>
       </c>
-      <c r="B122" s="29">
+      <c r="B122" s="28">
         <v>0.30099999999999999</v>
       </c>
-      <c r="C122" s="29">
+      <c r="C122" s="28">
         <v>0.55700000000000005</v>
       </c>
-      <c r="D122" s="29">
+      <c r="D122" s="28">
         <v>9.0999999999999998E-2</v>
       </c>
-      <c r="E122" s="29">
+      <c r="E122" s="28">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="F122" s="29">
+      <c r="F122" s="28">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="G122" s="16">
@@ -5213,19 +5213,19 @@
       <c r="A123" t="s">
         <v>99</v>
       </c>
-      <c r="B123" s="29">
+      <c r="B123" s="28">
         <v>0.84899999999999998</v>
       </c>
-      <c r="C123" s="29">
+      <c r="C123" s="28">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="D123" s="29">
+      <c r="D123" s="28">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="E123" s="29">
+      <c r="E123" s="28">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="F123" s="29">
+      <c r="F123" s="28">
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="G123" s="16">
@@ -5257,19 +5257,19 @@
       <c r="A124" t="s">
         <v>100</v>
       </c>
-      <c r="B124" s="29">
+      <c r="B124" s="28">
         <v>0.64300000000000002</v>
       </c>
-      <c r="C124" s="29">
+      <c r="C124" s="28">
         <v>0.26400000000000001</v>
       </c>
-      <c r="D124" s="29">
+      <c r="D124" s="28">
         <v>6.3E-2</v>
       </c>
-      <c r="E124" s="29">
+      <c r="E124" s="28">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F124" s="29">
+      <c r="F124" s="28">
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="G124" s="16">
@@ -5301,19 +5301,19 @@
       <c r="A125" t="s">
         <v>101</v>
       </c>
-      <c r="B125" s="29">
+      <c r="B125" s="28">
         <v>0.89300000000000002</v>
       </c>
-      <c r="C125" s="29">
+      <c r="C125" s="28">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="D125" s="29">
+      <c r="D125" s="28">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="E125" s="29">
+      <c r="E125" s="28">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="F125" s="29">
+      <c r="F125" s="28">
         <v>1.4E-2</v>
       </c>
       <c r="G125" s="16">
@@ -5345,19 +5345,19 @@
       <c r="A126" t="s">
         <v>102</v>
       </c>
-      <c r="B126" s="29">
+      <c r="B126" s="28">
         <v>0.59599999999999997</v>
       </c>
-      <c r="C126" s="29">
+      <c r="C126" s="28">
         <v>0.34300000000000003</v>
       </c>
-      <c r="D126" s="29">
+      <c r="D126" s="28">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="E126" s="29">
+      <c r="E126" s="28">
         <v>1E-3</v>
       </c>
-      <c r="F126" s="29">
+      <c r="F126" s="28">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="G126" s="16">
@@ -5389,19 +5389,19 @@
       <c r="A127" t="s">
         <v>103</v>
       </c>
-      <c r="B127" s="29">
+      <c r="B127" s="28">
         <v>0.63600000000000001</v>
       </c>
-      <c r="C127" s="29">
+      <c r="C127" s="28">
         <v>0.24199999999999999</v>
       </c>
-      <c r="D127" s="29">
+      <c r="D127" s="28">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="E127" s="29">
+      <c r="E127" s="28">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="F127" s="29">
+      <c r="F127" s="28">
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="G127" s="16">
@@ -5433,19 +5433,19 @@
       <c r="A128" t="s">
         <v>232</v>
       </c>
-      <c r="B128" s="29">
+      <c r="B128" s="28">
         <v>0.85699999999999998</v>
       </c>
-      <c r="C128" s="29">
+      <c r="C128" s="28">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="D128" s="29">
+      <c r="D128" s="28">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="E128" s="29">
+      <c r="E128" s="28">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="F128" s="29">
+      <c r="F128" s="28">
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="G128" s="16">
@@ -5477,19 +5477,19 @@
       <c r="A129" t="s">
         <v>104</v>
       </c>
-      <c r="B129" s="29">
+      <c r="B129" s="28">
         <v>0.83499999999999996</v>
       </c>
-      <c r="C129" s="29">
+      <c r="C129" s="28">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="D129" s="29">
+      <c r="D129" s="28">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="E129" s="29">
+      <c r="E129" s="28">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F129" s="29">
+      <c r="F129" s="28">
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="G129" s="16">
@@ -5521,19 +5521,19 @@
       <c r="A130" t="s">
         <v>262</v>
       </c>
-      <c r="B130" s="29">
+      <c r="B130" s="28">
         <v>0.873</v>
       </c>
-      <c r="C130" s="29">
+      <c r="C130" s="28">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D130" s="29">
+      <c r="D130" s="28">
         <v>0.02</v>
       </c>
-      <c r="E130" s="29">
+      <c r="E130" s="28">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="F130" s="29">
+      <c r="F130" s="28">
         <v>1.9E-2</v>
       </c>
       <c r="G130" s="16">
@@ -5565,19 +5565,19 @@
       <c r="A131" t="s">
         <v>195</v>
       </c>
-      <c r="B131" s="29">
+      <c r="B131" s="28">
         <v>0.80100000000000005</v>
       </c>
-      <c r="C131" s="29">
+      <c r="C131" s="28">
         <v>0.124</v>
       </c>
-      <c r="D131" s="29">
+      <c r="D131" s="28">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="E131" s="29">
+      <c r="E131" s="28">
         <v>2E-3</v>
       </c>
-      <c r="F131" s="29">
+      <c r="F131" s="28">
         <v>1.6E-2</v>
       </c>
       <c r="G131" s="16">
@@ -5609,19 +5609,19 @@
       <c r="A132" t="s">
         <v>279</v>
       </c>
-      <c r="B132" s="29">
+      <c r="B132" s="28">
         <v>0.94299999999999995</v>
       </c>
-      <c r="C132" s="29">
+      <c r="C132" s="28">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="D132" s="29">
+      <c r="D132" s="28">
         <v>0.01</v>
       </c>
-      <c r="E132" s="29">
+      <c r="E132" s="28">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="F132" s="29">
+      <c r="F132" s="28">
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="G132" s="16">
@@ -5653,19 +5653,19 @@
       <c r="A133" t="s">
         <v>38</v>
       </c>
-      <c r="B133" s="29">
+      <c r="B133" s="28">
         <v>0.55900000000000005</v>
       </c>
-      <c r="C133" s="29">
+      <c r="C133" s="28">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="D133" s="29">
+      <c r="D133" s="28">
         <v>0.35399999999999998</v>
       </c>
-      <c r="E133" s="29">
+      <c r="E133" s="28">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F133" s="29">
+      <c r="F133" s="28">
         <v>6.2E-2</v>
       </c>
       <c r="G133" s="16">
@@ -5697,19 +5697,19 @@
       <c r="A134" t="s">
         <v>226</v>
       </c>
-      <c r="B134" s="29">
+      <c r="B134" s="28">
         <v>0.93</v>
       </c>
-      <c r="C134" s="29">
+      <c r="C134" s="28">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="D134" s="29">
+      <c r="D134" s="28">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="E134" s="29">
+      <c r="E134" s="28">
         <v>1E-3</v>
       </c>
-      <c r="F134" s="29">
+      <c r="F134" s="28">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="G134" s="16">
@@ -5741,19 +5741,19 @@
       <c r="A135" t="s">
         <v>107</v>
       </c>
-      <c r="B135" s="29">
+      <c r="B135" s="28">
         <v>0.89500000000000002</v>
       </c>
-      <c r="C135" s="29">
+      <c r="C135" s="28">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="D135" s="29">
+      <c r="D135" s="28">
         <v>3.9E-2</v>
       </c>
-      <c r="E135" s="29">
+      <c r="E135" s="28">
         <v>2E-3</v>
       </c>
-      <c r="F135" s="29">
+      <c r="F135" s="28">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="G135" s="16">
@@ -5785,19 +5785,19 @@
       <c r="A136" t="s">
         <v>114</v>
       </c>
-      <c r="B136" s="29">
+      <c r="B136" s="28">
         <v>0.69299999999999995</v>
       </c>
-      <c r="C136" s="29">
+      <c r="C136" s="28">
         <v>0.157</v>
       </c>
-      <c r="D136" s="29">
+      <c r="D136" s="28">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="E136" s="29">
+      <c r="E136" s="28">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="F136" s="29">
+      <c r="F136" s="28">
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="G136" s="16">
@@ -5829,19 +5829,19 @@
       <c r="A137" t="s">
         <v>280</v>
       </c>
-      <c r="B137" s="29">
+      <c r="B137" s="28">
         <v>0.93300000000000005</v>
       </c>
-      <c r="C137" s="29">
+      <c r="C137" s="28">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="D137" s="29">
+      <c r="D137" s="28">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="E137" s="29">
+      <c r="E137" s="28">
         <v>1E-3</v>
       </c>
-      <c r="F137" s="29">
+      <c r="F137" s="28">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="G137" s="16">
@@ -5873,19 +5873,19 @@
       <c r="A138" t="s">
         <v>115</v>
       </c>
-      <c r="B138" s="29">
+      <c r="B138" s="28">
         <v>0.49199999999999999</v>
       </c>
-      <c r="C138" s="29">
+      <c r="C138" s="28">
         <v>0.434</v>
       </c>
-      <c r="D138" s="29">
+      <c r="D138" s="28">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="E138" s="29">
+      <c r="E138" s="28">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="F138" s="29">
+      <c r="F138" s="28">
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="G138" s="16">
@@ -5917,19 +5917,19 @@
       <c r="A139" t="s">
         <v>150</v>
       </c>
-      <c r="B139" s="29">
+      <c r="B139" s="28">
         <v>0.52300000000000002</v>
       </c>
-      <c r="C139" s="29">
+      <c r="C139" s="28">
         <v>0.374</v>
       </c>
-      <c r="D139" s="29">
+      <c r="D139" s="28">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="E139" s="29">
+      <c r="E139" s="28">
         <v>2E-3</v>
       </c>
-      <c r="F139" s="29">
+      <c r="F139" s="28">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G139" s="16">
@@ -5961,19 +5961,19 @@
       <c r="A140" t="s">
         <v>110</v>
       </c>
-      <c r="B140" s="29">
+      <c r="B140" s="28">
         <v>0.70899999999999996</v>
       </c>
-      <c r="C140" s="29">
+      <c r="C140" s="28">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="D140" s="29">
+      <c r="D140" s="28">
         <v>0.224</v>
       </c>
-      <c r="E140" s="29">
+      <c r="E140" s="28">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="F140" s="29">
+      <c r="F140" s="28">
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="G140" s="16">
@@ -6005,19 +6005,19 @@
       <c r="A141" t="s">
         <v>112</v>
       </c>
-      <c r="B141" s="29">
+      <c r="B141" s="28">
         <v>0.25900000000000001</v>
       </c>
-      <c r="C141" s="29">
+      <c r="C141" s="28">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="D141" s="29">
+      <c r="D141" s="28">
         <v>1.4E-2</v>
       </c>
-      <c r="E141" s="29">
+      <c r="E141" s="28">
         <v>0.68899999999999995</v>
       </c>
-      <c r="F141" s="29">
+      <c r="F141" s="28">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="G141" s="16">
@@ -6049,19 +6049,19 @@
       <c r="A142" t="s">
         <v>111</v>
       </c>
-      <c r="B142" s="29">
+      <c r="B142" s="28">
         <v>0.67900000000000005</v>
       </c>
-      <c r="C142" s="29">
+      <c r="C142" s="28">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="D142" s="29">
+      <c r="D142" s="28">
         <v>0.153</v>
       </c>
-      <c r="E142" s="29">
+      <c r="E142" s="28">
         <v>0.13600000000000001</v>
       </c>
-      <c r="F142" s="29">
+      <c r="F142" s="28">
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="G142" s="16">
@@ -6093,22 +6093,22 @@
       <c r="A143" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B143" s="30">
+      <c r="B143" s="29">
         <v>0.61799999999999999</v>
       </c>
-      <c r="C143" s="30">
+      <c r="C143" s="29">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="D143" s="30">
+      <c r="D143" s="29">
         <v>0.114</v>
       </c>
-      <c r="E143" s="30">
+      <c r="E143" s="29">
         <v>0.23599999999999999</v>
       </c>
-      <c r="F143" s="30">
+      <c r="F143" s="29">
         <v>1.4E-2</v>
       </c>
-      <c r="G143" s="31">
+      <c r="G143" s="30">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -6134,54 +6134,54 @@
       </c>
     </row>
     <row r="144" spans="1:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A144" s="33" t="s">
+      <c r="A144" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="B144" s="34">
+      <c r="B144" s="33">
         <f>I144/$N144</f>
         <v>0.69952482907463498</v>
       </c>
-      <c r="C144" s="34">
+      <c r="C144" s="33">
         <f t="shared" ref="C144:G144" si="11">J144/$N144</f>
         <v>0.21013793859718827</v>
       </c>
-      <c r="D144" s="34">
+      <c r="D144" s="33">
         <f t="shared" si="11"/>
         <v>6.555121086039585E-2</v>
       </c>
-      <c r="E144" s="34">
+      <c r="E144" s="33">
         <f t="shared" si="11"/>
         <v>7.6216788351329105E-3</v>
       </c>
-      <c r="F144" s="34">
+      <c r="F144" s="33">
         <f t="shared" si="11"/>
         <v>1.7164342632647937E-2</v>
       </c>
-      <c r="G144" s="34">
+      <c r="G144" s="33">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="I144" s="32">
+      <c r="I144" s="31">
         <f>SUM(I101:I143)</f>
         <v>220078206</v>
       </c>
-      <c r="J144" s="32">
+      <c r="J144" s="31">
         <f t="shared" ref="J144:M144" si="12">SUM(J101:J143)</f>
         <v>66111707</v>
       </c>
-      <c r="K144" s="32">
+      <c r="K144" s="31">
         <f t="shared" si="12"/>
         <v>20623132</v>
       </c>
-      <c r="L144" s="32">
+      <c r="L144" s="31">
         <f t="shared" si="12"/>
         <v>2397864</v>
       </c>
-      <c r="M144" s="32">
+      <c r="M144" s="31">
         <f t="shared" si="12"/>
         <v>5400091</v>
       </c>
-      <c r="N144" s="32">
+      <c r="N144" s="31">
         <f>SUM(I144:M144)</f>
         <v>314611000</v>
       </c>

--- a/obsidian-notes/spreadsheets/area.xlsx
+++ b/obsidian-notes/spreadsheets/area.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sharm\iCloudDrive\iCloud~md~obsidian\Ishan's notes\Spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D1CA619-8B95-4E17-8449-2A093B69DA72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F949633-8560-44CF-99CA-0B16BE2C1259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" activeTab="2" xr2:uid="{94B94BC7-FBC8-4BAC-A974-CA3E4662C848}"/>
   </bookViews>
@@ -980,7 +980,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1011,7 +1011,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1347,10 +1346,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="34"/>
+      <c r="B1" s="33"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
@@ -1914,11 +1913,11 @@
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="34" t="s">
+      <c r="A55" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="B55" s="34"/>
-      <c r="C55" s="34"/>
+      <c r="B55" s="33"/>
+      <c r="C55" s="33"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
@@ -2082,8 +2081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C745E12-030D-4421-A6DC-982053D4A77E}">
   <dimension ref="A1:N319"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A122" zoomScale="93" workbookViewId="0">
-      <selection activeCell="K132" sqref="K132"/>
+    <sheetView tabSelected="1" topLeftCell="A128" zoomScale="93" workbookViewId="0">
+      <selection activeCell="F147" sqref="F147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -4260,7 +4259,7 @@
       <c r="F101" s="28">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="G101" s="16">
+      <c r="G101" s="28">
         <f>SUM(B101:F101)</f>
         <v>1</v>
       </c>
@@ -4290,13 +4289,13 @@
         <v>78</v>
       </c>
       <c r="B102" s="28">
-        <v>0.90400000000000003</v>
+        <v>0.85399999999999998</v>
       </c>
       <c r="C102" s="28">
-        <v>5.3999999999999999E-2</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="D102" s="28">
-        <v>3.5999999999999997E-2</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="E102" s="28">
         <v>1E-3</v>
@@ -4304,21 +4303,21 @@
       <c r="F102" s="28">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G102" s="16">
+      <c r="G102" s="28">
         <f t="shared" ref="G102:G143" si="5">SUM(B102:F102)</f>
         <v>1</v>
       </c>
       <c r="I102" s="11">
         <f t="shared" ref="I102:I143" si="6">B102*$C42</f>
-        <v>14133136</v>
+        <v>13351436</v>
       </c>
       <c r="J102" s="11">
         <f t="shared" si="4"/>
-        <v>844236</v>
+        <v>1313256</v>
       </c>
       <c r="K102" s="11">
         <f t="shared" si="4"/>
-        <v>562824</v>
+        <v>875504</v>
       </c>
       <c r="L102" s="11">
         <f t="shared" si="4"/>
@@ -4348,7 +4347,7 @@
       <c r="F103" s="28">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="G103" s="16">
+      <c r="G103" s="28">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -4378,13 +4377,13 @@
         <v>80</v>
       </c>
       <c r="B104" s="28">
-        <v>0.441</v>
+        <v>0.43099999999999999</v>
       </c>
       <c r="C104" s="28">
         <v>0.51400000000000001</v>
       </c>
       <c r="D104" s="28">
-        <v>3.5999999999999997E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="E104" s="28">
         <v>2E-3</v>
@@ -4392,13 +4391,13 @@
       <c r="F104" s="28">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="G104" s="16">
+      <c r="G104" s="28">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="I104" s="11">
         <f t="shared" si="6"/>
-        <v>5296851</v>
+        <v>5176741</v>
       </c>
       <c r="J104" s="11">
         <f t="shared" si="4"/>
@@ -4406,7 +4405,7 @@
       </c>
       <c r="K104" s="11">
         <f t="shared" si="4"/>
-        <v>432395.99999999994</v>
+        <v>552506</v>
       </c>
       <c r="L104" s="11">
         <f t="shared" si="4"/>
@@ -4436,7 +4435,7 @@
       <c r="F105" s="28">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="G105" s="16">
+      <c r="G105" s="28">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -4480,7 +4479,7 @@
       <c r="F106" s="28">
         <v>1.4E-2</v>
       </c>
-      <c r="G106" s="16">
+      <c r="G106" s="28">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -4524,7 +4523,7 @@
       <c r="F107" s="28">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="G107" s="16">
+      <c r="G107" s="28">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -4568,7 +4567,7 @@
       <c r="F108" s="28">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="G108" s="16">
+      <c r="G108" s="28">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -4612,7 +4611,7 @@
       <c r="F109" s="28">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="G109" s="16">
+      <c r="G109" s="28">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -4656,7 +4655,7 @@
       <c r="F110" s="28">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="G110" s="16">
+      <c r="G110" s="28">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -4686,27 +4685,27 @@
         <v>87</v>
       </c>
       <c r="B111" s="28">
-        <v>0.78700000000000003</v>
+        <v>0.78200000000000003</v>
       </c>
       <c r="C111" s="28">
         <v>0.11899999999999999</v>
       </c>
       <c r="D111" s="28">
-        <v>6.6000000000000003E-2</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="E111" s="28">
-        <v>6.0000000000000001E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="F111" s="28">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="G111" s="16">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="G111" s="28">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="I111" s="11">
         <f t="shared" si="6"/>
-        <v>28520093</v>
+        <v>28338898</v>
       </c>
       <c r="J111" s="11">
         <f t="shared" si="4"/>
@@ -4714,15 +4713,15 @@
       </c>
       <c r="K111" s="11">
         <f t="shared" si="4"/>
-        <v>2391774</v>
+        <v>2862881</v>
       </c>
       <c r="L111" s="11">
         <f t="shared" si="4"/>
-        <v>217434</v>
+        <v>108717</v>
       </c>
       <c r="M111" s="11">
         <f t="shared" si="4"/>
-        <v>797258</v>
+        <v>616063</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -4744,7 +4743,7 @@
       <c r="F112" s="28">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="G112" s="16">
+      <c r="G112" s="28">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -4788,7 +4787,7 @@
       <c r="F113" s="28">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="G113" s="16">
+      <c r="G113" s="28">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -4832,7 +4831,7 @@
       <c r="F114" s="28">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="G114" s="16">
+      <c r="G114" s="28">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -4876,7 +4875,7 @@
       <c r="F115" s="28">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="G115" s="16">
+      <c r="G115" s="28">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -4920,7 +4919,7 @@
       <c r="F116" s="28">
         <v>1.6E-2</v>
       </c>
-      <c r="G116" s="16">
+      <c r="G116" s="28">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -4953,18 +4952,18 @@
         <v>0.81100000000000005</v>
       </c>
       <c r="C117" s="28">
-        <v>6.9000000000000006E-2</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="D117" s="28">
-        <v>9.7000000000000003E-2</v>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="E117" s="28">
         <v>2E-3</v>
       </c>
       <c r="F117" s="28">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="G117" s="16">
+        <v>1.6E-2</v>
+      </c>
+      <c r="G117" s="28">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -4974,11 +4973,11 @@
       </c>
       <c r="J117" s="11">
         <f t="shared" ref="J117:J143" si="7">C117*$C57</f>
-        <v>1618464.0000000002</v>
+        <v>1688831.9999999998</v>
       </c>
       <c r="K117" s="11">
         <f t="shared" ref="K117:K143" si="8">D117*$C57</f>
-        <v>2275232</v>
+        <v>2322144</v>
       </c>
       <c r="L117" s="11">
         <f t="shared" ref="L117:L143" si="9">E117*$C57</f>
@@ -4986,7 +4985,7 @@
       </c>
       <c r="M117" s="11">
         <f t="shared" ref="M117:M143" si="10">F117*$C57</f>
-        <v>492576.00000000006</v>
+        <v>375296</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -5008,7 +5007,7 @@
       <c r="F118" s="28">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="G118" s="16">
+      <c r="G118" s="28">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -5052,7 +5051,7 @@
       <c r="F119" s="28">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="G119" s="16">
+      <c r="G119" s="28">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -5096,7 +5095,7 @@
       <c r="F120" s="28">
         <v>1.4E-2</v>
       </c>
-      <c r="G120" s="16">
+      <c r="G120" s="28">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -5126,10 +5125,10 @@
         <v>97</v>
       </c>
       <c r="B121" s="28">
-        <v>0.41199999999999998</v>
+        <v>0.40200000000000002</v>
       </c>
       <c r="C121" s="28">
-        <v>0.57099999999999995</v>
+        <v>0.58099999999999996</v>
       </c>
       <c r="D121" s="28">
         <v>3.0000000000000001E-3</v>
@@ -5140,17 +5139,17 @@
       <c r="F121" s="28">
         <v>1.2E-2</v>
       </c>
-      <c r="G121" s="16">
+      <c r="G121" s="28">
         <f t="shared" si="5"/>
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
       <c r="I121" s="11">
         <f t="shared" si="6"/>
-        <v>618412</v>
+        <v>603402</v>
       </c>
       <c r="J121" s="11">
         <f t="shared" si="7"/>
-        <v>857070.99999999988</v>
+        <v>872080.99999999988</v>
       </c>
       <c r="K121" s="11">
         <f t="shared" si="8"/>
@@ -5170,7 +5169,7 @@
         <v>98</v>
       </c>
       <c r="B122" s="28">
-        <v>0.30099999999999999</v>
+        <v>0.30499999999999999</v>
       </c>
       <c r="C122" s="28">
         <v>0.55700000000000005</v>
@@ -5179,18 +5178,18 @@
         <v>9.0999999999999998E-2</v>
       </c>
       <c r="E122" s="28">
-        <v>8.9999999999999993E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="F122" s="28">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="G122" s="16">
+      <c r="G122" s="28">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0.99900000000000011</v>
       </c>
       <c r="I122" s="11">
         <f t="shared" si="6"/>
-        <v>3495513</v>
+        <v>3541965</v>
       </c>
       <c r="J122" s="11">
         <f t="shared" si="7"/>
@@ -5201,8 +5200,8 @@
         <v>1056783</v>
       </c>
       <c r="L122" s="11">
-        <f t="shared" si="9"/>
-        <v>104516.99999999999</v>
+        <f>E122*$C62</f>
+        <v>46452</v>
       </c>
       <c r="M122" s="11">
         <f t="shared" si="10"/>
@@ -5228,7 +5227,7 @@
       <c r="F123" s="28">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="G123" s="16">
+      <c r="G123" s="28">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -5272,7 +5271,7 @@
       <c r="F124" s="28">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="G124" s="16">
+      <c r="G124" s="28">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -5316,7 +5315,7 @@
       <c r="F125" s="28">
         <v>1.4E-2</v>
       </c>
-      <c r="G125" s="16">
+      <c r="G125" s="28">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -5360,7 +5359,7 @@
       <c r="F126" s="28">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="G126" s="16">
+      <c r="G126" s="28">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -5404,7 +5403,7 @@
       <c r="F127" s="28">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="G127" s="16">
+      <c r="G127" s="28">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -5448,7 +5447,7 @@
       <c r="F128" s="28">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="G128" s="16">
+      <c r="G128" s="28">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -5492,7 +5491,7 @@
       <c r="F129" s="28">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="G129" s="16">
+      <c r="G129" s="28">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -5536,7 +5535,7 @@
       <c r="F130" s="28">
         <v>1.9E-2</v>
       </c>
-      <c r="G130" s="16">
+      <c r="G130" s="28">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -5580,7 +5579,7 @@
       <c r="F131" s="28">
         <v>1.6E-2</v>
       </c>
-      <c r="G131" s="16">
+      <c r="G131" s="28">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -5624,7 +5623,7 @@
       <c r="F132" s="28">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="G132" s="16">
+      <c r="G132" s="28">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -5654,27 +5653,27 @@
         <v>38</v>
       </c>
       <c r="B133" s="28">
-        <v>0.55900000000000005</v>
+        <v>0.50900000000000001</v>
       </c>
       <c r="C133" s="28">
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="D133" s="28">
-        <v>0.35399999999999998</v>
+        <v>0.41399999999999998</v>
       </c>
       <c r="E133" s="28">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="F133" s="28">
-        <v>6.2E-2</v>
-      </c>
-      <c r="G133" s="16">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="G133" s="28">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="I133" s="11">
         <f t="shared" si="6"/>
-        <v>2745808.0000000005</v>
+        <v>2500208</v>
       </c>
       <c r="J133" s="11">
         <f t="shared" si="7"/>
@@ -5682,7 +5681,7 @@
       </c>
       <c r="K133" s="11">
         <f t="shared" si="8"/>
-        <v>1738848</v>
+        <v>2033568</v>
       </c>
       <c r="L133" s="11">
         <f t="shared" si="9"/>
@@ -5690,7 +5689,7 @@
       </c>
       <c r="M133" s="11">
         <f>F133*$C73</f>
-        <v>304544</v>
+        <v>255424</v>
       </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -5712,7 +5711,7 @@
       <c r="F134" s="28">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="G134" s="16">
+      <c r="G134" s="28">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -5756,7 +5755,7 @@
       <c r="F135" s="28">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="G135" s="16">
+      <c r="G135" s="28">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -5786,7 +5785,7 @@
         <v>114</v>
       </c>
       <c r="B136" s="28">
-        <v>0.69299999999999995</v>
+        <v>0.73299999999999998</v>
       </c>
       <c r="C136" s="28">
         <v>0.157</v>
@@ -5795,18 +5794,18 @@
         <v>9.1999999999999998E-2</v>
       </c>
       <c r="E136" s="28">
-        <v>8.9999999999999993E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="F136" s="28">
-        <v>4.9000000000000002E-2</v>
-      </c>
-      <c r="G136" s="16">
+        <v>1.4E-2</v>
+      </c>
+      <c r="G136" s="28">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="I136" s="11">
         <f t="shared" si="6"/>
-        <v>5754672</v>
+        <v>6086832</v>
       </c>
       <c r="J136" s="11">
         <f t="shared" si="7"/>
@@ -5818,11 +5817,11 @@
       </c>
       <c r="L136" s="11">
         <f t="shared" si="9"/>
-        <v>74736</v>
+        <v>33216</v>
       </c>
       <c r="M136" s="11">
         <f t="shared" si="10"/>
-        <v>406896</v>
+        <v>116256</v>
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -5844,7 +5843,7 @@
       <c r="F137" s="28">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="G137" s="16">
+      <c r="G137" s="28">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -5880,15 +5879,15 @@
         <v>0.434</v>
       </c>
       <c r="D138" s="28">
-        <v>3.2000000000000001E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="E138" s="28">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="F138" s="28">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="G138" s="16">
+        <v>2.4E-2</v>
+      </c>
+      <c r="G138" s="28">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -5902,15 +5901,15 @@
       </c>
       <c r="K138" s="11">
         <f t="shared" si="8"/>
-        <v>34176</v>
+        <v>44856</v>
       </c>
       <c r="L138" s="11">
-        <f t="shared" si="9"/>
+        <f>E138*$C78</f>
         <v>8544</v>
       </c>
       <c r="M138" s="11">
-        <f t="shared" si="10"/>
-        <v>36312</v>
+        <f>F138*$C78</f>
+        <v>25632</v>
       </c>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -5932,7 +5931,7 @@
       <c r="F139" s="28">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="G139" s="16">
+      <c r="G139" s="28">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -5976,7 +5975,7 @@
       <c r="F140" s="28">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="G140" s="16">
+      <c r="G140" s="28">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -6020,7 +6019,7 @@
       <c r="F141" s="28">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="G141" s="16">
+      <c r="G141" s="28">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -6064,7 +6063,7 @@
       <c r="F142" s="28">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="G142" s="16">
+      <c r="G142" s="28">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -6077,7 +6076,7 @@
         <v>8085.0000000000009</v>
       </c>
       <c r="K142" s="11">
-        <f t="shared" si="8"/>
+        <f>D142*$C82</f>
         <v>58905</v>
       </c>
       <c r="L142" s="11">
@@ -6108,7 +6107,7 @@
       <c r="F143" s="29">
         <v>1.4E-2</v>
       </c>
-      <c r="G143" s="30">
+      <c r="G143" s="28">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -6125,7 +6124,7 @@
         <v>21888</v>
       </c>
       <c r="L143" s="10">
-        <f t="shared" si="9"/>
+        <f>E143*$C83</f>
         <v>45312</v>
       </c>
       <c r="M143" s="10">
@@ -6134,56 +6133,56 @@
       </c>
     </row>
     <row r="144" spans="1:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A144" s="32" t="s">
+      <c r="A144" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="B144" s="33">
+      <c r="B144" s="32">
         <f>I144/$N144</f>
-        <v>0.69952482907463498</v>
-      </c>
-      <c r="C144" s="33">
+        <v>0.69648324839234355</v>
+      </c>
+      <c r="C144" s="32">
         <f t="shared" ref="C144:G144" si="11">J144/$N144</f>
-        <v>0.21013793859718827</v>
-      </c>
-      <c r="D144" s="33">
+        <v>0.21190793038639963</v>
+      </c>
+      <c r="D144" s="32">
         <f t="shared" si="11"/>
-        <v>6.555121086039585E-2</v>
-      </c>
-      <c r="E144" s="33">
+        <v>6.9546673973652717E-2</v>
+      </c>
+      <c r="E144" s="32">
         <f t="shared" si="11"/>
-        <v>7.6216788351329105E-3</v>
-      </c>
-      <c r="F144" s="33">
+        <v>6.9598419147587215E-3</v>
+      </c>
+      <c r="F144" s="32">
         <f t="shared" si="11"/>
-        <v>1.7164342632647937E-2</v>
-      </c>
-      <c r="G144" s="33">
+        <v>1.510230533284542E-2</v>
+      </c>
+      <c r="G144" s="32">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="I144" s="31">
+      <c r="I144" s="30">
         <f>SUM(I101:I143)</f>
-        <v>220078206</v>
-      </c>
-      <c r="J144" s="31">
+        <v>219113203</v>
+      </c>
+      <c r="J144" s="30">
         <f t="shared" ref="J144:M144" si="12">SUM(J101:J143)</f>
-        <v>66111707</v>
-      </c>
-      <c r="K144" s="31">
+        <v>66666105</v>
+      </c>
+      <c r="K144" s="30">
         <f t="shared" si="12"/>
-        <v>20623132</v>
-      </c>
-      <c r="L144" s="31">
+        <v>21879341</v>
+      </c>
+      <c r="L144" s="30">
+        <f>SUM(L101:L143)</f>
+        <v>2189562</v>
+      </c>
+      <c r="M144" s="30">
         <f t="shared" si="12"/>
-        <v>2397864</v>
-      </c>
-      <c r="M144" s="31">
-        <f t="shared" si="12"/>
-        <v>5400091</v>
-      </c>
-      <c r="N144" s="31">
+        <v>4751176</v>
+      </c>
+      <c r="N144" s="30">
         <f>SUM(I144:M144)</f>
-        <v>314611000</v>
+        <v>314599387</v>
       </c>
     </row>
     <row r="145" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>

--- a/obsidian-notes/spreadsheets/area.xlsx
+++ b/obsidian-notes/spreadsheets/area.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sharm\iCloudDrive\iCloud~md~obsidian\Ishan's notes\Spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F949633-8560-44CF-99CA-0B16BE2C1259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2183947E-10DD-42B1-9042-F9DFF5569DF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" activeTab="2" xr2:uid="{94B94BC7-FBC8-4BAC-A974-CA3E4662C848}"/>
   </bookViews>
@@ -2081,8 +2081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C745E12-030D-4421-A6DC-982053D4A77E}">
   <dimension ref="A1:N319"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A128" zoomScale="93" workbookViewId="0">
-      <selection activeCell="F147" sqref="F147"/>
+    <sheetView tabSelected="1" topLeftCell="A131" zoomScale="93" workbookViewId="0">
+      <selection activeCell="H145" sqref="H145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -4333,13 +4333,13 @@
         <v>79</v>
       </c>
       <c r="B103" s="28">
-        <v>0.88800000000000001</v>
+        <v>0.872</v>
       </c>
       <c r="C103" s="28">
         <v>6.3E-2</v>
       </c>
       <c r="D103" s="28">
-        <v>4.4999999999999998E-2</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="E103" s="28">
         <v>1E-3</v>
@@ -4353,7 +4353,7 @@
       </c>
       <c r="I103" s="11">
         <f t="shared" si="6"/>
-        <v>9445656</v>
+        <v>9275464</v>
       </c>
       <c r="J103" s="11">
         <f t="shared" si="4"/>
@@ -4361,7 +4361,7 @@
       </c>
       <c r="K103" s="11">
         <f t="shared" si="4"/>
-        <v>478665</v>
+        <v>648857</v>
       </c>
       <c r="L103" s="11">
         <f t="shared" si="4"/>
@@ -6138,7 +6138,7 @@
       </c>
       <c r="B144" s="32">
         <f>I144/$N144</f>
-        <v>0.69648324839234355</v>
+        <v>0.69594226831726158</v>
       </c>
       <c r="C144" s="32">
         <f t="shared" ref="C144:G144" si="11">J144/$N144</f>
@@ -6146,7 +6146,7 @@
       </c>
       <c r="D144" s="32">
         <f t="shared" si="11"/>
-        <v>6.9546673973652717E-2</v>
+        <v>7.0087654048734682E-2</v>
       </c>
       <c r="E144" s="32">
         <f t="shared" si="11"/>
@@ -6162,7 +6162,7 @@
       </c>
       <c r="I144" s="30">
         <f>SUM(I101:I143)</f>
-        <v>219113203</v>
+        <v>218943011</v>
       </c>
       <c r="J144" s="30">
         <f t="shared" ref="J144:M144" si="12">SUM(J101:J143)</f>
@@ -6170,7 +6170,7 @@
       </c>
       <c r="K144" s="30">
         <f t="shared" si="12"/>
-        <v>21879341</v>
+        <v>22049533</v>
       </c>
       <c r="L144" s="30">
         <f>SUM(L101:L143)</f>

--- a/obsidian-notes/spreadsheets/area.xlsx
+++ b/obsidian-notes/spreadsheets/area.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sharm\iCloudDrive\iCloud~md~obsidian\Ishan's notes\Spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2183947E-10DD-42B1-9042-F9DFF5569DF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE1FB0D1-530A-4AA9-A80E-00AB608E962B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" activeTab="2" xr2:uid="{94B94BC7-FBC8-4BAC-A974-CA3E4662C848}"/>
   </bookViews>
@@ -2081,8 +2081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C745E12-030D-4421-A6DC-982053D4A77E}">
   <dimension ref="A1:N319"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A131" zoomScale="93" workbookViewId="0">
-      <selection activeCell="H145" sqref="H145"/>
+    <sheetView tabSelected="1" topLeftCell="A120" zoomScale="93" workbookViewId="0">
+      <selection activeCell="J142" sqref="J142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -5081,13 +5081,13 @@
         <v>96</v>
       </c>
       <c r="B120" s="28">
-        <v>0.86399999999999999</v>
+        <v>0.85399999999999998</v>
       </c>
       <c r="C120" s="28">
         <v>8.5999999999999993E-2</v>
       </c>
       <c r="D120" s="28">
-        <v>3.5000000000000003E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="E120" s="28">
         <v>1E-3</v>
@@ -5101,7 +5101,7 @@
       </c>
       <c r="I120" s="11">
         <f t="shared" si="6"/>
-        <v>7519392</v>
+        <v>7432362</v>
       </c>
       <c r="J120" s="11">
         <f t="shared" si="7"/>
@@ -5109,7 +5109,7 @@
       </c>
       <c r="K120" s="11">
         <f t="shared" si="8"/>
-        <v>304605</v>
+        <v>391635</v>
       </c>
       <c r="L120" s="11">
         <f t="shared" si="9"/>
@@ -5257,13 +5257,13 @@
         <v>100</v>
       </c>
       <c r="B124" s="28">
-        <v>0.64300000000000002</v>
+        <v>0.623</v>
       </c>
       <c r="C124" s="28">
         <v>0.26400000000000001</v>
       </c>
       <c r="D124" s="28">
-        <v>6.3E-2</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="E124" s="28">
         <v>4.0000000000000001E-3</v>
@@ -5277,7 +5277,7 @@
       </c>
       <c r="I124" s="11">
         <f t="shared" si="6"/>
-        <v>12026029</v>
+        <v>11651969</v>
       </c>
       <c r="J124" s="11">
         <f t="shared" si="7"/>
@@ -5285,7 +5285,7 @@
       </c>
       <c r="K124" s="11">
         <f t="shared" si="8"/>
-        <v>1178289</v>
+        <v>1552349</v>
       </c>
       <c r="L124" s="11">
         <f t="shared" si="9"/>
@@ -5301,13 +5301,13 @@
         <v>101</v>
       </c>
       <c r="B125" s="28">
-        <v>0.89300000000000002</v>
+        <v>0.86299999999999999</v>
       </c>
       <c r="C125" s="28">
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="D125" s="28">
-        <v>3.6999999999999998E-2</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="E125" s="28">
         <v>7.0000000000000001E-3</v>
@@ -5321,7 +5321,7 @@
       </c>
       <c r="I125" s="11">
         <f t="shared" si="6"/>
-        <v>6513542</v>
+        <v>6294722</v>
       </c>
       <c r="J125" s="11">
         <f t="shared" si="7"/>
@@ -5329,7 +5329,7 @@
       </c>
       <c r="K125" s="11">
         <f t="shared" si="8"/>
-        <v>269878</v>
+        <v>488698.00000000006</v>
       </c>
       <c r="L125" s="11">
         <f t="shared" si="9"/>
@@ -5565,13 +5565,13 @@
         <v>195</v>
       </c>
       <c r="B131" s="28">
-        <v>0.80100000000000005</v>
+        <v>0.78100000000000003</v>
       </c>
       <c r="C131" s="28">
         <v>0.124</v>
       </c>
       <c r="D131" s="28">
-        <v>5.7000000000000002E-2</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="E131" s="28">
         <v>2E-3</v>
@@ -5585,7 +5585,7 @@
       </c>
       <c r="I131" s="11">
         <f t="shared" si="6"/>
-        <v>6264621</v>
+        <v>6108201</v>
       </c>
       <c r="J131" s="11">
         <f t="shared" si="7"/>
@@ -5593,7 +5593,7 @@
       </c>
       <c r="K131" s="11">
         <f t="shared" si="8"/>
-        <v>445797</v>
+        <v>602217</v>
       </c>
       <c r="L131" s="11">
         <f t="shared" si="9"/>
@@ -5653,19 +5653,19 @@
         <v>38</v>
       </c>
       <c r="B133" s="28">
-        <v>0.50900000000000001</v>
+        <v>0.499</v>
       </c>
       <c r="C133" s="28">
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="D133" s="28">
-        <v>0.41399999999999998</v>
+        <v>0.434</v>
       </c>
       <c r="E133" s="28">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="F133" s="28">
-        <v>5.1999999999999998E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="G133" s="28">
         <f t="shared" si="5"/>
@@ -5673,7 +5673,7 @@
       </c>
       <c r="I133" s="11">
         <f t="shared" si="6"/>
-        <v>2500208</v>
+        <v>2451088</v>
       </c>
       <c r="J133" s="11">
         <f t="shared" si="7"/>
@@ -5681,7 +5681,7 @@
       </c>
       <c r="K133" s="11">
         <f t="shared" si="8"/>
-        <v>2033568</v>
+        <v>2131808</v>
       </c>
       <c r="L133" s="11">
         <f t="shared" si="9"/>
@@ -5689,7 +5689,7 @@
       </c>
       <c r="M133" s="11">
         <f>F133*$C73</f>
-        <v>255424</v>
+        <v>206304</v>
       </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -6138,7 +6138,7 @@
       </c>
       <c r="B144" s="32">
         <f>I144/$N144</f>
-        <v>0.69594226831726158</v>
+        <v>0.69312773645042103</v>
       </c>
       <c r="C144" s="32">
         <f t="shared" ref="C144:G144" si="11">J144/$N144</f>
@@ -6146,7 +6146,7 @@
       </c>
       <c r="D144" s="32">
         <f t="shared" si="11"/>
-        <v>7.0087654048734682E-2</v>
+        <v>7.3058320994121961E-2</v>
       </c>
       <c r="E144" s="32">
         <f t="shared" si="11"/>
@@ -6154,7 +6154,7 @@
       </c>
       <c r="F144" s="32">
         <f t="shared" si="11"/>
-        <v>1.510230533284542E-2</v>
+        <v>1.4946170254298684E-2</v>
       </c>
       <c r="G144" s="32">
         <f t="shared" si="11"/>
@@ -6162,7 +6162,7 @@
       </c>
       <c r="I144" s="30">
         <f>SUM(I101:I143)</f>
-        <v>218943011</v>
+        <v>218057561</v>
       </c>
       <c r="J144" s="30">
         <f t="shared" ref="J144:M144" si="12">SUM(J101:J143)</f>
@@ -6170,7 +6170,7 @@
       </c>
       <c r="K144" s="30">
         <f t="shared" si="12"/>
-        <v>22049533</v>
+        <v>22984103</v>
       </c>
       <c r="L144" s="30">
         <f>SUM(L101:L143)</f>
@@ -6178,7 +6178,7 @@
       </c>
       <c r="M144" s="30">
         <f t="shared" si="12"/>
-        <v>4751176</v>
+        <v>4702056</v>
       </c>
       <c r="N144" s="30">
         <f>SUM(I144:M144)</f>

--- a/obsidian-notes/spreadsheets/area.xlsx
+++ b/obsidian-notes/spreadsheets/area.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sharm\iCloudDrive\iCloud~md~obsidian\Ishan's notes\Spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE1FB0D1-530A-4AA9-A80E-00AB608E962B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB37DAA2-3119-4BA1-9CF7-23D2635D1EB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" activeTab="2" xr2:uid="{94B94BC7-FBC8-4BAC-A974-CA3E4662C848}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" xr2:uid="{94B94BC7-FBC8-4BAC-A974-CA3E4662C848}"/>
   </bookViews>
   <sheets>
     <sheet name="france" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="282">
   <si>
     <t>OTL Metro France</t>
   </si>
@@ -882,6 +882,9 @@
   </si>
   <si>
     <t>Pembina</t>
+  </si>
+  <si>
+    <t>Monaco</t>
   </si>
 </sst>
 </file>
@@ -1333,10 +1336,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F489DD57-E97E-46C5-91B6-044FDCA9CA47}">
-  <dimension ref="A1:K62"/>
+  <dimension ref="A1:K63"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1400,613 +1403,624 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
+        <v>281</v>
+      </c>
+      <c r="B6">
+        <v>2.08</v>
+      </c>
+      <c r="C6">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B7" s="1">
         <v>2148</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C7" s="1">
         <v>2210</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="E7" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="E8" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F8" s="1">
         <v>2570</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G8" s="1">
         <v>2570</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="I8" t="s">
-        <v>39</v>
-      </c>
-      <c r="J8">
-        <v>626.79999999999995</v>
-      </c>
-      <c r="K8">
-        <v>626.79999999999995</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="I9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J9">
-        <v>642.37</v>
+        <v>626.79999999999995</v>
       </c>
       <c r="K9">
-        <v>642.37</v>
+        <v>626.79999999999995</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="I10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J10">
-        <v>989.05</v>
+        <v>642.37</v>
       </c>
       <c r="K10">
-        <v>989.05</v>
+        <v>642.37</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="I11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J11">
-        <v>782.18</v>
+        <v>989.05</v>
       </c>
       <c r="K11">
-        <v>782.18</v>
+        <v>989.05</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="I12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J12">
-        <v>24.12</v>
+        <v>782.18</v>
       </c>
       <c r="K12">
-        <v>24.12</v>
+        <v>782.18</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="I13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J13">
-        <v>26.34</v>
+        <v>24.12</v>
       </c>
       <c r="K13">
-        <v>26.34</v>
+        <v>24.12</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="I14" s="3" t="s">
+      <c r="I14" t="s">
+        <v>44</v>
+      </c>
+      <c r="J14">
+        <v>26.34</v>
+      </c>
+      <c r="K14">
+        <v>26.34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="I15" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J15" s="3">
         <f>(1/4)*105.25</f>
         <v>26.3125</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K15" s="3">
         <f>(1/4)*105.25</f>
         <v>26.3125</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="E15" t="s">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="E16" t="s">
         <v>6</v>
       </c>
-      <c r="F15" s="8">
-        <f>19854.21-SUM(J8:J14)</f>
+      <c r="F16" s="8">
+        <f>19854.21-SUM(J9:J15)</f>
         <v>16737.037499999999</v>
       </c>
-      <c r="G15" s="8">
-        <f>19854.21-SUM(K8:K14)</f>
+      <c r="G16" s="8">
+        <f>19854.21-SUM(K9:K15)</f>
         <v>16737.037499999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="I16" t="s">
-        <v>46</v>
-      </c>
-      <c r="J16">
-        <f>0.5*5289.81</f>
-        <v>2644.9050000000002</v>
-      </c>
-      <c r="K16">
-        <f>0.5*5289.81</f>
-        <v>2644.9050000000002</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="I17" t="s">
+        <v>46</v>
+      </c>
+      <c r="J17">
+        <f>0.5*5289.81</f>
+        <v>2644.9050000000002</v>
+      </c>
+      <c r="K17">
+        <f>0.5*5289.81</f>
+        <v>2644.9050000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="I18" t="s">
         <v>47</v>
       </c>
-      <c r="J17">
+      <c r="J18">
         <f>0.6*7364.71</f>
         <v>4418.826</v>
       </c>
-      <c r="K17">
+      <c r="K18">
         <f>0.6*7364.71</f>
         <v>4418.826</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="E18" s="3" t="s">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="E19" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="3">
-        <f>SUM(J16:J17)</f>
+      <c r="F19" s="3">
+        <f>SUM(J17:J18)</f>
         <v>7063.7309999999998</v>
       </c>
-      <c r="G18" s="3">
-        <f>SUM(K16:K17)</f>
+      <c r="G19" s="3">
+        <f>SUM(K17:K18)</f>
         <v>7063.7309999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" t="s">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="1">
-        <f>SUM(F7:F18)</f>
+      <c r="B20" s="1">
+        <f>SUM(F8:F19)</f>
         <v>26370.768499999998</v>
       </c>
-      <c r="C19" s="1">
-        <f>SUM(G7:G18)</f>
+      <c r="C20" s="1">
+        <f>SUM(G8:G19)</f>
         <v>26370.768499999998</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="E20" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20">
-        <v>282.49</v>
-      </c>
-      <c r="G20">
-        <v>282.49</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="E21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="2">
-        <v>3211.94</v>
-      </c>
-      <c r="G21" s="2">
-        <v>3211.94</v>
+        <v>9</v>
+      </c>
+      <c r="F21">
+        <v>282.49</v>
+      </c>
+      <c r="G21">
+        <v>282.49</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="E22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F22" s="2">
-        <v>5224.49</v>
+        <v>3211.94</v>
       </c>
       <c r="G22" s="2">
-        <v>5224.49</v>
+        <v>3211.94</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="E23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F23" s="2">
-        <v>1671.42</v>
+        <v>5224.49</v>
       </c>
       <c r="G23" s="2">
-        <v>1671.42</v>
+        <v>5224.49</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="E24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F24" s="2">
-        <v>802.24</v>
+        <v>1671.42</v>
       </c>
       <c r="G24" s="2">
-        <v>802.24</v>
+        <v>1671.42</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="E25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F25" s="2">
-        <v>838.51</v>
+        <v>802.24</v>
       </c>
       <c r="G25" s="2">
-        <v>838.51</v>
+        <v>802.24</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="E26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F26" s="2">
-        <v>541</v>
+        <v>838.51</v>
       </c>
       <c r="G26" s="2">
-        <v>541</v>
+        <v>838.51</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="E27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="2">
+        <v>541</v>
+      </c>
+      <c r="G27" s="2">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="E28" t="s">
         <v>16</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F28" s="2">
         <v>89.55</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G28" s="2">
         <v>89.55</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="E28" s="3" t="s">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="E29" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F29" s="3">
         <f>16.34+5.29+8.56+7.5+1.69+2.65</f>
         <v>42.029999999999994</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G29" s="3">
         <f>16.34+5.29+8.56+7.5+1.69+2.65</f>
         <v>42.029999999999994</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="3" t="s">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="3">
-        <f>SUM(F20:F28)</f>
+      <c r="B30" s="3">
+        <f>SUM(F21:F29)</f>
         <v>12703.67</v>
       </c>
-      <c r="C29" s="3">
-        <f>SUM(G20:G28)</f>
+      <c r="C30" s="3">
+        <f>SUM(G21:G29)</f>
         <v>12703.67</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A30" s="4" t="s">
+    <row r="31" spans="1:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A31" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="5">
-        <f>SUM(B2:B29)</f>
-        <v>625041.83850000007</v>
-      </c>
-      <c r="C30" s="5">
-        <f>SUM(C2:C29)</f>
-        <v>627130.63850000012</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E31" t="s">
+      <c r="B31" s="5">
+        <f>SUM(B2:B30)</f>
+        <v>625043.91850000003</v>
+      </c>
+      <c r="C31" s="5">
+        <f>SUM(C2:C30)</f>
+        <v>627132.71850000008</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E32" t="s">
         <v>20</v>
       </c>
-      <c r="F31">
+      <c r="F32">
         <v>242</v>
       </c>
-      <c r="G31">
+      <c r="G32">
         <v>242</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="E32" s="3" t="s">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="E33" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F33" s="3">
         <v>500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G33" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="3" t="s">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="3">
-        <f>SUM(F31:F32)</f>
+      <c r="B34" s="3">
+        <f>SUM(F32:F33)</f>
         <v>742</v>
       </c>
-      <c r="C33" s="3">
-        <f>SUM(G31:G32)</f>
+      <c r="C34" s="3">
+        <f>SUM(G32:G33)</f>
         <v>742</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A34" s="4" t="s">
+    <row r="35" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A35" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B34" s="5">
-        <f>SUM(B30:B33)</f>
-        <v>625783.83850000007</v>
-      </c>
-      <c r="C34" s="5">
-        <f>SUM(C30:C33)</f>
-        <v>627872.63850000012</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" t="s">
+      <c r="B35" s="5">
+        <f>SUM(B31:B34)</f>
+        <v>625785.91850000003</v>
+      </c>
+      <c r="C35" s="5">
+        <f>SUM(C31:C34)</f>
+        <v>627874.71850000008</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" t="s">
         <v>63</v>
       </c>
-      <c r="B36" s="11">
+      <c r="B37" s="11">
         <v>131324241</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" t="s">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" t="s">
         <v>64</v>
       </c>
-      <c r="B38" s="12">
-        <f>$B$36/B34</f>
-        <v>209.85559696585227</v>
-      </c>
-      <c r="C38" s="12">
-        <f>$B$36/C34</f>
-        <v>209.15745160314066</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" t="s">
-        <v>72</v>
-      </c>
-      <c r="B40" t="s">
-        <v>73</v>
-      </c>
-      <c r="C40" t="s">
-        <v>63</v>
+      <c r="B39" s="12">
+        <f>$B$37/B35</f>
+        <v>209.85489944353867</v>
+      </c>
+      <c r="C39" s="12">
+        <f>$B$37/C35</f>
+        <v>209.15675871411915</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
-        <v>245</v>
-      </c>
-      <c r="B41" s="14">
-        <f>1-SUM(B42:B49)</f>
-        <v>0.36399999999999999</v>
-      </c>
-      <c r="C41" s="15">
-        <f>B$36*B41</f>
-        <v>47802023.723999999</v>
+        <v>72</v>
+      </c>
+      <c r="B41" t="s">
+        <v>73</v>
+      </c>
+      <c r="C41" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
-        <v>74</v>
-      </c>
-      <c r="B42" s="13">
-        <v>0.159</v>
+        <v>245</v>
+      </c>
+      <c r="B42" s="14">
+        <f>1-SUM(B43:B50)</f>
+        <v>0.36399999999999999</v>
       </c>
       <c r="C42" s="15">
-        <f>B$36*B42</f>
-        <v>20880554.319000002</v>
+        <f>B$37*B42</f>
+        <v>47802023.723999999</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B43" s="13">
-        <v>0.106</v>
+        <v>0.159</v>
       </c>
       <c r="C43" s="15">
-        <f>B$36*B43</f>
-        <v>13920369.546</v>
+        <f>B$37*B43</f>
+        <v>20880554.319000002</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B44" s="13">
-        <v>8.7999999999999995E-2</v>
+        <v>0.106</v>
       </c>
       <c r="C44" s="15">
-        <f>B$36*B44</f>
-        <v>11556533.207999999</v>
+        <f>B$37*B44</f>
+        <v>13920369.546</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B45" s="13">
-        <v>5.1999999999999998E-2</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="C45" s="15">
-        <f t="shared" ref="C45:C49" si="0">B$36*B45</f>
-        <v>6828860.5319999997</v>
+        <f>B$37*B45</f>
+        <v>11556533.207999999</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
+        <v>69</v>
+      </c>
+      <c r="B46" s="13">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="C46" s="15">
+        <f t="shared" ref="C46:C50" si="0">B$37*B46</f>
+        <v>6828860.5319999997</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" t="s">
         <v>68</v>
       </c>
-      <c r="B46" s="13">
+      <c r="B47" s="13">
         <v>3.1E-2</v>
       </c>
-      <c r="C46" s="15">
+      <c r="C47" s="15">
         <f t="shared" si="0"/>
         <v>4071051.4709999999</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" t="s">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" t="s">
         <v>67</v>
       </c>
-      <c r="B47" s="13">
+      <c r="B48" s="13">
         <v>0.13100000000000001</v>
       </c>
-      <c r="C47" s="15">
+      <c r="C48" s="15">
         <f t="shared" si="0"/>
         <v>17203475.571000002</v>
       </c>
-      <c r="G47" s="13"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" t="s">
+      <c r="G48" s="13"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" t="s">
         <v>66</v>
       </c>
-      <c r="B48" s="13">
+      <c r="B49" s="13">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="C48" s="15">
+      <c r="C49" s="15">
         <f t="shared" si="0"/>
         <v>6303563.568</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" t="s">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" t="s">
         <v>65</v>
       </c>
-      <c r="B49" s="13">
+      <c r="B50" s="13">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="C49" s="15">
+      <c r="C50" s="15">
         <f t="shared" si="0"/>
         <v>2757809.0610000002</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" t="s">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" t="s">
         <v>22</v>
       </c>
-      <c r="B50" s="16">
+      <c r="B51" s="16">
         <v>1</v>
       </c>
-      <c r="C50" s="15">
-        <f>B$36*B50</f>
+      <c r="C51" s="15">
+        <f>B$37*B51</f>
         <v>131324241</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="33" t="s">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="B55" s="33"/>
-      <c r="C55" s="33"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" t="s">
-        <v>72</v>
-      </c>
-      <c r="B56" t="s">
-        <v>73</v>
-      </c>
-      <c r="C56" t="s">
-        <v>63</v>
-      </c>
+      <c r="B56" s="33"/>
+      <c r="C56" s="33"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
-        <v>246</v>
-      </c>
-      <c r="B57" s="13">
-        <v>0.43099999999999999</v>
-      </c>
-      <c r="C57" s="15">
-        <f>B57*$C$62</f>
-        <v>5999679.2743260004</v>
+        <v>72</v>
+      </c>
+      <c r="B57" t="s">
+        <v>73</v>
+      </c>
+      <c r="C57" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B58" s="13">
-        <f>1-(B57+SUM(B59:B61))</f>
-        <v>0.373</v>
+        <v>0.43099999999999999</v>
       </c>
       <c r="C58" s="15">
-        <f t="shared" ref="C58:C61" si="1">B58*$C$62</f>
-        <v>5192297.8406579997</v>
+        <f>B58*$C$63</f>
+        <v>5999679.2743260004</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
+        <v>247</v>
+      </c>
+      <c r="B59" s="13">
+        <f>1-(B58+SUM(B60:B62))</f>
+        <v>0.373</v>
+      </c>
+      <c r="C59" s="15">
+        <f t="shared" ref="C59:C62" si="1">B59*$C$63</f>
+        <v>5192297.8406579997</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" t="s">
         <v>248</v>
       </c>
-      <c r="B59" s="13">
+      <c r="B60" s="13">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="C59" s="15">
+      <c r="C60" s="15">
         <f t="shared" si="1"/>
         <v>1057948.085496</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" t="s">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" t="s">
         <v>249</v>
       </c>
-      <c r="B60" s="13">
+      <c r="B61" s="13">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="C60" s="15">
+      <c r="C61" s="15">
         <f t="shared" si="1"/>
         <v>821301.80321399996</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61" t="s">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" t="s">
         <v>65</v>
       </c>
-      <c r="B61" s="13">
+      <c r="B62" s="13">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="C61" s="15">
+      <c r="C62" s="15">
         <f t="shared" si="1"/>
         <v>849142.54230600002</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" t="s">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" t="s">
         <v>22</v>
       </c>
-      <c r="B62" s="16">
+      <c r="B63" s="16">
         <v>1</v>
       </c>
-      <c r="C62" s="15">
-        <f>C43</f>
+      <c r="C63" s="15">
+        <f>C44</f>
         <v>13920369.546</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="A56:C56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2052,7 +2066,7 @@
         <v>75</v>
       </c>
       <c r="E4" s="6">
-        <f>france!C6</f>
+        <f>france!C7</f>
         <v>2210</v>
       </c>
     </row>
@@ -2081,7 +2095,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C745E12-030D-4421-A6DC-982053D4A77E}">
   <dimension ref="A1:N319"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" zoomScale="93" workbookViewId="0">
+    <sheetView topLeftCell="A120" zoomScale="93" workbookViewId="0">
       <selection activeCell="J142" sqref="J142"/>
     </sheetView>
   </sheetViews>
@@ -4980,7 +4994,7 @@
         <v>2322144</v>
       </c>
       <c r="L117" s="11">
-        <f t="shared" ref="L117:L143" si="9">E117*$C57</f>
+        <f t="shared" ref="L117:L142" si="9">E117*$C57</f>
         <v>46912</v>
       </c>
       <c r="M117" s="11">

--- a/obsidian-notes/spreadsheets/area.xlsx
+++ b/obsidian-notes/spreadsheets/area.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sharm\iCloudDrive\iCloud~md~obsidian\Ishan's notes\Spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB37DAA2-3119-4BA1-9CF7-23D2635D1EB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C23E2406-8586-4017-83A2-8C9B2B36DD56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" xr2:uid="{94B94BC7-FBC8-4BAC-A974-CA3E4662C848}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" activeTab="1" xr2:uid="{94B94BC7-FBC8-4BAC-A974-CA3E4662C848}"/>
   </bookViews>
   <sheets>
     <sheet name="france" sheetId="1" r:id="rId1"/>
-    <sheet name="batavian republic" sheetId="18" r:id="rId2"/>
-    <sheet name="united states" sheetId="2" r:id="rId3"/>
-    <sheet name="buenaventura" sheetId="4" r:id="rId4"/>
+    <sheet name="germany" sheetId="19" r:id="rId2"/>
+    <sheet name="batavian republic" sheetId="18" r:id="rId3"/>
+    <sheet name="united states" sheetId="2" r:id="rId4"/>
+    <sheet name="buenaventura" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="330">
   <si>
     <t>OTL Metro France</t>
   </si>
@@ -885,6 +886,150 @@
   </si>
   <si>
     <t>Monaco</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Area [km2]</t>
+  </si>
+  <si>
+    <t>Austrian Empire[A 4]</t>
+  </si>
+  <si>
+    <t>Kingdom of Prussia[A 6]</t>
+  </si>
+  <si>
+    <t>Kingdom of Bavaria</t>
+  </si>
+  <si>
+    <t>Kingdom of Hannover</t>
+  </si>
+  <si>
+    <t>Kingdom of Württemberg</t>
+  </si>
+  <si>
+    <t>Kingdom of Saxony</t>
+  </si>
+  <si>
+    <t>Grand Duchy of Baden</t>
+  </si>
+  <si>
+    <t>Grand Duchy of Hesse-Darmstadt</t>
+  </si>
+  <si>
+    <t>Grand Duchy of Mecklenburg-Schwerin</t>
+  </si>
+  <si>
+    <t>Grand Duchy of Mecklenburg-Strelitz</t>
+  </si>
+  <si>
+    <t>Grand Duchy of Oldenburg</t>
+  </si>
+  <si>
+    <t>Grand Duchy of Luxemburg (with the Duchy of Limburg)</t>
+  </si>
+  <si>
+    <t>Grand Duchy of Saxe-Weimar</t>
+  </si>
+  <si>
+    <t>Electoral Hesse</t>
+  </si>
+  <si>
+    <t>Duchy of Anhalt-Dessau</t>
+  </si>
+  <si>
+    <t>Duchy of Anhalt-Cöthen[A 7]</t>
+  </si>
+  <si>
+    <t>Duchy of Anhalt-Bernburg[A 9]</t>
+  </si>
+  <si>
+    <t>Duchy of Brunswick</t>
+  </si>
+  <si>
+    <t>Duchies of Holstein and Saxe-Lauenburg[A 10]</t>
+  </si>
+  <si>
+    <t>Duchy of Nassau</t>
+  </si>
+  <si>
+    <t>Duchy of Saxe-Altenburg</t>
+  </si>
+  <si>
+    <t>Duchy of Saxe-Coburg-Gotha[A 11]</t>
+  </si>
+  <si>
+    <t>Duchy of Saxe-Hildburghausen[A 12]</t>
+  </si>
+  <si>
+    <t>Duchy of Saxe-Meiningen</t>
+  </si>
+  <si>
+    <t>Principality of Hohenzollern-Sigmaringen</t>
+  </si>
+  <si>
+    <t>Principality of Hohenzollern-Hechingen</t>
+  </si>
+  <si>
+    <t>Principality of Lippe-Detmold</t>
+  </si>
+  <si>
+    <t>Principality of Schaumburg-Lippe</t>
+  </si>
+  <si>
+    <t>Principality of Liechtenstein</t>
+  </si>
+  <si>
+    <t>Principality of Reuß elder line</t>
+  </si>
+  <si>
+    <t>Principality of Reuß younger line</t>
+  </si>
+  <si>
+    <t>Principality of Schwarzburg-Rudolstadt</t>
+  </si>
+  <si>
+    <t>Principality of Waldeck</t>
+  </si>
+  <si>
+    <t>Principality of Schwarzburg-Sondershausen</t>
+  </si>
+  <si>
+    <t>Landgraviate of Hessen-Homburg[A 15]</t>
+  </si>
+  <si>
+    <t>Free City of Lübeck</t>
+  </si>
+  <si>
+    <t>Free City of Hamburg</t>
+  </si>
+  <si>
+    <t>Free City of Bremen</t>
+  </si>
+  <si>
+    <t>Free City of Frankfurt</t>
+  </si>
+  <si>
+    <t>HRE, 1792</t>
+  </si>
+  <si>
+    <t>Burgenland</t>
+  </si>
+  <si>
+    <t>Sopron</t>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+  </si>
+  <si>
+    <t>Senica District</t>
+  </si>
+  <si>
+    <t>Bratislava Region</t>
+  </si>
+  <si>
+    <t>Borderlands</t>
   </si>
 </sst>
 </file>
@@ -1338,8 +1483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F489DD57-E97E-46C5-91B6-044FDCA9CA47}">
   <dimension ref="A1:K63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2027,6 +2172,430 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3B85E66-4F89-499D-9375-26CD135EE34F}">
+  <dimension ref="A1:F50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E4" t="s">
+        <v>284</v>
+      </c>
+      <c r="F4" s="1">
+        <v>197573</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E5" t="s">
+        <v>285</v>
+      </c>
+      <c r="F5" s="1">
+        <v>185496</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E6" t="s">
+        <v>286</v>
+      </c>
+      <c r="F6" s="1">
+        <v>76258</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F7" s="1">
+        <v>38452</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E8" t="s">
+        <v>288</v>
+      </c>
+      <c r="F8" s="1">
+        <v>19504</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E9" t="s">
+        <v>289</v>
+      </c>
+      <c r="F9" s="1">
+        <v>14993</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E10" t="s">
+        <v>290</v>
+      </c>
+      <c r="F10" s="1">
+        <v>15269</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E11" t="s">
+        <v>291</v>
+      </c>
+      <c r="F11" s="1">
+        <v>7680</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E12" t="s">
+        <v>292</v>
+      </c>
+      <c r="F12" s="1">
+        <v>13304</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E13" t="s">
+        <v>293</v>
+      </c>
+      <c r="F13" s="1">
+        <v>2929</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E14" t="s">
+        <v>294</v>
+      </c>
+      <c r="F14" s="1">
+        <v>6420</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E15" t="s">
+        <v>295</v>
+      </c>
+      <c r="F15" s="1">
+        <v>2586</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E16" t="s">
+        <v>296</v>
+      </c>
+      <c r="F16" s="1">
+        <v>3593</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E17" t="s">
+        <v>297</v>
+      </c>
+      <c r="F17" s="1">
+        <v>9581</v>
+      </c>
+    </row>
+    <row r="18" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E18" t="s">
+        <v>298</v>
+      </c>
+      <c r="F18">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="19" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E19" t="s">
+        <v>299</v>
+      </c>
+      <c r="F19">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="20" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E20" t="s">
+        <v>300</v>
+      </c>
+      <c r="F20">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="21" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E21" t="s">
+        <v>301</v>
+      </c>
+      <c r="F21" s="1">
+        <v>3690</v>
+      </c>
+    </row>
+    <row r="22" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E22" t="s">
+        <v>302</v>
+      </c>
+      <c r="F22" s="1">
+        <v>9580</v>
+      </c>
+    </row>
+    <row r="23" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E23" t="s">
+        <v>303</v>
+      </c>
+      <c r="F23" s="1">
+        <v>4700</v>
+      </c>
+    </row>
+    <row r="24" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E24" t="s">
+        <v>304</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="25" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E25" t="s">
+        <v>305</v>
+      </c>
+      <c r="F25" s="1">
+        <v>2688</v>
+      </c>
+    </row>
+    <row r="26" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E26" t="s">
+        <v>306</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E27" t="s">
+        <v>307</v>
+      </c>
+      <c r="F27" s="1">
+        <v>2293</v>
+      </c>
+    </row>
+    <row r="28" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E28" t="s">
+        <v>308</v>
+      </c>
+      <c r="F28">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="29" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E29" t="s">
+        <v>309</v>
+      </c>
+      <c r="F29">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="30" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E30" t="s">
+        <v>310</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="31" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E31" t="s">
+        <v>311</v>
+      </c>
+      <c r="F31">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="32" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E32" t="s">
+        <v>312</v>
+      </c>
+      <c r="F32">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E33" t="s">
+        <v>313</v>
+      </c>
+      <c r="F33">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E34" t="s">
+        <v>314</v>
+      </c>
+      <c r="F34">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E35" t="s">
+        <v>315</v>
+      </c>
+      <c r="F35">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E36" t="s">
+        <v>316</v>
+      </c>
+      <c r="F36" s="1">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E37" t="s">
+        <v>317</v>
+      </c>
+      <c r="F37">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E38" t="s">
+        <v>318</v>
+      </c>
+      <c r="F38">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E39" t="s">
+        <v>319</v>
+      </c>
+      <c r="F39">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E40" t="s">
+        <v>320</v>
+      </c>
+      <c r="F40">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E41" t="s">
+        <v>321</v>
+      </c>
+      <c r="F41">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E42" t="s">
+        <v>322</v>
+      </c>
+      <c r="F42">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" t="s">
+        <v>323</v>
+      </c>
+      <c r="B43" s="1">
+        <f>SUM(F4:F42)</f>
+        <v>628598</v>
+      </c>
+      <c r="C43" s="1">
+        <f>SUM(F4:F42)</f>
+        <v>628598</v>
+      </c>
+      <c r="F43" s="1"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" t="s">
+        <v>3</v>
+      </c>
+      <c r="B44">
+        <f>-(france!B20)</f>
+        <v>-26370.768499999998</v>
+      </c>
+      <c r="C44">
+        <f>-(france!C20)</f>
+        <v>-26370.768499999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" t="s">
+        <v>326</v>
+      </c>
+      <c r="B45" s="1">
+        <v>-78871</v>
+      </c>
+      <c r="C45" s="1">
+        <v>-78871</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E46" t="s">
+        <v>324</v>
+      </c>
+      <c r="F46" s="1">
+        <v>3680</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E47" t="s">
+        <v>325</v>
+      </c>
+      <c r="F47">
+        <f>1.5*169.04</f>
+        <v>253.56</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E48" t="s">
+        <v>328</v>
+      </c>
+      <c r="F48" s="1">
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E49" t="s">
+        <v>327</v>
+      </c>
+      <c r="F49">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" t="s">
+        <v>329</v>
+      </c>
+      <c r="B50" s="1">
+        <f>SUM(F46:F49)</f>
+        <v>6670.5599999999995</v>
+      </c>
+      <c r="C50" s="1">
+        <f>SUM(F46:F49)</f>
+        <v>6670.5599999999995</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02846DC9-4F52-48FF-970A-2B60E31B58CA}">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -2091,11 +2660,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C745E12-030D-4421-A6DC-982053D4A77E}">
   <dimension ref="A1:N319"/>
   <sheetViews>
-    <sheetView topLeftCell="A120" zoomScale="93" workbookViewId="0">
+    <sheetView zoomScale="93" workbookViewId="0">
       <selection activeCell="J142" sqref="J142"/>
     </sheetView>
   </sheetViews>
@@ -8501,11 +9070,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C63D63CD-E558-4E85-B35D-432437BFD9B4}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
+    <sheetView zoomScale="93" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>

--- a/obsidian-notes/spreadsheets/area.xlsx
+++ b/obsidian-notes/spreadsheets/area.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sharm\iCloudDrive\iCloud~md~obsidian\Ishan's notes\Spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C23E2406-8586-4017-83A2-8C9B2B36DD56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC96E1E-D7D6-464F-BFD7-F04C39089FA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" activeTab="1" xr2:uid="{94B94BC7-FBC8-4BAC-A974-CA3E4662C848}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" activeTab="5" xr2:uid="{94B94BC7-FBC8-4BAC-A974-CA3E4662C848}"/>
   </bookViews>
   <sheets>
     <sheet name="france" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="batavian republic" sheetId="18" r:id="rId3"/>
     <sheet name="united states" sheetId="2" r:id="rId4"/>
     <sheet name="buenaventura" sheetId="4" r:id="rId5"/>
+    <sheet name="philippines" sheetId="20" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="346">
   <si>
     <t>OTL Metro France</t>
   </si>
@@ -891,9 +892,6 @@
     <t>Germany</t>
   </si>
   <si>
-    <t>Area [km2]</t>
-  </si>
-  <si>
     <t>Austrian Empire[A 4]</t>
   </si>
   <si>
@@ -1030,6 +1028,57 @@
   </si>
   <si>
     <t>Borderlands</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Silesia</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Schwerin</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Strelitz</t>
+  </si>
+  <si>
+    <t>TTL Prussia</t>
+  </si>
+  <si>
+    <t>Vorarlberg</t>
+  </si>
+  <si>
+    <t>Independent Catholic</t>
+  </si>
+  <si>
+    <t>Roman Catholicism</t>
+  </si>
+  <si>
+    <t>Buddhism</t>
+  </si>
+  <si>
+    <t>Luzon</t>
+  </si>
+  <si>
+    <t>Mindoro and Paragua</t>
+  </si>
+  <si>
+    <t>West Visayas</t>
+  </si>
+  <si>
+    <t>East Visayas</t>
+  </si>
+  <si>
+    <t>Zamboanga</t>
+  </si>
+  <si>
+    <t>North Mindanao</t>
+  </si>
+  <si>
+    <t>Southern Frontier Territory</t>
+  </si>
+  <si>
+    <t>Northern Frontier Territory</t>
   </si>
 </sst>
 </file>
@@ -1128,7 +1177,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1165,6 +1214,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2173,13 +2228,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3B85E66-4F89-499D-9375-26CD135EE34F}">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="2" max="2" width="8.83984375" customWidth="1"/>
+    <col min="3" max="3" width="8.9453125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
@@ -2188,406 +2247,471 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F2" t="s">
         <v>283</v>
+      </c>
+      <c r="F2" s="1">
+        <v>197573</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E3" t="s">
+        <v>284</v>
+      </c>
+      <c r="F3" s="1">
+        <v>185496</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E4" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F4" s="1">
-        <v>197573</v>
+        <v>76258</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E5" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F5" s="1">
-        <v>185496</v>
+        <v>38452</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E6" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F6" s="1">
-        <v>76258</v>
+        <v>19504</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F7" s="1">
-        <v>38452</v>
+        <v>14993</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E8" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F8" s="1">
-        <v>19504</v>
+        <v>15269</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E9" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F9" s="1">
-        <v>14993</v>
+        <v>7680</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E10" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F10" s="1">
-        <v>15269</v>
+        <v>13304</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E11" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F11" s="1">
-        <v>7680</v>
+        <v>2929</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E12" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F12" s="1">
-        <v>13304</v>
+        <v>6420</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E13" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F13" s="1">
-        <v>2929</v>
+        <v>2586</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E14" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F14" s="1">
-        <v>6420</v>
+        <v>3593</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E15" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F15" s="1">
-        <v>2586</v>
+        <v>9581</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E16" t="s">
-        <v>296</v>
-      </c>
-      <c r="F16" s="1">
-        <v>3593</v>
+        <v>297</v>
+      </c>
+      <c r="F16">
+        <v>840</v>
       </c>
     </row>
     <row r="17" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E17" t="s">
-        <v>297</v>
-      </c>
-      <c r="F17" s="1">
-        <v>9581</v>
+        <v>298</v>
+      </c>
+      <c r="F17">
+        <v>727</v>
       </c>
     </row>
     <row r="18" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E18" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F18">
-        <v>840</v>
+        <v>780</v>
       </c>
     </row>
     <row r="19" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E19" t="s">
-        <v>299</v>
-      </c>
-      <c r="F19">
-        <v>727</v>
+        <v>300</v>
+      </c>
+      <c r="F19" s="1">
+        <v>3690</v>
       </c>
     </row>
     <row r="20" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E20" t="s">
-        <v>300</v>
-      </c>
-      <c r="F20">
-        <v>780</v>
+        <v>301</v>
+      </c>
+      <c r="F20" s="1">
+        <v>9580</v>
       </c>
     </row>
     <row r="21" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E21" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F21" s="1">
-        <v>3690</v>
+        <v>4700</v>
       </c>
     </row>
     <row r="22" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E22" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F22" s="1">
-        <v>9580</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="23" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E23" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F23" s="1">
-        <v>4700</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="24" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E24" t="s">
-        <v>304</v>
-      </c>
-      <c r="F24" s="1">
-        <v>1287</v>
+        <v>305</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E25" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F25" s="1">
-        <v>2688</v>
+        <v>2293</v>
       </c>
     </row>
     <row r="26" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E26" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>906</v>
       </c>
     </row>
     <row r="27" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E27" t="s">
-        <v>307</v>
-      </c>
-      <c r="F27" s="1">
-        <v>2293</v>
+        <v>308</v>
+      </c>
+      <c r="F27">
+        <v>236</v>
       </c>
     </row>
     <row r="28" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E28" t="s">
-        <v>308</v>
-      </c>
-      <c r="F28">
-        <v>906</v>
+        <v>309</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1133</v>
       </c>
     </row>
     <row r="29" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E29" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F29">
-        <v>236</v>
+        <v>536</v>
       </c>
     </row>
     <row r="30" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E30" t="s">
-        <v>310</v>
-      </c>
-      <c r="F30" s="1">
-        <v>1133</v>
+        <v>311</v>
+      </c>
+      <c r="F30">
+        <v>159</v>
       </c>
     </row>
     <row r="31" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E31" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F31">
-        <v>536</v>
+        <v>316</v>
       </c>
     </row>
     <row r="32" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E32" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F32">
-        <v>159</v>
+        <v>826</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E33" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F33">
-        <v>316</v>
+        <v>940</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E34" t="s">
-        <v>314</v>
-      </c>
-      <c r="F34">
-        <v>826</v>
+        <v>315</v>
+      </c>
+      <c r="F34" s="1">
+        <v>1121</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E35" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F35">
-        <v>940</v>
+        <v>862</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E36" t="s">
-        <v>316</v>
-      </c>
-      <c r="F36" s="1">
-        <v>1121</v>
+        <v>317</v>
+      </c>
+      <c r="F36">
+        <v>275</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E37" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F37">
-        <v>862</v>
+        <v>298</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E38" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F38">
-        <v>275</v>
+        <v>410</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E39" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F39">
-        <v>298</v>
+        <v>256</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="E40" t="s">
-        <v>320</v>
-      </c>
-      <c r="F40">
-        <v>410</v>
+      <c r="E40" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="F40" s="3">
+        <v>101</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="E41" t="s">
-        <v>321</v>
-      </c>
-      <c r="F41">
-        <v>256</v>
-      </c>
+      <c r="A41" t="s">
+        <v>322</v>
+      </c>
+      <c r="B41" s="1">
+        <f>SUM(F2:F40)</f>
+        <v>628598</v>
+      </c>
+      <c r="C41" s="1">
+        <f>SUM(F2:F40)</f>
+        <v>628598</v>
+      </c>
+      <c r="F41" s="1"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="E42" t="s">
-        <v>322</v>
-      </c>
-      <c r="F42">
-        <v>101</v>
+      <c r="A42" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42" s="11">
+        <f>-(france!B20)</f>
+        <v>-26370.768499999998</v>
+      </c>
+      <c r="C42" s="11">
+        <f>-(france!C20)</f>
+        <v>-26370.768499999998</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
-        <v>323</v>
-      </c>
-      <c r="B43" s="1">
-        <f>SUM(F4:F42)</f>
-        <v>628598</v>
-      </c>
-      <c r="C43" s="1">
-        <f>SUM(F4:F42)</f>
-        <v>628598</v>
-      </c>
-      <c r="F43" s="1"/>
+        <v>334</v>
+      </c>
+      <c r="B43" s="11">
+        <v>2533.84</v>
+      </c>
+      <c r="C43" s="11">
+        <v>2533.84</v>
+      </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
-        <v>3</v>
-      </c>
-      <c r="B44">
-        <f>-(france!B20)</f>
-        <v>-26370.768499999998</v>
-      </c>
-      <c r="C44">
-        <f>-(france!C20)</f>
-        <v>-26370.768499999998</v>
+        <v>325</v>
+      </c>
+      <c r="B44" s="1">
+        <v>-78871</v>
+      </c>
+      <c r="C44" s="1">
+        <v>-78871</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" t="s">
-        <v>326</v>
-      </c>
-      <c r="B45" s="1">
-        <v>-78871</v>
-      </c>
-      <c r="C45" s="1">
-        <v>-78871</v>
+      <c r="E45" t="s">
+        <v>323</v>
+      </c>
+      <c r="F45" s="1">
+        <v>3680</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E46" t="s">
         <v>324</v>
       </c>
-      <c r="F46" s="1">
-        <v>3680</v>
+      <c r="F46">
+        <f>1.5*169.04</f>
+        <v>253.56</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E47" t="s">
-        <v>325</v>
-      </c>
-      <c r="F47">
-        <f>1.5*169.04</f>
-        <v>253.56</v>
+        <v>327</v>
+      </c>
+      <c r="F47" s="1">
+        <v>2053</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="E48" t="s">
+      <c r="E48" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="F48" s="3">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" t="s">
         <v>328</v>
       </c>
-      <c r="F48" s="1">
-        <v>2053</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="E49" t="s">
-        <v>327</v>
-      </c>
-      <c r="F49">
-        <v>684</v>
+      <c r="B49" s="1">
+        <f>SUM(F45:F48)</f>
+        <v>6670.5599999999995</v>
+      </c>
+      <c r="C49" s="1">
+        <f>SUM(F45:F48)</f>
+        <v>6670.5599999999995</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" t="s">
+      <c r="E50" t="s">
         <v>329</v>
       </c>
-      <c r="B50" s="1">
-        <f>SUM(F46:F49)</f>
-        <v>6670.5599999999995</v>
-      </c>
-      <c r="C50" s="1">
-        <f>SUM(F46:F49)</f>
-        <v>6670.5599999999995</v>
+      <c r="F50">
+        <f>734.14*2.58999</f>
+        <v>1901.4152585999998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E51" t="s">
+        <v>330</v>
+      </c>
+      <c r="F51">
+        <f>741.74*2.58999</f>
+        <v>1921.0991825999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E52" t="s">
+        <v>331</v>
+      </c>
+      <c r="F52" s="1">
+        <f>13161*2.58999</f>
+        <v>34086.858389999994</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E53" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="F53" s="3">
+        <f>2929*2.58999</f>
+        <v>7586.0807099999993</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="B54" s="10">
+        <f>-SUM(F50:F53)</f>
+        <v>-45495.453541199997</v>
+      </c>
+      <c r="C54" s="10">
+        <f>-SUM(F50:F53)</f>
+        <v>-45495.453541199997</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" t="s">
+        <v>22</v>
+      </c>
+      <c r="B55" s="11">
+        <f>SUM(B2:B54)</f>
+        <v>487065.17795879999</v>
+      </c>
+      <c r="C55" s="11">
+        <f>SUM(B2:B54)</f>
+        <v>487065.17795879999</v>
       </c>
     </row>
   </sheetData>
@@ -9596,4 +9720,942 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{361FE7B8-0B0F-454D-9098-56AB6E752981}">
+  <dimension ref="A1:M79"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="17.5234375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7890625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7890625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="33" t="s">
+        <v>338</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B3" s="28">
+        <v>0.623</v>
+      </c>
+      <c r="C3" s="11">
+        <f>B3*C$11</f>
+        <v>23737546</v>
+      </c>
+      <c r="G3" t="s">
+        <v>335</v>
+      </c>
+      <c r="H3" s="39">
+        <f t="shared" ref="H3:H9" si="0">I3/I$11</f>
+        <v>0.57030152648907517</v>
+      </c>
+      <c r="I3" s="15">
+        <f>C3+C15+C26+C38+C48+C60+C71+C77</f>
+        <v>47634435</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>336</v>
+      </c>
+      <c r="B4" s="28">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="C4" s="11">
+        <f t="shared" ref="C4:C10" si="1">B4*C$11</f>
+        <v>6248728</v>
+      </c>
+      <c r="G4" t="s">
+        <v>336</v>
+      </c>
+      <c r="H4" s="39">
+        <f t="shared" si="0"/>
+        <v>0.18724507632445375</v>
+      </c>
+      <c r="I4" s="15">
+        <f>C4+C18+C27+C37+C52+C61+C72+C78</f>
+        <v>15639645</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="28">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="C5" s="11">
+        <f t="shared" si="1"/>
+        <v>2629038</v>
+      </c>
+      <c r="G5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H5" s="39">
+        <f t="shared" si="0"/>
+        <v>7.316738700987728E-2</v>
+      </c>
+      <c r="I5" s="15">
+        <f>C5+C17+C28+C39+C51+C62</f>
+        <v>6111306</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>337</v>
+      </c>
+      <c r="B6" s="28">
+        <v>0.03</v>
+      </c>
+      <c r="C6" s="11">
+        <f t="shared" si="1"/>
+        <v>1143060</v>
+      </c>
+      <c r="G6" t="s">
+        <v>337</v>
+      </c>
+      <c r="H6" s="39">
+        <f t="shared" si="0"/>
+        <v>3.2224148458545349E-2</v>
+      </c>
+      <c r="I6" s="15">
+        <f>C6+C50</f>
+        <v>2691522</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="28">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C7" s="11">
+        <f t="shared" si="1"/>
+        <v>152408</v>
+      </c>
+      <c r="G7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H7" s="39">
+        <f t="shared" si="0"/>
+        <v>4.6302436396288539E-2</v>
+      </c>
+      <c r="I7" s="15">
+        <f>C7+C16+C29+C40+C49+C63</f>
+        <v>3867411</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="28">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="C8" s="11">
+        <f t="shared" si="1"/>
+        <v>990652</v>
+      </c>
+      <c r="G8" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" s="39">
+        <f t="shared" si="0"/>
+        <v>2.2116264591439689E-2</v>
+      </c>
+      <c r="I8" s="15">
+        <f>C8+C19+C30+C41+C53+C64</f>
+        <v>1847261</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="28">
+        <v>3.1E-2</v>
+      </c>
+      <c r="C9" s="11">
+        <f t="shared" si="1"/>
+        <v>1181162</v>
+      </c>
+      <c r="G9" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" s="39">
+        <f t="shared" si="0"/>
+        <v>2.3994971565399582E-2</v>
+      </c>
+      <c r="I9" s="15">
+        <f t="shared" ref="I9:I10" si="2">C9+C20+C31+C42+C54+C65</f>
+        <v>2004180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="28">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="C10" s="11">
+        <f t="shared" si="1"/>
+        <v>2019406</v>
+      </c>
+      <c r="G10" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10" s="39">
+        <f>I10/I$11</f>
+        <v>4.4648189164920679E-2</v>
+      </c>
+      <c r="I10" s="15">
+        <f t="shared" si="2"/>
+        <v>3729240</v>
+      </c>
+      <c r="M10" s="28"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="35">
+        <f>SUM(B3:B10)</f>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="C11" s="37">
+        <v>38102000</v>
+      </c>
+      <c r="G11" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="38">
+        <f>I11/I$11</f>
+        <v>1</v>
+      </c>
+      <c r="I11" s="37">
+        <f>C11+C22+C33+C44+C56+C67+C73+C79</f>
+        <v>83525000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="33" t="s">
+        <v>339</v>
+      </c>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
+        <v>335</v>
+      </c>
+      <c r="B15" s="28">
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="C15" s="11">
+        <f>B15*C$22</f>
+        <v>1629320</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="28">
+        <v>6.3E-2</v>
+      </c>
+      <c r="C16" s="11">
+        <f t="shared" ref="C16:C21" si="3">B16*C$22</f>
+        <v>127512</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" s="28">
+        <v>6.2E-2</v>
+      </c>
+      <c r="C17" s="11">
+        <f t="shared" si="3"/>
+        <v>125488</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" t="s">
+        <v>336</v>
+      </c>
+      <c r="B18" s="28">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="C18" s="11">
+        <f t="shared" si="3"/>
+        <v>93104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="28">
+        <v>1E-3</v>
+      </c>
+      <c r="C19" s="11">
+        <f t="shared" si="3"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="28">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C20" s="11">
+        <f t="shared" si="3"/>
+        <v>8096</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="28">
+        <v>1.9E-2</v>
+      </c>
+      <c r="C21" s="11">
+        <f t="shared" si="3"/>
+        <v>38456</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="35">
+        <f>SUM(B15:B21)</f>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="C22" s="37">
+        <v>2024000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="33" t="s">
+        <v>340</v>
+      </c>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" s="28">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="C26" s="11">
+        <f>B26*C$33</f>
+        <v>7401724</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" t="s">
+        <v>336</v>
+      </c>
+      <c r="B27" s="28">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="C27" s="11">
+        <f t="shared" ref="C27:C32" si="4">B27*C$33</f>
+        <v>2831532</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" s="28">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="C28" s="11">
+        <f t="shared" si="4"/>
+        <v>1154967</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="28">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C29" s="11">
+        <f t="shared" si="4"/>
+        <v>49676</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30" s="28">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="C30" s="11">
+        <f t="shared" si="4"/>
+        <v>360151</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" s="28">
+        <v>1.6E-2</v>
+      </c>
+      <c r="C31" s="11">
+        <f t="shared" si="4"/>
+        <v>198704</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" s="28">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="C32" s="11">
+        <f t="shared" si="4"/>
+        <v>422246.00000000006</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="36">
+        <f>SUM(B26:B32)</f>
+        <v>1</v>
+      </c>
+      <c r="C33" s="37">
+        <v>12419000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="33" t="s">
+        <v>341</v>
+      </c>
+      <c r="B35" s="33"/>
+      <c r="C35" s="33"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" t="s">
+        <v>336</v>
+      </c>
+      <c r="B37" s="28">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="C37" s="11">
+        <f>B37*C$44</f>
+        <v>4713660</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="28">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="C38" s="11">
+        <f t="shared" ref="C38:C43" si="5">B38*C$44</f>
+        <v>1016305</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" t="s">
+        <v>70</v>
+      </c>
+      <c r="B39" s="28">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="C39" s="11">
+        <f t="shared" si="5"/>
+        <v>274340</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" t="s">
+        <v>69</v>
+      </c>
+      <c r="B40" s="28">
+        <v>2E-3</v>
+      </c>
+      <c r="C40" s="11">
+        <f t="shared" si="5"/>
+        <v>12470</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" t="s">
+        <v>67</v>
+      </c>
+      <c r="B41" s="28">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C41" s="11">
+        <f t="shared" si="5"/>
+        <v>24940</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" t="s">
+        <v>66</v>
+      </c>
+      <c r="B42" s="28">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="C42" s="11">
+        <f t="shared" si="5"/>
+        <v>56114.999999999993</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" t="s">
+        <v>65</v>
+      </c>
+      <c r="B43" s="28">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="C43" s="11">
+        <f t="shared" si="5"/>
+        <v>137170</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="B44" s="35">
+        <f>SUM(B37:B43)</f>
+        <v>1</v>
+      </c>
+      <c r="C44" s="37">
+        <v>6235000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="33" t="s">
+        <v>342</v>
+      </c>
+      <c r="B46" s="33"/>
+      <c r="C46" s="33"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" t="s">
+        <v>72</v>
+      </c>
+      <c r="B47" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" t="s">
+        <v>74</v>
+      </c>
+      <c r="B48" s="28">
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="C48" s="11">
+        <f>B48*C$56</f>
+        <v>8104716</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" t="s">
+        <v>69</v>
+      </c>
+      <c r="B49" s="28">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="C49" s="11">
+        <f t="shared" ref="C49:C55" si="6">B49*C$56</f>
+        <v>2849829</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" t="s">
+        <v>337</v>
+      </c>
+      <c r="B50" s="28">
+        <v>9.4E-2</v>
+      </c>
+      <c r="C50" s="11">
+        <f t="shared" si="6"/>
+        <v>1548462</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" t="s">
+        <v>70</v>
+      </c>
+      <c r="B51" s="28">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="C51" s="11">
+        <f t="shared" si="6"/>
+        <v>1202529</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" t="s">
+        <v>336</v>
+      </c>
+      <c r="B52" s="28">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="C52" s="11">
+        <f t="shared" si="6"/>
+        <v>1004853</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" t="s">
+        <v>67</v>
+      </c>
+      <c r="B53" s="28">
+        <v>2.4E-2</v>
+      </c>
+      <c r="C53" s="11">
+        <f t="shared" si="6"/>
+        <v>395352</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" t="s">
+        <v>66</v>
+      </c>
+      <c r="B54" s="28">
+        <v>2.7E-2</v>
+      </c>
+      <c r="C54" s="11">
+        <f t="shared" si="6"/>
+        <v>444771</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" t="s">
+        <v>65</v>
+      </c>
+      <c r="B55" s="28">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="C55" s="11">
+        <f t="shared" si="6"/>
+        <v>922488</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="B56" s="36">
+        <v>1</v>
+      </c>
+      <c r="C56" s="37">
+        <v>16473000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="33" t="s">
+        <v>343</v>
+      </c>
+      <c r="B58" s="33"/>
+      <c r="C58" s="33"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" t="s">
+        <v>72</v>
+      </c>
+      <c r="B59" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" t="s">
+        <v>74</v>
+      </c>
+      <c r="B60" s="28">
+        <v>0.69399999999999995</v>
+      </c>
+      <c r="C60" s="11">
+        <f>B60*C$67</f>
+        <v>5717172</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" t="s">
+        <v>336</v>
+      </c>
+      <c r="B61" s="28">
+        <v>0.09</v>
+      </c>
+      <c r="C61" s="11">
+        <f t="shared" ref="C61:C66" si="7">B61*C$67</f>
+        <v>741420</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" t="s">
+        <v>70</v>
+      </c>
+      <c r="B62" s="28">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="C62" s="11">
+        <f t="shared" si="7"/>
+        <v>724944</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" t="s">
+        <v>69</v>
+      </c>
+      <c r="B63" s="28">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="C63" s="11">
+        <f t="shared" si="7"/>
+        <v>675516</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" t="s">
+        <v>67</v>
+      </c>
+      <c r="B64" s="28">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="C64" s="11">
+        <f t="shared" si="7"/>
+        <v>74142</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" t="s">
+        <v>66</v>
+      </c>
+      <c r="B65" s="28">
+        <v>1.4E-2</v>
+      </c>
+      <c r="C65" s="11">
+        <f t="shared" si="7"/>
+        <v>115332</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66" s="28">
+        <v>2.3E-2</v>
+      </c>
+      <c r="C66" s="11">
+        <f t="shared" si="7"/>
+        <v>189474</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="B67" s="36">
+        <v>1</v>
+      </c>
+      <c r="C67" s="37">
+        <v>8238000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" s="33" t="s">
+        <v>344</v>
+      </c>
+      <c r="B69" s="33"/>
+      <c r="C69" s="33"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" t="s">
+        <v>72</v>
+      </c>
+      <c r="B70" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71" t="s">
+        <v>74</v>
+      </c>
+      <c r="B71" s="28">
+        <v>0.73299999999999998</v>
+      </c>
+      <c r="C71" s="11">
+        <f>B71*C$73</f>
+        <v>9529</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72" t="s">
+        <v>336</v>
+      </c>
+      <c r="B72" s="28">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="C72" s="11">
+        <f>B72*C$73</f>
+        <v>3471</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="B73" s="35">
+        <f>SUM(B71:B72)</f>
+        <v>1</v>
+      </c>
+      <c r="C73" s="37">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75" s="33" t="s">
+        <v>345</v>
+      </c>
+      <c r="B75" s="33"/>
+      <c r="C75" s="33"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A76" t="s">
+        <v>72</v>
+      </c>
+      <c r="B76" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A77" t="s">
+        <v>74</v>
+      </c>
+      <c r="B77" s="28">
+        <v>0.86299999999999999</v>
+      </c>
+      <c r="C77" s="11">
+        <f>B77*C$79</f>
+        <v>18123</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A78" t="s">
+        <v>336</v>
+      </c>
+      <c r="B78" s="28">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="C78" s="11">
+        <f>B78*C$79</f>
+        <v>2877</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A79" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="B79" s="35">
+        <f>SUM(B77:B78)</f>
+        <v>1</v>
+      </c>
+      <c r="C79" s="37">
+        <v>21000</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="A75:C75"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A46:C46"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/obsidian-notes/spreadsheets/area.xlsx
+++ b/obsidian-notes/spreadsheets/area.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sharm\iCloudDrive\iCloud~md~obsidian\Ishan's notes\Spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC96E1E-D7D6-464F-BFD7-F04C39089FA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE540ACF-3357-464E-857E-E3E4840B8F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" activeTab="5" xr2:uid="{94B94BC7-FBC8-4BAC-A974-CA3E4662C848}"/>
   </bookViews>
@@ -9726,8 +9726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{361FE7B8-0B0F-454D-9098-56AB6E752981}">
   <dimension ref="A1:M79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>

--- a/obsidian-notes/spreadsheets/area.xlsx
+++ b/obsidian-notes/spreadsheets/area.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sharm\iCloudDrive\iCloud~md~obsidian\Ishan's notes\Spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE540ACF-3357-464E-857E-E3E4840B8F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{758BA282-6C85-4D30-9521-991083DC32D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" activeTab="5" xr2:uid="{94B94BC7-FBC8-4BAC-A974-CA3E4662C848}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" firstSheet="1" activeTab="6" xr2:uid="{94B94BC7-FBC8-4BAC-A974-CA3E4662C848}"/>
   </bookViews>
   <sheets>
     <sheet name="france" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="united states" sheetId="2" r:id="rId4"/>
     <sheet name="buenaventura" sheetId="4" r:id="rId5"/>
     <sheet name="philippines" sheetId="20" r:id="rId6"/>
+    <sheet name="China" sheetId="21" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="381">
   <si>
     <t>OTL Metro France</t>
   </si>
@@ -1079,6 +1080,111 @@
   </si>
   <si>
     <t>Northern Frontier Territory</t>
+  </si>
+  <si>
+    <t>OTL China (main law)</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>Macau</t>
+  </si>
+  <si>
+    <t>OTL China</t>
+  </si>
+  <si>
+    <t>Kachin State</t>
+  </si>
+  <si>
+    <t>Shan State</t>
+  </si>
+  <si>
+    <t>Kayah State</t>
+  </si>
+  <si>
+    <t>Annexed Burma</t>
+  </si>
+  <si>
+    <t>Jewish AO</t>
+  </si>
+  <si>
+    <t>Primorsky Krai</t>
+  </si>
+  <si>
+    <t>Amur Oblast</t>
+  </si>
+  <si>
+    <t>Kharabovsk Krai</t>
+  </si>
+  <si>
+    <t>Okhotsky Krai</t>
+  </si>
+  <si>
+    <t>Ayano-Maysky Krai</t>
+  </si>
+  <si>
+    <t>South Kharabovsk Krai</t>
+  </si>
+  <si>
+    <t>Outer Manchuria</t>
+  </si>
+  <si>
+    <t>Mongolia</t>
+  </si>
+  <si>
+    <t>Tannu Tuva</t>
+  </si>
+  <si>
+    <t>Xinjiang</t>
+  </si>
+  <si>
+    <t>Hami</t>
+  </si>
+  <si>
+    <t>Changji Hui AP</t>
+  </si>
+  <si>
+    <t>Uruqmi</t>
+  </si>
+  <si>
+    <t>Wuijiaqu</t>
+  </si>
+  <si>
+    <t>Kashgaria</t>
+  </si>
+  <si>
+    <t>Tibet Autonomous Region</t>
+  </si>
+  <si>
+    <t>Garze Tibetan AP</t>
+  </si>
+  <si>
+    <t>Liangshan Yi AP</t>
+  </si>
+  <si>
+    <t>Panzhihua</t>
+  </si>
+  <si>
+    <t>Yushu Tibetan AP</t>
+  </si>
+  <si>
+    <t>Golog Tibetan AP</t>
+  </si>
+  <si>
+    <t>Golmud (part)</t>
+  </si>
+  <si>
+    <t>Tibet</t>
+  </si>
+  <si>
+    <t>Zabaykalsky Krai</t>
+  </si>
+  <si>
+    <t>Buryatia</t>
+  </si>
+  <si>
+    <t>Transbaikal</t>
   </si>
 </sst>
 </file>
@@ -1177,7 +1283,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1211,15 +1317,16 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1549,10 +1656,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="33"/>
+      <c r="B1" s="39"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
@@ -2127,11 +2234,11 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="33" t="s">
+      <c r="A56" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="B56" s="33"/>
-      <c r="C56" s="33"/>
+      <c r="B56" s="39"/>
+      <c r="C56" s="39"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
@@ -9726,7 +9833,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{361FE7B8-0B0F-454D-9098-56AB6E752981}">
   <dimension ref="A1:M79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
@@ -9738,11 +9845,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="39" t="s">
         <v>338</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
       <c r="G1" t="s">
         <v>22</v>
       </c>
@@ -9781,7 +9888,7 @@
       <c r="G3" t="s">
         <v>335</v>
       </c>
-      <c r="H3" s="39">
+      <c r="H3" s="38">
         <f t="shared" ref="H3:H9" si="0">I3/I$11</f>
         <v>0.57030152648907517</v>
       </c>
@@ -9804,7 +9911,7 @@
       <c r="G4" t="s">
         <v>336</v>
       </c>
-      <c r="H4" s="39">
+      <c r="H4" s="38">
         <f t="shared" si="0"/>
         <v>0.18724507632445375</v>
       </c>
@@ -9827,7 +9934,7 @@
       <c r="G5" t="s">
         <v>70</v>
       </c>
-      <c r="H5" s="39">
+      <c r="H5" s="38">
         <f t="shared" si="0"/>
         <v>7.316738700987728E-2</v>
       </c>
@@ -9850,7 +9957,7 @@
       <c r="G6" t="s">
         <v>337</v>
       </c>
-      <c r="H6" s="39">
+      <c r="H6" s="38">
         <f t="shared" si="0"/>
         <v>3.2224148458545349E-2</v>
       </c>
@@ -9873,7 +9980,7 @@
       <c r="G7" t="s">
         <v>69</v>
       </c>
-      <c r="H7" s="39">
+      <c r="H7" s="38">
         <f t="shared" si="0"/>
         <v>4.6302436396288539E-2</v>
       </c>
@@ -9896,7 +10003,7 @@
       <c r="G8" t="s">
         <v>67</v>
       </c>
-      <c r="H8" s="39">
+      <c r="H8" s="38">
         <f t="shared" si="0"/>
         <v>2.2116264591439689E-2</v>
       </c>
@@ -9919,7 +10026,7 @@
       <c r="G9" t="s">
         <v>66</v>
       </c>
-      <c r="H9" s="39">
+      <c r="H9" s="38">
         <f t="shared" si="0"/>
         <v>2.3994971565399582E-2</v>
       </c>
@@ -9942,7 +10049,7 @@
       <c r="G10" t="s">
         <v>65</v>
       </c>
-      <c r="H10" s="39">
+      <c r="H10" s="38">
         <f>I10/I$11</f>
         <v>4.4648189164920679E-2</v>
       </c>
@@ -9953,34 +10060,34 @@
       <c r="M10" s="28"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="35">
+      <c r="B11" s="34">
         <f>SUM(B3:B10)</f>
         <v>1.0000000000000002</v>
       </c>
-      <c r="C11" s="37">
+      <c r="C11" s="36">
         <v>38102000</v>
       </c>
-      <c r="G11" s="34" t="s">
+      <c r="G11" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="38">
+      <c r="H11" s="37">
         <f>I11/I$11</f>
         <v>1</v>
       </c>
-      <c r="I11" s="37">
+      <c r="I11" s="36">
         <f>C11+C22+C33+C44+C56+C67+C73+C79</f>
         <v>83525000</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="39" t="s">
         <v>339</v>
       </c>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
@@ -10078,23 +10185,23 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="34" t="s">
+      <c r="A22" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="35">
+      <c r="B22" s="34">
         <f>SUM(B15:B21)</f>
         <v>1.0000000000000002</v>
       </c>
-      <c r="C22" s="37">
+      <c r="C22" s="36">
         <v>2024000</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="33" t="s">
+      <c r="A24" s="39" t="s">
         <v>340</v>
       </c>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
@@ -10189,23 +10296,23 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="34" t="s">
+      <c r="A33" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="36">
+      <c r="B33" s="35">
         <f>SUM(B26:B32)</f>
         <v>1</v>
       </c>
-      <c r="C33" s="37">
+      <c r="C33" s="36">
         <v>12419000</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="33" t="s">
+      <c r="A35" s="39" t="s">
         <v>341</v>
       </c>
-      <c r="B35" s="33"/>
-      <c r="C35" s="33"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="39"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
@@ -10300,23 +10407,23 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="34" t="s">
+      <c r="A44" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="B44" s="35">
+      <c r="B44" s="34">
         <f>SUM(B37:B43)</f>
         <v>1</v>
       </c>
-      <c r="C44" s="37">
+      <c r="C44" s="36">
         <v>6235000</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="33" t="s">
+      <c r="A46" s="39" t="s">
         <v>342</v>
       </c>
-      <c r="B46" s="33"/>
-      <c r="C46" s="33"/>
+      <c r="B46" s="39"/>
+      <c r="C46" s="39"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
@@ -10423,22 +10530,22 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="34" t="s">
+      <c r="A56" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="B56" s="36">
+      <c r="B56" s="35">
         <v>1</v>
       </c>
-      <c r="C56" s="37">
+      <c r="C56" s="36">
         <v>16473000</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="33" t="s">
+      <c r="A58" s="39" t="s">
         <v>343</v>
       </c>
-      <c r="B58" s="33"/>
-      <c r="C58" s="33"/>
+      <c r="B58" s="39"/>
+      <c r="C58" s="39"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
@@ -10533,22 +10640,22 @@
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A67" s="34" t="s">
+      <c r="A67" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="B67" s="36">
+      <c r="B67" s="35">
         <v>1</v>
       </c>
-      <c r="C67" s="37">
+      <c r="C67" s="36">
         <v>8238000</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A69" s="33" t="s">
+      <c r="A69" s="39" t="s">
         <v>344</v>
       </c>
-      <c r="B69" s="33"/>
-      <c r="C69" s="33"/>
+      <c r="B69" s="39"/>
+      <c r="C69" s="39"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
@@ -10583,23 +10690,23 @@
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A73" s="34" t="s">
+      <c r="A73" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="B73" s="35">
+      <c r="B73" s="34">
         <f>SUM(B71:B72)</f>
         <v>1</v>
       </c>
-      <c r="C73" s="37">
+      <c r="C73" s="36">
         <v>13000</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A75" s="33" t="s">
+      <c r="A75" s="39" t="s">
         <v>345</v>
       </c>
-      <c r="B75" s="33"/>
-      <c r="C75" s="33"/>
+      <c r="B75" s="39"/>
+      <c r="C75" s="39"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
@@ -10634,14 +10741,14 @@
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A79" s="34" t="s">
+      <c r="A79" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="B79" s="35">
+      <c r="B79" s="34">
         <f>SUM(B77:B78)</f>
         <v>1</v>
       </c>
-      <c r="C79" s="37">
+      <c r="C79" s="36">
         <v>21000</v>
       </c>
     </row>
@@ -10658,4 +10765,323 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F052C3D5-A3C0-4980-867A-FBAC00D00C62}">
+  <dimension ref="A1:H36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="2" max="2" width="9.62890625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.20703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.83984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="D1" t="s">
+        <v>346</v>
+      </c>
+      <c r="E1" s="1">
+        <v>9596961</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="D2" t="s">
+        <v>347</v>
+      </c>
+      <c r="E2" s="2">
+        <v>2754.97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="D3" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="E3" s="40">
+        <v>115.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>349</v>
+      </c>
+      <c r="B4" s="1">
+        <f>SUM(E1:E3)</f>
+        <v>9599831.2700000014</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="D5" t="s">
+        <v>350</v>
+      </c>
+      <c r="E5" s="1">
+        <v>89041.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="D6" t="s">
+        <v>351</v>
+      </c>
+      <c r="E6" s="1">
+        <v>155801.29999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="D7" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="E7" s="6">
+        <v>11731.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>353</v>
+      </c>
+      <c r="B8" s="1">
+        <f>SUM(E5:E7)</f>
+        <v>256574</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="D9" t="s">
+        <v>354</v>
+      </c>
+      <c r="E9" s="1">
+        <v>36271</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="D10" t="s">
+        <v>355</v>
+      </c>
+      <c r="E10" s="1">
+        <v>164673</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="D11" t="s">
+        <v>356</v>
+      </c>
+      <c r="E11" s="1">
+        <v>361908</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="G12" t="s">
+        <v>357</v>
+      </c>
+      <c r="H12" s="1">
+        <v>787633</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="G13" t="s">
+        <v>358</v>
+      </c>
+      <c r="H13" s="1">
+        <v>-158517.79999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="G14" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="H14" s="6">
+        <v>-167200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="D15" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="E15" s="6">
+        <f>SUM(H12:H14)</f>
+        <v>461915.19999999995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="s">
+        <v>361</v>
+      </c>
+      <c r="B16" s="1">
+        <f>SUM(E9:E15)</f>
+        <v>1024767.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="1"/>
+      <c r="D17" t="s">
+        <v>378</v>
+      </c>
+      <c r="E17" s="1">
+        <v>431892</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="1"/>
+      <c r="D18" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="E18" s="6">
+        <v>351334</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" t="s">
+        <v>380</v>
+      </c>
+      <c r="B19" s="1">
+        <f>SUM(E17:E18)</f>
+        <v>783226</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" t="s">
+        <v>362</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1564116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" t="s">
+        <v>363</v>
+      </c>
+      <c r="B21" s="1">
+        <v>168604</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D22" t="s">
+        <v>364</v>
+      </c>
+      <c r="E22" s="1">
+        <v>-1664897</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D23" t="s">
+        <v>365</v>
+      </c>
+      <c r="E23" s="1">
+        <v>137222</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D24" t="s">
+        <v>366</v>
+      </c>
+      <c r="E24" s="1">
+        <v>73485</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D25" t="s">
+        <v>367</v>
+      </c>
+      <c r="E25" s="1">
+        <v>14577</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D26" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="E26" s="6">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" t="s">
+        <v>369</v>
+      </c>
+      <c r="B27" s="1">
+        <f>SUM(E22:E26)</f>
+        <v>-1438871</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D28" t="s">
+        <v>370</v>
+      </c>
+      <c r="E28" s="1">
+        <v>-474300</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D29" t="s">
+        <v>371</v>
+      </c>
+      <c r="E29" s="1">
+        <v>-147681.37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D30" t="s">
+        <v>372</v>
+      </c>
+      <c r="E30" s="1">
+        <v>-60261</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D31" t="s">
+        <v>373</v>
+      </c>
+      <c r="E31" s="2">
+        <v>-7423.42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D32" t="s">
+        <v>374</v>
+      </c>
+      <c r="E32" s="1">
+        <v>-204887</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D33" t="s">
+        <v>375</v>
+      </c>
+      <c r="E33" s="1">
+        <v>-74246</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D34" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="E34" s="6">
+        <v>-49384</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="B35" s="6">
+        <f>SUM(E28:E34)</f>
+        <v>-1018182.79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36" s="1">
+        <f>SUM(B4:B35)</f>
+        <v>10940064.68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/obsidian-notes/spreadsheets/area.xlsx
+++ b/obsidian-notes/spreadsheets/area.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sharm\iCloudDrive\iCloud~md~obsidian\Ishan's notes\Spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{758BA282-6C85-4D30-9521-991083DC32D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED29D197-604C-4109-9808-7AE7DED586FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" firstSheet="1" activeTab="6" xr2:uid="{94B94BC7-FBC8-4BAC-A974-CA3E4662C848}"/>
   </bookViews>

--- a/obsidian-notes/spreadsheets/area.xlsx
+++ b/obsidian-notes/spreadsheets/area.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sharm\iCloudDrive\iCloud~md~obsidian\Ishan's notes\Spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED29D197-604C-4109-9808-7AE7DED586FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A64113C6-934C-4BFD-A5E2-A46F9618AC70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" firstSheet="1" activeTab="6" xr2:uid="{94B94BC7-FBC8-4BAC-A974-CA3E4662C848}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" firstSheet="1" activeTab="3" xr2:uid="{94B94BC7-FBC8-4BAC-A974-CA3E4662C848}"/>
   </bookViews>
   <sheets>
     <sheet name="france" sheetId="1" r:id="rId1"/>
     <sheet name="germany" sheetId="19" r:id="rId2"/>
     <sheet name="batavian republic" sheetId="18" r:id="rId3"/>
     <sheet name="united states" sheetId="2" r:id="rId4"/>
-    <sheet name="buenaventura" sheetId="4" r:id="rId5"/>
-    <sheet name="philippines" sheetId="20" r:id="rId6"/>
-    <sheet name="China" sheetId="21" r:id="rId7"/>
+    <sheet name="united states population" sheetId="22" r:id="rId5"/>
+    <sheet name="buenaventura" sheetId="4" r:id="rId6"/>
+    <sheet name="philippines" sheetId="20" r:id="rId7"/>
+    <sheet name="China" sheetId="21" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="383">
   <si>
     <t>OTL Metro France</t>
   </si>
@@ -1185,6 +1186,12 @@
   </si>
   <si>
     <t>Transbaikal</t>
+  </si>
+  <si>
+    <t>Census year</t>
+  </si>
+  <si>
+    <t>Growth rate</t>
   </si>
 </sst>
 </file>
@@ -1323,10 +1330,10 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1656,10 +1663,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="39"/>
+      <c r="B1" s="40"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
@@ -2234,11 +2241,11 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="39" t="s">
+      <c r="A56" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="B56" s="39"/>
-      <c r="C56" s="39"/>
+      <c r="B56" s="40"/>
+      <c r="C56" s="40"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
@@ -2895,8 +2902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C745E12-030D-4421-A6DC-982053D4A77E}">
   <dimension ref="A1:N319"/>
   <sheetViews>
-    <sheetView zoomScale="93" workbookViewId="0">
-      <selection activeCell="J142" sqref="J142"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="93" workbookViewId="0">
+      <selection activeCell="F86" sqref="F86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -3307,7 +3314,7 @@
       </c>
       <c r="B34" s="12">
         <f>C84^(1/3)</f>
-        <v>680.1290124305574</v>
+        <v>676.50673931121514</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -3324,7 +3331,7 @@
       </c>
       <c r="B36" s="15">
         <f>C84/B35</f>
-        <v>445624.64589235128</v>
+        <v>438542.492917847</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -3333,7 +3340,7 @@
       </c>
       <c r="B37" s="15">
         <f>B36+C37</f>
-        <v>447624.64589235128</v>
+        <v>440542.492917847</v>
       </c>
       <c r="C37">
         <v>2000</v>
@@ -3386,7 +3393,7 @@
       <c r="D41" s="23"/>
       <c r="E41" s="24">
         <f t="shared" ref="E41:E82" si="0">C41/$B$37</f>
-        <v>3.3934681969350331</v>
+        <v>3.4480215289544507</v>
       </c>
       <c r="F41" s="25">
         <f t="shared" ref="F41:F83" si="1">FLOOR(E41,1)</f>
@@ -3424,15 +3431,15 @@
       <c r="D42" s="1"/>
       <c r="E42" s="12">
         <f t="shared" si="0"/>
-        <v>34.926584457460372</v>
+        <v>35.488063583722109</v>
       </c>
       <c r="F42" s="15">
         <f t="shared" si="1"/>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G42">
         <f t="shared" ref="G42:G83" si="3">SQRT(F42*(F42+1))</f>
-        <v>34.496376621320678</v>
+        <v>35.496478698597699</v>
       </c>
       <c r="H42">
         <f t="shared" si="2"/>
@@ -3460,15 +3467,15 @@
       <c r="D43" s="23"/>
       <c r="E43" s="24">
         <f t="shared" si="0"/>
-        <v>23.763213436996672</v>
+        <v>24.145230417043113</v>
       </c>
       <c r="F43" s="25">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G43" s="22">
         <f t="shared" si="3"/>
-        <v>23.49468024894146</v>
+        <v>24.494897427831781</v>
       </c>
       <c r="H43" s="22">
         <f t="shared" si="2"/>
@@ -3498,15 +3505,15 @@
       <c r="D44" s="1"/>
       <c r="E44" s="12">
         <f t="shared" si="0"/>
-        <v>26.83274951506694</v>
+        <v>27.2641123003765</v>
       </c>
       <c r="F44" s="15">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G44">
         <f t="shared" si="3"/>
-        <v>26.49528259898354</v>
+        <v>27.495454169735041</v>
       </c>
       <c r="H44">
         <f t="shared" si="2"/>
@@ -3534,7 +3541,7 @@
       <c r="D45" s="23"/>
       <c r="E45" s="24">
         <f t="shared" si="0"/>
-        <v>8.1452172784892234</v>
+        <v>8.2761596409268776</v>
       </c>
       <c r="F45" s="25">
         <f t="shared" si="1"/>
@@ -3572,7 +3579,7 @@
       <c r="D46" s="1"/>
       <c r="E46" s="12">
         <f t="shared" si="0"/>
-        <v>19.397948883467343</v>
+        <v>19.709789951225474</v>
       </c>
       <c r="F46" s="15">
         <f t="shared" si="1"/>
@@ -3584,7 +3591,7 @@
       </c>
       <c r="H46">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K46" s="11">
         <f>K186*0.8</f>
@@ -3608,7 +3615,7 @@
       <c r="D47" s="23"/>
       <c r="E47" s="24">
         <f t="shared" si="0"/>
-        <v>10.6718878056344</v>
+        <v>10.843448876771172</v>
       </c>
       <c r="F47" s="25">
         <f t="shared" si="1"/>
@@ -3646,7 +3653,7 @@
       <c r="D48" s="1"/>
       <c r="E48" s="12">
         <f t="shared" si="0"/>
-        <v>20.146343778775595</v>
+        <v>20.470216029039655</v>
       </c>
       <c r="F48" s="15">
         <f t="shared" si="1"/>
@@ -3682,7 +3689,7 @@
       <c r="D49" s="23"/>
       <c r="E49" s="24">
         <f t="shared" si="0"/>
-        <v>3.8961214848286359</v>
+        <v>3.9587554618147212</v>
       </c>
       <c r="F49" s="25">
         <f t="shared" si="1"/>
@@ -3720,15 +3727,15 @@
       <c r="D50" s="1"/>
       <c r="E50" s="12">
         <f t="shared" si="0"/>
-        <v>42.761273704761997</v>
+        <v>43.448703150570857</v>
       </c>
       <c r="F50" s="15">
         <f t="shared" si="1"/>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G50">
         <f t="shared" si="3"/>
-        <v>42.497058721751557</v>
+        <v>43.497126341863094</v>
       </c>
       <c r="H50">
         <f t="shared" si="2"/>
@@ -3751,24 +3758,24 @@
         <v>87</v>
       </c>
       <c r="C51" s="23">
-        <v>36239000</v>
+        <v>32739000</v>
       </c>
       <c r="D51" s="23"/>
       <c r="E51" s="24">
         <f t="shared" si="0"/>
-        <v>80.958455555450072</v>
+        <v>74.315192124055145</v>
       </c>
       <c r="F51" s="25">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G51" s="22">
         <f t="shared" si="3"/>
-        <v>80.498447189992433</v>
+        <v>74.498322128756698</v>
       </c>
       <c r="H51" s="22">
         <f t="shared" si="2"/>
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="I51" s="22"/>
       <c r="J51" s="22"/>
@@ -3794,15 +3801,15 @@
       <c r="D52" s="1"/>
       <c r="E52" s="12">
         <f t="shared" si="0"/>
-        <v>27.949756821497168</v>
+        <v>28.399076595621548</v>
       </c>
       <c r="F52" s="15">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G52">
         <f t="shared" si="3"/>
-        <v>27.495454169735041</v>
+        <v>28.495613697550013</v>
       </c>
       <c r="H52">
         <f t="shared" si="2"/>
@@ -3830,7 +3837,7 @@
       <c r="D53" s="23"/>
       <c r="E53" s="24">
         <f t="shared" si="0"/>
-        <v>2.452948044920781</v>
+        <v>2.4923815923581216</v>
       </c>
       <c r="F53" s="25">
         <f t="shared" si="1"/>
@@ -3868,7 +3875,7 @@
       <c r="D54" s="1"/>
       <c r="E54" s="12">
         <f t="shared" si="0"/>
-        <v>1.8922103770928065</v>
+        <v>1.9226295161451084</v>
       </c>
       <c r="F54" s="15">
         <f t="shared" si="1"/>
@@ -3896,7 +3903,7 @@
       <c r="D55" s="23"/>
       <c r="E55" s="24">
         <f t="shared" si="0"/>
-        <v>21.046651667758358</v>
+        <v>21.38499725100716</v>
       </c>
       <c r="F55" s="25">
         <f t="shared" si="1"/>
@@ -3935,7 +3942,7 @@
       <c r="D56" s="1"/>
       <c r="E56" s="12">
         <f t="shared" si="0"/>
-        <v>23.412473142777582</v>
+        <v>23.788851628336168</v>
       </c>
       <c r="F56" s="15">
         <f t="shared" si="1"/>
@@ -3947,7 +3954,7 @@
       </c>
       <c r="H56">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K56" s="11">
         <f>K188*0.8</f>
@@ -3966,24 +3973,24 @@
         <v>93</v>
       </c>
       <c r="C57" s="23">
-        <v>23456000</v>
+        <v>22456000</v>
       </c>
       <c r="D57" s="23"/>
       <c r="E57" s="24">
         <f t="shared" si="0"/>
-        <v>52.401046759254861</v>
+        <v>50.973516428045514</v>
       </c>
       <c r="F57" s="25">
         <f t="shared" si="1"/>
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G57" s="22">
         <f t="shared" si="3"/>
-        <v>52.497618993626752</v>
+        <v>50.497524691810391</v>
       </c>
       <c r="H57" s="22">
         <f t="shared" si="2"/>
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I57" s="22"/>
       <c r="J57" s="22"/>
@@ -4009,7 +4016,7 @@
       <c r="D58" s="1"/>
       <c r="E58" s="12">
         <f t="shared" si="0"/>
-        <v>22.568015619116331</v>
+        <v>22.930818621130914</v>
       </c>
       <c r="F58" s="15">
         <f t="shared" si="1"/>
@@ -4045,7 +4052,7 @@
       <c r="D59" s="23"/>
       <c r="E59" s="24">
         <f t="shared" si="0"/>
-        <v>12.068146938672186</v>
+        <v>12.26215424582748</v>
       </c>
       <c r="F59" s="25">
         <f t="shared" si="1"/>
@@ -4083,7 +4090,7 @@
       <c r="D60" s="1"/>
       <c r="E60" s="12">
         <f t="shared" si="0"/>
-        <v>19.442629175724552</v>
+        <v>19.755188523035276</v>
       </c>
       <c r="F60" s="15">
         <f t="shared" si="1"/>
@@ -4095,7 +4102,7 @@
       </c>
       <c r="H60">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K60" s="11">
         <f>K183*(1/3)+K211+K202*0.1+K209*0.7</f>
@@ -4119,7 +4126,7 @@
       <c r="D61" s="23"/>
       <c r="E61" s="24">
         <f t="shared" si="0"/>
-        <v>3.353255933903545</v>
+        <v>3.4071628143256287</v>
       </c>
       <c r="F61" s="25">
         <f t="shared" si="1"/>
@@ -4157,15 +4164,15 @@
       <c r="D62" s="1"/>
       <c r="E62" s="12">
         <f t="shared" si="0"/>
-        <v>25.94361169914848</v>
+        <v>26.360680721361444</v>
       </c>
       <c r="F62" s="15">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G62">
         <f t="shared" si="3"/>
-        <v>25.495097567963924</v>
+        <v>26.49528259898354</v>
       </c>
       <c r="H62">
         <f t="shared" si="2"/>
@@ -4193,15 +4200,15 @@
       <c r="D63" s="23"/>
       <c r="E63" s="24">
         <f t="shared" si="0"/>
-        <v>19.840283776813713</v>
+        <v>20.159235812142512</v>
       </c>
       <c r="F63" s="25">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G63" s="22">
         <f t="shared" si="3"/>
-        <v>19.493588689617926</v>
+        <v>20.493901531919196</v>
       </c>
       <c r="H63" s="22">
         <f t="shared" si="2"/>
@@ -4231,15 +4238,15 @@
       <c r="D64" s="1"/>
       <c r="E64" s="12">
         <f t="shared" si="0"/>
-        <v>41.782775304329114</v>
+        <v>42.454474427936198</v>
       </c>
       <c r="F64" s="15">
         <f t="shared" si="1"/>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G64">
         <f t="shared" si="3"/>
-        <v>41.496987842492857</v>
+        <v>42.497058721751557</v>
       </c>
       <c r="H64">
         <f t="shared" si="2"/>
@@ -4267,7 +4274,7 @@
       <c r="D65" s="23"/>
       <c r="E65" s="24">
         <f t="shared" si="0"/>
-        <v>16.29490258620417</v>
+        <v>16.556859139034735</v>
       </c>
       <c r="F65" s="25">
         <f t="shared" si="1"/>
@@ -4279,7 +4286,7 @@
       </c>
       <c r="H65" s="22">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I65" s="22"/>
       <c r="J65" s="22"/>
@@ -4300,24 +4307,24 @@
         <v>102</v>
       </c>
       <c r="C66" s="1">
-        <v>3526000</v>
+        <v>3026000</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="12">
         <f t="shared" si="0"/>
-        <v>7.8771355249459694</v>
+        <v>6.8688039148230198</v>
       </c>
       <c r="F66" s="15">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G66">
         <f t="shared" si="3"/>
-        <v>7.4833147735478827</v>
+        <v>6.4807406984078604</v>
       </c>
       <c r="H66">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K66" s="11">
         <f>K188*0.1</f>
@@ -4341,7 +4348,7 @@
       <c r="D67" s="23"/>
       <c r="E67" s="24">
         <f t="shared" si="0"/>
-        <v>20.244640421741455</v>
+        <v>20.570092887021218</v>
       </c>
       <c r="F67" s="25">
         <f t="shared" si="1"/>
@@ -4353,7 +4360,7 @@
       </c>
       <c r="H67" s="22">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I67" s="22"/>
       <c r="J67" s="22"/>
@@ -4379,7 +4386,7 @@
       <c r="D68" s="1"/>
       <c r="E68" s="12">
         <f t="shared" si="0"/>
-        <v>8.8087196185087784</v>
+        <v>8.9503284323024346</v>
       </c>
       <c r="F68" s="15">
         <f t="shared" si="1"/>
@@ -4415,7 +4422,7 @@
       <c r="D69" s="23"/>
       <c r="E69" s="24">
         <f t="shared" si="0"/>
-        <v>11.476133066264165</v>
+        <v>11.660623169347605</v>
       </c>
       <c r="F69" s="25">
         <f t="shared" si="1"/>
@@ -4427,7 +4434,7 @@
       </c>
       <c r="H69" s="22">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I69" s="22"/>
       <c r="J69" s="22"/>
@@ -4453,7 +4460,7 @@
       <c r="D70" s="1"/>
       <c r="E70" s="12">
         <f t="shared" si="0"/>
-        <v>4.3205842612721224</v>
+        <v>4.3900418940078385</v>
       </c>
       <c r="F70" s="15">
         <f t="shared" si="1"/>
@@ -4485,7 +4492,7 @@
       <c r="D71" s="23"/>
       <c r="E71" s="24">
         <f t="shared" si="0"/>
-        <v>17.472228287181629</v>
+        <v>17.753111506223014</v>
       </c>
       <c r="F71" s="25">
         <f t="shared" si="1"/>
@@ -4497,7 +4504,7 @@
       </c>
       <c r="H71" s="22">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I71" s="22"/>
       <c r="J71" s="22"/>
@@ -4523,7 +4530,7 @@
       <c r="D72" s="1"/>
       <c r="E72" s="12">
         <f t="shared" si="0"/>
-        <v>1.9480607424143179</v>
+        <v>1.9793777309073606</v>
       </c>
       <c r="F72" s="15">
         <f t="shared" si="1"/>
@@ -4551,15 +4558,15 @@
       <c r="D73" s="23"/>
       <c r="E73" s="24">
         <f t="shared" si="0"/>
-        <v>10.973479778370562</v>
+        <v>11.149889236487335</v>
       </c>
       <c r="F73" s="25">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G73" s="22">
         <f t="shared" si="3"/>
-        <v>10.488088481701515</v>
+        <v>11.489125293076057</v>
       </c>
       <c r="H73" s="22">
         <f t="shared" si="2"/>
@@ -4589,7 +4596,7 @@
       <c r="D74" s="1"/>
       <c r="E74" s="12">
         <f t="shared" si="0"/>
-        <v>4.2066495160162392</v>
+        <v>4.2742755358928441</v>
       </c>
       <c r="F74" s="15">
         <f t="shared" si="1"/>
@@ -4621,7 +4628,7 @@
       <c r="D75" s="23"/>
       <c r="E75" s="24">
         <f t="shared" si="0"/>
-        <v>7.6537340636599236</v>
+        <v>7.7767753510190571</v>
       </c>
       <c r="F75" s="25">
         <f t="shared" si="1"/>
@@ -4656,7 +4663,7 @@
       <c r="D76" s="1"/>
       <c r="E76" s="12">
         <f t="shared" si="0"/>
-        <v>18.551257345193228</v>
+        <v>18.849487015429727</v>
       </c>
       <c r="F76" s="15">
         <f t="shared" si="1"/>
@@ -4688,15 +4695,15 @@
       <c r="D77" s="23"/>
       <c r="E77" s="24">
         <f t="shared" si="0"/>
-        <v>6.9276793144802751</v>
+        <v>7.0390485591097764</v>
       </c>
       <c r="F77" s="25">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G77" s="22">
         <f t="shared" si="3"/>
-        <v>6.4807406984078604</v>
+        <v>7.4833147735478827</v>
       </c>
       <c r="H77" s="22">
         <f t="shared" si="2"/>
@@ -4726,7 +4733,7 @@
       <c r="D78" s="1"/>
       <c r="E78" s="12">
         <f t="shared" si="0"/>
-        <v>2.3859276065349673</v>
+        <v>2.424283734643419</v>
       </c>
       <c r="F78" s="15">
         <f t="shared" si="1"/>
@@ -4755,15 +4762,15 @@
       <c r="D79" s="23"/>
       <c r="E79" s="24">
         <f t="shared" si="0"/>
-        <v>7.8905396126231313</v>
+        <v>8.0173877816110064</v>
       </c>
       <c r="F79" s="25">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G79" s="22">
         <f t="shared" si="3"/>
-        <v>7.4833147735478827</v>
+        <v>8.4852813742385695</v>
       </c>
       <c r="H79" s="22">
         <f t="shared" si="2"/>
@@ -4793,7 +4800,7 @@
       <c r="D80" s="1"/>
       <c r="E80" s="12">
         <f t="shared" si="0"/>
-        <v>2.3032690658591304</v>
+        <v>2.3402963767952851</v>
       </c>
       <c r="F80" s="15">
         <f t="shared" si="1"/>
@@ -4821,7 +4828,7 @@
       <c r="D81" s="23"/>
       <c r="E81" s="24">
         <f>C81/$B$37</f>
-        <v>3.1745347648747084</v>
+        <v>3.2255685270864216</v>
       </c>
       <c r="F81" s="25">
         <f>FLOOR(E81,1)</f>
@@ -4852,7 +4859,7 @@
       <c r="D82" s="1"/>
       <c r="E82" s="12">
         <f t="shared" si="0"/>
-        <v>0.86009562595127564</v>
+        <v>0.87392250733868559</v>
       </c>
       <c r="F82" s="15">
         <f t="shared" si="1"/>
@@ -4880,7 +4887,7 @@
       <c r="D83" s="23"/>
       <c r="E83" s="24">
         <f>C83/$B$37</f>
-        <v>0.4289308056692076</v>
+        <v>0.43582628937409773</v>
       </c>
       <c r="F83" s="25">
         <f t="shared" si="1"/>
@@ -4905,18 +4912,18 @@
       </c>
       <c r="C84" s="7">
         <f>SUM(C41:C83)</f>
-        <v>314611000</v>
+        <v>309611000</v>
       </c>
       <c r="D84" s="7"/>
       <c r="E84" s="7">
         <f>SUM(E41:E83)</f>
-        <v>702.84557136664125</v>
+        <v>702.79486083022789</v>
       </c>
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c r="H84" s="7">
         <f>SUM(H41:H83)</f>
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="85" spans="1:13" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -4926,11 +4933,11 @@
       </c>
       <c r="B86" s="12">
         <f>$C$84/B32</f>
-        <v>73.292202271220461</v>
+        <v>72.127395537329718</v>
       </c>
       <c r="C86" s="12">
         <f>$C$84/C32</f>
-        <v>68.138995027087958</v>
+        <v>67.05608637120676</v>
       </c>
       <c r="I86" s="1"/>
     </row>
@@ -4960,7 +4967,7 @@
       </c>
       <c r="C91" s="1">
         <f>C46+C49+C53+C54+C72+C45+C51</f>
-        <v>53129000</v>
+        <v>49629000</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -4984,7 +4991,7 @@
       </c>
       <c r="C93" s="1">
         <f>C57+C58+C63+C74+C65+C69</f>
-        <v>56753000</v>
+        <v>55753000</v>
       </c>
       <c r="J93" s="1"/>
     </row>
@@ -5022,13 +5029,13 @@
       </c>
       <c r="C96" s="6">
         <f>C66+C62+C76+C71+C70+C81+C78+C83+C82+C80+C73</f>
-        <v>42207000</v>
+        <v>41707000</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C97" s="1">
         <f>SUM(C91:C96)</f>
-        <v>314611000</v>
+        <v>309611000</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -5519,23 +5526,23 @@
       </c>
       <c r="I111" s="11">
         <f t="shared" si="6"/>
-        <v>28338898</v>
+        <v>25601898</v>
       </c>
       <c r="J111" s="11">
         <f t="shared" si="4"/>
-        <v>4312441</v>
+        <v>3895941</v>
       </c>
       <c r="K111" s="11">
         <f t="shared" si="4"/>
-        <v>2862881</v>
+        <v>2586381</v>
       </c>
       <c r="L111" s="11">
         <f t="shared" si="4"/>
-        <v>108717</v>
+        <v>98217</v>
       </c>
       <c r="M111" s="11">
         <f t="shared" si="4"/>
-        <v>616063</v>
+        <v>556563</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -5783,23 +5790,23 @@
       </c>
       <c r="I117" s="11">
         <f t="shared" si="6"/>
-        <v>19022816</v>
+        <v>18211816</v>
       </c>
       <c r="J117" s="11">
         <f t="shared" ref="J117:J143" si="7">C117*$C57</f>
-        <v>1688831.9999999998</v>
+        <v>1616831.9999999998</v>
       </c>
       <c r="K117" s="11">
         <f t="shared" ref="K117:K143" si="8">D117*$C57</f>
-        <v>2322144</v>
+        <v>2223144</v>
       </c>
       <c r="L117" s="11">
         <f t="shared" ref="L117:L142" si="9">E117*$C57</f>
-        <v>46912</v>
+        <v>44912</v>
       </c>
       <c r="M117" s="11">
         <f t="shared" ref="M117:M143" si="10">F117*$C57</f>
-        <v>375296</v>
+        <v>359296</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -6179,23 +6186,23 @@
       </c>
       <c r="I126" s="11">
         <f t="shared" si="6"/>
-        <v>2101496</v>
+        <v>1803496</v>
       </c>
       <c r="J126" s="11">
         <f t="shared" si="7"/>
-        <v>1209418</v>
+        <v>1037918.0000000001</v>
       </c>
       <c r="K126" s="11">
         <f t="shared" si="8"/>
-        <v>190404</v>
+        <v>163404</v>
       </c>
       <c r="L126" s="11">
         <f t="shared" si="9"/>
-        <v>3526</v>
+        <v>3026</v>
       </c>
       <c r="M126" s="11">
         <f t="shared" si="10"/>
-        <v>21156</v>
+        <v>18156</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -6952,23 +6959,23 @@
       </c>
       <c r="B144" s="32">
         <f>I144/$N144</f>
-        <v>0.69312773645042103</v>
+        <v>0.69189917679003676</v>
       </c>
       <c r="C144" s="32">
         <f t="shared" ref="C144:G144" si="11">J144/$N144</f>
-        <v>0.21190793038639963</v>
+        <v>0.21319843569328514</v>
       </c>
       <c r="D144" s="32">
         <f t="shared" si="11"/>
-        <v>7.3058320994121961E-2</v>
+        <v>7.2938138601676236E-2</v>
       </c>
       <c r="E144" s="32">
         <f t="shared" si="11"/>
-        <v>6.9598419147587215E-3</v>
+        <v>7.0302529378070116E-3</v>
       </c>
       <c r="F144" s="32">
         <f t="shared" si="11"/>
-        <v>1.4946170254298684E-2</v>
+        <v>1.4933995977194877E-2</v>
       </c>
       <c r="G144" s="32">
         <f t="shared" si="11"/>
@@ -6976,27 +6983,27 @@
       </c>
       <c r="I144" s="30">
         <f>SUM(I101:I143)</f>
-        <v>218057561</v>
+        <v>214211561</v>
       </c>
       <c r="J144" s="30">
         <f t="shared" ref="J144:M144" si="12">SUM(J101:J143)</f>
-        <v>66666105</v>
+        <v>66006105</v>
       </c>
       <c r="K144" s="30">
         <f t="shared" si="12"/>
-        <v>22984103</v>
+        <v>22581603</v>
       </c>
       <c r="L144" s="30">
         <f>SUM(L101:L143)</f>
-        <v>2189562</v>
+        <v>2176562</v>
       </c>
       <c r="M144" s="30">
         <f t="shared" si="12"/>
-        <v>4702056</v>
+        <v>4623556</v>
       </c>
       <c r="N144" s="30">
         <f>SUM(I144:M144)</f>
-        <v>314599387</v>
+        <v>309599387</v>
       </c>
     </row>
     <row r="145" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -9302,6 +9309,322 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F15A268-81B3-4BC3-AB86-45DD879516A6}">
+  <dimension ref="A1:C26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="10.05078125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.62890625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2">
+        <v>1790</v>
+      </c>
+      <c r="B2" s="1">
+        <v>3929214</v>
+      </c>
+      <c r="C2" s="28">
+        <v>0.41320000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3">
+        <v>1800</v>
+      </c>
+      <c r="B3" s="1">
+        <v>5308483</v>
+      </c>
+      <c r="C3" s="28">
+        <f>(B3-B2)/B2</f>
+        <v>0.35102923892666577</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4">
+        <v>1810</v>
+      </c>
+      <c r="B4" s="1">
+        <v>7239881</v>
+      </c>
+      <c r="C4" s="28">
+        <f t="shared" ref="C4:C10" si="0">(B4-B3)/B3</f>
+        <v>0.36383237923150552</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5">
+        <v>1820</v>
+      </c>
+      <c r="B5" s="1">
+        <v>9638453</v>
+      </c>
+      <c r="C5" s="28">
+        <f t="shared" si="0"/>
+        <v>0.33129992053736795</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6">
+        <v>1830</v>
+      </c>
+      <c r="B6" s="1">
+        <v>11866020</v>
+      </c>
+      <c r="C6" s="28">
+        <f t="shared" si="0"/>
+        <v>0.23111250322017443</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7">
+        <v>1840</v>
+      </c>
+      <c r="B7" s="1">
+        <v>16069453</v>
+      </c>
+      <c r="C7" s="28">
+        <f t="shared" si="0"/>
+        <v>0.35424118617699951</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8">
+        <v>1850</v>
+      </c>
+      <c r="B8" s="1">
+        <v>21691876</v>
+      </c>
+      <c r="C8" s="28">
+        <f t="shared" si="0"/>
+        <v>0.34988266246523764</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9">
+        <v>1860</v>
+      </c>
+      <c r="B9" s="1">
+        <v>29443321</v>
+      </c>
+      <c r="C9" s="28">
+        <f t="shared" si="0"/>
+        <v>0.35734322840495675</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10">
+        <v>1870</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="28"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11">
+        <v>1880</v>
+      </c>
+      <c r="B11" s="1">
+        <f>B9*(1+C11)</f>
+        <v>33244453.741099998</v>
+      </c>
+      <c r="C11" s="28">
+        <v>0.12909999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12">
+        <v>1890</v>
+      </c>
+      <c r="B12" s="1">
+        <f>B11*(1+C12)</f>
+        <v>39135370.944022916</v>
+      </c>
+      <c r="C12" s="28">
+        <v>0.1772</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13">
+        <v>1900</v>
+      </c>
+      <c r="B13" s="1">
+        <f t="shared" ref="B13:B25" si="1">B12*(1+C13)</f>
+        <v>49024879.181577504</v>
+      </c>
+      <c r="C13" s="28">
+        <v>0.25269999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14">
+        <v>1910</v>
+      </c>
+      <c r="B14" s="1">
+        <f t="shared" si="1"/>
+        <v>63874515.085677326</v>
+      </c>
+      <c r="C14" s="28">
+        <v>0.3029</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15">
+        <v>1920</v>
+      </c>
+      <c r="B15" s="1">
+        <f t="shared" si="1"/>
+        <v>72874434.261249259</v>
+      </c>
+      <c r="C15" s="28">
+        <v>0.1409</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16">
+        <v>1930</v>
+      </c>
+      <c r="B16" s="1">
+        <f t="shared" si="1"/>
+        <v>87471183.443777487</v>
+      </c>
+      <c r="C16" s="28">
+        <v>0.20030000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17">
+        <v>1940</v>
+      </c>
+      <c r="B17" s="1">
+        <f t="shared" si="1"/>
+        <v>103653352.38087633</v>
+      </c>
+      <c r="C17" s="28">
+        <v>0.185</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18">
+        <v>1950</v>
+      </c>
+      <c r="B18" s="1">
+        <f t="shared" si="1"/>
+        <v>139102798.89513606</v>
+      </c>
+      <c r="C18" s="28">
+        <v>0.34200000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19">
+        <v>1960</v>
+      </c>
+      <c r="B19" s="1">
+        <f t="shared" si="1"/>
+        <v>164836816.69073623</v>
+      </c>
+      <c r="C19" s="28">
+        <v>0.185</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20">
+        <v>1970</v>
+      </c>
+      <c r="B20" s="1">
+        <f t="shared" si="1"/>
+        <v>186793080.6739423</v>
+      </c>
+      <c r="C20" s="28">
+        <v>0.13320000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21">
+        <v>1980</v>
+      </c>
+      <c r="B21" s="1">
+        <f t="shared" si="1"/>
+        <v>208236926.33531088</v>
+      </c>
+      <c r="C21" s="28">
+        <v>0.1148</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22">
+        <v>1990</v>
+      </c>
+      <c r="B22" s="1">
+        <f t="shared" si="1"/>
+        <v>228602497.73090425</v>
+      </c>
+      <c r="C22" s="28">
+        <v>9.7799999999999998E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23">
+        <v>2000</v>
+      </c>
+      <c r="B23" s="1">
+        <f t="shared" si="1"/>
+        <v>258663726.18251815</v>
+      </c>
+      <c r="C23" s="28">
+        <v>0.13150000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24">
+        <v>2010</v>
+      </c>
+      <c r="B24" s="1">
+        <f t="shared" si="1"/>
+        <v>283779973.99484068</v>
+      </c>
+      <c r="C24" s="28">
+        <v>9.7100000000000006E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25">
+        <v>2020</v>
+      </c>
+      <c r="B25" s="1">
+        <f t="shared" si="1"/>
+        <v>304637802.08346146</v>
+      </c>
+      <c r="C25" s="28">
+        <v>7.3499999999999996E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B26" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C63D63CD-E558-4E85-B35D-432437BFD9B4}">
   <dimension ref="A1:K43"/>
   <sheetViews>
@@ -9829,7 +10152,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{361FE7B8-0B0F-454D-9098-56AB6E752981}">
   <dimension ref="A1:M79"/>
   <sheetViews>
@@ -9845,11 +10168,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>338</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
       <c r="G1" t="s">
         <v>22</v>
       </c>
@@ -10083,11 +10406,11 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="40" t="s">
         <v>339</v>
       </c>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
@@ -10197,11 +10520,11 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="39" t="s">
+      <c r="A24" s="40" t="s">
         <v>340</v>
       </c>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
@@ -10308,11 +10631,11 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="39" t="s">
+      <c r="A35" s="40" t="s">
         <v>341</v>
       </c>
-      <c r="B35" s="39"/>
-      <c r="C35" s="39"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="40"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
@@ -10419,11 +10742,11 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="39" t="s">
+      <c r="A46" s="40" t="s">
         <v>342</v>
       </c>
-      <c r="B46" s="39"/>
-      <c r="C46" s="39"/>
+      <c r="B46" s="40"/>
+      <c r="C46" s="40"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
@@ -10541,11 +10864,11 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="39" t="s">
+      <c r="A58" s="40" t="s">
         <v>343</v>
       </c>
-      <c r="B58" s="39"/>
-      <c r="C58" s="39"/>
+      <c r="B58" s="40"/>
+      <c r="C58" s="40"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
@@ -10651,11 +10974,11 @@
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A69" s="39" t="s">
+      <c r="A69" s="40" t="s">
         <v>344</v>
       </c>
-      <c r="B69" s="39"/>
-      <c r="C69" s="39"/>
+      <c r="B69" s="40"/>
+      <c r="C69" s="40"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
@@ -10702,11 +11025,11 @@
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A75" s="39" t="s">
+      <c r="A75" s="40" t="s">
         <v>345</v>
       </c>
-      <c r="B75" s="39"/>
-      <c r="C75" s="39"/>
+      <c r="B75" s="40"/>
+      <c r="C75" s="40"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
@@ -10767,11 +11090,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F052C3D5-A3C0-4980-867A-FBAC00D00C62}">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+    <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
@@ -10802,7 +11125,7 @@
       <c r="D3" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="E3" s="40">
+      <c r="E3" s="39">
         <v>115.3</v>
       </c>
     </row>

--- a/obsidian-notes/spreadsheets/area.xlsx
+++ b/obsidian-notes/spreadsheets/area.xlsx
@@ -8,19 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sharm\iCloudDrive\iCloud~md~obsidian\Ishan's notes\Spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4DB4932-F581-4752-9057-018C74F04DE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD251E35-14FC-4EF6-AA6D-E6DD42E5F002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" firstSheet="1" activeTab="4" xr2:uid="{94B94BC7-FBC8-4BAC-A974-CA3E4662C848}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" activeTab="3" xr2:uid="{94B94BC7-FBC8-4BAC-A974-CA3E4662C848}"/>
   </bookViews>
   <sheets>
     <sheet name="france" sheetId="1" r:id="rId1"/>
     <sheet name="germany" sheetId="19" r:id="rId2"/>
     <sheet name="batavian republic" sheetId="18" r:id="rId3"/>
     <sheet name="united states" sheetId="2" r:id="rId4"/>
-    <sheet name="united states population" sheetId="22" r:id="rId5"/>
-    <sheet name="buenaventura" sheetId="4" r:id="rId6"/>
-    <sheet name="philippines" sheetId="20" r:id="rId7"/>
-    <sheet name="China" sheetId="21" r:id="rId8"/>
+    <sheet name="buenaventura" sheetId="4" r:id="rId5"/>
+    <sheet name="China" sheetId="21" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="347">
   <si>
     <t>OTL Metro France</t>
   </si>
@@ -981,39 +979,6 @@
     <t>Vorarlberg</t>
   </si>
   <si>
-    <t>Independent Catholic</t>
-  </si>
-  <si>
-    <t>Roman Catholicism</t>
-  </si>
-  <si>
-    <t>Buddhism</t>
-  </si>
-  <si>
-    <t>Luzon</t>
-  </si>
-  <si>
-    <t>Mindoro and Paragua</t>
-  </si>
-  <si>
-    <t>West Visayas</t>
-  </si>
-  <si>
-    <t>East Visayas</t>
-  </si>
-  <si>
-    <t>Zamboanga</t>
-  </si>
-  <si>
-    <t>North Mindanao</t>
-  </si>
-  <si>
-    <t>Southern Frontier Territory</t>
-  </si>
-  <si>
-    <t>Northern Frontier Territory</t>
-  </si>
-  <si>
     <t>OTL China (main law)</t>
   </si>
   <si>
@@ -1117,12 +1082,6 @@
   </si>
   <si>
     <t>Transbaikal</t>
-  </si>
-  <si>
-    <t>Census year</t>
-  </si>
-  <si>
-    <t>Growth rate</t>
   </si>
 </sst>
 </file>
@@ -1215,7 +1174,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1247,12 +1206,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1274,1287 +1227,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Population of the United States of America</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'united states population'!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Population</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'united states population'!$A$2:$A$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>1790</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1800</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1810</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1820</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1830</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1840</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1850</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1860</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1880</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1890</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1900</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1910</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1920</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1930</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1940</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1950</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1960</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1970</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1980</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1990</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2010</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2020</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'united states population'!$B$2:$B$25</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>3929214</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5308483</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7239881</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9638453</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>11866020</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16069453</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>21691876</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>29443321</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>31343887.370549999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>33244453.741099998</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>39135370.944022916</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>49024879.181577504</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>63384266.293861553</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>72315109.414666653</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>86799825.830424383</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>102857793.6090529</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>138035159.02334899</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>163571663.44266856</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>185359409.01323199</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>206638669.16795102</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>226847931.01257661</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>256678433.94073042</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>281601909.87637532</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>302299650.25228888</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-38F4-4979-AE0B-C59AC8C94A36}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1112438143"/>
-        <c:axId val="1112442943"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="0"/>
-                <c:order val="0"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'united states population'!$A$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Census year</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="28575" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
-                <c:cat>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'united states population'!$A$2:$A$25</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="24"/>
-                      <c:pt idx="0">
-                        <c:v>1790</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>1800</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>1810</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>1820</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>1830</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>1840</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>1850</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>1860</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>1880</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>1890</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>1900</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>1910</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>1920</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>1930</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>1940</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>1950</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>1960</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>1970</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>1980</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>1990</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>2000</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>2010</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>2020</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'united states population'!$A$2:$A$25</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="24"/>
-                      <c:pt idx="0">
-                        <c:v>1790</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>1800</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>1810</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>1820</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>1830</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>1840</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>1850</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>1860</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>1880</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>1890</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>1900</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>1910</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>1920</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>1930</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>1940</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>1950</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>1960</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>1970</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>1980</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>1990</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>2000</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>2010</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>2020</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000000-38F4-4979-AE0B-C59AC8C94A36}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredLineSeries>
-          </c:ext>
-        </c:extLst>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1112438143"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1112442943"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:tickLblSkip val="3"/>
-        <c:tickMarkSkip val="3"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1112442943"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1112438143"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>87630</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>110490</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>87630</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2027C9C9-824E-9967-E33E-9DCC6813AA7D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2867,10 +1539,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="38"/>
+      <c r="B1" s="32"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
@@ -3445,11 +2117,11 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="38" t="s">
+      <c r="A56" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="B56" s="38"/>
-      <c r="C56" s="38"/>
+      <c r="B56" s="32"/>
+      <c r="C56" s="32"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
@@ -4106,8 +2778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C745E12-030D-4421-A6DC-982053D4A77E}">
   <dimension ref="A1:N202"/>
   <sheetViews>
-    <sheetView topLeftCell="A66" zoomScale="93" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="93" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -4518,7 +3190,7 @@
       </c>
       <c r="B34" s="12">
         <f>C84^(1/3)</f>
-        <v>674.0212609999104</v>
+        <v>672.62429583435312</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -4535,7 +3207,7 @@
       </c>
       <c r="B36" s="15">
         <f>C84/B35</f>
-        <v>433726.62889518414</v>
+        <v>431035.4107648725</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -4544,7 +3216,7 @@
       </c>
       <c r="B37" s="15">
         <f>B36+C37</f>
-        <v>435726.62889518414</v>
+        <v>433035.4107648725</v>
       </c>
       <c r="C37">
         <v>2000</v>
@@ -4597,7 +3269,7 @@
       <c r="D41" s="21"/>
       <c r="E41" s="22">
         <f t="shared" ref="E41:E82" si="0">C41/$B$37</f>
-        <v>3.4861307509516517</v>
+        <v>3.5077962730968886</v>
       </c>
       <c r="F41" s="23">
         <f t="shared" ref="F41:F83" si="1">FLOOR(E41,1)</f>
@@ -4631,15 +3303,15 @@
       <c r="D42" s="1"/>
       <c r="E42" s="12">
         <f t="shared" si="0"/>
-        <v>35.880295036456964</v>
+        <v>36.103283037259217</v>
       </c>
       <c r="F42" s="15">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G42">
         <f t="shared" ref="G42:G83" si="3">SQRT(F42*(F42+1))</f>
-        <v>35.496478698597699</v>
+        <v>36.496575181789318</v>
       </c>
       <c r="H42">
         <f t="shared" si="2"/>
@@ -4658,20 +3330,20 @@
         <v>79</v>
       </c>
       <c r="C43" s="21">
-        <v>10637000</v>
+        <v>10237000</v>
       </c>
       <c r="D43" s="21"/>
       <c r="E43" s="22">
         <f t="shared" si="0"/>
-        <v>24.412095324471839</v>
+        <v>23.64009904390576</v>
       </c>
       <c r="F43" s="23">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G43" s="20">
         <f t="shared" si="3"/>
-        <v>24.494897427831781</v>
+        <v>23.49468024894146</v>
       </c>
       <c r="H43" s="20">
         <f t="shared" si="2"/>
@@ -4681,7 +3353,7 @@
       <c r="J43" s="20"/>
       <c r="K43" s="24">
         <f>E148*0.15+E151*0.175</f>
-        <v>4799400</v>
+        <v>4199400</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -4697,7 +3369,7 @@
       <c r="D44" s="1"/>
       <c r="E44" s="12">
         <f t="shared" si="0"/>
-        <v>27.565448617301048</v>
+        <v>27.736761709128853</v>
       </c>
       <c r="F44" s="15">
         <f t="shared" si="1"/>
@@ -4729,7 +3401,7 @@
       <c r="D45" s="21"/>
       <c r="E45" s="22">
         <f t="shared" si="0"/>
-        <v>8.3676318090649922</v>
+        <v>8.419634767420181</v>
       </c>
       <c r="F45" s="23">
         <f t="shared" si="1"/>
@@ -4747,7 +3419,7 @@
       <c r="J45" s="20"/>
       <c r="K45" s="24">
         <f>E148*0.1</f>
-        <v>2378500</v>
+        <v>1978500</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -4763,15 +3435,15 @@
       <c r="D46" s="1"/>
       <c r="E46" s="12">
         <f t="shared" si="0"/>
-        <v>19.92763219915286</v>
+        <v>20.051477971889586</v>
       </c>
       <c r="F46" s="15">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G46">
         <f t="shared" si="3"/>
-        <v>19.493588689617926</v>
+        <v>20.493901531919196</v>
       </c>
       <c r="H46">
         <f t="shared" si="2"/>
@@ -4795,15 +3467,15 @@
       <c r="D47" s="21"/>
       <c r="E47" s="22">
         <f t="shared" si="0"/>
-        <v>10.963295982420039</v>
+        <v>11.031430412497588</v>
       </c>
       <c r="F47" s="23">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G47" s="20">
         <f t="shared" si="3"/>
-        <v>10.488088481701515</v>
+        <v>11.489125293076057</v>
       </c>
       <c r="H47" s="20">
         <f t="shared" si="2"/>
@@ -4829,7 +3501,7 @@
       <c r="D48" s="1"/>
       <c r="E48" s="12">
         <f t="shared" si="0"/>
-        <v>20.696462878263329</v>
+        <v>20.825086761545585</v>
       </c>
       <c r="F48" s="15">
         <f t="shared" si="1"/>
@@ -4861,7 +3533,7 @@
       <c r="D49" s="21"/>
       <c r="E49" s="22">
         <f t="shared" si="0"/>
-        <v>4.0025095652795795</v>
+        <v>4.027384266149423</v>
       </c>
       <c r="F49" s="23">
         <f t="shared" si="1"/>
@@ -4895,15 +3567,15 @@
       <c r="D50" s="1"/>
       <c r="E50" s="12">
         <f t="shared" si="0"/>
-        <v>43.928919489114925</v>
+        <v>44.20192788897139</v>
       </c>
       <c r="F50" s="15">
         <f t="shared" si="1"/>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G50">
         <f t="shared" si="3"/>
-        <v>43.497126341863094</v>
+        <v>44.497190922573978</v>
       </c>
       <c r="H50">
         <f t="shared" si="2"/>
@@ -4922,30 +3594,30 @@
         <v>87</v>
       </c>
       <c r="C51" s="21">
-        <v>32239000</v>
+        <v>30739000</v>
       </c>
       <c r="D51" s="21"/>
       <c r="E51" s="22">
         <f t="shared" si="0"/>
-        <v>73.989051533858003</v>
+        <v>70.984956970852707</v>
       </c>
       <c r="F51" s="23">
         <f t="shared" si="1"/>
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G51" s="20">
         <f t="shared" si="3"/>
-        <v>73.498299300051841</v>
+        <v>70.498226928058273</v>
       </c>
       <c r="H51" s="20">
         <f t="shared" si="2"/>
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I51" s="20"/>
       <c r="J51" s="20"/>
       <c r="K51" s="24">
         <f>E148*0.75+E158+E190</f>
-        <v>24289750</v>
+        <v>21289750</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -4961,7 +3633,7 @@
       <c r="D52" s="1"/>
       <c r="E52" s="12">
         <f t="shared" si="0"/>
-        <v>28.712957093585331</v>
+        <v>28.891401693690042</v>
       </c>
       <c r="F52" s="15">
         <f t="shared" si="1"/>
@@ -4993,7 +3665,7 @@
       <c r="D53" s="21"/>
       <c r="E53" s="22">
         <f t="shared" si="0"/>
-        <v>2.5199286139202854</v>
+        <v>2.5355894060963684</v>
       </c>
       <c r="F53" s="23">
         <f t="shared" si="1"/>
@@ -5027,7 +3699,7 @@
       <c r="D54" s="1"/>
       <c r="E54" s="12">
         <f t="shared" si="0"/>
-        <v>1.9438793588255754</v>
+        <v>1.9559601338466521</v>
       </c>
       <c r="F54" s="15">
         <f t="shared" si="1"/>
@@ -5055,7 +3727,7 @@
       <c r="D55" s="21"/>
       <c r="E55" s="22">
         <f t="shared" si="0"/>
-        <v>21.621354710148459</v>
+        <v>21.755726589101901</v>
       </c>
       <c r="F55" s="23">
         <f t="shared" si="1"/>
@@ -5090,7 +3762,7 @@
       <c r="D56" s="1"/>
       <c r="E56" s="12">
         <f t="shared" si="0"/>
-        <v>24.051777662918571</v>
+        <v>24.201254076402495</v>
       </c>
       <c r="F56" s="15">
         <f t="shared" si="1"/>
@@ -5122,7 +3794,7 @@
       <c r="D57" s="21"/>
       <c r="E57" s="22">
         <f t="shared" si="0"/>
-        <v>49.241883734311152</v>
+        <v>49.547911017489689</v>
       </c>
       <c r="F57" s="23">
         <f t="shared" si="1"/>
@@ -5134,7 +3806,7 @@
       </c>
       <c r="H57" s="20">
         <f t="shared" si="2"/>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I57" s="20"/>
       <c r="J57" s="20"/>
@@ -5156,7 +3828,7 @@
       <c r="D58" s="1"/>
       <c r="E58" s="12">
         <f t="shared" si="0"/>
-        <v>23.184261254847655</v>
+        <v>23.328346248074237</v>
       </c>
       <c r="F58" s="15">
         <f t="shared" si="1"/>
@@ -5188,7 +3860,7 @@
       <c r="D59" s="21"/>
       <c r="E59" s="22">
         <f t="shared" si="0"/>
-        <v>12.397681577775394</v>
+        <v>12.474730393199073</v>
       </c>
       <c r="F59" s="23">
         <f t="shared" si="1"/>
@@ -5222,15 +3894,15 @@
       <c r="D60" s="1"/>
       <c r="E60" s="12">
         <f t="shared" si="0"/>
-        <v>19.973532538204232</v>
+        <v>20.097663571272033</v>
       </c>
       <c r="F60" s="15">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G60">
         <f t="shared" si="3"/>
-        <v>19.493588689617926</v>
+        <v>20.493901531919196</v>
       </c>
       <c r="H60">
         <f t="shared" si="2"/>
@@ -5254,7 +3926,7 @@
       <c r="D61" s="21"/>
       <c r="E61" s="22">
         <f t="shared" si="0"/>
-        <v>3.4448204458054175</v>
+        <v>3.4662292336526859</v>
       </c>
       <c r="F61" s="23">
         <f t="shared" si="1"/>
@@ -5266,7 +3938,7 @@
       </c>
       <c r="H61" s="20">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I61" s="20"/>
       <c r="J61" s="20"/>
@@ -5288,7 +3960,7 @@
       <c r="D62" s="1"/>
       <c r="E62" s="12">
         <f t="shared" si="0"/>
-        <v>26.652031870178757</v>
+        <v>26.817668281418147</v>
       </c>
       <c r="F62" s="15">
         <f t="shared" si="1"/>
@@ -5320,7 +3992,7 @@
       <c r="D63" s="21"/>
       <c r="E63" s="22">
         <f t="shared" si="0"/>
-        <v>20.382045555761437</v>
+        <v>20.508715405775817</v>
       </c>
       <c r="F63" s="23">
         <f t="shared" si="1"/>
@@ -5332,7 +4004,7 @@
       </c>
       <c r="H63" s="20">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I63" s="20"/>
       <c r="J63" s="20"/>
@@ -5354,7 +4026,7 @@
       <c r="D64" s="1"/>
       <c r="E64" s="12">
         <f t="shared" si="0"/>
-        <v>40.628685111321325</v>
+        <v>40.881183293373418</v>
       </c>
       <c r="F64" s="15">
         <f t="shared" si="1"/>
@@ -5386,7 +4058,7 @@
       <c r="D65" s="21"/>
       <c r="E65" s="22">
         <f t="shared" si="0"/>
-        <v>15.821846871007695</v>
+        <v>15.920176107129658</v>
       </c>
       <c r="F65" s="23">
         <f t="shared" si="1"/>
@@ -5420,7 +4092,7 @@
       <c r="D66" s="1"/>
       <c r="E66" s="12">
         <f t="shared" si="0"/>
-        <v>6.9447212984724809</v>
+        <v>6.9878811865643087</v>
       </c>
       <c r="F66" s="15">
         <f t="shared" si="1"/>
@@ -5452,7 +4124,7 @@
       <c r="D67" s="21"/>
       <c r="E67" s="22">
         <f t="shared" si="0"/>
-        <v>19.649935147892062</v>
+        <v>19.772055095625781</v>
       </c>
       <c r="F67" s="23">
         <f t="shared" si="1"/>
@@ -5486,7 +4158,7 @@
       <c r="D68" s="1"/>
       <c r="E68" s="12">
         <f t="shared" si="0"/>
-        <v>9.0492518439778564</v>
+        <v>9.1054909182495276</v>
       </c>
       <c r="F68" s="15">
         <f t="shared" si="1"/>
@@ -5518,7 +4190,7 @@
       <c r="D69" s="21"/>
       <c r="E69" s="22">
         <f t="shared" si="0"/>
-        <v>11.789502085344724</v>
+        <v>11.862771201381644</v>
       </c>
       <c r="F69" s="23">
         <f t="shared" si="1"/>
@@ -5552,7 +4224,7 @@
       <c r="D70" s="1"/>
       <c r="E70" s="12">
         <f t="shared" si="0"/>
-        <v>4.4385627862676067</v>
+        <v>4.4661474602826745</v>
       </c>
       <c r="F70" s="15">
         <f t="shared" si="1"/>
@@ -5584,15 +4256,15 @@
       <c r="D71" s="21"/>
       <c r="E71" s="22">
         <f t="shared" si="0"/>
-        <v>17.949327586038756</v>
+        <v>18.0608786385061</v>
       </c>
       <c r="F71" s="23">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G71" s="20">
         <f t="shared" si="3"/>
-        <v>17.4928556845359</v>
+        <v>18.493242008906929</v>
       </c>
       <c r="H71" s="20">
         <f t="shared" si="2"/>
@@ -5618,7 +4290,7 @@
       <c r="D72" s="1"/>
       <c r="E72" s="12">
         <f t="shared" si="0"/>
-        <v>2.0012547826397897</v>
+        <v>2.0136921330747115</v>
       </c>
       <c r="F72" s="15">
         <f t="shared" si="1"/>
@@ -5646,7 +4318,7 @@
       <c r="D73" s="21"/>
       <c r="E73" s="22">
         <f t="shared" si="0"/>
-        <v>11.273123271016797</v>
+        <v>11.343183208329108</v>
       </c>
       <c r="F73" s="23">
         <f t="shared" si="1"/>
@@ -5680,7 +4352,7 @@
       <c r="D74" s="1"/>
       <c r="E74" s="12">
         <f t="shared" si="0"/>
-        <v>4.3215169216866096</v>
+        <v>4.3483741818574329</v>
       </c>
       <c r="F74" s="15">
         <f t="shared" si="1"/>
@@ -5712,7 +4384,7 @@
       <c r="D75" s="21"/>
       <c r="E75" s="22">
         <f t="shared" si="0"/>
-        <v>7.8627280794999068</v>
+        <v>7.9115931742132588</v>
       </c>
       <c r="F75" s="23">
         <f t="shared" si="1"/>
@@ -5746,7 +4418,7 @@
       <c r="D76" s="1"/>
       <c r="E76" s="12">
         <f t="shared" si="0"/>
-        <v>19.057820774129372</v>
+        <v>19.176260863592208</v>
       </c>
       <c r="F76" s="15">
         <f t="shared" si="1"/>
@@ -5778,7 +4450,7 @@
       <c r="D77" s="21"/>
       <c r="E77" s="22">
         <f t="shared" si="0"/>
-        <v>7.116847569915123</v>
+        <v>7.1610771842484864</v>
       </c>
       <c r="F77" s="23">
         <f t="shared" si="1"/>
@@ -5812,7 +4484,7 @@
       <c r="D78" s="1"/>
       <c r="E78" s="12">
         <f t="shared" si="0"/>
-        <v>2.4510781053432287</v>
+        <v>2.4663110070226972</v>
       </c>
       <c r="F78" s="15">
         <f t="shared" si="1"/>
@@ -5841,7 +4513,7 @@
       <c r="D79" s="21"/>
       <c r="E79" s="22">
         <f t="shared" si="0"/>
-        <v>8.1059998764721755</v>
+        <v>8.1563768509402301</v>
       </c>
       <c r="F79" s="23">
         <f t="shared" si="1"/>
@@ -5875,7 +4547,7 @@
       <c r="D80" s="1"/>
       <c r="E80" s="12">
         <f t="shared" si="0"/>
-        <v>2.3661624780981918</v>
+        <v>2.3808676481651694</v>
       </c>
       <c r="F80" s="15">
         <f t="shared" si="1"/>
@@ -5903,7 +4575,7 @@
       <c r="D81" s="21"/>
       <c r="E81" s="22">
         <f>C81/$B$37</f>
-        <v>3.2612190895999325</v>
+        <v>3.2814868361228955</v>
       </c>
       <c r="F81" s="23">
         <f>FLOOR(E81,1)</f>
@@ -5934,7 +4606,7 @@
       <c r="D82" s="1"/>
       <c r="E82" s="12">
         <f t="shared" si="0"/>
-        <v>0.88358152673889789</v>
+        <v>0.88907278811211454</v>
       </c>
       <c r="F82" s="15">
         <f t="shared" si="1"/>
@@ -5962,7 +4634,7 @@
       <c r="D83" s="21"/>
       <c r="E83" s="22">
         <f>C83/$B$37</f>
-        <v>0.44064325489316469</v>
+        <v>0.4433817540714961</v>
       </c>
       <c r="F83" s="23">
         <f t="shared" si="1"/>
@@ -5987,12 +4659,12 @@
       </c>
       <c r="C84" s="7">
         <f>SUM(C41:C83)</f>
-        <v>306211000</v>
+        <v>304311000</v>
       </c>
       <c r="D84" s="7"/>
       <c r="E84" s="7">
         <f>SUM(E41:E83)</f>
-        <v>702.7594360629729</v>
+        <v>702.73929668359949</v>
       </c>
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
@@ -6008,11 +4680,11 @@
       </c>
       <c r="B86" s="12">
         <f>$C$84/B32</f>
-        <v>71.335326958284014</v>
+        <v>70.892700399405527</v>
       </c>
       <c r="C86" s="12">
         <f>$C$84/C32</f>
-        <v>66.319708485207542</v>
+        <v>65.908203195972689</v>
       </c>
       <c r="I86" s="1"/>
     </row>
@@ -6042,7 +4714,7 @@
       </c>
       <c r="C91" s="1">
         <f>C46+C49+C53+C54+C72+C45+C51</f>
-        <v>49129000</v>
+        <v>47629000</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -6054,7 +4726,7 @@
       </c>
       <c r="C92" s="1">
         <f>C42+C43+C41+C47+C79+C50</f>
-        <v>55240000</v>
+        <v>54840000</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -6110,7 +4782,7 @@
     <row r="97" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C97" s="1">
         <f>SUM(C91:C96)</f>
-        <v>306211000</v>
+        <v>304311000</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -6249,23 +4921,23 @@
       </c>
       <c r="I103" s="11">
         <f t="shared" si="6"/>
-        <v>9275464</v>
+        <v>8926664</v>
       </c>
       <c r="J103" s="11">
         <f t="shared" si="4"/>
-        <v>670131</v>
+        <v>644931</v>
       </c>
       <c r="K103" s="11">
         <f t="shared" si="4"/>
-        <v>648857</v>
+        <v>624457</v>
       </c>
       <c r="L103" s="11">
         <f t="shared" si="4"/>
-        <v>10637</v>
+        <v>10237</v>
       </c>
       <c r="M103" s="11">
         <f t="shared" si="4"/>
-        <v>31911</v>
+        <v>30711</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -6601,23 +5273,23 @@
       </c>
       <c r="I111" s="11">
         <f t="shared" si="6"/>
-        <v>25210898</v>
+        <v>24037898</v>
       </c>
       <c r="J111" s="11">
         <f t="shared" si="4"/>
-        <v>3836441</v>
+        <v>3657941</v>
       </c>
       <c r="K111" s="11">
         <f t="shared" si="4"/>
-        <v>2546881</v>
+        <v>2428381</v>
       </c>
       <c r="L111" s="11">
         <f t="shared" si="4"/>
-        <v>96717</v>
+        <v>92217</v>
       </c>
       <c r="M111" s="11">
         <f t="shared" si="4"/>
-        <v>548063</v>
+        <v>522563.00000000006</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -8034,23 +6706,23 @@
       </c>
       <c r="B144" s="30">
         <f>I144/$N144</f>
-        <v>0.69145586173234241</v>
+        <v>0.69077221309026171</v>
       </c>
       <c r="C144" s="30">
         <f t="shared" ref="C144:G144" si="11">J144/$N144</f>
-        <v>0.2138149447046411</v>
+        <v>0.21448056679785557</v>
       </c>
       <c r="D144" s="30">
         <f t="shared" si="11"/>
-        <v>7.279506082094149E-2</v>
+        <v>7.2779979014548593E-2</v>
       </c>
       <c r="E144" s="30">
         <f t="shared" si="11"/>
-        <v>7.0697790129801924E-3</v>
+        <v>7.097819096165317E-3</v>
       </c>
       <c r="F144" s="30">
         <f t="shared" si="11"/>
-        <v>1.4864353729094826E-2</v>
+        <v>1.4869422001168869E-2</v>
       </c>
       <c r="G144" s="30">
         <f t="shared" si="11"/>
@@ -8058,27 +6730,27 @@
       </c>
       <c r="I144" s="28">
         <f>SUM(I101:I143)</f>
-        <v>211723361</v>
+        <v>210201561</v>
       </c>
       <c r="J144" s="28">
         <f t="shared" ref="J144:M144" si="12">SUM(J101:J143)</f>
-        <v>65470005</v>
+        <v>65266305</v>
       </c>
       <c r="K144" s="28">
         <f t="shared" si="12"/>
-        <v>22289803</v>
+        <v>22146903</v>
       </c>
       <c r="L144" s="28">
         <f>SUM(L101:L143)</f>
-        <v>2164762</v>
+        <v>2159862</v>
       </c>
       <c r="M144" s="28">
         <f t="shared" si="12"/>
-        <v>4551456</v>
+        <v>4524756</v>
       </c>
       <c r="N144" s="28">
         <f>SUM(I144:M144)</f>
-        <v>306199387</v>
+        <v>304299387</v>
       </c>
     </row>
     <row r="145" spans="1:5" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -8113,7 +6785,7 @@
         <v>10090000</v>
       </c>
       <c r="E148" s="1">
-        <v>23785000</v>
+        <v>19785000</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -9041,323 +7713,6 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F15A268-81B3-4BC3-AB86-45DD879516A6}">
-  <dimension ref="A1:C26"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="1" max="1" width="10.05078125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.62890625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>358</v>
-      </c>
-      <c r="B1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C1" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2">
-        <v>1790</v>
-      </c>
-      <c r="B2" s="1">
-        <v>3929214</v>
-      </c>
-      <c r="C2" s="26">
-        <v>0.41320000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3">
-        <v>1800</v>
-      </c>
-      <c r="B3" s="1">
-        <v>5308483</v>
-      </c>
-      <c r="C3" s="26">
-        <f>(B3-B2)/B2</f>
-        <v>0.35102923892666577</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4">
-        <v>1810</v>
-      </c>
-      <c r="B4" s="1">
-        <v>7239881</v>
-      </c>
-      <c r="C4" s="26">
-        <f t="shared" ref="C4:C10" si="0">(B4-B3)/B3</f>
-        <v>0.36383237923150552</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5">
-        <v>1820</v>
-      </c>
-      <c r="B5" s="1">
-        <v>9638453</v>
-      </c>
-      <c r="C5" s="26">
-        <f t="shared" si="0"/>
-        <v>0.33129992053736795</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6">
-        <v>1830</v>
-      </c>
-      <c r="B6" s="1">
-        <v>11866020</v>
-      </c>
-      <c r="C6" s="26">
-        <f t="shared" si="0"/>
-        <v>0.23111250322017443</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7">
-        <v>1840</v>
-      </c>
-      <c r="B7" s="1">
-        <v>16069453</v>
-      </c>
-      <c r="C7" s="26">
-        <f t="shared" si="0"/>
-        <v>0.35424118617699951</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8">
-        <v>1850</v>
-      </c>
-      <c r="B8" s="1">
-        <v>21691876</v>
-      </c>
-      <c r="C8" s="26">
-        <f t="shared" si="0"/>
-        <v>0.34988266246523764</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9">
-        <v>1860</v>
-      </c>
-      <c r="B9" s="1">
-        <v>29443321</v>
-      </c>
-      <c r="C9" s="26">
-        <f t="shared" si="0"/>
-        <v>0.35734322840495675</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="1">
-        <f>(B9+B11)/2</f>
-        <v>31343887.370549999</v>
-      </c>
-      <c r="C10" s="26"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11">
-        <v>1880</v>
-      </c>
-      <c r="B11" s="1">
-        <f>B9*(1+C11)</f>
-        <v>33244453.741099998</v>
-      </c>
-      <c r="C11" s="26">
-        <v>0.12909999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12">
-        <v>1890</v>
-      </c>
-      <c r="B12" s="1">
-        <f>B11*(1+C12)</f>
-        <v>39135370.944022916</v>
-      </c>
-      <c r="C12" s="26">
-        <v>0.1772</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13">
-        <v>1900</v>
-      </c>
-      <c r="B13" s="1">
-        <f t="shared" ref="B13:B25" si="1">B12*(1+C13)</f>
-        <v>49024879.181577504</v>
-      </c>
-      <c r="C13" s="26">
-        <v>0.25269999999999998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14">
-        <v>1910</v>
-      </c>
-      <c r="B14" s="1">
-        <f t="shared" si="1"/>
-        <v>63384266.293861553</v>
-      </c>
-      <c r="C14" s="26">
-        <v>0.29289999999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15">
-        <v>1920</v>
-      </c>
-      <c r="B15" s="1">
-        <f t="shared" si="1"/>
-        <v>72315109.414666653</v>
-      </c>
-      <c r="C15" s="26">
-        <v>0.1409</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16">
-        <v>1930</v>
-      </c>
-      <c r="B16" s="1">
-        <f t="shared" si="1"/>
-        <v>86799825.830424383</v>
-      </c>
-      <c r="C16" s="26">
-        <v>0.20030000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17">
-        <v>1940</v>
-      </c>
-      <c r="B17" s="1">
-        <f t="shared" si="1"/>
-        <v>102857793.6090529</v>
-      </c>
-      <c r="C17" s="26">
-        <v>0.185</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18">
-        <v>1950</v>
-      </c>
-      <c r="B18" s="1">
-        <f t="shared" si="1"/>
-        <v>138035159.02334899</v>
-      </c>
-      <c r="C18" s="26">
-        <v>0.34200000000000003</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19">
-        <v>1960</v>
-      </c>
-      <c r="B19" s="1">
-        <f t="shared" si="1"/>
-        <v>163571663.44266856</v>
-      </c>
-      <c r="C19" s="26">
-        <v>0.185</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20">
-        <v>1970</v>
-      </c>
-      <c r="B20" s="1">
-        <f t="shared" si="1"/>
-        <v>185359409.01323199</v>
-      </c>
-      <c r="C20" s="26">
-        <v>0.13320000000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21">
-        <v>1980</v>
-      </c>
-      <c r="B21" s="1">
-        <f t="shared" si="1"/>
-        <v>206638669.16795102</v>
-      </c>
-      <c r="C21" s="26">
-        <v>0.1148</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22">
-        <v>1990</v>
-      </c>
-      <c r="B22" s="1">
-        <f t="shared" si="1"/>
-        <v>226847931.01257661</v>
-      </c>
-      <c r="C22" s="26">
-        <v>9.7799999999999998E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23">
-        <v>2000</v>
-      </c>
-      <c r="B23" s="1">
-        <f t="shared" si="1"/>
-        <v>256678433.94073042</v>
-      </c>
-      <c r="C23" s="26">
-        <v>0.13150000000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24">
-        <v>2010</v>
-      </c>
-      <c r="B24" s="1">
-        <f t="shared" si="1"/>
-        <v>281601909.87637532</v>
-      </c>
-      <c r="C24" s="26">
-        <v>9.7100000000000006E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25">
-        <v>2020</v>
-      </c>
-      <c r="B25" s="1">
-        <f t="shared" si="1"/>
-        <v>302299650.25228888</v>
-      </c>
-      <c r="C25" s="26">
-        <v>7.3499999999999996E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C63D63CD-E558-4E85-B35D-432437BFD9B4}">
   <dimension ref="A1:K43"/>
   <sheetViews>
@@ -9885,950 +8240,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{361FE7B8-0B0F-454D-9098-56AB6E752981}">
-  <dimension ref="A1:M79"/>
-  <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="1" max="1" width="17.5234375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7890625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7890625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="38" t="s">
-        <v>315</v>
-      </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="G1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H2" t="s">
-        <v>73</v>
-      </c>
-      <c r="I2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
-        <v>312</v>
-      </c>
-      <c r="B3" s="26">
-        <v>0.623</v>
-      </c>
-      <c r="C3" s="11">
-        <f>B3*C$11</f>
-        <v>23737546</v>
-      </c>
-      <c r="G3" t="s">
-        <v>312</v>
-      </c>
-      <c r="H3" s="36">
-        <f t="shared" ref="H3:H9" si="0">I3/I$11</f>
-        <v>0.57030152648907517</v>
-      </c>
-      <c r="I3" s="15">
-        <f>C3+C15+C26+C38+C48+C60+C71+C77</f>
-        <v>47634435</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
-        <v>313</v>
-      </c>
-      <c r="B4" s="26">
-        <v>0.16400000000000001</v>
-      </c>
-      <c r="C4" s="11">
-        <f t="shared" ref="C4:C10" si="1">B4*C$11</f>
-        <v>6248728</v>
-      </c>
-      <c r="G4" t="s">
-        <v>313</v>
-      </c>
-      <c r="H4" s="36">
-        <f t="shared" si="0"/>
-        <v>0.18724507632445375</v>
-      </c>
-      <c r="I4" s="15">
-        <f>C4+C18+C27+C37+C52+C61+C72+C78</f>
-        <v>15639645</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B5" s="26">
-        <v>6.9000000000000006E-2</v>
-      </c>
-      <c r="C5" s="11">
-        <f t="shared" si="1"/>
-        <v>2629038</v>
-      </c>
-      <c r="G5" t="s">
-        <v>70</v>
-      </c>
-      <c r="H5" s="36">
-        <f t="shared" si="0"/>
-        <v>7.316738700987728E-2</v>
-      </c>
-      <c r="I5" s="15">
-        <f>C5+C17+C28+C39+C51+C62</f>
-        <v>6111306</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
-        <v>314</v>
-      </c>
-      <c r="B6" s="26">
-        <v>0.03</v>
-      </c>
-      <c r="C6" s="11">
-        <f t="shared" si="1"/>
-        <v>1143060</v>
-      </c>
-      <c r="G6" t="s">
-        <v>314</v>
-      </c>
-      <c r="H6" s="36">
-        <f t="shared" si="0"/>
-        <v>3.2224148458545349E-2</v>
-      </c>
-      <c r="I6" s="15">
-        <f>C6+C50</f>
-        <v>2691522</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B7" s="26">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="C7" s="11">
-        <f t="shared" si="1"/>
-        <v>152408</v>
-      </c>
-      <c r="G7" t="s">
-        <v>69</v>
-      </c>
-      <c r="H7" s="36">
-        <f t="shared" si="0"/>
-        <v>4.6302436396288539E-2</v>
-      </c>
-      <c r="I7" s="15">
-        <f>C7+C16+C29+C40+C49+C63</f>
-        <v>3867411</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B8" s="26">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="C8" s="11">
-        <f t="shared" si="1"/>
-        <v>990652</v>
-      </c>
-      <c r="G8" t="s">
-        <v>67</v>
-      </c>
-      <c r="H8" s="36">
-        <f t="shared" si="0"/>
-        <v>2.2116264591439689E-2</v>
-      </c>
-      <c r="I8" s="15">
-        <f>C8+C19+C30+C41+C53+C64</f>
-        <v>1847261</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9" s="26">
-        <v>3.1E-2</v>
-      </c>
-      <c r="C9" s="11">
-        <f t="shared" si="1"/>
-        <v>1181162</v>
-      </c>
-      <c r="G9" t="s">
-        <v>66</v>
-      </c>
-      <c r="H9" s="36">
-        <f t="shared" si="0"/>
-        <v>2.3994971565399582E-2</v>
-      </c>
-      <c r="I9" s="15">
-        <f t="shared" ref="I9:I10" si="2">C9+C20+C31+C42+C54+C65</f>
-        <v>2004180</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" t="s">
-        <v>65</v>
-      </c>
-      <c r="B10" s="26">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="C10" s="11">
-        <f t="shared" si="1"/>
-        <v>2019406</v>
-      </c>
-      <c r="G10" t="s">
-        <v>65</v>
-      </c>
-      <c r="H10" s="36">
-        <f>I10/I$11</f>
-        <v>4.4648189164920679E-2</v>
-      </c>
-      <c r="I10" s="15">
-        <f t="shared" si="2"/>
-        <v>3729240</v>
-      </c>
-      <c r="M10" s="26"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="32">
-        <f>SUM(B3:B10)</f>
-        <v>1.0000000000000002</v>
-      </c>
-      <c r="C11" s="34">
-        <v>38102000</v>
-      </c>
-      <c r="G11" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="H11" s="35">
-        <f>I11/I$11</f>
-        <v>1</v>
-      </c>
-      <c r="I11" s="34">
-        <f>C11+C22+C33+C44+C56+C67+C73+C79</f>
-        <v>83525000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="38" t="s">
-        <v>316</v>
-      </c>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" t="s">
-        <v>72</v>
-      </c>
-      <c r="B14" t="s">
-        <v>73</v>
-      </c>
-      <c r="C14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" t="s">
-        <v>312</v>
-      </c>
-      <c r="B15" s="26">
-        <v>0.80500000000000005</v>
-      </c>
-      <c r="C15" s="11">
-        <f>B15*C$22</f>
-        <v>1629320</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" t="s">
-        <v>69</v>
-      </c>
-      <c r="B16" s="26">
-        <v>6.3E-2</v>
-      </c>
-      <c r="C16" s="11">
-        <f t="shared" ref="C16:C21" si="3">B16*C$22</f>
-        <v>127512</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" t="s">
-        <v>70</v>
-      </c>
-      <c r="B17" s="26">
-        <v>6.2E-2</v>
-      </c>
-      <c r="C17" s="11">
-        <f t="shared" si="3"/>
-        <v>125488</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" t="s">
-        <v>313</v>
-      </c>
-      <c r="B18" s="26">
-        <v>4.5999999999999999E-2</v>
-      </c>
-      <c r="C18" s="11">
-        <f t="shared" si="3"/>
-        <v>93104</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" t="s">
-        <v>67</v>
-      </c>
-      <c r="B19" s="26">
-        <v>1E-3</v>
-      </c>
-      <c r="C19" s="11">
-        <f t="shared" si="3"/>
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" t="s">
-        <v>66</v>
-      </c>
-      <c r="B20" s="26">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="C20" s="11">
-        <f t="shared" si="3"/>
-        <v>8096</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" t="s">
-        <v>65</v>
-      </c>
-      <c r="B21" s="26">
-        <v>1.9E-2</v>
-      </c>
-      <c r="C21" s="11">
-        <f t="shared" si="3"/>
-        <v>38456</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="32">
-        <f>SUM(B15:B21)</f>
-        <v>1.0000000000000002</v>
-      </c>
-      <c r="C22" s="34">
-        <v>2024000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="38" t="s">
-        <v>317</v>
-      </c>
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" t="s">
-        <v>72</v>
-      </c>
-      <c r="B25" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" t="s">
-        <v>74</v>
-      </c>
-      <c r="B26" s="26">
-        <v>0.59599999999999997</v>
-      </c>
-      <c r="C26" s="11">
-        <f>B26*C$33</f>
-        <v>7401724</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" t="s">
-        <v>313</v>
-      </c>
-      <c r="B27" s="26">
-        <v>0.22800000000000001</v>
-      </c>
-      <c r="C27" s="11">
-        <f t="shared" ref="C27:C32" si="4">B27*C$33</f>
-        <v>2831532</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" t="s">
-        <v>70</v>
-      </c>
-      <c r="B28" s="26">
-        <v>9.2999999999999999E-2</v>
-      </c>
-      <c r="C28" s="11">
-        <f t="shared" si="4"/>
-        <v>1154967</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" t="s">
-        <v>69</v>
-      </c>
-      <c r="B29" s="26">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="C29" s="11">
-        <f t="shared" si="4"/>
-        <v>49676</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" t="s">
-        <v>67</v>
-      </c>
-      <c r="B30" s="26">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="C30" s="11">
-        <f t="shared" si="4"/>
-        <v>360151</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" t="s">
-        <v>66</v>
-      </c>
-      <c r="B31" s="26">
-        <v>1.6E-2</v>
-      </c>
-      <c r="C31" s="11">
-        <f t="shared" si="4"/>
-        <v>198704</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" t="s">
-        <v>65</v>
-      </c>
-      <c r="B32" s="26">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="C32" s="11">
-        <f t="shared" si="4"/>
-        <v>422246.00000000006</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="B33" s="33">
-        <f>SUM(B26:B32)</f>
-        <v>1</v>
-      </c>
-      <c r="C33" s="34">
-        <v>12419000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="38" t="s">
-        <v>318</v>
-      </c>
-      <c r="B35" s="38"/>
-      <c r="C35" s="38"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" t="s">
-        <v>72</v>
-      </c>
-      <c r="B36" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" t="s">
-        <v>313</v>
-      </c>
-      <c r="B37" s="26">
-        <v>0.75600000000000001</v>
-      </c>
-      <c r="C37" s="11">
-        <f>B37*C$44</f>
-        <v>4713660</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" t="s">
-        <v>74</v>
-      </c>
-      <c r="B38" s="26">
-        <v>0.16300000000000001</v>
-      </c>
-      <c r="C38" s="11">
-        <f t="shared" ref="C38:C43" si="5">B38*C$44</f>
-        <v>1016305</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" t="s">
-        <v>70</v>
-      </c>
-      <c r="B39" s="26">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="C39" s="11">
-        <f t="shared" si="5"/>
-        <v>274340</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" t="s">
-        <v>69</v>
-      </c>
-      <c r="B40" s="26">
-        <v>2E-3</v>
-      </c>
-      <c r="C40" s="11">
-        <f t="shared" si="5"/>
-        <v>12470</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" t="s">
-        <v>67</v>
-      </c>
-      <c r="B41" s="26">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="C41" s="11">
-        <f t="shared" si="5"/>
-        <v>24940</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" t="s">
-        <v>66</v>
-      </c>
-      <c r="B42" s="26">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="C42" s="11">
-        <f t="shared" si="5"/>
-        <v>56114.999999999993</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" t="s">
-        <v>65</v>
-      </c>
-      <c r="B43" s="26">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="C43" s="11">
-        <f t="shared" si="5"/>
-        <v>137170</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="B44" s="32">
-        <f>SUM(B37:B43)</f>
-        <v>1</v>
-      </c>
-      <c r="C44" s="34">
-        <v>6235000</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="38" t="s">
-        <v>319</v>
-      </c>
-      <c r="B46" s="38"/>
-      <c r="C46" s="38"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" t="s">
-        <v>72</v>
-      </c>
-      <c r="B47" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" t="s">
-        <v>74</v>
-      </c>
-      <c r="B48" s="26">
-        <v>0.49199999999999999</v>
-      </c>
-      <c r="C48" s="11">
-        <f>B48*C$56</f>
-        <v>8104716</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" t="s">
-        <v>69</v>
-      </c>
-      <c r="B49" s="26">
-        <v>0.17299999999999999</v>
-      </c>
-      <c r="C49" s="11">
-        <f t="shared" ref="C49:C55" si="6">B49*C$56</f>
-        <v>2849829</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" t="s">
-        <v>314</v>
-      </c>
-      <c r="B50" s="26">
-        <v>9.4E-2</v>
-      </c>
-      <c r="C50" s="11">
-        <f t="shared" si="6"/>
-        <v>1548462</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" t="s">
-        <v>70</v>
-      </c>
-      <c r="B51" s="26">
-        <v>7.2999999999999995E-2</v>
-      </c>
-      <c r="C51" s="11">
-        <f t="shared" si="6"/>
-        <v>1202529</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" t="s">
-        <v>313</v>
-      </c>
-      <c r="B52" s="26">
-        <v>6.0999999999999999E-2</v>
-      </c>
-      <c r="C52" s="11">
-        <f t="shared" si="6"/>
-        <v>1004853</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" t="s">
-        <v>67</v>
-      </c>
-      <c r="B53" s="26">
-        <v>2.4E-2</v>
-      </c>
-      <c r="C53" s="11">
-        <f t="shared" si="6"/>
-        <v>395352</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" t="s">
-        <v>66</v>
-      </c>
-      <c r="B54" s="26">
-        <v>2.7E-2</v>
-      </c>
-      <c r="C54" s="11">
-        <f t="shared" si="6"/>
-        <v>444771</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" t="s">
-        <v>65</v>
-      </c>
-      <c r="B55" s="26">
-        <v>5.6000000000000001E-2</v>
-      </c>
-      <c r="C55" s="11">
-        <f t="shared" si="6"/>
-        <v>922488</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="B56" s="33">
-        <v>1</v>
-      </c>
-      <c r="C56" s="34">
-        <v>16473000</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="38" t="s">
-        <v>320</v>
-      </c>
-      <c r="B58" s="38"/>
-      <c r="C58" s="38"/>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" t="s">
-        <v>72</v>
-      </c>
-      <c r="B59" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" t="s">
-        <v>74</v>
-      </c>
-      <c r="B60" s="26">
-        <v>0.69399999999999995</v>
-      </c>
-      <c r="C60" s="11">
-        <f>B60*C$67</f>
-        <v>5717172</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61" t="s">
-        <v>313</v>
-      </c>
-      <c r="B61" s="26">
-        <v>0.09</v>
-      </c>
-      <c r="C61" s="11">
-        <f t="shared" ref="C61:C66" si="7">B61*C$67</f>
-        <v>741420</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" t="s">
-        <v>70</v>
-      </c>
-      <c r="B62" s="26">
-        <v>8.7999999999999995E-2</v>
-      </c>
-      <c r="C62" s="11">
-        <f t="shared" si="7"/>
-        <v>724944</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" t="s">
-        <v>69</v>
-      </c>
-      <c r="B63" s="26">
-        <v>8.2000000000000003E-2</v>
-      </c>
-      <c r="C63" s="11">
-        <f t="shared" si="7"/>
-        <v>675516</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A64" t="s">
-        <v>67</v>
-      </c>
-      <c r="B64" s="26">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="C64" s="11">
-        <f t="shared" si="7"/>
-        <v>74142</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A65" t="s">
-        <v>66</v>
-      </c>
-      <c r="B65" s="26">
-        <v>1.4E-2</v>
-      </c>
-      <c r="C65" s="11">
-        <f t="shared" si="7"/>
-        <v>115332</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A66" t="s">
-        <v>65</v>
-      </c>
-      <c r="B66" s="26">
-        <v>2.3E-2</v>
-      </c>
-      <c r="C66" s="11">
-        <f t="shared" si="7"/>
-        <v>189474</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A67" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="B67" s="33">
-        <v>1</v>
-      </c>
-      <c r="C67" s="34">
-        <v>8238000</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A69" s="38" t="s">
-        <v>321</v>
-      </c>
-      <c r="B69" s="38"/>
-      <c r="C69" s="38"/>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A70" t="s">
-        <v>72</v>
-      </c>
-      <c r="B70" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A71" t="s">
-        <v>74</v>
-      </c>
-      <c r="B71" s="26">
-        <v>0.73299999999999998</v>
-      </c>
-      <c r="C71" s="11">
-        <f>B71*C$73</f>
-        <v>9529</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A72" t="s">
-        <v>313</v>
-      </c>
-      <c r="B72" s="26">
-        <v>0.26700000000000002</v>
-      </c>
-      <c r="C72" s="11">
-        <f>B72*C$73</f>
-        <v>3471</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A73" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="B73" s="32">
-        <f>SUM(B71:B72)</f>
-        <v>1</v>
-      </c>
-      <c r="C73" s="34">
-        <v>13000</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A75" s="38" t="s">
-        <v>322</v>
-      </c>
-      <c r="B75" s="38"/>
-      <c r="C75" s="38"/>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A76" t="s">
-        <v>72</v>
-      </c>
-      <c r="B76" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A77" t="s">
-        <v>74</v>
-      </c>
-      <c r="B77" s="26">
-        <v>0.86299999999999999</v>
-      </c>
-      <c r="C77" s="11">
-        <f>B77*C$79</f>
-        <v>18123</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A78" t="s">
-        <v>313</v>
-      </c>
-      <c r="B78" s="26">
-        <v>0.13700000000000001</v>
-      </c>
-      <c r="C78" s="11">
-        <f>B78*C$79</f>
-        <v>2877</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A79" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="B79" s="32">
-        <f>SUM(B77:B78)</f>
-        <v>1</v>
-      </c>
-      <c r="C79" s="34">
-        <v>21000</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="A69:C69"/>
-    <mergeCell ref="A75:C75"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A46:C46"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F052C3D5-A3C0-4980-867A-FBAC00D00C62}">
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -10840,7 +8257,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="D1" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="E1" s="1">
         <v>9596961</v>
@@ -10848,7 +8265,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="D2" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="E2" s="2">
         <v>2754.97</v>
@@ -10856,15 +8273,15 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="D3" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="E3" s="37">
+        <v>314</v>
+      </c>
+      <c r="E3" s="31">
         <v>115.3</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="B4" s="1">
         <f>SUM(E1:E3)</f>
@@ -10873,7 +8290,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="D5" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="E5" s="1">
         <v>89041.2</v>
@@ -10881,7 +8298,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="D6" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="E6" s="1">
         <v>155801.29999999999</v>
@@ -10889,7 +8306,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="D7" s="3" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="E7" s="6">
         <v>11731.5</v>
@@ -10897,7 +8314,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="B8" s="1">
         <f>SUM(E5:E7)</f>
@@ -10906,7 +8323,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="D9" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="E9" s="1">
         <v>36271</v>
@@ -10914,7 +8331,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="D10" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="E10" s="1">
         <v>164673</v>
@@ -10922,7 +8339,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="D11" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="E11" s="1">
         <v>361908</v>
@@ -10930,7 +8347,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="G12" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="H12" s="1">
         <v>787633</v>
@@ -10938,7 +8355,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="G13" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="H13" s="1">
         <v>-158517.79999999999</v>
@@ -10946,7 +8363,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="G14" s="3" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="H14" s="6">
         <v>-167200</v>
@@ -10954,7 +8371,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="D15" s="3" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="E15" s="6">
         <f>SUM(H12:H14)</f>
@@ -10963,7 +8380,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="B16" s="1">
         <f>SUM(E9:E15)</f>
@@ -10973,7 +8390,7 @@
     <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="1"/>
       <c r="D17" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="E17" s="1">
         <v>431892</v>
@@ -10982,7 +8399,7 @@
     <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="1"/>
       <c r="D18" s="3" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="E18" s="6">
         <v>351334</v>
@@ -10990,7 +8407,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="B19" s="1">
         <f>SUM(E17:E18)</f>
@@ -10999,7 +8416,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="B20" s="1">
         <v>1564116</v>
@@ -11007,7 +8424,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="B21" s="1">
         <v>168604</v>
@@ -11015,7 +8432,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D22" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="E22" s="1">
         <v>-1664897</v>
@@ -11023,7 +8440,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D23" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="E23" s="1">
         <v>137222</v>
@@ -11031,7 +8448,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D24" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="E24" s="1">
         <v>73485</v>
@@ -11039,7 +8456,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D25" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="E25" s="1">
         <v>14577</v>
@@ -11047,7 +8464,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D26" s="3" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="E26" s="6">
         <v>742</v>
@@ -11055,7 +8472,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="B27" s="1">
         <f>SUM(E22:E26)</f>
@@ -11064,7 +8481,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D28" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="E28" s="1">
         <v>-474300</v>
@@ -11072,7 +8489,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D29" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="E29" s="1">
         <v>-147681.37</v>
@@ -11080,7 +8497,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D30" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="E30" s="1">
         <v>-60261</v>
@@ -11088,7 +8505,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D31" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="E31" s="2">
         <v>-7423.42</v>
@@ -11096,7 +8513,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D32" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="E32" s="1">
         <v>-204887</v>
@@ -11104,7 +8521,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D33" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="E33" s="1">
         <v>-74246</v>
@@ -11112,7 +8529,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D34" s="3" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="E34" s="6">
         <v>-49384</v>
@@ -11120,7 +8537,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="3" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="B35" s="6">
         <f>SUM(E28:E34)</f>

--- a/obsidian-notes/spreadsheets/area.xlsx
+++ b/obsidian-notes/spreadsheets/area.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sharm\iCloudDrive\iCloud~md~obsidian\Ishan's notes\Spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD251E35-14FC-4EF6-AA6D-E6DD42E5F002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C9152B-7123-45C1-8D86-950E304E2468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" activeTab="3" xr2:uid="{94B94BC7-FBC8-4BAC-A974-CA3E4662C848}"/>
   </bookViews>
@@ -2778,8 +2778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C745E12-030D-4421-A6DC-982053D4A77E}">
   <dimension ref="A1:N202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="93" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="93" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -3190,7 +3190,7 @@
       </c>
       <c r="B34" s="12">
         <f>C84^(1/3)</f>
-        <v>672.62429583435312</v>
+        <v>669.81282363274852</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -3207,7 +3207,7 @@
       </c>
       <c r="B36" s="15">
         <f>C84/B35</f>
-        <v>431035.4107648725</v>
+        <v>425652.97450424929</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -3216,7 +3216,7 @@
       </c>
       <c r="B37" s="15">
         <f>B36+C37</f>
-        <v>433035.4107648725</v>
+        <v>427652.97450424929</v>
       </c>
       <c r="C37">
         <v>2000</v>
@@ -3269,7 +3269,7 @@
       <c r="D41" s="21"/>
       <c r="E41" s="22">
         <f t="shared" ref="E41:E82" si="0">C41/$B$37</f>
-        <v>3.5077962730968886</v>
+        <v>3.5519453635529588</v>
       </c>
       <c r="F41" s="23">
         <f t="shared" ref="F41:F83" si="1">FLOOR(E41,1)</f>
@@ -3303,7 +3303,7 @@
       <c r="D42" s="1"/>
       <c r="E42" s="12">
         <f t="shared" si="0"/>
-        <v>36.103283037259217</v>
+        <v>36.557678613421302</v>
       </c>
       <c r="F42" s="15">
         <f t="shared" si="1"/>
@@ -3315,7 +3315,7 @@
       </c>
       <c r="H42">
         <f t="shared" si="2"/>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K42" s="11">
         <f>E151*0.75+E165*0.8</f>
@@ -3335,7 +3335,7 @@
       <c r="D43" s="21"/>
       <c r="E43" s="22">
         <f t="shared" si="0"/>
-        <v>23.64009904390576</v>
+        <v>23.937633105129454</v>
       </c>
       <c r="F43" s="23">
         <f t="shared" si="1"/>
@@ -3369,15 +3369,15 @@
       <c r="D44" s="1"/>
       <c r="E44" s="12">
         <f t="shared" si="0"/>
-        <v>27.736761709128853</v>
+        <v>28.085856327606709</v>
       </c>
       <c r="F44" s="15">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G44">
         <f t="shared" si="3"/>
-        <v>27.495454169735041</v>
+        <v>28.495613697550013</v>
       </c>
       <c r="H44">
         <f t="shared" si="2"/>
@@ -3401,7 +3401,7 @@
       <c r="D45" s="21"/>
       <c r="E45" s="22">
         <f t="shared" si="0"/>
-        <v>8.419634767420181</v>
+        <v>8.5256042103450227</v>
       </c>
       <c r="F45" s="23">
         <f t="shared" si="1"/>
@@ -3413,7 +3413,7 @@
       </c>
       <c r="H45" s="20">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I45" s="20"/>
       <c r="J45" s="20"/>
@@ -3435,7 +3435,7 @@
       <c r="D46" s="1"/>
       <c r="E46" s="12">
         <f t="shared" si="0"/>
-        <v>20.051477971889586</v>
+        <v>20.303845682508456</v>
       </c>
       <c r="F46" s="15">
         <f t="shared" si="1"/>
@@ -3467,7 +3467,7 @@
       <c r="D47" s="21"/>
       <c r="E47" s="22">
         <f t="shared" si="0"/>
-        <v>11.031430412497588</v>
+        <v>11.170271890515131</v>
       </c>
       <c r="F47" s="23">
         <f t="shared" si="1"/>
@@ -3501,15 +3501,15 @@
       <c r="D48" s="1"/>
       <c r="E48" s="12">
         <f t="shared" si="0"/>
-        <v>20.825086761545585</v>
+        <v>21.087191105016842</v>
       </c>
       <c r="F48" s="15">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G48">
         <f t="shared" si="3"/>
-        <v>20.493901531919196</v>
+        <v>21.494185260204677</v>
       </c>
       <c r="H48">
         <f t="shared" si="2"/>
@@ -3533,7 +3533,7 @@
       <c r="D49" s="21"/>
       <c r="E49" s="22">
         <f t="shared" si="0"/>
-        <v>4.027384266149423</v>
+        <v>4.0780728861332198</v>
       </c>
       <c r="F49" s="23">
         <f t="shared" si="1"/>
@@ -3562,20 +3562,20 @@
         <v>86</v>
       </c>
       <c r="C50" s="1">
-        <v>19141000</v>
+        <v>18641000</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="12">
         <f t="shared" si="0"/>
-        <v>44.20192788897139</v>
+        <v>43.589080659638384</v>
       </c>
       <c r="F50" s="15">
         <f t="shared" si="1"/>
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G50">
         <f t="shared" si="3"/>
-        <v>44.497190922573978</v>
+        <v>43.497126341863094</v>
       </c>
       <c r="H50">
         <f t="shared" si="2"/>
@@ -3599,19 +3599,19 @@
       <c r="D51" s="21"/>
       <c r="E51" s="22">
         <f t="shared" si="0"/>
-        <v>70.984956970852707</v>
+        <v>71.8783729626428</v>
       </c>
       <c r="F51" s="23">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G51" s="20">
         <f t="shared" si="3"/>
-        <v>70.498226928058273</v>
+        <v>71.498251726877911</v>
       </c>
       <c r="H51" s="20">
         <f t="shared" si="2"/>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I51" s="20"/>
       <c r="J51" s="20"/>
@@ -3633,15 +3633,15 @@
       <c r="D52" s="1"/>
       <c r="E52" s="12">
         <f t="shared" si="0"/>
-        <v>28.891401693690042</v>
+        <v>29.255028600007286</v>
       </c>
       <c r="F52" s="15">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G52">
         <f t="shared" si="3"/>
-        <v>28.495613697550013</v>
+        <v>29.49576240750525</v>
       </c>
       <c r="H52">
         <f t="shared" si="2"/>
@@ -3665,7 +3665,7 @@
       <c r="D53" s="21"/>
       <c r="E53" s="22">
         <f t="shared" si="0"/>
-        <v>2.5355894060963684</v>
+        <v>2.5675023101916716</v>
       </c>
       <c r="F53" s="23">
         <f t="shared" si="1"/>
@@ -3699,7 +3699,7 @@
       <c r="D54" s="1"/>
       <c r="E54" s="12">
         <f t="shared" si="0"/>
-        <v>1.9559601338466521</v>
+        <v>1.9805778294465808</v>
       </c>
       <c r="F54" s="15">
         <f t="shared" si="1"/>
@@ -3727,15 +3727,15 @@
       <c r="D55" s="21"/>
       <c r="E55" s="22">
         <f t="shared" si="0"/>
-        <v>21.755726589101901</v>
+        <v>22.029543956571707</v>
       </c>
       <c r="F55" s="23">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G55" s="20">
         <f t="shared" si="3"/>
-        <v>21.494185260204677</v>
+        <v>22.494443758403985</v>
       </c>
       <c r="H55" s="20">
         <f t="shared" si="2"/>
@@ -3762,7 +3762,7 @@
       <c r="D56" s="1"/>
       <c r="E56" s="12">
         <f t="shared" si="0"/>
-        <v>24.201254076402495</v>
+        <v>24.505850829516135</v>
       </c>
       <c r="F56" s="15">
         <f t="shared" si="1"/>
@@ -3774,7 +3774,7 @@
       </c>
       <c r="H56">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K56" s="11">
         <f>E154*0.8</f>
@@ -3789,24 +3789,24 @@
         <v>93</v>
       </c>
       <c r="C57" s="21">
-        <v>21456000</v>
+        <v>20456000</v>
       </c>
       <c r="D57" s="21"/>
       <c r="E57" s="22">
         <f t="shared" si="0"/>
-        <v>49.547911017489689</v>
+        <v>47.83317600845249</v>
       </c>
       <c r="F57" s="23">
         <f t="shared" si="1"/>
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G57" s="20">
         <f t="shared" si="3"/>
-        <v>49.497474683058329</v>
+        <v>47.497368348151667</v>
       </c>
       <c r="H57" s="20">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I57" s="20"/>
       <c r="J57" s="20"/>
@@ -3823,24 +3823,24 @@
         <v>94</v>
       </c>
       <c r="C58" s="1">
-        <v>10102000</v>
+        <v>9102000</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="12">
         <f t="shared" si="0"/>
-        <v>23.328346248074237</v>
+        <v>21.283612046780139</v>
       </c>
       <c r="F58" s="15">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G58">
         <f t="shared" si="3"/>
-        <v>23.49468024894146</v>
+        <v>21.494185260204677</v>
       </c>
       <c r="H58">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K58" s="1">
         <f>E188+E173+(E150*0.1)+E171*0.6</f>
@@ -3860,7 +3860,7 @@
       <c r="D59" s="21"/>
       <c r="E59" s="22">
         <f t="shared" si="0"/>
-        <v>12.474730393199073</v>
+        <v>12.631737231015855</v>
       </c>
       <c r="F59" s="23">
         <f t="shared" si="1"/>
@@ -3872,7 +3872,7 @@
       </c>
       <c r="H59" s="20">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I59" s="20"/>
       <c r="J59" s="20"/>
@@ -3894,7 +3894,7 @@
       <c r="D60" s="1"/>
       <c r="E60" s="12">
         <f t="shared" si="0"/>
-        <v>20.097663571272033</v>
+        <v>20.350612573404476</v>
       </c>
       <c r="F60" s="15">
         <f t="shared" si="1"/>
@@ -3926,7 +3926,7 @@
       <c r="D61" s="21"/>
       <c r="E61" s="22">
         <f t="shared" si="0"/>
-        <v>3.4662292336526859</v>
+        <v>3.5098551617465379</v>
       </c>
       <c r="F61" s="23">
         <f t="shared" si="1"/>
@@ -3960,15 +3960,15 @@
       <c r="D62" s="1"/>
       <c r="E62" s="12">
         <f t="shared" si="0"/>
-        <v>26.817668281418147</v>
+        <v>27.155195198775846</v>
       </c>
       <c r="F62" s="15">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G62">
         <f t="shared" si="3"/>
-        <v>26.49528259898354</v>
+        <v>27.495454169735041</v>
       </c>
       <c r="H62">
         <f t="shared" si="2"/>
@@ -3992,7 +3992,7 @@
       <c r="D63" s="21"/>
       <c r="E63" s="22">
         <f t="shared" si="0"/>
-        <v>20.508715405775817</v>
+        <v>20.766837902379084</v>
       </c>
       <c r="F63" s="23">
         <f t="shared" si="1"/>
@@ -4021,24 +4021,24 @@
         <v>100</v>
       </c>
       <c r="C64" s="1">
-        <v>17703000</v>
+        <v>16703000</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="12">
         <f t="shared" si="0"/>
-        <v>40.881183293373418</v>
+        <v>39.057368931813741</v>
       </c>
       <c r="F64" s="15">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G64">
         <f t="shared" si="3"/>
-        <v>40.496913462633174</v>
+        <v>39.496835316262995</v>
       </c>
       <c r="H64">
         <f t="shared" si="2"/>
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K64" s="25">
         <f>E149*(2/3)+E181*(2/3)</f>
@@ -4058,15 +4058,15 @@
       <c r="D65" s="21"/>
       <c r="E65" s="22">
         <f t="shared" si="0"/>
-        <v>15.920176107129658</v>
+        <v>16.120547291859182</v>
       </c>
       <c r="F65" s="23">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G65" s="20">
         <f t="shared" si="3"/>
-        <v>15.491933384829668</v>
+        <v>16.492422502470642</v>
       </c>
       <c r="H65" s="20">
         <f t="shared" si="2"/>
@@ -4092,15 +4092,15 @@
       <c r="D66" s="1"/>
       <c r="E66" s="12">
         <f t="shared" si="0"/>
-        <v>6.9878811865643087</v>
+        <v>7.0758305925683036</v>
       </c>
       <c r="F66" s="15">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G66">
         <f t="shared" si="3"/>
-        <v>6.4807406984078604</v>
+        <v>7.4833147735478827</v>
       </c>
       <c r="H66">
         <f t="shared" si="2"/>
@@ -4124,15 +4124,15 @@
       <c r="D67" s="21"/>
       <c r="E67" s="22">
         <f t="shared" si="0"/>
-        <v>19.772055095625781</v>
+        <v>20.020905992587515</v>
       </c>
       <c r="F67" s="23">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G67" s="20">
         <f t="shared" si="3"/>
-        <v>19.493588689617926</v>
+        <v>20.493901531919196</v>
       </c>
       <c r="H67" s="20">
         <f t="shared" si="2"/>
@@ -4158,7 +4158,7 @@
       <c r="D68" s="1"/>
       <c r="E68" s="12">
         <f t="shared" si="0"/>
-        <v>9.1054909182495276</v>
+        <v>9.220092540150965</v>
       </c>
       <c r="F68" s="15">
         <f t="shared" si="1"/>
@@ -4190,15 +4190,15 @@
       <c r="D69" s="21"/>
       <c r="E69" s="22">
         <f t="shared" si="0"/>
-        <v>11.862771201381644</v>
+        <v>12.012075926643549</v>
       </c>
       <c r="F69" s="23">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G69" s="20">
         <f t="shared" si="3"/>
-        <v>11.489125293076057</v>
+        <v>12.489995996796797</v>
       </c>
       <c r="H69" s="20">
         <f t="shared" si="2"/>
@@ -4219,20 +4219,20 @@
         <v>239</v>
       </c>
       <c r="C70" s="1">
-        <v>1934000</v>
+        <v>1634000</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="12">
         <f t="shared" si="0"/>
-        <v>4.4661474602826745</v>
+        <v>3.820854986205092</v>
       </c>
       <c r="F70" s="15">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G70">
         <f t="shared" si="3"/>
-        <v>4.4721359549995796</v>
+        <v>3.4641016151377544</v>
       </c>
       <c r="H70">
         <f t="shared" si="2"/>
@@ -4256,7 +4256,7 @@
       <c r="D71" s="21"/>
       <c r="E71" s="22">
         <f t="shared" si="0"/>
-        <v>18.0608786385061</v>
+        <v>18.288192684889857</v>
       </c>
       <c r="F71" s="23">
         <f t="shared" si="1"/>
@@ -4290,7 +4290,7 @@
       <c r="D72" s="1"/>
       <c r="E72" s="12">
         <f t="shared" si="0"/>
-        <v>2.0136921330747115</v>
+        <v>2.0390364430666099</v>
       </c>
       <c r="F72" s="15">
         <f t="shared" si="1"/>
@@ -4318,7 +4318,7 @@
       <c r="D73" s="21"/>
       <c r="E73" s="22">
         <f t="shared" si="0"/>
-        <v>11.343183208329108</v>
+        <v>11.485948404063288</v>
       </c>
       <c r="F73" s="23">
         <f t="shared" si="1"/>
@@ -4352,7 +4352,7 @@
       <c r="D74" s="1"/>
       <c r="E74" s="12">
         <f t="shared" si="0"/>
-        <v>4.3483741818574329</v>
+        <v>4.40310277786058</v>
       </c>
       <c r="F74" s="15">
         <f t="shared" si="1"/>
@@ -4384,15 +4384,15 @@
       <c r="D75" s="21"/>
       <c r="E75" s="22">
         <f t="shared" si="0"/>
-        <v>7.9115931742132588</v>
+        <v>8.0111684104887679</v>
       </c>
       <c r="F75" s="23">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G75" s="20">
         <f t="shared" si="3"/>
-        <v>7.4833147735478827</v>
+        <v>8.4852813742385695</v>
       </c>
       <c r="H75" s="20">
         <f t="shared" si="2"/>
@@ -4418,7 +4418,7 @@
       <c r="D76" s="1"/>
       <c r="E76" s="12">
         <f t="shared" si="0"/>
-        <v>19.176260863592208</v>
+        <v>19.417613100028817</v>
       </c>
       <c r="F76" s="15">
         <f t="shared" si="1"/>
@@ -4450,7 +4450,7 @@
       <c r="D77" s="21"/>
       <c r="E77" s="22">
         <f t="shared" si="0"/>
-        <v>7.1610771842484864</v>
+        <v>7.2512064334283908</v>
       </c>
       <c r="F77" s="23">
         <f t="shared" si="1"/>
@@ -4484,7 +4484,7 @@
       <c r="D78" s="1"/>
       <c r="E78" s="12">
         <f t="shared" si="0"/>
-        <v>2.4663110070226972</v>
+        <v>2.4973519738476369</v>
       </c>
       <c r="F78" s="15">
         <f t="shared" si="1"/>
@@ -4513,7 +4513,7 @@
       <c r="D79" s="21"/>
       <c r="E79" s="22">
         <f t="shared" si="0"/>
-        <v>8.1563768509402301</v>
+        <v>8.2590329322376892</v>
       </c>
       <c r="F79" s="23">
         <f t="shared" si="1"/>
@@ -4547,7 +4547,7 @@
       <c r="D80" s="1"/>
       <c r="E80" s="12">
         <f t="shared" si="0"/>
-        <v>2.3808676481651694</v>
+        <v>2.410833225689994</v>
       </c>
       <c r="F80" s="15">
         <f t="shared" si="1"/>
@@ -4575,7 +4575,7 @@
       <c r="D81" s="21"/>
       <c r="E81" s="22">
         <f>C81/$B$37</f>
-        <v>3.2814868361228955</v>
+        <v>3.3227875981624453</v>
       </c>
       <c r="F81" s="23">
         <f>FLOOR(E81,1)</f>
@@ -4606,7 +4606,7 @@
       <c r="D82" s="1"/>
       <c r="E82" s="12">
         <f t="shared" si="0"/>
-        <v>0.88907278811211454</v>
+        <v>0.90026264974844583</v>
       </c>
       <c r="F82" s="15">
         <f t="shared" si="1"/>
@@ -4634,7 +4634,7 @@
       <c r="D83" s="21"/>
       <c r="E83" s="22">
         <f>C83/$B$37</f>
-        <v>0.4433817540714961</v>
+        <v>0.44896215260182232</v>
       </c>
       <c r="F83" s="23">
         <f t="shared" si="1"/>
@@ -4659,18 +4659,18 @@
       </c>
       <c r="C84" s="7">
         <f>SUM(C41:C83)</f>
-        <v>304311000</v>
+        <v>300511000</v>
       </c>
       <c r="D84" s="7"/>
       <c r="E84" s="7">
         <f>SUM(E41:E83)</f>
-        <v>702.73929668359949</v>
+        <v>702.69825750274072</v>
       </c>
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c r="H84" s="7">
         <f>SUM(H41:H83)</f>
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="85" spans="1:13" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -4680,11 +4680,11 @@
       </c>
       <c r="B86" s="12">
         <f>$C$84/B32</f>
-        <v>70.892700399405527</v>
+        <v>70.007447281648552</v>
       </c>
       <c r="C86" s="12">
         <f>$C$84/C32</f>
-        <v>65.908203195972689</v>
+        <v>65.085192617502983</v>
       </c>
       <c r="I86" s="1"/>
     </row>
@@ -4726,7 +4726,7 @@
       </c>
       <c r="C92" s="1">
         <f>C42+C43+C41+C47+C79+C50</f>
-        <v>54840000</v>
+        <v>54340000</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -4738,7 +4738,7 @@
       </c>
       <c r="C93" s="1">
         <f>C57+C58+C63+C74+C65+C69</f>
-        <v>54353000</v>
+        <v>52353000</v>
       </c>
       <c r="J93" s="1"/>
     </row>
@@ -4763,7 +4763,7 @@
       </c>
       <c r="C95" s="1">
         <f>C56+C55+C60+C64+C68</f>
-        <v>50250000</v>
+        <v>49250000</v>
       </c>
       <c r="J95" s="15"/>
     </row>
@@ -4776,13 +4776,13 @@
       </c>
       <c r="C96" s="6">
         <f>C66+C62+C76+C71+C70+C81+C78+C83+C82+C80+C73</f>
-        <v>41707000</v>
+        <v>41407000</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C97" s="1">
         <f>SUM(C91:C96)</f>
-        <v>304311000</v>
+        <v>300511000</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -5229,23 +5229,23 @@
       </c>
       <c r="I110" s="11">
         <f t="shared" si="6"/>
-        <v>9647064</v>
+        <v>9395064</v>
       </c>
       <c r="J110" s="11">
         <f t="shared" si="4"/>
-        <v>8345476</v>
+        <v>8127476</v>
       </c>
       <c r="K110" s="11">
         <f t="shared" si="4"/>
-        <v>899627</v>
+        <v>876127</v>
       </c>
       <c r="L110" s="11">
         <f t="shared" si="4"/>
-        <v>76564</v>
+        <v>74564</v>
       </c>
       <c r="M110" s="11">
         <f t="shared" si="4"/>
-        <v>172269</v>
+        <v>167769</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -5537,23 +5537,23 @@
       </c>
       <c r="I117" s="11">
         <f t="shared" si="6"/>
-        <v>17400816</v>
+        <v>16589816.000000002</v>
       </c>
       <c r="J117" s="11">
         <f t="shared" ref="J117:J143" si="7">C117*$C57</f>
-        <v>1544831.9999999998</v>
+        <v>1472832</v>
       </c>
       <c r="K117" s="11">
         <f t="shared" ref="K117:K143" si="8">D117*$C57</f>
-        <v>2124144</v>
+        <v>2025144</v>
       </c>
       <c r="L117" s="11">
         <f t="shared" ref="L117:L142" si="9">E117*$C57</f>
-        <v>42912</v>
+        <v>40912</v>
       </c>
       <c r="M117" s="11">
         <f t="shared" ref="M117:M143" si="10">F117*$C57</f>
-        <v>343296</v>
+        <v>327296</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -5581,23 +5581,23 @@
       </c>
       <c r="I118" s="11">
         <f t="shared" si="6"/>
-        <v>8778638</v>
+        <v>7909638</v>
       </c>
       <c r="J118" s="11">
         <f t="shared" si="7"/>
-        <v>616222</v>
+        <v>555222</v>
       </c>
       <c r="K118" s="11">
         <f t="shared" si="8"/>
-        <v>545508</v>
+        <v>491508</v>
       </c>
       <c r="L118" s="11">
         <f t="shared" si="9"/>
-        <v>30306</v>
+        <v>27306</v>
       </c>
       <c r="M118" s="11">
         <f t="shared" si="10"/>
-        <v>131326</v>
+        <v>118326</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -5845,23 +5845,23 @@
       </c>
       <c r="I124" s="11">
         <f t="shared" si="6"/>
-        <v>11028969</v>
+        <v>10405969</v>
       </c>
       <c r="J124" s="11">
         <f t="shared" si="7"/>
-        <v>4673592</v>
+        <v>4409592</v>
       </c>
       <c r="K124" s="11">
         <f t="shared" si="8"/>
-        <v>1469349</v>
+        <v>1386349</v>
       </c>
       <c r="L124" s="11">
         <f t="shared" si="9"/>
-        <v>70812</v>
+        <v>66812</v>
       </c>
       <c r="M124" s="11">
         <f t="shared" si="10"/>
-        <v>460278</v>
+        <v>434278</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -6109,23 +6109,23 @@
       </c>
       <c r="I130" s="11">
         <f t="shared" si="6"/>
-        <v>1688382</v>
+        <v>1426482</v>
       </c>
       <c r="J130" s="11">
         <f t="shared" si="7"/>
-        <v>145050</v>
+        <v>122550</v>
       </c>
       <c r="K130" s="11">
         <f t="shared" si="8"/>
-        <v>38680</v>
+        <v>32680</v>
       </c>
       <c r="L130" s="11">
         <f t="shared" si="9"/>
-        <v>25142</v>
+        <v>21242</v>
       </c>
       <c r="M130" s="11">
         <f t="shared" si="10"/>
-        <v>36746</v>
+        <v>31046</v>
       </c>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -6706,23 +6706,23 @@
       </c>
       <c r="B144" s="30">
         <f>I144/$N144</f>
-        <v>0.69077221309026171</v>
+        <v>0.69013339118725059</v>
       </c>
       <c r="C144" s="30">
         <f t="shared" ref="C144:G144" si="11">J144/$N144</f>
-        <v>0.21448056679785557</v>
+        <v>0.21507133723370955</v>
       </c>
       <c r="D144" s="30">
         <f t="shared" si="11"/>
-        <v>7.2779979014548593E-2</v>
+        <v>7.2816797459889657E-2</v>
       </c>
       <c r="E144" s="30">
         <f t="shared" si="11"/>
-        <v>7.097819096165317E-3</v>
+        <v>7.1379912665179577E-3</v>
       </c>
       <c r="F144" s="30">
         <f t="shared" si="11"/>
-        <v>1.4869422001168869E-2</v>
+        <v>1.4840482852632241E-2</v>
       </c>
       <c r="G144" s="30">
         <f t="shared" si="11"/>
@@ -6730,27 +6730,27 @@
       </c>
       <c r="I144" s="28">
         <f>SUM(I101:I143)</f>
-        <v>210201561</v>
+        <v>207384661</v>
       </c>
       <c r="J144" s="28">
         <f t="shared" ref="J144:M144" si="12">SUM(J101:J143)</f>
-        <v>65266305</v>
+        <v>64628805</v>
       </c>
       <c r="K144" s="28">
         <f t="shared" si="12"/>
-        <v>22146903</v>
+        <v>21881403</v>
       </c>
       <c r="L144" s="28">
         <f>SUM(L101:L143)</f>
-        <v>2159862</v>
+        <v>2144962</v>
       </c>
       <c r="M144" s="28">
         <f t="shared" si="12"/>
-        <v>4524756</v>
+        <v>4459556</v>
       </c>
       <c r="N144" s="28">
         <f>SUM(I144:M144)</f>
-        <v>304299387</v>
+        <v>300499387</v>
       </c>
     </row>
     <row r="145" spans="1:5" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>

--- a/obsidian-notes/spreadsheets/area.xlsx
+++ b/obsidian-notes/spreadsheets/area.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sharm\iCloudDrive\iCloud~md~obsidian\Ishan's notes\Spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C9152B-7123-45C1-8D86-950E304E2468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D02394A-2BA6-4E9F-8E9D-01935DFBD2D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" activeTab="3" xr2:uid="{94B94BC7-FBC8-4BAC-A974-CA3E4662C848}"/>
   </bookViews>
@@ -2778,8 +2778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C745E12-030D-4421-A6DC-982053D4A77E}">
   <dimension ref="A1:N202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="93" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="93" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -3190,7 +3190,7 @@
       </c>
       <c r="B34" s="12">
         <f>C84^(1/3)</f>
-        <v>669.81282363274852</v>
+        <v>667.20226403240383</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -3207,7 +3207,7 @@
       </c>
       <c r="B36" s="15">
         <f>C84/B35</f>
-        <v>425652.97450424929</v>
+        <v>420695.46742209629</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -3216,7 +3216,7 @@
       </c>
       <c r="B37" s="15">
         <f>B36+C37</f>
-        <v>427652.97450424929</v>
+        <v>422695.46742209629</v>
       </c>
       <c r="C37">
         <v>2000</v>
@@ -3269,7 +3269,7 @@
       <c r="D41" s="21"/>
       <c r="E41" s="22">
         <f t="shared" ref="E41:E82" si="0">C41/$B$37</f>
-        <v>3.5519453635529588</v>
+        <v>3.5936037101697926</v>
       </c>
       <c r="F41" s="23">
         <f t="shared" ref="F41:F83" si="1">FLOOR(E41,1)</f>
@@ -3303,7 +3303,7 @@
       <c r="D42" s="1"/>
       <c r="E42" s="12">
         <f t="shared" si="0"/>
-        <v>36.557678613421302</v>
+        <v>36.986438712833795</v>
       </c>
       <c r="F42" s="15">
         <f t="shared" si="1"/>
@@ -3335,15 +3335,15 @@
       <c r="D43" s="21"/>
       <c r="E43" s="22">
         <f t="shared" si="0"/>
-        <v>23.937633105129454</v>
+        <v>24.218381290986287</v>
       </c>
       <c r="F43" s="23">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G43" s="20">
         <f t="shared" si="3"/>
-        <v>23.49468024894146</v>
+        <v>24.494897427831781</v>
       </c>
       <c r="H43" s="20">
         <f t="shared" si="2"/>
@@ -3369,7 +3369,7 @@
       <c r="D44" s="1"/>
       <c r="E44" s="12">
         <f t="shared" si="0"/>
-        <v>28.085856327606709</v>
+        <v>28.41525619674087</v>
       </c>
       <c r="F44" s="15">
         <f t="shared" si="1"/>
@@ -3401,7 +3401,7 @@
       <c r="D45" s="21"/>
       <c r="E45" s="22">
         <f t="shared" si="0"/>
-        <v>8.5256042103450227</v>
+        <v>8.6255952121652832</v>
       </c>
       <c r="F45" s="23">
         <f t="shared" si="1"/>
@@ -3435,7 +3435,7 @@
       <c r="D46" s="1"/>
       <c r="E46" s="12">
         <f t="shared" si="0"/>
-        <v>20.303845682508456</v>
+        <v>20.541975652010738</v>
       </c>
       <c r="F46" s="15">
         <f t="shared" si="1"/>
@@ -3447,7 +3447,7 @@
       </c>
       <c r="H46">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K46" s="11">
         <f>E152*0.8</f>
@@ -3467,7 +3467,7 @@
       <c r="D47" s="21"/>
       <c r="E47" s="22">
         <f t="shared" si="0"/>
-        <v>11.170271890515131</v>
+        <v>11.301280397288414</v>
       </c>
       <c r="F47" s="23">
         <f t="shared" si="1"/>
@@ -3501,7 +3501,7 @@
       <c r="D48" s="1"/>
       <c r="E48" s="12">
         <f t="shared" si="0"/>
-        <v>21.087191105016842</v>
+        <v>21.334508399151542</v>
       </c>
       <c r="F48" s="15">
         <f t="shared" si="1"/>
@@ -3533,7 +3533,7 @@
       <c r="D49" s="21"/>
       <c r="E49" s="22">
         <f t="shared" si="0"/>
-        <v>4.0780728861332198</v>
+        <v>4.1259018239210787</v>
       </c>
       <c r="F49" s="23">
         <f t="shared" si="1"/>
@@ -3567,15 +3567,15 @@
       <c r="D50" s="1"/>
       <c r="E50" s="12">
         <f t="shared" si="0"/>
-        <v>43.589080659638384</v>
+        <v>44.100307281945426</v>
       </c>
       <c r="F50" s="15">
         <f t="shared" si="1"/>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G50">
         <f t="shared" si="3"/>
-        <v>43.497126341863094</v>
+        <v>44.497190922573978</v>
       </c>
       <c r="H50">
         <f t="shared" si="2"/>
@@ -3594,24 +3594,24 @@
         <v>87</v>
       </c>
       <c r="C51" s="21">
-        <v>30739000</v>
+        <v>28739000</v>
       </c>
       <c r="D51" s="21"/>
       <c r="E51" s="22">
         <f t="shared" si="0"/>
-        <v>71.8783729626428</v>
+        <v>67.989846627103148</v>
       </c>
       <c r="F51" s="23">
         <f t="shared" si="1"/>
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G51" s="20">
         <f t="shared" si="3"/>
-        <v>71.498251726877911</v>
+        <v>67.498148122744823</v>
       </c>
       <c r="H51" s="20">
         <f t="shared" si="2"/>
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I51" s="20"/>
       <c r="J51" s="20"/>
@@ -3633,7 +3633,7 @@
       <c r="D52" s="1"/>
       <c r="E52" s="12">
         <f t="shared" si="0"/>
-        <v>29.255028600007286</v>
+        <v>29.598140893965951</v>
       </c>
       <c r="F52" s="15">
         <f t="shared" si="1"/>
@@ -3645,7 +3645,7 @@
       </c>
       <c r="H52">
         <f t="shared" si="2"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K52" s="1">
         <f>E176+E170*0.2+E185</f>
@@ -3665,7 +3665,7 @@
       <c r="D53" s="21"/>
       <c r="E53" s="22">
         <f t="shared" si="0"/>
-        <v>2.5675023101916716</v>
+        <v>2.5976147951062756</v>
       </c>
       <c r="F53" s="23">
         <f t="shared" si="1"/>
@@ -3699,15 +3699,15 @@
       <c r="D54" s="1"/>
       <c r="E54" s="12">
         <f t="shared" si="0"/>
-        <v>1.9805778294465808</v>
+        <v>2.0038066770992855</v>
       </c>
       <c r="F54" s="15">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G54">
         <f t="shared" si="3"/>
-        <v>1.4142135623730951</v>
+        <v>2.4494897427831779</v>
       </c>
       <c r="H54">
         <f t="shared" si="2"/>
@@ -3727,7 +3727,7 @@
       <c r="D55" s="21"/>
       <c r="E55" s="22">
         <f t="shared" si="0"/>
-        <v>22.029543956571707</v>
+        <v>22.287913465114954</v>
       </c>
       <c r="F55" s="23">
         <f t="shared" si="1"/>
@@ -3762,7 +3762,7 @@
       <c r="D56" s="1"/>
       <c r="E56" s="12">
         <f t="shared" si="0"/>
-        <v>24.505850829516135</v>
+        <v>24.793263253837676</v>
       </c>
       <c r="F56" s="15">
         <f t="shared" si="1"/>
@@ -3794,15 +3794,15 @@
       <c r="D57" s="21"/>
       <c r="E57" s="22">
         <f t="shared" si="0"/>
-        <v>47.83317600845249</v>
+        <v>48.394178732872469</v>
       </c>
       <c r="F57" s="23">
         <f t="shared" si="1"/>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G57" s="20">
         <f t="shared" si="3"/>
-        <v>47.497368348151667</v>
+        <v>48.497422611928563</v>
       </c>
       <c r="H57" s="20">
         <f t="shared" si="2"/>
@@ -3828,7 +3828,7 @@
       <c r="D58" s="1"/>
       <c r="E58" s="12">
         <f t="shared" si="0"/>
-        <v>21.283612046780139</v>
+        <v>21.533233028285355</v>
       </c>
       <c r="F58" s="15">
         <f t="shared" si="1"/>
@@ -3840,7 +3840,7 @@
       </c>
       <c r="H58">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K58" s="1">
         <f>E188+E173+(E150*0.1)+E171*0.6</f>
@@ -3860,7 +3860,7 @@
       <c r="D59" s="21"/>
       <c r="E59" s="22">
         <f t="shared" si="0"/>
-        <v>12.631737231015855</v>
+        <v>12.779886268819764</v>
       </c>
       <c r="F59" s="23">
         <f t="shared" si="1"/>
@@ -3894,7 +3894,7 @@
       <c r="D60" s="1"/>
       <c r="E60" s="12">
         <f t="shared" si="0"/>
-        <v>20.350612573404476</v>
+        <v>20.589291039899742</v>
       </c>
       <c r="F60" s="15">
         <f t="shared" si="1"/>
@@ -3906,7 +3906,7 @@
       </c>
       <c r="H60">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K60" s="11">
         <f>E149*(1/3)+E171*0.1+E183*0.3</f>
@@ -3926,7 +3926,7 @@
       <c r="D61" s="21"/>
       <c r="E61" s="22">
         <f t="shared" si="0"/>
-        <v>3.5098551617465379</v>
+        <v>3.5510198610696899</v>
       </c>
       <c r="F61" s="23">
         <f t="shared" si="1"/>
@@ -3960,7 +3960,7 @@
       <c r="D62" s="1"/>
       <c r="E62" s="12">
         <f t="shared" si="0"/>
-        <v>27.155195198775846</v>
+        <v>27.473679977749708</v>
       </c>
       <c r="F62" s="15">
         <f t="shared" si="1"/>
@@ -3987,24 +3987,24 @@
         <v>99</v>
       </c>
       <c r="C63" s="21">
-        <v>8881000</v>
+        <v>7381000</v>
       </c>
       <c r="D63" s="21"/>
       <c r="E63" s="22">
         <f t="shared" si="0"/>
-        <v>20.766837902379084</v>
+        <v>17.46174390043663</v>
       </c>
       <c r="F63" s="23">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G63" s="20">
         <f t="shared" si="3"/>
-        <v>20.493901531919196</v>
+        <v>17.4928556845359</v>
       </c>
       <c r="H63" s="20">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I63" s="20"/>
       <c r="J63" s="20"/>
@@ -4026,7 +4026,7 @@
       <c r="D64" s="1"/>
       <c r="E64" s="12">
         <f t="shared" si="0"/>
-        <v>39.057368931813741</v>
+        <v>39.515446195501021</v>
       </c>
       <c r="F64" s="15">
         <f t="shared" si="1"/>
@@ -4038,7 +4038,7 @@
       </c>
       <c r="H64">
         <f t="shared" si="2"/>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K64" s="25">
         <f>E149*(2/3)+E181*(2/3)</f>
@@ -4058,7 +4058,7 @@
       <c r="D65" s="21"/>
       <c r="E65" s="22">
         <f t="shared" si="0"/>
-        <v>16.120547291859182</v>
+        <v>16.3096142053394</v>
       </c>
       <c r="F65" s="23">
         <f t="shared" si="1"/>
@@ -4092,7 +4092,7 @@
       <c r="D66" s="1"/>
       <c r="E66" s="12">
         <f t="shared" si="0"/>
-        <v>7.0758305925683036</v>
+        <v>7.158818187606184</v>
       </c>
       <c r="F66" s="15">
         <f t="shared" si="1"/>
@@ -4124,7 +4124,7 @@
       <c r="D67" s="21"/>
       <c r="E67" s="22">
         <f t="shared" si="0"/>
-        <v>20.020905992587515</v>
+        <v>20.255717555282267</v>
       </c>
       <c r="F67" s="23">
         <f t="shared" si="1"/>
@@ -4158,7 +4158,7 @@
       <c r="D68" s="1"/>
       <c r="E68" s="12">
         <f t="shared" si="0"/>
-        <v>9.220092540150965</v>
+        <v>9.3282287223169806</v>
       </c>
       <c r="F68" s="15">
         <f t="shared" si="1"/>
@@ -4190,7 +4190,7 @@
       <c r="D69" s="21"/>
       <c r="E69" s="22">
         <f t="shared" si="0"/>
-        <v>12.012075926643549</v>
+        <v>12.152957379290472</v>
       </c>
       <c r="F69" s="23">
         <f t="shared" si="1"/>
@@ -4224,7 +4224,7 @@
       <c r="D70" s="1"/>
       <c r="E70" s="12">
         <f t="shared" si="0"/>
-        <v>3.820854986205092</v>
+        <v>3.8656671905315609</v>
       </c>
       <c r="F70" s="15">
         <f t="shared" si="1"/>
@@ -4256,7 +4256,7 @@
       <c r="D71" s="21"/>
       <c r="E71" s="22">
         <f t="shared" si="0"/>
-        <v>18.288192684889857</v>
+        <v>18.5026824339947</v>
       </c>
       <c r="F71" s="23">
         <f t="shared" si="1"/>
@@ -4268,7 +4268,7 @@
       </c>
       <c r="H71" s="20">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I71" s="20"/>
       <c r="J71" s="20"/>
@@ -4290,7 +4290,7 @@
       <c r="D72" s="1"/>
       <c r="E72" s="12">
         <f t="shared" si="0"/>
-        <v>2.0390364430666099</v>
+        <v>2.0629509119605394</v>
       </c>
       <c r="F72" s="15">
         <f t="shared" si="1"/>
@@ -4318,7 +4318,7 @@
       <c r="D73" s="21"/>
       <c r="E73" s="22">
         <f t="shared" si="0"/>
-        <v>11.485948404063288</v>
+        <v>11.620659265539185</v>
       </c>
       <c r="F73" s="23">
         <f t="shared" si="1"/>
@@ -4330,7 +4330,7 @@
       </c>
       <c r="H73" s="20">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I73" s="20"/>
       <c r="J73" s="20"/>
@@ -4352,7 +4352,7 @@
       <c r="D74" s="1"/>
       <c r="E74" s="12">
         <f t="shared" si="0"/>
-        <v>4.40310277786058</v>
+        <v>4.4547437697496512</v>
       </c>
       <c r="F74" s="15">
         <f t="shared" si="1"/>
@@ -4384,7 +4384,7 @@
       <c r="D75" s="21"/>
       <c r="E75" s="22">
         <f t="shared" si="0"/>
-        <v>8.0111684104887679</v>
+        <v>8.1051259453862468</v>
       </c>
       <c r="F75" s="23">
         <f t="shared" si="1"/>
@@ -4418,7 +4418,7 @@
       <c r="D76" s="1"/>
       <c r="E76" s="12">
         <f t="shared" si="0"/>
-        <v>19.417613100028817</v>
+        <v>19.645349051514128</v>
       </c>
       <c r="F76" s="15">
         <f t="shared" si="1"/>
@@ -4430,7 +4430,7 @@
       </c>
       <c r="H76">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K76" s="1">
         <f>E162+E192</f>
@@ -4450,7 +4450,7 @@
       <c r="D77" s="21"/>
       <c r="E77" s="22">
         <f t="shared" si="0"/>
-        <v>7.2512064334283908</v>
+        <v>7.3362508921899456</v>
       </c>
       <c r="F77" s="23">
         <f t="shared" si="1"/>
@@ -4484,7 +4484,7 @@
       <c r="D78" s="1"/>
       <c r="E78" s="12">
         <f t="shared" si="0"/>
-        <v>2.4973519738476369</v>
+        <v>2.5266417132727708</v>
       </c>
       <c r="F78" s="15">
         <f t="shared" si="1"/>
@@ -4513,7 +4513,7 @@
       <c r="D79" s="21"/>
       <c r="E79" s="22">
         <f t="shared" si="0"/>
-        <v>8.2590329322376892</v>
+        <v>8.3558975011979637</v>
       </c>
       <c r="F79" s="23">
         <f t="shared" si="1"/>
@@ -4547,7 +4547,7 @@
       <c r="D80" s="1"/>
       <c r="E80" s="12">
         <f t="shared" si="0"/>
-        <v>2.410833225689994</v>
+        <v>2.4391082456781148</v>
       </c>
       <c r="F80" s="15">
         <f t="shared" si="1"/>
@@ -4575,7 +4575,7 @@
       <c r="D81" s="21"/>
       <c r="E81" s="22">
         <f>C81/$B$37</f>
-        <v>3.3227875981624453</v>
+        <v>3.3617583095136769</v>
       </c>
       <c r="F81" s="23">
         <f>FLOOR(E81,1)</f>
@@ -4606,7 +4606,7 @@
       <c r="D82" s="1"/>
       <c r="E82" s="12">
         <f t="shared" si="0"/>
-        <v>0.90026264974844583</v>
+        <v>0.91082121686331152</v>
       </c>
       <c r="F82" s="15">
         <f t="shared" si="1"/>
@@ -4634,7 +4634,7 @@
       <c r="D83" s="21"/>
       <c r="E83" s="22">
         <f>C83/$B$37</f>
-        <v>0.44896215260182232</v>
+        <v>0.45422772373443071</v>
       </c>
       <c r="F83" s="23">
         <f t="shared" si="1"/>
@@ -4659,12 +4659,12 @@
       </c>
       <c r="C84" s="7">
         <f>SUM(C41:C83)</f>
-        <v>300511000</v>
+        <v>297011000</v>
       </c>
       <c r="D84" s="7"/>
       <c r="E84" s="7">
         <f>SUM(E41:E83)</f>
-        <v>702.69825750274072</v>
+        <v>702.65953361503614</v>
       </c>
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
@@ -4680,11 +4680,11 @@
       </c>
       <c r="B86" s="12">
         <f>$C$84/B32</f>
-        <v>70.007447281648552</v>
+        <v>69.192082567925027</v>
       </c>
       <c r="C86" s="12">
         <f>$C$84/C32</f>
-        <v>65.085192617502983</v>
+        <v>64.327156558386136</v>
       </c>
       <c r="I86" s="1"/>
     </row>
@@ -4714,7 +4714,7 @@
       </c>
       <c r="C91" s="1">
         <f>C46+C49+C53+C54+C72+C45+C51</f>
-        <v>47629000</v>
+        <v>45629000</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -4738,7 +4738,7 @@
       </c>
       <c r="C93" s="1">
         <f>C57+C58+C63+C74+C65+C69</f>
-        <v>52353000</v>
+        <v>50853000</v>
       </c>
       <c r="J93" s="1"/>
     </row>
@@ -4782,7 +4782,7 @@
     <row r="97" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C97" s="1">
         <f>SUM(C91:C96)</f>
-        <v>300511000</v>
+        <v>297011000</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -5273,23 +5273,23 @@
       </c>
       <c r="I111" s="11">
         <f t="shared" si="6"/>
-        <v>24037898</v>
+        <v>22473898</v>
       </c>
       <c r="J111" s="11">
         <f t="shared" si="4"/>
-        <v>3657941</v>
+        <v>3419941</v>
       </c>
       <c r="K111" s="11">
         <f t="shared" si="4"/>
-        <v>2428381</v>
+        <v>2270381</v>
       </c>
       <c r="L111" s="11">
         <f t="shared" si="4"/>
-        <v>92217</v>
+        <v>86217</v>
       </c>
       <c r="M111" s="11">
         <f t="shared" si="4"/>
-        <v>522563.00000000006</v>
+        <v>488563.00000000006</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -5801,23 +5801,23 @@
       </c>
       <c r="I123" s="11">
         <f t="shared" si="6"/>
-        <v>7539969</v>
+        <v>6266469</v>
       </c>
       <c r="J123" s="11">
         <f t="shared" si="7"/>
-        <v>373002</v>
+        <v>310002</v>
       </c>
       <c r="K123" s="11">
         <f t="shared" si="8"/>
-        <v>701599</v>
+        <v>583099</v>
       </c>
       <c r="L123" s="11">
         <f t="shared" si="9"/>
-        <v>79929</v>
+        <v>66429</v>
       </c>
       <c r="M123" s="11">
         <f t="shared" si="10"/>
-        <v>186501</v>
+        <v>155001</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -6706,23 +6706,23 @@
       </c>
       <c r="B144" s="30">
         <f>I144/$N144</f>
-        <v>0.69013339118725059</v>
+        <v>0.68871240128182487</v>
       </c>
       <c r="C144" s="30">
         <f t="shared" ref="C144:G144" si="11">J144/$N144</f>
-        <v>0.21507133723370955</v>
+        <v>0.21659238306778053</v>
       </c>
       <c r="D144" s="30">
         <f t="shared" si="11"/>
-        <v>7.2816797459889657E-2</v>
+        <v>7.2743931286295888E-2</v>
       </c>
       <c r="E144" s="30">
         <f t="shared" si="11"/>
-        <v>7.1379912665179577E-3</v>
+        <v>7.1564524811628654E-3</v>
       </c>
       <c r="F144" s="30">
         <f t="shared" si="11"/>
-        <v>1.4840482852632241E-2</v>
+        <v>1.4794831882935839E-2</v>
       </c>
       <c r="G144" s="30">
         <f t="shared" si="11"/>
@@ -6730,27 +6730,27 @@
       </c>
       <c r="I144" s="28">
         <f>SUM(I101:I143)</f>
-        <v>207384661</v>
+        <v>204547161</v>
       </c>
       <c r="J144" s="28">
         <f t="shared" ref="J144:M144" si="12">SUM(J101:J143)</f>
-        <v>64628805</v>
+        <v>64327805</v>
       </c>
       <c r="K144" s="28">
         <f t="shared" si="12"/>
-        <v>21881403</v>
+        <v>21604903</v>
       </c>
       <c r="L144" s="28">
         <f>SUM(L101:L143)</f>
-        <v>2144962</v>
+        <v>2125462</v>
       </c>
       <c r="M144" s="28">
         <f t="shared" si="12"/>
-        <v>4459556</v>
+        <v>4394056</v>
       </c>
       <c r="N144" s="28">
         <f>SUM(I144:M144)</f>
-        <v>300499387</v>
+        <v>296999387</v>
       </c>
     </row>
     <row r="145" spans="1:5" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>

--- a/obsidian-notes/spreadsheets/area.xlsx
+++ b/obsidian-notes/spreadsheets/area.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sharm\iCloudDrive\iCloud~md~obsidian\Ishan's notes\Spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D02394A-2BA6-4E9F-8E9D-01935DFBD2D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{468E5CA3-447D-45F5-B1C3-DB36D49C6595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" activeTab="3" xr2:uid="{94B94BC7-FBC8-4BAC-A974-CA3E4662C848}"/>
   </bookViews>
@@ -2778,8 +2778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C745E12-030D-4421-A6DC-982053D4A77E}">
   <dimension ref="A1:N202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="93" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="93" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -3190,7 +3190,7 @@
       </c>
       <c r="B34" s="12">
         <f>C84^(1/3)</f>
-        <v>667.20226403240383</v>
+        <v>664.0423776601574</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -3207,7 +3207,7 @@
       </c>
       <c r="B36" s="15">
         <f>C84/B35</f>
-        <v>420695.46742209629</v>
+        <v>414746.45892351272</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -3216,7 +3216,7 @@
       </c>
       <c r="B37" s="15">
         <f>B36+C37</f>
-        <v>422695.46742209629</v>
+        <v>416746.45892351272</v>
       </c>
       <c r="C37">
         <v>2000</v>
@@ -3269,7 +3269,7 @@
       <c r="D41" s="21"/>
       <c r="E41" s="22">
         <f t="shared" ref="E41:E82" si="0">C41/$B$37</f>
-        <v>3.5936037101697926</v>
+        <v>3.6449019961049953</v>
       </c>
       <c r="F41" s="23">
         <f t="shared" ref="F41:F83" si="1">FLOOR(E41,1)</f>
@@ -3298,24 +3298,24 @@
         <v>78</v>
       </c>
       <c r="C42" s="1">
-        <v>15634000</v>
+        <v>14134000</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="12">
         <f t="shared" si="0"/>
-        <v>36.986438712833795</v>
+        <v>33.915105209314028</v>
       </c>
       <c r="F42" s="15">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G42">
         <f t="shared" ref="G42:G83" si="3">SQRT(F42*(F42+1))</f>
-        <v>36.496575181789318</v>
+        <v>33.496268448888451</v>
       </c>
       <c r="H42">
         <f t="shared" si="2"/>
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K42" s="11">
         <f>E151*0.75+E165*0.8</f>
@@ -3330,24 +3330,24 @@
         <v>79</v>
       </c>
       <c r="C43" s="21">
-        <v>10237000</v>
+        <v>9737000</v>
       </c>
       <c r="D43" s="21"/>
       <c r="E43" s="22">
         <f t="shared" si="0"/>
-        <v>24.218381290986287</v>
+        <v>23.364325698534785</v>
       </c>
       <c r="F43" s="23">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G43" s="20">
         <f t="shared" si="3"/>
-        <v>24.494897427831781</v>
+        <v>23.49468024894146</v>
       </c>
       <c r="H43" s="20">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I43" s="20"/>
       <c r="J43" s="20"/>
@@ -3369,7 +3369,7 @@
       <c r="D44" s="1"/>
       <c r="E44" s="12">
         <f t="shared" si="0"/>
-        <v>28.41525619674087</v>
+        <v>28.820880760511585</v>
       </c>
       <c r="F44" s="15">
         <f t="shared" si="1"/>
@@ -3381,7 +3381,7 @@
       </c>
       <c r="H44">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K44" s="1">
         <f>E167+E177*(1/3)+E194*0.7+E186*0.3+E198*0.6</f>
@@ -3396,12 +3396,12 @@
         <v>81</v>
       </c>
       <c r="C45" s="21">
-        <v>3646000</v>
+        <v>3346000</v>
       </c>
       <c r="D45" s="21"/>
       <c r="E45" s="22">
         <f t="shared" si="0"/>
-        <v>8.6255952121652832</v>
+        <v>8.0288624614663036</v>
       </c>
       <c r="F45" s="23">
         <f t="shared" si="1"/>
@@ -3413,7 +3413,7 @@
       </c>
       <c r="H45" s="20">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I45" s="20"/>
       <c r="J45" s="20"/>
@@ -3435,7 +3435,7 @@
       <c r="D46" s="1"/>
       <c r="E46" s="12">
         <f t="shared" si="0"/>
-        <v>20.541975652010738</v>
+        <v>20.835210027768056</v>
       </c>
       <c r="F46" s="15">
         <f t="shared" si="1"/>
@@ -3467,7 +3467,7 @@
       <c r="D47" s="21"/>
       <c r="E47" s="22">
         <f t="shared" si="0"/>
-        <v>11.301280397288414</v>
+        <v>11.462604894926638</v>
       </c>
       <c r="F47" s="23">
         <f t="shared" si="1"/>
@@ -3501,7 +3501,7 @@
       <c r="D48" s="1"/>
       <c r="E48" s="12">
         <f t="shared" si="0"/>
-        <v>21.334508399151542</v>
+        <v>21.639056090108525</v>
       </c>
       <c r="F48" s="15">
         <f t="shared" si="1"/>
@@ -3513,7 +3513,7 @@
       </c>
       <c r="H48">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K48" s="1">
         <f>E166+E194*0.3+E198*0.4</f>
@@ -3533,7 +3533,7 @@
       <c r="D49" s="21"/>
       <c r="E49" s="22">
         <f t="shared" si="0"/>
-        <v>4.1259018239210787</v>
+        <v>4.1847986051396395</v>
       </c>
       <c r="F49" s="23">
         <f t="shared" si="1"/>
@@ -3567,7 +3567,7 @@
       <c r="D50" s="1"/>
       <c r="E50" s="12">
         <f t="shared" si="0"/>
-        <v>44.100307281945426</v>
+        <v>44.729834173399091</v>
       </c>
       <c r="F50" s="15">
         <f t="shared" si="1"/>
@@ -3579,7 +3579,7 @@
       </c>
       <c r="H50">
         <f t="shared" si="2"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K50" s="11">
         <f>E153+E155*(3/9)+E170*0.8+E172</f>
@@ -3599,19 +3599,19 @@
       <c r="D51" s="21"/>
       <c r="E51" s="22">
         <f t="shared" si="0"/>
-        <v>67.989846627103148</v>
+        <v>68.96039398687391</v>
       </c>
       <c r="F51" s="23">
         <f t="shared" si="1"/>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G51" s="20">
         <f t="shared" si="3"/>
-        <v>67.498148122744823</v>
+        <v>68.498175158174831</v>
       </c>
       <c r="H51" s="20">
         <f t="shared" si="2"/>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I51" s="20"/>
       <c r="J51" s="20"/>
@@ -3633,15 +3633,15 @@
       <c r="D52" s="1"/>
       <c r="E52" s="12">
         <f t="shared" si="0"/>
-        <v>29.598140893965951</v>
+        <v>30.020651002810794</v>
       </c>
       <c r="F52" s="15">
         <f t="shared" si="1"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G52">
         <f t="shared" si="3"/>
-        <v>29.49576240750525</v>
+        <v>30.495901363953813</v>
       </c>
       <c r="H52">
         <f t="shared" si="2"/>
@@ -3665,7 +3665,7 @@
       <c r="D53" s="21"/>
       <c r="E53" s="22">
         <f t="shared" si="0"/>
-        <v>2.5976147951062756</v>
+        <v>2.634695452089062</v>
       </c>
       <c r="F53" s="23">
         <f t="shared" si="1"/>
@@ -3699,7 +3699,7 @@
       <c r="D54" s="1"/>
       <c r="E54" s="12">
         <f t="shared" si="0"/>
-        <v>2.0038066770992855</v>
+        <v>2.0324107904548594</v>
       </c>
       <c r="F54" s="15">
         <f t="shared" si="1"/>
@@ -3727,7 +3727,7 @@
       <c r="D55" s="21"/>
       <c r="E55" s="22">
         <f t="shared" si="0"/>
-        <v>22.287913465114954</v>
+        <v>22.606070905401687</v>
       </c>
       <c r="F55" s="23">
         <f t="shared" si="1"/>
@@ -3739,7 +3739,7 @@
       </c>
       <c r="H55" s="20">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I55" s="20"/>
       <c r="J55" s="20"/>
@@ -3762,15 +3762,15 @@
       <c r="D56" s="1"/>
       <c r="E56" s="12">
         <f t="shared" si="0"/>
-        <v>24.793263253837676</v>
+        <v>25.147184278591411</v>
       </c>
       <c r="F56" s="15">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G56">
         <f t="shared" si="3"/>
-        <v>24.494897427831781</v>
+        <v>25.495097567963924</v>
       </c>
       <c r="H56">
         <f t="shared" si="2"/>
@@ -3794,19 +3794,19 @@
       <c r="D57" s="21"/>
       <c r="E57" s="22">
         <f t="shared" si="0"/>
-        <v>48.394178732872469</v>
+        <v>49.08500015294522</v>
       </c>
       <c r="F57" s="23">
         <f t="shared" si="1"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G57" s="20">
         <f t="shared" si="3"/>
-        <v>48.497422611928563</v>
+        <v>49.497474683058329</v>
       </c>
       <c r="H57" s="20">
         <f t="shared" si="2"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I57" s="20"/>
       <c r="J57" s="20"/>
@@ -3828,7 +3828,7 @@
       <c r="D58" s="1"/>
       <c r="E58" s="12">
         <f t="shared" si="0"/>
-        <v>21.533233028285355</v>
+        <v>21.840617490814793</v>
       </c>
       <c r="F58" s="15">
         <f t="shared" si="1"/>
@@ -3860,7 +3860,7 @@
       <c r="D59" s="21"/>
       <c r="E59" s="22">
         <f t="shared" si="0"/>
-        <v>12.779886268819764</v>
+        <v>12.962317697800648</v>
       </c>
       <c r="F59" s="23">
         <f t="shared" si="1"/>
@@ -3889,24 +3889,24 @@
         <v>96</v>
       </c>
       <c r="C60" s="1">
-        <v>8703000</v>
+        <v>6803000</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="12">
         <f t="shared" si="0"/>
-        <v>20.589291039899742</v>
+        <v>16.32407391672303</v>
       </c>
       <c r="F60" s="15">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G60">
         <f t="shared" si="3"/>
-        <v>20.493901531919196</v>
+        <v>16.492422502470642</v>
       </c>
       <c r="H60">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="K60" s="11">
         <f>E149*(1/3)+E171*0.1+E183*0.3</f>
@@ -3926,7 +3926,7 @@
       <c r="D61" s="21"/>
       <c r="E61" s="22">
         <f t="shared" si="0"/>
-        <v>3.5510198610696899</v>
+        <v>3.6017102673822241</v>
       </c>
       <c r="F61" s="23">
         <f t="shared" si="1"/>
@@ -3960,7 +3960,7 @@
       <c r="D62" s="1"/>
       <c r="E62" s="12">
         <f t="shared" si="0"/>
-        <v>27.473679977749708</v>
+        <v>27.865863647641415</v>
       </c>
       <c r="F62" s="15">
         <f t="shared" si="1"/>
@@ -3972,7 +3972,7 @@
       </c>
       <c r="H62">
         <f t="shared" si="2"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K62" s="11">
         <f>E156*0.6+E175+E187*0.9</f>
@@ -3992,7 +3992,7 @@
       <c r="D63" s="21"/>
       <c r="E63" s="22">
         <f t="shared" si="0"/>
-        <v>17.46174390043663</v>
+        <v>17.711008316820916</v>
       </c>
       <c r="F63" s="23">
         <f t="shared" si="1"/>
@@ -4004,7 +4004,7 @@
       </c>
       <c r="H63" s="20">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I63" s="20"/>
       <c r="J63" s="20"/>
@@ -4026,15 +4026,15 @@
       <c r="D64" s="1"/>
       <c r="E64" s="12">
         <f t="shared" si="0"/>
-        <v>39.515446195501021</v>
+        <v>40.079524714247363</v>
       </c>
       <c r="F64" s="15">
         <f t="shared" si="1"/>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G64">
         <f t="shared" si="3"/>
-        <v>39.496835316262995</v>
+        <v>40.496913462633174</v>
       </c>
       <c r="H64">
         <f t="shared" si="2"/>
@@ -4058,7 +4058,7 @@
       <c r="D65" s="21"/>
       <c r="E65" s="22">
         <f t="shared" si="0"/>
-        <v>16.3096142053394</v>
+        <v>16.542432100821486</v>
       </c>
       <c r="F65" s="23">
         <f t="shared" si="1"/>
@@ -4070,7 +4070,7 @@
       </c>
       <c r="H65" s="20">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I65" s="20"/>
       <c r="J65" s="20"/>
@@ -4092,7 +4092,7 @@
       <c r="D66" s="1"/>
       <c r="E66" s="12">
         <f t="shared" si="0"/>
-        <v>7.158818187606184</v>
+        <v>7.2610095063948101</v>
       </c>
       <c r="F66" s="15">
         <f t="shared" si="1"/>
@@ -4124,7 +4124,7 @@
       <c r="D67" s="21"/>
       <c r="E67" s="22">
         <f t="shared" si="0"/>
-        <v>20.255717555282267</v>
+        <v>20.544865629131646</v>
       </c>
       <c r="F67" s="23">
         <f t="shared" si="1"/>
@@ -4136,7 +4136,7 @@
       </c>
       <c r="H67" s="20">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I67" s="20"/>
       <c r="J67" s="20"/>
@@ -4158,7 +4158,7 @@
       <c r="D68" s="1"/>
       <c r="E68" s="12">
         <f t="shared" si="0"/>
-        <v>9.3282287223169806</v>
+        <v>9.4613881307715584</v>
       </c>
       <c r="F68" s="15">
         <f t="shared" si="1"/>
@@ -4190,7 +4190,7 @@
       <c r="D69" s="21"/>
       <c r="E69" s="22">
         <f t="shared" si="0"/>
-        <v>12.152957379290472</v>
+        <v>12.326439469382068</v>
       </c>
       <c r="F69" s="23">
         <f t="shared" si="1"/>
@@ -4224,7 +4224,7 @@
       <c r="D70" s="1"/>
       <c r="E70" s="12">
         <f t="shared" si="0"/>
-        <v>3.8656671905315609</v>
+        <v>3.9208491518338136</v>
       </c>
       <c r="F70" s="15">
         <f t="shared" si="1"/>
@@ -4256,7 +4256,7 @@
       <c r="D71" s="21"/>
       <c r="E71" s="22">
         <f t="shared" si="0"/>
-        <v>18.5026824339947</v>
+        <v>18.76680613004422</v>
       </c>
       <c r="F71" s="23">
         <f t="shared" si="1"/>
@@ -4290,7 +4290,7 @@
       <c r="D72" s="1"/>
       <c r="E72" s="12">
         <f t="shared" si="0"/>
-        <v>2.0629509119605394</v>
+        <v>2.0923993025698198</v>
       </c>
       <c r="F72" s="15">
         <f t="shared" si="1"/>
@@ -4318,7 +4318,7 @@
       <c r="D73" s="21"/>
       <c r="E73" s="22">
         <f t="shared" si="0"/>
-        <v>11.620659265539185</v>
+        <v>11.786542860347424</v>
       </c>
       <c r="F73" s="23">
         <f t="shared" si="1"/>
@@ -4352,7 +4352,7 @@
       <c r="D74" s="1"/>
       <c r="E74" s="12">
         <f t="shared" si="0"/>
-        <v>4.4547437697496512</v>
+        <v>4.5183347324988192</v>
       </c>
       <c r="F74" s="15">
         <f t="shared" si="1"/>
@@ -4364,7 +4364,7 @@
       </c>
       <c r="H74">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K74" s="1">
         <f>E201</f>
@@ -4384,7 +4384,7 @@
       <c r="D75" s="21"/>
       <c r="E75" s="22">
         <f t="shared" si="0"/>
-        <v>8.1051259453862468</v>
+        <v>8.220825700234176</v>
       </c>
       <c r="F75" s="23">
         <f t="shared" si="1"/>
@@ -4418,7 +4418,7 @@
       <c r="D76" s="1"/>
       <c r="E76" s="12">
         <f t="shared" si="0"/>
-        <v>19.645349051514128</v>
+        <v>19.925784184105254</v>
       </c>
       <c r="F76" s="15">
         <f t="shared" si="1"/>
@@ -4450,7 +4450,7 @@
       <c r="D77" s="21"/>
       <c r="E77" s="22">
         <f t="shared" si="0"/>
-        <v>7.3362508921899456</v>
+        <v>7.4409750427396908</v>
       </c>
       <c r="F77" s="23">
         <f t="shared" si="1"/>
@@ -4484,7 +4484,7 @@
       <c r="D78" s="1"/>
       <c r="E78" s="12">
         <f t="shared" si="0"/>
-        <v>2.5266417132727708</v>
+        <v>2.5627092375511094</v>
       </c>
       <c r="F78" s="15">
         <f t="shared" si="1"/>
@@ -4513,7 +4513,7 @@
       <c r="D79" s="21"/>
       <c r="E79" s="22">
         <f t="shared" si="0"/>
-        <v>8.3558975011979637</v>
+        <v>8.4751769916016091</v>
       </c>
       <c r="F79" s="23">
         <f t="shared" si="1"/>
@@ -4547,7 +4547,7 @@
       <c r="D80" s="1"/>
       <c r="E80" s="12">
         <f t="shared" si="0"/>
-        <v>2.4391082456781148</v>
+        <v>2.473926239620968</v>
       </c>
       <c r="F80" s="15">
         <f t="shared" si="1"/>
@@ -4559,7 +4559,7 @@
       </c>
       <c r="H80">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -4575,7 +4575,7 @@
       <c r="D81" s="21"/>
       <c r="E81" s="22">
         <f>C81/$B$37</f>
-        <v>3.3617583095136769</v>
+        <v>3.4097470286143508</v>
       </c>
       <c r="F81" s="23">
         <f>FLOOR(E81,1)</f>
@@ -4606,7 +4606,7 @@
       <c r="D82" s="1"/>
       <c r="E82" s="12">
         <f t="shared" si="0"/>
-        <v>0.91082121686331152</v>
+        <v>0.92382308657039058</v>
       </c>
       <c r="F82" s="15">
         <f t="shared" si="1"/>
@@ -4634,7 +4634,7 @@
       <c r="D83" s="21"/>
       <c r="E83" s="22">
         <f>C83/$B$37</f>
-        <v>0.45422772373443071</v>
+        <v>0.46071177304289607</v>
       </c>
       <c r="F83" s="23">
         <f t="shared" si="1"/>
@@ -4659,18 +4659,18 @@
       </c>
       <c r="C84" s="7">
         <f>SUM(C41:C83)</f>
-        <v>297011000</v>
+        <v>292811000</v>
       </c>
       <c r="D84" s="7"/>
       <c r="E84" s="7">
         <f>SUM(E41:E83)</f>
-        <v>702.65953361503614</v>
+        <v>702.61184883574697</v>
       </c>
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c r="H84" s="7">
         <f>SUM(H41:H83)</f>
-        <v>703</v>
+        <v>705</v>
       </c>
     </row>
     <row r="85" spans="1:13" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -4680,11 +4680,11 @@
       </c>
       <c r="B86" s="12">
         <f>$C$84/B32</f>
-        <v>69.192082567925027</v>
+        <v>68.213644911456797</v>
       </c>
       <c r="C86" s="12">
         <f>$C$84/C32</f>
-        <v>64.327156558386136</v>
+        <v>63.417513287445935</v>
       </c>
       <c r="I86" s="1"/>
     </row>
@@ -4714,7 +4714,7 @@
       </c>
       <c r="C91" s="1">
         <f>C46+C49+C53+C54+C72+C45+C51</f>
-        <v>45629000</v>
+        <v>45329000</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -4726,7 +4726,7 @@
       </c>
       <c r="C92" s="1">
         <f>C42+C43+C41+C47+C79+C50</f>
-        <v>54340000</v>
+        <v>52340000</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -4763,7 +4763,7 @@
       </c>
       <c r="C95" s="1">
         <f>C56+C55+C60+C64+C68</f>
-        <v>49250000</v>
+        <v>47350000</v>
       </c>
       <c r="J95" s="15"/>
     </row>
@@ -4782,7 +4782,7 @@
     <row r="97" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C97" s="1">
         <f>SUM(C91:C96)</f>
-        <v>297011000</v>
+        <v>292811000</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -4877,23 +4877,23 @@
       </c>
       <c r="I102" s="11">
         <f t="shared" ref="I102:I143" si="6">B102*$C42</f>
-        <v>13351436</v>
+        <v>12070436</v>
       </c>
       <c r="J102" s="11">
         <f t="shared" si="4"/>
-        <v>1313256</v>
+        <v>1187256</v>
       </c>
       <c r="K102" s="11">
         <f t="shared" si="4"/>
-        <v>875504</v>
+        <v>791504</v>
       </c>
       <c r="L102" s="11">
         <f t="shared" si="4"/>
-        <v>15634</v>
+        <v>14134</v>
       </c>
       <c r="M102" s="11">
         <f t="shared" si="4"/>
-        <v>78170</v>
+        <v>70670</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -4921,23 +4921,23 @@
       </c>
       <c r="I103" s="11">
         <f t="shared" si="6"/>
-        <v>8926664</v>
+        <v>8490664</v>
       </c>
       <c r="J103" s="11">
         <f t="shared" si="4"/>
-        <v>644931</v>
+        <v>613431</v>
       </c>
       <c r="K103" s="11">
         <f t="shared" si="4"/>
-        <v>624457</v>
+        <v>593957</v>
       </c>
       <c r="L103" s="11">
         <f t="shared" si="4"/>
-        <v>10237</v>
+        <v>9737</v>
       </c>
       <c r="M103" s="11">
         <f t="shared" si="4"/>
-        <v>30711</v>
+        <v>29211</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -5009,23 +5009,23 @@
       </c>
       <c r="I105" s="11">
         <f t="shared" si="6"/>
-        <v>3182958</v>
+        <v>2921058</v>
       </c>
       <c r="J105" s="11">
         <f t="shared" si="4"/>
-        <v>142194</v>
+        <v>130494</v>
       </c>
       <c r="K105" s="11">
         <f t="shared" si="4"/>
-        <v>302618</v>
+        <v>277718</v>
       </c>
       <c r="L105" s="11">
         <f t="shared" si="4"/>
-        <v>3646</v>
+        <v>3346</v>
       </c>
       <c r="M105" s="11">
         <f t="shared" si="4"/>
-        <v>14584</v>
+        <v>13384</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -5669,23 +5669,23 @@
       </c>
       <c r="I120" s="11">
         <f t="shared" si="6"/>
-        <v>7432362</v>
+        <v>5809762</v>
       </c>
       <c r="J120" s="11">
         <f t="shared" si="7"/>
-        <v>748457.99999999988</v>
+        <v>585058</v>
       </c>
       <c r="K120" s="11">
         <f t="shared" si="8"/>
-        <v>391635</v>
+        <v>306135</v>
       </c>
       <c r="L120" s="11">
         <f t="shared" si="9"/>
-        <v>8703</v>
+        <v>6803</v>
       </c>
       <c r="M120" s="11">
         <f t="shared" si="10"/>
-        <v>121842</v>
+        <v>95242</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -6706,23 +6706,23 @@
       </c>
       <c r="B144" s="30">
         <f>I144/$N144</f>
-        <v>0.68871240128182487</v>
+        <v>0.68629126262480866</v>
       </c>
       <c r="C144" s="30">
         <f t="shared" ref="C144:G144" si="11">J144/$N144</f>
-        <v>0.21659238306778053</v>
+        <v>0.21856331618617766</v>
       </c>
       <c r="D144" s="30">
         <f t="shared" si="11"/>
-        <v>7.2743931286295888E-2</v>
+        <v>7.3019288800628537E-2</v>
       </c>
       <c r="E144" s="30">
         <f t="shared" si="11"/>
-        <v>7.1564524811628654E-3</v>
+        <v>7.2447624352437595E-3</v>
       </c>
       <c r="F144" s="30">
         <f t="shared" si="11"/>
-        <v>1.4794831882935839E-2</v>
+        <v>1.488136995314133E-2</v>
       </c>
       <c r="G144" s="30">
         <f t="shared" si="11"/>
@@ -6730,27 +6730,27 @@
       </c>
       <c r="I144" s="28">
         <f>SUM(I101:I143)</f>
-        <v>204547161</v>
+        <v>200945661</v>
       </c>
       <c r="J144" s="28">
         <f t="shared" ref="J144:M144" si="12">SUM(J101:J143)</f>
-        <v>64327805</v>
+        <v>63995205</v>
       </c>
       <c r="K144" s="28">
         <f t="shared" si="12"/>
-        <v>21604903</v>
+        <v>21380003</v>
       </c>
       <c r="L144" s="28">
         <f>SUM(L101:L143)</f>
-        <v>2125462</v>
+        <v>2121262</v>
       </c>
       <c r="M144" s="28">
         <f t="shared" si="12"/>
-        <v>4394056</v>
+        <v>4357256</v>
       </c>
       <c r="N144" s="28">
         <f>SUM(I144:M144)</f>
-        <v>296999387</v>
+        <v>292799387</v>
       </c>
     </row>
     <row r="145" spans="1:5" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -7717,7 +7717,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView zoomScale="93" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>

--- a/obsidian-notes/spreadsheets/area.xlsx
+++ b/obsidian-notes/spreadsheets/area.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sharm\iCloudDrive\iCloud~md~obsidian\Ishan's notes\Spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{468E5CA3-447D-45F5-B1C3-DB36D49C6595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED1A5BD-8CD7-456C-B714-F21B2505DF3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" activeTab="3" xr2:uid="{94B94BC7-FBC8-4BAC-A974-CA3E4662C848}"/>
   </bookViews>
@@ -2778,8 +2778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C745E12-030D-4421-A6DC-982053D4A77E}">
   <dimension ref="A1:N202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="93" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="93" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -3190,7 +3190,7 @@
       </c>
       <c r="B34" s="12">
         <f>C84^(1/3)</f>
-        <v>664.0423776601574</v>
+        <v>663.58850368785534</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -3207,7 +3207,7 @@
       </c>
       <c r="B36" s="15">
         <f>C84/B35</f>
-        <v>414746.45892351272</v>
+        <v>413896.60056657222</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -3216,7 +3216,7 @@
       </c>
       <c r="B37" s="15">
         <f>B36+C37</f>
-        <v>416746.45892351272</v>
+        <v>415896.60056657222</v>
       </c>
       <c r="C37">
         <v>2000</v>
@@ -3269,7 +3269,7 @@
       <c r="D41" s="21"/>
       <c r="E41" s="22">
         <f t="shared" ref="E41:E82" si="0">C41/$B$37</f>
-        <v>3.6449019961049953</v>
+        <v>3.6523501224359127</v>
       </c>
       <c r="F41" s="23">
         <f t="shared" ref="F41:F83" si="1">FLOOR(E41,1)</f>
@@ -3303,7 +3303,7 @@
       <c r="D42" s="1"/>
       <c r="E42" s="12">
         <f t="shared" si="0"/>
-        <v>33.915105209314028</v>
+        <v>33.984408578347065</v>
       </c>
       <c r="F42" s="15">
         <f t="shared" si="1"/>
@@ -3335,7 +3335,7 @@
       <c r="D43" s="21"/>
       <c r="E43" s="22">
         <f t="shared" si="0"/>
-        <v>23.364325698534785</v>
+        <v>23.412069218010853</v>
       </c>
       <c r="F43" s="23">
         <f t="shared" si="1"/>
@@ -3369,7 +3369,7 @@
       <c r="D44" s="1"/>
       <c r="E44" s="12">
         <f t="shared" si="0"/>
-        <v>28.820880760511585</v>
+        <v>28.879774404593647</v>
       </c>
       <c r="F44" s="15">
         <f t="shared" si="1"/>
@@ -3401,7 +3401,7 @@
       <c r="D45" s="21"/>
       <c r="E45" s="22">
         <f t="shared" si="0"/>
-        <v>8.0288624614663036</v>
+        <v>8.0452689332920109</v>
       </c>
       <c r="F45" s="23">
         <f t="shared" si="1"/>
@@ -3435,7 +3435,7 @@
       <c r="D46" s="1"/>
       <c r="E46" s="12">
         <f t="shared" si="0"/>
-        <v>20.835210027768056</v>
+        <v>20.877785459585933</v>
       </c>
       <c r="F46" s="15">
         <f t="shared" si="1"/>
@@ -3467,7 +3467,7 @@
       <c r="D47" s="21"/>
       <c r="E47" s="22">
         <f t="shared" si="0"/>
-        <v>11.462604894926638</v>
+        <v>11.486028001893585</v>
       </c>
       <c r="F47" s="23">
         <f t="shared" si="1"/>
@@ -3501,7 +3501,7 @@
       <c r="D48" s="1"/>
       <c r="E48" s="12">
         <f t="shared" si="0"/>
-        <v>21.639056090108525</v>
+        <v>21.683274130432562</v>
       </c>
       <c r="F48" s="15">
         <f t="shared" si="1"/>
@@ -3533,7 +3533,7 @@
       <c r="D49" s="21"/>
       <c r="E49" s="22">
         <f t="shared" si="0"/>
-        <v>4.1847986051396395</v>
+        <v>4.1933499759896193</v>
       </c>
       <c r="F49" s="23">
         <f t="shared" si="1"/>
@@ -3567,7 +3567,7 @@
       <c r="D50" s="1"/>
       <c r="E50" s="12">
         <f t="shared" si="0"/>
-        <v>44.729834173399091</v>
+        <v>44.821236755976201</v>
       </c>
       <c r="F50" s="15">
         <f t="shared" si="1"/>
@@ -3594,24 +3594,24 @@
         <v>87</v>
       </c>
       <c r="C51" s="21">
-        <v>28739000</v>
+        <v>27739000</v>
       </c>
       <c r="D51" s="21"/>
       <c r="E51" s="22">
         <f t="shared" si="0"/>
-        <v>68.96039398687391</v>
+        <v>66.696866389894524</v>
       </c>
       <c r="F51" s="23">
         <f t="shared" si="1"/>
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G51" s="20">
         <f t="shared" si="3"/>
-        <v>68.498175158174831</v>
+        <v>66.498120274185197</v>
       </c>
       <c r="H51" s="20">
         <f t="shared" si="2"/>
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I51" s="20"/>
       <c r="J51" s="20"/>
@@ -3633,7 +3633,7 @@
       <c r="D52" s="1"/>
       <c r="E52" s="12">
         <f t="shared" si="0"/>
-        <v>30.020651002810794</v>
+        <v>30.081996301379661</v>
       </c>
       <c r="F52" s="15">
         <f t="shared" si="1"/>
@@ -3665,7 +3665,7 @@
       <c r="D53" s="21"/>
       <c r="E53" s="22">
         <f t="shared" si="0"/>
-        <v>2.634695452089062</v>
+        <v>2.6400792853420882</v>
       </c>
       <c r="F53" s="23">
         <f t="shared" si="1"/>
@@ -3694,12 +3694,12 @@
         <v>90</v>
       </c>
       <c r="C54" s="1">
-        <v>847000</v>
+        <v>1247000</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="12">
         <f t="shared" si="0"/>
-        <v>2.0324107904548594</v>
+        <v>2.9983414105843207</v>
       </c>
       <c r="F54" s="15">
         <f t="shared" si="1"/>
@@ -3711,7 +3711,7 @@
       </c>
       <c r="H54">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -3727,7 +3727,7 @@
       <c r="D55" s="21"/>
       <c r="E55" s="22">
         <f t="shared" si="0"/>
-        <v>22.606070905401687</v>
+        <v>22.652264979242091</v>
       </c>
       <c r="F55" s="23">
         <f t="shared" si="1"/>
@@ -3762,7 +3762,7 @@
       <c r="D56" s="1"/>
       <c r="E56" s="12">
         <f t="shared" si="0"/>
-        <v>25.147184278591411</v>
+        <v>25.198570956634871</v>
       </c>
       <c r="F56" s="15">
         <f t="shared" si="1"/>
@@ -3794,7 +3794,7 @@
       <c r="D57" s="21"/>
       <c r="E57" s="22">
         <f t="shared" si="0"/>
-        <v>49.08500015294522</v>
+        <v>49.185302241309437</v>
       </c>
       <c r="F57" s="23">
         <f t="shared" si="1"/>
@@ -3828,7 +3828,7 @@
       <c r="D58" s="1"/>
       <c r="E58" s="12">
         <f t="shared" si="0"/>
-        <v>21.840617490814793</v>
+        <v>21.885247409092614</v>
       </c>
       <c r="F58" s="15">
         <f t="shared" si="1"/>
@@ -3860,7 +3860,7 @@
       <c r="D59" s="21"/>
       <c r="E59" s="22">
         <f t="shared" si="0"/>
-        <v>12.962317697800648</v>
+        <v>12.988805372876104</v>
       </c>
       <c r="F59" s="23">
         <f t="shared" si="1"/>
@@ -3894,7 +3894,7 @@
       <c r="D60" s="1"/>
       <c r="E60" s="12">
         <f t="shared" si="0"/>
-        <v>16.32407391672303</v>
+        <v>16.357431127670516</v>
       </c>
       <c r="F60" s="15">
         <f t="shared" si="1"/>
@@ -3926,7 +3926,7 @@
       <c r="D61" s="21"/>
       <c r="E61" s="22">
         <f t="shared" si="0"/>
-        <v>3.6017102673822241</v>
+        <v>3.6090701341516165</v>
       </c>
       <c r="F61" s="23">
         <f t="shared" si="1"/>
@@ -3960,7 +3960,7 @@
       <c r="D62" s="1"/>
       <c r="E62" s="12">
         <f t="shared" si="0"/>
-        <v>27.865863647641415</v>
+        <v>27.922805774751978</v>
       </c>
       <c r="F62" s="15">
         <f t="shared" si="1"/>
@@ -3992,7 +3992,7 @@
       <c r="D63" s="21"/>
       <c r="E63" s="22">
         <f t="shared" si="0"/>
-        <v>17.711008316820916</v>
+        <v>17.747199640355149</v>
       </c>
       <c r="F63" s="23">
         <f t="shared" si="1"/>
@@ -4026,7 +4026,7 @@
       <c r="D64" s="1"/>
       <c r="E64" s="12">
         <f t="shared" si="0"/>
-        <v>40.079524714247363</v>
+        <v>40.161424684033612</v>
       </c>
       <c r="F64" s="15">
         <f t="shared" si="1"/>
@@ -4058,7 +4058,7 @@
       <c r="D65" s="21"/>
       <c r="E65" s="22">
         <f t="shared" si="0"/>
-        <v>16.542432100821486</v>
+        <v>16.576235512885571</v>
       </c>
       <c r="F65" s="23">
         <f t="shared" si="1"/>
@@ -4092,7 +4092,7 @@
       <c r="D66" s="1"/>
       <c r="E66" s="12">
         <f t="shared" si="0"/>
-        <v>7.2610095063948101</v>
+        <v>7.275846919348961</v>
       </c>
       <c r="F66" s="15">
         <f t="shared" si="1"/>
@@ -4124,7 +4124,7 @@
       <c r="D67" s="21"/>
       <c r="E67" s="22">
         <f t="shared" si="0"/>
-        <v>20.544865629131646</v>
+        <v>20.586847760563717</v>
       </c>
       <c r="F67" s="23">
         <f t="shared" si="1"/>
@@ -4158,7 +4158,7 @@
       <c r="D68" s="1"/>
       <c r="E68" s="12">
         <f t="shared" si="0"/>
-        <v>9.4613881307715584</v>
+        <v>9.4807218780545117</v>
       </c>
       <c r="F68" s="15">
         <f t="shared" si="1"/>
@@ -4190,7 +4190,7 @@
       <c r="D69" s="21"/>
       <c r="E69" s="22">
         <f t="shared" si="0"/>
-        <v>12.326439469382068</v>
+        <v>12.351627767579515</v>
       </c>
       <c r="F69" s="23">
         <f t="shared" si="1"/>
@@ -4224,7 +4224,7 @@
       <c r="D70" s="1"/>
       <c r="E70" s="12">
         <f t="shared" si="0"/>
-        <v>3.9208491518338136</v>
+        <v>3.9288611586966962</v>
       </c>
       <c r="F70" s="15">
         <f t="shared" si="1"/>
@@ -4256,7 +4256,7 @@
       <c r="D71" s="21"/>
       <c r="E71" s="22">
         <f t="shared" si="0"/>
-        <v>18.76680613004422</v>
+        <v>18.805154909526845</v>
       </c>
       <c r="F71" s="23">
         <f t="shared" si="1"/>
@@ -4290,7 +4290,7 @@
       <c r="D72" s="1"/>
       <c r="E72" s="12">
         <f t="shared" si="0"/>
-        <v>2.0923993025698198</v>
+        <v>2.0966749879948097</v>
       </c>
       <c r="F72" s="15">
         <f t="shared" si="1"/>
@@ -4318,7 +4318,7 @@
       <c r="D73" s="21"/>
       <c r="E73" s="22">
         <f t="shared" si="0"/>
-        <v>11.786542860347424</v>
+        <v>11.81062791402581</v>
       </c>
       <c r="F73" s="23">
         <f t="shared" si="1"/>
@@ -4352,7 +4352,7 @@
       <c r="D74" s="1"/>
       <c r="E74" s="12">
         <f t="shared" si="0"/>
-        <v>4.5183347324988192</v>
+        <v>4.5275676632961313</v>
       </c>
       <c r="F74" s="15">
         <f t="shared" si="1"/>
@@ -4384,7 +4384,7 @@
       <c r="D75" s="21"/>
       <c r="E75" s="22">
         <f t="shared" si="0"/>
-        <v>8.220825700234176</v>
+        <v>8.2376244367777733</v>
       </c>
       <c r="F75" s="23">
         <f t="shared" si="1"/>
@@ -4418,7 +4418,7 @@
       <c r="D76" s="1"/>
       <c r="E76" s="12">
         <f t="shared" si="0"/>
-        <v>19.925784184105254</v>
+        <v>19.966501261822135</v>
       </c>
       <c r="F76" s="15">
         <f t="shared" si="1"/>
@@ -4450,7 +4450,7 @@
       <c r="D77" s="21"/>
       <c r="E77" s="22">
         <f t="shared" si="0"/>
-        <v>7.4409750427396908</v>
+        <v>7.4561802038668636</v>
       </c>
       <c r="F77" s="23">
         <f t="shared" si="1"/>
@@ -4484,7 +4484,7 @@
       <c r="D78" s="1"/>
       <c r="E78" s="12">
         <f t="shared" si="0"/>
-        <v>2.5627092375511094</v>
+        <v>2.5679459715349275</v>
       </c>
       <c r="F78" s="15">
         <f t="shared" si="1"/>
@@ -4513,7 +4513,7 @@
       <c r="D79" s="21"/>
       <c r="E79" s="22">
         <f t="shared" si="0"/>
-        <v>8.4751769916016091</v>
+        <v>8.4924954788964087</v>
       </c>
       <c r="F79" s="23">
         <f t="shared" si="1"/>
@@ -4525,7 +4525,7 @@
       </c>
       <c r="H79" s="20">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I79" s="20"/>
       <c r="J79" s="20"/>
@@ -4547,7 +4547,7 @@
       <c r="D80" s="1"/>
       <c r="E80" s="12">
         <f t="shared" si="0"/>
-        <v>2.473926239620968</v>
+        <v>2.4789815511727626</v>
       </c>
       <c r="F80" s="15">
         <f t="shared" si="1"/>
@@ -4575,7 +4575,7 @@
       <c r="D81" s="21"/>
       <c r="E81" s="22">
         <f>C81/$B$37</f>
-        <v>3.4097470286143508</v>
+        <v>3.416714630665854</v>
       </c>
       <c r="F81" s="23">
         <f>FLOOR(E81,1)</f>
@@ -4606,7 +4606,7 @@
       <c r="D82" s="1"/>
       <c r="E82" s="12">
         <f t="shared" si="0"/>
-        <v>0.92382308657039058</v>
+        <v>0.92571086052523133</v>
       </c>
       <c r="F82" s="15">
         <f t="shared" si="1"/>
@@ -4634,7 +4634,7 @@
       <c r="D83" s="21"/>
       <c r="E83" s="22">
         <f>C83/$B$37</f>
-        <v>0.46071177304289607</v>
+        <v>0.46165320836582968</v>
       </c>
       <c r="F83" s="23">
         <f t="shared" si="1"/>
@@ -4659,12 +4659,12 @@
       </c>
       <c r="C84" s="7">
         <f>SUM(C41:C83)</f>
-        <v>292811000</v>
+        <v>292211000</v>
       </c>
       <c r="D84" s="7"/>
       <c r="E84" s="7">
         <f>SUM(E41:E83)</f>
-        <v>702.61184883574697</v>
+        <v>702.60492536347647</v>
       </c>
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
@@ -4680,11 +4680,11 @@
       </c>
       <c r="B86" s="12">
         <f>$C$84/B32</f>
-        <v>68.213644911456797</v>
+        <v>68.073868103389913</v>
       </c>
       <c r="C86" s="12">
         <f>$C$84/C32</f>
-        <v>63.417513287445935</v>
+        <v>63.287564248740189</v>
       </c>
       <c r="I86" s="1"/>
     </row>
@@ -4714,7 +4714,7 @@
       </c>
       <c r="C91" s="1">
         <f>C46+C49+C53+C54+C72+C45+C51</f>
-        <v>45329000</v>
+        <v>44729000</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -4782,7 +4782,7 @@
     <row r="97" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C97" s="1">
         <f>SUM(C91:C96)</f>
-        <v>292811000</v>
+        <v>292211000</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -5273,23 +5273,23 @@
       </c>
       <c r="I111" s="11">
         <f t="shared" si="6"/>
-        <v>22473898</v>
+        <v>21691898</v>
       </c>
       <c r="J111" s="11">
         <f t="shared" si="4"/>
-        <v>3419941</v>
+        <v>3300941</v>
       </c>
       <c r="K111" s="11">
         <f t="shared" si="4"/>
-        <v>2270381</v>
+        <v>2191381</v>
       </c>
       <c r="L111" s="11">
         <f t="shared" si="4"/>
-        <v>86217</v>
+        <v>83217</v>
       </c>
       <c r="M111" s="11">
         <f t="shared" si="4"/>
-        <v>488563.00000000006</v>
+        <v>471563.00000000006</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -5405,23 +5405,23 @@
       </c>
       <c r="I114" s="11">
         <f t="shared" si="6"/>
-        <v>815661</v>
+        <v>1200861</v>
       </c>
       <c r="J114" s="11">
         <f t="shared" si="4"/>
-        <v>5929</v>
+        <v>8729</v>
       </c>
       <c r="K114" s="11">
         <f t="shared" si="4"/>
-        <v>20328</v>
+        <v>29928</v>
       </c>
       <c r="L114" s="11">
         <f t="shared" si="4"/>
-        <v>1694</v>
+        <v>2494</v>
       </c>
       <c r="M114" s="11">
         <f t="shared" si="4"/>
-        <v>3388</v>
+        <v>4988</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -6548,7 +6548,7 @@
         <v>1</v>
       </c>
       <c r="I140" s="11">
-        <f t="shared" si="6"/>
+        <f>B140*$C80</f>
         <v>730979</v>
       </c>
       <c r="J140" s="11">
@@ -6706,23 +6706,23 @@
       </c>
       <c r="B144" s="30">
         <f>I144/$N144</f>
-        <v>0.68629126262480866</v>
+        <v>0.68634251104708854</v>
       </c>
       <c r="C144" s="30">
         <f t="shared" ref="C144:G144" si="11">J144/$N144</f>
-        <v>0.21856331618617766</v>
+        <v>0.21861443877703959</v>
       </c>
       <c r="D144" s="30">
         <f t="shared" si="11"/>
-        <v>7.3019288800628537E-2</v>
+        <v>7.2931716999118823E-2</v>
       </c>
       <c r="E144" s="30">
         <f t="shared" si="11"/>
-        <v>7.2447624352437595E-3</v>
+        <v>7.2521096698946871E-3</v>
       </c>
       <c r="F144" s="30">
         <f t="shared" si="11"/>
-        <v>1.488136995314133E-2</v>
+        <v>1.485922350685835E-2</v>
       </c>
       <c r="G144" s="30">
         <f t="shared" si="11"/>
@@ -6730,27 +6730,27 @@
       </c>
       <c r="I144" s="28">
         <f>SUM(I101:I143)</f>
-        <v>200945661</v>
+        <v>200548861</v>
       </c>
       <c r="J144" s="28">
         <f t="shared" ref="J144:M144" si="12">SUM(J101:J143)</f>
-        <v>63995205</v>
+        <v>63879005</v>
       </c>
       <c r="K144" s="28">
         <f t="shared" si="12"/>
-        <v>21380003</v>
+        <v>21310603</v>
       </c>
       <c r="L144" s="28">
         <f>SUM(L101:L143)</f>
-        <v>2121262</v>
+        <v>2119062</v>
       </c>
       <c r="M144" s="28">
         <f t="shared" si="12"/>
-        <v>4357256</v>
+        <v>4341856</v>
       </c>
       <c r="N144" s="28">
         <f>SUM(I144:M144)</f>
-        <v>292799387</v>
+        <v>292199387</v>
       </c>
     </row>
     <row r="145" spans="1:5" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>

--- a/obsidian-notes/spreadsheets/area.xlsx
+++ b/obsidian-notes/spreadsheets/area.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sharm\iCloudDrive\iCloud~md~obsidian\Ishan's notes\Spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED1A5BD-8CD7-456C-B714-F21B2505DF3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C15DAB0-FBE6-45F3-A4DC-02BE5705780A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" activeTab="3" xr2:uid="{94B94BC7-FBC8-4BAC-A974-CA3E4662C848}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" activeTab="5" xr2:uid="{94B94BC7-FBC8-4BAC-A974-CA3E4662C848}"/>
   </bookViews>
   <sheets>
     <sheet name="france" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,8 @@
     <sheet name="batavian republic" sheetId="18" r:id="rId3"/>
     <sheet name="united states" sheetId="2" r:id="rId4"/>
     <sheet name="buenaventura" sheetId="4" r:id="rId5"/>
-    <sheet name="China" sheetId="21" r:id="rId6"/>
+    <sheet name="mexico" sheetId="22" r:id="rId6"/>
+    <sheet name="China" sheetId="21" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="354">
   <si>
     <t>OTL Metro France</t>
   </si>
@@ -1082,6 +1083,27 @@
   </si>
   <si>
     <t>Transbaikal</t>
+  </si>
+  <si>
+    <t>OTL Mexico</t>
+  </si>
+  <si>
+    <t>(-)Northern Mexico</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Yucatan State</t>
+  </si>
+  <si>
+    <t>Campeche</t>
+  </si>
+  <si>
+    <t>Quintana Roo</t>
+  </si>
+  <si>
+    <t>(-)Yucatan</t>
   </si>
 </sst>
 </file>
@@ -2778,7 +2800,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C745E12-030D-4421-A6DC-982053D4A77E}">
   <dimension ref="A1:N202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="93" workbookViewId="0">
+    <sheetView zoomScale="93" workbookViewId="0">
       <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
@@ -8241,6 +8263,90 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CE5C1E8-034C-4708-916A-8C982E1C82B4}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="2" max="2" width="9.20703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1972550</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>348</v>
+      </c>
+      <c r="B3" s="1">
+        <f>-buenaventura!B2</f>
+        <v>-1054549</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C4" t="s">
+        <v>350</v>
+      </c>
+      <c r="D4" s="1">
+        <v>39524</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C5" t="s">
+        <v>351</v>
+      </c>
+      <c r="D5" s="1">
+        <v>57507</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C6" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="D6" s="31">
+        <v>44705.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="B7" s="6">
+        <f>-SUM(D4:D6)</f>
+        <v>-141736.20000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="5">
+        <f>SUM(B2:B7)</f>
+        <v>776264.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F052C3D5-A3C0-4980-867A-FBAC00D00C62}">
   <dimension ref="A1:H36"/>
   <sheetViews>

--- a/obsidian-notes/spreadsheets/area.xlsx
+++ b/obsidian-notes/spreadsheets/area.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sharm\iCloudDrive\iCloud~md~obsidian\Ishan's notes\Spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C15DAB0-FBE6-45F3-A4DC-02BE5705780A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88740BE4-4002-480D-BD35-2A4B12254292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" activeTab="5" xr2:uid="{94B94BC7-FBC8-4BAC-A974-CA3E4662C848}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" firstSheet="2" activeTab="7" xr2:uid="{94B94BC7-FBC8-4BAC-A974-CA3E4662C848}"/>
   </bookViews>
   <sheets>
     <sheet name="france" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="buenaventura" sheetId="4" r:id="rId5"/>
     <sheet name="mexico" sheetId="22" r:id="rId6"/>
     <sheet name="China" sheetId="21" r:id="rId7"/>
+    <sheet name="new zealand" sheetId="23" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="367">
   <si>
     <t>OTL Metro France</t>
   </si>
@@ -1104,6 +1105,45 @@
   </si>
   <si>
     <t>(-)Yucatan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North Island </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great Barrier Island </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Waiheke Island </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Makatana Island </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Little Barrier Island </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rangitoto Island </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kapiti Island </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kawau Island </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ponui Island </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great Mercury Island </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motutapu Island </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mayor Island </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motiti Island </t>
   </si>
 </sst>
 </file>
@@ -1196,7 +1236,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1232,6 +1272,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -8266,7 +8308,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CE5C1E8-034C-4708-916A-8C982E1C82B4}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -8663,4 +8705,150 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7960FEA7-DBE6-4CF3-9F6A-52AE97FDD8BB}">
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="33" t="s">
+        <v>354</v>
+      </c>
+      <c r="B1" s="1">
+        <v>113729</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="33" t="s">
+        <v>355</v>
+      </c>
+      <c r="B2">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="33" t="s">
+        <v>356</v>
+      </c>
+      <c r="B3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="33" t="s">
+        <v>357</v>
+      </c>
+      <c r="B4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="33" t="s">
+        <v>358</v>
+      </c>
+      <c r="B5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="33" t="s">
+        <v>359</v>
+      </c>
+      <c r="B6">
+        <v>23.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="33" t="s">
+        <v>360</v>
+      </c>
+      <c r="B7">
+        <v>19.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="33" t="s">
+        <v>361</v>
+      </c>
+      <c r="B8">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="33" t="s">
+        <v>362</v>
+      </c>
+      <c r="B9">
+        <v>17.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="33" t="s">
+        <v>363</v>
+      </c>
+      <c r="B10">
+        <v>17.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="33" t="s">
+        <v>364</v>
+      </c>
+      <c r="B11">
+        <v>15.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="33" t="s">
+        <v>365</v>
+      </c>
+      <c r="B12">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="34" t="s">
+        <v>366</v>
+      </c>
+      <c r="B13" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="5">
+        <f>SUM(B1:B13)</f>
+        <v>114328.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1520000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="8">
+        <f>B16/B14</f>
+        <v>13.294987789603319</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/obsidian-notes/spreadsheets/area.xlsx
+++ b/obsidian-notes/spreadsheets/area.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sharm\iCloudDrive\iCloud~md~obsidian\Ishan's notes\Spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88740BE4-4002-480D-BD35-2A4B12254292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EBAF676B-80DA-49BC-B07B-A9DDC181172F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" firstSheet="2" activeTab="7" xr2:uid="{94B94BC7-FBC8-4BAC-A974-CA3E4662C848}"/>
   </bookViews>
@@ -23,6 +23,7 @@
     <sheet name="new zealand" sheetId="23" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="368">
   <si>
     <t>OTL Metro France</t>
   </si>
@@ -1144,6 +1145,9 @@
   </si>
   <si>
     <t xml:space="preserve">Motiti Island </t>
+  </si>
+  <si>
+    <t>Small islands</t>
   </si>
 </sst>
 </file>
@@ -1269,11 +1273,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1603,10 +1607,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="32"/>
+      <c r="B1" s="34"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
@@ -2067,7 +2071,7 @@
         <v>0.36399999999999999</v>
       </c>
       <c r="C42" s="15">
-        <f>B$37*B42</f>
+        <f t="shared" ref="C42:C51" si="0">B$37*B42</f>
         <v>47802023.723999999</v>
       </c>
     </row>
@@ -2079,7 +2083,7 @@
         <v>0.159</v>
       </c>
       <c r="C43" s="15">
-        <f>B$37*B43</f>
+        <f t="shared" si="0"/>
         <v>20880554.319000002</v>
       </c>
     </row>
@@ -2091,7 +2095,7 @@
         <v>0.106</v>
       </c>
       <c r="C44" s="15">
-        <f>B$37*B44</f>
+        <f t="shared" si="0"/>
         <v>13920369.546</v>
       </c>
     </row>
@@ -2103,7 +2107,7 @@
         <v>8.7999999999999995E-2</v>
       </c>
       <c r="C45" s="15">
-        <f>B$37*B45</f>
+        <f t="shared" si="0"/>
         <v>11556533.207999999</v>
       </c>
     </row>
@@ -2115,7 +2119,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
       <c r="C46" s="15">
-        <f t="shared" ref="C46:C50" si="0">B$37*B46</f>
+        <f t="shared" si="0"/>
         <v>6828860.5319999997</v>
       </c>
     </row>
@@ -2176,16 +2180,16 @@
         <v>1</v>
       </c>
       <c r="C51" s="15">
-        <f>B$37*B51</f>
+        <f t="shared" si="0"/>
         <v>131324241</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="32" t="s">
+      <c r="A56" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="B56" s="32"/>
-      <c r="C56" s="32"/>
+      <c r="B56" s="34"/>
+      <c r="C56" s="34"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
@@ -2219,7 +2223,7 @@
         <v>0.373</v>
       </c>
       <c r="C59" s="15">
-        <f t="shared" ref="C59:C62" si="1">B59*$C$63</f>
+        <f>B59*$C$63</f>
         <v>5192297.8406579997</v>
       </c>
     </row>
@@ -2231,7 +2235,7 @@
         <v>7.5999999999999998E-2</v>
       </c>
       <c r="C60" s="15">
-        <f t="shared" si="1"/>
+        <f>B60*$C$63</f>
         <v>1057948.085496</v>
       </c>
     </row>
@@ -2243,7 +2247,7 @@
         <v>5.8999999999999997E-2</v>
       </c>
       <c r="C61" s="15">
-        <f t="shared" si="1"/>
+        <f>B61*$C$63</f>
         <v>821301.80321399996</v>
       </c>
     </row>
@@ -2255,7 +2259,7 @@
         <v>6.0999999999999999E-2</v>
       </c>
       <c r="C62" s="15">
-        <f t="shared" si="1"/>
+        <f>B62*$C$63</f>
         <v>849142.54230600002</v>
       </c>
     </row>
@@ -2842,7 +2846,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C745E12-030D-4421-A6DC-982053D4A77E}">
   <dimension ref="A1:N202"/>
   <sheetViews>
-    <sheetView zoomScale="93" workbookViewId="0">
+    <sheetView topLeftCell="A84" zoomScale="93" workbookViewId="0">
       <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
@@ -6769,11 +6773,11 @@
         <v>22</v>
       </c>
       <c r="B144" s="30">
-        <f>I144/$N144</f>
+        <f t="shared" ref="B144:G144" si="11">I144/$N144</f>
         <v>0.68634251104708854</v>
       </c>
       <c r="C144" s="30">
-        <f t="shared" ref="C144:G144" si="11">J144/$N144</f>
+        <f t="shared" si="11"/>
         <v>0.21861443877703959</v>
       </c>
       <c r="D144" s="30">
@@ -6797,11 +6801,11 @@
         <v>200548861</v>
       </c>
       <c r="J144" s="28">
-        <f t="shared" ref="J144:M144" si="12">SUM(J101:J143)</f>
+        <f>SUM(J101:J143)</f>
         <v>63879005</v>
       </c>
       <c r="K144" s="28">
-        <f t="shared" si="12"/>
+        <f>SUM(K101:K143)</f>
         <v>21310603</v>
       </c>
       <c r="L144" s="28">
@@ -6809,7 +6813,7 @@
         <v>2119062</v>
       </c>
       <c r="M144" s="28">
-        <f t="shared" si="12"/>
+        <f>SUM(M101:M143)</f>
         <v>4341856</v>
       </c>
       <c r="N144" s="28">
@@ -8709,142 +8713,152 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7960FEA7-DBE6-4CF3-9F6A-52AE97FDD8BB}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="32" t="s">
         <v>354</v>
       </c>
       <c r="B1" s="1">
         <v>113729</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="33" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D2" s="32" t="s">
         <v>355</v>
       </c>
-      <c r="B2">
+      <c r="E2">
         <v>285</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="33" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D3" s="32" t="s">
         <v>356</v>
       </c>
-      <c r="B3">
+      <c r="E3">
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="33" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D4" s="32" t="s">
         <v>357</v>
       </c>
-      <c r="B4">
+      <c r="E4">
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="33" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D5" s="32" t="s">
         <v>358</v>
       </c>
-      <c r="B5">
+      <c r="E5">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="33" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D6" s="32" t="s">
         <v>359</v>
       </c>
-      <c r="B6">
+      <c r="E6">
         <v>23.1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="33" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D7" s="32" t="s">
         <v>360</v>
       </c>
-      <c r="B7">
+      <c r="E7">
         <v>19.7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="33" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D8" s="32" t="s">
         <v>361</v>
       </c>
-      <c r="B8">
+      <c r="E8">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="33" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D9" s="32" t="s">
         <v>362</v>
       </c>
-      <c r="B9">
+      <c r="E9">
         <v>17.7</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="33" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D10" s="32" t="s">
         <v>363</v>
       </c>
-      <c r="B10">
+      <c r="E10">
         <v>17.2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="33" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D11" s="32" t="s">
         <v>364</v>
       </c>
-      <c r="B11">
+      <c r="E11">
         <v>15.1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="33" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D12" s="32" t="s">
         <v>365</v>
       </c>
-      <c r="B12">
+      <c r="E12">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="34" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D13" s="33" t="s">
         <v>366</v>
       </c>
-      <c r="B13" s="3">
+      <c r="E13" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A14" s="4" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
+        <v>367</v>
+      </c>
+      <c r="B14">
+        <f>SUM(E2:E13)</f>
+        <v>599.80000000000007</v>
+      </c>
+      <c r="D14" s="32"/>
+    </row>
+    <row r="15" spans="1:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A15" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="5">
-        <f>SUM(B1:B13)</f>
+      <c r="B15" s="5">
+        <f>SUM(B1:B14)</f>
         <v>114328.8</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" t="s">
+    <row r="16" spans="1:5" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B17" s="1">
         <v>1520000</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" t="s">
         <v>64</v>
       </c>
-      <c r="B18" s="8">
-        <f>B16/B14</f>
+      <c r="B19" s="8">
+        <f>B17/B15</f>
         <v>13.294987789603319</v>
       </c>
     </row>

--- a/obsidian-notes/spreadsheets/area.xlsx
+++ b/obsidian-notes/spreadsheets/area.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sharm\iCloudDrive\iCloud~md~obsidian\Ishan's notes\Spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EBAF676B-80DA-49BC-B07B-A9DDC181172F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80BE04C3-3A0F-4BD1-901D-CD53CA676C9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" firstSheet="2" activeTab="7" xr2:uid="{94B94BC7-FBC8-4BAC-A974-CA3E4662C848}"/>
   </bookViews>
